--- a/Red Team Data.xlsx
+++ b/Red Team Data.xlsx
@@ -3415,13 +3415,13 @@
         <v>0.0</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>70.56109725687725</v>
+        <v>70.56109725687728</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>34.60317460335194</v>
+        <v>34.603174603351924</v>
       </c>
       <c r="G2" t="n" s="0">
-        <v>22.757936507914348</v>
+        <v>22.75793650791434</v>
       </c>
       <c r="H2" t="n" s="0">
         <v>0.0</v>
@@ -3444,13 +3444,13 @@
         <v>0.0</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>81.76704545463811</v>
+        <v>81.7670454546381</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>46.8911564625177</v>
+        <v>46.89115646251769</v>
       </c>
       <c r="G3" t="n" s="0">
-        <v>33.44897959201044</v>
+        <v>33.448979592010446</v>
       </c>
       <c r="H3" t="n" s="0">
         <v>0.0</v>
@@ -3473,7 +3473,7 @@
         <v>0.0</v>
       </c>
       <c r="E4" t="n" s="0">
-        <v>68.96774193562257</v>
+        <v>68.96774193562256</v>
       </c>
       <c r="F4" t="n" s="0">
         <v>26.5</v>
@@ -3502,13 +3502,13 @@
         <v>0.0</v>
       </c>
       <c r="E5" t="n" s="0">
-        <v>60.57954545464293</v>
+        <v>60.579545454642926</v>
       </c>
       <c r="F5" t="n" s="0">
-        <v>37.83219178093086</v>
+        <v>37.832191780930856</v>
       </c>
       <c r="G5" t="n" s="0">
-        <v>22.571917808179144</v>
+        <v>22.57191780817914</v>
       </c>
       <c r="H5" t="n" s="0">
         <v>0.0</v>
@@ -3531,7 +3531,7 @@
         <v>0.0</v>
       </c>
       <c r="E6" t="n" s="0">
-        <v>93.22368421041327</v>
+        <v>93.22368421041328</v>
       </c>
       <c r="F6" t="n" s="0">
         <v>48.024691357850564</v>
@@ -3566,7 +3566,7 @@
         <v>26.35869565216829</v>
       </c>
       <c r="G7" t="n" s="0">
-        <v>28.71739130433658</v>
+        <v>28.717391304336573</v>
       </c>
       <c r="H7" t="n" s="0">
         <v>0.0</v>
@@ -3592,7 +3592,7 @@
         <v>61.0</v>
       </c>
       <c r="F8" t="n" s="0">
-        <v>38.16666666666667</v>
+        <v>38.166666666666664</v>
       </c>
       <c r="G8" t="n" s="0">
         <v>20.166666666666664</v>
@@ -3618,7 +3618,7 @@
         <v>0.0</v>
       </c>
       <c r="E9" t="n" s="0">
-        <v>89.1728395059614</v>
+        <v>89.17283950596142</v>
       </c>
       <c r="F9" t="n" s="0">
         <v>48.024691357850564</v>
@@ -3647,13 +3647,13 @@
         <v>0.0</v>
       </c>
       <c r="E10" t="n" s="0">
-        <v>74.01414141434437</v>
+        <v>74.0141414143444</v>
       </c>
       <c r="F10" t="n" s="0">
-        <v>32.973684210591465</v>
+        <v>32.97368421059146</v>
       </c>
       <c r="G10" t="n" s="0">
-        <v>26.69736842111582</v>
+        <v>26.69736842111581</v>
       </c>
       <c r="H10" t="n" s="0">
         <v>0.0</v>

--- a/Red Team Data.xlsx
+++ b/Red Team Data.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Desktop\FTCStats\FTCStats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A2227F-1C3A-4C6F-A395-EEE5D6D3CBF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37629D0-7909-41A6-940A-77698667DC97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3792" yWindow="2400" windowWidth="17280" windowHeight="8880" xr2:uid="{943F8BFE-BB93-4FCB-9D8B-2434F109755A}"/>
+    <workbookView xWindow="3792" yWindow="2400" windowWidth="17280" windowHeight="8880" activeTab="3" xr2:uid="{943F8BFE-BB93-4FCB-9D8B-2434F109755A}"/>
   </bookViews>
   <sheets>
     <sheet name="Match Data" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="3" r:id="rId2"/>
     <sheet name="Per Member Data" sheetId="4" r:id="rId3"/>
+    <sheet name="Drive Team Data" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="55">
   <si>
     <t>Cyrus</t>
   </si>
@@ -194,6 +195,15 @@
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>B+M</t>
+  </si>
+  <si>
+    <t>E+Z</t>
+  </si>
+  <si>
+    <t>L+C</t>
   </si>
 </sst>
 </file>
@@ -1662,8 +1672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E71918B-9D42-46BC-B578-CF08432FB725}">
   <dimension ref="A1:Y33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="108" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I27" sqref="A27:I27"/>
+    <sheetView topLeftCell="A18" zoomScale="108" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3415,13 +3425,13 @@
         <v>0.0</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>70.56109725687728</v>
+        <v>70.55813953490454</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>34.603174603351924</v>
+        <v>34.57613168743349</v>
       </c>
       <c r="G2" t="n" s="0">
-        <v>22.75793650791434</v>
+        <v>22.76131687240414</v>
       </c>
       <c r="H2" t="n" s="0">
         <v>0.0</v>
@@ -3444,13 +3454,13 @@
         <v>0.0</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>81.7670454546381</v>
+        <v>81.75294117656986</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>46.89115646251769</v>
+        <v>46.90140845063206</v>
       </c>
       <c r="G3" t="n" s="0">
-        <v>33.448979592010446</v>
+        <v>33.42253521145376</v>
       </c>
       <c r="H3" t="n" s="0">
         <v>0.0</v>
@@ -3473,7 +3483,7 @@
         <v>0.0</v>
       </c>
       <c r="E4" t="n" s="0">
-        <v>68.96774193562256</v>
+        <v>68.94666666681476</v>
       </c>
       <c r="F4" t="n" s="0">
         <v>26.5</v>
@@ -3502,13 +3512,13 @@
         <v>0.0</v>
       </c>
       <c r="E5" t="n" s="0">
-        <v>60.579545454642926</v>
+        <v>60.564705882457396</v>
       </c>
       <c r="F5" t="n" s="0">
-        <v>37.832191780930856</v>
+        <v>37.815602836996234</v>
       </c>
       <c r="G5" t="n" s="0">
-        <v>22.57191780817914</v>
+        <v>22.578014184354227</v>
       </c>
       <c r="H5" t="n" s="0">
         <v>0.0</v>
@@ -3531,13 +3541,13 @@
         <v>0.0</v>
       </c>
       <c r="E6" t="n" s="0">
-        <v>93.22368421041328</v>
+        <v>93.24090909078771</v>
       </c>
       <c r="F6" t="n" s="0">
-        <v>48.024691357850564</v>
+        <v>48.051282051094276</v>
       </c>
       <c r="G6" t="n" s="0">
-        <v>41.148148148110835</v>
+        <v>41.153846153805915</v>
       </c>
       <c r="H6" t="n" s="0">
         <v>0.0</v>
@@ -3560,13 +3570,13 @@
         <v>0.0</v>
       </c>
       <c r="E7" t="n" s="0">
-        <v>71.03289473687948</v>
+        <v>71.02721088439371</v>
       </c>
       <c r="F7" t="n" s="0">
-        <v>26.35869565216829</v>
+        <v>26.35955056179175</v>
       </c>
       <c r="G7" t="n" s="0">
-        <v>28.717391304336573</v>
+        <v>28.71910112358349</v>
       </c>
       <c r="H7" t="n" s="0">
         <v>0.0</v>
@@ -3592,7 +3602,7 @@
         <v>61.0</v>
       </c>
       <c r="F8" t="n" s="0">
-        <v>38.166666666666664</v>
+        <v>38.16666666666667</v>
       </c>
       <c r="G8" t="n" s="0">
         <v>20.166666666666664</v>
@@ -3618,13 +3628,13 @@
         <v>0.0</v>
       </c>
       <c r="E9" t="n" s="0">
-        <v>89.17283950596142</v>
+        <v>89.20512820490019</v>
       </c>
       <c r="F9" t="n" s="0">
-        <v>48.024691357850564</v>
+        <v>48.051282051094276</v>
       </c>
       <c r="G9" t="n" s="0">
-        <v>41.148148148110835</v>
+        <v>41.153846153805915</v>
       </c>
       <c r="H9" t="n" s="0">
         <v>0.0</v>
@@ -3647,19 +3657,121 @@
         <v>0.0</v>
       </c>
       <c r="E10" t="n" s="0">
-        <v>74.0141414143444</v>
+        <v>73.98329853883885</v>
       </c>
       <c r="F10" t="n" s="0">
-        <v>32.97368421059146</v>
+        <v>32.9638009050467</v>
       </c>
       <c r="G10" t="n" s="0">
-        <v>26.69736842111581</v>
+        <v>26.687782805497104</v>
       </c>
       <c r="H10" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="M10" t="s" s="0">
         <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A2:K4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="n" s="0">
+        <v>64.85714285714286</v>
+      </c>
+      <c r="B2" t="n" s="0">
+        <v>37.08666666666666</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>22.06</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K2" t="s" s="0">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="n" s="0">
+        <v>87.63333333333334</v>
+      </c>
+      <c r="B3" t="n" s="0">
+        <v>47.040000000000006</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>38.28</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K3" t="s" s="0">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="n" s="0">
+        <v>71.3075</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <v>27.790476190476188</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>28.46666666666667</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K4" t="s" s="0">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Red Team Data.xlsx
+++ b/Red Team Data.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Desktop\FTCStats\FTCStats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37629D0-7909-41A6-940A-77698667DC97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F75982-A1CC-404D-AF8D-1652AB1CDB15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3792" yWindow="2400" windowWidth="17280" windowHeight="8880" activeTab="3" xr2:uid="{943F8BFE-BB93-4FCB-9D8B-2434F109755A}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="59">
   <si>
     <t>Cyrus</t>
   </si>
@@ -204,13 +204,24 @@
   </si>
   <si>
     <t>L+C</t>
+  </si>
+  <si>
+    <t>wAvgtotal</t>
+  </si>
+  <si>
+    <t>wAvgtele</t>
+  </si>
+  <si>
+    <t>wAvgauto</t>
+  </si>
+  <si>
+    <t>wAvgpen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1672,14 +1683,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E71918B-9D42-46BC-B578-CF08432FB725}">
   <dimension ref="A1:Y33"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="108" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="108" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="10.0"/>
-    <col min="5" max="5" customWidth="true" width="10.6640625"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
@@ -1712,25 +1723,25 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="1">
         <v>45237</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="0">
+      <c r="F2">
         <v>106</v>
       </c>
-      <c r="I2" s="0">
+      <c r="I2">
         <v>0</v>
       </c>
       <c r="M2" s="2"/>
@@ -1743,673 +1754,673 @@
       <c r="T2" s="2"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>30</v>
       </c>
       <c r="B3" s="1">
         <v>45237</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s" s="0">
+      <c r="E3" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="0">
+      <c r="F3">
         <v>83</v>
       </c>
-      <c r="I3" s="0">
+      <c r="I3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="1">
         <v>45237</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" t="s" s="0">
+      <c r="E4" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="0">
+      <c r="F4">
         <v>89</v>
       </c>
-      <c r="I4" s="0">
+      <c r="I4">
         <v>0</v>
       </c>
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" t="s" s="0">
+      <c r="A5" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="1">
         <v>45238</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s" s="0">
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="0">
+      <c r="F5">
         <v>71</v>
       </c>
-      <c r="I5" s="0">
+      <c r="I5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" t="s" s="0">
+      <c r="A6" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="1">
         <v>45238</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="D6" t="s">
         <v>2</v>
       </c>
-      <c r="E6" t="s" s="0">
+      <c r="E6" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="0">
+      <c r="F6">
         <v>88</v>
       </c>
-      <c r="I6" s="0">
+      <c r="I6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" t="s" s="0">
+      <c r="A7" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="1">
         <v>45238</v>
       </c>
-      <c r="C7" t="s" s="0">
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s" s="0">
+      <c r="D7" t="s">
         <v>2</v>
       </c>
-      <c r="E7" t="s" s="0">
+      <c r="E7" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="0">
+      <c r="F7">
         <v>111</v>
       </c>
-      <c r="I7" s="0">
+      <c r="I7">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" t="s" s="0">
+      <c r="A8" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="1">
         <v>45238</v>
       </c>
-      <c r="C8" t="s" s="0">
+      <c r="C8" t="s">
         <v>3</v>
       </c>
-      <c r="D8" t="s" s="0">
+      <c r="D8" t="s">
         <v>9</v>
       </c>
-      <c r="E8" t="s" s="0">
+      <c r="E8" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="0">
+      <c r="F8">
         <v>34</v>
       </c>
-      <c r="I8" s="0">
+      <c r="I8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" t="s" s="0">
+      <c r="A9" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="1">
         <v>45238</v>
       </c>
-      <c r="C9" t="s" s="0">
+      <c r="C9" t="s">
         <v>3</v>
       </c>
-      <c r="D9" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s" s="0">
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="0">
+      <c r="F9">
         <v>120</v>
       </c>
-      <c r="I9" s="0">
+      <c r="I9">
         <v>0</v>
       </c>
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" t="s" s="0">
+      <c r="A10" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="1">
         <v>45238</v>
       </c>
-      <c r="C10" t="s" s="0">
+      <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="D10" t="s" s="0">
+      <c r="D10" t="s">
         <v>9</v>
       </c>
-      <c r="E10" t="s" s="0">
+      <c r="E10" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="0">
+      <c r="F10">
         <v>75</v>
       </c>
-      <c r="I10" s="0">
+      <c r="I10">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" t="s" s="0">
+      <c r="A11" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="1">
         <v>45237</v>
       </c>
-      <c r="C11" t="s" s="0">
+      <c r="C11" t="s">
         <v>4</v>
       </c>
-      <c r="D11" t="s" s="0">
+      <c r="D11" t="s">
         <v>2</v>
       </c>
-      <c r="E11" t="s" s="0">
+      <c r="E11" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="0">
+      <c r="F11">
         <v>111</v>
       </c>
-      <c r="G11" s="0">
+      <c r="G11">
         <v>66</v>
       </c>
-      <c r="H11" s="0">
+      <c r="H11">
         <v>45</v>
       </c>
-      <c r="I11" s="0">
+      <c r="I11">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" t="s" s="0">
+      <c r="A12" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="1">
         <v>45238</v>
       </c>
-      <c r="C12" t="s" s="0">
+      <c r="C12" t="s">
         <v>11</v>
       </c>
-      <c r="D12" t="s" s="0">
+      <c r="D12" t="s">
         <v>9</v>
       </c>
-      <c r="E12" t="s" s="0">
+      <c r="E12" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="0">
+      <c r="F12">
         <v>107</v>
       </c>
-      <c r="G12" s="0">
+      <c r="G12">
         <v>57</v>
       </c>
-      <c r="H12" s="0">
+      <c r="H12">
         <v>50</v>
       </c>
-      <c r="I12" s="0">
+      <c r="I12">
         <v>0</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" t="s" s="0">
+      <c r="A13" t="s">
         <v>31</v>
       </c>
       <c r="B13" s="1">
         <v>45234</v>
       </c>
-      <c r="C13" t="s" s="0">
+      <c r="C13" t="s">
         <v>4</v>
       </c>
-      <c r="D13" t="s" s="0">
+      <c r="D13" t="s">
         <v>2</v>
       </c>
-      <c r="E13" t="s" s="0">
+      <c r="E13" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="0">
+      <c r="F13">
         <v>72</v>
       </c>
-      <c r="G13" s="0">
+      <c r="G13">
         <v>44</v>
       </c>
-      <c r="H13" s="0">
+      <c r="H13">
         <v>28</v>
       </c>
-      <c r="I13" s="0">
+      <c r="I13">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" t="s" s="0">
+      <c r="A14" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="1">
         <v>45234</v>
       </c>
-      <c r="C14" t="s" s="0">
+      <c r="C14" t="s">
         <v>11</v>
       </c>
-      <c r="D14" t="s" s="0">
+      <c r="D14" t="s">
         <v>9</v>
       </c>
-      <c r="E14" t="s" s="0">
+      <c r="E14" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="0">
+      <c r="F14">
         <v>97</v>
       </c>
-      <c r="G14" s="0">
+      <c r="G14">
         <v>51</v>
       </c>
-      <c r="H14" s="0">
+      <c r="H14">
         <v>30</v>
       </c>
-      <c r="I14" s="0">
+      <c r="I14">
         <v>0</v>
       </c>
       <c r="M14" s="2"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" t="s" s="0">
+      <c r="A15" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="1">
         <v>45234</v>
       </c>
-      <c r="C15" t="s" s="0">
+      <c r="C15" t="s">
         <v>11</v>
       </c>
-      <c r="D15" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s" s="0">
+      <c r="D15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="0">
+      <c r="F15">
         <v>54</v>
       </c>
-      <c r="G15" s="0">
+      <c r="G15">
         <v>26</v>
       </c>
-      <c r="H15" s="0">
+      <c r="H15">
         <v>28</v>
       </c>
-      <c r="I15" s="0">
+      <c r="I15">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" t="s" s="0">
+      <c r="A16" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="1">
         <v>45234</v>
       </c>
-      <c r="C16" t="s" s="0">
+      <c r="C16" t="s">
         <v>4</v>
       </c>
-      <c r="D16" t="s" s="0">
+      <c r="D16" t="s">
         <v>2</v>
       </c>
-      <c r="E16" t="s" s="0">
+      <c r="E16" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="0">
+      <c r="F16">
         <v>82</v>
       </c>
-      <c r="G16" s="0">
+      <c r="G16">
         <v>32</v>
       </c>
-      <c r="H16" s="0">
+      <c r="H16">
         <v>50</v>
       </c>
-      <c r="I16" s="0">
+      <c r="I16">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A17" t="s" s="0">
+      <c r="A17" t="s">
         <v>31</v>
       </c>
       <c r="B17" s="1">
         <v>45234</v>
       </c>
-      <c r="C17" t="s" s="0">
+      <c r="C17" t="s">
         <v>11</v>
       </c>
-      <c r="D17" t="s" s="0">
+      <c r="D17" t="s">
         <v>9</v>
       </c>
-      <c r="E17" t="s" s="0">
+      <c r="E17" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="0">
+      <c r="F17">
         <v>60</v>
       </c>
-      <c r="G17" s="0">
+      <c r="G17">
         <v>40</v>
       </c>
-      <c r="H17" s="0">
+      <c r="H17">
         <v>20</v>
       </c>
-      <c r="I17" s="0">
+      <c r="I17">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A18" t="s" s="0">
+      <c r="A18" t="s">
         <v>31</v>
       </c>
       <c r="B18" s="1">
         <v>45234</v>
       </c>
-      <c r="C18" t="s" s="0">
+      <c r="C18" t="s">
         <v>11</v>
       </c>
-      <c r="D18" t="s" s="0">
+      <c r="D18" t="s">
         <v>9</v>
       </c>
-      <c r="E18" t="s" s="0">
+      <c r="E18" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="0">
+      <c r="F18">
         <v>56</v>
       </c>
-      <c r="G18" s="0">
+      <c r="G18">
         <v>48</v>
       </c>
-      <c r="H18" s="0">
+      <c r="H18">
         <v>8</v>
       </c>
-      <c r="I18" s="0">
+      <c r="I18">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A19" t="s" s="0">
+      <c r="A19" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="1">
         <v>45234</v>
       </c>
-      <c r="C19" t="s" s="0">
+      <c r="C19" t="s">
         <v>11</v>
       </c>
-      <c r="D19" t="s" s="0">
+      <c r="D19" t="s">
         <v>9</v>
       </c>
-      <c r="E19" t="s" s="0">
+      <c r="E19" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="0">
+      <c r="F19">
         <v>60</v>
       </c>
-      <c r="G19" s="0">
+      <c r="G19">
         <v>30</v>
       </c>
-      <c r="H19" s="0">
+      <c r="H19">
         <v>30</v>
       </c>
-      <c r="I19" s="0">
+      <c r="I19">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A20" t="s" s="0">
+      <c r="A20" t="s">
         <v>31</v>
       </c>
       <c r="B20" s="1">
         <v>45234</v>
       </c>
-      <c r="C20" t="s" s="0">
+      <c r="C20" t="s">
         <v>11</v>
       </c>
-      <c r="D20" t="s" s="0">
+      <c r="D20" t="s">
         <v>9</v>
       </c>
-      <c r="E20" t="s" s="0">
+      <c r="E20" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="0">
+      <c r="F20">
         <v>39</v>
       </c>
-      <c r="G20" s="0">
+      <c r="G20">
         <v>34</v>
       </c>
-      <c r="H20" s="0">
+      <c r="H20">
         <v>5</v>
       </c>
-      <c r="I20" s="0">
+      <c r="I20">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A21" t="s" s="0">
+      <c r="A21" t="s">
         <v>31</v>
       </c>
       <c r="B21" s="1">
         <v>45241</v>
       </c>
-      <c r="C21" t="s" s="0">
+      <c r="C21" t="s">
         <v>11</v>
       </c>
-      <c r="D21" t="s" s="0">
+      <c r="D21" t="s">
         <v>9</v>
       </c>
-      <c r="E21" t="s" s="0">
+      <c r="E21" t="s">
         <v>1</v>
       </c>
-      <c r="F21" s="0">
+      <c r="F21">
         <v>32</v>
       </c>
-      <c r="G21" s="0">
+      <c r="G21">
         <v>4</v>
       </c>
-      <c r="H21" s="0">
+      <c r="H21">
         <v>28</v>
       </c>
-      <c r="I21" s="0">
-        <v>0</v>
-      </c>
-      <c r="K21" t="s" s="0">
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A22" t="s" s="0">
+      <c r="A22" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="1">
         <v>45241</v>
       </c>
-      <c r="C22" t="s" s="0">
+      <c r="C22" t="s">
         <v>4</v>
       </c>
-      <c r="D22" t="s" s="0">
+      <c r="D22" t="s">
         <v>9</v>
       </c>
-      <c r="E22" t="s" s="0">
+      <c r="E22" t="s">
         <v>1</v>
       </c>
-      <c r="F22" s="0">
+      <c r="F22">
         <v>83</v>
       </c>
-      <c r="G22" s="0">
+      <c r="G22">
         <v>55</v>
       </c>
-      <c r="H22" s="0">
+      <c r="H22">
         <v>28</v>
       </c>
-      <c r="I22" s="0">
-        <v>0</v>
-      </c>
-      <c r="K22" t="s" s="0">
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="K22" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A23" t="s" s="0">
+      <c r="A23" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="1">
         <v>45241</v>
       </c>
-      <c r="C23" t="s" s="0">
+      <c r="C23" t="s">
         <v>3</v>
       </c>
-      <c r="D23" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="E23" t="s" s="0">
+      <c r="D23" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
         <v>1</v>
       </c>
-      <c r="F23" s="0">
+      <c r="F23">
         <v>56</v>
       </c>
-      <c r="G23" s="0">
+      <c r="G23">
         <v>26</v>
       </c>
-      <c r="H23" s="0">
+      <c r="H23">
         <v>30</v>
       </c>
-      <c r="I23" s="0">
-        <v>0</v>
-      </c>
-      <c r="K23" t="s" s="0">
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="K23" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A24" t="s" s="0">
+      <c r="A24" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="1">
         <v>45241</v>
       </c>
-      <c r="C24" t="s" s="0">
+      <c r="C24" t="s">
         <v>11</v>
       </c>
-      <c r="D24" t="s" s="0">
+      <c r="D24" t="s">
         <v>9</v>
       </c>
-      <c r="E24" t="s" s="0">
+      <c r="E24" t="s">
         <v>1</v>
       </c>
-      <c r="F24" s="0">
+      <c r="F24">
         <v>33</v>
       </c>
-      <c r="G24" s="0">
+      <c r="G24">
         <v>28</v>
       </c>
-      <c r="H24" s="0">
+      <c r="H24">
         <v>5</v>
       </c>
-      <c r="I24" s="0">
-        <v>0</v>
-      </c>
-      <c r="K24" t="s" s="0">
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="K24" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A25" t="s" s="0">
+      <c r="A25" t="s">
         <v>31</v>
       </c>
       <c r="B25" s="1">
         <v>45241</v>
       </c>
-      <c r="C25" t="s" s="0">
+      <c r="C25" t="s">
         <v>4</v>
       </c>
-      <c r="D25" t="s" s="0">
+      <c r="D25" t="s">
         <v>9</v>
       </c>
-      <c r="E25" t="s" s="0">
+      <c r="E25" t="s">
         <v>1</v>
       </c>
-      <c r="F25" s="0">
+      <c r="F25">
         <v>56</v>
       </c>
-      <c r="G25" s="0">
+      <c r="G25">
         <v>36</v>
       </c>
-      <c r="H25" s="0">
+      <c r="H25">
         <v>20</v>
       </c>
-      <c r="I25" s="0">
-        <v>0</v>
-      </c>
-      <c r="K25" t="s" s="0">
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="K25" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A26" t="s" s="0">
+      <c r="A26" t="s">
         <v>31</v>
       </c>
       <c r="B26" s="1">
         <v>45241</v>
       </c>
-      <c r="C26" t="s" s="0">
+      <c r="C26" t="s">
         <v>3</v>
       </c>
-      <c r="D26" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="E26" t="s" s="0">
+      <c r="D26" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
         <v>1</v>
       </c>
-      <c r="F26" s="0">
+      <c r="F26">
         <v>55</v>
       </c>
-      <c r="G26" s="0">
+      <c r="G26">
         <v>27</v>
       </c>
-      <c r="H26" s="0">
+      <c r="H26">
         <v>28</v>
       </c>
-      <c r="I26" s="0">
-        <v>0</v>
-      </c>
-      <c r="K26" t="s" s="0">
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="K26" t="s">
         <v>50</v>
       </c>
       <c r="T26" s="5"/>
@@ -2426,36 +2437,36 @@
       <c r="W31" s="5"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A32" t="s" s="0">
+      <c r="A32" t="s">
         <v>51</v>
       </c>
-      <c r="F32" s="0">
+      <c r="F32">
         <v>10</v>
       </c>
-      <c r="G32" s="0">
+      <c r="G32">
         <v>10</v>
       </c>
-      <c r="H32" s="0">
+      <c r="H32">
         <v>56</v>
       </c>
-      <c r="I32" s="0">
+      <c r="I32">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" t="s" s="0">
+      <c r="A33" t="s">
         <v>51</v>
       </c>
-      <c r="F33" s="0">
+      <c r="F33">
         <v>10</v>
       </c>
-      <c r="G33" s="0">
+      <c r="G33">
         <v>10</v>
       </c>
-      <c r="H33" s="0">
+      <c r="H33">
         <v>56</v>
       </c>
-      <c r="I33" s="0">
+      <c r="I33">
         <v>0</v>
       </c>
     </row>
@@ -2479,8 +2490,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="10.0"/>
-    <col min="5" max="5" customWidth="true" width="10.6640625"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
@@ -2512,7 +2523,7 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
-      <c r="V2" t="s" s="0">
+      <c r="V2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2520,16 +2531,16 @@
       <c r="A3" s="1">
         <v>45237</v>
       </c>
-      <c r="B3" s="0">
+      <c r="B3">
         <v>106</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s" s="0">
+      <c r="E3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2537,25 +2548,25 @@
       <c r="A4" s="1">
         <v>45237</v>
       </c>
-      <c r="B4" s="0">
+      <c r="B4">
         <v>83</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" t="s" s="0">
+      <c r="E4" t="s">
         <v>1</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N4" t="s" s="0">
+      <c r="N4" t="s">
         <v>23</v>
       </c>
-      <c r="O4" t="s" s="0">
+      <c r="O4" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2563,26 +2574,26 @@
       <c r="A5" s="1">
         <v>45237</v>
       </c>
-      <c r="B5" s="0">
+      <c r="B5">
         <v>89</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="D5" t="s">
         <v>2</v>
       </c>
-      <c r="E5" t="s" s="0">
+      <c r="E5" t="s">
         <v>1</v>
       </c>
-      <c r="M5" t="s" s="0">
+      <c r="M5" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="0">
+      <c r="N5">
         <f>(SUMIF($C$3:$C$100, M5, $B$3:$B$100)/COUNTIF($C$3:$C$100, M5))</f>
         <v>88.083333333333329</v>
       </c>
-      <c r="O5" s="0">
+      <c r="O5">
         <f>(SUMIF($C$3:$C$100, M5, $F$3:$F$100)/COUNTIF($C$13:$C$100, M5))</f>
         <v>42.428571428571431</v>
       </c>
@@ -2591,26 +2602,26 @@
       <c r="A6" s="1">
         <v>45238</v>
       </c>
-      <c r="B6" s="0">
+      <c r="B6">
         <v>71</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s" s="0">
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
         <v>1</v>
       </c>
-      <c r="M6" t="s" s="0">
+      <c r="M6" t="s">
         <v>4</v>
       </c>
-      <c r="N6" s="0">
+      <c r="N6">
         <f>(SUMIF($C$3:$C$100, M6, $B$3:$B$100)/COUNTIF($C$3:$C$100, M6))</f>
         <v>98.5</v>
       </c>
-      <c r="O6" s="0">
+      <c r="O6">
         <f>(SUMIF($C$3:$C$100, M6, $F$3:$F$100)/COUNTIF($C$13:$C$100, M6))</f>
         <v>57.333333333333336</v>
       </c>
@@ -2619,26 +2630,26 @@
       <c r="A7" s="1">
         <v>45238</v>
       </c>
-      <c r="B7" s="0">
+      <c r="B7">
         <v>88</v>
       </c>
-      <c r="C7" t="s" s="0">
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s" s="0">
+      <c r="D7" t="s">
         <v>2</v>
       </c>
-      <c r="E7" t="s" s="0">
+      <c r="E7" t="s">
         <v>1</v>
       </c>
-      <c r="M7" t="s" s="0">
+      <c r="M7" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="0">
+      <c r="N7">
         <f>(SUMIF($C$3:$C$100, M7, $B$3:$B$100)/COUNTIF($C$3:$C$100, M7))</f>
         <v>86.25</v>
       </c>
-      <c r="O7" s="0">
+      <c r="O7">
         <f>(SUMIF($C$3:$C$100, M7, $F$3:$F$100)/COUNTIF($C$13:$C$100, M7))</f>
         <v>38</v>
       </c>
@@ -2647,16 +2658,16 @@
       <c r="A8" s="1">
         <v>45238</v>
       </c>
-      <c r="B8" s="0">
+      <c r="B8">
         <v>111</v>
       </c>
-      <c r="C8" t="s" s="0">
+      <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" t="s" s="0">
+      <c r="D8" t="s">
         <v>2</v>
       </c>
-      <c r="E8" t="s" s="0">
+      <c r="E8" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2664,16 +2675,16 @@
       <c r="A9" s="1">
         <v>45238</v>
       </c>
-      <c r="B9" s="0">
+      <c r="B9">
         <v>34</v>
       </c>
-      <c r="C9" t="s" s="0">
+      <c r="C9" t="s">
         <v>3</v>
       </c>
-      <c r="D9" t="s" s="0">
+      <c r="D9" t="s">
         <v>9</v>
       </c>
-      <c r="E9" t="s" s="0">
+      <c r="E9" t="s">
         <v>1</v>
       </c>
       <c r="M9" s="2" t="s">
@@ -2684,16 +2695,16 @@
       <c r="A10" s="1">
         <v>45238</v>
       </c>
-      <c r="B10" s="0">
+      <c r="B10">
         <v>120</v>
       </c>
-      <c r="C10" t="s" s="0">
+      <c r="C10" t="s">
         <v>3</v>
       </c>
-      <c r="D10" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s" s="0">
+      <c r="D10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
         <v>1</v>
       </c>
       <c r="H10" s="5" t="s">
@@ -2702,14 +2713,14 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
-      <c r="M10" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="N10" s="0">
+      <c r="M10" t="s">
+        <v>0</v>
+      </c>
+      <c r="N10">
         <f>(SUMIF($D$3:$D$100, M10, $B$3:$B$100)/COUNTIF($D$3:$D$100, M10))</f>
         <v>96.666666666666671</v>
       </c>
-      <c r="O10" s="0">
+      <c r="O10">
         <f>(SUMIF($D$3:$D$100, M10, $F$3:$F$100)/COUNTIF($D$13:$D$100, M10))</f>
         <v>26</v>
       </c>
@@ -2718,16 +2729,16 @@
       <c r="A11" s="1">
         <v>45238</v>
       </c>
-      <c r="B11" s="0">
+      <c r="B11">
         <v>75</v>
       </c>
-      <c r="C11" t="s" s="0">
+      <c r="C11" t="s">
         <v>11</v>
       </c>
-      <c r="D11" t="s" s="0">
+      <c r="D11" t="s">
         <v>9</v>
       </c>
-      <c r="E11" t="s" s="0">
+      <c r="E11" t="s">
         <v>1</v>
       </c>
       <c r="H11" s="5" t="s">
@@ -2738,14 +2749,14 @@
         <v>22</v>
       </c>
       <c r="K11" s="5"/>
-      <c r="M11" t="s" s="0">
+      <c r="M11" t="s">
         <v>9</v>
       </c>
-      <c r="N11" s="0">
+      <c r="N11">
         <f>(SUMIF($D$3:$D$100, M11, $B$3:$B$100)/COUNTIF($D$3:$D$100, M11))</f>
         <v>77</v>
       </c>
-      <c r="O11" s="0">
+      <c r="O11">
         <f>(SUMIF($D$3:$D$100, M11, $F$3:$F$100)/COUNTIF($D$13:$D$100, M11))</f>
         <v>45.166666666666664</v>
       </c>
@@ -2763,14 +2774,14 @@
       <c r="K12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M12" t="s" s="0">
+      <c r="M12" t="s">
         <v>2</v>
       </c>
-      <c r="N12" s="0">
+      <c r="N12">
         <f>(SUMIF($D$3:$D$100, M12, $B$3:$B$100)/COUNTIF($D$3:$D$100, M12))</f>
         <v>97.75</v>
       </c>
-      <c r="O12" s="0">
+      <c r="O12">
         <f>(SUMIF($D$3:$D$100, M12, $F$3:$F$100)/COUNTIF($D$13:$D$100, M12))</f>
         <v>57.333333333333336</v>
       </c>
@@ -2779,26 +2790,26 @@
       <c r="A13" s="1">
         <v>45237</v>
       </c>
-      <c r="B13" s="0">
+      <c r="B13">
         <v>111</v>
       </c>
-      <c r="C13" t="s" s="0">
+      <c r="C13" t="s">
         <v>4</v>
       </c>
-      <c r="D13" t="s" s="0">
+      <c r="D13" t="s">
         <v>2</v>
       </c>
-      <c r="E13" t="s" s="0">
+      <c r="E13" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="0">
+      <c r="F13">
         <v>66</v>
       </c>
-      <c r="H13" s="0">
+      <c r="H13">
         <f t="shared" ref="H13:H23" si="0">(SUMIF($M$5:$M$7, $C13, $N$5:$N$7)+SUMIF($M$10:$M$12, $D13, $N$10:$N$12)+SUMIF($M$15:$M$17, $E13, $N$15:$N$17))/3</f>
         <v>99.833333333333329</v>
       </c>
-      <c r="I13" s="0">
+      <c r="I13">
         <f t="shared" ref="I13:I23" si="1">(SUMIF($M$5:$M$7, $C13, $O$5:$O$7)+SUMIF($M$10:$M$12, $D13, $O$10:$O$12)+SUMIF($M$15:$M$17, $E13, $O$15:$O$17))/3</f>
         <v>55.722222222222229</v>
       </c>
@@ -2806,7 +2817,7 @@
         <f t="shared" ref="J13:J23" si="2">(SUMIF($M$5:$M$7, $C13, $N$5:$N$7)+SUMIF($M$10:$M$12, $D13, $N$10:$N$12))/2</f>
         <v>98.125</v>
       </c>
-      <c r="K13" s="0">
+      <c r="K13">
         <f t="shared" ref="K13:K23" si="3">(SUMIF($M$5:$M$7, $C13, $O$5:$O$7)+SUMIF($M$10:$M$12, $D13, $O$10:$O$12))/2</f>
         <v>57.333333333333336</v>
       </c>
@@ -2815,26 +2826,26 @@
       <c r="A14" s="1">
         <v>45238</v>
       </c>
-      <c r="B14" s="0">
+      <c r="B14">
         <v>107</v>
       </c>
-      <c r="C14" t="s" s="0">
+      <c r="C14" t="s">
         <v>11</v>
       </c>
-      <c r="D14" t="s" s="0">
+      <c r="D14" t="s">
         <v>9</v>
       </c>
-      <c r="E14" t="s" s="0">
+      <c r="E14" t="s">
         <v>1</v>
       </c>
-      <c r="F14" s="0">
+      <c r="F14">
         <v>57</v>
       </c>
-      <c r="H14" s="0">
+      <c r="H14">
         <f t="shared" si="0"/>
         <v>84.49444444444444</v>
       </c>
-      <c r="I14" s="0">
+      <c r="I14">
         <f t="shared" si="1"/>
         <v>48.198412698412703</v>
       </c>
@@ -2842,7 +2853,7 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K14" s="0">
+      <c r="K14">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
@@ -2854,26 +2865,26 @@
       <c r="A15" s="1">
         <v>45234</v>
       </c>
-      <c r="B15" s="0">
+      <c r="B15">
         <v>108</v>
       </c>
-      <c r="C15" t="s" s="0">
+      <c r="C15" t="s">
         <v>3</v>
       </c>
-      <c r="D15" t="s" s="0">
+      <c r="D15" t="s">
         <v>19</v>
       </c>
-      <c r="E15" t="s" s="0">
+      <c r="E15" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="0">
+      <c r="F15">
         <v>38</v>
       </c>
-      <c r="H15" s="0">
+      <c r="H15">
         <f t="shared" si="0"/>
         <v>63.166666666666664</v>
       </c>
-      <c r="I15" s="0">
+      <c r="I15">
         <f t="shared" si="1"/>
         <v>30.166666666666668</v>
       </c>
@@ -2881,18 +2892,18 @@
         <f t="shared" si="2"/>
         <v>43.125</v>
       </c>
-      <c r="K15" s="0">
+      <c r="K15">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="M15" t="s" s="0">
+      <c r="M15" t="s">
         <v>10</v>
       </c>
-      <c r="N15" s="0">
+      <c r="N15">
         <f>(SUMIF($E$3:$E$100, M15, $B$3:$B$100)/COUNTIF($E$3:$E$100, M15))</f>
         <v>83.166666666666671</v>
       </c>
-      <c r="O15" s="0">
+      <c r="O15">
         <f>(SUMIF($E$3:$E$100, M15, $F$3:$F$100)/COUNTIF($E$13:$E$100, M15))</f>
         <v>40</v>
       </c>
@@ -2901,26 +2912,26 @@
       <c r="A16" s="1">
         <v>45234</v>
       </c>
-      <c r="B16" s="0">
+      <c r="B16">
         <v>107</v>
       </c>
-      <c r="C16" t="s" s="0">
+      <c r="C16" t="s">
         <v>4</v>
       </c>
-      <c r="D16" t="s" s="0">
+      <c r="D16" t="s">
         <v>2</v>
       </c>
-      <c r="E16" t="s" s="0">
+      <c r="E16" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="0">
+      <c r="F16">
         <v>74</v>
       </c>
-      <c r="H16" s="0">
+      <c r="H16">
         <f t="shared" si="0"/>
         <v>99.833333333333329</v>
       </c>
-      <c r="I16" s="0">
+      <c r="I16">
         <f t="shared" si="1"/>
         <v>55.722222222222229</v>
       </c>
@@ -2928,18 +2939,18 @@
         <f t="shared" si="2"/>
         <v>98.125</v>
       </c>
-      <c r="K16" s="0">
+      <c r="K16">
         <f t="shared" si="3"/>
         <v>57.333333333333336</v>
       </c>
-      <c r="M16" t="s" s="0">
+      <c r="M16" t="s">
         <v>1</v>
       </c>
-      <c r="N16" s="0">
+      <c r="N16">
         <f>(SUMIF($E$3:$E$100, M16, $B$3:$B$100)/COUNTIF($E$3:$E$100, M16))</f>
         <v>88.4</v>
       </c>
-      <c r="O16" s="0">
+      <c r="O16">
         <f>(SUMIF($E$3:$E$100, M16, $F$3:$F$100)/COUNTIF($E$13:$E$100, M16))</f>
         <v>57</v>
       </c>
@@ -2948,26 +2959,26 @@
       <c r="A17" s="1">
         <v>45234</v>
       </c>
-      <c r="B17" s="0">
+      <c r="B17">
         <v>97</v>
       </c>
-      <c r="C17" t="s" s="0">
+      <c r="C17" t="s">
         <v>11</v>
       </c>
-      <c r="D17" t="s" s="0">
+      <c r="D17" t="s">
         <v>9</v>
       </c>
-      <c r="E17" t="s" s="0">
+      <c r="E17" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="0">
+      <c r="F17">
         <v>62</v>
       </c>
-      <c r="H17" s="0">
+      <c r="H17">
         <f t="shared" si="0"/>
         <v>82.75</v>
       </c>
-      <c r="I17" s="0">
+      <c r="I17">
         <f t="shared" si="1"/>
         <v>42.531746031746032</v>
       </c>
@@ -2975,18 +2986,18 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K17" s="0">
+      <c r="K17">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
-      <c r="M17" t="s" s="0">
+      <c r="M17" t="s">
         <v>5</v>
       </c>
-      <c r="N17" s="0">
+      <c r="N17">
         <f>(SUMIF($E$3:$E$100, M17, $B$3:$B$100)/COUNTIF($E$3:$E$100, M17))</f>
         <v>103.25</v>
       </c>
-      <c r="O17" s="0">
+      <c r="O17">
         <f>(SUMIF($E$3:$E$100, M17, $F$3:$F$100)/COUNTIF($E$13:$E$100, M17))</f>
         <v>52.5</v>
       </c>
@@ -2995,26 +3006,26 @@
       <c r="A18" s="1">
         <v>45234</v>
       </c>
-      <c r="B18" s="0">
+      <c r="B18">
         <v>99</v>
       </c>
-      <c r="C18" t="s" s="0">
+      <c r="C18" t="s">
         <v>11</v>
       </c>
-      <c r="D18" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s" s="0">
+      <c r="D18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="0">
+      <c r="F18">
         <v>26</v>
       </c>
-      <c r="H18" s="0">
+      <c r="H18">
         <f t="shared" si="0"/>
         <v>89.305555555555557</v>
       </c>
-      <c r="I18" s="0">
+      <c r="I18">
         <f t="shared" si="1"/>
         <v>36.142857142857146</v>
       </c>
@@ -3022,7 +3033,7 @@
         <f t="shared" si="2"/>
         <v>92.375</v>
       </c>
-      <c r="K18" s="0">
+      <c r="K18">
         <f t="shared" si="3"/>
         <v>34.214285714285715</v>
       </c>
@@ -3031,26 +3042,26 @@
       <c r="A19" s="1">
         <v>45234</v>
       </c>
-      <c r="B19" s="0">
+      <c r="B19">
         <v>87</v>
       </c>
-      <c r="C19" t="s" s="0">
+      <c r="C19" t="s">
         <v>4</v>
       </c>
-      <c r="D19" t="s" s="0">
+      <c r="D19" t="s">
         <v>2</v>
       </c>
-      <c r="E19" t="s" s="0">
+      <c r="E19" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="0">
+      <c r="F19">
         <v>32</v>
       </c>
-      <c r="H19" s="0">
+      <c r="H19">
         <f t="shared" si="0"/>
         <v>99.833333333333329</v>
       </c>
-      <c r="I19" s="0">
+      <c r="I19">
         <f t="shared" si="1"/>
         <v>55.722222222222229</v>
       </c>
@@ -3058,7 +3069,7 @@
         <f t="shared" si="2"/>
         <v>98.125</v>
       </c>
-      <c r="K19" s="0">
+      <c r="K19">
         <f t="shared" si="3"/>
         <v>57.333333333333336</v>
       </c>
@@ -3067,26 +3078,26 @@
       <c r="A20" s="1">
         <v>45234</v>
       </c>
-      <c r="B20" s="0">
+      <c r="B20">
         <v>76</v>
       </c>
-      <c r="C20" t="s" s="0">
+      <c r="C20" t="s">
         <v>11</v>
       </c>
-      <c r="D20" t="s" s="0">
+      <c r="D20" t="s">
         <v>9</v>
       </c>
-      <c r="E20" t="s" s="0">
+      <c r="E20" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="0">
+      <c r="F20">
         <v>48</v>
       </c>
-      <c r="H20" s="0">
+      <c r="H20">
         <f t="shared" si="0"/>
         <v>82.75</v>
       </c>
-      <c r="I20" s="0">
+      <c r="I20">
         <f t="shared" si="1"/>
         <v>42.531746031746032</v>
       </c>
@@ -3094,7 +3105,7 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K20" s="0">
+      <c r="K20">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
@@ -3103,26 +3114,26 @@
       <c r="A21" s="1">
         <v>45234</v>
       </c>
-      <c r="B21" s="0">
+      <c r="B21">
         <v>93</v>
       </c>
-      <c r="C21" t="s" s="0">
+      <c r="C21" t="s">
         <v>11</v>
       </c>
-      <c r="D21" t="s" s="0">
+      <c r="D21" t="s">
         <v>9</v>
       </c>
-      <c r="E21" t="s" s="0">
+      <c r="E21" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="0">
+      <c r="F21">
         <v>40</v>
       </c>
-      <c r="H21" s="0">
+      <c r="H21">
         <f t="shared" si="0"/>
         <v>82.75</v>
       </c>
-      <c r="I21" s="0">
+      <c r="I21">
         <f t="shared" si="1"/>
         <v>42.531746031746032</v>
       </c>
@@ -3130,7 +3141,7 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K21" s="0">
+      <c r="K21">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
@@ -3139,26 +3150,26 @@
       <c r="A22" s="1">
         <v>45234</v>
       </c>
-      <c r="B22" s="0">
+      <c r="B22">
         <v>85</v>
       </c>
-      <c r="C22" t="s" s="0">
+      <c r="C22" t="s">
         <v>11</v>
       </c>
-      <c r="D22" t="s" s="0">
+      <c r="D22" t="s">
         <v>9</v>
       </c>
-      <c r="E22" t="s" s="0">
+      <c r="E22" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="0">
+      <c r="F22">
         <v>30</v>
       </c>
-      <c r="H22" s="0">
+      <c r="H22">
         <f t="shared" si="0"/>
         <v>82.75</v>
       </c>
-      <c r="I22" s="0">
+      <c r="I22">
         <f t="shared" si="1"/>
         <v>42.531746031746032</v>
       </c>
@@ -3166,7 +3177,7 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K22" s="0">
+      <c r="K22">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
@@ -3175,26 +3186,26 @@
       <c r="A23" s="1">
         <v>45234</v>
       </c>
-      <c r="B23" s="0">
+      <c r="B23">
         <v>49</v>
       </c>
-      <c r="C23" t="s" s="0">
+      <c r="C23" t="s">
         <v>11</v>
       </c>
-      <c r="D23" t="s" s="0">
+      <c r="D23" t="s">
         <v>9</v>
       </c>
-      <c r="E23" t="s" s="0">
+      <c r="E23" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="0">
+      <c r="F23">
         <v>34</v>
       </c>
-      <c r="H23" s="0">
+      <c r="H23">
         <f t="shared" si="0"/>
         <v>82.75</v>
       </c>
-      <c r="I23" s="0">
+      <c r="I23">
         <f t="shared" si="1"/>
         <v>42.531746031746032</v>
       </c>
@@ -3202,7 +3213,7 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K23" s="0">
+      <c r="K23">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
@@ -3222,67 +3233,67 @@
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="T28" s="0">
+      <c r="T28">
         <v>1</v>
       </c>
-      <c r="U28" t="s" s="0">
+      <c r="U28" t="s">
         <v>3</v>
       </c>
-      <c r="V28" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="W28" t="s" s="0">
+      <c r="V28" t="s">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
         <v>1</v>
       </c>
-      <c r="X28" s="0">
+      <c r="X28">
         <f>(N7+N10+N16)/3</f>
         <v>90.438888888888911</v>
       </c>
-      <c r="Y28" s="0">
+      <c r="Y28">
         <f>(O7+O10+O16)/3</f>
         <v>40.333333333333336</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="T29" s="0">
+      <c r="T29">
         <v>2</v>
       </c>
-      <c r="U29" t="s" s="0">
+      <c r="U29" t="s">
         <v>11</v>
       </c>
-      <c r="V29" t="s" s="0">
+      <c r="V29" t="s">
         <v>9</v>
       </c>
-      <c r="W29" t="s" s="0">
+      <c r="W29" t="s">
         <v>1</v>
       </c>
-      <c r="X29" s="0">
+      <c r="X29">
         <f>(N5+N11+N16)/3</f>
         <v>84.49444444444444</v>
       </c>
-      <c r="Y29" s="0">
+      <c r="Y29">
         <f>(O5+O11+O16)/3</f>
         <v>48.198412698412703</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="T30" s="0">
+      <c r="T30">
         <v>3</v>
       </c>
-      <c r="U30" t="s" s="0">
+      <c r="U30" t="s">
         <v>4</v>
       </c>
-      <c r="V30" t="s" s="0">
+      <c r="V30" t="s">
         <v>9</v>
       </c>
-      <c r="W30" t="s" s="0">
+      <c r="W30" t="s">
         <v>1</v>
       </c>
-      <c r="X30" s="0">
+      <c r="X30">
         <f>(N6+N11+N16)/3</f>
         <v>87.966666666666654</v>
       </c>
-      <c r="Y30" s="0">
+      <c r="Y30">
         <f>(O6+O11+O16)/3</f>
         <v>53.166666666666664</v>
       </c>
@@ -3296,67 +3307,67 @@
       <c r="W32" s="5"/>
     </row>
     <row r="33" spans="20:25" x14ac:dyDescent="0.3">
-      <c r="T33" s="0">
+      <c r="T33">
         <v>1</v>
       </c>
-      <c r="U33" t="s" s="0">
+      <c r="U33" t="s">
         <v>3</v>
       </c>
-      <c r="V33" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="W33" t="s" s="0">
+      <c r="V33" t="s">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
         <v>1</v>
       </c>
-      <c r="X33" s="0">
+      <c r="X33">
         <f>(N7+N10+N16)/3</f>
         <v>90.438888888888911</v>
       </c>
-      <c r="Y33" s="0">
+      <c r="Y33">
         <f>(O7+O10+O16)/3</f>
         <v>40.333333333333336</v>
       </c>
     </row>
     <row r="34" spans="20:25" x14ac:dyDescent="0.3">
-      <c r="T34" s="0">
+      <c r="T34">
         <v>2</v>
       </c>
-      <c r="U34" t="s" s="0">
+      <c r="U34" t="s">
         <v>11</v>
       </c>
-      <c r="V34" t="s" s="0">
+      <c r="V34" t="s">
         <v>9</v>
       </c>
-      <c r="W34" t="s" s="0">
+      <c r="W34" t="s">
         <v>10</v>
       </c>
-      <c r="X34" s="0">
+      <c r="X34">
         <f>(N5+N11+N15)/3</f>
         <v>82.75</v>
       </c>
-      <c r="Y34" s="0">
+      <c r="Y34">
         <f>(O5+O11+O15)/3</f>
         <v>42.531746031746032</v>
       </c>
     </row>
     <row r="35" spans="20:25" x14ac:dyDescent="0.3">
-      <c r="T35" s="0">
+      <c r="T35">
         <v>3</v>
       </c>
-      <c r="U35" t="s" s="0">
+      <c r="U35" t="s">
         <v>4</v>
       </c>
-      <c r="V35" t="s" s="0">
+      <c r="V35" t="s">
         <v>2</v>
       </c>
-      <c r="W35" t="s" s="0">
+      <c r="W35" t="s">
         <v>5</v>
       </c>
-      <c r="X35" s="0">
+      <c r="X35">
         <f>(N6+N12+N17)/3</f>
         <v>99.833333333333329</v>
       </c>
-      <c r="Y35" s="0">
+      <c r="Y35">
         <f>(O6+O12+O17)/3</f>
         <v>55.722222222222229</v>
       </c>
@@ -3386,289 +3397,289 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>40</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>37</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G1" t="s">
         <v>38</v>
       </c>
-      <c r="H1" t="s" s="0">
+      <c r="H1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" t="n" s="0">
-        <v>70.64285714285714</v>
-      </c>
-      <c r="B2" t="n" s="0">
+      <c r="A2">
+        <v>70.642857142857139</v>
+      </c>
+      <c r="B2">
         <v>35.333333333333336</v>
       </c>
-      <c r="C2" t="n" s="0">
+      <c r="C2">
         <v>22.666666666666668</v>
       </c>
-      <c r="D2" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="E2" t="n" s="0">
-        <v>70.55813953490454</v>
-      </c>
-      <c r="F2" t="n" s="0">
-        <v>34.57613168743349</v>
-      </c>
-      <c r="G2" t="n" s="0">
-        <v>22.76131687240414</v>
-      </c>
-      <c r="H2" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M2" t="s" s="0">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>70.558139534904555</v>
+      </c>
+      <c r="F2">
+        <v>34.576131687433488</v>
+      </c>
+      <c r="G2">
+        <v>22.761316872404141</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" t="n" s="0">
-        <v>82.16666666666667</v>
-      </c>
-      <c r="B3" t="n" s="0">
+      <c r="A3">
+        <v>82.166666666666671</v>
+      </c>
+      <c r="B3">
         <v>46.6</v>
       </c>
-      <c r="C3" t="n" s="0">
-        <v>34.2</v>
-      </c>
-      <c r="D3" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="E3" t="n" s="0">
-        <v>81.75294117656986</v>
-      </c>
-      <c r="F3" t="n" s="0">
-        <v>46.90140845063206</v>
-      </c>
-      <c r="G3" t="n" s="0">
-        <v>33.42253521145376</v>
-      </c>
-      <c r="H3" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M3" t="s" s="0">
+      <c r="C3">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>81.752941176569863</v>
+      </c>
+      <c r="F3">
+        <v>46.901408450632054</v>
+      </c>
+      <c r="G3">
+        <v>33.422535211453756</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" t="n" s="0">
-        <v>69.6</v>
-      </c>
-      <c r="B4" t="n" s="0">
+      <c r="A4">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="B4">
         <v>26.5</v>
       </c>
-      <c r="C4" t="n" s="0">
-        <v>29.0</v>
-      </c>
-      <c r="D4" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="E4" t="n" s="0">
-        <v>68.94666666681476</v>
-      </c>
-      <c r="F4" t="n" s="0">
+      <c r="C4">
+        <v>29</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>68.946666666814778</v>
+      </c>
+      <c r="F4">
         <v>26.5</v>
       </c>
-      <c r="G4" t="n" s="0">
-        <v>29.0</v>
-      </c>
-      <c r="H4" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M4" t="s" s="0">
+      <c r="G4">
+        <v>29</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" t="n" s="0">
-        <v>61.0</v>
-      </c>
-      <c r="B5" t="n" s="0">
-        <v>38.3</v>
-      </c>
-      <c r="C5" t="n" s="0">
+      <c r="A5">
+        <v>61</v>
+      </c>
+      <c r="B5">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="C5">
         <v>22.4</v>
       </c>
-      <c r="D5" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="E5" t="n" s="0">
-        <v>60.564705882457396</v>
-      </c>
-      <c r="F5" t="n" s="0">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>60.564705882457417</v>
+      </c>
+      <c r="F5">
         <v>37.815602836996234</v>
       </c>
-      <c r="G5" t="n" s="0">
-        <v>22.578014184354227</v>
-      </c>
-      <c r="H5" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M5" t="s" s="0">
+      <c r="G5">
+        <v>22.578014184354231</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" t="n" s="0">
+      <c r="A6">
         <v>92.75</v>
       </c>
-      <c r="B6" t="n" s="0">
+      <c r="B6">
         <v>47.333333333333336</v>
       </c>
-      <c r="C6" t="n" s="0">
-        <v>41.0</v>
-      </c>
-      <c r="D6" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="E6" t="n" s="0">
-        <v>93.24090909078771</v>
-      </c>
-      <c r="F6" t="n" s="0">
+      <c r="C6">
+        <v>41</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>93.240909090787696</v>
+      </c>
+      <c r="F6">
         <v>48.051282051094276</v>
       </c>
-      <c r="G6" t="n" s="0">
+      <c r="G6">
         <v>41.153846153805915</v>
       </c>
-      <c r="H6" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M6" t="s" s="0">
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" t="n" s="0">
+      <c r="A7">
         <v>71.2</v>
       </c>
-      <c r="B7" t="n" s="0">
+      <c r="B7">
         <v>26.333333333333332</v>
       </c>
-      <c r="C7" t="n" s="0">
+      <c r="C7">
         <v>28.666666666666668</v>
       </c>
-      <c r="D7" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="E7" t="n" s="0">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>71.02721088439371</v>
       </c>
-      <c r="F7" t="n" s="0">
-        <v>26.35955056179175</v>
-      </c>
-      <c r="G7" t="n" s="0">
-        <v>28.71910112358349</v>
-      </c>
-      <c r="H7" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M7" t="s" s="0">
+      <c r="F7">
+        <v>26.359550561791742</v>
+      </c>
+      <c r="G7">
+        <v>28.719101123583485</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" t="n" s="0">
-        <v>61.0</v>
-      </c>
-      <c r="B8" t="n" s="0">
+      <c r="A8">
+        <v>61</v>
+      </c>
+      <c r="B8">
         <v>38.166666666666664</v>
       </c>
-      <c r="C8" t="n" s="0">
+      <c r="C8">
         <v>20.166666666666668</v>
       </c>
-      <c r="D8" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="E8" t="n" s="0">
-        <v>61.0</v>
-      </c>
-      <c r="F8" t="n" s="0">
-        <v>38.16666666666667</v>
-      </c>
-      <c r="G8" t="n" s="0">
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>60.999999999999979</v>
+      </c>
+      <c r="F8">
+        <v>38.166666666666664</v>
+      </c>
+      <c r="G8">
         <v>20.166666666666664</v>
       </c>
-      <c r="H8" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M8" t="s" s="0">
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" t="n" s="0">
-        <v>88.33333333333333</v>
-      </c>
-      <c r="B9" t="n" s="0">
+      <c r="A9">
+        <v>88.333333333333329</v>
+      </c>
+      <c r="B9">
         <v>47.333333333333336</v>
       </c>
-      <c r="C9" t="n" s="0">
-        <v>41.0</v>
-      </c>
-      <c r="D9" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="E9" t="n" s="0">
-        <v>89.20512820490019</v>
-      </c>
-      <c r="F9" t="n" s="0">
+      <c r="C9">
+        <v>41</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>89.205128204900205</v>
+      </c>
+      <c r="F9">
         <v>48.051282051094276</v>
       </c>
-      <c r="G9" t="n" s="0">
+      <c r="G9">
         <v>41.153846153805915</v>
       </c>
-      <c r="H9" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M9" t="s" s="0">
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" t="n" s="0">
+      <c r="A10">
         <v>74.9375</v>
       </c>
-      <c r="B10" t="n" s="0">
+      <c r="B10">
         <v>33.285714285714285</v>
       </c>
-      <c r="C10" t="n" s="0">
-        <v>27.0</v>
-      </c>
-      <c r="D10" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="E10" t="n" s="0">
-        <v>73.98329853883885</v>
-      </c>
-      <c r="F10" t="n" s="0">
-        <v>32.9638009050467</v>
-      </c>
-      <c r="G10" t="n" s="0">
+      <c r="C10">
+        <v>27</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>73.983298538838881</v>
+      </c>
+      <c r="F10">
+        <v>32.963800905046703</v>
+      </c>
+      <c r="G10">
         <v>26.687782805497104</v>
       </c>
-      <c r="H10" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M10" t="s" s="0">
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="M10" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3679,98 +3690,124 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A2:K4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" t="s">
+        <v>58</v>
+      </c>
+    </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="n" s="0">
-        <v>64.85714285714286</v>
-      </c>
-      <c r="B2" t="n" s="0">
-        <v>37.08666666666666</v>
-      </c>
-      <c r="C2" t="n" s="0">
+      <c r="A2">
+        <v>64.857142857142861</v>
+      </c>
+      <c r="B2">
+        <v>37.086666666666659</v>
+      </c>
+      <c r="C2">
         <v>22.06</v>
       </c>
-      <c r="D2" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="E2" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="F2" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="G2" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="H2" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="K2" t="s" s="0">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>62.787836257309934</v>
+      </c>
+      <c r="F2">
+        <v>35.452438672438674</v>
+      </c>
+      <c r="G2">
+        <v>20.141423761423759</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="n" s="0">
+      <c r="A3">
         <v>87.63333333333334</v>
       </c>
-      <c r="B3" t="n" s="0">
+      <c r="B3">
         <v>47.040000000000006</v>
       </c>
-      <c r="C3" t="n" s="0">
+      <c r="C3">
         <v>38.28</v>
       </c>
-      <c r="D3" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="E3" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="F3" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="G3" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="H3" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="K3" t="s" s="0">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>88.277777777777771</v>
+      </c>
+      <c r="F3">
+        <v>50.43333333333333</v>
+      </c>
+      <c r="G3">
+        <v>42.666666666666664</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="n" s="0">
-        <v>71.3075</v>
-      </c>
-      <c r="B4" t="n" s="0">
+      <c r="A4">
+        <v>71.307500000000005</v>
+      </c>
+      <c r="B4">
         <v>27.790476190476188</v>
       </c>
-      <c r="C4" t="n" s="0">
-        <v>28.46666666666667</v>
-      </c>
-      <c r="D4" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="E4" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="F4" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="G4" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="H4" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="K4" t="s" s="0">
+      <c r="C4">
+        <v>28.466666666666669</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>15.286206896551723</v>
+      </c>
+      <c r="F4">
+        <v>4.4818181818181815</v>
+      </c>
+      <c r="G4">
+        <v>4.3090909090909095</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
         <v>54</v>
       </c>
     </row>

--- a/Red Team Data.xlsx
+++ b/Red Team Data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Desktop\FTCStats\FTCStats\"/>
     </mc:Choice>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -222,6 +222,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1689,8 +1690,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="10.0"/>
+    <col min="5" max="5" customWidth="true" width="10.6640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
@@ -1723,25 +1724,25 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B2" s="1">
         <v>45237</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="0">
         <v>106</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="0">
         <v>0</v>
       </c>
       <c r="M2" s="2"/>
@@ -1754,673 +1755,673 @@
       <c r="T2" s="2"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B3" s="1">
         <v>45237</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="0">
         <v>83</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B4" s="1">
         <v>45237</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="0">
         <v>89</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="0">
         <v>0</v>
       </c>
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B5" s="1">
         <v>45238</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="0">
         <v>71</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B6" s="1">
         <v>45238</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="0">
         <v>88</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B7" s="1">
         <v>45238</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="0">
         <v>111</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B8" s="1">
         <v>45238</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="0">
         <v>34</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B9" s="1">
         <v>45238</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="0">
         <v>120</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="0">
         <v>0</v>
       </c>
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B10" s="1">
         <v>45238</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="0">
         <v>75</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B11" s="1">
         <v>45237</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="0">
         <v>111</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="0">
         <v>66</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="0">
         <v>45</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B12" s="1">
         <v>45238</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="0">
         <v>107</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="0">
         <v>57</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="0">
         <v>50</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="0">
         <v>0</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B13" s="1">
         <v>45234</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="0">
         <v>72</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="0">
         <v>44</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="0">
         <v>28</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B14" s="1">
         <v>45234</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="0">
         <v>97</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="0">
         <v>51</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="0">
         <v>30</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="0">
         <v>0</v>
       </c>
       <c r="M14" s="2"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B15" s="1">
         <v>45234</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="0">
         <v>54</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="0">
         <v>26</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="0">
         <v>28</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B16" s="1">
         <v>45234</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="0">
         <v>82</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="0">
         <v>32</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="0">
         <v>50</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B17" s="1">
         <v>45234</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="0">
         <v>60</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="0">
         <v>40</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="0">
         <v>20</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B18" s="1">
         <v>45234</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="0">
         <v>56</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="0">
         <v>48</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="0">
         <v>8</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B19" s="1">
         <v>45234</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="0">
         <v>60</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="0">
         <v>30</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="0">
         <v>30</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B20" s="1">
         <v>45234</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="0">
         <v>39</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="0">
         <v>34</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="0">
         <v>5</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B21" s="1">
         <v>45241</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="0">
         <v>32</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="0">
         <v>4</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="0">
         <v>28</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="0">
         <v>0</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" t="s" s="0">
         <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B22" s="1">
         <v>45241</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="0">
         <v>83</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="0">
         <v>55</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="0">
         <v>28</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="0">
         <v>0</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" t="s" s="0">
         <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B23" s="1">
         <v>45241</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="0">
         <v>56</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="0">
         <v>26</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="0">
         <v>30</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="0">
         <v>0</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" t="s" s="0">
         <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B24" s="1">
         <v>45241</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="0">
         <v>33</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="0">
         <v>28</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="0">
         <v>5</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="0">
         <v>0</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" t="s" s="0">
         <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="A25" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B25" s="1">
         <v>45241</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="0">
         <v>56</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="0">
         <v>36</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="0">
         <v>20</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="0">
         <v>0</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K25" t="s" s="0">
         <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="A26" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B26" s="1">
         <v>45241</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="0">
         <v>55</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="0">
         <v>27</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="0">
         <v>28</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="0">
         <v>0</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K26" t="s" s="0">
         <v>50</v>
       </c>
       <c r="T26" s="5"/>
@@ -2437,36 +2438,36 @@
       <c r="W31" s="5"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="A32" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="0">
         <v>10</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="0">
         <v>10</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="0">
         <v>56</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="A33" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="0">
         <v>10</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="0">
         <v>10</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="0">
         <v>56</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="0">
         <v>0</v>
       </c>
     </row>
@@ -2490,8 +2491,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="10.0"/>
+    <col min="5" max="5" customWidth="true" width="10.6640625"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
@@ -2523,7 +2524,7 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
-      <c r="V2" t="s">
+      <c r="V2" t="s" s="0">
         <v>18</v>
       </c>
     </row>
@@ -2531,16 +2532,16 @@
       <c r="A3" s="1">
         <v>45237</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0">
         <v>106</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>1</v>
       </c>
     </row>
@@ -2548,25 +2549,25 @@
       <c r="A4" s="1">
         <v>45237</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0">
         <v>83</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>1</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" t="s" s="0">
         <v>24</v>
       </c>
     </row>
@@ -2574,26 +2575,26 @@
       <c r="A5" s="1">
         <v>45237</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0">
         <v>89</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="0">
         <f>(SUMIF($C$3:$C$100, M5, $B$3:$B$100)/COUNTIF($C$3:$C$100, M5))</f>
         <v>88.083333333333329</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="0">
         <f>(SUMIF($C$3:$C$100, M5, $F$3:$F$100)/COUNTIF($C$13:$C$100, M5))</f>
         <v>42.428571428571431</v>
       </c>
@@ -2602,26 +2603,26 @@
       <c r="A6" s="1">
         <v>45238</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0">
         <v>71</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="0">
         <f>(SUMIF($C$3:$C$100, M6, $B$3:$B$100)/COUNTIF($C$3:$C$100, M6))</f>
         <v>98.5</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="0">
         <f>(SUMIF($C$3:$C$100, M6, $F$3:$F$100)/COUNTIF($C$13:$C$100, M6))</f>
         <v>57.333333333333336</v>
       </c>
@@ -2630,26 +2631,26 @@
       <c r="A7" s="1">
         <v>45238</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0">
         <v>88</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="0">
         <f>(SUMIF($C$3:$C$100, M7, $B$3:$B$100)/COUNTIF($C$3:$C$100, M7))</f>
         <v>86.25</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="0">
         <f>(SUMIF($C$3:$C$100, M7, $F$3:$F$100)/COUNTIF($C$13:$C$100, M7))</f>
         <v>38</v>
       </c>
@@ -2658,16 +2659,16 @@
       <c r="A8" s="1">
         <v>45238</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0">
         <v>111</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" t="s" s="0">
         <v>1</v>
       </c>
     </row>
@@ -2675,16 +2676,16 @@
       <c r="A9" s="1">
         <v>45238</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="0">
         <v>34</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" t="s" s="0">
         <v>1</v>
       </c>
       <c r="M9" s="2" t="s">
@@ -2695,16 +2696,16 @@
       <c r="A10" s="1">
         <v>45238</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0">
         <v>120</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" t="s" s="0">
         <v>1</v>
       </c>
       <c r="H10" s="5" t="s">
@@ -2713,14 +2714,14 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
-      <c r="M10" t="s">
+      <c r="M10" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="0">
         <f>(SUMIF($D$3:$D$100, M10, $B$3:$B$100)/COUNTIF($D$3:$D$100, M10))</f>
         <v>96.666666666666671</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="0">
         <f>(SUMIF($D$3:$D$100, M10, $F$3:$F$100)/COUNTIF($D$13:$D$100, M10))</f>
         <v>26</v>
       </c>
@@ -2729,16 +2730,16 @@
       <c r="A11" s="1">
         <v>45238</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="0">
         <v>75</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" t="s" s="0">
         <v>1</v>
       </c>
       <c r="H11" s="5" t="s">
@@ -2749,14 +2750,14 @@
         <v>22</v>
       </c>
       <c r="K11" s="5"/>
-      <c r="M11" t="s">
+      <c r="M11" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="0">
         <f>(SUMIF($D$3:$D$100, M11, $B$3:$B$100)/COUNTIF($D$3:$D$100, M11))</f>
         <v>77</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="0">
         <f>(SUMIF($D$3:$D$100, M11, $F$3:$F$100)/COUNTIF($D$13:$D$100, M11))</f>
         <v>45.166666666666664</v>
       </c>
@@ -2774,14 +2775,14 @@
       <c r="K12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="0">
         <f>(SUMIF($D$3:$D$100, M12, $B$3:$B$100)/COUNTIF($D$3:$D$100, M12))</f>
         <v>97.75</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="0">
         <f>(SUMIF($D$3:$D$100, M12, $F$3:$F$100)/COUNTIF($D$13:$D$100, M12))</f>
         <v>57.333333333333336</v>
       </c>
@@ -2790,26 +2791,26 @@
       <c r="A13" s="1">
         <v>45237</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="0">
         <v>111</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="0">
         <v>66</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="0">
         <f t="shared" ref="H13:H23" si="0">(SUMIF($M$5:$M$7, $C13, $N$5:$N$7)+SUMIF($M$10:$M$12, $D13, $N$10:$N$12)+SUMIF($M$15:$M$17, $E13, $N$15:$N$17))/3</f>
         <v>99.833333333333329</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="0">
         <f t="shared" ref="I13:I23" si="1">(SUMIF($M$5:$M$7, $C13, $O$5:$O$7)+SUMIF($M$10:$M$12, $D13, $O$10:$O$12)+SUMIF($M$15:$M$17, $E13, $O$15:$O$17))/3</f>
         <v>55.722222222222229</v>
       </c>
@@ -2817,7 +2818,7 @@
         <f t="shared" ref="J13:J23" si="2">(SUMIF($M$5:$M$7, $C13, $N$5:$N$7)+SUMIF($M$10:$M$12, $D13, $N$10:$N$12))/2</f>
         <v>98.125</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="0">
         <f t="shared" ref="K13:K23" si="3">(SUMIF($M$5:$M$7, $C13, $O$5:$O$7)+SUMIF($M$10:$M$12, $D13, $O$10:$O$12))/2</f>
         <v>57.333333333333336</v>
       </c>
@@ -2826,26 +2827,26 @@
       <c r="A14" s="1">
         <v>45238</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="0">
         <v>107</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="0">
         <v>57</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="0">
         <f t="shared" si="0"/>
         <v>84.49444444444444</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="0">
         <f t="shared" si="1"/>
         <v>48.198412698412703</v>
       </c>
@@ -2853,7 +2854,7 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="0">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
@@ -2865,26 +2866,26 @@
       <c r="A15" s="1">
         <v>45234</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="0">
         <v>108</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="0">
         <v>38</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="0">
         <f t="shared" si="0"/>
         <v>63.166666666666664</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="0">
         <f t="shared" si="1"/>
         <v>30.166666666666668</v>
       </c>
@@ -2892,18 +2893,18 @@
         <f t="shared" si="2"/>
         <v>43.125</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="0">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="0">
         <f>(SUMIF($E$3:$E$100, M15, $B$3:$B$100)/COUNTIF($E$3:$E$100, M15))</f>
         <v>83.166666666666671</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="0">
         <f>(SUMIF($E$3:$E$100, M15, $F$3:$F$100)/COUNTIF($E$13:$E$100, M15))</f>
         <v>40</v>
       </c>
@@ -2912,26 +2913,26 @@
       <c r="A16" s="1">
         <v>45234</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="0">
         <v>107</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="0">
         <v>74</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="0">
         <f t="shared" si="0"/>
         <v>99.833333333333329</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="0">
         <f t="shared" si="1"/>
         <v>55.722222222222229</v>
       </c>
@@ -2939,18 +2940,18 @@
         <f t="shared" si="2"/>
         <v>98.125</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="0">
         <f t="shared" si="3"/>
         <v>57.333333333333336</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="0">
         <f>(SUMIF($E$3:$E$100, M16, $B$3:$B$100)/COUNTIF($E$3:$E$100, M16))</f>
         <v>88.4</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="0">
         <f>(SUMIF($E$3:$E$100, M16, $F$3:$F$100)/COUNTIF($E$13:$E$100, M16))</f>
         <v>57</v>
       </c>
@@ -2959,26 +2960,26 @@
       <c r="A17" s="1">
         <v>45234</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="0">
         <v>97</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="0">
         <v>62</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="0">
         <f t="shared" si="0"/>
         <v>82.75</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="0">
         <f t="shared" si="1"/>
         <v>42.531746031746032</v>
       </c>
@@ -2986,18 +2987,18 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="0">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M17" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="0">
         <f>(SUMIF($E$3:$E$100, M17, $B$3:$B$100)/COUNTIF($E$3:$E$100, M17))</f>
         <v>103.25</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="0">
         <f>(SUMIF($E$3:$E$100, M17, $F$3:$F$100)/COUNTIF($E$13:$E$100, M17))</f>
         <v>52.5</v>
       </c>
@@ -3006,26 +3007,26 @@
       <c r="A18" s="1">
         <v>45234</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="0">
         <v>99</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="0">
         <v>26</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="0">
         <f t="shared" si="0"/>
         <v>89.305555555555557</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="0">
         <f t="shared" si="1"/>
         <v>36.142857142857146</v>
       </c>
@@ -3033,7 +3034,7 @@
         <f t="shared" si="2"/>
         <v>92.375</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="0">
         <f t="shared" si="3"/>
         <v>34.214285714285715</v>
       </c>
@@ -3042,26 +3043,26 @@
       <c r="A19" s="1">
         <v>45234</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="0">
         <v>87</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="0">
         <v>32</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="0">
         <f t="shared" si="0"/>
         <v>99.833333333333329</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="0">
         <f t="shared" si="1"/>
         <v>55.722222222222229</v>
       </c>
@@ -3069,7 +3070,7 @@
         <f t="shared" si="2"/>
         <v>98.125</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="0">
         <f t="shared" si="3"/>
         <v>57.333333333333336</v>
       </c>
@@ -3078,26 +3079,26 @@
       <c r="A20" s="1">
         <v>45234</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="0">
         <v>76</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="0">
         <v>48</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="0">
         <f t="shared" si="0"/>
         <v>82.75</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="0">
         <f t="shared" si="1"/>
         <v>42.531746031746032</v>
       </c>
@@ -3105,7 +3106,7 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="0">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
@@ -3114,26 +3115,26 @@
       <c r="A21" s="1">
         <v>45234</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="0">
         <v>93</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="0">
         <v>40</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="0">
         <f t="shared" si="0"/>
         <v>82.75</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="0">
         <f t="shared" si="1"/>
         <v>42.531746031746032</v>
       </c>
@@ -3141,7 +3142,7 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="0">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
@@ -3150,26 +3151,26 @@
       <c r="A22" s="1">
         <v>45234</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="0">
         <v>85</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="0">
         <v>30</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="0">
         <f t="shared" si="0"/>
         <v>82.75</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="0">
         <f t="shared" si="1"/>
         <v>42.531746031746032</v>
       </c>
@@ -3177,7 +3178,7 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="0">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
@@ -3186,26 +3187,26 @@
       <c r="A23" s="1">
         <v>45234</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="0">
         <v>49</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="0">
         <v>34</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="0">
         <f t="shared" si="0"/>
         <v>82.75</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="0">
         <f t="shared" si="1"/>
         <v>42.531746031746032</v>
       </c>
@@ -3213,7 +3214,7 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="0">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
@@ -3233,67 +3234,67 @@
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="T28">
+      <c r="T28" s="0">
         <v>1</v>
       </c>
-      <c r="U28" t="s">
+      <c r="U28" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="V28" t="s">
+      <c r="V28" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="W28" t="s">
+      <c r="W28" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="X28">
+      <c r="X28" s="0">
         <f>(N7+N10+N16)/3</f>
         <v>90.438888888888911</v>
       </c>
-      <c r="Y28">
+      <c r="Y28" s="0">
         <f>(O7+O10+O16)/3</f>
         <v>40.333333333333336</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="T29">
+      <c r="T29" s="0">
         <v>2</v>
       </c>
-      <c r="U29" t="s">
+      <c r="U29" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="V29" t="s">
+      <c r="V29" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="W29" t="s">
+      <c r="W29" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="X29">
+      <c r="X29" s="0">
         <f>(N5+N11+N16)/3</f>
         <v>84.49444444444444</v>
       </c>
-      <c r="Y29">
+      <c r="Y29" s="0">
         <f>(O5+O11+O16)/3</f>
         <v>48.198412698412703</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="T30">
+      <c r="T30" s="0">
         <v>3</v>
       </c>
-      <c r="U30" t="s">
+      <c r="U30" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="V30" t="s">
+      <c r="V30" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="W30" t="s">
+      <c r="W30" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="X30">
+      <c r="X30" s="0">
         <f>(N6+N11+N16)/3</f>
         <v>87.966666666666654</v>
       </c>
-      <c r="Y30">
+      <c r="Y30" s="0">
         <f>(O6+O11+O16)/3</f>
         <v>53.166666666666664</v>
       </c>
@@ -3307,67 +3308,67 @@
       <c r="W32" s="5"/>
     </row>
     <row r="33" spans="20:25" x14ac:dyDescent="0.3">
-      <c r="T33">
+      <c r="T33" s="0">
         <v>1</v>
       </c>
-      <c r="U33" t="s">
+      <c r="U33" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="V33" t="s">
+      <c r="V33" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="W33" t="s">
+      <c r="W33" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="X33">
+      <c r="X33" s="0">
         <f>(N7+N10+N16)/3</f>
         <v>90.438888888888911</v>
       </c>
-      <c r="Y33">
+      <c r="Y33" s="0">
         <f>(O7+O10+O16)/3</f>
         <v>40.333333333333336</v>
       </c>
     </row>
     <row r="34" spans="20:25" x14ac:dyDescent="0.3">
-      <c r="T34">
+      <c r="T34" s="0">
         <v>2</v>
       </c>
-      <c r="U34" t="s">
+      <c r="U34" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="V34" t="s">
+      <c r="V34" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="W34" t="s">
+      <c r="W34" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="X34">
+      <c r="X34" s="0">
         <f>(N5+N11+N15)/3</f>
         <v>82.75</v>
       </c>
-      <c r="Y34">
+      <c r="Y34" s="0">
         <f>(O5+O11+O15)/3</f>
         <v>42.531746031746032</v>
       </c>
     </row>
     <row r="35" spans="20:25" x14ac:dyDescent="0.3">
-      <c r="T35">
+      <c r="T35" s="0">
         <v>3</v>
       </c>
-      <c r="U35" t="s">
+      <c r="U35" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="V35" t="s">
+      <c r="V35" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="W35" t="s">
+      <c r="W35" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="X35">
+      <c r="X35" s="0">
         <f>(N6+N12+N17)/3</f>
         <v>99.833333333333329</v>
       </c>
-      <c r="Y35">
+      <c r="Y35" s="0">
         <f>(O6+O12+O17)/3</f>
         <v>55.722222222222229</v>
       </c>
@@ -3397,289 +3398,289 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>70.642857142857139</v>
-      </c>
-      <c r="B2">
+      <c r="A2" t="n" s="0">
+        <v>70.64285714285714</v>
+      </c>
+      <c r="B2" t="n" s="0">
         <v>35.333333333333336</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n" s="0">
         <v>22.666666666666668</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>70.558139534904555</v>
-      </c>
-      <c r="F2">
-        <v>34.576131687433488</v>
-      </c>
-      <c r="G2">
-        <v>22.761316872404141</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="D2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>70.55813953490454</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>34.57613168743349</v>
+      </c>
+      <c r="G2" t="n" s="0">
+        <v>22.76131687240414</v>
+      </c>
+      <c r="H2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M2" t="s" s="0">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>82.166666666666671</v>
-      </c>
-      <c r="B3">
+      <c r="A3" t="n" s="0">
+        <v>82.16666666666667</v>
+      </c>
+      <c r="B3" t="n" s="0">
         <v>46.6</v>
       </c>
-      <c r="C3">
-        <v>34.200000000000003</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>81.752941176569863</v>
-      </c>
-      <c r="F3">
-        <v>46.901408450632054</v>
-      </c>
-      <c r="G3">
-        <v>33.422535211453756</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="C3" t="n" s="0">
+        <v>34.2</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>81.75294117656986</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>46.90140845063206</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>33.42253521145376</v>
+      </c>
+      <c r="H3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M3" t="s" s="0">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>69.599999999999994</v>
-      </c>
-      <c r="B4">
+      <c r="A4" t="n" s="0">
+        <v>69.6</v>
+      </c>
+      <c r="B4" t="n" s="0">
         <v>26.5</v>
       </c>
-      <c r="C4">
-        <v>29</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>68.946666666814778</v>
-      </c>
-      <c r="F4">
+      <c r="C4" t="n" s="0">
+        <v>29.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>68.94666666681476</v>
+      </c>
+      <c r="F4" t="n" s="0">
         <v>26.5</v>
       </c>
-      <c r="G4">
-        <v>29</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="G4" t="n" s="0">
+        <v>29.0</v>
+      </c>
+      <c r="H4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M4" t="s" s="0">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>61</v>
-      </c>
-      <c r="B5">
-        <v>38.299999999999997</v>
-      </c>
-      <c r="C5">
+      <c r="A5" t="n" s="0">
+        <v>61.0</v>
+      </c>
+      <c r="B5" t="n" s="0">
+        <v>38.3</v>
+      </c>
+      <c r="C5" t="n" s="0">
         <v>22.4</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>60.564705882457417</v>
-      </c>
-      <c r="F5">
+      <c r="D5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>60.564705882457396</v>
+      </c>
+      <c r="F5" t="n" s="0">
         <v>37.815602836996234</v>
       </c>
-      <c r="G5">
-        <v>22.578014184354231</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="G5" t="n" s="0">
+        <v>22.578014184354227</v>
+      </c>
+      <c r="H5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M5" t="s" s="0">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" t="n" s="0">
         <v>92.75</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n" s="0">
         <v>47.333333333333336</v>
       </c>
-      <c r="C6">
-        <v>41</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>93.240909090787696</v>
-      </c>
-      <c r="F6">
+      <c r="C6" t="n" s="0">
+        <v>41.0</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>93.24090909078771</v>
+      </c>
+      <c r="F6" t="n" s="0">
         <v>48.051282051094276</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n" s="0">
         <v>41.153846153805915</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="H6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M6" t="s" s="0">
         <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" t="n" s="0">
         <v>71.2</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n" s="0">
         <v>26.333333333333332</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n" s="0">
         <v>28.666666666666668</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
+      <c r="D7" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E7" t="n" s="0">
         <v>71.02721088439371</v>
       </c>
-      <c r="F7">
-        <v>26.359550561791742</v>
-      </c>
-      <c r="G7">
-        <v>28.719101123583485</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="F7" t="n" s="0">
+        <v>26.35955056179175</v>
+      </c>
+      <c r="G7" t="n" s="0">
+        <v>28.71910112358349</v>
+      </c>
+      <c r="H7" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M7" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>61</v>
-      </c>
-      <c r="B8">
+      <c r="A8" t="n" s="0">
+        <v>61.0</v>
+      </c>
+      <c r="B8" t="n" s="0">
         <v>38.166666666666664</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n" s="0">
         <v>20.166666666666668</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>60.999999999999979</v>
-      </c>
-      <c r="F8">
-        <v>38.166666666666664</v>
-      </c>
-      <c r="G8">
+      <c r="D8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>61.0</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>38.16666666666667</v>
+      </c>
+      <c r="G8" t="n" s="0">
         <v>20.166666666666664</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="H8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M8" t="s" s="0">
         <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>88.333333333333329</v>
-      </c>
-      <c r="B9">
+      <c r="A9" t="n" s="0">
+        <v>88.33333333333333</v>
+      </c>
+      <c r="B9" t="n" s="0">
         <v>47.333333333333336</v>
       </c>
-      <c r="C9">
-        <v>41</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>89.205128204900205</v>
-      </c>
-      <c r="F9">
+      <c r="C9" t="n" s="0">
+        <v>41.0</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>89.20512820490019</v>
+      </c>
+      <c r="F9" t="n" s="0">
         <v>48.051282051094276</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n" s="0">
         <v>41.153846153805915</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="H9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M9" t="s" s="0">
         <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" t="n" s="0">
         <v>74.9375</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n" s="0">
         <v>33.285714285714285</v>
       </c>
-      <c r="C10">
-        <v>27</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>73.983298538838881</v>
-      </c>
-      <c r="F10">
-        <v>32.963800905046703</v>
-      </c>
-      <c r="G10">
+      <c r="C10" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>73.98329853883885</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>32.9638009050467</v>
+      </c>
+      <c r="G10" t="n" s="0">
         <v>26.687782805497104</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="M10" t="s">
+      <c r="H10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M10" t="s" s="0">
         <v>49</v>
       </c>
     </row>
@@ -3699,115 +3700,115 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
         <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>64.857142857142861</v>
-      </c>
-      <c r="B2">
-        <v>37.086666666666659</v>
-      </c>
-      <c r="C2">
+      <c r="A2" t="n" s="0">
+        <v>64.85714285714286</v>
+      </c>
+      <c r="B2" t="n" s="0">
+        <v>37.08666666666666</v>
+      </c>
+      <c r="C2" t="n" s="0">
         <v>22.06</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>62.787836257309934</v>
-      </c>
-      <c r="F2">
-        <v>35.452438672438674</v>
-      </c>
-      <c r="G2">
-        <v>20.141423761423759</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="D2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>63.06444444444444</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>37.840666666666664</v>
+      </c>
+      <c r="G2" t="n" s="0">
+        <v>21.654000000000003</v>
+      </c>
+      <c r="H2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K2" t="s" s="0">
         <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" t="n" s="0">
         <v>87.63333333333334</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n" s="0">
         <v>47.040000000000006</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n" s="0">
         <v>38.28</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>88.277777777777771</v>
-      </c>
-      <c r="F3">
-        <v>50.43333333333333</v>
-      </c>
-      <c r="G3">
-        <v>42.666666666666664</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="D3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>87.83333333333334</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>51.8</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>41.8</v>
+      </c>
+      <c r="H3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K3" t="s" s="0">
         <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>71.307500000000005</v>
-      </c>
-      <c r="B4">
+      <c r="A4" t="n" s="0">
+        <v>71.3075</v>
+      </c>
+      <c r="B4" t="n" s="0">
         <v>27.790476190476188</v>
       </c>
-      <c r="C4">
-        <v>28.466666666666669</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>15.286206896551723</v>
-      </c>
-      <c r="F4">
-        <v>4.4818181818181815</v>
-      </c>
-      <c r="G4">
-        <v>4.3090909090909095</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="C4" t="n" s="0">
+        <v>28.46666666666667</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>15.273076923076923</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>4.8625</v>
+      </c>
+      <c r="G4" t="n" s="0">
+        <v>4.5</v>
+      </c>
+      <c r="H4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K4" t="s" s="0">
         <v>54</v>
       </c>
     </row>

--- a/Red Team Data.xlsx
+++ b/Red Team Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Desktop\FTCStats\FTCStats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F75982-A1CC-404D-AF8D-1652AB1CDB15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFDA3BB-591D-425A-9B1F-43A56B362251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3792" yWindow="2400" windowWidth="17280" windowHeight="8880" activeTab="3" xr2:uid="{943F8BFE-BB93-4FCB-9D8B-2434F109755A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{943F8BFE-BB93-4FCB-9D8B-2434F109755A}"/>
   </bookViews>
   <sheets>
     <sheet name="Match Data" sheetId="1" r:id="rId1"/>
@@ -1684,8 +1684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E71918B-9D42-46BC-B578-CF08432FB725}">
   <dimension ref="A1:Y33"/>
   <sheetViews>
-    <sheetView zoomScale="108" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView topLeftCell="A12" zoomScale="108" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2441,34 +2441,10 @@
       <c r="A32" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="F32" s="0">
-        <v>10</v>
-      </c>
-      <c r="G32" s="0">
-        <v>10</v>
-      </c>
-      <c r="H32" s="0">
-        <v>56</v>
-      </c>
-      <c r="I32" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s" s="0">
         <v>51</v>
-      </c>
-      <c r="F33" s="0">
-        <v>10</v>
-      </c>
-      <c r="G33" s="0">
-        <v>10</v>
-      </c>
-      <c r="H33" s="0">
-        <v>56</v>
-      </c>
-      <c r="I33" s="0">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3391,7 +3367,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
@@ -3693,7 +3669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -3739,16 +3715,16 @@
         <v>0.0</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>63.06444444444444</v>
+        <v>63.528703703703705</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>37.840666666666664</v>
+        <v>33.41111111111111</v>
       </c>
       <c r="G2" t="n" s="0">
-        <v>21.654000000000003</v>
-      </c>
-      <c r="H2" t="n" s="0">
-        <v>0.0</v>
+        <v>20.605555555555554</v>
+      </c>
+      <c r="H2" t="e" s="0">
+        <v>#NUM!</v>
       </c>
       <c r="K2" t="s" s="0">
         <v>52</v>
@@ -3767,17 +3743,17 @@
       <c r="D3" t="n" s="0">
         <v>0.0</v>
       </c>
-      <c r="E3" t="n" s="0">
-        <v>87.83333333333334</v>
+      <c r="E3" t="e" s="0">
+        <v>#DIV/0!</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>51.8</v>
-      </c>
-      <c r="G3" t="n" s="0">
-        <v>41.8</v>
-      </c>
-      <c r="H3" t="n" s="0">
-        <v>0.0</v>
+        <v>26.0</v>
+      </c>
+      <c r="G3" t="e" s="0">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H3" t="e" s="0">
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="s" s="0">
         <v>53</v>
@@ -3797,16 +3773,16 @@
         <v>0.0</v>
       </c>
       <c r="E4" t="n" s="0">
-        <v>15.273076923076923</v>
+        <v>70.23412698412699</v>
       </c>
       <c r="F4" t="n" s="0">
-        <v>4.8625</v>
-      </c>
-      <c r="G4" t="n" s="0">
-        <v>4.5</v>
-      </c>
-      <c r="H4" t="n" s="0">
-        <v>0.0</v>
+        <v>18.35</v>
+      </c>
+      <c r="G4" t="e" s="0">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H4" t="e" s="0">
+        <v>#NUM!</v>
       </c>
       <c r="K4" t="s" s="0">
         <v>54</v>

--- a/Red Team Data.xlsx
+++ b/Red Team Data.xlsx
@@ -3413,13 +3413,13 @@
         <v>0.0</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>70.55813953490454</v>
+        <v>70.55495978554524</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>34.57613168743349</v>
+        <v>34.54700854721421</v>
       </c>
       <c r="G2" t="n" s="0">
-        <v>22.76131687240414</v>
+        <v>22.764957264931564</v>
       </c>
       <c r="H2" t="n" s="0">
         <v>0.0</v>
@@ -3442,13 +3442,13 @@
         <v>0.0</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>81.75294117656986</v>
+        <v>81.73780487815547</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>46.90140845063206</v>
+        <v>46.912408759046556</v>
       </c>
       <c r="G3" t="n" s="0">
-        <v>33.42253521145376</v>
+        <v>33.394160584141595</v>
       </c>
       <c r="H3" t="n" s="0">
         <v>0.0</v>
@@ -3471,10 +3471,10 @@
         <v>0.0</v>
       </c>
       <c r="E4" t="n" s="0">
-        <v>68.94666666681476</v>
+        <v>68.92413793119296</v>
       </c>
       <c r="F4" t="n" s="0">
-        <v>26.5</v>
+        <v>26.499999999999996</v>
       </c>
       <c r="G4" t="n" s="0">
         <v>29.0</v>
@@ -3500,13 +3500,13 @@
         <v>0.0</v>
       </c>
       <c r="E5" t="n" s="0">
-        <v>60.564705882457396</v>
+        <v>60.54878048791714</v>
       </c>
       <c r="F5" t="n" s="0">
-        <v>37.815602836996234</v>
+        <v>37.79779411777262</v>
       </c>
       <c r="G5" t="n" s="0">
-        <v>22.578014184354227</v>
+        <v>22.584558823483277</v>
       </c>
       <c r="H5" t="n" s="0">
         <v>0.0</v>
@@ -3529,13 +3529,13 @@
         <v>0.0</v>
       </c>
       <c r="E6" t="n" s="0">
-        <v>93.24090909078771</v>
+        <v>93.25943396213344</v>
       </c>
       <c r="F6" t="n" s="0">
-        <v>48.051282051094276</v>
+        <v>48.079999999796904</v>
       </c>
       <c r="G6" t="n" s="0">
-        <v>41.153846153805915</v>
+        <v>41.15999999995648</v>
       </c>
       <c r="H6" t="n" s="0">
         <v>0.0</v>
@@ -3558,13 +3558,13 @@
         <v>0.0</v>
       </c>
       <c r="E7" t="n" s="0">
-        <v>71.02721088439371</v>
+        <v>71.02112676060621</v>
       </c>
       <c r="F7" t="n" s="0">
-        <v>26.35955056179175</v>
+        <v>26.36046511627264</v>
       </c>
       <c r="G7" t="n" s="0">
-        <v>28.71910112358349</v>
+        <v>28.720930232545275</v>
       </c>
       <c r="H7" t="n" s="0">
         <v>0.0</v>
@@ -3587,13 +3587,13 @@
         <v>0.0</v>
       </c>
       <c r="E8" t="n" s="0">
-        <v>61.0</v>
+        <v>61.00000000000001</v>
       </c>
       <c r="F8" t="n" s="0">
         <v>38.16666666666667</v>
       </c>
       <c r="G8" t="n" s="0">
-        <v>20.166666666666664</v>
+        <v>20.16666666666667</v>
       </c>
       <c r="H8" t="n" s="0">
         <v>0.0</v>
@@ -3616,13 +3616,13 @@
         <v>0.0</v>
       </c>
       <c r="E9" t="n" s="0">
-        <v>89.20512820490019</v>
+        <v>89.2399999997534</v>
       </c>
       <c r="F9" t="n" s="0">
-        <v>48.051282051094276</v>
+        <v>48.079999999796904</v>
       </c>
       <c r="G9" t="n" s="0">
-        <v>41.153846153805915</v>
+        <v>41.15999999995648</v>
       </c>
       <c r="H9" t="n" s="0">
         <v>0.0</v>
@@ -3645,13 +3645,13 @@
         <v>0.0</v>
       </c>
       <c r="E10" t="n" s="0">
-        <v>73.98329853883885</v>
+        <v>73.95032397431406</v>
       </c>
       <c r="F10" t="n" s="0">
-        <v>32.9638009050467</v>
+        <v>32.95327102811133</v>
       </c>
       <c r="G10" t="n" s="0">
-        <v>26.687782805497104</v>
+        <v>26.67757009352966</v>
       </c>
       <c r="H10" t="n" s="0">
         <v>0.0</v>
@@ -3703,13 +3703,13 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="n" s="0">
-        <v>64.85714285714286</v>
+        <v>0.0</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>37.08666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>22.06</v>
+        <v>0.0</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>0.0</v>
@@ -3732,13 +3732,13 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="n" s="0">
-        <v>87.63333333333334</v>
+        <v>0.0</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>47.040000000000006</v>
+        <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>38.28</v>
+        <v>0.0</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>0.0</v>
@@ -3761,13 +3761,13 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="n" s="0">
-        <v>71.3075</v>
+        <v>0.0</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>27.790476190476188</v>
+        <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>28.46666666666667</v>
+        <v>0.0</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>0.0</v>

--- a/Red Team Data.xlsx
+++ b/Red Team Data.xlsx
@@ -3703,28 +3703,28 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="n" s="0">
-        <v>0.0</v>
+        <v>64.85714285714286</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>0.0</v>
+        <v>37.08666666666666</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>0.0</v>
+        <v>22.06</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>63.528703703703705</v>
+        <v>0.0</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>33.41111111111111</v>
+        <v>0.0</v>
       </c>
       <c r="G2" t="n" s="0">
-        <v>20.605555555555554</v>
-      </c>
-      <c r="H2" t="e" s="0">
-        <v>#NUM!</v>
+        <v>0.0</v>
+      </c>
+      <c r="H2" t="n" s="0">
+        <v>0.0</v>
       </c>
       <c r="K2" t="s" s="0">
         <v>52</v>
@@ -3732,28 +3732,28 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="n" s="0">
-        <v>0.0</v>
+        <v>87.63333333333334</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>0.0</v>
+        <v>47.040000000000006</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>0.0</v>
+        <v>38.28</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>0.0</v>
       </c>
-      <c r="E3" t="e" s="0">
-        <v>#DIV/0!</v>
+      <c r="E3" t="n" s="0">
+        <v>0.0</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>26.0</v>
-      </c>
-      <c r="G3" t="e" s="0">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H3" t="e" s="0">
-        <v>#NUM!</v>
+        <v>0.0</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H3" t="n" s="0">
+        <v>0.0</v>
       </c>
       <c r="K3" t="s" s="0">
         <v>53</v>
@@ -3761,28 +3761,28 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="n" s="0">
-        <v>0.0</v>
+        <v>71.3075</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>0.0</v>
+        <v>27.790476190476188</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>0.0</v>
+        <v>28.46666666666667</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="E4" t="n" s="0">
-        <v>70.23412698412699</v>
+        <v>0.0</v>
       </c>
       <c r="F4" t="n" s="0">
-        <v>18.35</v>
-      </c>
-      <c r="G4" t="e" s="0">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H4" t="e" s="0">
-        <v>#NUM!</v>
+        <v>0.0</v>
+      </c>
+      <c r="G4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H4" t="n" s="0">
+        <v>0.0</v>
       </c>
       <c r="K4" t="s" s="0">
         <v>54</v>

--- a/Red Team Data.xlsx
+++ b/Red Team Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Desktop\FTCStats\FTCStats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFDA3BB-591D-425A-9B1F-43A56B362251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DA2D45-0CC5-416A-8DE0-6E17EC7C7EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{943F8BFE-BB93-4FCB-9D8B-2434F109755A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{943F8BFE-BB93-4FCB-9D8B-2434F109755A}"/>
   </bookViews>
   <sheets>
     <sheet name="Match Data" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="59">
   <si>
     <t>Cyrus</t>
   </si>
@@ -1684,8 +1684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E71918B-9D42-46BC-B578-CF08432FB725}">
   <dimension ref="A1:Y33"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="108" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1742,6 +1742,12 @@
       <c r="F2" s="0">
         <v>106</v>
       </c>
+      <c r="G2" s="0">
+        <v>-1</v>
+      </c>
+      <c r="H2" s="0">
+        <v>-1</v>
+      </c>
       <c r="I2" s="0">
         <v>0</v>
       </c>
@@ -1773,6 +1779,12 @@
       <c r="F3" s="0">
         <v>83</v>
       </c>
+      <c r="G3" s="0">
+        <v>-1</v>
+      </c>
+      <c r="H3" s="0">
+        <v>-1</v>
+      </c>
       <c r="I3" s="0">
         <v>0</v>
       </c>
@@ -1796,6 +1808,12 @@
       <c r="F4" s="0">
         <v>89</v>
       </c>
+      <c r="G4" s="0">
+        <v>-1</v>
+      </c>
+      <c r="H4" s="0">
+        <v>-1</v>
+      </c>
       <c r="I4" s="0">
         <v>0</v>
       </c>
@@ -1820,6 +1838,12 @@
       <c r="F5" s="0">
         <v>71</v>
       </c>
+      <c r="G5" s="0">
+        <v>-1</v>
+      </c>
+      <c r="H5" s="0">
+        <v>-1</v>
+      </c>
       <c r="I5" s="0">
         <v>0</v>
       </c>
@@ -1843,6 +1867,12 @@
       <c r="F6" s="0">
         <v>88</v>
       </c>
+      <c r="G6" s="0">
+        <v>-1</v>
+      </c>
+      <c r="H6" s="0">
+        <v>-1</v>
+      </c>
       <c r="I6" s="0">
         <v>0</v>
       </c>
@@ -1866,6 +1896,12 @@
       <c r="F7" s="0">
         <v>111</v>
       </c>
+      <c r="G7" s="0">
+        <v>-1</v>
+      </c>
+      <c r="H7" s="0">
+        <v>-1</v>
+      </c>
       <c r="I7" s="0">
         <v>0</v>
       </c>
@@ -1889,6 +1925,12 @@
       <c r="F8" s="0">
         <v>34</v>
       </c>
+      <c r="G8" s="0">
+        <v>-1</v>
+      </c>
+      <c r="H8" s="0">
+        <v>-1</v>
+      </c>
       <c r="I8" s="0">
         <v>0</v>
       </c>
@@ -1912,6 +1954,12 @@
       <c r="F9" s="0">
         <v>120</v>
       </c>
+      <c r="G9" s="0">
+        <v>-1</v>
+      </c>
+      <c r="H9" s="0">
+        <v>-1</v>
+      </c>
       <c r="I9" s="0">
         <v>0</v>
       </c>
@@ -1935,6 +1983,12 @@
       </c>
       <c r="F10" s="0">
         <v>75</v>
+      </c>
+      <c r="G10" s="0">
+        <v>-1</v>
+      </c>
+      <c r="H10" s="0">
+        <v>-1</v>
       </c>
       <c r="I10" s="0">
         <v>0</v>
@@ -3367,8 +3421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3670,7 +3724,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3714,17 +3768,20 @@
       <c r="D2" t="n" s="0">
         <v>0.0</v>
       </c>
-      <c r="E2" t="n" s="0">
+      <c r="E2" s="0" t="n">
+        <v>64.13627450980393</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>36.37936507936508</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>22.807936507936507</v>
+      </c>
+      <c r="H2" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="F2" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="G2" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="H2" t="n" s="0">
-        <v>0.0</v>
+      <c r="J2" t="s" s="0">
+        <v>53</v>
       </c>
       <c r="K2" t="s" s="0">
         <v>52</v>
@@ -3734,25 +3791,25 @@
       <c r="A3" t="n" s="0">
         <v>87.63333333333334</v>
       </c>
-      <c r="B3" t="n" s="0">
+      <c r="B3" t="n">
         <v>47.040000000000006</v>
       </c>
-      <c r="C3" t="n" s="0">
+      <c r="C3" t="n">
         <v>38.28</v>
       </c>
-      <c r="D3" t="n" s="0">
+      <c r="D3" t="n">
         <v>0.0</v>
       </c>
-      <c r="E3" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="F3" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="G3" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="H3" t="n" s="0">
+      <c r="E3" t="n">
+        <v>88.47222222222221</v>
+      </c>
+      <c r="F3" t="n">
+        <v>46.875</v>
+      </c>
+      <c r="G3" t="n">
+        <v>36.75</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.0</v>
       </c>
       <c r="K3" t="s" s="0">
@@ -3763,25 +3820,25 @@
       <c r="A4" t="n" s="0">
         <v>71.3075</v>
       </c>
-      <c r="B4" t="n" s="0">
+      <c r="B4" t="n">
         <v>27.790476190476188</v>
       </c>
-      <c r="C4" t="n" s="0">
+      <c r="C4" t="n">
         <v>28.46666666666667</v>
       </c>
-      <c r="D4" t="n" s="0">
+      <c r="D4" t="n">
         <v>0.0</v>
       </c>
-      <c r="E4" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="F4" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="G4" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="H4" t="n" s="0">
+      <c r="E4" t="n">
+        <v>75.03571428571428</v>
+      </c>
+      <c r="F4" t="n">
+        <v>28.160714285714285</v>
+      </c>
+      <c r="G4" t="n">
+        <v>28.42857142857143</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.0</v>
       </c>
       <c r="K4" t="s" s="0">

--- a/Red Team Data.xlsx
+++ b/Red Team Data.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Desktop\FTCStats\FTCStats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DA2D45-0CC5-416A-8DE0-6E17EC7C7EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7BC124-7F1A-41A4-BD2F-892FE4F4EC6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{943F8BFE-BB93-4FCB-9D8B-2434F109755A}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="59">
   <si>
     <t>Cyrus</t>
   </si>
@@ -194,9 +194,6 @@
     <t>*</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>B+M</t>
   </si>
   <si>
@@ -216,13 +213,15 @@
   </si>
   <si>
     <t>wAvgpen</t>
+  </si>
+  <si>
+    <t>&lt;- NEW ROBOT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1682,16 +1681,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E71918B-9D42-46BC-B578-CF08432FB725}">
-  <dimension ref="A1:Y33"/>
+  <dimension ref="A1:Y31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="108" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="10.0"/>
-    <col min="5" max="5" customWidth="true" width="10.6640625"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
@@ -1724,31 +1723,31 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="1">
         <v>45237</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="0">
+      <c r="F2">
         <v>106</v>
       </c>
-      <c r="G2" s="0">
+      <c r="G2">
         <v>-1</v>
       </c>
-      <c r="H2" s="0">
+      <c r="H2">
         <v>-1</v>
       </c>
-      <c r="I2" s="0">
+      <c r="I2">
         <v>0</v>
       </c>
       <c r="M2" s="2"/>
@@ -1761,721 +1760,721 @@
       <c r="T2" s="2"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>30</v>
       </c>
       <c r="B3" s="1">
         <v>45237</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s" s="0">
+      <c r="E3" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="0">
+      <c r="F3">
         <v>83</v>
       </c>
-      <c r="G3" s="0">
+      <c r="G3">
         <v>-1</v>
       </c>
-      <c r="H3" s="0">
+      <c r="H3">
         <v>-1</v>
       </c>
-      <c r="I3" s="0">
+      <c r="I3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="1">
         <v>45237</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" t="s" s="0">
+      <c r="E4" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="0">
+      <c r="F4">
         <v>89</v>
       </c>
-      <c r="G4" s="0">
+      <c r="G4">
         <v>-1</v>
       </c>
-      <c r="H4" s="0">
+      <c r="H4">
         <v>-1</v>
       </c>
-      <c r="I4" s="0">
+      <c r="I4">
         <v>0</v>
       </c>
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" t="s" s="0">
+      <c r="A5" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="1">
         <v>45238</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s" s="0">
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="0">
+      <c r="F5">
         <v>71</v>
       </c>
-      <c r="G5" s="0">
+      <c r="G5">
         <v>-1</v>
       </c>
-      <c r="H5" s="0">
+      <c r="H5">
         <v>-1</v>
       </c>
-      <c r="I5" s="0">
+      <c r="I5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" t="s" s="0">
+      <c r="A6" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="1">
         <v>45238</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="D6" t="s">
         <v>2</v>
       </c>
-      <c r="E6" t="s" s="0">
+      <c r="E6" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="0">
+      <c r="F6">
         <v>88</v>
       </c>
-      <c r="G6" s="0">
+      <c r="G6">
         <v>-1</v>
       </c>
-      <c r="H6" s="0">
+      <c r="H6">
         <v>-1</v>
       </c>
-      <c r="I6" s="0">
+      <c r="I6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" t="s" s="0">
+      <c r="A7" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="1">
         <v>45238</v>
       </c>
-      <c r="C7" t="s" s="0">
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s" s="0">
+      <c r="D7" t="s">
         <v>2</v>
       </c>
-      <c r="E7" t="s" s="0">
+      <c r="E7" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="0">
+      <c r="F7">
         <v>111</v>
       </c>
-      <c r="G7" s="0">
+      <c r="G7">
         <v>-1</v>
       </c>
-      <c r="H7" s="0">
+      <c r="H7">
         <v>-1</v>
       </c>
-      <c r="I7" s="0">
+      <c r="I7">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" t="s" s="0">
+      <c r="A8" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="1">
         <v>45238</v>
       </c>
-      <c r="C8" t="s" s="0">
+      <c r="C8" t="s">
         <v>3</v>
       </c>
-      <c r="D8" t="s" s="0">
+      <c r="D8" t="s">
         <v>9</v>
       </c>
-      <c r="E8" t="s" s="0">
+      <c r="E8" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="0">
+      <c r="F8">
         <v>34</v>
       </c>
-      <c r="G8" s="0">
+      <c r="G8">
         <v>-1</v>
       </c>
-      <c r="H8" s="0">
+      <c r="H8">
         <v>-1</v>
       </c>
-      <c r="I8" s="0">
+      <c r="I8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" t="s" s="0">
+      <c r="A9" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="1">
         <v>45238</v>
       </c>
-      <c r="C9" t="s" s="0">
+      <c r="C9" t="s">
         <v>3</v>
       </c>
-      <c r="D9" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s" s="0">
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="0">
+      <c r="F9">
         <v>120</v>
       </c>
-      <c r="G9" s="0">
+      <c r="G9">
         <v>-1</v>
       </c>
-      <c r="H9" s="0">
+      <c r="H9">
         <v>-1</v>
       </c>
-      <c r="I9" s="0">
+      <c r="I9">
         <v>0</v>
       </c>
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" t="s" s="0">
+      <c r="A10" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="1">
         <v>45238</v>
       </c>
-      <c r="C10" t="s" s="0">
+      <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="D10" t="s" s="0">
+      <c r="D10" t="s">
         <v>9</v>
       </c>
-      <c r="E10" t="s" s="0">
+      <c r="E10" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="0">
+      <c r="F10">
         <v>75</v>
       </c>
-      <c r="G10" s="0">
+      <c r="G10">
         <v>-1</v>
       </c>
-      <c r="H10" s="0">
+      <c r="H10">
         <v>-1</v>
       </c>
-      <c r="I10" s="0">
+      <c r="I10">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" t="s" s="0">
+      <c r="A11" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="1">
         <v>45237</v>
       </c>
-      <c r="C11" t="s" s="0">
+      <c r="C11" t="s">
         <v>4</v>
       </c>
-      <c r="D11" t="s" s="0">
+      <c r="D11" t="s">
         <v>2</v>
       </c>
-      <c r="E11" t="s" s="0">
+      <c r="E11" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="0">
+      <c r="F11">
         <v>111</v>
       </c>
-      <c r="G11" s="0">
+      <c r="G11">
         <v>66</v>
       </c>
-      <c r="H11" s="0">
+      <c r="H11">
         <v>45</v>
       </c>
-      <c r="I11" s="0">
+      <c r="I11">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" t="s" s="0">
+      <c r="A12" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="1">
         <v>45238</v>
       </c>
-      <c r="C12" t="s" s="0">
+      <c r="C12" t="s">
         <v>11</v>
       </c>
-      <c r="D12" t="s" s="0">
+      <c r="D12" t="s">
         <v>9</v>
       </c>
-      <c r="E12" t="s" s="0">
+      <c r="E12" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="0">
+      <c r="F12">
         <v>107</v>
       </c>
-      <c r="G12" s="0">
+      <c r="G12">
         <v>57</v>
       </c>
-      <c r="H12" s="0">
+      <c r="H12">
         <v>50</v>
       </c>
-      <c r="I12" s="0">
+      <c r="I12">
         <v>0</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" t="s" s="0">
+      <c r="A13" t="s">
         <v>31</v>
       </c>
       <c r="B13" s="1">
         <v>45234</v>
       </c>
-      <c r="C13" t="s" s="0">
+      <c r="C13" t="s">
         <v>4</v>
       </c>
-      <c r="D13" t="s" s="0">
+      <c r="D13" t="s">
         <v>2</v>
       </c>
-      <c r="E13" t="s" s="0">
+      <c r="E13" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="0">
+      <c r="F13">
         <v>72</v>
       </c>
-      <c r="G13" s="0">
+      <c r="G13">
         <v>44</v>
       </c>
-      <c r="H13" s="0">
+      <c r="H13">
         <v>28</v>
       </c>
-      <c r="I13" s="0">
+      <c r="I13">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" t="s" s="0">
+      <c r="A14" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="1">
         <v>45234</v>
       </c>
-      <c r="C14" t="s" s="0">
+      <c r="C14" t="s">
         <v>11</v>
       </c>
-      <c r="D14" t="s" s="0">
+      <c r="D14" t="s">
         <v>9</v>
       </c>
-      <c r="E14" t="s" s="0">
+      <c r="E14" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="0">
+      <c r="F14">
         <v>97</v>
       </c>
-      <c r="G14" s="0">
+      <c r="G14">
         <v>51</v>
       </c>
-      <c r="H14" s="0">
+      <c r="H14">
         <v>30</v>
       </c>
-      <c r="I14" s="0">
+      <c r="I14">
         <v>0</v>
       </c>
       <c r="M14" s="2"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" t="s" s="0">
+      <c r="A15" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="1">
         <v>45234</v>
       </c>
-      <c r="C15" t="s" s="0">
+      <c r="C15" t="s">
         <v>11</v>
       </c>
-      <c r="D15" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s" s="0">
+      <c r="D15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="0">
+      <c r="F15">
         <v>54</v>
       </c>
-      <c r="G15" s="0">
+      <c r="G15">
         <v>26</v>
       </c>
-      <c r="H15" s="0">
+      <c r="H15">
         <v>28</v>
       </c>
-      <c r="I15" s="0">
+      <c r="I15">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" t="s" s="0">
+      <c r="A16" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="1">
         <v>45234</v>
       </c>
-      <c r="C16" t="s" s="0">
+      <c r="C16" t="s">
         <v>4</v>
       </c>
-      <c r="D16" t="s" s="0">
+      <c r="D16" t="s">
         <v>2</v>
       </c>
-      <c r="E16" t="s" s="0">
+      <c r="E16" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="0">
+      <c r="F16">
         <v>82</v>
       </c>
-      <c r="G16" s="0">
+      <c r="G16">
         <v>32</v>
       </c>
-      <c r="H16" s="0">
+      <c r="H16">
         <v>50</v>
       </c>
-      <c r="I16" s="0">
+      <c r="I16">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A17" t="s" s="0">
+      <c r="A17" t="s">
         <v>31</v>
       </c>
       <c r="B17" s="1">
         <v>45234</v>
       </c>
-      <c r="C17" t="s" s="0">
+      <c r="C17" t="s">
         <v>11</v>
       </c>
-      <c r="D17" t="s" s="0">
+      <c r="D17" t="s">
         <v>9</v>
       </c>
-      <c r="E17" t="s" s="0">
+      <c r="E17" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="0">
+      <c r="F17">
         <v>60</v>
       </c>
-      <c r="G17" s="0">
+      <c r="G17">
         <v>40</v>
       </c>
-      <c r="H17" s="0">
+      <c r="H17">
         <v>20</v>
       </c>
-      <c r="I17" s="0">
+      <c r="I17">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A18" t="s" s="0">
+      <c r="A18" t="s">
         <v>31</v>
       </c>
       <c r="B18" s="1">
         <v>45234</v>
       </c>
-      <c r="C18" t="s" s="0">
+      <c r="C18" t="s">
         <v>11</v>
       </c>
-      <c r="D18" t="s" s="0">
+      <c r="D18" t="s">
         <v>9</v>
       </c>
-      <c r="E18" t="s" s="0">
+      <c r="E18" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="0">
+      <c r="F18">
         <v>56</v>
       </c>
-      <c r="G18" s="0">
+      <c r="G18">
         <v>48</v>
       </c>
-      <c r="H18" s="0">
+      <c r="H18">
         <v>8</v>
       </c>
-      <c r="I18" s="0">
+      <c r="I18">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A19" t="s" s="0">
+      <c r="A19" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="1">
         <v>45234</v>
       </c>
-      <c r="C19" t="s" s="0">
+      <c r="C19" t="s">
         <v>11</v>
       </c>
-      <c r="D19" t="s" s="0">
+      <c r="D19" t="s">
         <v>9</v>
       </c>
-      <c r="E19" t="s" s="0">
+      <c r="E19" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="0">
+      <c r="F19">
         <v>60</v>
       </c>
-      <c r="G19" s="0">
+      <c r="G19">
         <v>30</v>
       </c>
-      <c r="H19" s="0">
+      <c r="H19">
         <v>30</v>
       </c>
-      <c r="I19" s="0">
+      <c r="I19">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A20" t="s" s="0">
+      <c r="A20" t="s">
         <v>31</v>
       </c>
       <c r="B20" s="1">
         <v>45234</v>
       </c>
-      <c r="C20" t="s" s="0">
+      <c r="C20" t="s">
         <v>11</v>
       </c>
-      <c r="D20" t="s" s="0">
+      <c r="D20" t="s">
         <v>9</v>
       </c>
-      <c r="E20" t="s" s="0">
+      <c r="E20" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="0">
+      <c r="F20">
         <v>39</v>
       </c>
-      <c r="G20" s="0">
+      <c r="G20">
         <v>34</v>
       </c>
-      <c r="H20" s="0">
+      <c r="H20">
         <v>5</v>
       </c>
-      <c r="I20" s="0">
+      <c r="I20">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A21" t="s" s="0">
+      <c r="A21" t="s">
         <v>31</v>
       </c>
       <c r="B21" s="1">
         <v>45241</v>
       </c>
-      <c r="C21" t="s" s="0">
+      <c r="C21" t="s">
         <v>11</v>
       </c>
-      <c r="D21" t="s" s="0">
+      <c r="D21" t="s">
         <v>9</v>
       </c>
-      <c r="E21" t="s" s="0">
+      <c r="E21" t="s">
         <v>1</v>
       </c>
-      <c r="F21" s="0">
+      <c r="F21">
         <v>32</v>
       </c>
-      <c r="G21" s="0">
+      <c r="G21">
         <v>4</v>
       </c>
-      <c r="H21" s="0">
+      <c r="H21">
         <v>28</v>
       </c>
-      <c r="I21" s="0">
-        <v>0</v>
-      </c>
-      <c r="K21" t="s" s="0">
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A22" t="s" s="0">
+      <c r="A22" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="1">
         <v>45241</v>
       </c>
-      <c r="C22" t="s" s="0">
+      <c r="C22" t="s">
         <v>4</v>
       </c>
-      <c r="D22" t="s" s="0">
+      <c r="D22" t="s">
         <v>9</v>
       </c>
-      <c r="E22" t="s" s="0">
+      <c r="E22" t="s">
         <v>1</v>
       </c>
-      <c r="F22" s="0">
+      <c r="F22">
         <v>83</v>
       </c>
-      <c r="G22" s="0">
+      <c r="G22">
         <v>55</v>
       </c>
-      <c r="H22" s="0">
+      <c r="H22">
         <v>28</v>
       </c>
-      <c r="I22" s="0">
-        <v>0</v>
-      </c>
-      <c r="K22" t="s" s="0">
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="K22" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A23" t="s" s="0">
+      <c r="A23" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="1">
         <v>45241</v>
       </c>
-      <c r="C23" t="s" s="0">
+      <c r="C23" t="s">
         <v>3</v>
       </c>
-      <c r="D23" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="E23" t="s" s="0">
+      <c r="D23" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
         <v>1</v>
       </c>
-      <c r="F23" s="0">
+      <c r="F23">
         <v>56</v>
       </c>
-      <c r="G23" s="0">
+      <c r="G23">
         <v>26</v>
       </c>
-      <c r="H23" s="0">
+      <c r="H23">
         <v>30</v>
       </c>
-      <c r="I23" s="0">
-        <v>0</v>
-      </c>
-      <c r="K23" t="s" s="0">
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="K23" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A24" t="s" s="0">
+      <c r="A24" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="1">
         <v>45241</v>
       </c>
-      <c r="C24" t="s" s="0">
+      <c r="C24" t="s">
         <v>11</v>
       </c>
-      <c r="D24" t="s" s="0">
+      <c r="D24" t="s">
         <v>9</v>
       </c>
-      <c r="E24" t="s" s="0">
+      <c r="E24" t="s">
         <v>1</v>
       </c>
-      <c r="F24" s="0">
+      <c r="F24">
         <v>33</v>
       </c>
-      <c r="G24" s="0">
+      <c r="G24">
         <v>28</v>
       </c>
-      <c r="H24" s="0">
+      <c r="H24">
         <v>5</v>
       </c>
-      <c r="I24" s="0">
-        <v>0</v>
-      </c>
-      <c r="K24" t="s" s="0">
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="K24" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A25" t="s" s="0">
+      <c r="A25" t="s">
         <v>31</v>
       </c>
       <c r="B25" s="1">
         <v>45241</v>
       </c>
-      <c r="C25" t="s" s="0">
+      <c r="C25" t="s">
         <v>4</v>
       </c>
-      <c r="D25" t="s" s="0">
+      <c r="D25" t="s">
         <v>9</v>
       </c>
-      <c r="E25" t="s" s="0">
+      <c r="E25" t="s">
         <v>1</v>
       </c>
-      <c r="F25" s="0">
+      <c r="F25">
         <v>56</v>
       </c>
-      <c r="G25" s="0">
+      <c r="G25">
         <v>36</v>
       </c>
-      <c r="H25" s="0">
+      <c r="H25">
         <v>20</v>
       </c>
-      <c r="I25" s="0">
-        <v>0</v>
-      </c>
-      <c r="K25" t="s" s="0">
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="K25" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A26" t="s" s="0">
+      <c r="A26" t="s">
         <v>31</v>
       </c>
       <c r="B26" s="1">
         <v>45241</v>
       </c>
-      <c r="C26" t="s" s="0">
+      <c r="C26" t="s">
         <v>3</v>
       </c>
-      <c r="D26" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="E26" t="s" s="0">
+      <c r="D26" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
         <v>1</v>
       </c>
-      <c r="F26" s="0">
+      <c r="F26">
         <v>55</v>
       </c>
-      <c r="G26" s="0">
+      <c r="G26">
         <v>27</v>
       </c>
-      <c r="H26" s="0">
+      <c r="H26">
         <v>28</v>
       </c>
-      <c r="I26" s="0">
-        <v>0</v>
-      </c>
-      <c r="K26" t="s" s="0">
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="K26" t="s">
         <v>50</v>
       </c>
       <c r="T26" s="5"/>
@@ -2485,21 +2484,16 @@
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
     </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="L27" t="s">
+        <v>58</v>
+      </c>
+    </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="T31" s="5"/>
       <c r="U31" s="5"/>
       <c r="V31" s="5"/>
       <c r="W31" s="5"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A32" t="s" s="0">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s" s="0">
-        <v>51</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2521,8 +2515,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="10.0"/>
-    <col min="5" max="5" customWidth="true" width="10.6640625"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
@@ -2554,7 +2548,7 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
-      <c r="V2" t="s" s="0">
+      <c r="V2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2562,16 +2556,16 @@
       <c r="A3" s="1">
         <v>45237</v>
       </c>
-      <c r="B3" s="0">
+      <c r="B3">
         <v>106</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s" s="0">
+      <c r="E3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2579,25 +2573,25 @@
       <c r="A4" s="1">
         <v>45237</v>
       </c>
-      <c r="B4" s="0">
+      <c r="B4">
         <v>83</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" t="s" s="0">
+      <c r="E4" t="s">
         <v>1</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N4" t="s" s="0">
+      <c r="N4" t="s">
         <v>23</v>
       </c>
-      <c r="O4" t="s" s="0">
+      <c r="O4" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2605,26 +2599,26 @@
       <c r="A5" s="1">
         <v>45237</v>
       </c>
-      <c r="B5" s="0">
+      <c r="B5">
         <v>89</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="D5" t="s">
         <v>2</v>
       </c>
-      <c r="E5" t="s" s="0">
+      <c r="E5" t="s">
         <v>1</v>
       </c>
-      <c r="M5" t="s" s="0">
+      <c r="M5" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="0">
+      <c r="N5">
         <f>(SUMIF($C$3:$C$100, M5, $B$3:$B$100)/COUNTIF($C$3:$C$100, M5))</f>
         <v>88.083333333333329</v>
       </c>
-      <c r="O5" s="0">
+      <c r="O5">
         <f>(SUMIF($C$3:$C$100, M5, $F$3:$F$100)/COUNTIF($C$13:$C$100, M5))</f>
         <v>42.428571428571431</v>
       </c>
@@ -2633,26 +2627,26 @@
       <c r="A6" s="1">
         <v>45238</v>
       </c>
-      <c r="B6" s="0">
+      <c r="B6">
         <v>71</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s" s="0">
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
         <v>1</v>
       </c>
-      <c r="M6" t="s" s="0">
+      <c r="M6" t="s">
         <v>4</v>
       </c>
-      <c r="N6" s="0">
+      <c r="N6">
         <f>(SUMIF($C$3:$C$100, M6, $B$3:$B$100)/COUNTIF($C$3:$C$100, M6))</f>
         <v>98.5</v>
       </c>
-      <c r="O6" s="0">
+      <c r="O6">
         <f>(SUMIF($C$3:$C$100, M6, $F$3:$F$100)/COUNTIF($C$13:$C$100, M6))</f>
         <v>57.333333333333336</v>
       </c>
@@ -2661,26 +2655,26 @@
       <c r="A7" s="1">
         <v>45238</v>
       </c>
-      <c r="B7" s="0">
+      <c r="B7">
         <v>88</v>
       </c>
-      <c r="C7" t="s" s="0">
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s" s="0">
+      <c r="D7" t="s">
         <v>2</v>
       </c>
-      <c r="E7" t="s" s="0">
+      <c r="E7" t="s">
         <v>1</v>
       </c>
-      <c r="M7" t="s" s="0">
+      <c r="M7" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="0">
+      <c r="N7">
         <f>(SUMIF($C$3:$C$100, M7, $B$3:$B$100)/COUNTIF($C$3:$C$100, M7))</f>
         <v>86.25</v>
       </c>
-      <c r="O7" s="0">
+      <c r="O7">
         <f>(SUMIF($C$3:$C$100, M7, $F$3:$F$100)/COUNTIF($C$13:$C$100, M7))</f>
         <v>38</v>
       </c>
@@ -2689,16 +2683,16 @@
       <c r="A8" s="1">
         <v>45238</v>
       </c>
-      <c r="B8" s="0">
+      <c r="B8">
         <v>111</v>
       </c>
-      <c r="C8" t="s" s="0">
+      <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" t="s" s="0">
+      <c r="D8" t="s">
         <v>2</v>
       </c>
-      <c r="E8" t="s" s="0">
+      <c r="E8" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2706,16 +2700,16 @@
       <c r="A9" s="1">
         <v>45238</v>
       </c>
-      <c r="B9" s="0">
+      <c r="B9">
         <v>34</v>
       </c>
-      <c r="C9" t="s" s="0">
+      <c r="C9" t="s">
         <v>3</v>
       </c>
-      <c r="D9" t="s" s="0">
+      <c r="D9" t="s">
         <v>9</v>
       </c>
-      <c r="E9" t="s" s="0">
+      <c r="E9" t="s">
         <v>1</v>
       </c>
       <c r="M9" s="2" t="s">
@@ -2726,16 +2720,16 @@
       <c r="A10" s="1">
         <v>45238</v>
       </c>
-      <c r="B10" s="0">
+      <c r="B10">
         <v>120</v>
       </c>
-      <c r="C10" t="s" s="0">
+      <c r="C10" t="s">
         <v>3</v>
       </c>
-      <c r="D10" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s" s="0">
+      <c r="D10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
         <v>1</v>
       </c>
       <c r="H10" s="5" t="s">
@@ -2744,14 +2738,14 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
-      <c r="M10" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="N10" s="0">
+      <c r="M10" t="s">
+        <v>0</v>
+      </c>
+      <c r="N10">
         <f>(SUMIF($D$3:$D$100, M10, $B$3:$B$100)/COUNTIF($D$3:$D$100, M10))</f>
         <v>96.666666666666671</v>
       </c>
-      <c r="O10" s="0">
+      <c r="O10">
         <f>(SUMIF($D$3:$D$100, M10, $F$3:$F$100)/COUNTIF($D$13:$D$100, M10))</f>
         <v>26</v>
       </c>
@@ -2760,16 +2754,16 @@
       <c r="A11" s="1">
         <v>45238</v>
       </c>
-      <c r="B11" s="0">
+      <c r="B11">
         <v>75</v>
       </c>
-      <c r="C11" t="s" s="0">
+      <c r="C11" t="s">
         <v>11</v>
       </c>
-      <c r="D11" t="s" s="0">
+      <c r="D11" t="s">
         <v>9</v>
       </c>
-      <c r="E11" t="s" s="0">
+      <c r="E11" t="s">
         <v>1</v>
       </c>
       <c r="H11" s="5" t="s">
@@ -2780,14 +2774,14 @@
         <v>22</v>
       </c>
       <c r="K11" s="5"/>
-      <c r="M11" t="s" s="0">
+      <c r="M11" t="s">
         <v>9</v>
       </c>
-      <c r="N11" s="0">
+      <c r="N11">
         <f>(SUMIF($D$3:$D$100, M11, $B$3:$B$100)/COUNTIF($D$3:$D$100, M11))</f>
         <v>77</v>
       </c>
-      <c r="O11" s="0">
+      <c r="O11">
         <f>(SUMIF($D$3:$D$100, M11, $F$3:$F$100)/COUNTIF($D$13:$D$100, M11))</f>
         <v>45.166666666666664</v>
       </c>
@@ -2805,14 +2799,14 @@
       <c r="K12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M12" t="s" s="0">
+      <c r="M12" t="s">
         <v>2</v>
       </c>
-      <c r="N12" s="0">
+      <c r="N12">
         <f>(SUMIF($D$3:$D$100, M12, $B$3:$B$100)/COUNTIF($D$3:$D$100, M12))</f>
         <v>97.75</v>
       </c>
-      <c r="O12" s="0">
+      <c r="O12">
         <f>(SUMIF($D$3:$D$100, M12, $F$3:$F$100)/COUNTIF($D$13:$D$100, M12))</f>
         <v>57.333333333333336</v>
       </c>
@@ -2821,26 +2815,26 @@
       <c r="A13" s="1">
         <v>45237</v>
       </c>
-      <c r="B13" s="0">
+      <c r="B13">
         <v>111</v>
       </c>
-      <c r="C13" t="s" s="0">
+      <c r="C13" t="s">
         <v>4</v>
       </c>
-      <c r="D13" t="s" s="0">
+      <c r="D13" t="s">
         <v>2</v>
       </c>
-      <c r="E13" t="s" s="0">
+      <c r="E13" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="0">
+      <c r="F13">
         <v>66</v>
       </c>
-      <c r="H13" s="0">
+      <c r="H13">
         <f t="shared" ref="H13:H23" si="0">(SUMIF($M$5:$M$7, $C13, $N$5:$N$7)+SUMIF($M$10:$M$12, $D13, $N$10:$N$12)+SUMIF($M$15:$M$17, $E13, $N$15:$N$17))/3</f>
         <v>99.833333333333329</v>
       </c>
-      <c r="I13" s="0">
+      <c r="I13">
         <f t="shared" ref="I13:I23" si="1">(SUMIF($M$5:$M$7, $C13, $O$5:$O$7)+SUMIF($M$10:$M$12, $D13, $O$10:$O$12)+SUMIF($M$15:$M$17, $E13, $O$15:$O$17))/3</f>
         <v>55.722222222222229</v>
       </c>
@@ -2848,7 +2842,7 @@
         <f t="shared" ref="J13:J23" si="2">(SUMIF($M$5:$M$7, $C13, $N$5:$N$7)+SUMIF($M$10:$M$12, $D13, $N$10:$N$12))/2</f>
         <v>98.125</v>
       </c>
-      <c r="K13" s="0">
+      <c r="K13">
         <f t="shared" ref="K13:K23" si="3">(SUMIF($M$5:$M$7, $C13, $O$5:$O$7)+SUMIF($M$10:$M$12, $D13, $O$10:$O$12))/2</f>
         <v>57.333333333333336</v>
       </c>
@@ -2857,26 +2851,26 @@
       <c r="A14" s="1">
         <v>45238</v>
       </c>
-      <c r="B14" s="0">
+      <c r="B14">
         <v>107</v>
       </c>
-      <c r="C14" t="s" s="0">
+      <c r="C14" t="s">
         <v>11</v>
       </c>
-      <c r="D14" t="s" s="0">
+      <c r="D14" t="s">
         <v>9</v>
       </c>
-      <c r="E14" t="s" s="0">
+      <c r="E14" t="s">
         <v>1</v>
       </c>
-      <c r="F14" s="0">
+      <c r="F14">
         <v>57</v>
       </c>
-      <c r="H14" s="0">
+      <c r="H14">
         <f t="shared" si="0"/>
         <v>84.49444444444444</v>
       </c>
-      <c r="I14" s="0">
+      <c r="I14">
         <f t="shared" si="1"/>
         <v>48.198412698412703</v>
       </c>
@@ -2884,7 +2878,7 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K14" s="0">
+      <c r="K14">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
@@ -2896,26 +2890,26 @@
       <c r="A15" s="1">
         <v>45234</v>
       </c>
-      <c r="B15" s="0">
+      <c r="B15">
         <v>108</v>
       </c>
-      <c r="C15" t="s" s="0">
+      <c r="C15" t="s">
         <v>3</v>
       </c>
-      <c r="D15" t="s" s="0">
+      <c r="D15" t="s">
         <v>19</v>
       </c>
-      <c r="E15" t="s" s="0">
+      <c r="E15" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="0">
+      <c r="F15">
         <v>38</v>
       </c>
-      <c r="H15" s="0">
+      <c r="H15">
         <f t="shared" si="0"/>
         <v>63.166666666666664</v>
       </c>
-      <c r="I15" s="0">
+      <c r="I15">
         <f t="shared" si="1"/>
         <v>30.166666666666668</v>
       </c>
@@ -2923,18 +2917,18 @@
         <f t="shared" si="2"/>
         <v>43.125</v>
       </c>
-      <c r="K15" s="0">
+      <c r="K15">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="M15" t="s" s="0">
+      <c r="M15" t="s">
         <v>10</v>
       </c>
-      <c r="N15" s="0">
+      <c r="N15">
         <f>(SUMIF($E$3:$E$100, M15, $B$3:$B$100)/COUNTIF($E$3:$E$100, M15))</f>
         <v>83.166666666666671</v>
       </c>
-      <c r="O15" s="0">
+      <c r="O15">
         <f>(SUMIF($E$3:$E$100, M15, $F$3:$F$100)/COUNTIF($E$13:$E$100, M15))</f>
         <v>40</v>
       </c>
@@ -2943,26 +2937,26 @@
       <c r="A16" s="1">
         <v>45234</v>
       </c>
-      <c r="B16" s="0">
+      <c r="B16">
         <v>107</v>
       </c>
-      <c r="C16" t="s" s="0">
+      <c r="C16" t="s">
         <v>4</v>
       </c>
-      <c r="D16" t="s" s="0">
+      <c r="D16" t="s">
         <v>2</v>
       </c>
-      <c r="E16" t="s" s="0">
+      <c r="E16" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="0">
+      <c r="F16">
         <v>74</v>
       </c>
-      <c r="H16" s="0">
+      <c r="H16">
         <f t="shared" si="0"/>
         <v>99.833333333333329</v>
       </c>
-      <c r="I16" s="0">
+      <c r="I16">
         <f t="shared" si="1"/>
         <v>55.722222222222229</v>
       </c>
@@ -2970,18 +2964,18 @@
         <f t="shared" si="2"/>
         <v>98.125</v>
       </c>
-      <c r="K16" s="0">
+      <c r="K16">
         <f t="shared" si="3"/>
         <v>57.333333333333336</v>
       </c>
-      <c r="M16" t="s" s="0">
+      <c r="M16" t="s">
         <v>1</v>
       </c>
-      <c r="N16" s="0">
+      <c r="N16">
         <f>(SUMIF($E$3:$E$100, M16, $B$3:$B$100)/COUNTIF($E$3:$E$100, M16))</f>
         <v>88.4</v>
       </c>
-      <c r="O16" s="0">
+      <c r="O16">
         <f>(SUMIF($E$3:$E$100, M16, $F$3:$F$100)/COUNTIF($E$13:$E$100, M16))</f>
         <v>57</v>
       </c>
@@ -2990,26 +2984,26 @@
       <c r="A17" s="1">
         <v>45234</v>
       </c>
-      <c r="B17" s="0">
+      <c r="B17">
         <v>97</v>
       </c>
-      <c r="C17" t="s" s="0">
+      <c r="C17" t="s">
         <v>11</v>
       </c>
-      <c r="D17" t="s" s="0">
+      <c r="D17" t="s">
         <v>9</v>
       </c>
-      <c r="E17" t="s" s="0">
+      <c r="E17" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="0">
+      <c r="F17">
         <v>62</v>
       </c>
-      <c r="H17" s="0">
+      <c r="H17">
         <f t="shared" si="0"/>
         <v>82.75</v>
       </c>
-      <c r="I17" s="0">
+      <c r="I17">
         <f t="shared" si="1"/>
         <v>42.531746031746032</v>
       </c>
@@ -3017,18 +3011,18 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K17" s="0">
+      <c r="K17">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
-      <c r="M17" t="s" s="0">
+      <c r="M17" t="s">
         <v>5</v>
       </c>
-      <c r="N17" s="0">
+      <c r="N17">
         <f>(SUMIF($E$3:$E$100, M17, $B$3:$B$100)/COUNTIF($E$3:$E$100, M17))</f>
         <v>103.25</v>
       </c>
-      <c r="O17" s="0">
+      <c r="O17">
         <f>(SUMIF($E$3:$E$100, M17, $F$3:$F$100)/COUNTIF($E$13:$E$100, M17))</f>
         <v>52.5</v>
       </c>
@@ -3037,26 +3031,26 @@
       <c r="A18" s="1">
         <v>45234</v>
       </c>
-      <c r="B18" s="0">
+      <c r="B18">
         <v>99</v>
       </c>
-      <c r="C18" t="s" s="0">
+      <c r="C18" t="s">
         <v>11</v>
       </c>
-      <c r="D18" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s" s="0">
+      <c r="D18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="0">
+      <c r="F18">
         <v>26</v>
       </c>
-      <c r="H18" s="0">
+      <c r="H18">
         <f t="shared" si="0"/>
         <v>89.305555555555557</v>
       </c>
-      <c r="I18" s="0">
+      <c r="I18">
         <f t="shared" si="1"/>
         <v>36.142857142857146</v>
       </c>
@@ -3064,7 +3058,7 @@
         <f t="shared" si="2"/>
         <v>92.375</v>
       </c>
-      <c r="K18" s="0">
+      <c r="K18">
         <f t="shared" si="3"/>
         <v>34.214285714285715</v>
       </c>
@@ -3073,26 +3067,26 @@
       <c r="A19" s="1">
         <v>45234</v>
       </c>
-      <c r="B19" s="0">
+      <c r="B19">
         <v>87</v>
       </c>
-      <c r="C19" t="s" s="0">
+      <c r="C19" t="s">
         <v>4</v>
       </c>
-      <c r="D19" t="s" s="0">
+      <c r="D19" t="s">
         <v>2</v>
       </c>
-      <c r="E19" t="s" s="0">
+      <c r="E19" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="0">
+      <c r="F19">
         <v>32</v>
       </c>
-      <c r="H19" s="0">
+      <c r="H19">
         <f t="shared" si="0"/>
         <v>99.833333333333329</v>
       </c>
-      <c r="I19" s="0">
+      <c r="I19">
         <f t="shared" si="1"/>
         <v>55.722222222222229</v>
       </c>
@@ -3100,7 +3094,7 @@
         <f t="shared" si="2"/>
         <v>98.125</v>
       </c>
-      <c r="K19" s="0">
+      <c r="K19">
         <f t="shared" si="3"/>
         <v>57.333333333333336</v>
       </c>
@@ -3109,26 +3103,26 @@
       <c r="A20" s="1">
         <v>45234</v>
       </c>
-      <c r="B20" s="0">
+      <c r="B20">
         <v>76</v>
       </c>
-      <c r="C20" t="s" s="0">
+      <c r="C20" t="s">
         <v>11</v>
       </c>
-      <c r="D20" t="s" s="0">
+      <c r="D20" t="s">
         <v>9</v>
       </c>
-      <c r="E20" t="s" s="0">
+      <c r="E20" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="0">
+      <c r="F20">
         <v>48</v>
       </c>
-      <c r="H20" s="0">
+      <c r="H20">
         <f t="shared" si="0"/>
         <v>82.75</v>
       </c>
-      <c r="I20" s="0">
+      <c r="I20">
         <f t="shared" si="1"/>
         <v>42.531746031746032</v>
       </c>
@@ -3136,7 +3130,7 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K20" s="0">
+      <c r="K20">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
@@ -3145,26 +3139,26 @@
       <c r="A21" s="1">
         <v>45234</v>
       </c>
-      <c r="B21" s="0">
+      <c r="B21">
         <v>93</v>
       </c>
-      <c r="C21" t="s" s="0">
+      <c r="C21" t="s">
         <v>11</v>
       </c>
-      <c r="D21" t="s" s="0">
+      <c r="D21" t="s">
         <v>9</v>
       </c>
-      <c r="E21" t="s" s="0">
+      <c r="E21" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="0">
+      <c r="F21">
         <v>40</v>
       </c>
-      <c r="H21" s="0">
+      <c r="H21">
         <f t="shared" si="0"/>
         <v>82.75</v>
       </c>
-      <c r="I21" s="0">
+      <c r="I21">
         <f t="shared" si="1"/>
         <v>42.531746031746032</v>
       </c>
@@ -3172,7 +3166,7 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K21" s="0">
+      <c r="K21">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
@@ -3181,26 +3175,26 @@
       <c r="A22" s="1">
         <v>45234</v>
       </c>
-      <c r="B22" s="0">
+      <c r="B22">
         <v>85</v>
       </c>
-      <c r="C22" t="s" s="0">
+      <c r="C22" t="s">
         <v>11</v>
       </c>
-      <c r="D22" t="s" s="0">
+      <c r="D22" t="s">
         <v>9</v>
       </c>
-      <c r="E22" t="s" s="0">
+      <c r="E22" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="0">
+      <c r="F22">
         <v>30</v>
       </c>
-      <c r="H22" s="0">
+      <c r="H22">
         <f t="shared" si="0"/>
         <v>82.75</v>
       </c>
-      <c r="I22" s="0">
+      <c r="I22">
         <f t="shared" si="1"/>
         <v>42.531746031746032</v>
       </c>
@@ -3208,7 +3202,7 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K22" s="0">
+      <c r="K22">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
@@ -3217,26 +3211,26 @@
       <c r="A23" s="1">
         <v>45234</v>
       </c>
-      <c r="B23" s="0">
+      <c r="B23">
         <v>49</v>
       </c>
-      <c r="C23" t="s" s="0">
+      <c r="C23" t="s">
         <v>11</v>
       </c>
-      <c r="D23" t="s" s="0">
+      <c r="D23" t="s">
         <v>9</v>
       </c>
-      <c r="E23" t="s" s="0">
+      <c r="E23" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="0">
+      <c r="F23">
         <v>34</v>
       </c>
-      <c r="H23" s="0">
+      <c r="H23">
         <f t="shared" si="0"/>
         <v>82.75</v>
       </c>
-      <c r="I23" s="0">
+      <c r="I23">
         <f t="shared" si="1"/>
         <v>42.531746031746032</v>
       </c>
@@ -3244,7 +3238,7 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K23" s="0">
+      <c r="K23">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
@@ -3264,67 +3258,67 @@
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="T28" s="0">
+      <c r="T28">
         <v>1</v>
       </c>
-      <c r="U28" t="s" s="0">
+      <c r="U28" t="s">
         <v>3</v>
       </c>
-      <c r="V28" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="W28" t="s" s="0">
+      <c r="V28" t="s">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
         <v>1</v>
       </c>
-      <c r="X28" s="0">
+      <c r="X28">
         <f>(N7+N10+N16)/3</f>
         <v>90.438888888888911</v>
       </c>
-      <c r="Y28" s="0">
+      <c r="Y28">
         <f>(O7+O10+O16)/3</f>
         <v>40.333333333333336</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="T29" s="0">
+      <c r="T29">
         <v>2</v>
       </c>
-      <c r="U29" t="s" s="0">
+      <c r="U29" t="s">
         <v>11</v>
       </c>
-      <c r="V29" t="s" s="0">
+      <c r="V29" t="s">
         <v>9</v>
       </c>
-      <c r="W29" t="s" s="0">
+      <c r="W29" t="s">
         <v>1</v>
       </c>
-      <c r="X29" s="0">
+      <c r="X29">
         <f>(N5+N11+N16)/3</f>
         <v>84.49444444444444</v>
       </c>
-      <c r="Y29" s="0">
+      <c r="Y29">
         <f>(O5+O11+O16)/3</f>
         <v>48.198412698412703</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="T30" s="0">
+      <c r="T30">
         <v>3</v>
       </c>
-      <c r="U30" t="s" s="0">
+      <c r="U30" t="s">
         <v>4</v>
       </c>
-      <c r="V30" t="s" s="0">
+      <c r="V30" t="s">
         <v>9</v>
       </c>
-      <c r="W30" t="s" s="0">
+      <c r="W30" t="s">
         <v>1</v>
       </c>
-      <c r="X30" s="0">
+      <c r="X30">
         <f>(N6+N11+N16)/3</f>
         <v>87.966666666666654</v>
       </c>
-      <c r="Y30" s="0">
+      <c r="Y30">
         <f>(O6+O11+O16)/3</f>
         <v>53.166666666666664</v>
       </c>
@@ -3338,67 +3332,67 @@
       <c r="W32" s="5"/>
     </row>
     <row r="33" spans="20:25" x14ac:dyDescent="0.3">
-      <c r="T33" s="0">
+      <c r="T33">
         <v>1</v>
       </c>
-      <c r="U33" t="s" s="0">
+      <c r="U33" t="s">
         <v>3</v>
       </c>
-      <c r="V33" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="W33" t="s" s="0">
+      <c r="V33" t="s">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
         <v>1</v>
       </c>
-      <c r="X33" s="0">
+      <c r="X33">
         <f>(N7+N10+N16)/3</f>
         <v>90.438888888888911</v>
       </c>
-      <c r="Y33" s="0">
+      <c r="Y33">
         <f>(O7+O10+O16)/3</f>
         <v>40.333333333333336</v>
       </c>
     </row>
     <row r="34" spans="20:25" x14ac:dyDescent="0.3">
-      <c r="T34" s="0">
+      <c r="T34">
         <v>2</v>
       </c>
-      <c r="U34" t="s" s="0">
+      <c r="U34" t="s">
         <v>11</v>
       </c>
-      <c r="V34" t="s" s="0">
+      <c r="V34" t="s">
         <v>9</v>
       </c>
-      <c r="W34" t="s" s="0">
+      <c r="W34" t="s">
         <v>10</v>
       </c>
-      <c r="X34" s="0">
+      <c r="X34">
         <f>(N5+N11+N15)/3</f>
         <v>82.75</v>
       </c>
-      <c r="Y34" s="0">
+      <c r="Y34">
         <f>(O5+O11+O15)/3</f>
         <v>42.531746031746032</v>
       </c>
     </row>
     <row r="35" spans="20:25" x14ac:dyDescent="0.3">
-      <c r="T35" s="0">
+      <c r="T35">
         <v>3</v>
       </c>
-      <c r="U35" t="s" s="0">
+      <c r="U35" t="s">
         <v>4</v>
       </c>
-      <c r="V35" t="s" s="0">
+      <c r="V35" t="s">
         <v>2</v>
       </c>
-      <c r="W35" t="s" s="0">
+      <c r="W35" t="s">
         <v>5</v>
       </c>
-      <c r="X35" s="0">
+      <c r="X35">
         <f>(N6+N12+N17)/3</f>
         <v>99.833333333333329</v>
       </c>
-      <c r="Y35" s="0">
+      <c r="Y35">
         <f>(O6+O12+O17)/3</f>
         <v>55.722222222222229</v>
       </c>
@@ -3422,295 +3416,295 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>40</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>37</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G1" t="s">
         <v>38</v>
       </c>
-      <c r="H1" t="s" s="0">
+      <c r="H1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" t="n" s="0">
-        <v>70.64285714285714</v>
-      </c>
-      <c r="B2" t="n" s="0">
+      <c r="A2">
+        <v>70.642857142857139</v>
+      </c>
+      <c r="B2">
         <v>35.333333333333336</v>
       </c>
-      <c r="C2" t="n" s="0">
+      <c r="C2">
         <v>22.666666666666668</v>
       </c>
-      <c r="D2" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="E2" t="n" s="0">
-        <v>70.55495978554524</v>
-      </c>
-      <c r="F2" t="n" s="0">
-        <v>34.54700854721421</v>
-      </c>
-      <c r="G2" t="n" s="0">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>70.554959785545236</v>
+      </c>
+      <c r="F2">
+        <v>34.547008547214212</v>
+      </c>
+      <c r="G2">
         <v>22.764957264931564</v>
       </c>
-      <c r="H2" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M2" t="s" s="0">
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" t="n" s="0">
-        <v>82.16666666666667</v>
-      </c>
-      <c r="B3" t="n" s="0">
+      <c r="A3">
+        <v>82.166666666666671</v>
+      </c>
+      <c r="B3">
         <v>46.6</v>
       </c>
-      <c r="C3" t="n" s="0">
-        <v>34.2</v>
-      </c>
-      <c r="D3" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="E3" t="n" s="0">
-        <v>81.73780487815547</v>
-      </c>
-      <c r="F3" t="n" s="0">
+      <c r="C3">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>81.737804878155472</v>
+      </c>
+      <c r="F3">
         <v>46.912408759046556</v>
       </c>
-      <c r="G3" t="n" s="0">
+      <c r="G3">
         <v>33.394160584141595</v>
       </c>
-      <c r="H3" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M3" t="s" s="0">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" t="n" s="0">
-        <v>69.6</v>
-      </c>
-      <c r="B4" t="n" s="0">
+      <c r="A4">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="B4">
         <v>26.5</v>
       </c>
-      <c r="C4" t="n" s="0">
-        <v>29.0</v>
-      </c>
-      <c r="D4" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="E4" t="n" s="0">
-        <v>68.92413793119296</v>
-      </c>
-      <c r="F4" t="n" s="0">
+      <c r="C4">
+        <v>29</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>68.924137931192959</v>
+      </c>
+      <c r="F4">
         <v>26.499999999999996</v>
       </c>
-      <c r="G4" t="n" s="0">
-        <v>29.0</v>
-      </c>
-      <c r="H4" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M4" t="s" s="0">
+      <c r="G4">
+        <v>29</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" t="n" s="0">
-        <v>61.0</v>
-      </c>
-      <c r="B5" t="n" s="0">
-        <v>38.3</v>
-      </c>
-      <c r="C5" t="n" s="0">
+      <c r="A5">
+        <v>61</v>
+      </c>
+      <c r="B5">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="C5">
         <v>22.4</v>
       </c>
-      <c r="D5" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="E5" t="n" s="0">
-        <v>60.54878048791714</v>
-      </c>
-      <c r="F5" t="n" s="0">
-        <v>37.79779411777262</v>
-      </c>
-      <c r="G5" t="n" s="0">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>60.548780487917142</v>
+      </c>
+      <c r="F5">
+        <v>37.797794117772618</v>
+      </c>
+      <c r="G5">
         <v>22.584558823483277</v>
       </c>
-      <c r="H5" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M5" t="s" s="0">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" t="n" s="0">
+      <c r="A6">
         <v>92.75</v>
       </c>
-      <c r="B6" t="n" s="0">
+      <c r="B6">
         <v>47.333333333333336</v>
       </c>
-      <c r="C6" t="n" s="0">
-        <v>41.0</v>
-      </c>
-      <c r="D6" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="E6" t="n" s="0">
-        <v>93.25943396213344</v>
-      </c>
-      <c r="F6" t="n" s="0">
+      <c r="C6">
+        <v>41</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>93.259433962133443</v>
+      </c>
+      <c r="F6">
         <v>48.079999999796904</v>
       </c>
-      <c r="G6" t="n" s="0">
-        <v>41.15999999995648</v>
-      </c>
-      <c r="H6" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M6" t="s" s="0">
+      <c r="G6">
+        <v>41.159999999956483</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" t="n" s="0">
+      <c r="A7">
         <v>71.2</v>
       </c>
-      <c r="B7" t="n" s="0">
+      <c r="B7">
         <v>26.333333333333332</v>
       </c>
-      <c r="C7" t="n" s="0">
+      <c r="C7">
         <v>28.666666666666668</v>
       </c>
-      <c r="D7" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="E7" t="n" s="0">
-        <v>71.02112676060621</v>
-      </c>
-      <c r="F7" t="n" s="0">
-        <v>26.36046511627264</v>
-      </c>
-      <c r="G7" t="n" s="0">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>71.021126760606208</v>
+      </c>
+      <c r="F7">
+        <v>26.360465116272639</v>
+      </c>
+      <c r="G7">
         <v>28.720930232545275</v>
       </c>
-      <c r="H7" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M7" t="s" s="0">
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" t="n" s="0">
-        <v>61.0</v>
-      </c>
-      <c r="B8" t="n" s="0">
+      <c r="A8">
+        <v>61</v>
+      </c>
+      <c r="B8">
         <v>38.166666666666664</v>
       </c>
-      <c r="C8" t="n" s="0">
+      <c r="C8">
         <v>20.166666666666668</v>
       </c>
-      <c r="D8" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="E8" t="n" s="0">
-        <v>61.00000000000001</v>
-      </c>
-      <c r="F8" t="n" s="0">
-        <v>38.16666666666667</v>
-      </c>
-      <c r="G8" t="n" s="0">
-        <v>20.16666666666667</v>
-      </c>
-      <c r="H8" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M8" t="s" s="0">
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>61.000000000000007</v>
+      </c>
+      <c r="F8">
+        <v>38.166666666666671</v>
+      </c>
+      <c r="G8">
+        <v>20.166666666666671</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" t="n" s="0">
-        <v>88.33333333333333</v>
-      </c>
-      <c r="B9" t="n" s="0">
+      <c r="A9">
+        <v>88.333333333333329</v>
+      </c>
+      <c r="B9">
         <v>47.333333333333336</v>
       </c>
-      <c r="C9" t="n" s="0">
-        <v>41.0</v>
-      </c>
-      <c r="D9" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="E9" t="n" s="0">
-        <v>89.2399999997534</v>
-      </c>
-      <c r="F9" t="n" s="0">
+      <c r="C9">
+        <v>41</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>89.239999999753394</v>
+      </c>
+      <c r="F9">
         <v>48.079999999796904</v>
       </c>
-      <c r="G9" t="n" s="0">
-        <v>41.15999999995648</v>
-      </c>
-      <c r="H9" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M9" t="s" s="0">
+      <c r="G9">
+        <v>41.159999999956483</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" t="n" s="0">
+      <c r="A10">
         <v>74.9375</v>
       </c>
-      <c r="B10" t="n" s="0">
+      <c r="B10">
         <v>33.285714285714285</v>
       </c>
-      <c r="C10" t="n" s="0">
-        <v>27.0</v>
-      </c>
-      <c r="D10" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="E10" t="n" s="0">
+      <c r="C10">
+        <v>27</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
         <v>73.95032397431406</v>
       </c>
-      <c r="F10" t="n" s="0">
-        <v>32.95327102811133</v>
-      </c>
-      <c r="G10" t="n" s="0">
+      <c r="F10">
+        <v>32.953271028111331</v>
+      </c>
+      <c r="G10">
         <v>26.67757009352966</v>
       </c>
-      <c r="H10" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M10" t="s" s="0">
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="M10" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3724,125 +3718,122 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" t="s">
         <v>55</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="G1" t="s">
         <v>56</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="H1" t="s">
         <v>57</v>
       </c>
-      <c r="H1" t="s" s="0">
-        <v>58</v>
-      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="n" s="0">
-        <v>64.85714285714286</v>
-      </c>
-      <c r="B2" t="n" s="0">
-        <v>37.08666666666666</v>
-      </c>
-      <c r="C2" t="n" s="0">
+      <c r="A2">
+        <v>64.857142857142861</v>
+      </c>
+      <c r="B2">
+        <v>37.086666666666659</v>
+      </c>
+      <c r="C2">
         <v>22.06</v>
       </c>
-      <c r="D2" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>64.13627450980393</v>
-      </c>
-      <c r="F2" s="0" t="n">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>64.136274509803926</v>
+      </c>
+      <c r="F2">
         <v>36.37936507936508</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2">
         <v>22.807936507936507</v>
       </c>
-      <c r="H2" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J2" t="s" s="0">
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>87.63333333333334</v>
+      </c>
+      <c r="B3">
+        <v>47.040000000000006</v>
+      </c>
+      <c r="C3">
+        <v>38.28</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>88.472222222222214</v>
+      </c>
+      <c r="F3">
+        <v>46.875</v>
+      </c>
+      <c r="G3">
+        <v>36.75</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>71.307500000000005</v>
+      </c>
+      <c r="B4">
+        <v>27.790476190476188</v>
+      </c>
+      <c r="C4">
+        <v>28.466666666666669</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>75.035714285714278</v>
+      </c>
+      <c r="F4">
+        <v>28.160714285714285</v>
+      </c>
+      <c r="G4">
+        <v>28.428571428571431</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
         <v>53</v>
-      </c>
-      <c r="K2" t="s" s="0">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="n" s="0">
-        <v>87.63333333333334</v>
-      </c>
-      <c r="B3" t="n">
-        <v>47.040000000000006</v>
-      </c>
-      <c r="C3" t="n">
-        <v>38.28</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>88.47222222222221</v>
-      </c>
-      <c r="F3" t="n">
-        <v>46.875</v>
-      </c>
-      <c r="G3" t="n">
-        <v>36.75</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K3" t="s" s="0">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="n" s="0">
-        <v>71.3075</v>
-      </c>
-      <c r="B4" t="n">
-        <v>27.790476190476188</v>
-      </c>
-      <c r="C4" t="n">
-        <v>28.46666666666667</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>75.03571428571428</v>
-      </c>
-      <c r="F4" t="n">
-        <v>28.160714285714285</v>
-      </c>
-      <c r="G4" t="n">
-        <v>28.42857142857143</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K4" t="s" s="0">
-        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Red Team Data.xlsx
+++ b/Red Team Data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Desktop\FTCStats\FTCStats\"/>
     </mc:Choice>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -222,6 +222,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1689,8 +1690,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="10.0"/>
+    <col min="5" max="5" customWidth="true" width="10.6640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
@@ -1723,31 +1724,31 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B2" s="1">
         <v>45237</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="0">
         <v>106</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="0">
         <v>-1</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="0">
         <v>-1</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="0">
         <v>0</v>
       </c>
       <c r="M2" s="2"/>
@@ -1760,721 +1761,721 @@
       <c r="T2" s="2"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B3" s="1">
         <v>45237</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="0">
         <v>83</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="0">
         <v>-1</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="0">
         <v>-1</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B4" s="1">
         <v>45237</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="0">
         <v>89</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="0">
         <v>-1</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="0">
         <v>-1</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="0">
         <v>0</v>
       </c>
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B5" s="1">
         <v>45238</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="0">
         <v>71</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="0">
         <v>-1</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="0">
         <v>-1</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B6" s="1">
         <v>45238</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="0">
         <v>88</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="0">
         <v>-1</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="0">
         <v>-1</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B7" s="1">
         <v>45238</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="0">
         <v>111</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="0">
         <v>-1</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="0">
         <v>-1</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B8" s="1">
         <v>45238</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="0">
         <v>34</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="0">
         <v>-1</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="0">
         <v>-1</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B9" s="1">
         <v>45238</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="0">
         <v>120</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="0">
         <v>-1</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="0">
         <v>-1</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="0">
         <v>0</v>
       </c>
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B10" s="1">
         <v>45238</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="0">
         <v>75</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="0">
         <v>-1</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="0">
         <v>-1</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B11" s="1">
         <v>45237</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="0">
         <v>111</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="0">
         <v>66</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="0">
         <v>45</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B12" s="1">
         <v>45238</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="0">
         <v>107</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="0">
         <v>57</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="0">
         <v>50</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="0">
         <v>0</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B13" s="1">
         <v>45234</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="0">
         <v>72</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="0">
         <v>44</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="0">
         <v>28</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B14" s="1">
         <v>45234</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="0">
         <v>97</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="0">
         <v>51</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="0">
         <v>30</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="0">
         <v>0</v>
       </c>
       <c r="M14" s="2"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B15" s="1">
         <v>45234</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="0">
         <v>54</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="0">
         <v>26</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="0">
         <v>28</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B16" s="1">
         <v>45234</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="0">
         <v>82</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="0">
         <v>32</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="0">
         <v>50</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B17" s="1">
         <v>45234</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="0">
         <v>60</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="0">
         <v>40</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="0">
         <v>20</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B18" s="1">
         <v>45234</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="0">
         <v>56</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="0">
         <v>48</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="0">
         <v>8</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B19" s="1">
         <v>45234</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="0">
         <v>60</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="0">
         <v>30</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="0">
         <v>30</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B20" s="1">
         <v>45234</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="0">
         <v>39</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="0">
         <v>34</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="0">
         <v>5</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B21" s="1">
         <v>45241</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="0">
         <v>32</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="0">
         <v>4</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="0">
         <v>28</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="0">
         <v>0</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" t="s" s="0">
         <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B22" s="1">
         <v>45241</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="0">
         <v>83</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="0">
         <v>55</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="0">
         <v>28</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="0">
         <v>0</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" t="s" s="0">
         <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B23" s="1">
         <v>45241</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="0">
         <v>56</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="0">
         <v>26</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="0">
         <v>30</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="0">
         <v>0</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" t="s" s="0">
         <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B24" s="1">
         <v>45241</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="0">
         <v>33</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="0">
         <v>28</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="0">
         <v>5</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="0">
         <v>0</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" t="s" s="0">
         <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="A25" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B25" s="1">
         <v>45241</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="0">
         <v>56</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="0">
         <v>36</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="0">
         <v>20</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="0">
         <v>0</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K25" t="s" s="0">
         <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="A26" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B26" s="1">
         <v>45241</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="0">
         <v>55</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="0">
         <v>27</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="0">
         <v>28</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="0">
         <v>0</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K26" t="s" s="0">
         <v>50</v>
       </c>
       <c r="T26" s="5"/>
@@ -2485,7 +2486,7 @@
       <c r="Y26" s="2"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="L27" t="s">
+      <c r="L27" t="s" s="0">
         <v>58</v>
       </c>
     </row>
@@ -2515,8 +2516,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="10.0"/>
+    <col min="5" max="5" customWidth="true" width="10.6640625"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
@@ -2548,7 +2549,7 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
-      <c r="V2" t="s">
+      <c r="V2" t="s" s="0">
         <v>18</v>
       </c>
     </row>
@@ -2556,16 +2557,16 @@
       <c r="A3" s="1">
         <v>45237</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0">
         <v>106</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>1</v>
       </c>
     </row>
@@ -2573,25 +2574,25 @@
       <c r="A4" s="1">
         <v>45237</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0">
         <v>83</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>1</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" t="s" s="0">
         <v>24</v>
       </c>
     </row>
@@ -2599,26 +2600,26 @@
       <c r="A5" s="1">
         <v>45237</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0">
         <v>89</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="0">
         <f>(SUMIF($C$3:$C$100, M5, $B$3:$B$100)/COUNTIF($C$3:$C$100, M5))</f>
         <v>88.083333333333329</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="0">
         <f>(SUMIF($C$3:$C$100, M5, $F$3:$F$100)/COUNTIF($C$13:$C$100, M5))</f>
         <v>42.428571428571431</v>
       </c>
@@ -2627,26 +2628,26 @@
       <c r="A6" s="1">
         <v>45238</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0">
         <v>71</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="0">
         <f>(SUMIF($C$3:$C$100, M6, $B$3:$B$100)/COUNTIF($C$3:$C$100, M6))</f>
         <v>98.5</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="0">
         <f>(SUMIF($C$3:$C$100, M6, $F$3:$F$100)/COUNTIF($C$13:$C$100, M6))</f>
         <v>57.333333333333336</v>
       </c>
@@ -2655,26 +2656,26 @@
       <c r="A7" s="1">
         <v>45238</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0">
         <v>88</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="0">
         <f>(SUMIF($C$3:$C$100, M7, $B$3:$B$100)/COUNTIF($C$3:$C$100, M7))</f>
         <v>86.25</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="0">
         <f>(SUMIF($C$3:$C$100, M7, $F$3:$F$100)/COUNTIF($C$13:$C$100, M7))</f>
         <v>38</v>
       </c>
@@ -2683,16 +2684,16 @@
       <c r="A8" s="1">
         <v>45238</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0">
         <v>111</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" t="s" s="0">
         <v>1</v>
       </c>
     </row>
@@ -2700,16 +2701,16 @@
       <c r="A9" s="1">
         <v>45238</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="0">
         <v>34</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" t="s" s="0">
         <v>1</v>
       </c>
       <c r="M9" s="2" t="s">
@@ -2720,16 +2721,16 @@
       <c r="A10" s="1">
         <v>45238</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0">
         <v>120</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" t="s" s="0">
         <v>1</v>
       </c>
       <c r="H10" s="5" t="s">
@@ -2738,14 +2739,14 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
-      <c r="M10" t="s">
+      <c r="M10" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="0">
         <f>(SUMIF($D$3:$D$100, M10, $B$3:$B$100)/COUNTIF($D$3:$D$100, M10))</f>
         <v>96.666666666666671</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="0">
         <f>(SUMIF($D$3:$D$100, M10, $F$3:$F$100)/COUNTIF($D$13:$D$100, M10))</f>
         <v>26</v>
       </c>
@@ -2754,16 +2755,16 @@
       <c r="A11" s="1">
         <v>45238</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="0">
         <v>75</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" t="s" s="0">
         <v>1</v>
       </c>
       <c r="H11" s="5" t="s">
@@ -2774,14 +2775,14 @@
         <v>22</v>
       </c>
       <c r="K11" s="5"/>
-      <c r="M11" t="s">
+      <c r="M11" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="0">
         <f>(SUMIF($D$3:$D$100, M11, $B$3:$B$100)/COUNTIF($D$3:$D$100, M11))</f>
         <v>77</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="0">
         <f>(SUMIF($D$3:$D$100, M11, $F$3:$F$100)/COUNTIF($D$13:$D$100, M11))</f>
         <v>45.166666666666664</v>
       </c>
@@ -2799,14 +2800,14 @@
       <c r="K12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="0">
         <f>(SUMIF($D$3:$D$100, M12, $B$3:$B$100)/COUNTIF($D$3:$D$100, M12))</f>
         <v>97.75</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="0">
         <f>(SUMIF($D$3:$D$100, M12, $F$3:$F$100)/COUNTIF($D$13:$D$100, M12))</f>
         <v>57.333333333333336</v>
       </c>
@@ -2815,26 +2816,26 @@
       <c r="A13" s="1">
         <v>45237</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="0">
         <v>111</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="0">
         <v>66</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="0">
         <f t="shared" ref="H13:H23" si="0">(SUMIF($M$5:$M$7, $C13, $N$5:$N$7)+SUMIF($M$10:$M$12, $D13, $N$10:$N$12)+SUMIF($M$15:$M$17, $E13, $N$15:$N$17))/3</f>
         <v>99.833333333333329</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="0">
         <f t="shared" ref="I13:I23" si="1">(SUMIF($M$5:$M$7, $C13, $O$5:$O$7)+SUMIF($M$10:$M$12, $D13, $O$10:$O$12)+SUMIF($M$15:$M$17, $E13, $O$15:$O$17))/3</f>
         <v>55.722222222222229</v>
       </c>
@@ -2842,7 +2843,7 @@
         <f t="shared" ref="J13:J23" si="2">(SUMIF($M$5:$M$7, $C13, $N$5:$N$7)+SUMIF($M$10:$M$12, $D13, $N$10:$N$12))/2</f>
         <v>98.125</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="0">
         <f t="shared" ref="K13:K23" si="3">(SUMIF($M$5:$M$7, $C13, $O$5:$O$7)+SUMIF($M$10:$M$12, $D13, $O$10:$O$12))/2</f>
         <v>57.333333333333336</v>
       </c>
@@ -2851,26 +2852,26 @@
       <c r="A14" s="1">
         <v>45238</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="0">
         <v>107</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="0">
         <v>57</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="0">
         <f t="shared" si="0"/>
         <v>84.49444444444444</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="0">
         <f t="shared" si="1"/>
         <v>48.198412698412703</v>
       </c>
@@ -2878,7 +2879,7 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="0">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
@@ -2890,26 +2891,26 @@
       <c r="A15" s="1">
         <v>45234</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="0">
         <v>108</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="0">
         <v>38</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="0">
         <f t="shared" si="0"/>
         <v>63.166666666666664</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="0">
         <f t="shared" si="1"/>
         <v>30.166666666666668</v>
       </c>
@@ -2917,18 +2918,18 @@
         <f t="shared" si="2"/>
         <v>43.125</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="0">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="0">
         <f>(SUMIF($E$3:$E$100, M15, $B$3:$B$100)/COUNTIF($E$3:$E$100, M15))</f>
         <v>83.166666666666671</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="0">
         <f>(SUMIF($E$3:$E$100, M15, $F$3:$F$100)/COUNTIF($E$13:$E$100, M15))</f>
         <v>40</v>
       </c>
@@ -2937,26 +2938,26 @@
       <c r="A16" s="1">
         <v>45234</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="0">
         <v>107</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="0">
         <v>74</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="0">
         <f t="shared" si="0"/>
         <v>99.833333333333329</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="0">
         <f t="shared" si="1"/>
         <v>55.722222222222229</v>
       </c>
@@ -2964,18 +2965,18 @@
         <f t="shared" si="2"/>
         <v>98.125</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="0">
         <f t="shared" si="3"/>
         <v>57.333333333333336</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="0">
         <f>(SUMIF($E$3:$E$100, M16, $B$3:$B$100)/COUNTIF($E$3:$E$100, M16))</f>
         <v>88.4</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="0">
         <f>(SUMIF($E$3:$E$100, M16, $F$3:$F$100)/COUNTIF($E$13:$E$100, M16))</f>
         <v>57</v>
       </c>
@@ -2984,26 +2985,26 @@
       <c r="A17" s="1">
         <v>45234</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="0">
         <v>97</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="0">
         <v>62</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="0">
         <f t="shared" si="0"/>
         <v>82.75</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="0">
         <f t="shared" si="1"/>
         <v>42.531746031746032</v>
       </c>
@@ -3011,18 +3012,18 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="0">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M17" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="0">
         <f>(SUMIF($E$3:$E$100, M17, $B$3:$B$100)/COUNTIF($E$3:$E$100, M17))</f>
         <v>103.25</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="0">
         <f>(SUMIF($E$3:$E$100, M17, $F$3:$F$100)/COUNTIF($E$13:$E$100, M17))</f>
         <v>52.5</v>
       </c>
@@ -3031,26 +3032,26 @@
       <c r="A18" s="1">
         <v>45234</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="0">
         <v>99</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="0">
         <v>26</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="0">
         <f t="shared" si="0"/>
         <v>89.305555555555557</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="0">
         <f t="shared" si="1"/>
         <v>36.142857142857146</v>
       </c>
@@ -3058,7 +3059,7 @@
         <f t="shared" si="2"/>
         <v>92.375</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="0">
         <f t="shared" si="3"/>
         <v>34.214285714285715</v>
       </c>
@@ -3067,26 +3068,26 @@
       <c r="A19" s="1">
         <v>45234</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="0">
         <v>87</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="0">
         <v>32</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="0">
         <f t="shared" si="0"/>
         <v>99.833333333333329</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="0">
         <f t="shared" si="1"/>
         <v>55.722222222222229</v>
       </c>
@@ -3094,7 +3095,7 @@
         <f t="shared" si="2"/>
         <v>98.125</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="0">
         <f t="shared" si="3"/>
         <v>57.333333333333336</v>
       </c>
@@ -3103,26 +3104,26 @@
       <c r="A20" s="1">
         <v>45234</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="0">
         <v>76</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="0">
         <v>48</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="0">
         <f t="shared" si="0"/>
         <v>82.75</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="0">
         <f t="shared" si="1"/>
         <v>42.531746031746032</v>
       </c>
@@ -3130,7 +3131,7 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="0">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
@@ -3139,26 +3140,26 @@
       <c r="A21" s="1">
         <v>45234</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="0">
         <v>93</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="0">
         <v>40</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="0">
         <f t="shared" si="0"/>
         <v>82.75</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="0">
         <f t="shared" si="1"/>
         <v>42.531746031746032</v>
       </c>
@@ -3166,7 +3167,7 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="0">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
@@ -3175,26 +3176,26 @@
       <c r="A22" s="1">
         <v>45234</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="0">
         <v>85</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="0">
         <v>30</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="0">
         <f t="shared" si="0"/>
         <v>82.75</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="0">
         <f t="shared" si="1"/>
         <v>42.531746031746032</v>
       </c>
@@ -3202,7 +3203,7 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="0">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
@@ -3211,26 +3212,26 @@
       <c r="A23" s="1">
         <v>45234</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="0">
         <v>49</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="0">
         <v>34</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="0">
         <f t="shared" si="0"/>
         <v>82.75</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="0">
         <f t="shared" si="1"/>
         <v>42.531746031746032</v>
       </c>
@@ -3238,7 +3239,7 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="0">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
@@ -3258,67 +3259,67 @@
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="T28">
+      <c r="T28" s="0">
         <v>1</v>
       </c>
-      <c r="U28" t="s">
+      <c r="U28" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="V28" t="s">
+      <c r="V28" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="W28" t="s">
+      <c r="W28" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="X28">
+      <c r="X28" s="0">
         <f>(N7+N10+N16)/3</f>
         <v>90.438888888888911</v>
       </c>
-      <c r="Y28">
+      <c r="Y28" s="0">
         <f>(O7+O10+O16)/3</f>
         <v>40.333333333333336</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="T29">
+      <c r="T29" s="0">
         <v>2</v>
       </c>
-      <c r="U29" t="s">
+      <c r="U29" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="V29" t="s">
+      <c r="V29" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="W29" t="s">
+      <c r="W29" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="X29">
+      <c r="X29" s="0">
         <f>(N5+N11+N16)/3</f>
         <v>84.49444444444444</v>
       </c>
-      <c r="Y29">
+      <c r="Y29" s="0">
         <f>(O5+O11+O16)/3</f>
         <v>48.198412698412703</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="T30">
+      <c r="T30" s="0">
         <v>3</v>
       </c>
-      <c r="U30" t="s">
+      <c r="U30" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="V30" t="s">
+      <c r="V30" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="W30" t="s">
+      <c r="W30" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="X30">
+      <c r="X30" s="0">
         <f>(N6+N11+N16)/3</f>
         <v>87.966666666666654</v>
       </c>
-      <c r="Y30">
+      <c r="Y30" s="0">
         <f>(O6+O11+O16)/3</f>
         <v>53.166666666666664</v>
       </c>
@@ -3332,67 +3333,67 @@
       <c r="W32" s="5"/>
     </row>
     <row r="33" spans="20:25" x14ac:dyDescent="0.3">
-      <c r="T33">
+      <c r="T33" s="0">
         <v>1</v>
       </c>
-      <c r="U33" t="s">
+      <c r="U33" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="V33" t="s">
+      <c r="V33" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="W33" t="s">
+      <c r="W33" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="X33">
+      <c r="X33" s="0">
         <f>(N7+N10+N16)/3</f>
         <v>90.438888888888911</v>
       </c>
-      <c r="Y33">
+      <c r="Y33" s="0">
         <f>(O7+O10+O16)/3</f>
         <v>40.333333333333336</v>
       </c>
     </row>
     <row r="34" spans="20:25" x14ac:dyDescent="0.3">
-      <c r="T34">
+      <c r="T34" s="0">
         <v>2</v>
       </c>
-      <c r="U34" t="s">
+      <c r="U34" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="V34" t="s">
+      <c r="V34" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="W34" t="s">
+      <c r="W34" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="X34">
+      <c r="X34" s="0">
         <f>(N5+N11+N15)/3</f>
         <v>82.75</v>
       </c>
-      <c r="Y34">
+      <c r="Y34" s="0">
         <f>(O5+O11+O15)/3</f>
         <v>42.531746031746032</v>
       </c>
     </row>
     <row r="35" spans="20:25" x14ac:dyDescent="0.3">
-      <c r="T35">
+      <c r="T35" s="0">
         <v>3</v>
       </c>
-      <c r="U35" t="s">
+      <c r="U35" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="V35" t="s">
+      <c r="V35" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="W35" t="s">
+      <c r="W35" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="X35">
+      <c r="X35" s="0">
         <f>(N6+N12+N17)/3</f>
         <v>99.833333333333329</v>
       </c>
-      <c r="Y35">
+      <c r="Y35" s="0">
         <f>(O6+O12+O17)/3</f>
         <v>55.722222222222229</v>
       </c>
@@ -3422,289 +3423,289 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>70.642857142857139</v>
-      </c>
-      <c r="B2">
+      <c r="A2" t="n" s="0">
+        <v>70.64285714285714</v>
+      </c>
+      <c r="B2" t="n" s="0">
         <v>35.333333333333336</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n" s="0">
         <v>22.666666666666668</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>70.554959785545236</v>
-      </c>
-      <c r="F2">
-        <v>34.547008547214212</v>
-      </c>
-      <c r="G2">
-        <v>22.764957264931564</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="D2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>70.5515320334504</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>34.515555555777986</v>
+      </c>
+      <c r="G2" t="n" s="0">
+        <v>22.768888888861085</v>
+      </c>
+      <c r="H2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M2" t="s" s="0">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>82.166666666666671</v>
-      </c>
-      <c r="B3">
+      <c r="A3" t="n" s="0">
+        <v>82.16666666666667</v>
+      </c>
+      <c r="B3" t="n" s="0">
         <v>46.6</v>
       </c>
-      <c r="C3">
-        <v>34.200000000000003</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>81.737804878155472</v>
-      </c>
-      <c r="F3">
-        <v>46.912408759046556</v>
-      </c>
-      <c r="G3">
-        <v>33.394160584141595</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="C3" t="n" s="0">
+        <v>34.2</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>81.72151898745673</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>46.924242424158905</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>33.36363636385179</v>
+      </c>
+      <c r="H3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M3" t="s" s="0">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>69.599999999999994</v>
-      </c>
-      <c r="B4">
+      <c r="A4" t="n" s="0">
+        <v>69.6</v>
+      </c>
+      <c r="B4" t="n" s="0">
         <v>26.5</v>
       </c>
-      <c r="C4">
-        <v>29</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>68.924137931192959</v>
-      </c>
-      <c r="F4">
-        <v>26.499999999999996</v>
-      </c>
-      <c r="G4">
-        <v>29</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="C4" t="n" s="0">
+        <v>29.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>68.90000000017001</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>26.500000000000004</v>
+      </c>
+      <c r="G4" t="n" s="0">
+        <v>29.0</v>
+      </c>
+      <c r="H4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M4" t="s" s="0">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>61</v>
-      </c>
-      <c r="B5">
-        <v>38.299999999999997</v>
-      </c>
-      <c r="C5">
+      <c r="A5" t="n" s="0">
+        <v>61.0</v>
+      </c>
+      <c r="B5" t="n" s="0">
+        <v>38.3</v>
+      </c>
+      <c r="C5" t="n" s="0">
         <v>22.4</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>60.548780487917142</v>
-      </c>
-      <c r="F5">
-        <v>37.797794117772618</v>
-      </c>
-      <c r="G5">
-        <v>22.584558823483277</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="D5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>60.53164556974118</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>37.7786259543338</v>
+      </c>
+      <c r="G5" t="n" s="0">
+        <v>22.59160305338539</v>
+      </c>
+      <c r="H5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M5" t="s" s="0">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" t="n" s="0">
         <v>92.75</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n" s="0">
         <v>47.333333333333336</v>
       </c>
-      <c r="C6">
-        <v>41</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>93.259433962133443</v>
-      </c>
-      <c r="F6">
-        <v>48.079999999796904</v>
-      </c>
-      <c r="G6">
-        <v>41.159999999956483</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="C6" t="n" s="0">
+        <v>41.0</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>93.2794117645647</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>48.11111111089075</v>
+      </c>
+      <c r="G6" t="n" s="0">
+        <v>41.16666666661944</v>
+      </c>
+      <c r="H6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M6" t="s" s="0">
         <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" t="n" s="0">
         <v>71.2</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n" s="0">
         <v>26.333333333333332</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n" s="0">
         <v>28.666666666666668</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>71.021126760606208</v>
-      </c>
-      <c r="F7">
-        <v>26.360465116272639</v>
-      </c>
-      <c r="G7">
-        <v>28.720930232545275</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="D7" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>71.014598540192</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>26.361445783125625</v>
+      </c>
+      <c r="G7" t="n" s="0">
+        <v>28.722891566251242</v>
+      </c>
+      <c r="H7" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M7" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>61</v>
-      </c>
-      <c r="B8">
+      <c r="A8" t="n" s="0">
+        <v>61.0</v>
+      </c>
+      <c r="B8" t="n" s="0">
         <v>38.166666666666664</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n" s="0">
         <v>20.166666666666668</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>61.000000000000007</v>
-      </c>
-      <c r="F8">
-        <v>38.166666666666671</v>
-      </c>
-      <c r="G8">
-        <v>20.166666666666671</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="D8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>61.00000000000001</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>38.166666666666664</v>
+      </c>
+      <c r="G8" t="n" s="0">
+        <v>20.16666666666667</v>
+      </c>
+      <c r="H8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M8" t="s" s="0">
         <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>88.333333333333329</v>
-      </c>
-      <c r="B9">
+      <c r="A9" t="n" s="0">
+        <v>88.33333333333333</v>
+      </c>
+      <c r="B9" t="n" s="0">
         <v>47.333333333333336</v>
       </c>
-      <c r="C9">
-        <v>41</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>89.239999999753394</v>
-      </c>
-      <c r="F9">
-        <v>48.079999999796904</v>
-      </c>
-      <c r="G9">
-        <v>41.159999999956483</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="C9" t="n" s="0">
+        <v>41.0</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>89.27777777751018</v>
+      </c>
+      <c r="F9" t="n" s="0">
+        <v>48.11111111089075</v>
+      </c>
+      <c r="G9" t="n" s="0">
+        <v>41.16666666661944</v>
+      </c>
+      <c r="H9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M9" t="s" s="0">
         <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" t="n" s="0">
         <v>74.9375</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n" s="0">
         <v>33.285714285714285</v>
       </c>
-      <c r="C10">
-        <v>27</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>73.95032397431406</v>
-      </c>
-      <c r="F10">
-        <v>32.953271028111331</v>
-      </c>
-      <c r="G10">
-        <v>26.67757009352966</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="M10" t="s">
+      <c r="C10" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>73.91498881456651</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>32.94202898558628</v>
+      </c>
+      <c r="G10" t="n" s="0">
+        <v>26.66666666674332</v>
+      </c>
+      <c r="H10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M10" t="s" s="0">
         <v>49</v>
       </c>
     </row>
@@ -3724,115 +3725,115 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>64.857142857142861</v>
-      </c>
-      <c r="B2">
-        <v>37.086666666666659</v>
-      </c>
-      <c r="C2">
+      <c r="A2" t="n" s="0">
+        <v>64.85714285714286</v>
+      </c>
+      <c r="B2" t="n" s="0">
+        <v>37.08666666666666</v>
+      </c>
+      <c r="C2" t="n" s="0">
         <v>22.06</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>64.136274509803926</v>
-      </c>
-      <c r="F2">
+      <c r="D2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>64.13627450980393</v>
+      </c>
+      <c r="F2" t="n" s="0">
         <v>36.37936507936508</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n" s="0">
         <v>22.807936507936507</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="H2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K2" t="s" s="0">
         <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" t="n" s="0">
         <v>87.63333333333334</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n" s="0">
         <v>47.040000000000006</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n" s="0">
         <v>38.28</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>88.472222222222214</v>
-      </c>
-      <c r="F3">
+      <c r="D3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>88.47222222222221</v>
+      </c>
+      <c r="F3" t="n" s="0">
         <v>46.875</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n" s="0">
         <v>36.75</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="H3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K3" t="s" s="0">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>71.307500000000005</v>
-      </c>
-      <c r="B4">
+      <c r="A4" t="n" s="0">
+        <v>71.3075</v>
+      </c>
+      <c r="B4" t="n" s="0">
         <v>27.790476190476188</v>
       </c>
-      <c r="C4">
-        <v>28.466666666666669</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>75.035714285714278</v>
-      </c>
-      <c r="F4">
+      <c r="C4" t="n" s="0">
+        <v>28.46666666666667</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>75.03571428571428</v>
+      </c>
+      <c r="F4" t="n" s="0">
         <v>28.160714285714285</v>
       </c>
-      <c r="G4">
-        <v>28.428571428571431</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="G4" t="n" s="0">
+        <v>28.42857142857143</v>
+      </c>
+      <c r="H4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K4" t="s" s="0">
         <v>53</v>
       </c>
     </row>

--- a/Red Team Data.xlsx
+++ b/Red Team Data.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Desktop\FTCStats\FTCStats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7BC124-7F1A-41A4-BD2F-892FE4F4EC6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DB050F-5286-4607-9F36-905B71E39763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{943F8BFE-BB93-4FCB-9D8B-2434F109755A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{943F8BFE-BB93-4FCB-9D8B-2434F109755A}"/>
   </bookViews>
   <sheets>
     <sheet name="Match Data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="61">
   <si>
     <t>Cyrus</t>
   </si>
@@ -140,30 +140,6 @@
     <t>Driver Penalties</t>
   </si>
   <si>
-    <t>avgtotal</t>
-  </si>
-  <si>
-    <t>avgtele</t>
-  </si>
-  <si>
-    <t>avgauto</t>
-  </si>
-  <si>
-    <t>avgpen</t>
-  </si>
-  <si>
-    <t>Wavgtele</t>
-  </si>
-  <si>
-    <t>Wavgauto</t>
-  </si>
-  <si>
-    <t>Wavgpen</t>
-  </si>
-  <si>
-    <t>Wavgtot</t>
-  </si>
-  <si>
     <t>bredan</t>
   </si>
   <si>
@@ -194,6 +170,48 @@
     <t>*</t>
   </si>
   <si>
+    <t>&lt;- NEW ROBOT</t>
+  </si>
+  <si>
+    <t>stddev</t>
+  </si>
+  <si>
+    <t>Basic Averages</t>
+  </si>
+  <si>
+    <t>Weighted Averages</t>
+  </si>
+  <si>
+    <t>Duo Total</t>
+  </si>
+  <si>
+    <t>Duo Teleop</t>
+  </si>
+  <si>
+    <t>Duo Autos</t>
+  </si>
+  <si>
+    <t>Duo Penalties</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>teleop</t>
+  </si>
+  <si>
+    <t>auton</t>
+  </si>
+  <si>
+    <t>penalties</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>sample</t>
+  </si>
+  <si>
     <t>B+M</t>
   </si>
   <si>
@@ -203,26 +221,13 @@
     <t>L+C</t>
   </si>
   <si>
-    <t>wAvgtotal</t>
-  </si>
-  <si>
-    <t>wAvgtele</t>
-  </si>
-  <si>
-    <t>wAvgauto</t>
-  </si>
-  <si>
-    <t>wAvgpen</t>
-  </si>
-  <si>
-    <t>&lt;- NEW ROBOT</t>
+    <t>Date-Weighted Averages</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -248,7 +253,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -265,22 +270,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1684,14 +1712,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E71918B-9D42-46BC-B578-CF08432FB725}">
   <dimension ref="A1:Y31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="108" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView topLeftCell="A3" zoomScale="108" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="10.0"/>
-    <col min="5" max="5" customWidth="true" width="10.6640625"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
@@ -1724,31 +1752,31 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="1">
         <v>45237</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="0">
+      <c r="F2">
         <v>106</v>
       </c>
-      <c r="G2" s="0">
+      <c r="G2">
         <v>-1</v>
       </c>
-      <c r="H2" s="0">
+      <c r="H2">
         <v>-1</v>
       </c>
-      <c r="I2" s="0">
+      <c r="I2">
         <v>0</v>
       </c>
       <c r="M2" s="2"/>
@@ -1761,740 +1789,740 @@
       <c r="T2" s="2"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>30</v>
       </c>
       <c r="B3" s="1">
         <v>45237</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s" s="0">
+      <c r="E3" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="0">
+      <c r="F3">
         <v>83</v>
       </c>
-      <c r="G3" s="0">
+      <c r="G3">
         <v>-1</v>
       </c>
-      <c r="H3" s="0">
+      <c r="H3">
         <v>-1</v>
       </c>
-      <c r="I3" s="0">
+      <c r="I3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="1">
         <v>45237</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" t="s" s="0">
+      <c r="E4" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="0">
+      <c r="F4">
         <v>89</v>
       </c>
-      <c r="G4" s="0">
+      <c r="G4">
         <v>-1</v>
       </c>
-      <c r="H4" s="0">
+      <c r="H4">
         <v>-1</v>
       </c>
-      <c r="I4" s="0">
+      <c r="I4">
         <v>0</v>
       </c>
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" t="s" s="0">
+      <c r="A5" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="1">
         <v>45238</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s" s="0">
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="0">
+      <c r="F5">
         <v>71</v>
       </c>
-      <c r="G5" s="0">
+      <c r="G5">
         <v>-1</v>
       </c>
-      <c r="H5" s="0">
+      <c r="H5">
         <v>-1</v>
       </c>
-      <c r="I5" s="0">
+      <c r="I5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" t="s" s="0">
+      <c r="A6" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="1">
         <v>45238</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="D6" t="s">
         <v>2</v>
       </c>
-      <c r="E6" t="s" s="0">
+      <c r="E6" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="0">
+      <c r="F6">
         <v>88</v>
       </c>
-      <c r="G6" s="0">
+      <c r="G6">
         <v>-1</v>
       </c>
-      <c r="H6" s="0">
+      <c r="H6">
         <v>-1</v>
       </c>
-      <c r="I6" s="0">
+      <c r="I6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" t="s" s="0">
+      <c r="A7" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="1">
         <v>45238</v>
       </c>
-      <c r="C7" t="s" s="0">
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s" s="0">
+      <c r="D7" t="s">
         <v>2</v>
       </c>
-      <c r="E7" t="s" s="0">
+      <c r="E7" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="0">
+      <c r="F7">
         <v>111</v>
       </c>
-      <c r="G7" s="0">
+      <c r="G7">
         <v>-1</v>
       </c>
-      <c r="H7" s="0">
+      <c r="H7">
         <v>-1</v>
       </c>
-      <c r="I7" s="0">
+      <c r="I7">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" t="s" s="0">
+      <c r="A8" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="1">
         <v>45238</v>
       </c>
-      <c r="C8" t="s" s="0">
+      <c r="C8" t="s">
         <v>3</v>
       </c>
-      <c r="D8" t="s" s="0">
+      <c r="D8" t="s">
         <v>9</v>
       </c>
-      <c r="E8" t="s" s="0">
+      <c r="E8" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="0">
+      <c r="F8">
         <v>34</v>
       </c>
-      <c r="G8" s="0">
+      <c r="G8">
         <v>-1</v>
       </c>
-      <c r="H8" s="0">
+      <c r="H8">
         <v>-1</v>
       </c>
-      <c r="I8" s="0">
+      <c r="I8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" t="s" s="0">
+      <c r="A9" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="1">
         <v>45238</v>
       </c>
-      <c r="C9" t="s" s="0">
+      <c r="C9" t="s">
         <v>3</v>
       </c>
-      <c r="D9" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s" s="0">
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="0">
+      <c r="F9">
         <v>120</v>
       </c>
-      <c r="G9" s="0">
+      <c r="G9">
         <v>-1</v>
       </c>
-      <c r="H9" s="0">
+      <c r="H9">
         <v>-1</v>
       </c>
-      <c r="I9" s="0">
+      <c r="I9">
         <v>0</v>
       </c>
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" t="s" s="0">
+      <c r="A10" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="1">
         <v>45238</v>
       </c>
-      <c r="C10" t="s" s="0">
+      <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="D10" t="s" s="0">
+      <c r="D10" t="s">
         <v>9</v>
       </c>
-      <c r="E10" t="s" s="0">
+      <c r="E10" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="0">
+      <c r="F10">
         <v>75</v>
       </c>
-      <c r="G10" s="0">
+      <c r="G10">
         <v>-1</v>
       </c>
-      <c r="H10" s="0">
+      <c r="H10">
         <v>-1</v>
       </c>
-      <c r="I10" s="0">
+      <c r="I10">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" t="s" s="0">
+      <c r="A11" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="1">
         <v>45237</v>
       </c>
-      <c r="C11" t="s" s="0">
+      <c r="C11" t="s">
         <v>4</v>
       </c>
-      <c r="D11" t="s" s="0">
+      <c r="D11" t="s">
         <v>2</v>
       </c>
-      <c r="E11" t="s" s="0">
+      <c r="E11" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="0">
+      <c r="F11">
         <v>111</v>
       </c>
-      <c r="G11" s="0">
+      <c r="G11">
         <v>66</v>
       </c>
-      <c r="H11" s="0">
+      <c r="H11">
         <v>45</v>
       </c>
-      <c r="I11" s="0">
+      <c r="I11">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" t="s" s="0">
+      <c r="A12" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="1">
         <v>45238</v>
       </c>
-      <c r="C12" t="s" s="0">
+      <c r="C12" t="s">
         <v>11</v>
       </c>
-      <c r="D12" t="s" s="0">
+      <c r="D12" t="s">
         <v>9</v>
       </c>
-      <c r="E12" t="s" s="0">
+      <c r="E12" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="0">
+      <c r="F12">
         <v>107</v>
       </c>
-      <c r="G12" s="0">
+      <c r="G12">
         <v>57</v>
       </c>
-      <c r="H12" s="0">
+      <c r="H12">
         <v>50</v>
       </c>
-      <c r="I12" s="0">
+      <c r="I12">
         <v>0</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" t="s" s="0">
+      <c r="A13" t="s">
         <v>31</v>
       </c>
       <c r="B13" s="1">
         <v>45234</v>
       </c>
-      <c r="C13" t="s" s="0">
+      <c r="C13" t="s">
         <v>4</v>
       </c>
-      <c r="D13" t="s" s="0">
+      <c r="D13" t="s">
         <v>2</v>
       </c>
-      <c r="E13" t="s" s="0">
+      <c r="E13" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="0">
+      <c r="F13">
         <v>72</v>
       </c>
-      <c r="G13" s="0">
+      <c r="G13">
         <v>44</v>
       </c>
-      <c r="H13" s="0">
+      <c r="H13">
         <v>28</v>
       </c>
-      <c r="I13" s="0">
+      <c r="I13">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" t="s" s="0">
+      <c r="A14" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="1">
         <v>45234</v>
       </c>
-      <c r="C14" t="s" s="0">
+      <c r="C14" t="s">
         <v>11</v>
       </c>
-      <c r="D14" t="s" s="0">
+      <c r="D14" t="s">
         <v>9</v>
       </c>
-      <c r="E14" t="s" s="0">
+      <c r="E14" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="0">
+      <c r="F14">
         <v>97</v>
       </c>
-      <c r="G14" s="0">
+      <c r="G14">
         <v>51</v>
       </c>
-      <c r="H14" s="0">
+      <c r="H14">
         <v>30</v>
       </c>
-      <c r="I14" s="0">
+      <c r="I14">
         <v>0</v>
       </c>
       <c r="M14" s="2"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" t="s" s="0">
+      <c r="A15" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="1">
         <v>45234</v>
       </c>
-      <c r="C15" t="s" s="0">
+      <c r="C15" t="s">
         <v>11</v>
       </c>
-      <c r="D15" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s" s="0">
+      <c r="D15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="0">
+      <c r="F15">
         <v>54</v>
       </c>
-      <c r="G15" s="0">
+      <c r="G15">
         <v>26</v>
       </c>
-      <c r="H15" s="0">
+      <c r="H15">
         <v>28</v>
       </c>
-      <c r="I15" s="0">
+      <c r="I15">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" t="s" s="0">
+      <c r="A16" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="1">
         <v>45234</v>
       </c>
-      <c r="C16" t="s" s="0">
+      <c r="C16" t="s">
         <v>4</v>
       </c>
-      <c r="D16" t="s" s="0">
+      <c r="D16" t="s">
         <v>2</v>
       </c>
-      <c r="E16" t="s" s="0">
+      <c r="E16" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="0">
+      <c r="F16">
         <v>82</v>
       </c>
-      <c r="G16" s="0">
+      <c r="G16">
         <v>32</v>
       </c>
-      <c r="H16" s="0">
+      <c r="H16">
         <v>50</v>
       </c>
-      <c r="I16" s="0">
+      <c r="I16">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A17" t="s" s="0">
+      <c r="A17" t="s">
         <v>31</v>
       </c>
       <c r="B17" s="1">
         <v>45234</v>
       </c>
-      <c r="C17" t="s" s="0">
+      <c r="C17" t="s">
         <v>11</v>
       </c>
-      <c r="D17" t="s" s="0">
+      <c r="D17" t="s">
         <v>9</v>
       </c>
-      <c r="E17" t="s" s="0">
+      <c r="E17" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="0">
+      <c r="F17">
         <v>60</v>
       </c>
-      <c r="G17" s="0">
+      <c r="G17">
         <v>40</v>
       </c>
-      <c r="H17" s="0">
+      <c r="H17">
         <v>20</v>
       </c>
-      <c r="I17" s="0">
+      <c r="I17">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A18" t="s" s="0">
+      <c r="A18" t="s">
         <v>31</v>
       </c>
       <c r="B18" s="1">
         <v>45234</v>
       </c>
-      <c r="C18" t="s" s="0">
+      <c r="C18" t="s">
         <v>11</v>
       </c>
-      <c r="D18" t="s" s="0">
+      <c r="D18" t="s">
         <v>9</v>
       </c>
-      <c r="E18" t="s" s="0">
+      <c r="E18" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="0">
+      <c r="F18">
         <v>56</v>
       </c>
-      <c r="G18" s="0">
+      <c r="G18">
         <v>48</v>
       </c>
-      <c r="H18" s="0">
+      <c r="H18">
         <v>8</v>
       </c>
-      <c r="I18" s="0">
+      <c r="I18">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A19" t="s" s="0">
+      <c r="A19" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="1">
         <v>45234</v>
       </c>
-      <c r="C19" t="s" s="0">
+      <c r="C19" t="s">
         <v>11</v>
       </c>
-      <c r="D19" t="s" s="0">
+      <c r="D19" t="s">
         <v>9</v>
       </c>
-      <c r="E19" t="s" s="0">
+      <c r="E19" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="0">
+      <c r="F19">
         <v>60</v>
       </c>
-      <c r="G19" s="0">
+      <c r="G19">
         <v>30</v>
       </c>
-      <c r="H19" s="0">
+      <c r="H19">
         <v>30</v>
       </c>
-      <c r="I19" s="0">
+      <c r="I19">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A20" t="s" s="0">
+      <c r="A20" t="s">
         <v>31</v>
       </c>
       <c r="B20" s="1">
         <v>45234</v>
       </c>
-      <c r="C20" t="s" s="0">
+      <c r="C20" t="s">
         <v>11</v>
       </c>
-      <c r="D20" t="s" s="0">
+      <c r="D20" t="s">
         <v>9</v>
       </c>
-      <c r="E20" t="s" s="0">
+      <c r="E20" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="0">
+      <c r="F20">
         <v>39</v>
       </c>
-      <c r="G20" s="0">
+      <c r="G20">
         <v>34</v>
       </c>
-      <c r="H20" s="0">
+      <c r="H20">
         <v>5</v>
       </c>
-      <c r="I20" s="0">
+      <c r="I20">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A21" t="s" s="0">
+      <c r="A21" t="s">
         <v>31</v>
       </c>
       <c r="B21" s="1">
         <v>45241</v>
       </c>
-      <c r="C21" t="s" s="0">
+      <c r="C21" t="s">
         <v>11</v>
       </c>
-      <c r="D21" t="s" s="0">
+      <c r="D21" t="s">
         <v>9</v>
       </c>
-      <c r="E21" t="s" s="0">
+      <c r="E21" t="s">
         <v>1</v>
       </c>
-      <c r="F21" s="0">
+      <c r="F21">
         <v>32</v>
       </c>
-      <c r="G21" s="0">
+      <c r="G21">
         <v>4</v>
       </c>
-      <c r="H21" s="0">
+      <c r="H21">
         <v>28</v>
       </c>
-      <c r="I21" s="0">
-        <v>0</v>
-      </c>
-      <c r="K21" t="s" s="0">
-        <v>50</v>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A22" t="s" s="0">
+      <c r="A22" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="1">
         <v>45241</v>
       </c>
-      <c r="C22" t="s" s="0">
+      <c r="C22" t="s">
         <v>4</v>
       </c>
-      <c r="D22" t="s" s="0">
+      <c r="D22" t="s">
         <v>9</v>
       </c>
-      <c r="E22" t="s" s="0">
+      <c r="E22" t="s">
         <v>1</v>
       </c>
-      <c r="F22" s="0">
+      <c r="F22">
         <v>83</v>
       </c>
-      <c r="G22" s="0">
+      <c r="G22">
         <v>55</v>
       </c>
-      <c r="H22" s="0">
+      <c r="H22">
         <v>28</v>
       </c>
-      <c r="I22" s="0">
-        <v>0</v>
-      </c>
-      <c r="K22" t="s" s="0">
-        <v>50</v>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="K22" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A23" t="s" s="0">
+      <c r="A23" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="1">
         <v>45241</v>
       </c>
-      <c r="C23" t="s" s="0">
+      <c r="C23" t="s">
         <v>3</v>
       </c>
-      <c r="D23" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="E23" t="s" s="0">
+      <c r="D23" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
         <v>1</v>
       </c>
-      <c r="F23" s="0">
+      <c r="F23">
         <v>56</v>
       </c>
-      <c r="G23" s="0">
+      <c r="G23">
         <v>26</v>
       </c>
-      <c r="H23" s="0">
+      <c r="H23">
         <v>30</v>
       </c>
-      <c r="I23" s="0">
-        <v>0</v>
-      </c>
-      <c r="K23" t="s" s="0">
-        <v>50</v>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="K23" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A24" t="s" s="0">
+      <c r="A24" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="1">
         <v>45241</v>
       </c>
-      <c r="C24" t="s" s="0">
+      <c r="C24" t="s">
         <v>11</v>
       </c>
-      <c r="D24" t="s" s="0">
+      <c r="D24" t="s">
         <v>9</v>
       </c>
-      <c r="E24" t="s" s="0">
+      <c r="E24" t="s">
         <v>1</v>
       </c>
-      <c r="F24" s="0">
+      <c r="F24">
         <v>33</v>
       </c>
-      <c r="G24" s="0">
+      <c r="G24">
         <v>28</v>
       </c>
-      <c r="H24" s="0">
+      <c r="H24">
         <v>5</v>
       </c>
-      <c r="I24" s="0">
-        <v>0</v>
-      </c>
-      <c r="K24" t="s" s="0">
-        <v>50</v>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="K24" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A25" t="s" s="0">
+      <c r="A25" t="s">
         <v>31</v>
       </c>
       <c r="B25" s="1">
         <v>45241</v>
       </c>
-      <c r="C25" t="s" s="0">
+      <c r="C25" t="s">
         <v>4</v>
       </c>
-      <c r="D25" t="s" s="0">
+      <c r="D25" t="s">
         <v>9</v>
       </c>
-      <c r="E25" t="s" s="0">
+      <c r="E25" t="s">
         <v>1</v>
       </c>
-      <c r="F25" s="0">
+      <c r="F25">
         <v>56</v>
       </c>
-      <c r="G25" s="0">
+      <c r="G25">
         <v>36</v>
       </c>
-      <c r="H25" s="0">
+      <c r="H25">
         <v>20</v>
       </c>
-      <c r="I25" s="0">
-        <v>0</v>
-      </c>
-      <c r="K25" t="s" s="0">
-        <v>50</v>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="K25" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A26" t="s" s="0">
+      <c r="A26" t="s">
         <v>31</v>
       </c>
       <c r="B26" s="1">
         <v>45241</v>
       </c>
-      <c r="C26" t="s" s="0">
+      <c r="C26" t="s">
         <v>3</v>
       </c>
-      <c r="D26" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="E26" t="s" s="0">
+      <c r="D26" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
         <v>1</v>
       </c>
-      <c r="F26" s="0">
+      <c r="F26">
         <v>55</v>
       </c>
-      <c r="G26" s="0">
+      <c r="G26">
         <v>27</v>
       </c>
-      <c r="H26" s="0">
+      <c r="H26">
         <v>28</v>
       </c>
-      <c r="I26" s="0">
-        <v>0</v>
-      </c>
-      <c r="K26" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="K26" t="s">
+        <v>42</v>
+      </c>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="L27" t="s" s="0">
-        <v>58</v>
+      <c r="L27" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
-      <c r="W31" s="5"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2516,8 +2544,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="10.0"/>
-    <col min="5" max="5" customWidth="true" width="10.6640625"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
@@ -2549,7 +2577,7 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
-      <c r="V2" t="s" s="0">
+      <c r="V2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2557,16 +2585,16 @@
       <c r="A3" s="1">
         <v>45237</v>
       </c>
-      <c r="B3" s="0">
+      <c r="B3">
         <v>106</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s" s="0">
+      <c r="E3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2574,25 +2602,25 @@
       <c r="A4" s="1">
         <v>45237</v>
       </c>
-      <c r="B4" s="0">
+      <c r="B4">
         <v>83</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" t="s" s="0">
+      <c r="E4" t="s">
         <v>1</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N4" t="s" s="0">
+      <c r="N4" t="s">
         <v>23</v>
       </c>
-      <c r="O4" t="s" s="0">
+      <c r="O4" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2600,26 +2628,26 @@
       <c r="A5" s="1">
         <v>45237</v>
       </c>
-      <c r="B5" s="0">
+      <c r="B5">
         <v>89</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="D5" t="s">
         <v>2</v>
       </c>
-      <c r="E5" t="s" s="0">
+      <c r="E5" t="s">
         <v>1</v>
       </c>
-      <c r="M5" t="s" s="0">
+      <c r="M5" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="0">
+      <c r="N5">
         <f>(SUMIF($C$3:$C$100, M5, $B$3:$B$100)/COUNTIF($C$3:$C$100, M5))</f>
         <v>88.083333333333329</v>
       </c>
-      <c r="O5" s="0">
+      <c r="O5">
         <f>(SUMIF($C$3:$C$100, M5, $F$3:$F$100)/COUNTIF($C$13:$C$100, M5))</f>
         <v>42.428571428571431</v>
       </c>
@@ -2628,26 +2656,26 @@
       <c r="A6" s="1">
         <v>45238</v>
       </c>
-      <c r="B6" s="0">
+      <c r="B6">
         <v>71</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s" s="0">
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
         <v>1</v>
       </c>
-      <c r="M6" t="s" s="0">
+      <c r="M6" t="s">
         <v>4</v>
       </c>
-      <c r="N6" s="0">
+      <c r="N6">
         <f>(SUMIF($C$3:$C$100, M6, $B$3:$B$100)/COUNTIF($C$3:$C$100, M6))</f>
         <v>98.5</v>
       </c>
-      <c r="O6" s="0">
+      <c r="O6">
         <f>(SUMIF($C$3:$C$100, M6, $F$3:$F$100)/COUNTIF($C$13:$C$100, M6))</f>
         <v>57.333333333333336</v>
       </c>
@@ -2656,26 +2684,26 @@
       <c r="A7" s="1">
         <v>45238</v>
       </c>
-      <c r="B7" s="0">
+      <c r="B7">
         <v>88</v>
       </c>
-      <c r="C7" t="s" s="0">
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s" s="0">
+      <c r="D7" t="s">
         <v>2</v>
       </c>
-      <c r="E7" t="s" s="0">
+      <c r="E7" t="s">
         <v>1</v>
       </c>
-      <c r="M7" t="s" s="0">
+      <c r="M7" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="0">
+      <c r="N7">
         <f>(SUMIF($C$3:$C$100, M7, $B$3:$B$100)/COUNTIF($C$3:$C$100, M7))</f>
         <v>86.25</v>
       </c>
-      <c r="O7" s="0">
+      <c r="O7">
         <f>(SUMIF($C$3:$C$100, M7, $F$3:$F$100)/COUNTIF($C$13:$C$100, M7))</f>
         <v>38</v>
       </c>
@@ -2684,16 +2712,16 @@
       <c r="A8" s="1">
         <v>45238</v>
       </c>
-      <c r="B8" s="0">
+      <c r="B8">
         <v>111</v>
       </c>
-      <c r="C8" t="s" s="0">
+      <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" t="s" s="0">
+      <c r="D8" t="s">
         <v>2</v>
       </c>
-      <c r="E8" t="s" s="0">
+      <c r="E8" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2701,16 +2729,16 @@
       <c r="A9" s="1">
         <v>45238</v>
       </c>
-      <c r="B9" s="0">
+      <c r="B9">
         <v>34</v>
       </c>
-      <c r="C9" t="s" s="0">
+      <c r="C9" t="s">
         <v>3</v>
       </c>
-      <c r="D9" t="s" s="0">
+      <c r="D9" t="s">
         <v>9</v>
       </c>
-      <c r="E9" t="s" s="0">
+      <c r="E9" t="s">
         <v>1</v>
       </c>
       <c r="M9" s="2" t="s">
@@ -2721,32 +2749,32 @@
       <c r="A10" s="1">
         <v>45238</v>
       </c>
-      <c r="B10" s="0">
+      <c r="B10">
         <v>120</v>
       </c>
-      <c r="C10" t="s" s="0">
+      <c r="C10" t="s">
         <v>3</v>
       </c>
-      <c r="D10" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s" s="0">
+      <c r="D10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
         <v>1</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="M10" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="N10" s="0">
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="M10" t="s">
+        <v>0</v>
+      </c>
+      <c r="N10">
         <f>(SUMIF($D$3:$D$100, M10, $B$3:$B$100)/COUNTIF($D$3:$D$100, M10))</f>
         <v>96.666666666666671</v>
       </c>
-      <c r="O10" s="0">
+      <c r="O10">
         <f>(SUMIF($D$3:$D$100, M10, $F$3:$F$100)/COUNTIF($D$13:$D$100, M10))</f>
         <v>26</v>
       </c>
@@ -2755,34 +2783,34 @@
       <c r="A11" s="1">
         <v>45238</v>
       </c>
-      <c r="B11" s="0">
+      <c r="B11">
         <v>75</v>
       </c>
-      <c r="C11" t="s" s="0">
+      <c r="C11" t="s">
         <v>11</v>
       </c>
-      <c r="D11" t="s" s="0">
+      <c r="D11" t="s">
         <v>9</v>
       </c>
-      <c r="E11" t="s" s="0">
+      <c r="E11" t="s">
         <v>1</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="6" t="s">
+      <c r="I11" s="6"/>
+      <c r="J11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="5"/>
-      <c r="M11" t="s" s="0">
+      <c r="K11" s="6"/>
+      <c r="M11" t="s">
         <v>9</v>
       </c>
-      <c r="N11" s="0">
+      <c r="N11">
         <f>(SUMIF($D$3:$D$100, M11, $B$3:$B$100)/COUNTIF($D$3:$D$100, M11))</f>
         <v>77</v>
       </c>
-      <c r="O11" s="0">
+      <c r="O11">
         <f>(SUMIF($D$3:$D$100, M11, $F$3:$F$100)/COUNTIF($D$13:$D$100, M11))</f>
         <v>45.166666666666664</v>
       </c>
@@ -2800,14 +2828,14 @@
       <c r="K12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M12" t="s" s="0">
+      <c r="M12" t="s">
         <v>2</v>
       </c>
-      <c r="N12" s="0">
+      <c r="N12">
         <f>(SUMIF($D$3:$D$100, M12, $B$3:$B$100)/COUNTIF($D$3:$D$100, M12))</f>
         <v>97.75</v>
       </c>
-      <c r="O12" s="0">
+      <c r="O12">
         <f>(SUMIF($D$3:$D$100, M12, $F$3:$F$100)/COUNTIF($D$13:$D$100, M12))</f>
         <v>57.333333333333336</v>
       </c>
@@ -2816,26 +2844,26 @@
       <c r="A13" s="1">
         <v>45237</v>
       </c>
-      <c r="B13" s="0">
+      <c r="B13">
         <v>111</v>
       </c>
-      <c r="C13" t="s" s="0">
+      <c r="C13" t="s">
         <v>4</v>
       </c>
-      <c r="D13" t="s" s="0">
+      <c r="D13" t="s">
         <v>2</v>
       </c>
-      <c r="E13" t="s" s="0">
+      <c r="E13" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="0">
+      <c r="F13">
         <v>66</v>
       </c>
-      <c r="H13" s="0">
+      <c r="H13">
         <f t="shared" ref="H13:H23" si="0">(SUMIF($M$5:$M$7, $C13, $N$5:$N$7)+SUMIF($M$10:$M$12, $D13, $N$10:$N$12)+SUMIF($M$15:$M$17, $E13, $N$15:$N$17))/3</f>
         <v>99.833333333333329</v>
       </c>
-      <c r="I13" s="0">
+      <c r="I13">
         <f t="shared" ref="I13:I23" si="1">(SUMIF($M$5:$M$7, $C13, $O$5:$O$7)+SUMIF($M$10:$M$12, $D13, $O$10:$O$12)+SUMIF($M$15:$M$17, $E13, $O$15:$O$17))/3</f>
         <v>55.722222222222229</v>
       </c>
@@ -2843,7 +2871,7 @@
         <f t="shared" ref="J13:J23" si="2">(SUMIF($M$5:$M$7, $C13, $N$5:$N$7)+SUMIF($M$10:$M$12, $D13, $N$10:$N$12))/2</f>
         <v>98.125</v>
       </c>
-      <c r="K13" s="0">
+      <c r="K13">
         <f t="shared" ref="K13:K23" si="3">(SUMIF($M$5:$M$7, $C13, $O$5:$O$7)+SUMIF($M$10:$M$12, $D13, $O$10:$O$12))/2</f>
         <v>57.333333333333336</v>
       </c>
@@ -2852,26 +2880,26 @@
       <c r="A14" s="1">
         <v>45238</v>
       </c>
-      <c r="B14" s="0">
+      <c r="B14">
         <v>107</v>
       </c>
-      <c r="C14" t="s" s="0">
+      <c r="C14" t="s">
         <v>11</v>
       </c>
-      <c r="D14" t="s" s="0">
+      <c r="D14" t="s">
         <v>9</v>
       </c>
-      <c r="E14" t="s" s="0">
+      <c r="E14" t="s">
         <v>1</v>
       </c>
-      <c r="F14" s="0">
+      <c r="F14">
         <v>57</v>
       </c>
-      <c r="H14" s="0">
+      <c r="H14">
         <f t="shared" si="0"/>
         <v>84.49444444444444</v>
       </c>
-      <c r="I14" s="0">
+      <c r="I14">
         <f t="shared" si="1"/>
         <v>48.198412698412703</v>
       </c>
@@ -2879,7 +2907,7 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K14" s="0">
+      <c r="K14">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
@@ -2891,26 +2919,26 @@
       <c r="A15" s="1">
         <v>45234</v>
       </c>
-      <c r="B15" s="0">
+      <c r="B15">
         <v>108</v>
       </c>
-      <c r="C15" t="s" s="0">
+      <c r="C15" t="s">
         <v>3</v>
       </c>
-      <c r="D15" t="s" s="0">
+      <c r="D15" t="s">
         <v>19</v>
       </c>
-      <c r="E15" t="s" s="0">
+      <c r="E15" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="0">
+      <c r="F15">
         <v>38</v>
       </c>
-      <c r="H15" s="0">
+      <c r="H15">
         <f t="shared" si="0"/>
         <v>63.166666666666664</v>
       </c>
-      <c r="I15" s="0">
+      <c r="I15">
         <f t="shared" si="1"/>
         <v>30.166666666666668</v>
       </c>
@@ -2918,18 +2946,18 @@
         <f t="shared" si="2"/>
         <v>43.125</v>
       </c>
-      <c r="K15" s="0">
+      <c r="K15">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="M15" t="s" s="0">
+      <c r="M15" t="s">
         <v>10</v>
       </c>
-      <c r="N15" s="0">
+      <c r="N15">
         <f>(SUMIF($E$3:$E$100, M15, $B$3:$B$100)/COUNTIF($E$3:$E$100, M15))</f>
         <v>83.166666666666671</v>
       </c>
-      <c r="O15" s="0">
+      <c r="O15">
         <f>(SUMIF($E$3:$E$100, M15, $F$3:$F$100)/COUNTIF($E$13:$E$100, M15))</f>
         <v>40</v>
       </c>
@@ -2938,26 +2966,26 @@
       <c r="A16" s="1">
         <v>45234</v>
       </c>
-      <c r="B16" s="0">
+      <c r="B16">
         <v>107</v>
       </c>
-      <c r="C16" t="s" s="0">
+      <c r="C16" t="s">
         <v>4</v>
       </c>
-      <c r="D16" t="s" s="0">
+      <c r="D16" t="s">
         <v>2</v>
       </c>
-      <c r="E16" t="s" s="0">
+      <c r="E16" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="0">
+      <c r="F16">
         <v>74</v>
       </c>
-      <c r="H16" s="0">
+      <c r="H16">
         <f t="shared" si="0"/>
         <v>99.833333333333329</v>
       </c>
-      <c r="I16" s="0">
+      <c r="I16">
         <f t="shared" si="1"/>
         <v>55.722222222222229</v>
       </c>
@@ -2965,18 +2993,18 @@
         <f t="shared" si="2"/>
         <v>98.125</v>
       </c>
-      <c r="K16" s="0">
+      <c r="K16">
         <f t="shared" si="3"/>
         <v>57.333333333333336</v>
       </c>
-      <c r="M16" t="s" s="0">
+      <c r="M16" t="s">
         <v>1</v>
       </c>
-      <c r="N16" s="0">
+      <c r="N16">
         <f>(SUMIF($E$3:$E$100, M16, $B$3:$B$100)/COUNTIF($E$3:$E$100, M16))</f>
         <v>88.4</v>
       </c>
-      <c r="O16" s="0">
+      <c r="O16">
         <f>(SUMIF($E$3:$E$100, M16, $F$3:$F$100)/COUNTIF($E$13:$E$100, M16))</f>
         <v>57</v>
       </c>
@@ -2985,26 +3013,26 @@
       <c r="A17" s="1">
         <v>45234</v>
       </c>
-      <c r="B17" s="0">
+      <c r="B17">
         <v>97</v>
       </c>
-      <c r="C17" t="s" s="0">
+      <c r="C17" t="s">
         <v>11</v>
       </c>
-      <c r="D17" t="s" s="0">
+      <c r="D17" t="s">
         <v>9</v>
       </c>
-      <c r="E17" t="s" s="0">
+      <c r="E17" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="0">
+      <c r="F17">
         <v>62</v>
       </c>
-      <c r="H17" s="0">
+      <c r="H17">
         <f t="shared" si="0"/>
         <v>82.75</v>
       </c>
-      <c r="I17" s="0">
+      <c r="I17">
         <f t="shared" si="1"/>
         <v>42.531746031746032</v>
       </c>
@@ -3012,18 +3040,18 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K17" s="0">
+      <c r="K17">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
-      <c r="M17" t="s" s="0">
+      <c r="M17" t="s">
         <v>5</v>
       </c>
-      <c r="N17" s="0">
+      <c r="N17">
         <f>(SUMIF($E$3:$E$100, M17, $B$3:$B$100)/COUNTIF($E$3:$E$100, M17))</f>
         <v>103.25</v>
       </c>
-      <c r="O17" s="0">
+      <c r="O17">
         <f>(SUMIF($E$3:$E$100, M17, $F$3:$F$100)/COUNTIF($E$13:$E$100, M17))</f>
         <v>52.5</v>
       </c>
@@ -3032,26 +3060,26 @@
       <c r="A18" s="1">
         <v>45234</v>
       </c>
-      <c r="B18" s="0">
+      <c r="B18">
         <v>99</v>
       </c>
-      <c r="C18" t="s" s="0">
+      <c r="C18" t="s">
         <v>11</v>
       </c>
-      <c r="D18" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s" s="0">
+      <c r="D18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="0">
+      <c r="F18">
         <v>26</v>
       </c>
-      <c r="H18" s="0">
+      <c r="H18">
         <f t="shared" si="0"/>
         <v>89.305555555555557</v>
       </c>
-      <c r="I18" s="0">
+      <c r="I18">
         <f t="shared" si="1"/>
         <v>36.142857142857146</v>
       </c>
@@ -3059,7 +3087,7 @@
         <f t="shared" si="2"/>
         <v>92.375</v>
       </c>
-      <c r="K18" s="0">
+      <c r="K18">
         <f t="shared" si="3"/>
         <v>34.214285714285715</v>
       </c>
@@ -3068,26 +3096,26 @@
       <c r="A19" s="1">
         <v>45234</v>
       </c>
-      <c r="B19" s="0">
+      <c r="B19">
         <v>87</v>
       </c>
-      <c r="C19" t="s" s="0">
+      <c r="C19" t="s">
         <v>4</v>
       </c>
-      <c r="D19" t="s" s="0">
+      <c r="D19" t="s">
         <v>2</v>
       </c>
-      <c r="E19" t="s" s="0">
+      <c r="E19" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="0">
+      <c r="F19">
         <v>32</v>
       </c>
-      <c r="H19" s="0">
+      <c r="H19">
         <f t="shared" si="0"/>
         <v>99.833333333333329</v>
       </c>
-      <c r="I19" s="0">
+      <c r="I19">
         <f t="shared" si="1"/>
         <v>55.722222222222229</v>
       </c>
@@ -3095,7 +3123,7 @@
         <f t="shared" si="2"/>
         <v>98.125</v>
       </c>
-      <c r="K19" s="0">
+      <c r="K19">
         <f t="shared" si="3"/>
         <v>57.333333333333336</v>
       </c>
@@ -3104,26 +3132,26 @@
       <c r="A20" s="1">
         <v>45234</v>
       </c>
-      <c r="B20" s="0">
+      <c r="B20">
         <v>76</v>
       </c>
-      <c r="C20" t="s" s="0">
+      <c r="C20" t="s">
         <v>11</v>
       </c>
-      <c r="D20" t="s" s="0">
+      <c r="D20" t="s">
         <v>9</v>
       </c>
-      <c r="E20" t="s" s="0">
+      <c r="E20" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="0">
+      <c r="F20">
         <v>48</v>
       </c>
-      <c r="H20" s="0">
+      <c r="H20">
         <f t="shared" si="0"/>
         <v>82.75</v>
       </c>
-      <c r="I20" s="0">
+      <c r="I20">
         <f t="shared" si="1"/>
         <v>42.531746031746032</v>
       </c>
@@ -3131,7 +3159,7 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K20" s="0">
+      <c r="K20">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
@@ -3140,26 +3168,26 @@
       <c r="A21" s="1">
         <v>45234</v>
       </c>
-      <c r="B21" s="0">
+      <c r="B21">
         <v>93</v>
       </c>
-      <c r="C21" t="s" s="0">
+      <c r="C21" t="s">
         <v>11</v>
       </c>
-      <c r="D21" t="s" s="0">
+      <c r="D21" t="s">
         <v>9</v>
       </c>
-      <c r="E21" t="s" s="0">
+      <c r="E21" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="0">
+      <c r="F21">
         <v>40</v>
       </c>
-      <c r="H21" s="0">
+      <c r="H21">
         <f t="shared" si="0"/>
         <v>82.75</v>
       </c>
-      <c r="I21" s="0">
+      <c r="I21">
         <f t="shared" si="1"/>
         <v>42.531746031746032</v>
       </c>
@@ -3167,7 +3195,7 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K21" s="0">
+      <c r="K21">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
@@ -3176,26 +3204,26 @@
       <c r="A22" s="1">
         <v>45234</v>
       </c>
-      <c r="B22" s="0">
+      <c r="B22">
         <v>85</v>
       </c>
-      <c r="C22" t="s" s="0">
+      <c r="C22" t="s">
         <v>11</v>
       </c>
-      <c r="D22" t="s" s="0">
+      <c r="D22" t="s">
         <v>9</v>
       </c>
-      <c r="E22" t="s" s="0">
+      <c r="E22" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="0">
+      <c r="F22">
         <v>30</v>
       </c>
-      <c r="H22" s="0">
+      <c r="H22">
         <f t="shared" si="0"/>
         <v>82.75</v>
       </c>
-      <c r="I22" s="0">
+      <c r="I22">
         <f t="shared" si="1"/>
         <v>42.531746031746032</v>
       </c>
@@ -3203,7 +3231,7 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K22" s="0">
+      <c r="K22">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
@@ -3212,26 +3240,26 @@
       <c r="A23" s="1">
         <v>45234</v>
       </c>
-      <c r="B23" s="0">
+      <c r="B23">
         <v>49</v>
       </c>
-      <c r="C23" t="s" s="0">
+      <c r="C23" t="s">
         <v>11</v>
       </c>
-      <c r="D23" t="s" s="0">
+      <c r="D23" t="s">
         <v>9</v>
       </c>
-      <c r="E23" t="s" s="0">
+      <c r="E23" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="0">
+      <c r="F23">
         <v>34</v>
       </c>
-      <c r="H23" s="0">
+      <c r="H23">
         <f t="shared" si="0"/>
         <v>82.75</v>
       </c>
-      <c r="I23" s="0">
+      <c r="I23">
         <f t="shared" si="1"/>
         <v>42.531746031746032</v>
       </c>
@@ -3239,18 +3267,18 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K23" s="0">
+      <c r="K23">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="T27" s="5" t="s">
+      <c r="T27" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
-      <c r="W27" s="5"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
       <c r="X27" s="2" t="s">
         <v>23</v>
       </c>
@@ -3259,141 +3287,141 @@
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="T28" s="0">
+      <c r="T28">
         <v>1</v>
       </c>
-      <c r="U28" t="s" s="0">
+      <c r="U28" t="s">
         <v>3</v>
       </c>
-      <c r="V28" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="W28" t="s" s="0">
+      <c r="V28" t="s">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
         <v>1</v>
       </c>
-      <c r="X28" s="0">
+      <c r="X28">
         <f>(N7+N10+N16)/3</f>
         <v>90.438888888888911</v>
       </c>
-      <c r="Y28" s="0">
+      <c r="Y28">
         <f>(O7+O10+O16)/3</f>
         <v>40.333333333333336</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="T29" s="0">
+      <c r="T29">
         <v>2</v>
       </c>
-      <c r="U29" t="s" s="0">
+      <c r="U29" t="s">
         <v>11</v>
       </c>
-      <c r="V29" t="s" s="0">
+      <c r="V29" t="s">
         <v>9</v>
       </c>
-      <c r="W29" t="s" s="0">
+      <c r="W29" t="s">
         <v>1</v>
       </c>
-      <c r="X29" s="0">
+      <c r="X29">
         <f>(N5+N11+N16)/3</f>
         <v>84.49444444444444</v>
       </c>
-      <c r="Y29" s="0">
+      <c r="Y29">
         <f>(O5+O11+O16)/3</f>
         <v>48.198412698412703</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="T30" s="0">
+      <c r="T30">
         <v>3</v>
       </c>
-      <c r="U30" t="s" s="0">
+      <c r="U30" t="s">
         <v>4</v>
       </c>
-      <c r="V30" t="s" s="0">
+      <c r="V30" t="s">
         <v>9</v>
       </c>
-      <c r="W30" t="s" s="0">
+      <c r="W30" t="s">
         <v>1</v>
       </c>
-      <c r="X30" s="0">
+      <c r="X30">
         <f>(N6+N11+N16)/3</f>
         <v>87.966666666666654</v>
       </c>
-      <c r="Y30" s="0">
+      <c r="Y30">
         <f>(O6+O11+O16)/3</f>
         <v>53.166666666666664</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="T32" s="5" t="s">
+      <c r="T32" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="5"/>
+      <c r="U32" s="6"/>
+      <c r="V32" s="6"/>
+      <c r="W32" s="6"/>
     </row>
     <row r="33" spans="20:25" x14ac:dyDescent="0.3">
-      <c r="T33" s="0">
+      <c r="T33">
         <v>1</v>
       </c>
-      <c r="U33" t="s" s="0">
+      <c r="U33" t="s">
         <v>3</v>
       </c>
-      <c r="V33" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="W33" t="s" s="0">
+      <c r="V33" t="s">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
         <v>1</v>
       </c>
-      <c r="X33" s="0">
+      <c r="X33">
         <f>(N7+N10+N16)/3</f>
         <v>90.438888888888911</v>
       </c>
-      <c r="Y33" s="0">
+      <c r="Y33">
         <f>(O7+O10+O16)/3</f>
         <v>40.333333333333336</v>
       </c>
     </row>
     <row r="34" spans="20:25" x14ac:dyDescent="0.3">
-      <c r="T34" s="0">
+      <c r="T34">
         <v>2</v>
       </c>
-      <c r="U34" t="s" s="0">
+      <c r="U34" t="s">
         <v>11</v>
       </c>
-      <c r="V34" t="s" s="0">
+      <c r="V34" t="s">
         <v>9</v>
       </c>
-      <c r="W34" t="s" s="0">
+      <c r="W34" t="s">
         <v>10</v>
       </c>
-      <c r="X34" s="0">
+      <c r="X34">
         <f>(N5+N11+N15)/3</f>
         <v>82.75</v>
       </c>
-      <c r="Y34" s="0">
+      <c r="Y34">
         <f>(O5+O11+O15)/3</f>
         <v>42.531746031746032</v>
       </c>
     </row>
     <row r="35" spans="20:25" x14ac:dyDescent="0.3">
-      <c r="T35" s="0">
+      <c r="T35">
         <v>3</v>
       </c>
-      <c r="U35" t="s" s="0">
+      <c r="U35" t="s">
         <v>4</v>
       </c>
-      <c r="V35" t="s" s="0">
+      <c r="V35" t="s">
         <v>2</v>
       </c>
-      <c r="W35" t="s" s="0">
+      <c r="W35" t="s">
         <v>5</v>
       </c>
-      <c r="X35" s="0">
+      <c r="X35">
         <f>(N6+N12+N17)/3</f>
         <v>99.833333333333329</v>
       </c>
-      <c r="Y35" s="0">
+      <c r="Y35">
         <f>(O6+O12+O17)/3</f>
         <v>55.722222222222229</v>
       </c>
@@ -3414,430 +3442,634 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" t="s" s="0">
+      <c r="A1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>70.642857142857139</v>
+      </c>
+      <c r="B3">
+        <v>35.333333333333336</v>
+      </c>
+      <c r="C3">
+        <v>22.666666666666668</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>70.5515320334504</v>
+      </c>
+      <c r="F3" s="12">
+        <v>34.515555555777986</v>
+      </c>
+      <c r="G3" s="12">
+        <v>22.768888888861085</v>
+      </c>
+      <c r="H3" s="12">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s" s="0">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>82.166666666666671</v>
+      </c>
+      <c r="B4">
+        <v>46.6</v>
+      </c>
+      <c r="C4">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>81.721518987456733</v>
+      </c>
+      <c r="F4" s="12">
+        <v>46.924242424158905</v>
+      </c>
+      <c r="G4" s="12">
+        <v>33.363636363851789</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
         <v>34</v>
       </c>
-      <c r="C1" t="s" s="0">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="B5">
+        <v>26.5</v>
+      </c>
+      <c r="C5">
+        <v>29</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>68.90000000017001</v>
+      </c>
+      <c r="F5" s="12">
+        <v>26.500000000000004</v>
+      </c>
+      <c r="G5" s="12">
+        <v>29</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
         <v>35</v>
       </c>
-      <c r="D1" t="s" s="0">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>61</v>
+      </c>
+      <c r="B6">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="C6">
+        <v>22.4</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>60.53164556974118</v>
+      </c>
+      <c r="F6" s="12">
+        <v>37.778625954333798</v>
+      </c>
+      <c r="G6" s="12">
+        <v>22.591603053385391</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
         <v>36</v>
       </c>
-      <c r="E1" t="s" s="0">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>92.75</v>
+      </c>
+      <c r="B7">
+        <v>47.333333333333336</v>
+      </c>
+      <c r="C7">
+        <v>41</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>93.279411764564699</v>
+      </c>
+      <c r="F7" s="12">
+        <v>48.111111110890747</v>
+      </c>
+      <c r="G7" s="12">
+        <v>41.166666666619442</v>
+      </c>
+      <c r="H7" s="12">
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>71.2</v>
+      </c>
+      <c r="B8">
+        <v>26.333333333333332</v>
+      </c>
+      <c r="C8">
+        <v>28.666666666666668</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>71.014598540191997</v>
+      </c>
+      <c r="F8" s="12">
+        <v>26.361445783125625</v>
+      </c>
+      <c r="G8" s="12">
+        <v>28.722891566251242</v>
+      </c>
+      <c r="H8" s="12">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>61</v>
+      </c>
+      <c r="B9">
+        <v>38.166666666666664</v>
+      </c>
+      <c r="C9">
+        <v>20.166666666666668</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>61.000000000000007</v>
+      </c>
+      <c r="F9" s="12">
+        <v>38.166666666666664</v>
+      </c>
+      <c r="G9" s="12">
+        <v>20.166666666666671</v>
+      </c>
+      <c r="H9" s="12">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>88.333333333333329</v>
+      </c>
+      <c r="B10">
+        <v>47.333333333333336</v>
+      </c>
+      <c r="C10">
+        <v>41</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>89.277777777510181</v>
+      </c>
+      <c r="F10" s="12">
+        <v>48.111111110890747</v>
+      </c>
+      <c r="G10" s="12">
+        <v>41.166666666619442</v>
+      </c>
+      <c r="H10" s="12">
+        <v>0</v>
+      </c>
+      <c r="M10" t="s">
         <v>40</v>
       </c>
-      <c r="F1" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="G1" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="H1" t="s" s="0">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" t="n" s="0">
-        <v>70.64285714285714</v>
-      </c>
-      <c r="B2" t="n" s="0">
-        <v>35.333333333333336</v>
-      </c>
-      <c r="C2" t="n" s="0">
-        <v>22.666666666666668</v>
-      </c>
-      <c r="D2" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="E2" t="n" s="0">
-        <v>70.5515320334504</v>
-      </c>
-      <c r="F2" t="n" s="0">
-        <v>34.515555555777986</v>
-      </c>
-      <c r="G2" t="n" s="0">
-        <v>22.768888888861085</v>
-      </c>
-      <c r="H2" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M2" t="s" s="0">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>74.9375</v>
+      </c>
+      <c r="B11">
+        <v>33.285714285714285</v>
+      </c>
+      <c r="C11">
+        <v>27</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>73.914988814566513</v>
+      </c>
+      <c r="F11" s="12">
+        <v>32.942028985586283</v>
+      </c>
+      <c r="G11" s="12">
+        <v>26.666666666743321</v>
+      </c>
+      <c r="H11" s="12">
+        <v>0</v>
+      </c>
+      <c r="M11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" t="n" s="0">
-        <v>82.16666666666667</v>
-      </c>
-      <c r="B3" t="n" s="0">
-        <v>46.6</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>34.2</v>
-      </c>
-      <c r="D3" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="E3" t="n" s="0">
-        <v>81.72151898745673</v>
-      </c>
-      <c r="F3" t="n" s="0">
-        <v>46.924242424158905</v>
-      </c>
-      <c r="G3" t="n" s="0">
-        <v>33.36363636385179</v>
-      </c>
-      <c r="H3" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M3" t="s" s="0">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" t="n" s="0">
-        <v>69.6</v>
-      </c>
-      <c r="B4" t="n" s="0">
-        <v>26.5</v>
-      </c>
-      <c r="C4" t="n" s="0">
-        <v>29.0</v>
-      </c>
-      <c r="D4" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="E4" t="n" s="0">
-        <v>68.90000000017001</v>
-      </c>
-      <c r="F4" t="n" s="0">
-        <v>26.500000000000004</v>
-      </c>
-      <c r="G4" t="n" s="0">
-        <v>29.0</v>
-      </c>
-      <c r="H4" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M4" t="s" s="0">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" t="n" s="0">
-        <v>61.0</v>
-      </c>
-      <c r="B5" t="n" s="0">
-        <v>38.3</v>
-      </c>
-      <c r="C5" t="n" s="0">
-        <v>22.4</v>
-      </c>
-      <c r="D5" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="E5" t="n" s="0">
-        <v>60.53164556974118</v>
-      </c>
-      <c r="F5" t="n" s="0">
-        <v>37.7786259543338</v>
-      </c>
-      <c r="G5" t="n" s="0">
-        <v>22.59160305338539</v>
-      </c>
-      <c r="H5" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M5" t="s" s="0">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" t="n" s="0">
-        <v>92.75</v>
-      </c>
-      <c r="B6" t="n" s="0">
-        <v>47.333333333333336</v>
-      </c>
-      <c r="C6" t="n" s="0">
-        <v>41.0</v>
-      </c>
-      <c r="D6" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="E6" t="n" s="0">
-        <v>93.2794117645647</v>
-      </c>
-      <c r="F6" t="n" s="0">
-        <v>48.11111111089075</v>
-      </c>
-      <c r="G6" t="n" s="0">
-        <v>41.16666666661944</v>
-      </c>
-      <c r="H6" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M6" t="s" s="0">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" t="n" s="0">
-        <v>71.2</v>
-      </c>
-      <c r="B7" t="n" s="0">
-        <v>26.333333333333332</v>
-      </c>
-      <c r="C7" t="n" s="0">
-        <v>28.666666666666668</v>
-      </c>
-      <c r="D7" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="E7" t="n" s="0">
-        <v>71.014598540192</v>
-      </c>
-      <c r="F7" t="n" s="0">
-        <v>26.361445783125625</v>
-      </c>
-      <c r="G7" t="n" s="0">
-        <v>28.722891566251242</v>
-      </c>
-      <c r="H7" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M7" t="s" s="0">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" t="n" s="0">
-        <v>61.0</v>
-      </c>
-      <c r="B8" t="n" s="0">
-        <v>38.166666666666664</v>
-      </c>
-      <c r="C8" t="n" s="0">
-        <v>20.166666666666668</v>
-      </c>
-      <c r="D8" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="E8" t="n" s="0">
-        <v>61.00000000000001</v>
-      </c>
-      <c r="F8" t="n" s="0">
-        <v>38.166666666666664</v>
-      </c>
-      <c r="G8" t="n" s="0">
-        <v>20.16666666666667</v>
-      </c>
-      <c r="H8" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M8" t="s" s="0">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" t="n" s="0">
-        <v>88.33333333333333</v>
-      </c>
-      <c r="B9" t="n" s="0">
-        <v>47.333333333333336</v>
-      </c>
-      <c r="C9" t="n" s="0">
-        <v>41.0</v>
-      </c>
-      <c r="D9" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="E9" t="n" s="0">
-        <v>89.27777777751018</v>
-      </c>
-      <c r="F9" t="n" s="0">
-        <v>48.11111111089075</v>
-      </c>
-      <c r="G9" t="n" s="0">
-        <v>41.16666666661944</v>
-      </c>
-      <c r="H9" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M9" t="s" s="0">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" t="n" s="0">
-        <v>74.9375</v>
-      </c>
-      <c r="B10" t="n" s="0">
-        <v>33.285714285714285</v>
-      </c>
-      <c r="C10" t="n" s="0">
-        <v>27.0</v>
-      </c>
-      <c r="D10" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="E10" t="n" s="0">
-        <v>73.91498881456651</v>
-      </c>
-      <c r="F10" t="n" s="0">
-        <v>32.94202898558628</v>
-      </c>
-      <c r="G10" t="n" s="0">
-        <v>26.66666666674332</v>
-      </c>
-      <c r="H10" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M10" t="s" s="0">
-        <v>49</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="E1" t="s" s="0">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="9"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="S1" s="9"/>
+      <c r="T1" s="10"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="E2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="J2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H1" t="s" s="0">
+      <c r="L2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="S2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>64.857142857142861</v>
+      </c>
+      <c r="B3">
+        <v>37.086666666666659</v>
+      </c>
+      <c r="C3">
+        <v>22.06</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>64.136274509803926</v>
+      </c>
+      <c r="F3">
+        <v>36.37936507936508</v>
+      </c>
+      <c r="G3">
+        <v>22.807936507936507</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>62.111111111111114</v>
+      </c>
+      <c r="J3">
+        <v>26.769593032228023</v>
+      </c>
+      <c r="K3" s="5">
+        <v>9</v>
+      </c>
+      <c r="L3" s="4">
+        <v>36.5</v>
+      </c>
+      <c r="M3">
+        <v>16.699016224231379</v>
+      </c>
+      <c r="N3">
+        <v>8</v>
+      </c>
+      <c r="O3" s="4">
+        <v>22</v>
+      </c>
+      <c r="P3">
+        <v>15.702593052468391</v>
+      </c>
+      <c r="Q3">
+        <v>8</v>
+      </c>
+      <c r="R3" s="4">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3" s="5">
+        <v>9</v>
+      </c>
+      <c r="V3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="n" s="0">
-        <v>64.85714285714286</v>
-      </c>
-      <c r="B2" t="n" s="0">
-        <v>37.08666666666666</v>
-      </c>
-      <c r="C2" t="n" s="0">
-        <v>22.06</v>
-      </c>
-      <c r="D2" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="E2" t="n" s="0">
-        <v>64.13627450980393</v>
-      </c>
-      <c r="F2" t="n" s="0">
-        <v>36.37936507936508</v>
-      </c>
-      <c r="G2" t="n" s="0">
-        <v>22.807936507936507</v>
-      </c>
-      <c r="H2" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="K2" t="s" s="0">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="n" s="0">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
         <v>87.63333333333334</v>
       </c>
-      <c r="B3" t="n" s="0">
+      <c r="B4">
         <v>47.040000000000006</v>
       </c>
-      <c r="C3" t="n" s="0">
+      <c r="C4">
         <v>38.28</v>
       </c>
-      <c r="D3" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="E3" t="n" s="0">
-        <v>88.47222222222221</v>
-      </c>
-      <c r="F3" t="n" s="0">
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>88.472222222222214</v>
+      </c>
+      <c r="F4">
         <v>46.875</v>
       </c>
-      <c r="G3" t="n" s="0">
+      <c r="G4">
         <v>36.75</v>
       </c>
-      <c r="H3" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="K3" t="s" s="0">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="n" s="0">
-        <v>71.3075</v>
-      </c>
-      <c r="B4" t="n" s="0">
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>88.5</v>
+      </c>
+      <c r="J4">
+        <v>16.542873591570078</v>
+      </c>
+      <c r="K4" s="5">
+        <v>4</v>
+      </c>
+      <c r="L4" s="4">
+        <v>47.333333333333336</v>
+      </c>
+      <c r="M4">
+        <v>17.243356208503418</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4" s="4">
+        <v>41</v>
+      </c>
+      <c r="P4">
+        <v>11.532562594670797</v>
+      </c>
+      <c r="Q4">
+        <v>3</v>
+      </c>
+      <c r="R4" s="4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4" s="5">
+        <v>4</v>
+      </c>
+      <c r="V4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>71.307500000000005</v>
+      </c>
+      <c r="B5">
         <v>27.790476190476188</v>
       </c>
-      <c r="C4" t="n" s="0">
-        <v>28.46666666666667</v>
-      </c>
-      <c r="D4" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="E4" t="n" s="0">
-        <v>75.03571428571428</v>
-      </c>
-      <c r="F4" t="n" s="0">
+      <c r="C5">
+        <v>28.466666666666669</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>75.035714285714278</v>
+      </c>
+      <c r="F5">
         <v>28.160714285714285</v>
       </c>
-      <c r="G4" t="n" s="0">
-        <v>28.42857142857143</v>
-      </c>
-      <c r="H4" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="K4" t="s" s="0">
-        <v>53</v>
+      <c r="G5">
+        <v>28.428571428571431</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>77</v>
+      </c>
+      <c r="J5">
+        <v>37.242448899072144</v>
+      </c>
+      <c r="K5" s="5">
+        <v>3</v>
+      </c>
+      <c r="L5" s="4">
+        <v>26.5</v>
+      </c>
+      <c r="M5">
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5" s="4">
+        <v>29</v>
+      </c>
+      <c r="P5">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="Q5">
+        <v>2</v>
+      </c>
+      <c r="R5" s="4">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5" s="5">
+        <v>3</v>
+      </c>
+      <c r="V5" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:Q1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Red Team Data.xlsx
+++ b/Red Team Data.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Desktop\FTCStats\FTCStats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DB050F-5286-4607-9F36-905B71E39763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984A1CA8-DA65-4726-A692-7F9E029826F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{943F8BFE-BB93-4FCB-9D8B-2434F109755A}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="54">
   <si>
     <t>Cyrus</t>
   </si>
@@ -173,27 +173,12 @@
     <t>&lt;- NEW ROBOT</t>
   </si>
   <si>
-    <t>stddev</t>
-  </si>
-  <si>
     <t>Basic Averages</t>
   </si>
   <si>
     <t>Weighted Averages</t>
   </si>
   <si>
-    <t>Duo Total</t>
-  </si>
-  <si>
-    <t>Duo Teleop</t>
-  </si>
-  <si>
-    <t>Duo Autos</t>
-  </si>
-  <si>
-    <t>Duo Penalties</t>
-  </si>
-  <si>
     <t>total</t>
   </si>
   <si>
@@ -204,12 +189,6 @@
   </si>
   <si>
     <t>penalties</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>sample</t>
   </si>
   <si>
     <t>B+M</t>
@@ -228,6 +207,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -283,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -296,19 +276,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1718,8 +1694,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="10.0"/>
+    <col min="5" max="5" customWidth="true" width="10.6640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
@@ -1752,31 +1728,31 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B2" s="1">
         <v>45237</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="0">
         <v>106</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="0">
         <v>-1</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="0">
         <v>-1</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="0">
         <v>0</v>
       </c>
       <c r="M2" s="2"/>
@@ -1789,721 +1765,721 @@
       <c r="T2" s="2"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B3" s="1">
         <v>45237</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="0">
         <v>83</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="0">
         <v>-1</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="0">
         <v>-1</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B4" s="1">
         <v>45237</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="0">
         <v>89</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="0">
         <v>-1</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="0">
         <v>-1</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="0">
         <v>0</v>
       </c>
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B5" s="1">
         <v>45238</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="0">
         <v>71</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="0">
         <v>-1</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="0">
         <v>-1</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B6" s="1">
         <v>45238</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="0">
         <v>88</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="0">
         <v>-1</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="0">
         <v>-1</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B7" s="1">
         <v>45238</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="0">
         <v>111</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="0">
         <v>-1</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="0">
         <v>-1</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B8" s="1">
         <v>45238</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="0">
         <v>34</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="0">
         <v>-1</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="0">
         <v>-1</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B9" s="1">
         <v>45238</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="0">
         <v>120</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="0">
         <v>-1</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="0">
         <v>-1</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="0">
         <v>0</v>
       </c>
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B10" s="1">
         <v>45238</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="0">
         <v>75</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="0">
         <v>-1</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="0">
         <v>-1</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B11" s="1">
         <v>45237</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="0">
         <v>111</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="0">
         <v>66</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="0">
         <v>45</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B12" s="1">
         <v>45238</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="0">
         <v>107</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="0">
         <v>57</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="0">
         <v>50</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="0">
         <v>0</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B13" s="1">
         <v>45234</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="0">
         <v>72</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="0">
         <v>44</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="0">
         <v>28</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B14" s="1">
         <v>45234</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="0">
         <v>97</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="0">
         <v>51</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="0">
         <v>30</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="0">
         <v>0</v>
       </c>
       <c r="M14" s="2"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B15" s="1">
         <v>45234</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="0">
         <v>54</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="0">
         <v>26</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="0">
         <v>28</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B16" s="1">
         <v>45234</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="0">
         <v>82</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="0">
         <v>32</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="0">
         <v>50</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B17" s="1">
         <v>45234</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="0">
         <v>60</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="0">
         <v>40</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="0">
         <v>20</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B18" s="1">
         <v>45234</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="0">
         <v>56</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="0">
         <v>48</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="0">
         <v>8</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B19" s="1">
         <v>45234</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="0">
         <v>60</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="0">
         <v>30</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="0">
         <v>30</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B20" s="1">
         <v>45234</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="0">
         <v>39</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="0">
         <v>34</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="0">
         <v>5</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B21" s="1">
         <v>45241</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="0">
         <v>32</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="0">
         <v>4</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="0">
         <v>28</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="0">
         <v>0</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" t="s" s="0">
         <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B22" s="1">
         <v>45241</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="0">
         <v>83</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="0">
         <v>55</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="0">
         <v>28</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="0">
         <v>0</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" t="s" s="0">
         <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B23" s="1">
         <v>45241</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="0">
         <v>56</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="0">
         <v>26</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="0">
         <v>30</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="0">
         <v>0</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" t="s" s="0">
         <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B24" s="1">
         <v>45241</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="0">
         <v>33</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="0">
         <v>28</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="0">
         <v>5</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="0">
         <v>0</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" t="s" s="0">
         <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="A25" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B25" s="1">
         <v>45241</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="0">
         <v>56</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="0">
         <v>36</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="0">
         <v>20</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="0">
         <v>0</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K25" t="s" s="0">
         <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="A26" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B26" s="1">
         <v>45241</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="0">
         <v>55</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="0">
         <v>27</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="0">
         <v>28</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="0">
         <v>0</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K26" t="s" s="0">
         <v>42</v>
       </c>
       <c r="T26" s="6"/>
@@ -2514,7 +2490,7 @@
       <c r="Y26" s="2"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="L27" t="s">
+      <c r="L27" t="s" s="0">
         <v>43</v>
       </c>
     </row>
@@ -2544,8 +2520,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="10.0"/>
+    <col min="5" max="5" customWidth="true" width="10.6640625"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
@@ -2577,7 +2553,7 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
-      <c r="V2" t="s">
+      <c r="V2" t="s" s="0">
         <v>18</v>
       </c>
     </row>
@@ -2585,16 +2561,16 @@
       <c r="A3" s="1">
         <v>45237</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0">
         <v>106</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>1</v>
       </c>
     </row>
@@ -2602,25 +2578,25 @@
       <c r="A4" s="1">
         <v>45237</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0">
         <v>83</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>1</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" t="s" s="0">
         <v>24</v>
       </c>
     </row>
@@ -2628,26 +2604,26 @@
       <c r="A5" s="1">
         <v>45237</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0">
         <v>89</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="0">
         <f>(SUMIF($C$3:$C$100, M5, $B$3:$B$100)/COUNTIF($C$3:$C$100, M5))</f>
         <v>88.083333333333329</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="0">
         <f>(SUMIF($C$3:$C$100, M5, $F$3:$F$100)/COUNTIF($C$13:$C$100, M5))</f>
         <v>42.428571428571431</v>
       </c>
@@ -2656,26 +2632,26 @@
       <c r="A6" s="1">
         <v>45238</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0">
         <v>71</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="0">
         <f>(SUMIF($C$3:$C$100, M6, $B$3:$B$100)/COUNTIF($C$3:$C$100, M6))</f>
         <v>98.5</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="0">
         <f>(SUMIF($C$3:$C$100, M6, $F$3:$F$100)/COUNTIF($C$13:$C$100, M6))</f>
         <v>57.333333333333336</v>
       </c>
@@ -2684,26 +2660,26 @@
       <c r="A7" s="1">
         <v>45238</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0">
         <v>88</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="0">
         <f>(SUMIF($C$3:$C$100, M7, $B$3:$B$100)/COUNTIF($C$3:$C$100, M7))</f>
         <v>86.25</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="0">
         <f>(SUMIF($C$3:$C$100, M7, $F$3:$F$100)/COUNTIF($C$13:$C$100, M7))</f>
         <v>38</v>
       </c>
@@ -2712,16 +2688,16 @@
       <c r="A8" s="1">
         <v>45238</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0">
         <v>111</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" t="s" s="0">
         <v>1</v>
       </c>
     </row>
@@ -2729,16 +2705,16 @@
       <c r="A9" s="1">
         <v>45238</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="0">
         <v>34</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" t="s" s="0">
         <v>1</v>
       </c>
       <c r="M9" s="2" t="s">
@@ -2749,16 +2725,16 @@
       <c r="A10" s="1">
         <v>45238</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0">
         <v>120</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" t="s" s="0">
         <v>1</v>
       </c>
       <c r="H10" s="6" t="s">
@@ -2767,14 +2743,14 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
-      <c r="M10" t="s">
+      <c r="M10" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="0">
         <f>(SUMIF($D$3:$D$100, M10, $B$3:$B$100)/COUNTIF($D$3:$D$100, M10))</f>
         <v>96.666666666666671</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="0">
         <f>(SUMIF($D$3:$D$100, M10, $F$3:$F$100)/COUNTIF($D$13:$D$100, M10))</f>
         <v>26</v>
       </c>
@@ -2783,16 +2759,16 @@
       <c r="A11" s="1">
         <v>45238</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="0">
         <v>75</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" t="s" s="0">
         <v>1</v>
       </c>
       <c r="H11" s="6" t="s">
@@ -2803,14 +2779,14 @@
         <v>22</v>
       </c>
       <c r="K11" s="6"/>
-      <c r="M11" t="s">
+      <c r="M11" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="0">
         <f>(SUMIF($D$3:$D$100, M11, $B$3:$B$100)/COUNTIF($D$3:$D$100, M11))</f>
         <v>77</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="0">
         <f>(SUMIF($D$3:$D$100, M11, $F$3:$F$100)/COUNTIF($D$13:$D$100, M11))</f>
         <v>45.166666666666664</v>
       </c>
@@ -2828,14 +2804,14 @@
       <c r="K12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="0">
         <f>(SUMIF($D$3:$D$100, M12, $B$3:$B$100)/COUNTIF($D$3:$D$100, M12))</f>
         <v>97.75</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="0">
         <f>(SUMIF($D$3:$D$100, M12, $F$3:$F$100)/COUNTIF($D$13:$D$100, M12))</f>
         <v>57.333333333333336</v>
       </c>
@@ -2844,26 +2820,26 @@
       <c r="A13" s="1">
         <v>45237</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="0">
         <v>111</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="0">
         <v>66</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="0">
         <f t="shared" ref="H13:H23" si="0">(SUMIF($M$5:$M$7, $C13, $N$5:$N$7)+SUMIF($M$10:$M$12, $D13, $N$10:$N$12)+SUMIF($M$15:$M$17, $E13, $N$15:$N$17))/3</f>
         <v>99.833333333333329</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="0">
         <f t="shared" ref="I13:I23" si="1">(SUMIF($M$5:$M$7, $C13, $O$5:$O$7)+SUMIF($M$10:$M$12, $D13, $O$10:$O$12)+SUMIF($M$15:$M$17, $E13, $O$15:$O$17))/3</f>
         <v>55.722222222222229</v>
       </c>
@@ -2871,7 +2847,7 @@
         <f t="shared" ref="J13:J23" si="2">(SUMIF($M$5:$M$7, $C13, $N$5:$N$7)+SUMIF($M$10:$M$12, $D13, $N$10:$N$12))/2</f>
         <v>98.125</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="0">
         <f t="shared" ref="K13:K23" si="3">(SUMIF($M$5:$M$7, $C13, $O$5:$O$7)+SUMIF($M$10:$M$12, $D13, $O$10:$O$12))/2</f>
         <v>57.333333333333336</v>
       </c>
@@ -2880,26 +2856,26 @@
       <c r="A14" s="1">
         <v>45238</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="0">
         <v>107</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="0">
         <v>57</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="0">
         <f t="shared" si="0"/>
         <v>84.49444444444444</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="0">
         <f t="shared" si="1"/>
         <v>48.198412698412703</v>
       </c>
@@ -2907,7 +2883,7 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="0">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
@@ -2919,26 +2895,26 @@
       <c r="A15" s="1">
         <v>45234</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="0">
         <v>108</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="0">
         <v>38</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="0">
         <f t="shared" si="0"/>
         <v>63.166666666666664</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="0">
         <f t="shared" si="1"/>
         <v>30.166666666666668</v>
       </c>
@@ -2946,18 +2922,18 @@
         <f t="shared" si="2"/>
         <v>43.125</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="0">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="0">
         <f>(SUMIF($E$3:$E$100, M15, $B$3:$B$100)/COUNTIF($E$3:$E$100, M15))</f>
         <v>83.166666666666671</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="0">
         <f>(SUMIF($E$3:$E$100, M15, $F$3:$F$100)/COUNTIF($E$13:$E$100, M15))</f>
         <v>40</v>
       </c>
@@ -2966,26 +2942,26 @@
       <c r="A16" s="1">
         <v>45234</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="0">
         <v>107</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="0">
         <v>74</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="0">
         <f t="shared" si="0"/>
         <v>99.833333333333329</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="0">
         <f t="shared" si="1"/>
         <v>55.722222222222229</v>
       </c>
@@ -2993,18 +2969,18 @@
         <f t="shared" si="2"/>
         <v>98.125</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="0">
         <f t="shared" si="3"/>
         <v>57.333333333333336</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="0">
         <f>(SUMIF($E$3:$E$100, M16, $B$3:$B$100)/COUNTIF($E$3:$E$100, M16))</f>
         <v>88.4</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="0">
         <f>(SUMIF($E$3:$E$100, M16, $F$3:$F$100)/COUNTIF($E$13:$E$100, M16))</f>
         <v>57</v>
       </c>
@@ -3013,26 +2989,26 @@
       <c r="A17" s="1">
         <v>45234</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="0">
         <v>97</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="0">
         <v>62</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="0">
         <f t="shared" si="0"/>
         <v>82.75</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="0">
         <f t="shared" si="1"/>
         <v>42.531746031746032</v>
       </c>
@@ -3040,18 +3016,18 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="0">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M17" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="0">
         <f>(SUMIF($E$3:$E$100, M17, $B$3:$B$100)/COUNTIF($E$3:$E$100, M17))</f>
         <v>103.25</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="0">
         <f>(SUMIF($E$3:$E$100, M17, $F$3:$F$100)/COUNTIF($E$13:$E$100, M17))</f>
         <v>52.5</v>
       </c>
@@ -3060,26 +3036,26 @@
       <c r="A18" s="1">
         <v>45234</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="0">
         <v>99</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="0">
         <v>26</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="0">
         <f t="shared" si="0"/>
         <v>89.305555555555557</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="0">
         <f t="shared" si="1"/>
         <v>36.142857142857146</v>
       </c>
@@ -3087,7 +3063,7 @@
         <f t="shared" si="2"/>
         <v>92.375</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="0">
         <f t="shared" si="3"/>
         <v>34.214285714285715</v>
       </c>
@@ -3096,26 +3072,26 @@
       <c r="A19" s="1">
         <v>45234</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="0">
         <v>87</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="0">
         <v>32</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="0">
         <f t="shared" si="0"/>
         <v>99.833333333333329</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="0">
         <f t="shared" si="1"/>
         <v>55.722222222222229</v>
       </c>
@@ -3123,7 +3099,7 @@
         <f t="shared" si="2"/>
         <v>98.125</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="0">
         <f t="shared" si="3"/>
         <v>57.333333333333336</v>
       </c>
@@ -3132,26 +3108,26 @@
       <c r="A20" s="1">
         <v>45234</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="0">
         <v>76</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="0">
         <v>48</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="0">
         <f t="shared" si="0"/>
         <v>82.75</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="0">
         <f t="shared" si="1"/>
         <v>42.531746031746032</v>
       </c>
@@ -3159,7 +3135,7 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="0">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
@@ -3168,26 +3144,26 @@
       <c r="A21" s="1">
         <v>45234</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="0">
         <v>93</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="0">
         <v>40</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="0">
         <f t="shared" si="0"/>
         <v>82.75</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="0">
         <f t="shared" si="1"/>
         <v>42.531746031746032</v>
       </c>
@@ -3195,7 +3171,7 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="0">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
@@ -3204,26 +3180,26 @@
       <c r="A22" s="1">
         <v>45234</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="0">
         <v>85</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="0">
         <v>30</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="0">
         <f t="shared" si="0"/>
         <v>82.75</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="0">
         <f t="shared" si="1"/>
         <v>42.531746031746032</v>
       </c>
@@ -3231,7 +3207,7 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="0">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
@@ -3240,26 +3216,26 @@
       <c r="A23" s="1">
         <v>45234</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="0">
         <v>49</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="0">
         <v>34</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="0">
         <f t="shared" si="0"/>
         <v>82.75</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="0">
         <f t="shared" si="1"/>
         <v>42.531746031746032</v>
       </c>
@@ -3267,7 +3243,7 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="0">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
@@ -3287,67 +3263,67 @@
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="T28">
+      <c r="T28" s="0">
         <v>1</v>
       </c>
-      <c r="U28" t="s">
+      <c r="U28" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="V28" t="s">
+      <c r="V28" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="W28" t="s">
+      <c r="W28" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="X28">
+      <c r="X28" s="0">
         <f>(N7+N10+N16)/3</f>
         <v>90.438888888888911</v>
       </c>
-      <c r="Y28">
+      <c r="Y28" s="0">
         <f>(O7+O10+O16)/3</f>
         <v>40.333333333333336</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="T29">
+      <c r="T29" s="0">
         <v>2</v>
       </c>
-      <c r="U29" t="s">
+      <c r="U29" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="V29" t="s">
+      <c r="V29" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="W29" t="s">
+      <c r="W29" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="X29">
+      <c r="X29" s="0">
         <f>(N5+N11+N16)/3</f>
         <v>84.49444444444444</v>
       </c>
-      <c r="Y29">
+      <c r="Y29" s="0">
         <f>(O5+O11+O16)/3</f>
         <v>48.198412698412703</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="T30">
+      <c r="T30" s="0">
         <v>3</v>
       </c>
-      <c r="U30" t="s">
+      <c r="U30" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="V30" t="s">
+      <c r="V30" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="W30" t="s">
+      <c r="W30" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="X30">
+      <c r="X30" s="0">
         <f>(N6+N11+N16)/3</f>
         <v>87.966666666666654</v>
       </c>
-      <c r="Y30">
+      <c r="Y30" s="0">
         <f>(O6+O11+O16)/3</f>
         <v>53.166666666666664</v>
       </c>
@@ -3361,67 +3337,67 @@
       <c r="W32" s="6"/>
     </row>
     <row r="33" spans="20:25" x14ac:dyDescent="0.3">
-      <c r="T33">
+      <c r="T33" s="0">
         <v>1</v>
       </c>
-      <c r="U33" t="s">
+      <c r="U33" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="V33" t="s">
+      <c r="V33" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="W33" t="s">
+      <c r="W33" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="X33">
+      <c r="X33" s="0">
         <f>(N7+N10+N16)/3</f>
         <v>90.438888888888911</v>
       </c>
-      <c r="Y33">
+      <c r="Y33" s="0">
         <f>(O7+O10+O16)/3</f>
         <v>40.333333333333336</v>
       </c>
     </row>
     <row r="34" spans="20:25" x14ac:dyDescent="0.3">
-      <c r="T34">
+      <c r="T34" s="0">
         <v>2</v>
       </c>
-      <c r="U34" t="s">
+      <c r="U34" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="V34" t="s">
+      <c r="V34" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="W34" t="s">
+      <c r="W34" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="X34">
+      <c r="X34" s="0">
         <f>(N5+N11+N15)/3</f>
         <v>82.75</v>
       </c>
-      <c r="Y34">
+      <c r="Y34" s="0">
         <f>(O5+O11+O15)/3</f>
         <v>42.531746031746032</v>
       </c>
     </row>
     <row r="35" spans="20:25" x14ac:dyDescent="0.3">
-      <c r="T35">
+      <c r="T35" s="0">
         <v>3</v>
       </c>
-      <c r="U35" t="s">
+      <c r="U35" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="V35" t="s">
+      <c r="V35" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="W35" t="s">
+      <c r="W35" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="X35">
+      <c r="X35" s="0">
         <f>(N6+N12+N17)/3</f>
         <v>99.833333333333329</v>
       </c>
-      <c r="Y35">
+      <c r="Y35" s="0">
         <f>(O6+O12+O17)/3</f>
         <v>55.722222222222229</v>
       </c>
@@ -3445,309 +3421,309 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="A1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" t="s">
-        <v>54</v>
+      <c r="A2" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>49</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>54</v>
+        <v>46</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>70.642857142857139</v>
-      </c>
-      <c r="B3">
-        <v>35.333333333333336</v>
-      </c>
-      <c r="C3">
-        <v>22.666666666666668</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
-        <v>70.5515320334504</v>
-      </c>
-      <c r="F3" s="12">
-        <v>34.515555555777986</v>
-      </c>
-      <c r="G3" s="12">
-        <v>22.768888888861085</v>
-      </c>
-      <c r="H3" s="12">
-        <v>0</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="A3" t="n" s="0">
+        <v>64.08617594267274</v>
+      </c>
+      <c r="B3" t="n" s="0">
+        <v>33.08037825085841</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>21.030732860527774</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>-1.0</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>-1.0</v>
+      </c>
+      <c r="H3" t="n" s="0">
+        <v>-1.0</v>
+      </c>
+      <c r="M3" t="s" s="0">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>82.166666666666671</v>
-      </c>
-      <c r="B4">
-        <v>46.6</v>
-      </c>
-      <c r="C4">
-        <v>34.200000000000003</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
-        <v>81.721518987456733</v>
-      </c>
-      <c r="F4" s="12">
-        <v>46.924242424158905</v>
-      </c>
-      <c r="G4" s="12">
-        <v>33.363636363851789</v>
-      </c>
-      <c r="H4" s="12">
-        <v>0</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="A4" t="n" s="0">
+        <v>78.12121212133545</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <v>44.84033613435197</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>32.09243697502329</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>-1.0</v>
+      </c>
+      <c r="G4" t="n" s="0">
+        <v>-1.0</v>
+      </c>
+      <c r="H4" t="n" s="0">
+        <v>-1.0</v>
+      </c>
+      <c r="M4" t="s" s="0">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>69.599999999999994</v>
-      </c>
-      <c r="B5">
-        <v>26.5</v>
-      </c>
-      <c r="C5">
-        <v>29</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>68.90000000017001</v>
-      </c>
-      <c r="F5" s="12">
+      <c r="A5" t="n" s="0">
+        <v>64.88000000016457</v>
+      </c>
+      <c r="B5" t="n" s="0">
         <v>26.500000000000004</v>
       </c>
-      <c r="G5" s="12">
-        <v>29</v>
-      </c>
-      <c r="H5" s="12">
-        <v>0</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="C5" t="n" s="0">
+        <v>29.0</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>-1.0</v>
+      </c>
+      <c r="G5" t="n" s="0">
+        <v>-1.0</v>
+      </c>
+      <c r="H5" t="n" s="0">
+        <v>-1.0</v>
+      </c>
+      <c r="M5" t="s" s="0">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>61</v>
-      </c>
-      <c r="B6">
-        <v>38.299999999999997</v>
-      </c>
-      <c r="C6">
-        <v>22.4</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <v>60.53164556974118</v>
-      </c>
-      <c r="F6" s="12">
-        <v>37.778625954333798</v>
-      </c>
-      <c r="G6" s="12">
-        <v>22.591603053385391</v>
-      </c>
-      <c r="H6" s="12">
-        <v>0</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="A6" t="n" s="0">
+        <v>58.845735027374296</v>
+      </c>
+      <c r="B6" t="n" s="0">
+        <v>36.73440643878293</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>21.10261569412463</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>-1.0</v>
+      </c>
+      <c r="G6" t="n" s="0">
+        <v>-1.0</v>
+      </c>
+      <c r="H6" t="n" s="0">
+        <v>-1.0</v>
+      </c>
+      <c r="M6" t="s" s="0">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>92.75</v>
-      </c>
-      <c r="B7">
-        <v>47.333333333333336</v>
-      </c>
-      <c r="C7">
-        <v>41</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>93.279411764564699</v>
-      </c>
-      <c r="F7" s="12">
-        <v>48.111111110890747</v>
-      </c>
-      <c r="G7" s="12">
-        <v>41.166666666619442</v>
-      </c>
-      <c r="H7" s="12">
-        <v>0</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="A7" t="n" s="0">
+        <v>90.28399999981394</v>
+      </c>
+      <c r="B7" t="n" s="0">
+        <v>44.16949152525964</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>40.32203389826992</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>-1.0</v>
+      </c>
+      <c r="G7" t="n" s="0">
+        <v>-1.0</v>
+      </c>
+      <c r="H7" t="n" s="0">
+        <v>-1.0</v>
+      </c>
+      <c r="M7" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>71.2</v>
-      </c>
-      <c r="B8">
-        <v>26.333333333333332</v>
-      </c>
-      <c r="C8">
-        <v>28.666666666666668</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
-        <v>71.014598540191997</v>
-      </c>
-      <c r="F8" s="12">
+      <c r="A8" t="n" s="0">
+        <v>65.00454545457524</v>
+      </c>
+      <c r="B8" t="n" s="0">
         <v>26.361445783125625</v>
       </c>
-      <c r="G8" s="12">
+      <c r="C8" t="n" s="0">
         <v>28.722891566251242</v>
       </c>
-      <c r="H8" s="12">
-        <v>0</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="D8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>-1.0</v>
+      </c>
+      <c r="G8" t="n" s="0">
+        <v>-1.0</v>
+      </c>
+      <c r="H8" t="n" s="0">
+        <v>-1.0</v>
+      </c>
+      <c r="M8" t="s" s="0">
         <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>61</v>
-      </c>
-      <c r="B9">
+      <c r="A9" t="n" s="0">
+        <v>61.00000000000001</v>
+      </c>
+      <c r="B9" t="n" s="0">
         <v>38.166666666666664</v>
       </c>
-      <c r="C9">
-        <v>20.166666666666668</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
-        <v>61.000000000000007</v>
-      </c>
-      <c r="F9" s="12">
-        <v>38.166666666666664</v>
-      </c>
-      <c r="G9" s="12">
-        <v>20.166666666666671</v>
-      </c>
-      <c r="H9" s="12">
-        <v>0</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="C9" t="n" s="0">
+        <v>20.16666666666667</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="F9" t="n" s="0">
+        <v>-1.0</v>
+      </c>
+      <c r="G9" t="n" s="0">
+        <v>-1.0</v>
+      </c>
+      <c r="H9" t="n" s="0">
+        <v>-1.0</v>
+      </c>
+      <c r="M9" t="s" s="0">
         <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>88.333333333333329</v>
-      </c>
-      <c r="B10">
-        <v>47.333333333333336</v>
-      </c>
-      <c r="C10">
-        <v>41</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
-        <v>89.277777777510181</v>
-      </c>
-      <c r="F10" s="12">
-        <v>48.111111110890747</v>
-      </c>
-      <c r="G10" s="12">
-        <v>41.166666666619442</v>
-      </c>
-      <c r="H10" s="12">
-        <v>0</v>
-      </c>
-      <c r="M10" t="s">
+      <c r="A10" t="n" s="0">
+        <v>84.49152542352957</v>
+      </c>
+      <c r="B10" t="n" s="0">
+        <v>44.16949152525964</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>40.32203389826992</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>-1.0</v>
+      </c>
+      <c r="G10" t="n" s="0">
+        <v>-1.0</v>
+      </c>
+      <c r="H10" t="n" s="0">
+        <v>-1.0</v>
+      </c>
+      <c r="M10" t="s" s="0">
         <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>74.9375</v>
-      </c>
-      <c r="B11">
-        <v>33.285714285714285</v>
-      </c>
-      <c r="C11">
-        <v>27</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
-        <v>73.914988814566513</v>
-      </c>
-      <c r="F11" s="12">
-        <v>32.942028985586283</v>
-      </c>
-      <c r="G11" s="12">
-        <v>26.666666666743321</v>
-      </c>
-      <c r="H11" s="12">
-        <v>0</v>
-      </c>
-      <c r="M11" t="s">
+      <c r="A11" t="n" s="0">
+        <v>67.76714513581695</v>
+      </c>
+      <c r="B11" t="n" s="0">
+        <v>31.2635658915181</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>25.038759689966348</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="F11" t="n" s="0">
+        <v>-1.0</v>
+      </c>
+      <c r="G11" t="n" s="0">
+        <v>-1.0</v>
+      </c>
+      <c r="H11" t="n" s="0">
+        <v>-1.0</v>
+      </c>
+      <c r="M11" t="s" s="0">
         <v>41</v>
       </c>
     </row>
@@ -3765,310 +3741,158 @@
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
       <c r="H1" s="10"/>
-      <c r="I1" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="S1" s="9"/>
-      <c r="T1" s="10"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="n">
+        <v>61.37276438801881</v>
+      </c>
+      <c r="B3" t="n" s="0">
+        <v>35.55924720918987</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>20.886672755194294</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>63.150450450906995</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>37.76972222268363</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>22.631388889134115</v>
+      </c>
+      <c r="H3" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="V3" t="s" s="0">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="n">
+        <v>84.26038993316567</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <v>44.43782936889657</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>37.03019512897127</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>94.32191781163097</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>50.36842105392377</v>
+      </c>
+      <c r="G4" t="n" s="0">
+        <v>46.89473684413396</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="V4" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="n">
+        <v>65.5072472090593</v>
+      </c>
+      <c r="B5" t="n" s="0">
+        <v>27.39729149155387</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>28.096908564493766</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>68.09899328955389</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>28.110663082307774</v>
+      </c>
+      <c r="G5" t="n" s="0">
+        <v>27.543906810174263</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="V5" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="C2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="J2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="M2" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" t="s">
-        <v>56</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="P2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>56</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="S2" t="s">
-        <v>44</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>64.857142857142861</v>
-      </c>
-      <c r="B3">
-        <v>37.086666666666659</v>
-      </c>
-      <c r="C3">
-        <v>22.06</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
-        <v>64.136274509803926</v>
-      </c>
-      <c r="F3">
-        <v>36.37936507936508</v>
-      </c>
-      <c r="G3">
-        <v>22.807936507936507</v>
-      </c>
-      <c r="H3" s="5">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4">
-        <v>62.111111111111114</v>
-      </c>
-      <c r="J3">
-        <v>26.769593032228023</v>
-      </c>
-      <c r="K3" s="5">
-        <v>9</v>
-      </c>
-      <c r="L3" s="4">
-        <v>36.5</v>
-      </c>
-      <c r="M3">
-        <v>16.699016224231379</v>
-      </c>
-      <c r="N3">
-        <v>8</v>
-      </c>
-      <c r="O3" s="4">
-        <v>22</v>
-      </c>
-      <c r="P3">
-        <v>15.702593052468391</v>
-      </c>
-      <c r="Q3">
-        <v>8</v>
-      </c>
-      <c r="R3" s="4">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3" s="5">
-        <v>9</v>
-      </c>
-      <c r="V3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>87.63333333333334</v>
-      </c>
-      <c r="B4">
-        <v>47.040000000000006</v>
-      </c>
-      <c r="C4">
-        <v>38.28</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
-        <v>88.472222222222214</v>
-      </c>
-      <c r="F4">
-        <v>46.875</v>
-      </c>
-      <c r="G4">
-        <v>36.75</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <v>88.5</v>
-      </c>
-      <c r="J4">
-        <v>16.542873591570078</v>
-      </c>
-      <c r="K4" s="5">
-        <v>4</v>
-      </c>
-      <c r="L4" s="4">
-        <v>47.333333333333336</v>
-      </c>
-      <c r="M4">
-        <v>17.243356208503418</v>
-      </c>
-      <c r="N4">
-        <v>3</v>
-      </c>
-      <c r="O4" s="4">
-        <v>41</v>
-      </c>
-      <c r="P4">
-        <v>11.532562594670797</v>
-      </c>
-      <c r="Q4">
-        <v>3</v>
-      </c>
-      <c r="R4" s="4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4" s="5">
-        <v>4</v>
-      </c>
-      <c r="V4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>71.307500000000005</v>
-      </c>
-      <c r="B5">
-        <v>27.790476190476188</v>
-      </c>
-      <c r="C5">
-        <v>28.466666666666669</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>75.035714285714278</v>
-      </c>
-      <c r="F5">
-        <v>28.160714285714285</v>
-      </c>
-      <c r="G5">
-        <v>28.428571428571431</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4">
-        <v>77</v>
-      </c>
-      <c r="J5">
-        <v>37.242448899072144</v>
-      </c>
-      <c r="K5" s="5">
-        <v>3</v>
-      </c>
-      <c r="L5" s="4">
-        <v>26.5</v>
-      </c>
-      <c r="M5">
-        <v>0.70710678118654757</v>
-      </c>
-      <c r="N5">
-        <v>2</v>
-      </c>
-      <c r="O5" s="4">
-        <v>29</v>
-      </c>
-      <c r="P5">
-        <v>1.4142135623730951</v>
-      </c>
-      <c r="Q5">
-        <v>2</v>
-      </c>
-      <c r="R5" s="4">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5" s="5">
-        <v>3</v>
-      </c>
-      <c r="V5" t="s">
-        <v>59</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="R1:T1"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Red Team Data.xlsx
+++ b/Red Team Data.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Desktop\FTCStats\FTCStats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984A1CA8-DA65-4726-A692-7F9E029826F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD34F4AF-DA2F-4068-8AD3-AD3FB7907BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{943F8BFE-BB93-4FCB-9D8B-2434F109755A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{943F8BFE-BB93-4FCB-9D8B-2434F109755A}"/>
   </bookViews>
   <sheets>
     <sheet name="Match Data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="56">
   <si>
     <t>Cyrus</t>
   </si>
@@ -200,14 +200,19 @@
     <t>L+C</t>
   </si>
   <si>
-    <t>Date-Weighted Averages</t>
+    <t>Take with a grain of salt for right now</t>
+  </si>
+  <si>
+    <t>Weighted by comp/practice,   old/new robot,   and how old the matches are</t>
+  </si>
+  <si>
+    <t>All data here is weighted by    old/new robot,    practice/comp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1694,8 +1699,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="10.0"/>
-    <col min="5" max="5" customWidth="true" width="10.6640625"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
@@ -1728,31 +1733,31 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="1">
         <v>45237</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="0">
+      <c r="F2">
         <v>106</v>
       </c>
-      <c r="G2" s="0">
+      <c r="G2">
         <v>-1</v>
       </c>
-      <c r="H2" s="0">
+      <c r="H2">
         <v>-1</v>
       </c>
-      <c r="I2" s="0">
+      <c r="I2">
         <v>0</v>
       </c>
       <c r="M2" s="2"/>
@@ -1765,721 +1770,721 @@
       <c r="T2" s="2"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>30</v>
       </c>
       <c r="B3" s="1">
         <v>45237</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s" s="0">
+      <c r="E3" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="0">
+      <c r="F3">
         <v>83</v>
       </c>
-      <c r="G3" s="0">
+      <c r="G3">
         <v>-1</v>
       </c>
-      <c r="H3" s="0">
+      <c r="H3">
         <v>-1</v>
       </c>
-      <c r="I3" s="0">
+      <c r="I3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="1">
         <v>45237</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" t="s" s="0">
+      <c r="E4" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="0">
+      <c r="F4">
         <v>89</v>
       </c>
-      <c r="G4" s="0">
+      <c r="G4">
         <v>-1</v>
       </c>
-      <c r="H4" s="0">
+      <c r="H4">
         <v>-1</v>
       </c>
-      <c r="I4" s="0">
+      <c r="I4">
         <v>0</v>
       </c>
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" t="s" s="0">
+      <c r="A5" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="1">
         <v>45238</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s" s="0">
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="0">
+      <c r="F5">
         <v>71</v>
       </c>
-      <c r="G5" s="0">
+      <c r="G5">
         <v>-1</v>
       </c>
-      <c r="H5" s="0">
+      <c r="H5">
         <v>-1</v>
       </c>
-      <c r="I5" s="0">
+      <c r="I5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" t="s" s="0">
+      <c r="A6" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="1">
         <v>45238</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="D6" t="s">
         <v>2</v>
       </c>
-      <c r="E6" t="s" s="0">
+      <c r="E6" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="0">
+      <c r="F6">
         <v>88</v>
       </c>
-      <c r="G6" s="0">
+      <c r="G6">
         <v>-1</v>
       </c>
-      <c r="H6" s="0">
+      <c r="H6">
         <v>-1</v>
       </c>
-      <c r="I6" s="0">
+      <c r="I6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" t="s" s="0">
+      <c r="A7" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="1">
         <v>45238</v>
       </c>
-      <c r="C7" t="s" s="0">
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s" s="0">
+      <c r="D7" t="s">
         <v>2</v>
       </c>
-      <c r="E7" t="s" s="0">
+      <c r="E7" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="0">
+      <c r="F7">
         <v>111</v>
       </c>
-      <c r="G7" s="0">
+      <c r="G7">
         <v>-1</v>
       </c>
-      <c r="H7" s="0">
+      <c r="H7">
         <v>-1</v>
       </c>
-      <c r="I7" s="0">
+      <c r="I7">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" t="s" s="0">
+      <c r="A8" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="1">
         <v>45238</v>
       </c>
-      <c r="C8" t="s" s="0">
+      <c r="C8" t="s">
         <v>3</v>
       </c>
-      <c r="D8" t="s" s="0">
+      <c r="D8" t="s">
         <v>9</v>
       </c>
-      <c r="E8" t="s" s="0">
+      <c r="E8" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="0">
+      <c r="F8">
         <v>34</v>
       </c>
-      <c r="G8" s="0">
+      <c r="G8">
         <v>-1</v>
       </c>
-      <c r="H8" s="0">
+      <c r="H8">
         <v>-1</v>
       </c>
-      <c r="I8" s="0">
+      <c r="I8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" t="s" s="0">
+      <c r="A9" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="1">
         <v>45238</v>
       </c>
-      <c r="C9" t="s" s="0">
+      <c r="C9" t="s">
         <v>3</v>
       </c>
-      <c r="D9" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s" s="0">
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="0">
+      <c r="F9">
         <v>120</v>
       </c>
-      <c r="G9" s="0">
+      <c r="G9">
         <v>-1</v>
       </c>
-      <c r="H9" s="0">
+      <c r="H9">
         <v>-1</v>
       </c>
-      <c r="I9" s="0">
+      <c r="I9">
         <v>0</v>
       </c>
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" t="s" s="0">
+      <c r="A10" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="1">
         <v>45238</v>
       </c>
-      <c r="C10" t="s" s="0">
+      <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="D10" t="s" s="0">
+      <c r="D10" t="s">
         <v>9</v>
       </c>
-      <c r="E10" t="s" s="0">
+      <c r="E10" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="0">
+      <c r="F10">
         <v>75</v>
       </c>
-      <c r="G10" s="0">
+      <c r="G10">
         <v>-1</v>
       </c>
-      <c r="H10" s="0">
+      <c r="H10">
         <v>-1</v>
       </c>
-      <c r="I10" s="0">
+      <c r="I10">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" t="s" s="0">
+      <c r="A11" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="1">
         <v>45237</v>
       </c>
-      <c r="C11" t="s" s="0">
+      <c r="C11" t="s">
         <v>4</v>
       </c>
-      <c r="D11" t="s" s="0">
+      <c r="D11" t="s">
         <v>2</v>
       </c>
-      <c r="E11" t="s" s="0">
+      <c r="E11" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="0">
+      <c r="F11">
         <v>111</v>
       </c>
-      <c r="G11" s="0">
+      <c r="G11">
         <v>66</v>
       </c>
-      <c r="H11" s="0">
+      <c r="H11">
         <v>45</v>
       </c>
-      <c r="I11" s="0">
+      <c r="I11">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" t="s" s="0">
+      <c r="A12" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="1">
         <v>45238</v>
       </c>
-      <c r="C12" t="s" s="0">
+      <c r="C12" t="s">
         <v>11</v>
       </c>
-      <c r="D12" t="s" s="0">
+      <c r="D12" t="s">
         <v>9</v>
       </c>
-      <c r="E12" t="s" s="0">
+      <c r="E12" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="0">
+      <c r="F12">
         <v>107</v>
       </c>
-      <c r="G12" s="0">
+      <c r="G12">
         <v>57</v>
       </c>
-      <c r="H12" s="0">
+      <c r="H12">
         <v>50</v>
       </c>
-      <c r="I12" s="0">
+      <c r="I12">
         <v>0</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" t="s" s="0">
+      <c r="A13" t="s">
         <v>31</v>
       </c>
       <c r="B13" s="1">
         <v>45234</v>
       </c>
-      <c r="C13" t="s" s="0">
+      <c r="C13" t="s">
         <v>4</v>
       </c>
-      <c r="D13" t="s" s="0">
+      <c r="D13" t="s">
         <v>2</v>
       </c>
-      <c r="E13" t="s" s="0">
+      <c r="E13" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="0">
+      <c r="F13">
         <v>72</v>
       </c>
-      <c r="G13" s="0">
+      <c r="G13">
         <v>44</v>
       </c>
-      <c r="H13" s="0">
+      <c r="H13">
         <v>28</v>
       </c>
-      <c r="I13" s="0">
+      <c r="I13">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" t="s" s="0">
+      <c r="A14" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="1">
         <v>45234</v>
       </c>
-      <c r="C14" t="s" s="0">
+      <c r="C14" t="s">
         <v>11</v>
       </c>
-      <c r="D14" t="s" s="0">
+      <c r="D14" t="s">
         <v>9</v>
       </c>
-      <c r="E14" t="s" s="0">
+      <c r="E14" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="0">
+      <c r="F14">
         <v>97</v>
       </c>
-      <c r="G14" s="0">
+      <c r="G14">
         <v>51</v>
       </c>
-      <c r="H14" s="0">
+      <c r="H14">
         <v>30</v>
       </c>
-      <c r="I14" s="0">
+      <c r="I14">
         <v>0</v>
       </c>
       <c r="M14" s="2"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" t="s" s="0">
+      <c r="A15" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="1">
         <v>45234</v>
       </c>
-      <c r="C15" t="s" s="0">
+      <c r="C15" t="s">
         <v>11</v>
       </c>
-      <c r="D15" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s" s="0">
+      <c r="D15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="0">
+      <c r="F15">
         <v>54</v>
       </c>
-      <c r="G15" s="0">
+      <c r="G15">
         <v>26</v>
       </c>
-      <c r="H15" s="0">
+      <c r="H15">
         <v>28</v>
       </c>
-      <c r="I15" s="0">
+      <c r="I15">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" t="s" s="0">
+      <c r="A16" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="1">
         <v>45234</v>
       </c>
-      <c r="C16" t="s" s="0">
+      <c r="C16" t="s">
         <v>4</v>
       </c>
-      <c r="D16" t="s" s="0">
+      <c r="D16" t="s">
         <v>2</v>
       </c>
-      <c r="E16" t="s" s="0">
+      <c r="E16" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="0">
+      <c r="F16">
         <v>82</v>
       </c>
-      <c r="G16" s="0">
+      <c r="G16">
         <v>32</v>
       </c>
-      <c r="H16" s="0">
+      <c r="H16">
         <v>50</v>
       </c>
-      <c r="I16" s="0">
+      <c r="I16">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A17" t="s" s="0">
+      <c r="A17" t="s">
         <v>31</v>
       </c>
       <c r="B17" s="1">
         <v>45234</v>
       </c>
-      <c r="C17" t="s" s="0">
+      <c r="C17" t="s">
         <v>11</v>
       </c>
-      <c r="D17" t="s" s="0">
+      <c r="D17" t="s">
         <v>9</v>
       </c>
-      <c r="E17" t="s" s="0">
+      <c r="E17" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="0">
+      <c r="F17">
         <v>60</v>
       </c>
-      <c r="G17" s="0">
+      <c r="G17">
         <v>40</v>
       </c>
-      <c r="H17" s="0">
+      <c r="H17">
         <v>20</v>
       </c>
-      <c r="I17" s="0">
+      <c r="I17">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A18" t="s" s="0">
+      <c r="A18" t="s">
         <v>31</v>
       </c>
       <c r="B18" s="1">
         <v>45234</v>
       </c>
-      <c r="C18" t="s" s="0">
+      <c r="C18" t="s">
         <v>11</v>
       </c>
-      <c r="D18" t="s" s="0">
+      <c r="D18" t="s">
         <v>9</v>
       </c>
-      <c r="E18" t="s" s="0">
+      <c r="E18" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="0">
+      <c r="F18">
         <v>56</v>
       </c>
-      <c r="G18" s="0">
+      <c r="G18">
         <v>48</v>
       </c>
-      <c r="H18" s="0">
+      <c r="H18">
         <v>8</v>
       </c>
-      <c r="I18" s="0">
+      <c r="I18">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A19" t="s" s="0">
+      <c r="A19" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="1">
         <v>45234</v>
       </c>
-      <c r="C19" t="s" s="0">
+      <c r="C19" t="s">
         <v>11</v>
       </c>
-      <c r="D19" t="s" s="0">
+      <c r="D19" t="s">
         <v>9</v>
       </c>
-      <c r="E19" t="s" s="0">
+      <c r="E19" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="0">
+      <c r="F19">
         <v>60</v>
       </c>
-      <c r="G19" s="0">
+      <c r="G19">
         <v>30</v>
       </c>
-      <c r="H19" s="0">
+      <c r="H19">
         <v>30</v>
       </c>
-      <c r="I19" s="0">
+      <c r="I19">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A20" t="s" s="0">
+      <c r="A20" t="s">
         <v>31</v>
       </c>
       <c r="B20" s="1">
         <v>45234</v>
       </c>
-      <c r="C20" t="s" s="0">
+      <c r="C20" t="s">
         <v>11</v>
       </c>
-      <c r="D20" t="s" s="0">
+      <c r="D20" t="s">
         <v>9</v>
       </c>
-      <c r="E20" t="s" s="0">
+      <c r="E20" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="0">
+      <c r="F20">
         <v>39</v>
       </c>
-      <c r="G20" s="0">
+      <c r="G20">
         <v>34</v>
       </c>
-      <c r="H20" s="0">
+      <c r="H20">
         <v>5</v>
       </c>
-      <c r="I20" s="0">
+      <c r="I20">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A21" t="s" s="0">
+      <c r="A21" t="s">
         <v>31</v>
       </c>
       <c r="B21" s="1">
         <v>45241</v>
       </c>
-      <c r="C21" t="s" s="0">
+      <c r="C21" t="s">
         <v>11</v>
       </c>
-      <c r="D21" t="s" s="0">
+      <c r="D21" t="s">
         <v>9</v>
       </c>
-      <c r="E21" t="s" s="0">
+      <c r="E21" t="s">
         <v>1</v>
       </c>
-      <c r="F21" s="0">
+      <c r="F21">
         <v>32</v>
       </c>
-      <c r="G21" s="0">
+      <c r="G21">
         <v>4</v>
       </c>
-      <c r="H21" s="0">
+      <c r="H21">
         <v>28</v>
       </c>
-      <c r="I21" s="0">
-        <v>0</v>
-      </c>
-      <c r="K21" t="s" s="0">
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A22" t="s" s="0">
+      <c r="A22" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="1">
         <v>45241</v>
       </c>
-      <c r="C22" t="s" s="0">
+      <c r="C22" t="s">
         <v>4</v>
       </c>
-      <c r="D22" t="s" s="0">
+      <c r="D22" t="s">
         <v>9</v>
       </c>
-      <c r="E22" t="s" s="0">
+      <c r="E22" t="s">
         <v>1</v>
       </c>
-      <c r="F22" s="0">
+      <c r="F22">
         <v>83</v>
       </c>
-      <c r="G22" s="0">
+      <c r="G22">
         <v>55</v>
       </c>
-      <c r="H22" s="0">
+      <c r="H22">
         <v>28</v>
       </c>
-      <c r="I22" s="0">
-        <v>0</v>
-      </c>
-      <c r="K22" t="s" s="0">
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="K22" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A23" t="s" s="0">
+      <c r="A23" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="1">
         <v>45241</v>
       </c>
-      <c r="C23" t="s" s="0">
+      <c r="C23" t="s">
         <v>3</v>
       </c>
-      <c r="D23" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="E23" t="s" s="0">
+      <c r="D23" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
         <v>1</v>
       </c>
-      <c r="F23" s="0">
+      <c r="F23">
         <v>56</v>
       </c>
-      <c r="G23" s="0">
+      <c r="G23">
         <v>26</v>
       </c>
-      <c r="H23" s="0">
+      <c r="H23">
         <v>30</v>
       </c>
-      <c r="I23" s="0">
-        <v>0</v>
-      </c>
-      <c r="K23" t="s" s="0">
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="K23" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A24" t="s" s="0">
+      <c r="A24" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="1">
         <v>45241</v>
       </c>
-      <c r="C24" t="s" s="0">
+      <c r="C24" t="s">
         <v>11</v>
       </c>
-      <c r="D24" t="s" s="0">
+      <c r="D24" t="s">
         <v>9</v>
       </c>
-      <c r="E24" t="s" s="0">
+      <c r="E24" t="s">
         <v>1</v>
       </c>
-      <c r="F24" s="0">
+      <c r="F24">
         <v>33</v>
       </c>
-      <c r="G24" s="0">
+      <c r="G24">
         <v>28</v>
       </c>
-      <c r="H24" s="0">
+      <c r="H24">
         <v>5</v>
       </c>
-      <c r="I24" s="0">
-        <v>0</v>
-      </c>
-      <c r="K24" t="s" s="0">
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="K24" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A25" t="s" s="0">
+      <c r="A25" t="s">
         <v>31</v>
       </c>
       <c r="B25" s="1">
         <v>45241</v>
       </c>
-      <c r="C25" t="s" s="0">
+      <c r="C25" t="s">
         <v>4</v>
       </c>
-      <c r="D25" t="s" s="0">
+      <c r="D25" t="s">
         <v>9</v>
       </c>
-      <c r="E25" t="s" s="0">
+      <c r="E25" t="s">
         <v>1</v>
       </c>
-      <c r="F25" s="0">
+      <c r="F25">
         <v>56</v>
       </c>
-      <c r="G25" s="0">
+      <c r="G25">
         <v>36</v>
       </c>
-      <c r="H25" s="0">
+      <c r="H25">
         <v>20</v>
       </c>
-      <c r="I25" s="0">
-        <v>0</v>
-      </c>
-      <c r="K25" t="s" s="0">
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="K25" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A26" t="s" s="0">
+      <c r="A26" t="s">
         <v>31</v>
       </c>
       <c r="B26" s="1">
         <v>45241</v>
       </c>
-      <c r="C26" t="s" s="0">
+      <c r="C26" t="s">
         <v>3</v>
       </c>
-      <c r="D26" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="E26" t="s" s="0">
+      <c r="D26" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
         <v>1</v>
       </c>
-      <c r="F26" s="0">
+      <c r="F26">
         <v>55</v>
       </c>
-      <c r="G26" s="0">
+      <c r="G26">
         <v>27</v>
       </c>
-      <c r="H26" s="0">
+      <c r="H26">
         <v>28</v>
       </c>
-      <c r="I26" s="0">
-        <v>0</v>
-      </c>
-      <c r="K26" t="s" s="0">
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="K26" t="s">
         <v>42</v>
       </c>
       <c r="T26" s="6"/>
@@ -2490,7 +2495,7 @@
       <c r="Y26" s="2"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="L27" t="s" s="0">
+      <c r="L27" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2520,8 +2525,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="10.0"/>
-    <col min="5" max="5" customWidth="true" width="10.6640625"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
@@ -2553,7 +2558,7 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
-      <c r="V2" t="s" s="0">
+      <c r="V2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2561,16 +2566,16 @@
       <c r="A3" s="1">
         <v>45237</v>
       </c>
-      <c r="B3" s="0">
+      <c r="B3">
         <v>106</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s" s="0">
+      <c r="E3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2578,25 +2583,25 @@
       <c r="A4" s="1">
         <v>45237</v>
       </c>
-      <c r="B4" s="0">
+      <c r="B4">
         <v>83</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" t="s" s="0">
+      <c r="E4" t="s">
         <v>1</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N4" t="s" s="0">
+      <c r="N4" t="s">
         <v>23</v>
       </c>
-      <c r="O4" t="s" s="0">
+      <c r="O4" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2604,26 +2609,26 @@
       <c r="A5" s="1">
         <v>45237</v>
       </c>
-      <c r="B5" s="0">
+      <c r="B5">
         <v>89</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="D5" t="s">
         <v>2</v>
       </c>
-      <c r="E5" t="s" s="0">
+      <c r="E5" t="s">
         <v>1</v>
       </c>
-      <c r="M5" t="s" s="0">
+      <c r="M5" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="0">
+      <c r="N5">
         <f>(SUMIF($C$3:$C$100, M5, $B$3:$B$100)/COUNTIF($C$3:$C$100, M5))</f>
         <v>88.083333333333329</v>
       </c>
-      <c r="O5" s="0">
+      <c r="O5">
         <f>(SUMIF($C$3:$C$100, M5, $F$3:$F$100)/COUNTIF($C$13:$C$100, M5))</f>
         <v>42.428571428571431</v>
       </c>
@@ -2632,26 +2637,26 @@
       <c r="A6" s="1">
         <v>45238</v>
       </c>
-      <c r="B6" s="0">
+      <c r="B6">
         <v>71</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s" s="0">
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
         <v>1</v>
       </c>
-      <c r="M6" t="s" s="0">
+      <c r="M6" t="s">
         <v>4</v>
       </c>
-      <c r="N6" s="0">
+      <c r="N6">
         <f>(SUMIF($C$3:$C$100, M6, $B$3:$B$100)/COUNTIF($C$3:$C$100, M6))</f>
         <v>98.5</v>
       </c>
-      <c r="O6" s="0">
+      <c r="O6">
         <f>(SUMIF($C$3:$C$100, M6, $F$3:$F$100)/COUNTIF($C$13:$C$100, M6))</f>
         <v>57.333333333333336</v>
       </c>
@@ -2660,26 +2665,26 @@
       <c r="A7" s="1">
         <v>45238</v>
       </c>
-      <c r="B7" s="0">
+      <c r="B7">
         <v>88</v>
       </c>
-      <c r="C7" t="s" s="0">
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s" s="0">
+      <c r="D7" t="s">
         <v>2</v>
       </c>
-      <c r="E7" t="s" s="0">
+      <c r="E7" t="s">
         <v>1</v>
       </c>
-      <c r="M7" t="s" s="0">
+      <c r="M7" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="0">
+      <c r="N7">
         <f>(SUMIF($C$3:$C$100, M7, $B$3:$B$100)/COUNTIF($C$3:$C$100, M7))</f>
         <v>86.25</v>
       </c>
-      <c r="O7" s="0">
+      <c r="O7">
         <f>(SUMIF($C$3:$C$100, M7, $F$3:$F$100)/COUNTIF($C$13:$C$100, M7))</f>
         <v>38</v>
       </c>
@@ -2688,16 +2693,16 @@
       <c r="A8" s="1">
         <v>45238</v>
       </c>
-      <c r="B8" s="0">
+      <c r="B8">
         <v>111</v>
       </c>
-      <c r="C8" t="s" s="0">
+      <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" t="s" s="0">
+      <c r="D8" t="s">
         <v>2</v>
       </c>
-      <c r="E8" t="s" s="0">
+      <c r="E8" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2705,16 +2710,16 @@
       <c r="A9" s="1">
         <v>45238</v>
       </c>
-      <c r="B9" s="0">
+      <c r="B9">
         <v>34</v>
       </c>
-      <c r="C9" t="s" s="0">
+      <c r="C9" t="s">
         <v>3</v>
       </c>
-      <c r="D9" t="s" s="0">
+      <c r="D9" t="s">
         <v>9</v>
       </c>
-      <c r="E9" t="s" s="0">
+      <c r="E9" t="s">
         <v>1</v>
       </c>
       <c r="M9" s="2" t="s">
@@ -2725,16 +2730,16 @@
       <c r="A10" s="1">
         <v>45238</v>
       </c>
-      <c r="B10" s="0">
+      <c r="B10">
         <v>120</v>
       </c>
-      <c r="C10" t="s" s="0">
+      <c r="C10" t="s">
         <v>3</v>
       </c>
-      <c r="D10" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s" s="0">
+      <c r="D10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
         <v>1</v>
       </c>
       <c r="H10" s="6" t="s">
@@ -2743,14 +2748,14 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
-      <c r="M10" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="N10" s="0">
+      <c r="M10" t="s">
+        <v>0</v>
+      </c>
+      <c r="N10">
         <f>(SUMIF($D$3:$D$100, M10, $B$3:$B$100)/COUNTIF($D$3:$D$100, M10))</f>
         <v>96.666666666666671</v>
       </c>
-      <c r="O10" s="0">
+      <c r="O10">
         <f>(SUMIF($D$3:$D$100, M10, $F$3:$F$100)/COUNTIF($D$13:$D$100, M10))</f>
         <v>26</v>
       </c>
@@ -2759,16 +2764,16 @@
       <c r="A11" s="1">
         <v>45238</v>
       </c>
-      <c r="B11" s="0">
+      <c r="B11">
         <v>75</v>
       </c>
-      <c r="C11" t="s" s="0">
+      <c r="C11" t="s">
         <v>11</v>
       </c>
-      <c r="D11" t="s" s="0">
+      <c r="D11" t="s">
         <v>9</v>
       </c>
-      <c r="E11" t="s" s="0">
+      <c r="E11" t="s">
         <v>1</v>
       </c>
       <c r="H11" s="6" t="s">
@@ -2779,14 +2784,14 @@
         <v>22</v>
       </c>
       <c r="K11" s="6"/>
-      <c r="M11" t="s" s="0">
+      <c r="M11" t="s">
         <v>9</v>
       </c>
-      <c r="N11" s="0">
+      <c r="N11">
         <f>(SUMIF($D$3:$D$100, M11, $B$3:$B$100)/COUNTIF($D$3:$D$100, M11))</f>
         <v>77</v>
       </c>
-      <c r="O11" s="0">
+      <c r="O11">
         <f>(SUMIF($D$3:$D$100, M11, $F$3:$F$100)/COUNTIF($D$13:$D$100, M11))</f>
         <v>45.166666666666664</v>
       </c>
@@ -2804,14 +2809,14 @@
       <c r="K12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M12" t="s" s="0">
+      <c r="M12" t="s">
         <v>2</v>
       </c>
-      <c r="N12" s="0">
+      <c r="N12">
         <f>(SUMIF($D$3:$D$100, M12, $B$3:$B$100)/COUNTIF($D$3:$D$100, M12))</f>
         <v>97.75</v>
       </c>
-      <c r="O12" s="0">
+      <c r="O12">
         <f>(SUMIF($D$3:$D$100, M12, $F$3:$F$100)/COUNTIF($D$13:$D$100, M12))</f>
         <v>57.333333333333336</v>
       </c>
@@ -2820,26 +2825,26 @@
       <c r="A13" s="1">
         <v>45237</v>
       </c>
-      <c r="B13" s="0">
+      <c r="B13">
         <v>111</v>
       </c>
-      <c r="C13" t="s" s="0">
+      <c r="C13" t="s">
         <v>4</v>
       </c>
-      <c r="D13" t="s" s="0">
+      <c r="D13" t="s">
         <v>2</v>
       </c>
-      <c r="E13" t="s" s="0">
+      <c r="E13" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="0">
+      <c r="F13">
         <v>66</v>
       </c>
-      <c r="H13" s="0">
+      <c r="H13">
         <f t="shared" ref="H13:H23" si="0">(SUMIF($M$5:$M$7, $C13, $N$5:$N$7)+SUMIF($M$10:$M$12, $D13, $N$10:$N$12)+SUMIF($M$15:$M$17, $E13, $N$15:$N$17))/3</f>
         <v>99.833333333333329</v>
       </c>
-      <c r="I13" s="0">
+      <c r="I13">
         <f t="shared" ref="I13:I23" si="1">(SUMIF($M$5:$M$7, $C13, $O$5:$O$7)+SUMIF($M$10:$M$12, $D13, $O$10:$O$12)+SUMIF($M$15:$M$17, $E13, $O$15:$O$17))/3</f>
         <v>55.722222222222229</v>
       </c>
@@ -2847,7 +2852,7 @@
         <f t="shared" ref="J13:J23" si="2">(SUMIF($M$5:$M$7, $C13, $N$5:$N$7)+SUMIF($M$10:$M$12, $D13, $N$10:$N$12))/2</f>
         <v>98.125</v>
       </c>
-      <c r="K13" s="0">
+      <c r="K13">
         <f t="shared" ref="K13:K23" si="3">(SUMIF($M$5:$M$7, $C13, $O$5:$O$7)+SUMIF($M$10:$M$12, $D13, $O$10:$O$12))/2</f>
         <v>57.333333333333336</v>
       </c>
@@ -2856,26 +2861,26 @@
       <c r="A14" s="1">
         <v>45238</v>
       </c>
-      <c r="B14" s="0">
+      <c r="B14">
         <v>107</v>
       </c>
-      <c r="C14" t="s" s="0">
+      <c r="C14" t="s">
         <v>11</v>
       </c>
-      <c r="D14" t="s" s="0">
+      <c r="D14" t="s">
         <v>9</v>
       </c>
-      <c r="E14" t="s" s="0">
+      <c r="E14" t="s">
         <v>1</v>
       </c>
-      <c r="F14" s="0">
+      <c r="F14">
         <v>57</v>
       </c>
-      <c r="H14" s="0">
+      <c r="H14">
         <f t="shared" si="0"/>
         <v>84.49444444444444</v>
       </c>
-      <c r="I14" s="0">
+      <c r="I14">
         <f t="shared" si="1"/>
         <v>48.198412698412703</v>
       </c>
@@ -2883,7 +2888,7 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K14" s="0">
+      <c r="K14">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
@@ -2895,26 +2900,26 @@
       <c r="A15" s="1">
         <v>45234</v>
       </c>
-      <c r="B15" s="0">
+      <c r="B15">
         <v>108</v>
       </c>
-      <c r="C15" t="s" s="0">
+      <c r="C15" t="s">
         <v>3</v>
       </c>
-      <c r="D15" t="s" s="0">
+      <c r="D15" t="s">
         <v>19</v>
       </c>
-      <c r="E15" t="s" s="0">
+      <c r="E15" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="0">
+      <c r="F15">
         <v>38</v>
       </c>
-      <c r="H15" s="0">
+      <c r="H15">
         <f t="shared" si="0"/>
         <v>63.166666666666664</v>
       </c>
-      <c r="I15" s="0">
+      <c r="I15">
         <f t="shared" si="1"/>
         <v>30.166666666666668</v>
       </c>
@@ -2922,18 +2927,18 @@
         <f t="shared" si="2"/>
         <v>43.125</v>
       </c>
-      <c r="K15" s="0">
+      <c r="K15">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="M15" t="s" s="0">
+      <c r="M15" t="s">
         <v>10</v>
       </c>
-      <c r="N15" s="0">
+      <c r="N15">
         <f>(SUMIF($E$3:$E$100, M15, $B$3:$B$100)/COUNTIF($E$3:$E$100, M15))</f>
         <v>83.166666666666671</v>
       </c>
-      <c r="O15" s="0">
+      <c r="O15">
         <f>(SUMIF($E$3:$E$100, M15, $F$3:$F$100)/COUNTIF($E$13:$E$100, M15))</f>
         <v>40</v>
       </c>
@@ -2942,26 +2947,26 @@
       <c r="A16" s="1">
         <v>45234</v>
       </c>
-      <c r="B16" s="0">
+      <c r="B16">
         <v>107</v>
       </c>
-      <c r="C16" t="s" s="0">
+      <c r="C16" t="s">
         <v>4</v>
       </c>
-      <c r="D16" t="s" s="0">
+      <c r="D16" t="s">
         <v>2</v>
       </c>
-      <c r="E16" t="s" s="0">
+      <c r="E16" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="0">
+      <c r="F16">
         <v>74</v>
       </c>
-      <c r="H16" s="0">
+      <c r="H16">
         <f t="shared" si="0"/>
         <v>99.833333333333329</v>
       </c>
-      <c r="I16" s="0">
+      <c r="I16">
         <f t="shared" si="1"/>
         <v>55.722222222222229</v>
       </c>
@@ -2969,18 +2974,18 @@
         <f t="shared" si="2"/>
         <v>98.125</v>
       </c>
-      <c r="K16" s="0">
+      <c r="K16">
         <f t="shared" si="3"/>
         <v>57.333333333333336</v>
       </c>
-      <c r="M16" t="s" s="0">
+      <c r="M16" t="s">
         <v>1</v>
       </c>
-      <c r="N16" s="0">
+      <c r="N16">
         <f>(SUMIF($E$3:$E$100, M16, $B$3:$B$100)/COUNTIF($E$3:$E$100, M16))</f>
         <v>88.4</v>
       </c>
-      <c r="O16" s="0">
+      <c r="O16">
         <f>(SUMIF($E$3:$E$100, M16, $F$3:$F$100)/COUNTIF($E$13:$E$100, M16))</f>
         <v>57</v>
       </c>
@@ -2989,26 +2994,26 @@
       <c r="A17" s="1">
         <v>45234</v>
       </c>
-      <c r="B17" s="0">
+      <c r="B17">
         <v>97</v>
       </c>
-      <c r="C17" t="s" s="0">
+      <c r="C17" t="s">
         <v>11</v>
       </c>
-      <c r="D17" t="s" s="0">
+      <c r="D17" t="s">
         <v>9</v>
       </c>
-      <c r="E17" t="s" s="0">
+      <c r="E17" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="0">
+      <c r="F17">
         <v>62</v>
       </c>
-      <c r="H17" s="0">
+      <c r="H17">
         <f t="shared" si="0"/>
         <v>82.75</v>
       </c>
-      <c r="I17" s="0">
+      <c r="I17">
         <f t="shared" si="1"/>
         <v>42.531746031746032</v>
       </c>
@@ -3016,18 +3021,18 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K17" s="0">
+      <c r="K17">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
-      <c r="M17" t="s" s="0">
+      <c r="M17" t="s">
         <v>5</v>
       </c>
-      <c r="N17" s="0">
+      <c r="N17">
         <f>(SUMIF($E$3:$E$100, M17, $B$3:$B$100)/COUNTIF($E$3:$E$100, M17))</f>
         <v>103.25</v>
       </c>
-      <c r="O17" s="0">
+      <c r="O17">
         <f>(SUMIF($E$3:$E$100, M17, $F$3:$F$100)/COUNTIF($E$13:$E$100, M17))</f>
         <v>52.5</v>
       </c>
@@ -3036,26 +3041,26 @@
       <c r="A18" s="1">
         <v>45234</v>
       </c>
-      <c r="B18" s="0">
+      <c r="B18">
         <v>99</v>
       </c>
-      <c r="C18" t="s" s="0">
+      <c r="C18" t="s">
         <v>11</v>
       </c>
-      <c r="D18" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s" s="0">
+      <c r="D18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="0">
+      <c r="F18">
         <v>26</v>
       </c>
-      <c r="H18" s="0">
+      <c r="H18">
         <f t="shared" si="0"/>
         <v>89.305555555555557</v>
       </c>
-      <c r="I18" s="0">
+      <c r="I18">
         <f t="shared" si="1"/>
         <v>36.142857142857146</v>
       </c>
@@ -3063,7 +3068,7 @@
         <f t="shared" si="2"/>
         <v>92.375</v>
       </c>
-      <c r="K18" s="0">
+      <c r="K18">
         <f t="shared" si="3"/>
         <v>34.214285714285715</v>
       </c>
@@ -3072,26 +3077,26 @@
       <c r="A19" s="1">
         <v>45234</v>
       </c>
-      <c r="B19" s="0">
+      <c r="B19">
         <v>87</v>
       </c>
-      <c r="C19" t="s" s="0">
+      <c r="C19" t="s">
         <v>4</v>
       </c>
-      <c r="D19" t="s" s="0">
+      <c r="D19" t="s">
         <v>2</v>
       </c>
-      <c r="E19" t="s" s="0">
+      <c r="E19" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="0">
+      <c r="F19">
         <v>32</v>
       </c>
-      <c r="H19" s="0">
+      <c r="H19">
         <f t="shared" si="0"/>
         <v>99.833333333333329</v>
       </c>
-      <c r="I19" s="0">
+      <c r="I19">
         <f t="shared" si="1"/>
         <v>55.722222222222229</v>
       </c>
@@ -3099,7 +3104,7 @@
         <f t="shared" si="2"/>
         <v>98.125</v>
       </c>
-      <c r="K19" s="0">
+      <c r="K19">
         <f t="shared" si="3"/>
         <v>57.333333333333336</v>
       </c>
@@ -3108,26 +3113,26 @@
       <c r="A20" s="1">
         <v>45234</v>
       </c>
-      <c r="B20" s="0">
+      <c r="B20">
         <v>76</v>
       </c>
-      <c r="C20" t="s" s="0">
+      <c r="C20" t="s">
         <v>11</v>
       </c>
-      <c r="D20" t="s" s="0">
+      <c r="D20" t="s">
         <v>9</v>
       </c>
-      <c r="E20" t="s" s="0">
+      <c r="E20" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="0">
+      <c r="F20">
         <v>48</v>
       </c>
-      <c r="H20" s="0">
+      <c r="H20">
         <f t="shared" si="0"/>
         <v>82.75</v>
       </c>
-      <c r="I20" s="0">
+      <c r="I20">
         <f t="shared" si="1"/>
         <v>42.531746031746032</v>
       </c>
@@ -3135,7 +3140,7 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K20" s="0">
+      <c r="K20">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
@@ -3144,26 +3149,26 @@
       <c r="A21" s="1">
         <v>45234</v>
       </c>
-      <c r="B21" s="0">
+      <c r="B21">
         <v>93</v>
       </c>
-      <c r="C21" t="s" s="0">
+      <c r="C21" t="s">
         <v>11</v>
       </c>
-      <c r="D21" t="s" s="0">
+      <c r="D21" t="s">
         <v>9</v>
       </c>
-      <c r="E21" t="s" s="0">
+      <c r="E21" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="0">
+      <c r="F21">
         <v>40</v>
       </c>
-      <c r="H21" s="0">
+      <c r="H21">
         <f t="shared" si="0"/>
         <v>82.75</v>
       </c>
-      <c r="I21" s="0">
+      <c r="I21">
         <f t="shared" si="1"/>
         <v>42.531746031746032</v>
       </c>
@@ -3171,7 +3176,7 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K21" s="0">
+      <c r="K21">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
@@ -3180,26 +3185,26 @@
       <c r="A22" s="1">
         <v>45234</v>
       </c>
-      <c r="B22" s="0">
+      <c r="B22">
         <v>85</v>
       </c>
-      <c r="C22" t="s" s="0">
+      <c r="C22" t="s">
         <v>11</v>
       </c>
-      <c r="D22" t="s" s="0">
+      <c r="D22" t="s">
         <v>9</v>
       </c>
-      <c r="E22" t="s" s="0">
+      <c r="E22" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="0">
+      <c r="F22">
         <v>30</v>
       </c>
-      <c r="H22" s="0">
+      <c r="H22">
         <f t="shared" si="0"/>
         <v>82.75</v>
       </c>
-      <c r="I22" s="0">
+      <c r="I22">
         <f t="shared" si="1"/>
         <v>42.531746031746032</v>
       </c>
@@ -3207,7 +3212,7 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K22" s="0">
+      <c r="K22">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
@@ -3216,26 +3221,26 @@
       <c r="A23" s="1">
         <v>45234</v>
       </c>
-      <c r="B23" s="0">
+      <c r="B23">
         <v>49</v>
       </c>
-      <c r="C23" t="s" s="0">
+      <c r="C23" t="s">
         <v>11</v>
       </c>
-      <c r="D23" t="s" s="0">
+      <c r="D23" t="s">
         <v>9</v>
       </c>
-      <c r="E23" t="s" s="0">
+      <c r="E23" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="0">
+      <c r="F23">
         <v>34</v>
       </c>
-      <c r="H23" s="0">
+      <c r="H23">
         <f t="shared" si="0"/>
         <v>82.75</v>
       </c>
-      <c r="I23" s="0">
+      <c r="I23">
         <f t="shared" si="1"/>
         <v>42.531746031746032</v>
       </c>
@@ -3243,7 +3248,7 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K23" s="0">
+      <c r="K23">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
@@ -3263,67 +3268,67 @@
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="T28" s="0">
+      <c r="T28">
         <v>1</v>
       </c>
-      <c r="U28" t="s" s="0">
+      <c r="U28" t="s">
         <v>3</v>
       </c>
-      <c r="V28" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="W28" t="s" s="0">
+      <c r="V28" t="s">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
         <v>1</v>
       </c>
-      <c r="X28" s="0">
+      <c r="X28">
         <f>(N7+N10+N16)/3</f>
         <v>90.438888888888911</v>
       </c>
-      <c r="Y28" s="0">
+      <c r="Y28">
         <f>(O7+O10+O16)/3</f>
         <v>40.333333333333336</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="T29" s="0">
+      <c r="T29">
         <v>2</v>
       </c>
-      <c r="U29" t="s" s="0">
+      <c r="U29" t="s">
         <v>11</v>
       </c>
-      <c r="V29" t="s" s="0">
+      <c r="V29" t="s">
         <v>9</v>
       </c>
-      <c r="W29" t="s" s="0">
+      <c r="W29" t="s">
         <v>1</v>
       </c>
-      <c r="X29" s="0">
+      <c r="X29">
         <f>(N5+N11+N16)/3</f>
         <v>84.49444444444444</v>
       </c>
-      <c r="Y29" s="0">
+      <c r="Y29">
         <f>(O5+O11+O16)/3</f>
         <v>48.198412698412703</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="T30" s="0">
+      <c r="T30">
         <v>3</v>
       </c>
-      <c r="U30" t="s" s="0">
+      <c r="U30" t="s">
         <v>4</v>
       </c>
-      <c r="V30" t="s" s="0">
+      <c r="V30" t="s">
         <v>9</v>
       </c>
-      <c r="W30" t="s" s="0">
+      <c r="W30" t="s">
         <v>1</v>
       </c>
-      <c r="X30" s="0">
+      <c r="X30">
         <f>(N6+N11+N16)/3</f>
         <v>87.966666666666654</v>
       </c>
-      <c r="Y30" s="0">
+      <c r="Y30">
         <f>(O6+O11+O16)/3</f>
         <v>53.166666666666664</v>
       </c>
@@ -3337,67 +3342,67 @@
       <c r="W32" s="6"/>
     </row>
     <row r="33" spans="20:25" x14ac:dyDescent="0.3">
-      <c r="T33" s="0">
+      <c r="T33">
         <v>1</v>
       </c>
-      <c r="U33" t="s" s="0">
+      <c r="U33" t="s">
         <v>3</v>
       </c>
-      <c r="V33" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="W33" t="s" s="0">
+      <c r="V33" t="s">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
         <v>1</v>
       </c>
-      <c r="X33" s="0">
+      <c r="X33">
         <f>(N7+N10+N16)/3</f>
         <v>90.438888888888911</v>
       </c>
-      <c r="Y33" s="0">
+      <c r="Y33">
         <f>(O7+O10+O16)/3</f>
         <v>40.333333333333336</v>
       </c>
     </row>
     <row r="34" spans="20:25" x14ac:dyDescent="0.3">
-      <c r="T34" s="0">
+      <c r="T34">
         <v>2</v>
       </c>
-      <c r="U34" t="s" s="0">
+      <c r="U34" t="s">
         <v>11</v>
       </c>
-      <c r="V34" t="s" s="0">
+      <c r="V34" t="s">
         <v>9</v>
       </c>
-      <c r="W34" t="s" s="0">
+      <c r="W34" t="s">
         <v>10</v>
       </c>
-      <c r="X34" s="0">
+      <c r="X34">
         <f>(N5+N11+N15)/3</f>
         <v>82.75</v>
       </c>
-      <c r="Y34" s="0">
+      <c r="Y34">
         <f>(O5+O11+O15)/3</f>
         <v>42.531746031746032</v>
       </c>
     </row>
     <row r="35" spans="20:25" x14ac:dyDescent="0.3">
-      <c r="T35" s="0">
+      <c r="T35">
         <v>3</v>
       </c>
-      <c r="U35" t="s" s="0">
+      <c r="U35" t="s">
         <v>4</v>
       </c>
-      <c r="V35" t="s" s="0">
+      <c r="V35" t="s">
         <v>2</v>
       </c>
-      <c r="W35" t="s" s="0">
+      <c r="W35" t="s">
         <v>5</v>
       </c>
-      <c r="X35" s="0">
+      <c r="X35">
         <f>(N6+N12+N17)/3</f>
         <v>99.833333333333329</v>
       </c>
-      <c r="Y35" s="0">
+      <c r="Y35">
         <f>(O6+O12+O17)/3</f>
         <v>55.722222222222229</v>
       </c>
@@ -3418,319 +3423,211 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
-      <c r="E1" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="0">
+      <c r="E1" s="3"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>46</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>47</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>48</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="G2" t="s" s="0">
-        <v>48</v>
-      </c>
-      <c r="H2" t="s" s="0">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" t="n" s="0">
-        <v>64.08617594267274</v>
-      </c>
-      <c r="B3" t="n" s="0">
-        <v>33.08037825085841</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>21.030732860527774</v>
-      </c>
-      <c r="D3" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="F3" t="n" s="0">
-        <v>-1.0</v>
-      </c>
-      <c r="G3" t="n" s="0">
-        <v>-1.0</v>
-      </c>
-      <c r="H3" t="n" s="0">
-        <v>-1.0</v>
-      </c>
-      <c r="M3" t="s" s="0">
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>68.34761321914732</v>
+      </c>
+      <c r="B3">
+        <v>33.962659380931484</v>
+      </c>
+      <c r="C3">
+        <v>22.099271402535425</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" t="n" s="0">
-        <v>78.12121212133545</v>
-      </c>
-      <c r="B4" t="n" s="0">
-        <v>44.84033613435197</v>
-      </c>
-      <c r="C4" t="n" s="0">
-        <v>32.09243697502329</v>
-      </c>
-      <c r="D4" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="F4" t="n" s="0">
-        <v>-1.0</v>
-      </c>
-      <c r="G4" t="n" s="0">
-        <v>-1.0</v>
-      </c>
-      <c r="H4" t="n" s="0">
-        <v>-1.0</v>
-      </c>
-      <c r="M4" t="s" s="0">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>80.433604336161849</v>
+      </c>
+      <c r="B4">
+        <v>46.141955835871975</v>
+      </c>
+      <c r="C4">
+        <v>32.886435331452574</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" t="n" s="0">
-        <v>64.88000000016457</v>
-      </c>
-      <c r="B5" t="n" s="0">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>67.603225806624124</v>
+      </c>
+      <c r="B5">
         <v>26.500000000000004</v>
       </c>
-      <c r="C5" t="n" s="0">
-        <v>29.0</v>
-      </c>
-      <c r="D5" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="F5" t="n" s="0">
-        <v>-1.0</v>
-      </c>
-      <c r="G5" t="n" s="0">
-        <v>-1.0</v>
-      </c>
-      <c r="H5" t="n" s="0">
-        <v>-1.0</v>
-      </c>
-      <c r="M5" t="s" s="0">
+      <c r="C5">
+        <v>29</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" t="n" s="0">
-        <v>58.845735027374296</v>
-      </c>
-      <c r="B6" t="n" s="0">
-        <v>36.73440643878293</v>
-      </c>
-      <c r="C6" t="n" s="0">
-        <v>21.10261569412463</v>
-      </c>
-      <c r="D6" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="F6" t="n" s="0">
-        <v>-1.0</v>
-      </c>
-      <c r="G6" t="n" s="0">
-        <v>-1.0</v>
-      </c>
-      <c r="H6" t="n" s="0">
-        <v>-1.0</v>
-      </c>
-      <c r="M6" t="s" s="0">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>59.911941294327768</v>
+      </c>
+      <c r="B6">
+        <v>37.374123149011183</v>
+      </c>
+      <c r="C6">
+        <v>22.014809041263188</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" t="n" s="0">
-        <v>90.28399999981394</v>
-      </c>
-      <c r="B7" t="n" s="0">
-        <v>44.16949152525964</v>
-      </c>
-      <c r="C7" t="n" s="0">
-        <v>40.32203389826992</v>
-      </c>
-      <c r="D7" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="F7" t="n" s="0">
-        <v>-1.0</v>
-      </c>
-      <c r="G7" t="n" s="0">
-        <v>-1.0</v>
-      </c>
-      <c r="H7" t="n" s="0">
-        <v>-1.0</v>
-      </c>
-      <c r="M7" t="s" s="0">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>92.410672853670846</v>
+      </c>
+      <c r="B7">
+        <v>46.718562874046683</v>
+      </c>
+      <c r="C7">
+        <v>40.868263473010003</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" t="n" s="0">
-        <v>65.00454545457524</v>
-      </c>
-      <c r="B8" t="n" s="0">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>68.919175911293578</v>
+      </c>
+      <c r="B8">
         <v>26.361445783125625</v>
       </c>
-      <c r="C8" t="n" s="0">
+      <c r="C8">
         <v>28.722891566251242</v>
       </c>
-      <c r="D8" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="F8" t="n" s="0">
-        <v>-1.0</v>
-      </c>
-      <c r="G8" t="n" s="0">
-        <v>-1.0</v>
-      </c>
-      <c r="H8" t="n" s="0">
-        <v>-1.0</v>
-      </c>
-      <c r="M8" t="s" s="0">
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" t="n" s="0">
-        <v>61.00000000000001</v>
-      </c>
-      <c r="B9" t="n" s="0">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>61.000000000000007</v>
+      </c>
+      <c r="B9">
         <v>38.166666666666664</v>
       </c>
-      <c r="C9" t="n" s="0">
-        <v>20.16666666666667</v>
-      </c>
-      <c r="D9" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="F9" t="n" s="0">
-        <v>-1.0</v>
-      </c>
-      <c r="G9" t="n" s="0">
-        <v>-1.0</v>
-      </c>
-      <c r="H9" t="n" s="0">
-        <v>-1.0</v>
-      </c>
-      <c r="M9" t="s" s="0">
+      <c r="C9">
+        <v>20.166666666666671</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" t="n" s="0">
-        <v>84.49152542352957</v>
-      </c>
-      <c r="B10" t="n" s="0">
-        <v>44.16949152525964</v>
-      </c>
-      <c r="C10" t="n" s="0">
-        <v>40.32203389826992</v>
-      </c>
-      <c r="D10" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="F10" t="n" s="0">
-        <v>-1.0</v>
-      </c>
-      <c r="G10" t="n" s="0">
-        <v>-1.0</v>
-      </c>
-      <c r="H10" t="n" s="0">
-        <v>-1.0</v>
-      </c>
-      <c r="M10" t="s" s="0">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>87.586826347056686</v>
+      </c>
+      <c r="B10">
+        <v>46.718562874046683</v>
+      </c>
+      <c r="C10">
+        <v>40.868263473010003</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" t="n" s="0">
-        <v>67.76714513581695</v>
-      </c>
-      <c r="B11" t="n" s="0">
-        <v>31.2635658915181</v>
-      </c>
-      <c r="C11" t="n" s="0">
-        <v>25.038759689966348</v>
-      </c>
-      <c r="D11" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="F11" t="n" s="0">
-        <v>-1.0</v>
-      </c>
-      <c r="G11" t="n" s="0">
-        <v>-1.0</v>
-      </c>
-      <c r="H11" t="n" s="0">
-        <v>-1.0</v>
-      </c>
-      <c r="M11" t="s" s="0">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>71.956300813263994</v>
+      </c>
+      <c r="B11">
+        <v>32.297619047685707</v>
+      </c>
+      <c r="C11">
+        <v>26.041666666731317</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" t="s">
         <v>41</v>
       </c>
     </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3738,10 +3635,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:V5"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3776,10 +3673,10 @@
       <c r="A2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>47</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>48</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -3788,10 +3685,10 @@
       <c r="E2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s">
         <v>47</v>
       </c>
-      <c r="G2" t="s" s="0">
+      <c r="G2" t="s">
         <v>48</v>
       </c>
       <c r="H2" s="5" t="s">
@@ -3800,93 +3697,208 @@
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="n">
-        <v>61.37276438801881</v>
-      </c>
-      <c r="B3" t="n" s="0">
-        <v>35.55924720918987</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>20.886672755194294</v>
-      </c>
-      <c r="D3" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>63.150450450906995</v>
-      </c>
-      <c r="F3" t="n" s="0">
-        <v>37.76972222268363</v>
-      </c>
-      <c r="G3" t="n" s="0">
-        <v>22.631388889134115</v>
-      </c>
-      <c r="H3" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I3" s="4"/>
-      <c r="V3" t="s" s="0">
+      <c r="A3" s="4">
+        <v>63.503821805390032</v>
+      </c>
+      <c r="B3">
+        <v>36.168046345310401</v>
+      </c>
+      <c r="C3">
+        <v>21.67896551085278</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>74.380878530232863</v>
+      </c>
+      <c r="F3">
+        <v>36.304239587768087</v>
+      </c>
+      <c r="G3">
+        <v>20.306478089143628</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>60.767441860465119</v>
+      </c>
+      <c r="J3">
+        <v>4.3121189275161278</v>
+      </c>
+      <c r="K3">
+        <v>8.6</v>
+      </c>
+      <c r="L3">
+        <v>35.974358974358978</v>
+      </c>
+      <c r="M3">
+        <v>3.5701967278731908</v>
+      </c>
+      <c r="N3">
+        <v>7.8</v>
+      </c>
+      <c r="O3">
+        <v>21.282051282051281</v>
+      </c>
+      <c r="P3">
+        <v>3.5615679432207918</v>
+      </c>
+      <c r="Q3">
+        <v>7.8</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>8.6</v>
+      </c>
+      <c r="V3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="n">
-        <v>84.26038993316567</v>
-      </c>
-      <c r="B4" t="n" s="0">
-        <v>44.43782936889657</v>
-      </c>
-      <c r="C4" t="n" s="0">
-        <v>37.03019512897127</v>
-      </c>
-      <c r="D4" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>94.32191781163097</v>
-      </c>
-      <c r="F4" t="n" s="0">
-        <v>50.36842105392377</v>
-      </c>
-      <c r="G4" t="n" s="0">
-        <v>46.89473684413396</v>
-      </c>
-      <c r="H4" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I4" s="4"/>
-      <c r="V4" t="s" s="0">
+      <c r="A4" s="4">
+        <v>86.65507614534441</v>
+      </c>
+      <c r="B4">
+        <v>46.487920058776801</v>
+      </c>
+      <c r="C4">
+        <v>37.675532216387033</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>87.366432474664705</v>
+      </c>
+      <c r="F4">
+        <v>43.954545452171118</v>
+      </c>
+      <c r="G4">
+        <v>62.92207795470113</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>87.222222222222214</v>
+      </c>
+      <c r="J4">
+        <v>3.6439857956134349</v>
+      </c>
+      <c r="K4">
+        <v>3.6</v>
+      </c>
+      <c r="L4">
+        <v>46.000000000000007</v>
+      </c>
+      <c r="M4">
+        <v>3.4512477614786103</v>
+      </c>
+      <c r="N4">
+        <v>2.8</v>
+      </c>
+      <c r="O4">
+        <v>40.714285714285715</v>
+      </c>
+      <c r="P4">
+        <v>3.7838420048226538</v>
+      </c>
+      <c r="Q4">
+        <v>2.8</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>3.6</v>
+      </c>
+      <c r="V4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="n">
-        <v>65.5072472090593</v>
-      </c>
-      <c r="B5" t="n" s="0">
-        <v>27.39729149155387</v>
-      </c>
-      <c r="C5" t="n" s="0">
-        <v>28.096908564493766</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>68.09899328955389</v>
-      </c>
-      <c r="F5" t="n" s="0">
-        <v>28.110663082307774</v>
-      </c>
-      <c r="G5" t="n" s="0">
-        <v>27.543906810174263</v>
-      </c>
-      <c r="H5" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I5" s="4"/>
-      <c r="V5" t="s" s="0">
+      <c r="A5" s="4">
+        <v>69.000220849819883</v>
+      </c>
+      <c r="B5">
+        <v>27.604102122787396</v>
+      </c>
+      <c r="C5">
+        <v>28.297489959846757</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>71.769873547703241</v>
+      </c>
+      <c r="F5">
+        <v>28.440718157038901</v>
+      </c>
+      <c r="G5">
+        <v>27.911924119349408</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>73.928571428571431</v>
+      </c>
+      <c r="J5">
+        <v>5.5032457955023499</v>
+      </c>
+      <c r="K5">
+        <v>2.8</v>
+      </c>
+      <c r="L5">
+        <v>26.5</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <v>29</v>
+      </c>
+      <c r="P5">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="Q5">
+        <v>2</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>2.8</v>
+      </c>
+      <c r="V5" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="I9" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Red Team Data.xlsx
+++ b/Red Team Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Desktop\FTCStats\FTCStats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD34F4AF-DA2F-4068-8AD3-AD3FB7907BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B707080B-96FE-4208-AC0E-D60263CA4A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{943F8BFE-BB93-4FCB-9D8B-2434F109755A}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="57">
   <si>
     <t>Cyrus</t>
   </si>
@@ -173,9 +173,6 @@
     <t>&lt;- NEW ROBOT</t>
   </si>
   <si>
-    <t>Basic Averages</t>
-  </si>
-  <si>
     <t>Weighted Averages</t>
   </si>
   <si>
@@ -191,6 +188,21 @@
     <t>penalties</t>
   </si>
   <si>
+    <t>Take with a grain of salt for right now</t>
+  </si>
+  <si>
+    <t>Weighted by comp/practice,   old/new robot,   and how old the matches are</t>
+  </si>
+  <si>
+    <t>All data here is weighted by    old/new robot,    practice/comp</t>
+  </si>
+  <si>
+    <t>Penalties</t>
+  </si>
+  <si>
+    <t>Duo Only</t>
+  </si>
+  <si>
     <t>B+M</t>
   </si>
   <si>
@@ -198,15 +210,6 @@
   </si>
   <si>
     <t>L+C</t>
-  </si>
-  <si>
-    <t>Take with a grain of salt for right now</t>
-  </si>
-  <si>
-    <t>Weighted by comp/practice,   old/new robot,   and how old the matches are</t>
-  </si>
-  <si>
-    <t>All data here is weighted by    old/new robot,    practice/comp</t>
   </si>
 </sst>
 </file>
@@ -238,7 +241,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -255,26 +258,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -284,12 +277,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2487,10 +2475,10 @@
       <c r="K26" t="s">
         <v>42</v>
       </c>
-      <c r="T26" s="6"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
-      <c r="W26" s="6"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
     </row>
@@ -2500,10 +2488,10 @@
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="T31" s="6"/>
-      <c r="U31" s="6"/>
-      <c r="V31" s="6"/>
-      <c r="W31" s="6"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2742,12 +2730,12 @@
       <c r="E10" t="s">
         <v>1</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
       <c r="M10" t="s">
         <v>0</v>
       </c>
@@ -2776,14 +2764,14 @@
       <c r="E11" t="s">
         <v>1</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="7" t="s">
+      <c r="I11" s="5"/>
+      <c r="J11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="6"/>
+      <c r="K11" s="5"/>
       <c r="M11" t="s">
         <v>9</v>
       </c>
@@ -3254,12 +3242,12 @@
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="T27" s="6" t="s">
+      <c r="T27" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="U27" s="6"/>
-      <c r="V27" s="6"/>
-      <c r="W27" s="6"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
       <c r="X27" s="2" t="s">
         <v>23</v>
       </c>
@@ -3334,12 +3322,12 @@
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="T32" s="6" t="s">
+      <c r="T32" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="U32" s="6"/>
-      <c r="V32" s="6"/>
-      <c r="W32" s="6"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
     </row>
     <row r="33" spans="20:25" x14ac:dyDescent="0.3">
       <c r="T33">
@@ -3432,12 +3420,12 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="A1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
       <c r="E1" s="3"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3445,28 +3433,28 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
         <v>46</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>47</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>48</v>
-      </c>
-      <c r="D2" t="s">
-        <v>49</v>
       </c>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>68.34761321914732</v>
+        <v>70.529411764743259</v>
       </c>
       <c r="B3">
-        <v>33.962659380931484</v>
+        <v>34.311111111458672</v>
       </c>
       <c r="C3">
-        <v>22.099271402535425</v>
+        <v>22.794444444401002</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -3478,13 +3466,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>80.433604336161849</v>
+        <v>81.617187500175135</v>
       </c>
       <c r="B4">
-        <v>46.141955835871975</v>
+        <v>46.999999999872905</v>
       </c>
       <c r="C4">
-        <v>32.886435331452574</v>
+        <v>33.168224299393273</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -3496,13 +3484,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>67.603225806624124</v>
+        <v>68.747826087208466</v>
       </c>
       <c r="B5">
-        <v>26.500000000000004</v>
+        <v>26.5</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>28.999999999999996</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -3514,13 +3502,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>59.911941294327768</v>
+        <v>60.421875000184279</v>
       </c>
       <c r="B6">
-        <v>37.374123149011183</v>
+        <v>37.655660377565155</v>
       </c>
       <c r="C6">
-        <v>22.014809041263188</v>
+        <v>22.636792452754229</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3532,13 +3520,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>92.410672853670846</v>
+        <v>93.408536585147431</v>
       </c>
       <c r="B7">
-        <v>46.718562874046683</v>
+        <v>48.3157894733326</v>
       </c>
       <c r="C7">
-        <v>40.868263473010003</v>
+        <v>41.210526315714127</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3550,13 +3538,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>68.919175911293578</v>
+        <v>70.973214285783129</v>
       </c>
       <c r="B8">
-        <v>26.361445783125625</v>
+        <v>26.367647058813244</v>
       </c>
       <c r="C8">
-        <v>28.722891566251242</v>
+        <v>28.73529411762647</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -3568,13 +3556,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>61.000000000000007</v>
+        <v>61.000000000000014</v>
       </c>
       <c r="B9">
-        <v>38.166666666666664</v>
+        <v>38.166666666666671</v>
       </c>
       <c r="C9">
-        <v>20.166666666666671</v>
+        <v>20.166666666666668</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -3586,13 +3574,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>87.586826347056686</v>
+        <v>89.52631578904672</v>
       </c>
       <c r="B10">
-        <v>46.718562874046683</v>
+        <v>48.3157894733326</v>
       </c>
       <c r="C10">
-        <v>40.868263473010003</v>
+        <v>41.210526315714127</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -3604,13 +3592,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>71.956300813263994</v>
+        <v>73.692098093012234</v>
       </c>
       <c r="B11">
-        <v>32.297619047685707</v>
+        <v>32.872093023370269</v>
       </c>
       <c r="C11">
-        <v>26.041666666731317</v>
+        <v>26.59883720941334</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -3622,7 +3610,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3635,276 +3623,331 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:V9"/>
+  <dimension ref="A1:BL9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
+    <row r="1" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>46</v>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AQ1" s="2"/>
+      <c r="AR1" s="2"/>
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="2"/>
+      <c r="AU1" s="2"/>
+      <c r="AV1" s="2"/>
+      <c r="AW1" s="2"/>
+      <c r="AX1" s="2"/>
+      <c r="AY1" s="2"/>
+      <c r="AZ1" s="2"/>
+      <c r="BA1" s="2"/>
+      <c r="BB1" s="2"/>
+      <c r="BC1" s="2"/>
+      <c r="BD1" s="2"/>
+      <c r="BE1" s="2"/>
+      <c r="BF1" s="2"/>
+      <c r="BG1" s="2"/>
+      <c r="BH1" s="2"/>
+      <c r="BI1" s="2"/>
+      <c r="BJ1" s="2"/>
+      <c r="BK1" s="2"/>
+      <c r="BL1" s="2"/>
+    </row>
+    <row r="2" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>46</v>
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>63.503821805390032</v>
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+    </row>
+    <row r="3" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>62.111111111111114</v>
       </c>
       <c r="B3">
-        <v>36.168046345310401</v>
+        <v>36.5</v>
       </c>
       <c r="C3">
-        <v>21.67896551085278</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
-        <v>74.380878530232863</v>
+        <v>22</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>62.4</v>
       </c>
       <c r="F3">
-        <v>36.304239587768087</v>
+        <v>40.6</v>
       </c>
       <c r="G3">
-        <v>20.306478089143628</v>
-      </c>
-      <c r="H3" s="5">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4">
-        <v>60.767441860465119</v>
-      </c>
-      <c r="J3">
-        <v>4.3121189275161278</v>
-      </c>
-      <c r="K3">
-        <v>8.6</v>
+        <v>18.600000000000001</v>
+      </c>
+      <c r="H3">
+        <v>-1</v>
+      </c>
+      <c r="I3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K3" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="L3">
-        <v>35.974358974358978</v>
+        <v>-1</v>
       </c>
       <c r="M3">
-        <v>3.5701967278731908</v>
+        <v>61.75</v>
       </c>
       <c r="N3">
-        <v>7.8</v>
+        <v>29.666666666666668</v>
       </c>
       <c r="O3">
-        <v>21.282051282051281</v>
+        <v>27.666666666666668</v>
       </c>
       <c r="P3">
-        <v>3.5615679432207918</v>
-      </c>
-      <c r="Q3">
-        <v>7.8</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>8.6</v>
-      </c>
-      <c r="V3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>86.65507614534441</v>
+        <v>-1</v>
+      </c>
+      <c r="S3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>88.5</v>
       </c>
       <c r="B4">
-        <v>46.487920058776801</v>
+        <v>47.333333333333336</v>
       </c>
       <c r="C4">
-        <v>37.675532216387033</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
-        <v>87.366432474664705</v>
-      </c>
-      <c r="F4">
-        <v>43.954545452171118</v>
-      </c>
-      <c r="G4">
-        <v>62.92207795470113</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <v>87.222222222222214</v>
+        <v>41</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H4">
+        <v>-1</v>
+      </c>
+      <c r="I4">
+        <v>88.333333333333329</v>
       </c>
       <c r="J4">
-        <v>3.6439857956134349</v>
+        <v>47.333333333333336</v>
       </c>
       <c r="K4">
-        <v>3.6</v>
+        <v>41</v>
       </c>
       <c r="L4">
-        <v>46.000000000000007</v>
+        <v>-1</v>
       </c>
       <c r="M4">
-        <v>3.4512477614786103</v>
-      </c>
-      <c r="N4">
-        <v>2.8</v>
-      </c>
-      <c r="O4">
-        <v>40.714285714285715</v>
+        <v>89</v>
+      </c>
+      <c r="N4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O4" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="P4">
-        <v>3.7838420048226538</v>
-      </c>
-      <c r="Q4">
-        <v>2.8</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>3.6</v>
-      </c>
-      <c r="V4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>69.000220849819883</v>
+        <v>-1</v>
+      </c>
+      <c r="S4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>77</v>
       </c>
       <c r="B5">
-        <v>27.604102122787396</v>
+        <v>26.5</v>
       </c>
       <c r="C5">
-        <v>28.297489959846757</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>71.769873547703241</v>
-      </c>
-      <c r="F5">
-        <v>28.440718157038901</v>
-      </c>
-      <c r="G5">
-        <v>27.911924119349408</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4">
-        <v>73.928571428571431</v>
-      </c>
-      <c r="J5">
-        <v>5.5032457955023499</v>
-      </c>
-      <c r="K5">
-        <v>2.8</v>
+        <v>29</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H5">
+        <v>-1</v>
+      </c>
+      <c r="I5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K5" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="L5">
+        <v>-1</v>
+      </c>
+      <c r="M5">
+        <v>77</v>
+      </c>
+      <c r="N5">
         <v>26.5</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>2</v>
       </c>
       <c r="O5">
         <v>29</v>
       </c>
       <c r="P5">
-        <v>1.4142135623730951</v>
-      </c>
-      <c r="Q5">
-        <v>2</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>2.8</v>
-      </c>
-      <c r="V5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="S5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:64" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:64" x14ac:dyDescent="0.3">
       <c r="I9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="Y2:AB2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Red Team Data.xlsx
+++ b/Red Team Data.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Desktop\FTCStats\FTCStats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hallm\Desktop\FTCStats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6330C06D-090E-47D8-BF18-A8C40730ED00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60E51AF-1214-4C30-9DA9-3EB6554A4C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{943F8BFE-BB93-4FCB-9D8B-2434F109755A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{943F8BFE-BB93-4FCB-9D8B-2434F109755A}"/>
   </bookViews>
   <sheets>
     <sheet name="Match Data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="44">
   <si>
     <t>Cyrus</t>
   </si>
@@ -142,9 +142,6 @@
   </si>
   <si>
     <t>*</t>
-  </si>
-  <si>
-    <t>&lt;- NEW ROBOT</t>
   </si>
   <si>
     <t>Weighted Averages</t>
@@ -411,7 +408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -437,22 +434,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -467,10 +453,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1165,13 +1163,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>22.794444444401002</c:v>
+                  <c:v>20.041867954962004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33.168224299393273</c:v>
+                  <c:v>34.199063231848733</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.999999999999996</c:v>
+                  <c:v>29.000000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1280,13 +1278,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>34.311111111458672</c:v>
+                  <c:v>31.95008051580869</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46.999999999872905</c:v>
+                  <c:v>63.32396565126863</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26.5</c:v>
+                  <c:v>26.500000000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1676,13 +1674,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>22.636792452754229</c:v>
+                  <c:v>20.335570469740087</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41.210526315714127</c:v>
+                  <c:v>35.490765171584485</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.73529411762647</c:v>
+                  <c:v>28.738461538439012</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1791,13 +1789,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>37.655660377565155</c:v>
+                  <c:v>35.985234899598517</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48.3157894733326</c:v>
+                  <c:v>65.581354441018661</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26.367647058813244</c:v>
+                  <c:v>26.369230769219499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2187,13 +2185,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>20.166666666666668</c:v>
+                  <c:v>20.166666666666661</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41.210526315714127</c:v>
+                  <c:v>35.490765171584485</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26.59883720941334</c:v>
+                  <c:v>24.110552763855971</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2302,13 +2300,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>38.166666666666671</c:v>
+                  <c:v>38.166666666666643</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48.3157894733326</c:v>
+                  <c:v>65.581354441018661</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32.872093023370269</c:v>
+                  <c:v>30.306532663354606</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2697,13 +2695,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>22.715618448577615</c:v>
+                  <c:v>20.188719212351046</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37.189375307553703</c:v>
+                  <c:v>34.844914201716605</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.867647058813233</c:v>
+                  <c:v>28.869230769219506</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2812,13 +2810,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>35.983385744511914</c:v>
+                  <c:v>33.967657707703601</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47.657894736602756</c:v>
+                  <c:v>64.452660046143649</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26.433823529406624</c:v>
+                  <c:v>26.434615384609753</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4210,10 +4208,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>22</c:v>
+                  <c:v>19.103448275862068</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41</c:v>
+                  <c:v>39.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>29</c:v>
@@ -4325,10 +4323,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>36.5</c:v>
+                  <c:v>34.379310344827587</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47.333333333333336</c:v>
+                  <c:v>41.111111111111114</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>26.5</c:v>
@@ -10655,17 +10653,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E71918B-9D42-46BC-B578-CF08432FB725}">
   <dimension ref="A1:Y31"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="108" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="108" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="10.0"/>
-    <col min="5" max="5" customWidth="true" width="10.6640625"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -10694,32 +10692,32 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="0">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="1">
         <v>45237</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="0">
+      <c r="F2">
         <v>106</v>
       </c>
-      <c r="G2" s="0">
+      <c r="G2">
         <v>-1</v>
       </c>
-      <c r="H2" s="0">
+      <c r="H2">
         <v>-1</v>
       </c>
-      <c r="I2" s="0">
+      <c r="I2">
         <v>0</v>
       </c>
       <c r="M2" s="2"/>
@@ -10731,722 +10729,722 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" t="s" s="0">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>30</v>
       </c>
       <c r="B3" s="1">
         <v>45237</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s" s="0">
+      <c r="E3" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="0">
+      <c r="F3">
         <v>83</v>
       </c>
-      <c r="G3" s="0">
+      <c r="G3">
         <v>-1</v>
       </c>
-      <c r="H3" s="0">
+      <c r="H3">
         <v>-1</v>
       </c>
-      <c r="I3" s="0">
+      <c r="I3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" t="s" s="0">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="1">
         <v>45237</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" t="s" s="0">
+      <c r="E4" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="0">
+      <c r="F4">
         <v>89</v>
       </c>
-      <c r="G4" s="0">
+      <c r="G4">
         <v>-1</v>
       </c>
-      <c r="H4" s="0">
+      <c r="H4">
         <v>-1</v>
       </c>
-      <c r="I4" s="0">
+      <c r="I4">
         <v>0</v>
       </c>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" t="s" s="0">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="1">
         <v>45238</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="D5" t="s">
         <v>0</v>
       </c>
-      <c r="E5" t="s" s="0">
+      <c r="E5" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="0">
+      <c r="F5">
         <v>71</v>
       </c>
-      <c r="G5" s="0">
+      <c r="G5">
         <v>-1</v>
       </c>
-      <c r="H5" s="0">
+      <c r="H5">
         <v>-1</v>
       </c>
-      <c r="I5" s="0">
+      <c r="I5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" t="s" s="0">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="1">
         <v>45238</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="D6" t="s">
         <v>2</v>
       </c>
-      <c r="E6" t="s" s="0">
+      <c r="E6" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="0">
+      <c r="F6">
         <v>88</v>
       </c>
-      <c r="G6" s="0">
+      <c r="G6">
         <v>-1</v>
       </c>
-      <c r="H6" s="0">
+      <c r="H6">
         <v>-1</v>
       </c>
-      <c r="I6" s="0">
+      <c r="I6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" t="s" s="0">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="1">
         <v>45238</v>
       </c>
-      <c r="C7" t="s" s="0">
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s" s="0">
+      <c r="D7" t="s">
         <v>2</v>
       </c>
-      <c r="E7" t="s" s="0">
+      <c r="E7" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="0">
+      <c r="F7">
         <v>111</v>
       </c>
-      <c r="G7" s="0">
+      <c r="G7">
         <v>-1</v>
       </c>
-      <c r="H7" s="0">
+      <c r="H7">
         <v>-1</v>
       </c>
-      <c r="I7" s="0">
+      <c r="I7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" t="s" s="0">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="1">
         <v>45238</v>
       </c>
-      <c r="C8" t="s" s="0">
+      <c r="C8" t="s">
         <v>3</v>
       </c>
-      <c r="D8" t="s" s="0">
+      <c r="D8" t="s">
         <v>9</v>
       </c>
-      <c r="E8" t="s" s="0">
+      <c r="E8" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="0">
+      <c r="F8">
         <v>34</v>
       </c>
-      <c r="G8" s="0">
+      <c r="G8">
         <v>-1</v>
       </c>
-      <c r="H8" s="0">
+      <c r="H8">
         <v>-1</v>
       </c>
-      <c r="I8" s="0">
+      <c r="I8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" t="s" s="0">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="1">
         <v>45238</v>
       </c>
-      <c r="C9" t="s" s="0">
+      <c r="C9" t="s">
         <v>3</v>
       </c>
-      <c r="D9" t="s" s="0">
+      <c r="D9" t="s">
         <v>0</v>
       </c>
-      <c r="E9" t="s" s="0">
+      <c r="E9" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="0">
+      <c r="F9">
         <v>120</v>
       </c>
-      <c r="G9" s="0">
+      <c r="G9">
         <v>-1</v>
       </c>
-      <c r="H9" s="0">
+      <c r="H9">
         <v>-1</v>
       </c>
-      <c r="I9" s="0">
+      <c r="I9">
         <v>0</v>
       </c>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" t="s" s="0">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="1">
         <v>45238</v>
       </c>
-      <c r="C10" t="s" s="0">
+      <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="D10" t="s" s="0">
+      <c r="D10" t="s">
         <v>9</v>
       </c>
-      <c r="E10" t="s" s="0">
+      <c r="E10" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="0">
+      <c r="F10">
         <v>75</v>
       </c>
-      <c r="G10" s="0">
+      <c r="G10">
         <v>-1</v>
       </c>
-      <c r="H10" s="0">
+      <c r="H10">
         <v>-1</v>
       </c>
-      <c r="I10" s="0">
+      <c r="I10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" t="s" s="0">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="1">
         <v>45237</v>
       </c>
-      <c r="C11" t="s" s="0">
+      <c r="C11" t="s">
         <v>4</v>
       </c>
-      <c r="D11" t="s" s="0">
+      <c r="D11" t="s">
         <v>2</v>
       </c>
-      <c r="E11" t="s" s="0">
+      <c r="E11" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="0">
+      <c r="F11">
         <v>111</v>
       </c>
-      <c r="G11" s="0">
+      <c r="G11">
         <v>66</v>
       </c>
-      <c r="H11" s="0">
+      <c r="H11">
         <v>45</v>
       </c>
-      <c r="I11" s="0">
+      <c r="I11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" t="s" s="0">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="1">
         <v>45238</v>
       </c>
-      <c r="C12" t="s" s="0">
+      <c r="C12" t="s">
         <v>11</v>
       </c>
-      <c r="D12" t="s" s="0">
+      <c r="D12" t="s">
         <v>9</v>
       </c>
-      <c r="E12" t="s" s="0">
+      <c r="E12" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="0">
+      <c r="F12">
         <v>107</v>
       </c>
-      <c r="G12" s="0">
+      <c r="G12">
         <v>57</v>
       </c>
-      <c r="H12" s="0">
+      <c r="H12">
         <v>50</v>
       </c>
-      <c r="I12" s="0">
+      <c r="I12">
         <v>0</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" t="s" s="0">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>31</v>
       </c>
       <c r="B13" s="1">
         <v>45234</v>
       </c>
-      <c r="C13" t="s" s="0">
+      <c r="C13" t="s">
         <v>4</v>
       </c>
-      <c r="D13" t="s" s="0">
+      <c r="D13" t="s">
         <v>2</v>
       </c>
-      <c r="E13" t="s" s="0">
+      <c r="E13" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="0">
+      <c r="F13">
         <v>72</v>
       </c>
-      <c r="G13" s="0">
+      <c r="G13">
         <v>44</v>
       </c>
-      <c r="H13" s="0">
+      <c r="H13">
         <v>28</v>
       </c>
-      <c r="I13" s="0">
+      <c r="I13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" t="s" s="0">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="1">
         <v>45234</v>
       </c>
-      <c r="C14" t="s" s="0">
+      <c r="C14" t="s">
         <v>11</v>
       </c>
-      <c r="D14" t="s" s="0">
+      <c r="D14" t="s">
         <v>9</v>
       </c>
-      <c r="E14" t="s" s="0">
+      <c r="E14" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="0">
+      <c r="F14">
         <v>97</v>
       </c>
-      <c r="G14" s="0">
+      <c r="G14">
         <v>51</v>
       </c>
-      <c r="H14" s="0">
+      <c r="H14">
         <v>30</v>
       </c>
-      <c r="I14" s="0">
+      <c r="I14">
         <v>0</v>
       </c>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" t="s" s="0">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="1">
         <v>45234</v>
       </c>
-      <c r="C15" t="s" s="0">
+      <c r="C15" t="s">
         <v>11</v>
       </c>
-      <c r="D15" t="s" s="0">
+      <c r="D15" t="s">
         <v>0</v>
       </c>
-      <c r="E15" t="s" s="0">
+      <c r="E15" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="0">
+      <c r="F15">
         <v>54</v>
       </c>
-      <c r="G15" s="0">
+      <c r="G15">
         <v>26</v>
       </c>
-      <c r="H15" s="0">
+      <c r="H15">
         <v>28</v>
       </c>
-      <c r="I15" s="0">
+      <c r="I15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" t="s" s="0">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="1">
         <v>45234</v>
       </c>
-      <c r="C16" t="s" s="0">
+      <c r="C16" t="s">
         <v>4</v>
       </c>
-      <c r="D16" t="s" s="0">
+      <c r="D16" t="s">
         <v>2</v>
       </c>
-      <c r="E16" t="s" s="0">
+      <c r="E16" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="0">
+      <c r="F16">
         <v>82</v>
       </c>
-      <c r="G16" s="0">
+      <c r="G16">
         <v>32</v>
       </c>
-      <c r="H16" s="0">
+      <c r="H16">
         <v>50</v>
       </c>
-      <c r="I16" s="0">
+      <c r="I16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A17" t="s" s="0">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>31</v>
       </c>
       <c r="B17" s="1">
         <v>45234</v>
       </c>
-      <c r="C17" t="s" s="0">
+      <c r="C17" t="s">
         <v>11</v>
       </c>
-      <c r="D17" t="s" s="0">
+      <c r="D17" t="s">
         <v>9</v>
       </c>
-      <c r="E17" t="s" s="0">
+      <c r="E17" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="0">
+      <c r="F17">
         <v>60</v>
       </c>
-      <c r="G17" s="0">
+      <c r="G17">
         <v>40</v>
       </c>
-      <c r="H17" s="0">
+      <c r="H17">
         <v>20</v>
       </c>
-      <c r="I17" s="0">
+      <c r="I17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A18" t="s" s="0">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>31</v>
       </c>
       <c r="B18" s="1">
         <v>45234</v>
       </c>
-      <c r="C18" t="s" s="0">
+      <c r="C18" t="s">
         <v>11</v>
       </c>
-      <c r="D18" t="s" s="0">
+      <c r="D18" t="s">
         <v>9</v>
       </c>
-      <c r="E18" t="s" s="0">
+      <c r="E18" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="0">
+      <c r="F18">
         <v>56</v>
       </c>
-      <c r="G18" s="0">
+      <c r="G18">
         <v>48</v>
       </c>
-      <c r="H18" s="0">
+      <c r="H18">
         <v>8</v>
       </c>
-      <c r="I18" s="0">
+      <c r="I18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A19" t="s" s="0">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="1">
         <v>45234</v>
       </c>
-      <c r="C19" t="s" s="0">
+      <c r="C19" t="s">
         <v>11</v>
       </c>
-      <c r="D19" t="s" s="0">
+      <c r="D19" t="s">
         <v>9</v>
       </c>
-      <c r="E19" t="s" s="0">
+      <c r="E19" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="0">
+      <c r="F19">
         <v>60</v>
       </c>
-      <c r="G19" s="0">
+      <c r="G19">
         <v>30</v>
       </c>
-      <c r="H19" s="0">
+      <c r="H19">
         <v>30</v>
       </c>
-      <c r="I19" s="0">
+      <c r="I19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A20" t="s" s="0">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>31</v>
       </c>
       <c r="B20" s="1">
         <v>45234</v>
       </c>
-      <c r="C20" t="s" s="0">
+      <c r="C20" t="s">
         <v>11</v>
       </c>
-      <c r="D20" t="s" s="0">
+      <c r="D20" t="s">
         <v>9</v>
       </c>
-      <c r="E20" t="s" s="0">
+      <c r="E20" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="0">
+      <c r="F20">
         <v>39</v>
       </c>
-      <c r="G20" s="0">
+      <c r="G20">
         <v>34</v>
       </c>
-      <c r="H20" s="0">
+      <c r="H20">
         <v>5</v>
       </c>
-      <c r="I20" s="0">
+      <c r="I20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A21" t="s" s="0">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>31</v>
       </c>
       <c r="B21" s="1">
         <v>45241</v>
       </c>
-      <c r="C21" t="s" s="0">
+      <c r="C21" t="s">
         <v>11</v>
       </c>
-      <c r="D21" t="s" s="0">
+      <c r="D21" t="s">
         <v>9</v>
       </c>
-      <c r="E21" t="s" s="0">
+      <c r="E21" t="s">
         <v>1</v>
       </c>
-      <c r="F21" s="0">
+      <c r="F21">
         <v>32</v>
       </c>
-      <c r="G21" s="0">
+      <c r="G21">
         <v>4</v>
       </c>
-      <c r="H21" s="0">
+      <c r="H21">
         <v>28</v>
       </c>
-      <c r="I21" s="0">
+      <c r="I21">
         <v>0</v>
       </c>
-      <c r="K21" t="s" s="0">
+      <c r="K21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A22" t="s" s="0">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="1">
         <v>45241</v>
       </c>
-      <c r="C22" t="s" s="0">
+      <c r="C22" t="s">
         <v>4</v>
       </c>
-      <c r="D22" t="s" s="0">
+      <c r="D22" t="s">
         <v>9</v>
       </c>
-      <c r="E22" t="s" s="0">
+      <c r="E22" t="s">
         <v>1</v>
       </c>
-      <c r="F22" s="0">
+      <c r="F22">
         <v>83</v>
       </c>
-      <c r="G22" s="0">
+      <c r="G22">
         <v>55</v>
       </c>
-      <c r="H22" s="0">
+      <c r="H22">
         <v>28</v>
       </c>
-      <c r="I22" s="0">
+      <c r="I22">
         <v>0</v>
       </c>
-      <c r="K22" t="s" s="0">
+      <c r="K22" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A23" t="s" s="0">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="1">
         <v>45241</v>
       </c>
-      <c r="C23" t="s" s="0">
+      <c r="C23" t="s">
         <v>3</v>
       </c>
-      <c r="D23" t="s" s="0">
+      <c r="D23" t="s">
         <v>0</v>
       </c>
-      <c r="E23" t="s" s="0">
+      <c r="E23" t="s">
         <v>1</v>
       </c>
-      <c r="F23" s="0">
+      <c r="F23">
         <v>56</v>
       </c>
-      <c r="G23" s="0">
+      <c r="G23">
         <v>26</v>
       </c>
-      <c r="H23" s="0">
+      <c r="H23">
         <v>30</v>
       </c>
-      <c r="I23" s="0">
+      <c r="I23">
         <v>0</v>
       </c>
-      <c r="K23" t="s" s="0">
+      <c r="K23" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A24" t="s" s="0">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="1">
         <v>45241</v>
       </c>
-      <c r="C24" t="s" s="0">
+      <c r="C24" t="s">
         <v>11</v>
       </c>
-      <c r="D24" t="s" s="0">
+      <c r="D24" t="s">
         <v>9</v>
       </c>
-      <c r="E24" t="s" s="0">
+      <c r="E24" t="s">
         <v>1</v>
       </c>
-      <c r="F24" s="0">
+      <c r="F24">
         <v>33</v>
       </c>
-      <c r="G24" s="0">
+      <c r="G24">
         <v>28</v>
       </c>
-      <c r="H24" s="0">
+      <c r="H24">
         <v>5</v>
       </c>
-      <c r="I24" s="0">
+      <c r="I24">
         <v>0</v>
       </c>
-      <c r="K24" t="s" s="0">
+      <c r="K24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A25" t="s" s="0">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>31</v>
       </c>
       <c r="B25" s="1">
         <v>45241</v>
       </c>
-      <c r="C25" t="s" s="0">
+      <c r="C25" t="s">
         <v>4</v>
       </c>
-      <c r="D25" t="s" s="0">
+      <c r="D25" t="s">
         <v>9</v>
       </c>
-      <c r="E25" t="s" s="0">
+      <c r="E25" t="s">
         <v>1</v>
       </c>
-      <c r="F25" s="0">
+      <c r="F25">
         <v>56</v>
       </c>
-      <c r="G25" s="0">
+      <c r="G25">
         <v>36</v>
       </c>
-      <c r="H25" s="0">
+      <c r="H25">
         <v>20</v>
       </c>
-      <c r="I25" s="0">
+      <c r="I25">
         <v>0</v>
       </c>
-      <c r="K25" t="s" s="0">
+      <c r="K25" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A26" t="s" s="0">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>31</v>
       </c>
       <c r="B26" s="1">
         <v>45241</v>
       </c>
-      <c r="C26" t="s" s="0">
+      <c r="C26" t="s">
         <v>3</v>
       </c>
-      <c r="D26" t="s" s="0">
+      <c r="D26" t="s">
         <v>0</v>
       </c>
-      <c r="E26" t="s" s="0">
+      <c r="E26" t="s">
         <v>1</v>
       </c>
-      <c r="F26" s="0">
+      <c r="F26">
         <v>55</v>
       </c>
-      <c r="G26" s="0">
+      <c r="G26">
         <v>27</v>
       </c>
-      <c r="H26" s="0">
+      <c r="H26">
         <v>28</v>
       </c>
-      <c r="I26" s="0">
+      <c r="I26">
         <v>0</v>
       </c>
-      <c r="K26" t="s" s="0">
+      <c r="K26" t="s">
         <v>33</v>
       </c>
       <c r="T26" s="22"/>
@@ -11456,16 +11454,24 @@
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="L27" t="s" s="0">
-        <v>34</v>
-      </c>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="T31" s="22"/>
-      <c r="U31" s="22"/>
-      <c r="V31" s="22"/>
-      <c r="W31" s="22"/>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+      <c r="T31" s="23"/>
+      <c r="U31" s="23"/>
+      <c r="V31" s="23"/>
+      <c r="W31" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -11485,13 +11491,13 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="10.0"/>
-    <col min="5" max="5" customWidth="true" width="10.6640625"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -11520,188 +11526,188 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
-      <c r="V2" t="s" s="0">
+      <c r="V2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45237</v>
       </c>
-      <c r="B3" s="0">
+      <c r="B3">
         <v>106</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s" s="0">
+      <c r="E3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45237</v>
       </c>
-      <c r="B4" s="0">
+      <c r="B4">
         <v>83</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" t="s" s="0">
+      <c r="E4" t="s">
         <v>1</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N4" t="s" s="0">
+      <c r="N4" t="s">
         <v>23</v>
       </c>
-      <c r="O4" t="s" s="0">
+      <c r="O4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45237</v>
       </c>
-      <c r="B5" s="0">
+      <c r="B5">
         <v>89</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="D5" t="s">
         <v>2</v>
       </c>
-      <c r="E5" t="s" s="0">
+      <c r="E5" t="s">
         <v>1</v>
       </c>
-      <c r="M5" t="s" s="0">
+      <c r="M5" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="0">
+      <c r="N5">
         <f>(SUMIF($C$3:$C$100, M5, $B$3:$B$100)/COUNTIF($C$3:$C$100, M5))</f>
         <v>88.083333333333329</v>
       </c>
-      <c r="O5" s="0">
+      <c r="O5">
         <f>(SUMIF($C$3:$C$100, M5, $F$3:$F$100)/COUNTIF($C$13:$C$100, M5))</f>
         <v>42.428571428571431</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45238</v>
       </c>
-      <c r="B6" s="0">
+      <c r="B6">
         <v>71</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="D6" t="s">
         <v>0</v>
       </c>
-      <c r="E6" t="s" s="0">
+      <c r="E6" t="s">
         <v>1</v>
       </c>
-      <c r="M6" t="s" s="0">
+      <c r="M6" t="s">
         <v>4</v>
       </c>
-      <c r="N6" s="0">
+      <c r="N6">
         <f>(SUMIF($C$3:$C$100, M6, $B$3:$B$100)/COUNTIF($C$3:$C$100, M6))</f>
         <v>98.5</v>
       </c>
-      <c r="O6" s="0">
+      <c r="O6">
         <f>(SUMIF($C$3:$C$100, M6, $F$3:$F$100)/COUNTIF($C$13:$C$100, M6))</f>
         <v>57.333333333333336</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45238</v>
       </c>
-      <c r="B7" s="0">
+      <c r="B7">
         <v>88</v>
       </c>
-      <c r="C7" t="s" s="0">
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s" s="0">
+      <c r="D7" t="s">
         <v>2</v>
       </c>
-      <c r="E7" t="s" s="0">
+      <c r="E7" t="s">
         <v>1</v>
       </c>
-      <c r="M7" t="s" s="0">
+      <c r="M7" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="0">
+      <c r="N7">
         <f>(SUMIF($C$3:$C$100, M7, $B$3:$B$100)/COUNTIF($C$3:$C$100, M7))</f>
         <v>86.25</v>
       </c>
-      <c r="O7" s="0">
+      <c r="O7">
         <f>(SUMIF($C$3:$C$100, M7, $F$3:$F$100)/COUNTIF($C$13:$C$100, M7))</f>
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45238</v>
       </c>
-      <c r="B8" s="0">
+      <c r="B8">
         <v>111</v>
       </c>
-      <c r="C8" t="s" s="0">
+      <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" t="s" s="0">
+      <c r="D8" t="s">
         <v>2</v>
       </c>
-      <c r="E8" t="s" s="0">
+      <c r="E8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45238</v>
       </c>
-      <c r="B9" s="0">
+      <c r="B9">
         <v>34</v>
       </c>
-      <c r="C9" t="s" s="0">
+      <c r="C9" t="s">
         <v>3</v>
       </c>
-      <c r="D9" t="s" s="0">
+      <c r="D9" t="s">
         <v>9</v>
       </c>
-      <c r="E9" t="s" s="0">
+      <c r="E9" t="s">
         <v>1</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45238</v>
       </c>
-      <c r="B10" s="0">
+      <c r="B10">
         <v>120</v>
       </c>
-      <c r="C10" t="s" s="0">
+      <c r="C10" t="s">
         <v>3</v>
       </c>
-      <c r="D10" t="s" s="0">
+      <c r="D10" t="s">
         <v>0</v>
       </c>
-      <c r="E10" t="s" s="0">
+      <c r="E10" t="s">
         <v>1</v>
       </c>
       <c r="H10" s="22" t="s">
@@ -11710,55 +11716,55 @@
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
       <c r="K10" s="22"/>
-      <c r="M10" t="s" s="0">
+      <c r="M10" t="s">
         <v>0</v>
       </c>
-      <c r="N10" s="0">
+      <c r="N10">
         <f>(SUMIF($D$3:$D$100, M10, $B$3:$B$100)/COUNTIF($D$3:$D$100, M10))</f>
         <v>96.666666666666671</v>
       </c>
-      <c r="O10" s="0">
+      <c r="O10">
         <f>(SUMIF($D$3:$D$100, M10, $F$3:$F$100)/COUNTIF($D$13:$D$100, M10))</f>
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45238</v>
       </c>
-      <c r="B11" s="0">
+      <c r="B11">
         <v>75</v>
       </c>
-      <c r="C11" t="s" s="0">
+      <c r="C11" t="s">
         <v>11</v>
       </c>
-      <c r="D11" t="s" s="0">
+      <c r="D11" t="s">
         <v>9</v>
       </c>
-      <c r="E11" t="s" s="0">
+      <c r="E11" t="s">
         <v>1</v>
       </c>
       <c r="H11" s="22" t="s">
         <v>21</v>
       </c>
       <c r="I11" s="22"/>
-      <c r="J11" s="23" t="s">
+      <c r="J11" s="24" t="s">
         <v>22</v>
       </c>
       <c r="K11" s="22"/>
-      <c r="M11" t="s" s="0">
+      <c r="M11" t="s">
         <v>9</v>
       </c>
-      <c r="N11" s="0">
+      <c r="N11">
         <f>(SUMIF($D$3:$D$100, M11, $B$3:$B$100)/COUNTIF($D$3:$D$100, M11))</f>
         <v>77</v>
       </c>
-      <c r="O11" s="0">
+      <c r="O11">
         <f>(SUMIF($D$3:$D$100, M11, $F$3:$F$100)/COUNTIF($D$13:$D$100, M11))</f>
         <v>45.166666666666664</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H12" s="2" t="s">
         <v>23</v>
       </c>
@@ -11771,42 +11777,42 @@
       <c r="K12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M12" t="s" s="0">
+      <c r="M12" t="s">
         <v>2</v>
       </c>
-      <c r="N12" s="0">
+      <c r="N12">
         <f>(SUMIF($D$3:$D$100, M12, $B$3:$B$100)/COUNTIF($D$3:$D$100, M12))</f>
         <v>97.75</v>
       </c>
-      <c r="O12" s="0">
+      <c r="O12">
         <f>(SUMIF($D$3:$D$100, M12, $F$3:$F$100)/COUNTIF($D$13:$D$100, M12))</f>
         <v>57.333333333333336</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45237</v>
       </c>
-      <c r="B13" s="0">
+      <c r="B13">
         <v>111</v>
       </c>
-      <c r="C13" t="s" s="0">
+      <c r="C13" t="s">
         <v>4</v>
       </c>
-      <c r="D13" t="s" s="0">
+      <c r="D13" t="s">
         <v>2</v>
       </c>
-      <c r="E13" t="s" s="0">
+      <c r="E13" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="0">
+      <c r="F13">
         <v>66</v>
       </c>
-      <c r="H13" s="0">
+      <c r="H13">
         <f t="shared" ref="H13:H23" si="0">(SUMIF($M$5:$M$7, $C13, $N$5:$N$7)+SUMIF($M$10:$M$12, $D13, $N$10:$N$12)+SUMIF($M$15:$M$17, $E13, $N$15:$N$17))/3</f>
         <v>99.833333333333329</v>
       </c>
-      <c r="I13" s="0">
+      <c r="I13">
         <f t="shared" ref="I13:I23" si="1">(SUMIF($M$5:$M$7, $C13, $O$5:$O$7)+SUMIF($M$10:$M$12, $D13, $O$10:$O$12)+SUMIF($M$15:$M$17, $E13, $O$15:$O$17))/3</f>
         <v>55.722222222222229</v>
       </c>
@@ -11814,35 +11820,35 @@
         <f t="shared" ref="J13:J23" si="2">(SUMIF($M$5:$M$7, $C13, $N$5:$N$7)+SUMIF($M$10:$M$12, $D13, $N$10:$N$12))/2</f>
         <v>98.125</v>
       </c>
-      <c r="K13" s="0">
+      <c r="K13">
         <f t="shared" ref="K13:K23" si="3">(SUMIF($M$5:$M$7, $C13, $O$5:$O$7)+SUMIF($M$10:$M$12, $D13, $O$10:$O$12))/2</f>
         <v>57.333333333333336</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45238</v>
       </c>
-      <c r="B14" s="0">
+      <c r="B14">
         <v>107</v>
       </c>
-      <c r="C14" t="s" s="0">
+      <c r="C14" t="s">
         <v>11</v>
       </c>
-      <c r="D14" t="s" s="0">
+      <c r="D14" t="s">
         <v>9</v>
       </c>
-      <c r="E14" t="s" s="0">
+      <c r="E14" t="s">
         <v>1</v>
       </c>
-      <c r="F14" s="0">
+      <c r="F14">
         <v>57</v>
       </c>
-      <c r="H14" s="0">
+      <c r="H14">
         <f t="shared" si="0"/>
         <v>84.49444444444444</v>
       </c>
-      <c r="I14" s="0">
+      <c r="I14">
         <f t="shared" si="1"/>
         <v>48.198412698412703</v>
       </c>
@@ -11850,7 +11856,7 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K14" s="0">
+      <c r="K14">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
@@ -11858,30 +11864,30 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45234</v>
       </c>
-      <c r="B15" s="0">
+      <c r="B15">
         <v>108</v>
       </c>
-      <c r="C15" t="s" s="0">
+      <c r="C15" t="s">
         <v>3</v>
       </c>
-      <c r="D15" t="s" s="0">
+      <c r="D15" t="s">
         <v>19</v>
       </c>
-      <c r="E15" t="s" s="0">
+      <c r="E15" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="0">
+      <c r="F15">
         <v>38</v>
       </c>
-      <c r="H15" s="0">
+      <c r="H15">
         <f t="shared" si="0"/>
         <v>63.166666666666664</v>
       </c>
-      <c r="I15" s="0">
+      <c r="I15">
         <f t="shared" si="1"/>
         <v>30.166666666666668</v>
       </c>
@@ -11889,46 +11895,46 @@
         <f t="shared" si="2"/>
         <v>43.125</v>
       </c>
-      <c r="K15" s="0">
+      <c r="K15">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="M15" t="s" s="0">
+      <c r="M15" t="s">
         <v>10</v>
       </c>
-      <c r="N15" s="0">
+      <c r="N15">
         <f>(SUMIF($E$3:$E$100, M15, $B$3:$B$100)/COUNTIF($E$3:$E$100, M15))</f>
         <v>83.166666666666671</v>
       </c>
-      <c r="O15" s="0">
+      <c r="O15">
         <f>(SUMIF($E$3:$E$100, M15, $F$3:$F$100)/COUNTIF($E$13:$E$100, M15))</f>
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45234</v>
       </c>
-      <c r="B16" s="0">
+      <c r="B16">
         <v>107</v>
       </c>
-      <c r="C16" t="s" s="0">
+      <c r="C16" t="s">
         <v>4</v>
       </c>
-      <c r="D16" t="s" s="0">
+      <c r="D16" t="s">
         <v>2</v>
       </c>
-      <c r="E16" t="s" s="0">
+      <c r="E16" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="0">
+      <c r="F16">
         <v>74</v>
       </c>
-      <c r="H16" s="0">
+      <c r="H16">
         <f t="shared" si="0"/>
         <v>99.833333333333329</v>
       </c>
-      <c r="I16" s="0">
+      <c r="I16">
         <f t="shared" si="1"/>
         <v>55.722222222222229</v>
       </c>
@@ -11936,46 +11942,46 @@
         <f t="shared" si="2"/>
         <v>98.125</v>
       </c>
-      <c r="K16" s="0">
+      <c r="K16">
         <f t="shared" si="3"/>
         <v>57.333333333333336</v>
       </c>
-      <c r="M16" t="s" s="0">
+      <c r="M16" t="s">
         <v>1</v>
       </c>
-      <c r="N16" s="0">
+      <c r="N16">
         <f>(SUMIF($E$3:$E$100, M16, $B$3:$B$100)/COUNTIF($E$3:$E$100, M16))</f>
         <v>88.4</v>
       </c>
-      <c r="O16" s="0">
+      <c r="O16">
         <f>(SUMIF($E$3:$E$100, M16, $F$3:$F$100)/COUNTIF($E$13:$E$100, M16))</f>
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45234</v>
       </c>
-      <c r="B17" s="0">
+      <c r="B17">
         <v>97</v>
       </c>
-      <c r="C17" t="s" s="0">
+      <c r="C17" t="s">
         <v>11</v>
       </c>
-      <c r="D17" t="s" s="0">
+      <c r="D17" t="s">
         <v>9</v>
       </c>
-      <c r="E17" t="s" s="0">
+      <c r="E17" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="0">
+      <c r="F17">
         <v>62</v>
       </c>
-      <c r="H17" s="0">
+      <c r="H17">
         <f t="shared" si="0"/>
         <v>82.75</v>
       </c>
-      <c r="I17" s="0">
+      <c r="I17">
         <f t="shared" si="1"/>
         <v>42.531746031746032</v>
       </c>
@@ -11983,46 +11989,46 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K17" s="0">
+      <c r="K17">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
-      <c r="M17" t="s" s="0">
+      <c r="M17" t="s">
         <v>5</v>
       </c>
-      <c r="N17" s="0">
+      <c r="N17">
         <f>(SUMIF($E$3:$E$100, M17, $B$3:$B$100)/COUNTIF($E$3:$E$100, M17))</f>
         <v>103.25</v>
       </c>
-      <c r="O17" s="0">
+      <c r="O17">
         <f>(SUMIF($E$3:$E$100, M17, $F$3:$F$100)/COUNTIF($E$13:$E$100, M17))</f>
         <v>52.5</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45234</v>
       </c>
-      <c r="B18" s="0">
+      <c r="B18">
         <v>99</v>
       </c>
-      <c r="C18" t="s" s="0">
+      <c r="C18" t="s">
         <v>11</v>
       </c>
-      <c r="D18" t="s" s="0">
+      <c r="D18" t="s">
         <v>0</v>
       </c>
-      <c r="E18" t="s" s="0">
+      <c r="E18" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="0">
+      <c r="F18">
         <v>26</v>
       </c>
-      <c r="H18" s="0">
+      <c r="H18">
         <f t="shared" si="0"/>
         <v>89.305555555555557</v>
       </c>
-      <c r="I18" s="0">
+      <c r="I18">
         <f t="shared" si="1"/>
         <v>36.142857142857146</v>
       </c>
@@ -12030,35 +12036,35 @@
         <f t="shared" si="2"/>
         <v>92.375</v>
       </c>
-      <c r="K18" s="0">
+      <c r="K18">
         <f t="shared" si="3"/>
         <v>34.214285714285715</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45234</v>
       </c>
-      <c r="B19" s="0">
+      <c r="B19">
         <v>87</v>
       </c>
-      <c r="C19" t="s" s="0">
+      <c r="C19" t="s">
         <v>4</v>
       </c>
-      <c r="D19" t="s" s="0">
+      <c r="D19" t="s">
         <v>2</v>
       </c>
-      <c r="E19" t="s" s="0">
+      <c r="E19" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="0">
+      <c r="F19">
         <v>32</v>
       </c>
-      <c r="H19" s="0">
+      <c r="H19">
         <f t="shared" si="0"/>
         <v>99.833333333333329</v>
       </c>
-      <c r="I19" s="0">
+      <c r="I19">
         <f t="shared" si="1"/>
         <v>55.722222222222229</v>
       </c>
@@ -12066,35 +12072,35 @@
         <f t="shared" si="2"/>
         <v>98.125</v>
       </c>
-      <c r="K19" s="0">
+      <c r="K19">
         <f t="shared" si="3"/>
         <v>57.333333333333336</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45234</v>
       </c>
-      <c r="B20" s="0">
+      <c r="B20">
         <v>76</v>
       </c>
-      <c r="C20" t="s" s="0">
+      <c r="C20" t="s">
         <v>11</v>
       </c>
-      <c r="D20" t="s" s="0">
+      <c r="D20" t="s">
         <v>9</v>
       </c>
-      <c r="E20" t="s" s="0">
+      <c r="E20" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="0">
+      <c r="F20">
         <v>48</v>
       </c>
-      <c r="H20" s="0">
+      <c r="H20">
         <f t="shared" si="0"/>
         <v>82.75</v>
       </c>
-      <c r="I20" s="0">
+      <c r="I20">
         <f t="shared" si="1"/>
         <v>42.531746031746032</v>
       </c>
@@ -12102,35 +12108,35 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K20" s="0">
+      <c r="K20">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45234</v>
       </c>
-      <c r="B21" s="0">
+      <c r="B21">
         <v>93</v>
       </c>
-      <c r="C21" t="s" s="0">
+      <c r="C21" t="s">
         <v>11</v>
       </c>
-      <c r="D21" t="s" s="0">
+      <c r="D21" t="s">
         <v>9</v>
       </c>
-      <c r="E21" t="s" s="0">
+      <c r="E21" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="0">
+      <c r="F21">
         <v>40</v>
       </c>
-      <c r="H21" s="0">
+      <c r="H21">
         <f t="shared" si="0"/>
         <v>82.75</v>
       </c>
-      <c r="I21" s="0">
+      <c r="I21">
         <f t="shared" si="1"/>
         <v>42.531746031746032</v>
       </c>
@@ -12138,35 +12144,35 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K21" s="0">
+      <c r="K21">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>45234</v>
       </c>
-      <c r="B22" s="0">
+      <c r="B22">
         <v>85</v>
       </c>
-      <c r="C22" t="s" s="0">
+      <c r="C22" t="s">
         <v>11</v>
       </c>
-      <c r="D22" t="s" s="0">
+      <c r="D22" t="s">
         <v>9</v>
       </c>
-      <c r="E22" t="s" s="0">
+      <c r="E22" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="0">
+      <c r="F22">
         <v>30</v>
       </c>
-      <c r="H22" s="0">
+      <c r="H22">
         <f t="shared" si="0"/>
         <v>82.75</v>
       </c>
-      <c r="I22" s="0">
+      <c r="I22">
         <f t="shared" si="1"/>
         <v>42.531746031746032</v>
       </c>
@@ -12174,35 +12180,35 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K22" s="0">
+      <c r="K22">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>45234</v>
       </c>
-      <c r="B23" s="0">
+      <c r="B23">
         <v>49</v>
       </c>
-      <c r="C23" t="s" s="0">
+      <c r="C23" t="s">
         <v>11</v>
       </c>
-      <c r="D23" t="s" s="0">
+      <c r="D23" t="s">
         <v>9</v>
       </c>
-      <c r="E23" t="s" s="0">
+      <c r="E23" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="0">
+      <c r="F23">
         <v>34</v>
       </c>
-      <c r="H23" s="0">
+      <c r="H23">
         <f t="shared" si="0"/>
         <v>82.75</v>
       </c>
-      <c r="I23" s="0">
+      <c r="I23">
         <f t="shared" si="1"/>
         <v>42.531746031746032</v>
       </c>
@@ -12210,12 +12216,12 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K23" s="0">
+      <c r="K23">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="T27" s="22" t="s">
         <v>26</v>
       </c>
@@ -12229,73 +12235,73 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="T28" s="0">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="T28">
         <v>1</v>
       </c>
-      <c r="U28" t="s" s="0">
+      <c r="U28" t="s">
         <v>3</v>
       </c>
-      <c r="V28" t="s" s="0">
+      <c r="V28" t="s">
         <v>0</v>
       </c>
-      <c r="W28" t="s" s="0">
+      <c r="W28" t="s">
         <v>1</v>
       </c>
-      <c r="X28" s="0">
+      <c r="X28">
         <f>(N7+N10+N16)/3</f>
         <v>90.438888888888911</v>
       </c>
-      <c r="Y28" s="0">
+      <c r="Y28">
         <f>(O7+O10+O16)/3</f>
         <v>40.333333333333336</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="T29" s="0">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="T29">
         <v>2</v>
       </c>
-      <c r="U29" t="s" s="0">
+      <c r="U29" t="s">
         <v>11</v>
       </c>
-      <c r="V29" t="s" s="0">
+      <c r="V29" t="s">
         <v>9</v>
       </c>
-      <c r="W29" t="s" s="0">
+      <c r="W29" t="s">
         <v>1</v>
       </c>
-      <c r="X29" s="0">
+      <c r="X29">
         <f>(N5+N11+N16)/3</f>
         <v>84.49444444444444</v>
       </c>
-      <c r="Y29" s="0">
+      <c r="Y29">
         <f>(O5+O11+O16)/3</f>
         <v>48.198412698412703</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="T30" s="0">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="T30">
         <v>3</v>
       </c>
-      <c r="U30" t="s" s="0">
+      <c r="U30" t="s">
         <v>4</v>
       </c>
-      <c r="V30" t="s" s="0">
+      <c r="V30" t="s">
         <v>9</v>
       </c>
-      <c r="W30" t="s" s="0">
+      <c r="W30" t="s">
         <v>1</v>
       </c>
-      <c r="X30" s="0">
+      <c r="X30">
         <f>(N6+N11+N16)/3</f>
         <v>87.966666666666654</v>
       </c>
-      <c r="Y30" s="0">
+      <c r="Y30">
         <f>(O6+O11+O16)/3</f>
         <v>53.166666666666664</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="T32" s="22" t="s">
         <v>27</v>
       </c>
@@ -12303,68 +12309,68 @@
       <c r="V32" s="22"/>
       <c r="W32" s="22"/>
     </row>
-    <row r="33" spans="20:25" x14ac:dyDescent="0.3">
-      <c r="T33" s="0">
+    <row r="33" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T33">
         <v>1</v>
       </c>
-      <c r="U33" t="s" s="0">
+      <c r="U33" t="s">
         <v>3</v>
       </c>
-      <c r="V33" t="s" s="0">
+      <c r="V33" t="s">
         <v>0</v>
       </c>
-      <c r="W33" t="s" s="0">
+      <c r="W33" t="s">
         <v>1</v>
       </c>
-      <c r="X33" s="0">
+      <c r="X33">
         <f>(N7+N10+N16)/3</f>
         <v>90.438888888888911</v>
       </c>
-      <c r="Y33" s="0">
+      <c r="Y33">
         <f>(O7+O10+O16)/3</f>
         <v>40.333333333333336</v>
       </c>
     </row>
-    <row r="34" spans="20:25" x14ac:dyDescent="0.3">
-      <c r="T34" s="0">
+    <row r="34" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T34">
         <v>2</v>
       </c>
-      <c r="U34" t="s" s="0">
+      <c r="U34" t="s">
         <v>11</v>
       </c>
-      <c r="V34" t="s" s="0">
+      <c r="V34" t="s">
         <v>9</v>
       </c>
-      <c r="W34" t="s" s="0">
+      <c r="W34" t="s">
         <v>10</v>
       </c>
-      <c r="X34" s="0">
+      <c r="X34">
         <f>(N5+N11+N15)/3</f>
         <v>82.75</v>
       </c>
-      <c r="Y34" s="0">
+      <c r="Y34">
         <f>(O5+O11+O15)/3</f>
         <v>42.531746031746032</v>
       </c>
     </row>
-    <row r="35" spans="20:25" x14ac:dyDescent="0.3">
-      <c r="T35" s="0">
+    <row r="35" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T35">
         <v>3</v>
       </c>
-      <c r="U35" t="s" s="0">
+      <c r="U35" t="s">
         <v>4</v>
       </c>
-      <c r="V35" t="s" s="0">
+      <c r="V35" t="s">
         <v>2</v>
       </c>
-      <c r="W35" t="s" s="0">
+      <c r="W35" t="s">
         <v>5</v>
       </c>
-      <c r="X35" s="0">
+      <c r="X35">
         <f>(N6+N12+N17)/3</f>
         <v>99.833333333333329</v>
       </c>
-      <c r="Y35" s="0">
+      <c r="Y35">
         <f>(O6+O12+O17)/3</f>
         <v>55.722222222222229</v>
       </c>
@@ -12388,194 +12394,194 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
       <c r="E1" s="3"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="0">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" t="s" s="0">
-        <v>37</v>
+      <c r="D2" t="s">
+        <v>36</v>
       </c>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="n" s="0">
-        <v>70.52941176474326</v>
-      </c>
-      <c r="B3" t="n" s="0">
-        <v>34.31111111145867</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>22.794444444401</v>
-      </c>
-      <c r="D3" t="n" s="0">
-        <v>0.0</v>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>58.9517241383233</v>
+      </c>
+      <c r="B3">
+        <v>31.95008051580869</v>
+      </c>
+      <c r="C3">
+        <v>20.041867954962004</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="n" s="0">
-        <v>81.61718750017513</v>
-      </c>
-      <c r="B4" t="n" s="0">
-        <v>46.999999999872905</v>
-      </c>
-      <c r="C4" t="n" s="0">
-        <v>33.16822429939327</v>
-      </c>
-      <c r="D4" t="n" s="0">
-        <v>0.0</v>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>97.424382715477691</v>
+      </c>
+      <c r="B4">
+        <v>63.32396565126863</v>
+      </c>
+      <c r="C4">
+        <v>34.199063231848733</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="n" s="0">
-        <v>68.74782608720847</v>
-      </c>
-      <c r="B5" t="n" s="0">
-        <v>26.5</v>
-      </c>
-      <c r="C5" t="n" s="0">
-        <v>28.999999999999996</v>
-      </c>
-      <c r="D5" t="n" s="0">
-        <v>0.0</v>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>61.220472441147699</v>
+      </c>
+      <c r="B5">
+        <v>26.500000000000007</v>
+      </c>
+      <c r="C5">
+        <v>29.000000000000004</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="n" s="0">
-        <v>60.42187500018428</v>
-      </c>
-      <c r="B6" t="n" s="0">
-        <v>37.655660377565155</v>
-      </c>
-      <c r="C6" t="n" s="0">
-        <v>22.63679245275423</v>
-      </c>
-      <c r="D6" t="n" s="0">
-        <v>0.0</v>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>57.606099110834585</v>
+      </c>
+      <c r="B6">
+        <v>35.985234899598517</v>
+      </c>
+      <c r="C6">
+        <v>20.335570469740087</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="n" s="0">
-        <v>93.40853658514743</v>
-      </c>
-      <c r="B7" t="n" s="0">
-        <v>48.3157894733326</v>
-      </c>
-      <c r="C7" t="n" s="0">
-        <v>41.21052631571413</v>
-      </c>
-      <c r="D7" t="n" s="0">
-        <v>0.0</v>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>100.71961269013782</v>
+      </c>
+      <c r="B7">
+        <v>65.581354441018661</v>
+      </c>
+      <c r="C7">
+        <v>35.490765171584485</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="n" s="0">
-        <v>70.97321428578313</v>
-      </c>
-      <c r="B8" t="n" s="0">
-        <v>26.367647058813244</v>
-      </c>
-      <c r="C8" t="n" s="0">
-        <v>28.73529411762647</v>
-      </c>
-      <c r="D8" t="n" s="0">
-        <v>0.0</v>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>60.725165562933029</v>
+      </c>
+      <c r="B8">
+        <v>26.369230769219499</v>
+      </c>
+      <c r="C8">
+        <v>28.738461538439012</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="n" s="0">
-        <v>61.000000000000014</v>
-      </c>
-      <c r="B9" t="n" s="0">
-        <v>38.16666666666667</v>
-      </c>
-      <c r="C9" t="n" s="0">
-        <v>20.166666666666668</v>
-      </c>
-      <c r="D9" t="n" s="0">
-        <v>0.0</v>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>60.999999999999986</v>
+      </c>
+      <c r="B9">
+        <v>38.166666666666643</v>
+      </c>
+      <c r="C9">
+        <v>20.166666666666661</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="n" s="0">
-        <v>89.52631578904672</v>
-      </c>
-      <c r="B10" t="n" s="0">
-        <v>48.3157894733326</v>
-      </c>
-      <c r="C10" t="n" s="0">
-        <v>41.21052631571413</v>
-      </c>
-      <c r="D10" t="n" s="0">
-        <v>0.0</v>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>101.07211961260313</v>
+      </c>
+      <c r="B10">
+        <v>65.581354441018661</v>
+      </c>
+      <c r="C10">
+        <v>35.490765171584485</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="n" s="0">
-        <v>73.69209809301223</v>
-      </c>
-      <c r="B11" t="n" s="0">
-        <v>32.87209302337027</v>
-      </c>
-      <c r="C11" t="n" s="0">
-        <v>26.59883720941334</v>
-      </c>
-      <c r="D11" t="n" s="0">
-        <v>0.0</v>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>61.974457216156665</v>
+      </c>
+      <c r="B11">
+        <v>30.306532663354606</v>
+      </c>
+      <c r="C11">
+        <v>24.110552763855971</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s" s="0">
-        <v>36</v>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -12738,37 +12744,37 @@
       <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" bestFit="true" customWidth="true" width="9.5546875"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.0"/>
-    <col min="5" max="7" bestFit="true" customWidth="true" width="9.5546875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="9.0"/>
-    <col min="9" max="11" bestFit="true" customWidth="true" width="9.5546875"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="9.0"/>
-    <col min="13" max="15" bestFit="true" customWidth="true" width="9.5546875"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="9.0"/>
+    <col min="1" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="30"/>
+    <row r="1" spans="1:64" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="27"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
@@ -12818,31 +12824,31 @@
       <c r="BK1" s="2"/>
       <c r="BL1" s="2"/>
     </row>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="27" t="s">
+    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="27" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="25" t="s">
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="28"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="35"/>
       <c r="Y2" s="22"/>
       <c r="Z2" s="22"/>
       <c r="AA2" s="22"/>
@@ -12852,429 +12858,429 @@
       <c r="AE2" s="22"/>
       <c r="AF2" s="22"/>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A3" t="s" s="0">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F3" t="s" s="0">
+      <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" t="s" s="0">
+      <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J3" t="s" s="0">
+      <c r="J3" t="s">
         <v>17</v>
       </c>
-      <c r="K3" t="s" s="0">
+      <c r="K3" t="s">
         <v>28</v>
       </c>
       <c r="L3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>58.278911624578939</v>
+      </c>
+      <c r="B4" s="13">
+        <v>33.967657707703601</v>
+      </c>
+      <c r="C4" s="13">
+        <v>20.188719212351046</v>
+      </c>
+      <c r="D4" s="14">
+        <v>0</v>
+      </c>
+      <c r="E4" s="15">
+        <v>58.823129299663151</v>
+      </c>
+      <c r="F4" s="13">
+        <v>34.807459499496211</v>
+      </c>
+      <c r="G4" s="13">
+        <v>20.184308703214167</v>
+      </c>
+      <c r="H4" s="14">
+        <v>0</v>
+      </c>
+      <c r="I4" s="15">
+        <v>66.837553222183786</v>
+      </c>
+      <c r="J4" s="13">
+        <v>40.290397054366608</v>
+      </c>
+      <c r="K4" s="13">
+        <v>23.249128404197734</v>
+      </c>
+      <c r="L4" s="14">
+        <v>0</v>
+      </c>
+      <c r="M4" s="13">
+        <v>59.018020742894485</v>
+      </c>
+      <c r="N4" s="13">
+        <v>33.235432698833804</v>
+      </c>
+      <c r="O4" s="13">
+        <v>20.973085922652029</v>
+      </c>
+      <c r="P4" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>99.071997702807749</v>
+      </c>
+      <c r="B5" s="13">
+        <v>64.452660046143649</v>
+      </c>
+      <c r="C5" s="13">
+        <v>34.844914201716605</v>
+      </c>
+      <c r="D5" s="14">
+        <v>0</v>
+      </c>
+      <c r="E5" s="15">
+        <v>91.4575981622462</v>
+      </c>
+      <c r="F5" s="13">
+        <v>59.195461370248246</v>
+      </c>
+      <c r="G5" s="13">
+        <v>31.909264694706614</v>
+      </c>
+      <c r="H5" s="14">
+        <v>0</v>
+      </c>
+      <c r="I5" s="15">
+        <v>99.472022084766834</v>
+      </c>
+      <c r="J5" s="13">
+        <v>64.678398925118657</v>
+      </c>
+      <c r="K5" s="13">
+        <v>34.974084395690184</v>
+      </c>
+      <c r="L5" s="14">
+        <v>0</v>
+      </c>
+      <c r="M5" s="13">
+        <v>91.652489605477541</v>
+      </c>
+      <c r="N5" s="13">
+        <v>57.623434569585847</v>
+      </c>
+      <c r="O5" s="13">
+        <v>32.698041914144476</v>
+      </c>
+      <c r="P5" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="17">
+        <v>60.972819002040367</v>
+      </c>
+      <c r="B6" s="17">
+        <v>26.434615384609753</v>
+      </c>
+      <c r="C6" s="17">
+        <v>28.869230769219506</v>
+      </c>
+      <c r="D6" s="18">
+        <v>0</v>
+      </c>
+      <c r="E6" s="19">
+        <v>60.978255201632294</v>
+      </c>
+      <c r="F6" s="17">
+        <v>28.781025641021131</v>
+      </c>
+      <c r="G6" s="17">
+        <v>27.128717948708935</v>
+      </c>
+      <c r="H6" s="18">
+        <v>0</v>
+      </c>
+      <c r="I6" s="19">
+        <v>68.992679124152914</v>
+      </c>
+      <c r="J6" s="17">
+        <v>34.263963195891534</v>
+      </c>
+      <c r="K6" s="17">
+        <v>30.193537649692502</v>
+      </c>
+      <c r="L6" s="18">
+        <v>0</v>
+      </c>
+      <c r="M6" s="17">
+        <v>61.173146644863628</v>
+      </c>
+      <c r="N6" s="17">
+        <v>27.208998840358724</v>
+      </c>
+      <c r="O6" s="17">
+        <v>27.917495168146797</v>
+      </c>
+      <c r="P6" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:64" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="27"/>
+    </row>
+    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="M3" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="N3" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="O3" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="n">
-        <v>65.47564338246377</v>
-      </c>
-      <c r="B4" s="13" t="n">
-        <v>35.983385744511914</v>
-      </c>
-      <c r="C4" s="13" t="n">
-        <v>22.715618448577615</v>
-      </c>
-      <c r="D4" s="14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E4" s="15" t="n">
-        <v>64.58051470597101</v>
-      </c>
-      <c r="F4" s="13" t="n">
-        <v>36.420041928942865</v>
-      </c>
-      <c r="G4" s="13" t="n">
-        <v>22.205828092195425</v>
-      </c>
-      <c r="H4" s="14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I4" s="15" t="n">
-        <v>70.28577786378037</v>
-      </c>
-      <c r="J4" s="13" t="n">
-        <v>38.44986649027605</v>
-      </c>
-      <c r="K4" s="13" t="n">
-        <v>26.41460002200492</v>
-      </c>
-      <c r="L4" s="14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M4" s="13" t="n">
-        <v>67.11893432457347</v>
-      </c>
-      <c r="N4" s="13" t="n">
-        <v>35.36112720028358</v>
-      </c>
-      <c r="O4" s="13" t="n">
-        <v>23.49226220074476</v>
-      </c>
-      <c r="P4" s="16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q4" t="s" s="0">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="n">
-        <v>87.51286204266128</v>
-      </c>
-      <c r="B5" s="13" t="n">
-        <v>47.657894736602756</v>
-      </c>
-      <c r="C5" s="13" t="n">
-        <v>37.1893753075537</v>
-      </c>
-      <c r="D5" s="14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E5" s="15" t="n">
-        <v>82.21028963412903</v>
-      </c>
-      <c r="F5" s="13" t="n">
-        <v>45.75964912261554</v>
-      </c>
-      <c r="G5" s="13" t="n">
-        <v>33.7848335793763</v>
-      </c>
-      <c r="H5" s="14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I5" s="15" t="n">
-        <v>87.91555279193838</v>
-      </c>
-      <c r="J5" s="13" t="n">
-        <v>47.78947368394872</v>
-      </c>
-      <c r="K5" s="13" t="n">
-        <v>37.99360550918579</v>
-      </c>
-      <c r="L5" s="14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M5" s="13" t="n">
-        <v>84.74870925273147</v>
-      </c>
-      <c r="N5" s="13" t="n">
-        <v>44.70073439395626</v>
-      </c>
-      <c r="O5" s="13" t="n">
-        <v>35.07126768792563</v>
-      </c>
-      <c r="P5" s="16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q5" t="s" s="0">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="17" t="n">
-        <v>69.86052018649579</v>
-      </c>
-      <c r="B6" s="17" t="n">
-        <v>26.433823529406624</v>
-      </c>
-      <c r="C6" s="17" t="n">
-        <v>28.867647058813233</v>
-      </c>
-      <c r="D6" s="18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E6" s="19" t="n">
-        <v>68.08841614919663</v>
-      </c>
-      <c r="F6" s="17" t="n">
-        <v>28.780392156858635</v>
-      </c>
-      <c r="G6" s="17" t="n">
-        <v>27.12745098038392</v>
-      </c>
-      <c r="H6" s="18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I6" s="19" t="n">
-        <v>73.79367930700599</v>
-      </c>
-      <c r="J6" s="17" t="n">
-        <v>30.810216718191818</v>
-      </c>
-      <c r="K6" s="17" t="n">
-        <v>31.336222910193413</v>
-      </c>
-      <c r="L6" s="18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M6" s="17" t="n">
-        <v>70.62683576779908</v>
-      </c>
-      <c r="N6" s="17" t="n">
-        <v>27.721477428199353</v>
-      </c>
-      <c r="O6" s="17" t="n">
-        <v>28.413885088933256</v>
-      </c>
-      <c r="P6" s="20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q6" t="s" s="0">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:64" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="30"/>
-    </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A8" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="27" t="s">
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="27" t="s">
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="25" t="s">
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="30" t="s">
         <v>1</v>
       </c>
       <c r="N8" s="33"/>
       <c r="O8" s="33"/>
       <c r="P8" s="34"/>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s" s="0">
+      <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" t="s" s="0">
+      <c r="C9" t="s">
         <v>28</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F9" t="s" s="0">
+      <c r="F9" t="s">
         <v>17</v>
       </c>
-      <c r="G9" t="s" s="0">
+      <c r="G9" t="s">
         <v>28</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J9" t="s" s="0">
+      <c r="J9" t="s">
         <v>17</v>
       </c>
-      <c r="K9" t="s" s="0">
+      <c r="K9" t="s">
         <v>28</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="M9" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="M9" t="s">
         <v>23</v>
       </c>
-      <c r="N9" t="s" s="0">
+      <c r="N9" t="s">
         <v>17</v>
       </c>
-      <c r="O9" t="s" s="0">
+      <c r="O9" t="s">
         <v>28</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="n">
-        <v>62.111111111111114</v>
-      </c>
-      <c r="B10" t="n" s="0">
-        <v>36.5</v>
-      </c>
-      <c r="C10" t="n" s="0">
-        <v>22.0</v>
-      </c>
-      <c r="D10" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E10" s="11" t="n">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>56.333333333333336</v>
+      </c>
+      <c r="B10">
+        <v>34.379310344827587</v>
+      </c>
+      <c r="C10">
+        <v>19.103448275862068</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="11">
         <v>62.4</v>
       </c>
-      <c r="F10" t="n" s="0">
+      <c r="F10">
         <v>40.6</v>
       </c>
-      <c r="G10" t="n" s="0">
-        <v>18.6</v>
-      </c>
-      <c r="H10" s="9" t="n">
-        <v>0.0</v>
+      <c r="G10">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0</v>
       </c>
       <c r="I10" s="11" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="J10" t="e" s="0">
+      <c r="J10" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="K10" t="e" s="0">
+      <c r="K10" t="e">
         <v>#NUM!</v>
       </c>
       <c r="L10" s="9" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="M10" t="n" s="0">
-        <v>61.75</v>
-      </c>
-      <c r="N10" t="n" s="0">
-        <v>29.666666666666668</v>
-      </c>
-      <c r="O10" t="n" s="0">
-        <v>27.666666666666668</v>
-      </c>
-      <c r="P10" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q10" t="s" s="0">
-        <v>39</v>
+      <c r="M10">
+        <v>44.2</v>
+      </c>
+      <c r="N10">
+        <v>20.555555555555557</v>
+      </c>
+      <c r="O10">
+        <v>20.222222222222221</v>
+      </c>
+      <c r="P10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="B11" t="n" s="0">
-        <v>47.333333333333336</v>
-      </c>
-      <c r="C11" t="n" s="0">
-        <v>41.0</v>
-      </c>
-      <c r="D11" s="9" t="n">
-        <v>0.0</v>
+    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="B11">
+        <v>41.111111111111114</v>
+      </c>
+      <c r="C11">
+        <v>39.666666666666664</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0</v>
       </c>
       <c r="E11" s="11" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="F11" t="e" s="0">
+      <c r="F11" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="G11" t="e" s="0">
+      <c r="G11" t="e">
         <v>#NUM!</v>
       </c>
       <c r="H11" s="9" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="I11" s="11" t="n">
-        <v>88.33333333333333</v>
-      </c>
-      <c r="J11" t="n" s="0">
-        <v>47.333333333333336</v>
-      </c>
-      <c r="K11" t="n" s="0">
-        <v>41.0</v>
-      </c>
-      <c r="L11" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M11" t="n" s="0">
-        <v>89.0</v>
-      </c>
-      <c r="N11" t="e" s="0">
+      <c r="I11" s="11">
+        <v>80.777777777777771</v>
+      </c>
+      <c r="J11">
+        <v>41.111111111111114</v>
+      </c>
+      <c r="K11">
+        <v>39.666666666666664</v>
+      </c>
+      <c r="L11" s="9">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>89</v>
+      </c>
+      <c r="N11" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="O11" t="e" s="0">
+      <c r="O11" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="P11" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q11" t="s" s="0">
-        <v>40</v>
+      <c r="P11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="n">
-        <v>77.0</v>
-      </c>
-      <c r="B12" s="5" t="n">
+    <row r="12" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>62.666666666666664</v>
+      </c>
+      <c r="B12" s="5">
         <v>26.5</v>
       </c>
-      <c r="C12" s="5" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="D12" s="10" t="n">
-        <v>0.0</v>
+      <c r="C12" s="5">
+        <v>29</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0</v>
       </c>
       <c r="E12" s="12" t="e">
         <v>#NUM!</v>
@@ -13300,63 +13306,63 @@
       <c r="L12" s="10" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="M12" s="5" t="n">
-        <v>77.0</v>
-      </c>
-      <c r="N12" s="5" t="n">
+      <c r="M12" s="5">
+        <v>62.666666666666664</v>
+      </c>
+      <c r="N12" s="5">
         <v>26.5</v>
       </c>
-      <c r="O12" s="5" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="P12" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q12" t="s" s="0">
-        <v>41</v>
+      <c r="O12" s="5">
+        <v>29</v>
+      </c>
+      <c r="P12" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" t="s" s="0">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" t="s">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="0">
+      <c r="I22" t="s">
         <v>40</v>
       </c>
-      <c r="I22" t="s" s="0">
-        <v>41</v>
-      </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" t="s" s="0">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>10</v>
       </c>
-      <c r="B23" t="s" s="0">
+      <c r="B23" t="s">
         <v>5</v>
       </c>
-      <c r="C23" t="s" s="0">
+      <c r="C23" t="s">
         <v>1</v>
       </c>
-      <c r="E23" t="s" s="0">
+      <c r="E23" t="s">
         <v>10</v>
       </c>
-      <c r="F23" t="s" s="0">
+      <c r="F23" t="s">
         <v>5</v>
       </c>
-      <c r="G23" t="s" s="0">
+      <c r="G23" t="s">
         <v>1</v>
       </c>
-      <c r="I23" t="s" s="0">
+      <c r="I23" t="s">
         <v>10</v>
       </c>
-      <c r="J23" t="s" s="0">
+      <c r="J23" t="s">
         <v>5</v>
       </c>
-      <c r="K23" t="s" s="0">
+      <c r="K23" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <f>F4</f>
         <v>36.420041928942865</v>
@@ -13393,11 +13399,11 @@
         <f>N6</f>
         <v>27.721477428199353</v>
       </c>
-      <c r="M24" t="s" s="0">
+      <c r="M24" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <f>G4</f>
         <v>22.205828092195425</v>
@@ -13434,100 +13440,100 @@
         <f>O6</f>
         <v>28.413885088933256</v>
       </c>
-      <c r="M25" t="s" s="0">
-        <v>44</v>
+      <c r="M25" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="0">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27">
         <f>F10</f>
         <v>40.6</v>
       </c>
-      <c r="B27" t="e" s="0">
+      <c r="B27" t="e">
         <f>J10</f>
         <v>#NUM!</v>
       </c>
-      <c r="C27" s="0">
+      <c r="C27">
         <f>N10</f>
         <v>29.666666666666668</v>
       </c>
-      <c r="E27" t="e" s="0">
+      <c r="E27" t="e">
         <f>F11</f>
         <v>#NUM!</v>
       </c>
-      <c r="F27" s="0">
+      <c r="F27">
         <f>J11</f>
         <v>47.333333333333336</v>
       </c>
-      <c r="G27" t="e" s="0">
+      <c r="G27" t="e">
         <f>N11</f>
         <v>#NUM!</v>
       </c>
-      <c r="I27" t="e" s="0">
+      <c r="I27" t="e">
         <f>F12</f>
         <v>#NUM!</v>
       </c>
-      <c r="J27" t="e" s="0">
+      <c r="J27" t="e">
         <f>J12</f>
         <v>#NUM!</v>
       </c>
-      <c r="K27" s="0">
+      <c r="K27">
         <f>N12</f>
         <v>26.5</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="0">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28">
         <f>G10</f>
         <v>18.600000000000001</v>
       </c>
-      <c r="B28" t="e" s="0">
+      <c r="B28" t="e">
         <f>K10</f>
         <v>#NUM!</v>
       </c>
-      <c r="C28" s="0">
+      <c r="C28">
         <f>O10</f>
         <v>27.666666666666668</v>
       </c>
-      <c r="E28" t="e" s="0">
+      <c r="E28" t="e">
         <f>G11</f>
         <v>#NUM!</v>
       </c>
-      <c r="F28" s="0">
+      <c r="F28">
         <f>K11</f>
         <v>41</v>
       </c>
-      <c r="G28" t="e" s="0">
+      <c r="G28" t="e">
         <f>O11</f>
         <v>#NUM!</v>
       </c>
-      <c r="I28" t="e" s="0">
+      <c r="I28" t="e">
         <f>G12</f>
         <v>#NUM!</v>
       </c>
-      <c r="J28" t="e" s="0">
+      <c r="J28" t="e">
         <f>K12</f>
         <v>#NUM!</v>
       </c>
-      <c r="K28" s="0">
+      <c r="K28">
         <f>O12</f>
         <v>29</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="Y2:AB2"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="M2:P2"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A7:P7"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="E8:H8"/>
     <mergeCell ref="I8:L8"/>
     <mergeCell ref="M8:P8"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="Y2:AB2"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="M2:P2"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:A6">
     <cfRule type="colorScale" priority="11">
@@ -13611,7 +13617,103 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4 I4 M4">
+  <conditionalFormatting sqref="E5 I5 M5">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11 I11 M11">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4 J4 N4">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6 J6 N6">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10 J10 N10">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12 J12 N12">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5 K5 O5">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11 K11 O11">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4 E4 M4">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -13623,7 +13725,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6 I6 M6">
+  <conditionalFormatting sqref="I6 E6 M6">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -13635,7 +13737,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E10 I10 M10">
+  <conditionalFormatting sqref="I10 E10 M10">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -13647,7 +13749,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12 I12 M12">
+  <conditionalFormatting sqref="I12 E12 M12">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -13659,7 +13761,55 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5 N5 J5">
+  <conditionalFormatting sqref="J11 F11 N11">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6 G6 O6">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10 G10 O10">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12 G12 O12">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5 F5 J5">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -13671,152 +13821,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11 J11 N11">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4 O4 K4">
+  <conditionalFormatting sqref="O4 G4 K4">
     <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6 K6 O6">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G10 K10 O10">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12 K12 O12">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5 E5 M5">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11 E11 M11">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4 F4 N4">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J6 F6 N6">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J10 F10 N10">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J12 F12 N12">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5 G5 O5">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K11 G11 O11">
-    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13835,177 +13841,177 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6240820C-A703-4D82-AEA4-6398523FBADE}">
   <dimension ref="H1:S42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
+    <sheetView zoomScale="84" workbookViewId="0">
       <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H1" s="21"/>
       <c r="S1" s="21"/>
     </row>
-    <row r="2" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H2" s="21"/>
       <c r="S2" s="21"/>
     </row>
-    <row r="3" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H3" s="21"/>
       <c r="S3" s="21"/>
     </row>
-    <row r="4" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H4" s="21"/>
       <c r="S4" s="21"/>
     </row>
-    <row r="5" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H5" s="21"/>
       <c r="S5" s="21"/>
     </row>
-    <row r="6" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H6" s="21"/>
       <c r="S6" s="21"/>
     </row>
-    <row r="7" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H7" s="21"/>
       <c r="S7" s="21"/>
     </row>
-    <row r="8" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H8" s="21"/>
       <c r="S8" s="21"/>
     </row>
-    <row r="9" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H9" s="21"/>
       <c r="S9" s="21"/>
     </row>
-    <row r="10" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H10" s="21"/>
       <c r="S10" s="21"/>
     </row>
-    <row r="11" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H11" s="21"/>
       <c r="S11" s="21"/>
     </row>
-    <row r="12" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H12" s="21"/>
       <c r="S12" s="21"/>
     </row>
-    <row r="13" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H13" s="21"/>
       <c r="S13" s="21"/>
     </row>
-    <row r="14" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H14" s="21"/>
       <c r="S14" s="21"/>
     </row>
-    <row r="15" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H15" s="21"/>
       <c r="S15" s="21"/>
     </row>
-    <row r="16" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H16" s="21"/>
       <c r="S16" s="21"/>
     </row>
-    <row r="17" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H17" s="21"/>
       <c r="S17" s="21"/>
     </row>
-    <row r="18" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H18" s="21"/>
       <c r="S18" s="21"/>
     </row>
-    <row r="19" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H19" s="21"/>
       <c r="S19" s="21"/>
     </row>
-    <row r="20" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H20" s="21"/>
       <c r="S20" s="21"/>
     </row>
-    <row r="21" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H21" s="21"/>
       <c r="S21" s="21"/>
     </row>
-    <row r="22" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H22" s="21"/>
       <c r="S22" s="21"/>
     </row>
-    <row r="23" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H23" s="21"/>
       <c r="S23" s="21"/>
     </row>
-    <row r="24" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H24" s="21"/>
       <c r="S24" s="21"/>
     </row>
-    <row r="25" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H25" s="21"/>
       <c r="S25" s="21"/>
     </row>
-    <row r="26" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H26" s="21"/>
       <c r="S26" s="21"/>
     </row>
-    <row r="27" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H27" s="21"/>
       <c r="S27" s="21"/>
     </row>
-    <row r="28" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H28" s="21"/>
       <c r="S28" s="21"/>
     </row>
-    <row r="29" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H29" s="21"/>
       <c r="S29" s="21"/>
     </row>
-    <row r="30" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H30" s="21"/>
       <c r="S30" s="21"/>
     </row>
-    <row r="31" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H31" s="21"/>
       <c r="S31" s="21"/>
     </row>
-    <row r="32" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H32" s="21"/>
       <c r="S32" s="21"/>
     </row>
-    <row r="33" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H33" s="21"/>
       <c r="S33" s="21"/>
     </row>
-    <row r="34" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H34" s="21"/>
       <c r="S34" s="21"/>
     </row>
-    <row r="35" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H35" s="21"/>
       <c r="S35" s="21"/>
     </row>
-    <row r="36" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H36" s="21"/>
       <c r="S36" s="21"/>
     </row>
-    <row r="37" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H37" s="21"/>
       <c r="S37" s="21"/>
     </row>
-    <row r="38" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H38" s="21"/>
       <c r="S38" s="21"/>
     </row>
-    <row r="39" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H39" s="21"/>
       <c r="S39" s="21"/>
     </row>
-    <row r="40" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H40" s="21"/>
       <c r="S40" s="21"/>
     </row>
-    <row r="41" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H41" s="21"/>
       <c r="S41" s="21"/>
     </row>
-    <row r="42" spans="8:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="8:19" x14ac:dyDescent="0.25">
       <c r="S42" s="21"/>
     </row>
   </sheetData>

--- a/Red Team Data.xlsx
+++ b/Red Team Data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hallm\Desktop\FTCStats\"/>
     </mc:Choice>
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -10659,8 +10659,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="10.0"/>
+    <col min="5" max="5" customWidth="true" width="10.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -10693,31 +10693,31 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B2" s="1">
         <v>45237</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="0">
         <v>106</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="0">
         <v>-1</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="0">
         <v>-1</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="0">
         <v>0</v>
       </c>
       <c r="M2" s="2"/>
@@ -10730,721 +10730,721 @@
       <c r="T2" s="2"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B3" s="1">
         <v>45237</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="0">
         <v>83</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="0">
         <v>-1</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="0">
         <v>-1</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B4" s="1">
         <v>45237</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="0">
         <v>89</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="0">
         <v>-1</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="0">
         <v>-1</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="0">
         <v>0</v>
       </c>
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B5" s="1">
         <v>45238</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="0">
         <v>71</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="0">
         <v>-1</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="0">
         <v>-1</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B6" s="1">
         <v>45238</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="0">
         <v>88</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="0">
         <v>-1</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="0">
         <v>-1</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B7" s="1">
         <v>45238</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="0">
         <v>111</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="0">
         <v>-1</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="0">
         <v>-1</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B8" s="1">
         <v>45238</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="0">
         <v>34</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="0">
         <v>-1</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="0">
         <v>-1</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B9" s="1">
         <v>45238</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="0">
         <v>120</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="0">
         <v>-1</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="0">
         <v>-1</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="0">
         <v>0</v>
       </c>
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B10" s="1">
         <v>45238</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="0">
         <v>75</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="0">
         <v>-1</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="0">
         <v>-1</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B11" s="1">
         <v>45237</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="0">
         <v>111</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="0">
         <v>66</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="0">
         <v>45</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B12" s="1">
         <v>45238</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="0">
         <v>107</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="0">
         <v>57</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="0">
         <v>50</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="0">
         <v>0</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B13" s="1">
         <v>45234</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="0">
         <v>72</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="0">
         <v>44</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="0">
         <v>28</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B14" s="1">
         <v>45234</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="0">
         <v>97</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="0">
         <v>51</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="0">
         <v>30</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="0">
         <v>0</v>
       </c>
       <c r="M14" s="2"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B15" s="1">
         <v>45234</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="0">
         <v>54</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="0">
         <v>26</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="0">
         <v>28</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B16" s="1">
         <v>45234</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="0">
         <v>82</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="0">
         <v>32</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="0">
         <v>50</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B17" s="1">
         <v>45234</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="0">
         <v>60</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="0">
         <v>40</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="0">
         <v>20</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B18" s="1">
         <v>45234</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="0">
         <v>56</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="0">
         <v>48</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="0">
         <v>8</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B19" s="1">
         <v>45234</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="0">
         <v>60</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="0">
         <v>30</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="0">
         <v>30</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B20" s="1">
         <v>45234</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="0">
         <v>39</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="0">
         <v>34</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="0">
         <v>5</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B21" s="1">
         <v>45241</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="0">
         <v>32</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="0">
         <v>4</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="0">
         <v>28</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="0">
         <v>0</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" t="s" s="0">
         <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B22" s="1">
         <v>45241</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="0">
         <v>83</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="0">
         <v>55</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="0">
         <v>28</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="0">
         <v>0</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" t="s" s="0">
         <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B23" s="1">
         <v>45241</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="0">
         <v>56</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="0">
         <v>26</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="0">
         <v>30</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="0">
         <v>0</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" t="s" s="0">
         <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B24" s="1">
         <v>45241</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="0">
         <v>33</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="0">
         <v>28</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="0">
         <v>5</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="0">
         <v>0</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" t="s" s="0">
         <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B25" s="1">
         <v>45241</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="0">
         <v>56</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="0">
         <v>36</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="0">
         <v>20</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="0">
         <v>0</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K25" t="s" s="0">
         <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B26" s="1">
         <v>45241</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="0">
         <v>55</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="0">
         <v>27</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="0">
         <v>28</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="0">
         <v>0</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K26" t="s" s="0">
         <v>33</v>
       </c>
       <c r="T26" s="22"/>
@@ -11493,8 +11493,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="10.0"/>
+    <col min="5" max="5" customWidth="true" width="10.7109375"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
@@ -11526,7 +11526,7 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
-      <c r="V2" t="s">
+      <c r="V2" t="s" s="0">
         <v>18</v>
       </c>
     </row>
@@ -11534,16 +11534,16 @@
       <c r="A3" s="1">
         <v>45237</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0">
         <v>106</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>1</v>
       </c>
     </row>
@@ -11551,25 +11551,25 @@
       <c r="A4" s="1">
         <v>45237</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0">
         <v>83</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>1</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" t="s" s="0">
         <v>24</v>
       </c>
     </row>
@@ -11577,26 +11577,26 @@
       <c r="A5" s="1">
         <v>45237</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0">
         <v>89</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="0">
         <f>(SUMIF($C$3:$C$100, M5, $B$3:$B$100)/COUNTIF($C$3:$C$100, M5))</f>
         <v>88.083333333333329</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="0">
         <f>(SUMIF($C$3:$C$100, M5, $F$3:$F$100)/COUNTIF($C$13:$C$100, M5))</f>
         <v>42.428571428571431</v>
       </c>
@@ -11605,26 +11605,26 @@
       <c r="A6" s="1">
         <v>45238</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0">
         <v>71</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="0">
         <f>(SUMIF($C$3:$C$100, M6, $B$3:$B$100)/COUNTIF($C$3:$C$100, M6))</f>
         <v>98.5</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="0">
         <f>(SUMIF($C$3:$C$100, M6, $F$3:$F$100)/COUNTIF($C$13:$C$100, M6))</f>
         <v>57.333333333333336</v>
       </c>
@@ -11633,26 +11633,26 @@
       <c r="A7" s="1">
         <v>45238</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0">
         <v>88</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="0">
         <f>(SUMIF($C$3:$C$100, M7, $B$3:$B$100)/COUNTIF($C$3:$C$100, M7))</f>
         <v>86.25</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="0">
         <f>(SUMIF($C$3:$C$100, M7, $F$3:$F$100)/COUNTIF($C$13:$C$100, M7))</f>
         <v>38</v>
       </c>
@@ -11661,16 +11661,16 @@
       <c r="A8" s="1">
         <v>45238</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0">
         <v>111</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" t="s" s="0">
         <v>1</v>
       </c>
     </row>
@@ -11678,16 +11678,16 @@
       <c r="A9" s="1">
         <v>45238</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="0">
         <v>34</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" t="s" s="0">
         <v>1</v>
       </c>
       <c r="M9" s="2" t="s">
@@ -11698,16 +11698,16 @@
       <c r="A10" s="1">
         <v>45238</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0">
         <v>120</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" t="s" s="0">
         <v>1</v>
       </c>
       <c r="H10" s="22" t="s">
@@ -11716,14 +11716,14 @@
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
       <c r="K10" s="22"/>
-      <c r="M10" t="s">
+      <c r="M10" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="0">
         <f>(SUMIF($D$3:$D$100, M10, $B$3:$B$100)/COUNTIF($D$3:$D$100, M10))</f>
         <v>96.666666666666671</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="0">
         <f>(SUMIF($D$3:$D$100, M10, $F$3:$F$100)/COUNTIF($D$13:$D$100, M10))</f>
         <v>26</v>
       </c>
@@ -11732,16 +11732,16 @@
       <c r="A11" s="1">
         <v>45238</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="0">
         <v>75</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" t="s" s="0">
         <v>1</v>
       </c>
       <c r="H11" s="22" t="s">
@@ -11752,14 +11752,14 @@
         <v>22</v>
       </c>
       <c r="K11" s="22"/>
-      <c r="M11" t="s">
+      <c r="M11" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="0">
         <f>(SUMIF($D$3:$D$100, M11, $B$3:$B$100)/COUNTIF($D$3:$D$100, M11))</f>
         <v>77</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="0">
         <f>(SUMIF($D$3:$D$100, M11, $F$3:$F$100)/COUNTIF($D$13:$D$100, M11))</f>
         <v>45.166666666666664</v>
       </c>
@@ -11777,14 +11777,14 @@
       <c r="K12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="0">
         <f>(SUMIF($D$3:$D$100, M12, $B$3:$B$100)/COUNTIF($D$3:$D$100, M12))</f>
         <v>97.75</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="0">
         <f>(SUMIF($D$3:$D$100, M12, $F$3:$F$100)/COUNTIF($D$13:$D$100, M12))</f>
         <v>57.333333333333336</v>
       </c>
@@ -11793,26 +11793,26 @@
       <c r="A13" s="1">
         <v>45237</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="0">
         <v>111</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="0">
         <v>66</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="0">
         <f t="shared" ref="H13:H23" si="0">(SUMIF($M$5:$M$7, $C13, $N$5:$N$7)+SUMIF($M$10:$M$12, $D13, $N$10:$N$12)+SUMIF($M$15:$M$17, $E13, $N$15:$N$17))/3</f>
         <v>99.833333333333329</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="0">
         <f t="shared" ref="I13:I23" si="1">(SUMIF($M$5:$M$7, $C13, $O$5:$O$7)+SUMIF($M$10:$M$12, $D13, $O$10:$O$12)+SUMIF($M$15:$M$17, $E13, $O$15:$O$17))/3</f>
         <v>55.722222222222229</v>
       </c>
@@ -11820,7 +11820,7 @@
         <f t="shared" ref="J13:J23" si="2">(SUMIF($M$5:$M$7, $C13, $N$5:$N$7)+SUMIF($M$10:$M$12, $D13, $N$10:$N$12))/2</f>
         <v>98.125</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="0">
         <f t="shared" ref="K13:K23" si="3">(SUMIF($M$5:$M$7, $C13, $O$5:$O$7)+SUMIF($M$10:$M$12, $D13, $O$10:$O$12))/2</f>
         <v>57.333333333333336</v>
       </c>
@@ -11829,26 +11829,26 @@
       <c r="A14" s="1">
         <v>45238</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="0">
         <v>107</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="0">
         <v>57</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="0">
         <f t="shared" si="0"/>
         <v>84.49444444444444</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="0">
         <f t="shared" si="1"/>
         <v>48.198412698412703</v>
       </c>
@@ -11856,7 +11856,7 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="0">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
@@ -11868,26 +11868,26 @@
       <c r="A15" s="1">
         <v>45234</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="0">
         <v>108</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="0">
         <v>38</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="0">
         <f t="shared" si="0"/>
         <v>63.166666666666664</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="0">
         <f t="shared" si="1"/>
         <v>30.166666666666668</v>
       </c>
@@ -11895,18 +11895,18 @@
         <f t="shared" si="2"/>
         <v>43.125</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="0">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="0">
         <f>(SUMIF($E$3:$E$100, M15, $B$3:$B$100)/COUNTIF($E$3:$E$100, M15))</f>
         <v>83.166666666666671</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="0">
         <f>(SUMIF($E$3:$E$100, M15, $F$3:$F$100)/COUNTIF($E$13:$E$100, M15))</f>
         <v>40</v>
       </c>
@@ -11915,26 +11915,26 @@
       <c r="A16" s="1">
         <v>45234</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="0">
         <v>107</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="0">
         <v>74</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="0">
         <f t="shared" si="0"/>
         <v>99.833333333333329</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="0">
         <f t="shared" si="1"/>
         <v>55.722222222222229</v>
       </c>
@@ -11942,18 +11942,18 @@
         <f t="shared" si="2"/>
         <v>98.125</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="0">
         <f t="shared" si="3"/>
         <v>57.333333333333336</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="0">
         <f>(SUMIF($E$3:$E$100, M16, $B$3:$B$100)/COUNTIF($E$3:$E$100, M16))</f>
         <v>88.4</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="0">
         <f>(SUMIF($E$3:$E$100, M16, $F$3:$F$100)/COUNTIF($E$13:$E$100, M16))</f>
         <v>57</v>
       </c>
@@ -11962,26 +11962,26 @@
       <c r="A17" s="1">
         <v>45234</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="0">
         <v>97</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="0">
         <v>62</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="0">
         <f t="shared" si="0"/>
         <v>82.75</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="0">
         <f t="shared" si="1"/>
         <v>42.531746031746032</v>
       </c>
@@ -11989,18 +11989,18 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="0">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M17" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="0">
         <f>(SUMIF($E$3:$E$100, M17, $B$3:$B$100)/COUNTIF($E$3:$E$100, M17))</f>
         <v>103.25</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="0">
         <f>(SUMIF($E$3:$E$100, M17, $F$3:$F$100)/COUNTIF($E$13:$E$100, M17))</f>
         <v>52.5</v>
       </c>
@@ -12009,26 +12009,26 @@
       <c r="A18" s="1">
         <v>45234</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="0">
         <v>99</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="0">
         <v>26</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="0">
         <f t="shared" si="0"/>
         <v>89.305555555555557</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="0">
         <f t="shared" si="1"/>
         <v>36.142857142857146</v>
       </c>
@@ -12036,7 +12036,7 @@
         <f t="shared" si="2"/>
         <v>92.375</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="0">
         <f t="shared" si="3"/>
         <v>34.214285714285715</v>
       </c>
@@ -12045,26 +12045,26 @@
       <c r="A19" s="1">
         <v>45234</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="0">
         <v>87</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="0">
         <v>32</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="0">
         <f t="shared" si="0"/>
         <v>99.833333333333329</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="0">
         <f t="shared" si="1"/>
         <v>55.722222222222229</v>
       </c>
@@ -12072,7 +12072,7 @@
         <f t="shared" si="2"/>
         <v>98.125</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="0">
         <f t="shared" si="3"/>
         <v>57.333333333333336</v>
       </c>
@@ -12081,26 +12081,26 @@
       <c r="A20" s="1">
         <v>45234</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="0">
         <v>76</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="0">
         <v>48</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="0">
         <f t="shared" si="0"/>
         <v>82.75</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="0">
         <f t="shared" si="1"/>
         <v>42.531746031746032</v>
       </c>
@@ -12108,7 +12108,7 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="0">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
@@ -12117,26 +12117,26 @@
       <c r="A21" s="1">
         <v>45234</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="0">
         <v>93</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="0">
         <v>40</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="0">
         <f t="shared" si="0"/>
         <v>82.75</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="0">
         <f t="shared" si="1"/>
         <v>42.531746031746032</v>
       </c>
@@ -12144,7 +12144,7 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="0">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
@@ -12153,26 +12153,26 @@
       <c r="A22" s="1">
         <v>45234</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="0">
         <v>85</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="0">
         <v>30</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="0">
         <f t="shared" si="0"/>
         <v>82.75</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="0">
         <f t="shared" si="1"/>
         <v>42.531746031746032</v>
       </c>
@@ -12180,7 +12180,7 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="0">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
@@ -12189,26 +12189,26 @@
       <c r="A23" s="1">
         <v>45234</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="0">
         <v>49</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="0">
         <v>34</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="0">
         <f t="shared" si="0"/>
         <v>82.75</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="0">
         <f t="shared" si="1"/>
         <v>42.531746031746032</v>
       </c>
@@ -12216,7 +12216,7 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="0">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
@@ -12236,67 +12236,67 @@
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="T28">
+      <c r="T28" s="0">
         <v>1</v>
       </c>
-      <c r="U28" t="s">
+      <c r="U28" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="V28" t="s">
+      <c r="V28" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="W28" t="s">
+      <c r="W28" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="X28">
+      <c r="X28" s="0">
         <f>(N7+N10+N16)/3</f>
         <v>90.438888888888911</v>
       </c>
-      <c r="Y28">
+      <c r="Y28" s="0">
         <f>(O7+O10+O16)/3</f>
         <v>40.333333333333336</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="T29">
+      <c r="T29" s="0">
         <v>2</v>
       </c>
-      <c r="U29" t="s">
+      <c r="U29" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="V29" t="s">
+      <c r="V29" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="W29" t="s">
+      <c r="W29" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="X29">
+      <c r="X29" s="0">
         <f>(N5+N11+N16)/3</f>
         <v>84.49444444444444</v>
       </c>
-      <c r="Y29">
+      <c r="Y29" s="0">
         <f>(O5+O11+O16)/3</f>
         <v>48.198412698412703</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="T30">
+      <c r="T30" s="0">
         <v>3</v>
       </c>
-      <c r="U30" t="s">
+      <c r="U30" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="V30" t="s">
+      <c r="V30" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="W30" t="s">
+      <c r="W30" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="X30">
+      <c r="X30" s="0">
         <f>(N6+N11+N16)/3</f>
         <v>87.966666666666654</v>
       </c>
-      <c r="Y30">
+      <c r="Y30" s="0">
         <f>(O6+O11+O16)/3</f>
         <v>53.166666666666664</v>
       </c>
@@ -12310,67 +12310,67 @@
       <c r="W32" s="22"/>
     </row>
     <row r="33" spans="20:25" x14ac:dyDescent="0.25">
-      <c r="T33">
+      <c r="T33" s="0">
         <v>1</v>
       </c>
-      <c r="U33" t="s">
+      <c r="U33" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="V33" t="s">
+      <c r="V33" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="W33" t="s">
+      <c r="W33" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="X33">
+      <c r="X33" s="0">
         <f>(N7+N10+N16)/3</f>
         <v>90.438888888888911</v>
       </c>
-      <c r="Y33">
+      <c r="Y33" s="0">
         <f>(O7+O10+O16)/3</f>
         <v>40.333333333333336</v>
       </c>
     </row>
     <row r="34" spans="20:25" x14ac:dyDescent="0.25">
-      <c r="T34">
+      <c r="T34" s="0">
         <v>2</v>
       </c>
-      <c r="U34" t="s">
+      <c r="U34" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="V34" t="s">
+      <c r="V34" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="W34" t="s">
+      <c r="W34" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="X34">
+      <c r="X34" s="0">
         <f>(N5+N11+N15)/3</f>
         <v>82.75</v>
       </c>
-      <c r="Y34">
+      <c r="Y34" s="0">
         <f>(O5+O11+O15)/3</f>
         <v>42.531746031746032</v>
       </c>
     </row>
     <row r="35" spans="20:25" x14ac:dyDescent="0.25">
-      <c r="T35">
+      <c r="T35" s="0">
         <v>3</v>
       </c>
-      <c r="U35" t="s">
+      <c r="U35" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="V35" t="s">
+      <c r="V35" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="W35" t="s">
+      <c r="W35" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="X35">
+      <c r="X35" s="0">
         <f>(N6+N12+N17)/3</f>
         <v>99.833333333333329</v>
       </c>
-      <c r="Y35">
+      <c r="Y35" s="0">
         <f>(O6+O12+O17)/3</f>
         <v>55.722222222222229</v>
       </c>
@@ -12412,175 +12412,175 @@
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>36</v>
       </c>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>58.9517241383233</v>
-      </c>
-      <c r="B3">
-        <v>31.95008051580869</v>
-      </c>
-      <c r="C3">
-        <v>20.041867954962004</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
+      <c r="A3" t="n" s="0">
+        <v>59.5270508478269</v>
+      </c>
+      <c r="B3" t="n" s="0">
+        <v>32.03450489538631</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>20.1428342160633</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>0.0</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>97.424382715477691</v>
-      </c>
-      <c r="B4">
-        <v>63.32396565126863</v>
-      </c>
-      <c r="C4">
-        <v>34.199063231848733</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
+      <c r="A4" t="n" s="0">
+        <v>75.84946236580235</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <v>43.87428571409823</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>31.14857142897671</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>0.0</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>61.220472441147699</v>
-      </c>
-      <c r="B5">
+      <c r="A5" t="n" s="0">
+        <v>61.64258262895983</v>
+      </c>
+      <c r="B5" t="n" s="0">
         <v>26.500000000000007</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n" s="0">
         <v>29.000000000000004</v>
       </c>
-      <c r="D5">
-        <v>0</v>
+      <c r="D5" t="n" s="0">
+        <v>0.0</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>57.606099110834585</v>
-      </c>
-      <c r="B6">
-        <v>35.985234899598517</v>
-      </c>
-      <c r="C6">
-        <v>20.335570469740087</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
+      <c r="A6" t="n" s="0">
+        <v>57.72040842080632</v>
+      </c>
+      <c r="B6" t="n" s="0">
+        <v>36.04430464489396</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>20.41895328597979</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>0.0</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>100.71961269013782</v>
-      </c>
-      <c r="B7">
-        <v>65.581354441018661</v>
-      </c>
-      <c r="C7">
-        <v>35.490765171584485</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
+      <c r="A7" t="n" s="0">
+        <v>87.44226498854837</v>
+      </c>
+      <c r="B7" t="n" s="0">
+        <v>41.89873417701383</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>39.83544303793153</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>0.0</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>60.725165562933029</v>
-      </c>
-      <c r="B8">
-        <v>26.369230769219499</v>
-      </c>
-      <c r="C8">
-        <v>28.738461538439012</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
+      <c r="A8" t="n" s="0">
+        <v>61.20215545397455</v>
+      </c>
+      <c r="B8" t="n" s="0">
+        <v>26.3692307692195</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>28.73846153843901</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>0.0</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" t="n" s="0">
         <v>60.999999999999986</v>
       </c>
-      <c r="B9">
-        <v>38.166666666666643</v>
-      </c>
-      <c r="C9">
-        <v>20.166666666666661</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
+      <c r="B9" t="n" s="0">
+        <v>38.16666666666664</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>20.16666666666666</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>0.0</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>101.07211961260313</v>
-      </c>
-      <c r="B10">
-        <v>65.581354441018661</v>
-      </c>
-      <c r="C10">
-        <v>35.490765171584485</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
+      <c r="A10" t="n" s="0">
+        <v>81.73417721494539</v>
+      </c>
+      <c r="B10" t="n" s="0">
+        <v>41.89873417701383</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>39.83544303793153</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>0.0</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>61.974457216156665</v>
-      </c>
-      <c r="B11">
-        <v>30.306532663354606</v>
-      </c>
-      <c r="C11">
-        <v>24.110552763855971</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
+      <c r="A11" t="n" s="0">
+        <v>62.65347766613021</v>
+      </c>
+      <c r="B11" t="n" s="0">
+        <v>30.400100150266862</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>24.201301952969676</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>0.0</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>35</v>
       </c>
     </row>
@@ -12746,14 +12746,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" bestFit="true" customWidth="true" width="9.5703125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.0"/>
+    <col min="5" max="7" bestFit="true" customWidth="true" width="9.5703125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="9.0"/>
+    <col min="9" max="11" bestFit="true" customWidth="true" width="9.5703125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.0"/>
+    <col min="13" max="15" bestFit="true" customWidth="true" width="9.5703125"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="9.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:64" ht="18.75" x14ac:dyDescent="0.3">
@@ -12859,13 +12859,13 @@
       <c r="AF2" s="22"/>
     </row>
     <row r="3" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>28</v>
       </c>
       <c r="D3" s="9" t="s">
@@ -12874,10 +12874,10 @@
       <c r="E3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" t="s" s="0">
         <v>28</v>
       </c>
       <c r="H3" s="9" t="s">
@@ -12886,22 +12886,22 @@
       <c r="I3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" t="s" s="0">
         <v>28</v>
       </c>
       <c r="L3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" t="s" s="0">
         <v>28</v>
       </c>
       <c r="P3" s="6" t="s">
@@ -12909,161 +12909,161 @@
       </c>
     </row>
     <row r="4" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
-        <v>58.278911624578939</v>
-      </c>
-      <c r="B4" s="13">
-        <v>33.967657707703601</v>
-      </c>
-      <c r="C4" s="13">
-        <v>20.188719212351046</v>
-      </c>
-      <c r="D4" s="14">
-        <v>0</v>
-      </c>
-      <c r="E4" s="15">
-        <v>58.823129299663151</v>
-      </c>
-      <c r="F4" s="13">
-        <v>34.807459499496211</v>
-      </c>
-      <c r="G4" s="13">
-        <v>20.184308703214167</v>
-      </c>
-      <c r="H4" s="14">
-        <v>0</v>
-      </c>
-      <c r="I4" s="15">
-        <v>66.837553222183786</v>
-      </c>
-      <c r="J4" s="13">
-        <v>40.290397054366608</v>
-      </c>
-      <c r="K4" s="13">
-        <v>23.249128404197734</v>
-      </c>
-      <c r="L4" s="14">
-        <v>0</v>
-      </c>
-      <c r="M4" s="13">
-        <v>59.018020742894485</v>
-      </c>
-      <c r="N4" s="13">
-        <v>33.235432698833804</v>
-      </c>
-      <c r="O4" s="13">
-        <v>20.973085922652029</v>
-      </c>
-      <c r="P4" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="A4" s="13" t="n">
+        <v>58.62372963431661</v>
+      </c>
+      <c r="B4" s="13" t="n">
+        <v>34.03940477014014</v>
+      </c>
+      <c r="C4" s="13" t="n">
+        <v>20.280893751021544</v>
+      </c>
+      <c r="D4" s="14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E4" s="15" t="n">
+        <v>59.098983707453286</v>
+      </c>
+      <c r="F4" s="13" t="n">
+        <v>34.864857149445434</v>
+      </c>
+      <c r="G4" s="13" t="n">
+        <v>20.258048334150565</v>
+      </c>
+      <c r="H4" s="14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I4" s="15" t="n">
+        <v>63.245819150442365</v>
+      </c>
+      <c r="J4" s="13" t="n">
+        <v>35.61127065151488</v>
+      </c>
+      <c r="K4" s="13" t="n">
+        <v>24.19180360840354</v>
+      </c>
+      <c r="L4" s="14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M4" s="13" t="n">
+        <v>59.429679240679334</v>
+      </c>
+      <c r="N4" s="13" t="n">
+        <v>33.311543846165485</v>
+      </c>
+      <c r="O4" s="13" t="n">
+        <v>21.06497539141117</v>
+      </c>
+      <c r="P4" s="16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q4" t="s" s="0">
         <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
-        <v>99.071997702807749</v>
-      </c>
-      <c r="B5" s="13">
-        <v>64.452660046143649</v>
-      </c>
-      <c r="C5" s="13">
-        <v>34.844914201716605</v>
-      </c>
-      <c r="D5" s="14">
-        <v>0</v>
-      </c>
-      <c r="E5" s="15">
-        <v>91.4575981622462</v>
-      </c>
-      <c r="F5" s="13">
-        <v>59.195461370248246</v>
-      </c>
-      <c r="G5" s="13">
-        <v>31.909264694706614</v>
-      </c>
-      <c r="H5" s="14">
-        <v>0</v>
-      </c>
-      <c r="I5" s="15">
-        <v>99.472022084766834</v>
-      </c>
-      <c r="J5" s="13">
-        <v>64.678398925118657</v>
-      </c>
-      <c r="K5" s="13">
-        <v>34.974084395690184</v>
-      </c>
-      <c r="L5" s="14">
-        <v>0</v>
-      </c>
-      <c r="M5" s="13">
-        <v>91.652489605477541</v>
-      </c>
-      <c r="N5" s="13">
-        <v>57.623434569585847</v>
-      </c>
-      <c r="O5" s="13">
-        <v>32.698041914144476</v>
-      </c>
-      <c r="P5" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="s">
+      <c r="A5" s="13" t="n">
+        <v>81.64586367717536</v>
+      </c>
+      <c r="B5" s="13" t="n">
+        <v>42.88650994555603</v>
+      </c>
+      <c r="C5" s="13" t="n">
+        <v>35.49200723345412</v>
+      </c>
+      <c r="D5" s="14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="15" t="n">
+        <v>77.51669094174028</v>
+      </c>
+      <c r="F5" s="13" t="n">
+        <v>41.94254128977815</v>
+      </c>
+      <c r="G5" s="13" t="n">
+        <v>32.42693912009663</v>
+      </c>
+      <c r="H5" s="14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I5" s="15" t="n">
+        <v>81.66352638472935</v>
+      </c>
+      <c r="J5" s="13" t="n">
+        <v>42.68895479184759</v>
+      </c>
+      <c r="K5" s="13" t="n">
+        <v>36.3606943943496</v>
+      </c>
+      <c r="L5" s="14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M5" s="13" t="n">
+        <v>77.84738647496633</v>
+      </c>
+      <c r="N5" s="13" t="n">
+        <v>40.3892279864982</v>
+      </c>
+      <c r="O5" s="13" t="n">
+        <v>33.23386617735723</v>
+      </c>
+      <c r="P5" s="16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q5" t="s" s="0">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17">
-        <v>60.972819002040367</v>
-      </c>
-      <c r="B6" s="17">
+      <c r="A6" s="17" t="n">
+        <v>61.42236904146719</v>
+      </c>
+      <c r="B6" s="17" t="n">
         <v>26.434615384609753</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="17" t="n">
         <v>28.869230769219506</v>
       </c>
-      <c r="D6" s="18">
-        <v>0</v>
-      </c>
-      <c r="E6" s="19">
-        <v>60.978255201632294</v>
-      </c>
-      <c r="F6" s="17">
-        <v>28.781025641021131</v>
-      </c>
-      <c r="G6" s="17">
+      <c r="D6" s="18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E6" s="19" t="n">
+        <v>61.337895233173754</v>
+      </c>
+      <c r="F6" s="17" t="n">
+        <v>28.78102564102113</v>
+      </c>
+      <c r="G6" s="17" t="n">
         <v>27.128717948708935</v>
       </c>
-      <c r="H6" s="18">
-        <v>0</v>
-      </c>
-      <c r="I6" s="19">
-        <v>68.992679124152914</v>
-      </c>
-      <c r="J6" s="17">
-        <v>34.263963195891534</v>
-      </c>
-      <c r="K6" s="17">
-        <v>30.193537649692502</v>
-      </c>
-      <c r="L6" s="18">
-        <v>0</v>
-      </c>
-      <c r="M6" s="17">
-        <v>61.173146644863628</v>
-      </c>
-      <c r="N6" s="17">
-        <v>27.208998840358724</v>
-      </c>
-      <c r="O6" s="17">
-        <v>27.917495168146797</v>
-      </c>
-      <c r="P6" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="s">
+      <c r="H6" s="18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I6" s="19" t="n">
+        <v>65.48473067616283</v>
+      </c>
+      <c r="J6" s="17" t="n">
+        <v>29.527439143090568</v>
+      </c>
+      <c r="K6" s="17" t="n">
+        <v>31.06247322296191</v>
+      </c>
+      <c r="L6" s="18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M6" s="17" t="n">
+        <v>61.66859076639979</v>
+      </c>
+      <c r="N6" s="17" t="n">
+        <v>27.227712337741174</v>
+      </c>
+      <c r="O6" s="17" t="n">
+        <v>27.93564500596954</v>
+      </c>
+      <c r="P6" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q6" t="s" s="0">
         <v>40</v>
       </c>
     </row>
@@ -13117,10 +13117,10 @@
       <c r="A9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>28</v>
       </c>
       <c r="D9" s="9" t="s">
@@ -13129,10 +13129,10 @@
       <c r="E9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" t="s" s="0">
         <v>28</v>
       </c>
       <c r="H9" s="9" t="s">
@@ -13141,22 +13141,22 @@
       <c r="I9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" t="s" s="0">
         <v>28</v>
       </c>
       <c r="L9" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O9" t="s" s="0">
         <v>28</v>
       </c>
       <c r="P9" s="6" t="s">
@@ -13164,123 +13164,123 @@
       </c>
     </row>
     <row r="10" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="4" t="n">
         <v>56.333333333333336</v>
       </c>
-      <c r="B10">
-        <v>34.379310344827587</v>
-      </c>
-      <c r="C10">
+      <c r="B10" t="n" s="0">
+        <v>34.37931034482759</v>
+      </c>
+      <c r="C10" t="n" s="0">
         <v>19.103448275862068</v>
       </c>
-      <c r="D10" s="9">
-        <v>0</v>
-      </c>
-      <c r="E10" s="11">
+      <c r="D10" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E10" s="11" t="n">
         <v>62.4</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n" s="0">
         <v>40.6</v>
       </c>
-      <c r="G10">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="H10" s="9">
-        <v>0</v>
+      <c r="G10" t="n" s="0">
+        <v>18.6</v>
+      </c>
+      <c r="H10" s="9" t="n">
+        <v>0.0</v>
       </c>
       <c r="I10" s="11" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="J10" t="e">
+      <c r="J10" t="e" s="0">
         <v>#NUM!</v>
       </c>
-      <c r="K10" t="e">
+      <c r="K10" t="e" s="0">
         <v>#NUM!</v>
       </c>
       <c r="L10" s="9" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="n" s="0">
         <v>44.2</v>
       </c>
-      <c r="N10">
+      <c r="N10" t="n" s="0">
         <v>20.555555555555557</v>
       </c>
-      <c r="O10">
-        <v>20.222222222222221</v>
-      </c>
-      <c r="P10" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="s">
+      <c r="O10" t="n" s="0">
+        <v>20.22222222222222</v>
+      </c>
+      <c r="P10" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q10" t="s" s="0">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>81.599999999999994</v>
-      </c>
-      <c r="B11">
+      <c r="A11" s="4" t="n">
+        <v>81.6</v>
+      </c>
+      <c r="B11" t="n" s="0">
         <v>41.111111111111114</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n" s="0">
         <v>39.666666666666664</v>
       </c>
-      <c r="D11" s="9">
-        <v>0</v>
+      <c r="D11" s="9" t="n">
+        <v>0.0</v>
       </c>
       <c r="E11" s="11" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="F11" t="e">
+      <c r="F11" t="e" s="0">
         <v>#NUM!</v>
       </c>
-      <c r="G11" t="e">
+      <c r="G11" t="e" s="0">
         <v>#NUM!</v>
       </c>
       <c r="H11" s="9" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="I11" s="11">
-        <v>80.777777777777771</v>
-      </c>
-      <c r="J11">
+      <c r="I11" s="11" t="n">
+        <v>80.77777777777777</v>
+      </c>
+      <c r="J11" t="n" s="0">
         <v>41.111111111111114</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="n" s="0">
         <v>39.666666666666664</v>
       </c>
-      <c r="L11" s="9">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>89</v>
-      </c>
-      <c r="N11" t="e">
+      <c r="L11" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M11" t="n" s="0">
+        <v>89.0</v>
+      </c>
+      <c r="N11" t="e" s="0">
         <v>#NUM!</v>
       </c>
-      <c r="O11" t="e">
+      <c r="O11" t="e" s="0">
         <v>#NUM!</v>
       </c>
-      <c r="P11" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="s">
+      <c r="P11" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q11" t="s" s="0">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
+      <c r="A12" s="8" t="n">
         <v>62.666666666666664</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="5" t="n">
         <v>26.5</v>
       </c>
-      <c r="C12" s="5">
-        <v>29</v>
-      </c>
-      <c r="D12" s="10">
-        <v>0</v>
+      <c r="C12" s="5" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="D12" s="10" t="n">
+        <v>0.0</v>
       </c>
       <c r="E12" s="12" t="e">
         <v>#NUM!</v>
@@ -13306,59 +13306,59 @@
       <c r="L12" s="10" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="5" t="n">
         <v>62.666666666666664</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12" s="5" t="n">
         <v>26.5</v>
       </c>
-      <c r="O12" s="5">
-        <v>29</v>
-      </c>
-      <c r="P12" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="s">
+      <c r="O12" s="5" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="P12" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q12" t="s" s="0">
         <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" t="s" s="0">
         <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" t="s" s="0">
         <v>1</v>
       </c>
     </row>
@@ -13399,7 +13399,7 @@
         <f>N6</f>
         <v>27.721477428199353</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M24" t="s" s="0">
         <v>17</v>
       </c>
     </row>
@@ -13440,82 +13440,82 @@
         <f>O6</f>
         <v>28.413885088933256</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M25" t="s" s="0">
         <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="0">
         <f>F10</f>
         <v>40.6</v>
       </c>
-      <c r="B27" t="e">
+      <c r="B27" t="e" s="0">
         <f>J10</f>
         <v>#NUM!</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="0">
         <f>N10</f>
         <v>29.666666666666668</v>
       </c>
-      <c r="E27" t="e">
+      <c r="E27" t="e" s="0">
         <f>F11</f>
         <v>#NUM!</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="0">
         <f>J11</f>
         <v>47.333333333333336</v>
       </c>
-      <c r="G27" t="e">
+      <c r="G27" t="e" s="0">
         <f>N11</f>
         <v>#NUM!</v>
       </c>
-      <c r="I27" t="e">
+      <c r="I27" t="e" s="0">
         <f>F12</f>
         <v>#NUM!</v>
       </c>
-      <c r="J27" t="e">
+      <c r="J27" t="e" s="0">
         <f>J12</f>
         <v>#NUM!</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="0">
         <f>N12</f>
         <v>26.5</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="0">
         <f>G10</f>
         <v>18.600000000000001</v>
       </c>
-      <c r="B28" t="e">
+      <c r="B28" t="e" s="0">
         <f>K10</f>
         <v>#NUM!</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="0">
         <f>O10</f>
         <v>27.666666666666668</v>
       </c>
-      <c r="E28" t="e">
+      <c r="E28" t="e" s="0">
         <f>G11</f>
         <v>#NUM!</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="0">
         <f>K11</f>
         <v>41</v>
       </c>
-      <c r="G28" t="e">
+      <c r="G28" t="e" s="0">
         <f>O11</f>
         <v>#NUM!</v>
       </c>
-      <c r="I28" t="e">
+      <c r="I28" t="e" s="0">
         <f>G12</f>
         <v>#NUM!</v>
       </c>
-      <c r="J28" t="e">
+      <c r="J28" t="e" s="0">
         <f>K12</f>
         <v>#NUM!</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="0">
         <f>O12</f>
         <v>29</v>
       </c>

--- a/Red Team Data.xlsx
+++ b/Red Team Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hallm\Desktop\FTCStats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Desktop\FTCStats\FTCStats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60E51AF-1214-4C30-9DA9-3EB6554A4C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D1CE56-142E-4324-83EC-F57492915371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{943F8BFE-BB93-4FCB-9D8B-2434F109755A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{943F8BFE-BB93-4FCB-9D8B-2434F109755A}"/>
   </bookViews>
   <sheets>
     <sheet name="Match Data" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="45">
   <si>
     <t>Cyrus</t>
   </si>
@@ -173,6 +173,9 @@
   <si>
     <t>Auto</t>
   </si>
+  <si>
+    <t>Added 30 points for an assumed good airplane; kept only 5 for parking, no hang</t>
+  </si>
 </sst>
 </file>
 
@@ -206,15 +209,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -404,11 +413,121 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -431,6 +550,17 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -439,6 +569,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -453,22 +595,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1066,8 +1196,123 @@
         <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Teleop</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Per Member Data'!$E$3:$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Bredan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Erin</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Luca</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Per Member Data'!$B$3:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>38.764560098463477</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50.772676371481538</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50.08888888780875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CD42-48CE-84EF-6AD5468B8874}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="1"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
             <c:v>Auton</c:v>
           </c:tx>
@@ -1163,13 +1408,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>20.041867954962004</c:v>
+                  <c:v>20.939281288620283</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.199063231848733</c:v>
+                  <c:v>43.011198207946414</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.000000000000004</c:v>
+                  <c:v>28.755555555566755</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1177,121 +1422,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-CD42-48CE-84EF-6AD5468B8874}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Teleop</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Per Member Data'!$E$3:$E$5</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Bredan</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Erin</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Luca</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Per Member Data'!$B$3:$B$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>31.95008051580869</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>63.32396565126863</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>26.500000000000007</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-CD42-48CE-84EF-6AD5468B8874}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1577,8 +1707,123 @@
         <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Teleop</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4472C4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Per Member Data'!$E$6:$E$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Mason</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Zoe</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cyrus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Per Member Data'!$B$6:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>40.453142226693522</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51.235079171484685</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.273972601126182</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FDBE-4159-8777-8C7A67663648}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
             <c:v>Auton</c:v>
           </c:tx>
@@ -1674,13 +1919,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>20.335570469740087</c:v>
+                  <c:v>21.082690187258269</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35.490765171584485</c:v>
+                  <c:v>44.678440925575764</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.738461538439012</c:v>
+                  <c:v>28.698630136977371</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1688,121 +1933,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-FDBE-4159-8777-8C7A67663648}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Teleop</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4472C4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Per Member Data'!$E$6:$E$8</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Mason</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Zoe</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Cyrus</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Per Member Data'!$B$6:$B$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>35.985234899598517</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>65.581354441018661</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>26.369230769219499</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FDBE-4159-8777-8C7A67663648}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2088,8 +2218,123 @@
         <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Teleop</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Per Member Data'!$E$9:$E$11</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Caleb</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Matt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Zach</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Per Member Data'!$B$9:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>48.061403507588665</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51.664036076415229</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.261744966510754</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1E44-4500-8116-2BEDEEFEE37F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="1"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
             <c:v>Auton</c:v>
           </c:tx>
@@ -2185,13 +2430,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>20.166666666666661</c:v>
+                  <c:v>26.3903508764386</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35.490765171584485</c:v>
+                  <c:v>41.949267192731156</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.110552763855971</c:v>
+                  <c:v>24.067114094025484</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2199,121 +2444,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1E44-4500-8116-2BEDEEFEE37F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Teleop</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Per Member Data'!$E$9:$E$11</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Caleb</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Matt</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Zach</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Per Member Data'!$B$9:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>38.166666666666643</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>65.581354441018661</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30.306532663354606</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1E44-4500-8116-2BEDEEFEE37F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2598,8 +2728,123 @@
         <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Teleop</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Drive Team Data'!$Q$4:$Q$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>B+M</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>E+Z</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>L+C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Drive Team Data'!$B$4:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>39.608851162578503</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51.003877771483111</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49.181430744467463</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-281A-4869-BADA-35E09581505F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="1"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
             <c:v>Auton</c:v>
           </c:tx>
@@ -2695,13 +2940,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>20.188719212351046</c:v>
+                  <c:v>21.010985737939276</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.844914201716605</c:v>
+                  <c:v>43.844819566761089</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.869230769219506</c:v>
+                  <c:v>28.727092846272065</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2709,121 +2954,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-281A-4869-BADA-35E09581505F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Teleop</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Drive Team Data'!$Q$4:$Q$6</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>B+M</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>E+Z</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>L+C</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Drive Team Data'!$B$4:$B$6</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>33.967657707703601</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>64.452660046143649</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>26.434615384609753</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-281A-4869-BADA-35E09581505F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3077,8 +3207,136 @@
         <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Drive Team Data'!$M$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Teleop</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Drive Team Data'!$A$22:$K$23</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Drive Team Data'!$A$22:$K$23</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="9"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Caleb</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Matt</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Zach</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Caleb</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Matt</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Zach</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Caleb</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Matt</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Zach</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>B+M</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>E+Z</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>L+C</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Drive Team Data'!$A$24:$K$24</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('Drive Team Data'!$A$24:$C$24,'Drive Team Data'!$E$24:$G$24,'Drive Team Data'!$I$24:$K$24)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>36.420041928942865</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.449866490276051</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.361127200283583</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45.759649122615542</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47.789473683948721</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44.70073439395626</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.780392156858635</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30.810216718191818</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27.721477428199353</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-05A6-44A2-AA23-BE9D98EF0F83}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="1"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>'Drive Team Data'!$M$25</c:f>
@@ -3201,134 +3459,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-05A6-44A2-AA23-BE9D98EF0F83}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Drive Team Data'!$M$24</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Teleop</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Drive Team Data'!$A$22:$K$23</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Drive Team Data'!$A$22:$K$23</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="9"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Caleb</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Matt</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Zach</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Caleb</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Matt</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Zach</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Caleb</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Matt</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Zach</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>B+M</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>E+Z</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>L+C</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Drive Team Data'!$A$24:$K$24</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>('Drive Team Data'!$A$24:$C$24,'Drive Team Data'!$E$24:$G$24,'Drive Team Data'!$I$24:$K$24)</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>36.420041928942865</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>38.449866490276051</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>35.361127200283583</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45.759649122615542</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>47.789473683948721</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44.70073439395626</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>28.780392156858635</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>30.810216718191818</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>27.721477428199353</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-05A6-44A2-AA23-BE9D98EF0F83}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3587,8 +3717,128 @@
         <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Teleop</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4472C4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Drive Team Data'!$A$22:$K$23</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Drive Team Data'!$A$22:$K$23</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="9"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Caleb</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Matt</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Zach</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Caleb</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Matt</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Zach</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Caleb</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Matt</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Zach</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>B+M</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>E+Z</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>L+C</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Drive Team Data'!$A$27:$K$27</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('Drive Team Data'!$A$27:$C$27,'Drive Team Data'!$E$27:$G$27,'Drive Team Data'!$I$27:$K$27)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>40.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2D4B-45BB-882E-36ED5E8AEC28}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
             <c:v>Auto</c:v>
           </c:tx>
@@ -3703,126 +3953,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2D4B-45BB-882E-36ED5E8AEC28}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Teleop</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4472C4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Drive Team Data'!$A$22:$K$23</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Drive Team Data'!$A$22:$K$23</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="9"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Caleb</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Matt</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Zach</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Caleb</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Matt</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Zach</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Caleb</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Matt</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Zach</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>B+M</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>E+Z</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>L+C</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Drive Team Data'!$A$27:$K$27</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>('Drive Team Data'!$A$27:$C$27,'Drive Team Data'!$E$27:$G$27,'Drive Team Data'!$I$27:$K$27)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>40.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>29.666666666666668</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>47.333333333333336</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>26.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2D4B-45BB-882E-36ED5E8AEC28}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4111,8 +4241,123 @@
         <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Teleop</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4472C4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Drive Team Data'!$Q$4:$Q$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>B+M</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>E+Z</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>L+C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Drive Team Data'!$B$10:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>38.073170731707314</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52.641509433962263</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8C47-4A07-81E2-2EA9F703C12F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
             <c:v>Auto</c:v>
           </c:tx>
@@ -4208,13 +4453,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>19.103448275862068</c:v>
+                  <c:v>19.951219512195124</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39.666666666666664</c:v>
+                  <c:v>46.358490566037737</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29</c:v>
+                  <c:v>28.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4222,121 +4467,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8C47-4A07-81E2-2EA9F703C12F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Teleop</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4472C4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Drive Team Data'!$Q$4:$Q$6</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>B+M</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>E+Z</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>L+C</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Drive Team Data'!$B$10:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>34.379310344827587</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>41.111111111111114</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>26.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8C47-4A07-81E2-2EA9F703C12F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10651,19 +10781,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E71918B-9D42-46BC-B578-CF08432FB725}">
-  <dimension ref="A1:Y31"/>
+  <dimension ref="A1:Y48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="108" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="108" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O47" sqref="O47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" customWidth="true" width="10.0"/>
-    <col min="5" max="5" customWidth="true" width="10.7109375"/>
+    <col min="5" max="5" customWidth="true" width="10.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -10692,7 +10822,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s" s="0">
         <v>30</v>
       </c>
@@ -10729,7 +10859,7 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s" s="0">
         <v>30</v>
       </c>
@@ -10758,7 +10888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s" s="0">
         <v>30</v>
       </c>
@@ -10788,7 +10918,7 @@
       </c>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s" s="0">
         <v>30</v>
       </c>
@@ -10817,7 +10947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s" s="0">
         <v>30</v>
       </c>
@@ -10846,7 +10976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s" s="0">
         <v>30</v>
       </c>
@@ -10875,7 +11005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s" s="0">
         <v>30</v>
       </c>
@@ -10904,7 +11034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s" s="0">
         <v>30</v>
       </c>
@@ -10934,7 +11064,7 @@
       </c>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s" s="0">
         <v>30</v>
       </c>
@@ -10963,7 +11093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s" s="0">
         <v>30</v>
       </c>
@@ -10992,7 +11122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s" s="0">
         <v>30</v>
       </c>
@@ -11023,7 +11153,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s" s="0">
         <v>31</v>
       </c>
@@ -11052,7 +11182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s" s="0">
         <v>31</v>
       </c>
@@ -11082,7 +11212,7 @@
       </c>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s" s="0">
         <v>31</v>
       </c>
@@ -11111,7 +11241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s" s="0">
         <v>31</v>
       </c>
@@ -11140,7 +11270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" t="s" s="0">
         <v>31</v>
       </c>
@@ -11169,7 +11299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" t="s" s="0">
         <v>31</v>
       </c>
@@ -11198,7 +11328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" t="s" s="0">
         <v>31</v>
       </c>
@@ -11227,7 +11357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" t="s" s="0">
         <v>31</v>
       </c>
@@ -11256,7 +11386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" t="s" s="0">
         <v>31</v>
       </c>
@@ -11288,7 +11418,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" t="s" s="0">
         <v>31</v>
       </c>
@@ -11320,7 +11450,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" t="s" s="0">
         <v>31</v>
       </c>
@@ -11352,7 +11482,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" t="s" s="0">
         <v>31</v>
       </c>
@@ -11384,7 +11514,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" t="s" s="0">
         <v>31</v>
       </c>
@@ -11416,7 +11546,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" t="s" s="0">
         <v>31</v>
       </c>
@@ -11447,31 +11577,543 @@
       <c r="K26" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="T26" s="22"/>
-      <c r="U26" s="22"/>
-      <c r="V26" s="22"/>
-      <c r="W26" s="22"/>
+      <c r="T26" s="33"/>
+      <c r="U26" s="33"/>
+      <c r="V26" s="33"/>
+      <c r="W26" s="33"/>
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B31" s="1"/>
-      <c r="T31" s="23"/>
-      <c r="U31" s="23"/>
-      <c r="V31" s="23"/>
-      <c r="W31" s="23"/>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A27" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B27" s="1">
+        <v>45255</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F27" s="22">
+        <v>75</v>
+      </c>
+      <c r="G27" s="22">
+        <v>45</v>
+      </c>
+      <c r="H27" s="0">
+        <v>30</v>
+      </c>
+      <c r="I27" s="0">
+        <v>0</v>
+      </c>
+      <c r="L27" s="22"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A28" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B28" s="1">
+        <v>45255</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F28" s="22">
+        <v>50</v>
+      </c>
+      <c r="G28" s="22">
+        <v>42</v>
+      </c>
+      <c r="H28" s="0">
+        <v>8</v>
+      </c>
+      <c r="I28" s="0">
+        <v>0</v>
+      </c>
+      <c r="L28" s="22"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A29" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B29" s="1">
+        <v>45255</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F29" s="22">
+        <v>82</v>
+      </c>
+      <c r="G29" s="22">
+        <v>54</v>
+      </c>
+      <c r="H29" s="0">
+        <v>28</v>
+      </c>
+      <c r="I29" s="0">
+        <v>0</v>
+      </c>
+      <c r="L29" s="22"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A30" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B30" s="1">
+        <v>45256</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F30" s="22">
+        <v>112</v>
+      </c>
+      <c r="G30" s="22">
+        <v>62</v>
+      </c>
+      <c r="H30" s="0">
+        <v>50</v>
+      </c>
+      <c r="I30" s="0">
+        <v>0</v>
+      </c>
+      <c r="L30" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A31" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>45256</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="F31" s="22">
+        <v>65</v>
+      </c>
+      <c r="G31" s="22">
+        <v>57</v>
+      </c>
+      <c r="H31" s="0">
+        <v>8</v>
+      </c>
+      <c r="I31" s="0">
+        <v>0</v>
+      </c>
+      <c r="L31" s="22"/>
+      <c r="T31" s="34"/>
+      <c r="U31" s="34"/>
+      <c r="V31" s="34"/>
+      <c r="W31" s="34"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A32" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1">
+        <v>45256</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F32" s="22">
+        <v>85</v>
+      </c>
+      <c r="G32" s="22">
+        <v>57</v>
+      </c>
+      <c r="H32" s="0">
+        <v>28</v>
+      </c>
+      <c r="I32" s="0">
+        <v>0</v>
+      </c>
+      <c r="L32" s="22"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B33" s="1">
+        <v>45256</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="F33" s="22">
+        <v>95</v>
+      </c>
+      <c r="G33" s="22">
+        <v>45</v>
+      </c>
+      <c r="H33" s="0">
+        <v>50</v>
+      </c>
+      <c r="I33" s="0">
+        <v>0</v>
+      </c>
+      <c r="L33" s="22"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B34" s="1">
+        <v>45256</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="E34" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="F34" s="22">
+        <v>95</v>
+      </c>
+      <c r="G34" s="22">
+        <v>45</v>
+      </c>
+      <c r="H34" s="0">
+        <v>50</v>
+      </c>
+      <c r="I34" s="0">
+        <v>0</v>
+      </c>
+      <c r="L34" s="22"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B35" s="1">
+        <v>45256</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="F35" s="22">
+        <v>110</v>
+      </c>
+      <c r="G35" s="22">
+        <v>60</v>
+      </c>
+      <c r="H35" s="0">
+        <v>50</v>
+      </c>
+      <c r="I35" s="0">
+        <v>0</v>
+      </c>
+      <c r="L35" s="22"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B36" s="1">
+        <v>45256</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="F36" s="22">
+        <v>109</v>
+      </c>
+      <c r="G36" s="22">
+        <v>59</v>
+      </c>
+      <c r="H36" s="0">
+        <v>50</v>
+      </c>
+      <c r="I36" s="0">
+        <v>0</v>
+      </c>
+      <c r="L36" s="22"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B37" s="1">
+        <v>45256</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="E37" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="F37" s="22">
+        <v>107</v>
+      </c>
+      <c r="G37" s="22">
+        <v>57</v>
+      </c>
+      <c r="H37" s="0">
+        <v>50</v>
+      </c>
+      <c r="I37" s="0">
+        <v>0</v>
+      </c>
+      <c r="L37" s="22"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B38" s="1">
+        <v>45256</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="E38" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="F38" s="22">
+        <v>97</v>
+      </c>
+      <c r="G38" s="22">
+        <v>47</v>
+      </c>
+      <c r="H38" s="0">
+        <v>50</v>
+      </c>
+      <c r="I38" s="0">
+        <v>0</v>
+      </c>
+      <c r="L38" s="22"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B39" s="1">
+        <v>45256</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D39" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="E39" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="F39" s="22">
+        <v>101</v>
+      </c>
+      <c r="G39" s="22">
+        <v>51</v>
+      </c>
+      <c r="H39" s="0">
+        <v>50</v>
+      </c>
+      <c r="I39" s="0">
+        <v>0</v>
+      </c>
+      <c r="L39" s="22"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B40" s="1">
+        <v>45256</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D40" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="E40" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="F40" s="22">
+        <v>88</v>
+      </c>
+      <c r="G40" s="22">
+        <v>43</v>
+      </c>
+      <c r="H40" s="0">
+        <v>45</v>
+      </c>
+      <c r="I40" s="0">
+        <v>0</v>
+      </c>
+      <c r="L40" s="22"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B41" s="1">
+        <v>45256</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D41" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="E41" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="F41" s="22">
+        <v>125</v>
+      </c>
+      <c r="G41" s="22">
+        <v>75</v>
+      </c>
+      <c r="H41" s="0">
+        <v>50</v>
+      </c>
+      <c r="I41" s="0">
+        <v>0</v>
+      </c>
+      <c r="L41" s="22"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B42" s="1">
+        <v>45256</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D42" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="F42" s="22">
+        <v>100</v>
+      </c>
+      <c r="G42" s="22">
+        <v>70</v>
+      </c>
+      <c r="H42" s="0">
+        <v>30</v>
+      </c>
+      <c r="I42" s="0">
+        <v>0</v>
+      </c>
+      <c r="L42" s="22"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B43" s="1">
+        <v>45256</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D43" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="E43" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="F43" s="22">
+        <v>103</v>
+      </c>
+      <c r="G43" s="22">
+        <v>53</v>
+      </c>
+      <c r="H43" s="0">
+        <v>50</v>
+      </c>
+      <c r="I43" s="0">
+        <v>0</v>
+      </c>
+      <c r="L43" s="22"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B48" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -11491,13 +12133,13 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" customWidth="true" width="10.0"/>
-    <col min="5" max="5" customWidth="true" width="10.7109375"/>
+    <col min="5" max="5" customWidth="true" width="10.6640625"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -11530,7 +12172,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45237</v>
       </c>
@@ -11547,7 +12189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45237</v>
       </c>
@@ -11573,7 +12215,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45237</v>
       </c>
@@ -11601,7 +12243,7 @@
         <v>42.428571428571431</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45238</v>
       </c>
@@ -11629,7 +12271,7 @@
         <v>57.333333333333336</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45238</v>
       </c>
@@ -11657,7 +12299,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45238</v>
       </c>
@@ -11674,7 +12316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>45238</v>
       </c>
@@ -11694,7 +12336,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>45238</v>
       </c>
@@ -11710,12 +12352,12 @@
       <c r="E10" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="H10" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
       <c r="M10" t="s" s="0">
         <v>0</v>
       </c>
@@ -11728,7 +12370,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>45238</v>
       </c>
@@ -11744,14 +12386,14 @@
       <c r="E11" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="H11" s="22" t="s">
+      <c r="H11" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="22"/>
-      <c r="J11" s="24" t="s">
+      <c r="I11" s="33"/>
+      <c r="J11" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="22"/>
+      <c r="K11" s="33"/>
       <c r="M11" t="s" s="0">
         <v>9</v>
       </c>
@@ -11764,7 +12406,7 @@
         <v>45.166666666666664</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="H12" s="2" t="s">
         <v>23</v>
       </c>
@@ -11789,7 +12431,7 @@
         <v>57.333333333333336</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>45237</v>
       </c>
@@ -11825,7 +12467,7 @@
         <v>57.333333333333336</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>45238</v>
       </c>
@@ -11864,7 +12506,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>45234</v>
       </c>
@@ -11911,7 +12553,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>45234</v>
       </c>
@@ -11958,7 +12600,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>45234</v>
       </c>
@@ -12005,7 +12647,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>45234</v>
       </c>
@@ -12041,7 +12683,7 @@
         <v>34.214285714285715</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>45234</v>
       </c>
@@ -12077,7 +12719,7 @@
         <v>57.333333333333336</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>45234</v>
       </c>
@@ -12113,7 +12755,7 @@
         <v>43.797619047619051</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>45234</v>
       </c>
@@ -12149,7 +12791,7 @@
         <v>43.797619047619051</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>45234</v>
       </c>
@@ -12185,7 +12827,7 @@
         <v>43.797619047619051</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>45234</v>
       </c>
@@ -12221,13 +12863,13 @@
         <v>43.797619047619051</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="T27" s="22" t="s">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="T27" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="U27" s="22"/>
-      <c r="V27" s="22"/>
-      <c r="W27" s="22"/>
+      <c r="U27" s="33"/>
+      <c r="V27" s="33"/>
+      <c r="W27" s="33"/>
       <c r="X27" s="2" t="s">
         <v>23</v>
       </c>
@@ -12235,7 +12877,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="T28" s="0">
         <v>1</v>
       </c>
@@ -12257,7 +12899,7 @@
         <v>40.333333333333336</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="T29" s="0">
         <v>2</v>
       </c>
@@ -12279,7 +12921,7 @@
         <v>48.198412698412703</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="T30" s="0">
         <v>3</v>
       </c>
@@ -12301,15 +12943,15 @@
         <v>53.166666666666664</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="T32" s="22" t="s">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="T32" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="U32" s="22"/>
-      <c r="V32" s="22"/>
-      <c r="W32" s="22"/>
-    </row>
-    <row r="33" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="U32" s="33"/>
+      <c r="V32" s="33"/>
+      <c r="W32" s="33"/>
+    </row>
+    <row r="33" spans="20:25" x14ac:dyDescent="0.3">
       <c r="T33" s="0">
         <v>1</v>
       </c>
@@ -12331,7 +12973,7 @@
         <v>40.333333333333336</v>
       </c>
     </row>
-    <row r="34" spans="20:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="20:25" x14ac:dyDescent="0.3">
       <c r="T34" s="0">
         <v>2</v>
       </c>
@@ -12353,7 +12995,7 @@
         <v>42.531746031746032</v>
       </c>
     </row>
-    <row r="35" spans="20:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="20:25" x14ac:dyDescent="0.3">
       <c r="T35" s="0">
         <v>3</v>
       </c>
@@ -12393,193 +13035,193 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
       <c r="E1" s="3"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s" s="0">
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" s="24" t="s">
         <v>36</v>
       </c>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="n" s="0">
-        <v>59.5270508478269</v>
-      </c>
-      <c r="B3" t="n" s="0">
-        <v>32.03450489538631</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>20.1428342160633</v>
-      </c>
-      <c r="D3" t="n" s="0">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="n">
+        <v>63.04653802464488</v>
+      </c>
+      <c r="B3" s="26" t="n">
+        <v>38.764560098463484</v>
+      </c>
+      <c r="C3" s="26" t="n">
+        <v>20.939281288620293</v>
+      </c>
+      <c r="D3" s="23" t="n">
         <v>0.0</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="n" s="0">
-        <v>75.84946236580235</v>
-      </c>
-      <c r="B4" t="n" s="0">
-        <v>43.87428571409823</v>
-      </c>
-      <c r="C4" t="n" s="0">
-        <v>31.14857142897671</v>
-      </c>
-      <c r="D4" t="n" s="0">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="n">
+        <v>98.56542055987764</v>
+      </c>
+      <c r="B4" s="30" t="n">
+        <v>53.40400471101017</v>
+      </c>
+      <c r="C4" s="30" t="n">
+        <v>45.24028268506923</v>
+      </c>
+      <c r="D4" s="29" t="n">
         <v>0.0</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="n" s="0">
-        <v>61.64258262895983</v>
-      </c>
-      <c r="B5" t="n" s="0">
-        <v>26.500000000000007</v>
-      </c>
-      <c r="C5" t="n" s="0">
-        <v>29.000000000000004</v>
-      </c>
-      <c r="D5" t="n" s="0">
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="31" t="n">
+        <v>78.84931506750885</v>
+      </c>
+      <c r="B5" s="32" t="n">
+        <v>50.08888888780873</v>
+      </c>
+      <c r="C5" s="32" t="n">
+        <v>28.755555555566744</v>
+      </c>
+      <c r="D5" s="31" t="n">
         <v>0.0</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="n" s="0">
-        <v>57.72040842080632</v>
-      </c>
-      <c r="B6" t="n" s="0">
-        <v>36.04430464489396</v>
-      </c>
-      <c r="C6" t="n" s="0">
-        <v>20.41895328597979</v>
-      </c>
-      <c r="D6" t="n" s="0">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="n">
+        <v>62.061899679414424</v>
+      </c>
+      <c r="B6" s="26" t="n">
+        <v>40.45314222669349</v>
+      </c>
+      <c r="C6" s="26" t="n">
+        <v>21.08269018725826</v>
+      </c>
+      <c r="D6" s="23" t="n">
         <v>0.0</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="n" s="0">
-        <v>87.44226498854837</v>
-      </c>
-      <c r="B7" t="n" s="0">
-        <v>41.89873417701383</v>
-      </c>
-      <c r="C7" t="n" s="0">
-        <v>39.83544303793153</v>
-      </c>
-      <c r="D7" t="n" s="0">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="n">
+        <v>101.08671586657731</v>
+      </c>
+      <c r="B7" s="30" t="n">
+        <v>54.13642213607548</v>
+      </c>
+      <c r="C7" s="30" t="n">
+        <v>47.20849420829709</v>
+      </c>
+      <c r="D7" s="29" t="n">
         <v>0.0</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="n" s="0">
-        <v>61.20215545397455</v>
-      </c>
-      <c r="B8" t="n" s="0">
-        <v>26.3692307692195</v>
-      </c>
-      <c r="C8" t="n" s="0">
-        <v>28.73846153843901</v>
-      </c>
-      <c r="D8" t="n" s="0">
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="31" t="n">
+        <v>77.87785016147298</v>
+      </c>
+      <c r="B8" s="32" t="n">
+        <v>48.273972601126175</v>
+      </c>
+      <c r="C8" s="32" t="n">
+        <v>28.69863013697737</v>
+      </c>
+      <c r="D8" s="31" t="n">
         <v>0.0</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="n" s="0">
-        <v>60.999999999999986</v>
-      </c>
-      <c r="B9" t="n" s="0">
-        <v>38.16666666666664</v>
-      </c>
-      <c r="C9" t="n" s="0">
-        <v>20.16666666666666</v>
-      </c>
-      <c r="D9" t="n" s="0">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="n">
+        <v>75.22368420881257</v>
+      </c>
+      <c r="B9" s="26" t="n">
+        <v>48.06140350758862</v>
+      </c>
+      <c r="C9" s="26" t="n">
+        <v>26.390350876438607</v>
+      </c>
+      <c r="D9" s="23" t="n">
         <v>0.0</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="n" s="0">
-        <v>81.73417721494539</v>
-      </c>
-      <c r="B10" t="n" s="0">
-        <v>41.89873417701383</v>
-      </c>
-      <c r="C10" t="n" s="0">
-        <v>39.83544303793153</v>
-      </c>
-      <c r="D10" t="n" s="0">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="29" t="n">
+        <v>98.49940687975642</v>
+      </c>
+      <c r="B10" s="30" t="n">
+        <v>54.36061684427774</v>
+      </c>
+      <c r="C10" s="30" t="n">
+        <v>44.138790035478664</v>
+      </c>
+      <c r="D10" s="29" t="n">
         <v>0.0</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="n" s="0">
-        <v>62.65347766613021</v>
-      </c>
-      <c r="B11" t="n" s="0">
-        <v>30.400100150266862</v>
-      </c>
-      <c r="C11" t="n" s="0">
-        <v>24.201301952969676</v>
-      </c>
-      <c r="D11" t="n" s="0">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="27" t="n">
+        <v>61.59240069143186</v>
+      </c>
+      <c r="B11" s="28" t="n">
+        <v>30.261744966510754</v>
+      </c>
+      <c r="C11" s="28" t="n">
+        <v>24.067114094025488</v>
+      </c>
+      <c r="D11" s="27" t="n">
         <v>0.0</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s" s="0">
         <v>35</v>
       </c>
@@ -12589,6 +13231,18 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:A5">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:A8">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -12600,7 +13254,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:A8">
+  <conditionalFormatting sqref="A9:A11">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -12612,8 +13266,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:A11">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="B3:B5">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12624,7 +13278,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B5">
+  <conditionalFormatting sqref="B6:B8">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -12636,7 +13290,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B8">
+  <conditionalFormatting sqref="B9:B11">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -12648,8 +13302,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9:B11">
-    <cfRule type="colorScale" priority="5">
+  <conditionalFormatting sqref="C3:C5">
+    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12660,7 +13314,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C5">
+  <conditionalFormatting sqref="C6:C8">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -12672,20 +13326,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6:C8">
+  <conditionalFormatting sqref="C9:C11">
     <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9:C11">
-    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12702,9 +13344,9 @@
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -12714,9 +13356,9 @@
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -12726,9 +13368,9 @@
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -12744,37 +13386,37 @@
       <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" bestFit="true" customWidth="true" width="9.5703125"/>
+    <col min="1" max="3" bestFit="true" customWidth="true" width="9.5546875"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="9.0"/>
-    <col min="5" max="7" bestFit="true" customWidth="true" width="9.5703125"/>
+    <col min="5" max="7" bestFit="true" customWidth="true" width="9.5546875"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="9.0"/>
-    <col min="9" max="11" bestFit="true" customWidth="true" width="9.5703125"/>
+    <col min="9" max="11" bestFit="true" customWidth="true" width="9.5546875"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="9.0"/>
-    <col min="13" max="15" bestFit="true" customWidth="true" width="9.5703125"/>
+    <col min="13" max="15" bestFit="true" customWidth="true" width="9.5546875"/>
     <col min="16" max="16" bestFit="true" customWidth="true" width="9.0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:64" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="27"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="42"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
@@ -12824,41 +13466,41 @@
       <c r="BK1" s="2"/>
       <c r="BL1" s="2"/>
     </row>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A2" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="32" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="32" t="s">
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="30" t="s">
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="35"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="22"/>
-    </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="40"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="33"/>
+    </row>
+    <row r="3" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A3" t="s" s="0">
         <v>23</v>
       </c>
@@ -12908,51 +13550,51 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="n">
-        <v>58.62372963431661</v>
+        <v>62.55421885202965</v>
       </c>
       <c r="B4" s="13" t="n">
-        <v>34.03940477014014</v>
+        <v>39.60885116257849</v>
       </c>
       <c r="C4" s="13" t="n">
-        <v>20.280893751021544</v>
+        <v>21.01098573793928</v>
       </c>
       <c r="D4" s="14" t="n">
         <v>0.0</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>59.098983707453286</v>
+        <v>65.08811192338624</v>
       </c>
       <c r="F4" s="13" t="n">
-        <v>34.864857149445434</v>
+        <v>41.29936163158052</v>
       </c>
       <c r="G4" s="13" t="n">
-        <v>20.258048334150565</v>
+        <v>22.086858765639143</v>
       </c>
       <c r="H4" s="14" t="n">
         <v>0.0</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>63.245819150442365</v>
+        <v>69.743256457575</v>
       </c>
       <c r="J4" s="13" t="n">
-        <v>35.61127065151488</v>
+        <v>42.55920429891834</v>
       </c>
       <c r="K4" s="13" t="n">
-        <v>24.19180360840354</v>
+        <v>25.636546597447158</v>
       </c>
       <c r="L4" s="14" t="n">
         <v>0.0</v>
       </c>
       <c r="M4" s="13" t="n">
-        <v>59.429679240679334</v>
+        <v>62.36185521991009</v>
       </c>
       <c r="N4" s="13" t="n">
-        <v>33.311543846165485</v>
+        <v>37.73942992336494</v>
       </c>
       <c r="O4" s="13" t="n">
-        <v>21.06497539141117</v>
+        <v>21.62221140915652</v>
       </c>
       <c r="P4" s="16" t="n">
         <v>0.0</v>
@@ -12961,51 +13603,51 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="n">
-        <v>81.64586367717536</v>
+        <v>99.82606821322747</v>
       </c>
       <c r="B5" s="13" t="n">
-        <v>42.88650994555603</v>
+        <v>53.77021342354283</v>
       </c>
       <c r="C5" s="13" t="n">
-        <v>35.49200723345412</v>
+        <v>46.224388446683164</v>
       </c>
       <c r="D5" s="14" t="n">
         <v>0.0</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>77.51669094174028</v>
+        <v>94.90559141234449</v>
       </c>
       <c r="F5" s="13" t="n">
-        <v>41.94254128977815</v>
+        <v>52.62845144035199</v>
       </c>
       <c r="G5" s="13" t="n">
-        <v>32.42693912009663</v>
+        <v>42.257580932634255</v>
       </c>
       <c r="H5" s="14" t="n">
         <v>0.0</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>81.66352638472935</v>
+        <v>99.56073594653326</v>
       </c>
       <c r="J5" s="13" t="n">
-        <v>42.68895479184759</v>
+        <v>53.88829410768981</v>
       </c>
       <c r="K5" s="13" t="n">
-        <v>36.3606943943496</v>
+        <v>45.80726876444227</v>
       </c>
       <c r="L5" s="14" t="n">
         <v>0.0</v>
       </c>
       <c r="M5" s="13" t="n">
-        <v>77.84738647496633</v>
+        <v>92.17933470886835</v>
       </c>
       <c r="N5" s="13" t="n">
-        <v>40.3892279864982</v>
+        <v>49.06851973213641</v>
       </c>
       <c r="O5" s="13" t="n">
-        <v>33.23386617735723</v>
+        <v>41.79293357615163</v>
       </c>
       <c r="P5" s="16" t="n">
         <v>0.0</v>
@@ -13014,51 +13656,51 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="n">
-        <v>61.42236904146719</v>
+        <v>78.36358261449092</v>
       </c>
       <c r="B6" s="17" t="n">
-        <v>26.434615384609753</v>
+        <v>49.18143074446745</v>
       </c>
       <c r="C6" s="17" t="n">
-        <v>28.869230769219506</v>
+        <v>28.727092846272058</v>
       </c>
       <c r="D6" s="18" t="n">
         <v>0.0</v>
       </c>
       <c r="E6" s="19" t="n">
-        <v>61.337895233173754</v>
+        <v>77.73560293335525</v>
       </c>
       <c r="F6" s="17" t="n">
-        <v>28.78102564102113</v>
+        <v>48.95742529709169</v>
       </c>
       <c r="G6" s="17" t="n">
-        <v>27.128717948708935</v>
+        <v>28.25974445230537</v>
       </c>
       <c r="H6" s="18" t="n">
         <v>0.0</v>
       </c>
       <c r="I6" s="19" t="n">
-        <v>65.48473067616283</v>
+        <v>82.39074746754402</v>
       </c>
       <c r="J6" s="17" t="n">
-        <v>29.527439143090568</v>
+        <v>50.2172679644295</v>
       </c>
       <c r="K6" s="17" t="n">
-        <v>31.06247322296191</v>
+        <v>31.80943228411338</v>
       </c>
       <c r="L6" s="18" t="n">
         <v>0.0</v>
       </c>
       <c r="M6" s="17" t="n">
-        <v>61.66859076639979</v>
+        <v>75.00934622987911</v>
       </c>
       <c r="N6" s="17" t="n">
-        <v>27.227712337741174</v>
+        <v>45.39749358887611</v>
       </c>
       <c r="O6" s="17" t="n">
-        <v>27.93564500596954</v>
+        <v>27.795097095822747</v>
       </c>
       <c r="P6" s="20" t="n">
         <v>0.0</v>
@@ -13067,53 +13709,53 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:64" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+    <row r="7" spans="1:64" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="27"/>
-    </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="42"/>
+    </row>
+    <row r="8" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A8" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="32" t="s">
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="32" t="s">
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="30" t="s">
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="34"/>
-    </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="46"/>
+    </row>
+    <row r="9" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>23</v>
       </c>
@@ -13163,27 +13805,27 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="n">
-        <v>56.333333333333336</v>
+        <v>59.95238095238095</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>34.37931034482759</v>
+        <v>38.073170731707314</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>19.103448275862068</v>
+        <v>19.951219512195124</v>
       </c>
       <c r="D10" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="E10" s="11" t="n">
-        <v>62.4</v>
+        <v>64.875</v>
       </c>
       <c r="F10" t="n" s="0">
-        <v>40.6</v>
+        <v>43.0</v>
       </c>
       <c r="G10" t="n" s="0">
-        <v>18.6</v>
+        <v>19.875</v>
       </c>
       <c r="H10" s="9" t="n">
         <v>0.0</v>
@@ -13216,15 +13858,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="n">
-        <v>81.6</v>
+        <v>98.81481481481481</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>41.111111111111114</v>
+        <v>52.64150943396226</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>39.666666666666664</v>
+        <v>46.35849056603774</v>
       </c>
       <c r="D11" s="9" t="n">
         <v>0.0</v>
@@ -13242,13 +13884,13 @@
         <v>#NUM!</v>
       </c>
       <c r="I11" s="11" t="n">
-        <v>80.77777777777777</v>
+        <v>99.0</v>
       </c>
       <c r="J11" t="n" s="0">
-        <v>41.111111111111114</v>
+        <v>52.64150943396226</v>
       </c>
       <c r="K11" t="n" s="0">
-        <v>39.666666666666664</v>
+        <v>46.35849056603774</v>
       </c>
       <c r="L11" s="9" t="n">
         <v>0.0</v>
@@ -13269,42 +13911,42 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="n">
-        <v>62.666666666666664</v>
+        <v>76.76190476190476</v>
       </c>
       <c r="B12" s="5" t="n">
-        <v>26.5</v>
+        <v>45.8</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>29.0</v>
+        <v>28.8</v>
       </c>
       <c r="D12" s="10" t="n">
         <v>0.0</v>
       </c>
-      <c r="E12" s="12" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F12" s="5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G12" s="5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H12" s="10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I12" s="12" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J12" s="5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K12" s="5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="L12" s="10" t="e">
-        <v>#NUM!</v>
+      <c r="E12" s="12" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="H12" s="10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I12" s="12" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="L12" s="10" t="n">
+        <v>0.0</v>
       </c>
       <c r="M12" s="5" t="n">
         <v>62.666666666666664</v>
@@ -13322,7 +13964,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s" s="0">
         <v>38</v>
       </c>
@@ -13333,7 +13975,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s" s="0">
         <v>10</v>
       </c>
@@ -13362,7 +14004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="13">
         <f>F4</f>
         <v>36.420041928942865</v>
@@ -13403,7 +14045,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="13">
         <f>G4</f>
         <v>22.205828092195425</v>
@@ -13444,7 +14086,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="0">
         <f>F10</f>
         <v>40.6</v>
@@ -13482,7 +14124,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="0">
         <f>G10</f>
         <v>18.600000000000001</v>
@@ -13522,18 +14164,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A7:P7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="M8:P8"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="Y2:AB2"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="I2:L2"/>
     <mergeCell ref="M2:P2"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A7:P7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="M8:P8"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:A6">
     <cfRule type="colorScale" priority="11">
@@ -13617,7 +14259,127 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5 I5 M5">
+  <conditionalFormatting sqref="E4 I4 M4">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6 I6 M6">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10 I10 M10">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12 I12 M12">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5 N5 J5">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11 J11 N11">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4 O4 K4">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6 K6 O6">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10 K10 O10">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12 K12 O12">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5 E5 M5">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -13629,7 +14391,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11 I11 M11">
+  <conditionalFormatting sqref="I11 E11 M11">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -13641,7 +14403,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4 J4 N4">
+  <conditionalFormatting sqref="J4 F4 N4">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -13653,7 +14415,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6 J6 N6">
+  <conditionalFormatting sqref="J6 F6 N6">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -13665,7 +14427,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F10 J10 N10">
+  <conditionalFormatting sqref="J10 F10 N10">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -13677,7 +14439,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F12 J12 N12">
+  <conditionalFormatting sqref="J12 F12 N12">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -13689,7 +14451,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5 K5 O5">
+  <conditionalFormatting sqref="K5 G5 O5">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -13701,128 +14463,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G11 K11 O11">
+  <conditionalFormatting sqref="K11 G11 O11">
     <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4 E4 M4">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I6 E6 M6">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I10 E10 M10">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12 E12 M12">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11 F11 N11">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K6 G6 O6">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K10 G10 O10">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K12 G12 O12">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N5 F5 J5">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O4 G4 K4">
-    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13842,176 +14484,176 @@
   <dimension ref="H1:S42"/>
   <sheetViews>
     <sheetView zoomScale="84" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+      <selection activeCell="AA4" sqref="AA4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H1" s="21"/>
       <c r="S1" s="21"/>
     </row>
-    <row r="2" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H2" s="21"/>
       <c r="S2" s="21"/>
     </row>
-    <row r="3" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H3" s="21"/>
       <c r="S3" s="21"/>
     </row>
-    <row r="4" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H4" s="21"/>
       <c r="S4" s="21"/>
     </row>
-    <row r="5" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H5" s="21"/>
       <c r="S5" s="21"/>
     </row>
-    <row r="6" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H6" s="21"/>
       <c r="S6" s="21"/>
     </row>
-    <row r="7" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H7" s="21"/>
       <c r="S7" s="21"/>
     </row>
-    <row r="8" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H8" s="21"/>
       <c r="S8" s="21"/>
     </row>
-    <row r="9" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H9" s="21"/>
       <c r="S9" s="21"/>
     </row>
-    <row r="10" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H10" s="21"/>
       <c r="S10" s="21"/>
     </row>
-    <row r="11" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H11" s="21"/>
       <c r="S11" s="21"/>
     </row>
-    <row r="12" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H12" s="21"/>
       <c r="S12" s="21"/>
     </row>
-    <row r="13" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H13" s="21"/>
       <c r="S13" s="21"/>
     </row>
-    <row r="14" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H14" s="21"/>
       <c r="S14" s="21"/>
     </row>
-    <row r="15" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H15" s="21"/>
       <c r="S15" s="21"/>
     </row>
-    <row r="16" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H16" s="21"/>
       <c r="S16" s="21"/>
     </row>
-    <row r="17" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H17" s="21"/>
       <c r="S17" s="21"/>
     </row>
-    <row r="18" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H18" s="21"/>
       <c r="S18" s="21"/>
     </row>
-    <row r="19" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H19" s="21"/>
       <c r="S19" s="21"/>
     </row>
-    <row r="20" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H20" s="21"/>
       <c r="S20" s="21"/>
     </row>
-    <row r="21" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H21" s="21"/>
       <c r="S21" s="21"/>
     </row>
-    <row r="22" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H22" s="21"/>
       <c r="S22" s="21"/>
     </row>
-    <row r="23" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H23" s="21"/>
       <c r="S23" s="21"/>
     </row>
-    <row r="24" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H24" s="21"/>
       <c r="S24" s="21"/>
     </row>
-    <row r="25" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H25" s="21"/>
       <c r="S25" s="21"/>
     </row>
-    <row r="26" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H26" s="21"/>
       <c r="S26" s="21"/>
     </row>
-    <row r="27" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H27" s="21"/>
       <c r="S27" s="21"/>
     </row>
-    <row r="28" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H28" s="21"/>
       <c r="S28" s="21"/>
     </row>
-    <row r="29" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H29" s="21"/>
       <c r="S29" s="21"/>
     </row>
-    <row r="30" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H30" s="21"/>
       <c r="S30" s="21"/>
     </row>
-    <row r="31" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H31" s="21"/>
       <c r="S31" s="21"/>
     </row>
-    <row r="32" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H32" s="21"/>
       <c r="S32" s="21"/>
     </row>
-    <row r="33" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H33" s="21"/>
       <c r="S33" s="21"/>
     </row>
-    <row r="34" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H34" s="21"/>
       <c r="S34" s="21"/>
     </row>
-    <row r="35" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H35" s="21"/>
       <c r="S35" s="21"/>
     </row>
-    <row r="36" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H36" s="21"/>
       <c r="S36" s="21"/>
     </row>
-    <row r="37" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H37" s="21"/>
       <c r="S37" s="21"/>
     </row>
-    <row r="38" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H38" s="21"/>
       <c r="S38" s="21"/>
     </row>
-    <row r="39" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H39" s="21"/>
       <c r="S39" s="21"/>
     </row>
-    <row r="40" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H40" s="21"/>
       <c r="S40" s="21"/>
     </row>
-    <row r="41" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H41" s="21"/>
       <c r="S41" s="21"/>
     </row>
-    <row r="42" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="8:19" x14ac:dyDescent="0.3">
       <c r="S42" s="21"/>
     </row>
   </sheetData>

--- a/Red Team Data.xlsx
+++ b/Red Team Data.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Desktop\FTCStats\FTCStats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D1CE56-142E-4324-83EC-F57492915371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3085CBA-D30F-4756-9846-A3D9B6F45B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{943F8BFE-BB93-4FCB-9D8B-2434F109755A}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -571,18 +571,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -595,10 +583,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1293,13 +1293,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>38.764560098463477</c:v>
+                  <c:v>38.764560098463484</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.772676371481538</c:v>
+                  <c:v>40.446030330182737</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50.08888888780875</c:v>
+                  <c:v>50.088888887808729</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1408,13 +1408,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>20.939281288620283</c:v>
+                  <c:v>20.939281288620293</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43.011198207946414</c:v>
+                  <c:v>34.263157894769414</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.755555555566755</c:v>
+                  <c:v>28.755555555566744</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1804,13 +1804,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>40.453142226693522</c:v>
+                  <c:v>40.453142226693487</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51.235079171484685</c:v>
+                  <c:v>40.099142040113222</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48.273972601126182</c:v>
+                  <c:v>48.273972601126175</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1919,10 +1919,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>21.082690187258269</c:v>
+                  <c:v>21.082690187258262</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44.678440925575764</c:v>
+                  <c:v>34.967588179361691</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>28.698630136977371</c:v>
@@ -2315,10 +2315,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>48.061403507588665</c:v>
+                  <c:v>48.061403507588622</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51.664036076415229</c:v>
+                  <c:v>41.099551569560809</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>30.261744966510754</c:v>
@@ -2430,13 +2430,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>26.3903508764386</c:v>
+                  <c:v>26.390350876438607</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41.949267192731156</c:v>
+                  <c:v>33.371300448591789</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.067114094025484</c:v>
+                  <c:v>24.067114094025488</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2825,13 +2825,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>39.608851162578503</c:v>
+                  <c:v>39.608851162578489</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51.003877771483111</c:v>
+                  <c:v>40.272586185147979</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49.181430744467463</c:v>
+                  <c:v>49.181430744467448</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2940,13 +2940,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>21.010985737939276</c:v>
+                  <c:v>21.010985737939279</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43.844819566761089</c:v>
+                  <c:v>34.615373037065552</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.727092846272065</c:v>
+                  <c:v>28.727092846272058</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4341,7 +4341,7 @@
                   <c:v>38.073170731707314</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52.641509433962263</c:v>
+                  <c:v>40.434782608695649</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>45.8</c:v>
@@ -4456,7 +4456,7 @@
                   <c:v>19.951219512195124</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46.358490566037737</c:v>
+                  <c:v>35.608695652173914</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>28.8</c:v>
@@ -10784,13 +10784,13 @@
   <dimension ref="A1:Y48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" zoomScale="108" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O47" sqref="O47"/>
+      <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="10.0"/>
-    <col min="5" max="5" customWidth="true" width="10.6640625"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
@@ -10823,31 +10823,31 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="1">
         <v>45237</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="0">
+      <c r="F2">
         <v>106</v>
       </c>
-      <c r="G2" s="0">
+      <c r="G2">
         <v>-1</v>
       </c>
-      <c r="H2" s="0">
+      <c r="H2">
         <v>-1</v>
       </c>
-      <c r="I2" s="0">
+      <c r="I2">
         <v>0</v>
       </c>
       <c r="M2" s="2"/>
@@ -10860,721 +10860,721 @@
       <c r="T2" s="2"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>30</v>
       </c>
       <c r="B3" s="1">
         <v>45237</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s" s="0">
+      <c r="E3" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="0">
+      <c r="F3">
         <v>83</v>
       </c>
-      <c r="G3" s="0">
+      <c r="G3">
         <v>-1</v>
       </c>
-      <c r="H3" s="0">
+      <c r="H3">
         <v>-1</v>
       </c>
-      <c r="I3" s="0">
+      <c r="I3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="1">
         <v>45237</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" t="s" s="0">
+      <c r="E4" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="0">
+      <c r="F4">
         <v>89</v>
       </c>
-      <c r="G4" s="0">
+      <c r="G4">
         <v>-1</v>
       </c>
-      <c r="H4" s="0">
+      <c r="H4">
         <v>-1</v>
       </c>
-      <c r="I4" s="0">
+      <c r="I4">
         <v>0</v>
       </c>
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" t="s" s="0">
+      <c r="A5" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="1">
         <v>45238</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="D5" t="s">
         <v>0</v>
       </c>
-      <c r="E5" t="s" s="0">
+      <c r="E5" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="0">
+      <c r="F5">
         <v>71</v>
       </c>
-      <c r="G5" s="0">
+      <c r="G5">
         <v>-1</v>
       </c>
-      <c r="H5" s="0">
+      <c r="H5">
         <v>-1</v>
       </c>
-      <c r="I5" s="0">
+      <c r="I5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" t="s" s="0">
+      <c r="A6" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="1">
         <v>45238</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="D6" t="s">
         <v>2</v>
       </c>
-      <c r="E6" t="s" s="0">
+      <c r="E6" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="0">
+      <c r="F6">
         <v>88</v>
       </c>
-      <c r="G6" s="0">
+      <c r="G6">
         <v>-1</v>
       </c>
-      <c r="H6" s="0">
+      <c r="H6">
         <v>-1</v>
       </c>
-      <c r="I6" s="0">
+      <c r="I6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" t="s" s="0">
+      <c r="A7" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="1">
         <v>45238</v>
       </c>
-      <c r="C7" t="s" s="0">
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s" s="0">
+      <c r="D7" t="s">
         <v>2</v>
       </c>
-      <c r="E7" t="s" s="0">
+      <c r="E7" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="0">
+      <c r="F7">
         <v>111</v>
       </c>
-      <c r="G7" s="0">
+      <c r="G7">
         <v>-1</v>
       </c>
-      <c r="H7" s="0">
+      <c r="H7">
         <v>-1</v>
       </c>
-      <c r="I7" s="0">
+      <c r="I7">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" t="s" s="0">
+      <c r="A8" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="1">
         <v>45238</v>
       </c>
-      <c r="C8" t="s" s="0">
+      <c r="C8" t="s">
         <v>3</v>
       </c>
-      <c r="D8" t="s" s="0">
+      <c r="D8" t="s">
         <v>9</v>
       </c>
-      <c r="E8" t="s" s="0">
+      <c r="E8" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="0">
+      <c r="F8">
         <v>34</v>
       </c>
-      <c r="G8" s="0">
+      <c r="G8">
         <v>-1</v>
       </c>
-      <c r="H8" s="0">
+      <c r="H8">
         <v>-1</v>
       </c>
-      <c r="I8" s="0">
+      <c r="I8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" t="s" s="0">
+      <c r="A9" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="1">
         <v>45238</v>
       </c>
-      <c r="C9" t="s" s="0">
+      <c r="C9" t="s">
         <v>3</v>
       </c>
-      <c r="D9" t="s" s="0">
+      <c r="D9" t="s">
         <v>0</v>
       </c>
-      <c r="E9" t="s" s="0">
+      <c r="E9" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="0">
+      <c r="F9">
         <v>120</v>
       </c>
-      <c r="G9" s="0">
+      <c r="G9">
         <v>-1</v>
       </c>
-      <c r="H9" s="0">
+      <c r="H9">
         <v>-1</v>
       </c>
-      <c r="I9" s="0">
+      <c r="I9">
         <v>0</v>
       </c>
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" t="s" s="0">
+      <c r="A10" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="1">
         <v>45238</v>
       </c>
-      <c r="C10" t="s" s="0">
+      <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="D10" t="s" s="0">
+      <c r="D10" t="s">
         <v>9</v>
       </c>
-      <c r="E10" t="s" s="0">
+      <c r="E10" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="0">
+      <c r="F10">
         <v>75</v>
       </c>
-      <c r="G10" s="0">
+      <c r="G10">
         <v>-1</v>
       </c>
-      <c r="H10" s="0">
+      <c r="H10">
         <v>-1</v>
       </c>
-      <c r="I10" s="0">
+      <c r="I10">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" t="s" s="0">
+      <c r="A11" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="1">
         <v>45237</v>
       </c>
-      <c r="C11" t="s" s="0">
+      <c r="C11" t="s">
         <v>4</v>
       </c>
-      <c r="D11" t="s" s="0">
+      <c r="D11" t="s">
         <v>2</v>
       </c>
-      <c r="E11" t="s" s="0">
+      <c r="E11" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="0">
+      <c r="F11">
         <v>111</v>
       </c>
-      <c r="G11" s="0">
+      <c r="G11">
         <v>66</v>
       </c>
-      <c r="H11" s="0">
+      <c r="H11">
         <v>45</v>
       </c>
-      <c r="I11" s="0">
+      <c r="I11">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" t="s" s="0">
+      <c r="A12" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="1">
         <v>45238</v>
       </c>
-      <c r="C12" t="s" s="0">
+      <c r="C12" t="s">
         <v>11</v>
       </c>
-      <c r="D12" t="s" s="0">
+      <c r="D12" t="s">
         <v>9</v>
       </c>
-      <c r="E12" t="s" s="0">
+      <c r="E12" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="0">
+      <c r="F12">
         <v>107</v>
       </c>
-      <c r="G12" s="0">
+      <c r="G12">
         <v>57</v>
       </c>
-      <c r="H12" s="0">
+      <c r="H12">
         <v>50</v>
       </c>
-      <c r="I12" s="0">
+      <c r="I12">
         <v>0</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" t="s" s="0">
+      <c r="A13" t="s">
         <v>31</v>
       </c>
       <c r="B13" s="1">
         <v>45234</v>
       </c>
-      <c r="C13" t="s" s="0">
+      <c r="C13" t="s">
         <v>4</v>
       </c>
-      <c r="D13" t="s" s="0">
+      <c r="D13" t="s">
         <v>2</v>
       </c>
-      <c r="E13" t="s" s="0">
+      <c r="E13" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="0">
+      <c r="F13">
         <v>72</v>
       </c>
-      <c r="G13" s="0">
+      <c r="G13">
         <v>44</v>
       </c>
-      <c r="H13" s="0">
+      <c r="H13">
         <v>28</v>
       </c>
-      <c r="I13" s="0">
+      <c r="I13">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" t="s" s="0">
+      <c r="A14" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="1">
         <v>45234</v>
       </c>
-      <c r="C14" t="s" s="0">
+      <c r="C14" t="s">
         <v>11</v>
       </c>
-      <c r="D14" t="s" s="0">
+      <c r="D14" t="s">
         <v>9</v>
       </c>
-      <c r="E14" t="s" s="0">
+      <c r="E14" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="0">
+      <c r="F14">
         <v>97</v>
       </c>
-      <c r="G14" s="0">
+      <c r="G14">
         <v>51</v>
       </c>
-      <c r="H14" s="0">
+      <c r="H14">
         <v>30</v>
       </c>
-      <c r="I14" s="0">
+      <c r="I14">
         <v>0</v>
       </c>
       <c r="M14" s="2"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" t="s" s="0">
+      <c r="A15" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="1">
         <v>45234</v>
       </c>
-      <c r="C15" t="s" s="0">
+      <c r="C15" t="s">
         <v>11</v>
       </c>
-      <c r="D15" t="s" s="0">
+      <c r="D15" t="s">
         <v>0</v>
       </c>
-      <c r="E15" t="s" s="0">
+      <c r="E15" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="0">
+      <c r="F15">
         <v>54</v>
       </c>
-      <c r="G15" s="0">
+      <c r="G15">
         <v>26</v>
       </c>
-      <c r="H15" s="0">
+      <c r="H15">
         <v>28</v>
       </c>
-      <c r="I15" s="0">
+      <c r="I15">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" t="s" s="0">
+      <c r="A16" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="1">
         <v>45234</v>
       </c>
-      <c r="C16" t="s" s="0">
+      <c r="C16" t="s">
         <v>4</v>
       </c>
-      <c r="D16" t="s" s="0">
+      <c r="D16" t="s">
         <v>2</v>
       </c>
-      <c r="E16" t="s" s="0">
+      <c r="E16" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="0">
+      <c r="F16">
         <v>82</v>
       </c>
-      <c r="G16" s="0">
+      <c r="G16">
         <v>32</v>
       </c>
-      <c r="H16" s="0">
+      <c r="H16">
         <v>50</v>
       </c>
-      <c r="I16" s="0">
+      <c r="I16">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A17" t="s" s="0">
+      <c r="A17" t="s">
         <v>31</v>
       </c>
       <c r="B17" s="1">
         <v>45234</v>
       </c>
-      <c r="C17" t="s" s="0">
+      <c r="C17" t="s">
         <v>11</v>
       </c>
-      <c r="D17" t="s" s="0">
+      <c r="D17" t="s">
         <v>9</v>
       </c>
-      <c r="E17" t="s" s="0">
+      <c r="E17" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="0">
+      <c r="F17">
         <v>60</v>
       </c>
-      <c r="G17" s="0">
+      <c r="G17">
         <v>40</v>
       </c>
-      <c r="H17" s="0">
+      <c r="H17">
         <v>20</v>
       </c>
-      <c r="I17" s="0">
+      <c r="I17">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A18" t="s" s="0">
+      <c r="A18" t="s">
         <v>31</v>
       </c>
       <c r="B18" s="1">
         <v>45234</v>
       </c>
-      <c r="C18" t="s" s="0">
+      <c r="C18" t="s">
         <v>11</v>
       </c>
-      <c r="D18" t="s" s="0">
+      <c r="D18" t="s">
         <v>9</v>
       </c>
-      <c r="E18" t="s" s="0">
+      <c r="E18" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="0">
+      <c r="F18">
         <v>56</v>
       </c>
-      <c r="G18" s="0">
+      <c r="G18">
         <v>48</v>
       </c>
-      <c r="H18" s="0">
+      <c r="H18">
         <v>8</v>
       </c>
-      <c r="I18" s="0">
+      <c r="I18">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A19" t="s" s="0">
+      <c r="A19" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="1">
         <v>45234</v>
       </c>
-      <c r="C19" t="s" s="0">
+      <c r="C19" t="s">
         <v>11</v>
       </c>
-      <c r="D19" t="s" s="0">
+      <c r="D19" t="s">
         <v>9</v>
       </c>
-      <c r="E19" t="s" s="0">
+      <c r="E19" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="0">
+      <c r="F19">
         <v>60</v>
       </c>
-      <c r="G19" s="0">
+      <c r="G19">
         <v>30</v>
       </c>
-      <c r="H19" s="0">
+      <c r="H19">
         <v>30</v>
       </c>
-      <c r="I19" s="0">
+      <c r="I19">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A20" t="s" s="0">
+      <c r="A20" t="s">
         <v>31</v>
       </c>
       <c r="B20" s="1">
         <v>45234</v>
       </c>
-      <c r="C20" t="s" s="0">
+      <c r="C20" t="s">
         <v>11</v>
       </c>
-      <c r="D20" t="s" s="0">
+      <c r="D20" t="s">
         <v>9</v>
       </c>
-      <c r="E20" t="s" s="0">
+      <c r="E20" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="0">
+      <c r="F20">
         <v>39</v>
       </c>
-      <c r="G20" s="0">
+      <c r="G20">
         <v>34</v>
       </c>
-      <c r="H20" s="0">
+      <c r="H20">
         <v>5</v>
       </c>
-      <c r="I20" s="0">
+      <c r="I20">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A21" t="s" s="0">
+      <c r="A21" t="s">
         <v>31</v>
       </c>
       <c r="B21" s="1">
         <v>45241</v>
       </c>
-      <c r="C21" t="s" s="0">
+      <c r="C21" t="s">
         <v>11</v>
       </c>
-      <c r="D21" t="s" s="0">
+      <c r="D21" t="s">
         <v>9</v>
       </c>
-      <c r="E21" t="s" s="0">
+      <c r="E21" t="s">
         <v>1</v>
       </c>
-      <c r="F21" s="0">
+      <c r="F21">
         <v>32</v>
       </c>
-      <c r="G21" s="0">
+      <c r="G21">
         <v>4</v>
       </c>
-      <c r="H21" s="0">
+      <c r="H21">
         <v>28</v>
       </c>
-      <c r="I21" s="0">
+      <c r="I21">
         <v>0</v>
       </c>
-      <c r="K21" t="s" s="0">
+      <c r="K21" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A22" t="s" s="0">
+      <c r="A22" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="1">
         <v>45241</v>
       </c>
-      <c r="C22" t="s" s="0">
+      <c r="C22" t="s">
         <v>4</v>
       </c>
-      <c r="D22" t="s" s="0">
+      <c r="D22" t="s">
         <v>9</v>
       </c>
-      <c r="E22" t="s" s="0">
+      <c r="E22" t="s">
         <v>1</v>
       </c>
-      <c r="F22" s="0">
+      <c r="F22">
         <v>83</v>
       </c>
-      <c r="G22" s="0">
+      <c r="G22">
         <v>55</v>
       </c>
-      <c r="H22" s="0">
+      <c r="H22">
         <v>28</v>
       </c>
-      <c r="I22" s="0">
+      <c r="I22">
         <v>0</v>
       </c>
-      <c r="K22" t="s" s="0">
+      <c r="K22" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A23" t="s" s="0">
+      <c r="A23" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="1">
         <v>45241</v>
       </c>
-      <c r="C23" t="s" s="0">
+      <c r="C23" t="s">
         <v>3</v>
       </c>
-      <c r="D23" t="s" s="0">
+      <c r="D23" t="s">
         <v>0</v>
       </c>
-      <c r="E23" t="s" s="0">
+      <c r="E23" t="s">
         <v>1</v>
       </c>
-      <c r="F23" s="0">
+      <c r="F23">
         <v>56</v>
       </c>
-      <c r="G23" s="0">
+      <c r="G23">
         <v>26</v>
       </c>
-      <c r="H23" s="0">
+      <c r="H23">
         <v>30</v>
       </c>
-      <c r="I23" s="0">
+      <c r="I23">
         <v>0</v>
       </c>
-      <c r="K23" t="s" s="0">
+      <c r="K23" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A24" t="s" s="0">
+      <c r="A24" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="1">
         <v>45241</v>
       </c>
-      <c r="C24" t="s" s="0">
+      <c r="C24" t="s">
         <v>11</v>
       </c>
-      <c r="D24" t="s" s="0">
+      <c r="D24" t="s">
         <v>9</v>
       </c>
-      <c r="E24" t="s" s="0">
+      <c r="E24" t="s">
         <v>1</v>
       </c>
-      <c r="F24" s="0">
+      <c r="F24">
         <v>33</v>
       </c>
-      <c r="G24" s="0">
+      <c r="G24">
         <v>28</v>
       </c>
-      <c r="H24" s="0">
+      <c r="H24">
         <v>5</v>
       </c>
-      <c r="I24" s="0">
+      <c r="I24">
         <v>0</v>
       </c>
-      <c r="K24" t="s" s="0">
+      <c r="K24" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A25" t="s" s="0">
+      <c r="A25" t="s">
         <v>31</v>
       </c>
       <c r="B25" s="1">
         <v>45241</v>
       </c>
-      <c r="C25" t="s" s="0">
+      <c r="C25" t="s">
         <v>4</v>
       </c>
-      <c r="D25" t="s" s="0">
+      <c r="D25" t="s">
         <v>9</v>
       </c>
-      <c r="E25" t="s" s="0">
+      <c r="E25" t="s">
         <v>1</v>
       </c>
-      <c r="F25" s="0">
+      <c r="F25">
         <v>56</v>
       </c>
-      <c r="G25" s="0">
+      <c r="G25">
         <v>36</v>
       </c>
-      <c r="H25" s="0">
+      <c r="H25">
         <v>20</v>
       </c>
-      <c r="I25" s="0">
+      <c r="I25">
         <v>0</v>
       </c>
-      <c r="K25" t="s" s="0">
+      <c r="K25" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A26" t="s" s="0">
+      <c r="A26" t="s">
         <v>31</v>
       </c>
       <c r="B26" s="1">
         <v>45241</v>
       </c>
-      <c r="C26" t="s" s="0">
+      <c r="C26" t="s">
         <v>3</v>
       </c>
-      <c r="D26" t="s" s="0">
+      <c r="D26" t="s">
         <v>0</v>
       </c>
-      <c r="E26" t="s" s="0">
+      <c r="E26" t="s">
         <v>1</v>
       </c>
-      <c r="F26" s="0">
+      <c r="F26">
         <v>55</v>
       </c>
-      <c r="G26" s="0">
+      <c r="G26">
         <v>27</v>
       </c>
-      <c r="H26" s="0">
+      <c r="H26">
         <v>28</v>
       </c>
-      <c r="I26" s="0">
+      <c r="I26">
         <v>0</v>
       </c>
-      <c r="K26" t="s" s="0">
+      <c r="K26" t="s">
         <v>33</v>
       </c>
       <c r="T26" s="33"/>
@@ -11585,19 +11585,19 @@
       <c r="Y26" s="2"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A27" t="s" s="0">
+      <c r="A27" t="s">
         <v>30</v>
       </c>
       <c r="B27" s="1">
         <v>45255</v>
       </c>
-      <c r="C27" t="s" s="0">
+      <c r="C27" t="s">
         <v>11</v>
       </c>
-      <c r="D27" t="s" s="0">
+      <c r="D27" t="s">
         <v>9</v>
       </c>
-      <c r="E27" t="s" s="0">
+      <c r="E27" t="s">
         <v>10</v>
       </c>
       <c r="F27" s="22">
@@ -11606,28 +11606,28 @@
       <c r="G27" s="22">
         <v>45</v>
       </c>
-      <c r="H27" s="0">
+      <c r="H27">
         <v>30</v>
       </c>
-      <c r="I27" s="0">
+      <c r="I27">
         <v>0</v>
       </c>
       <c r="L27" s="22"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A28" t="s" s="0">
+      <c r="A28" t="s">
         <v>30</v>
       </c>
       <c r="B28" s="1">
         <v>45255</v>
       </c>
-      <c r="C28" t="s" s="0">
+      <c r="C28" t="s">
         <v>11</v>
       </c>
-      <c r="D28" t="s" s="0">
+      <c r="D28" t="s">
         <v>9</v>
       </c>
-      <c r="E28" t="s" s="0">
+      <c r="E28" t="s">
         <v>10</v>
       </c>
       <c r="F28" s="22">
@@ -11636,28 +11636,28 @@
       <c r="G28" s="22">
         <v>42</v>
       </c>
-      <c r="H28" s="0">
+      <c r="H28">
         <v>8</v>
       </c>
-      <c r="I28" s="0">
+      <c r="I28">
         <v>0</v>
       </c>
       <c r="L28" s="22"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A29" t="s" s="0">
+      <c r="A29" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="1">
         <v>45255</v>
       </c>
-      <c r="C29" t="s" s="0">
+      <c r="C29" t="s">
         <v>11</v>
       </c>
-      <c r="D29" t="s" s="0">
+      <c r="D29" t="s">
         <v>9</v>
       </c>
-      <c r="E29" t="s" s="0">
+      <c r="E29" t="s">
         <v>10</v>
       </c>
       <c r="F29" s="22">
@@ -11666,28 +11666,28 @@
       <c r="G29" s="22">
         <v>54</v>
       </c>
-      <c r="H29" s="0">
+      <c r="H29">
         <v>28</v>
       </c>
-      <c r="I29" s="0">
+      <c r="I29">
         <v>0</v>
       </c>
       <c r="L29" s="22"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A30" t="s" s="0">
+      <c r="A30" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="1">
         <v>45256</v>
       </c>
-      <c r="C30" t="s" s="0">
+      <c r="C30" t="s">
         <v>3</v>
       </c>
-      <c r="D30" t="s" s="0">
+      <c r="D30" t="s">
         <v>0</v>
       </c>
-      <c r="E30" t="s" s="0">
+      <c r="E30" t="s">
         <v>10</v>
       </c>
       <c r="F30" s="22">
@@ -11696,10 +11696,10 @@
       <c r="G30" s="22">
         <v>62</v>
       </c>
-      <c r="H30" s="0">
+      <c r="H30">
         <v>50</v>
       </c>
-      <c r="I30" s="0">
+      <c r="I30">
         <v>0</v>
       </c>
       <c r="L30" s="22" t="s">
@@ -11707,19 +11707,19 @@
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A31" t="s" s="0">
+      <c r="A31" t="s">
         <v>30</v>
       </c>
       <c r="B31" s="1">
         <v>45256</v>
       </c>
-      <c r="C31" t="s" s="0">
+      <c r="C31" t="s">
         <v>3</v>
       </c>
-      <c r="D31" t="s" s="0">
+      <c r="D31" t="s">
         <v>0</v>
       </c>
-      <c r="E31" t="s" s="0">
+      <c r="E31" t="s">
         <v>5</v>
       </c>
       <c r="F31" s="22">
@@ -11728,10 +11728,10 @@
       <c r="G31" s="22">
         <v>57</v>
       </c>
-      <c r="H31" s="0">
+      <c r="H31">
         <v>8</v>
       </c>
-      <c r="I31" s="0">
+      <c r="I31">
         <v>0</v>
       </c>
       <c r="L31" s="22"/>
@@ -11741,19 +11741,19 @@
       <c r="W31" s="34"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A32" t="s" s="0">
+      <c r="A32" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>45256</v>
       </c>
-      <c r="C32" t="s" s="0">
+      <c r="C32" t="s">
         <v>3</v>
       </c>
-      <c r="D32" t="s" s="0">
+      <c r="D32" t="s">
         <v>0</v>
       </c>
-      <c r="E32" t="s" s="0">
+      <c r="E32" t="s">
         <v>10</v>
       </c>
       <c r="F32" s="22">
@@ -11762,28 +11762,28 @@
       <c r="G32" s="22">
         <v>57</v>
       </c>
-      <c r="H32" s="0">
+      <c r="H32">
         <v>28</v>
       </c>
-      <c r="I32" s="0">
+      <c r="I32">
         <v>0</v>
       </c>
       <c r="L32" s="22"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" t="s" s="0">
+      <c r="A33" t="s">
         <v>30</v>
       </c>
       <c r="B33" s="1">
         <v>45256</v>
       </c>
-      <c r="C33" t="s" s="0">
+      <c r="C33" t="s">
         <v>4</v>
       </c>
-      <c r="D33" t="s" s="0">
+      <c r="D33" t="s">
         <v>2</v>
       </c>
-      <c r="E33" t="s" s="0">
+      <c r="E33" t="s">
         <v>5</v>
       </c>
       <c r="F33" s="22">
@@ -11792,28 +11792,28 @@
       <c r="G33" s="22">
         <v>45</v>
       </c>
-      <c r="H33" s="0">
+      <c r="H33">
         <v>50</v>
       </c>
-      <c r="I33" s="0">
+      <c r="I33">
         <v>0</v>
       </c>
       <c r="L33" s="22"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" t="s" s="0">
+      <c r="A34" t="s">
         <v>30</v>
       </c>
       <c r="B34" s="1">
         <v>45256</v>
       </c>
-      <c r="C34" t="s" s="0">
+      <c r="C34" t="s">
         <v>4</v>
       </c>
-      <c r="D34" t="s" s="0">
+      <c r="D34" t="s">
         <v>2</v>
       </c>
-      <c r="E34" t="s" s="0">
+      <c r="E34" t="s">
         <v>5</v>
       </c>
       <c r="F34" s="22">
@@ -11822,28 +11822,28 @@
       <c r="G34" s="22">
         <v>45</v>
       </c>
-      <c r="H34" s="0">
+      <c r="H34">
         <v>50</v>
       </c>
-      <c r="I34" s="0">
+      <c r="I34">
         <v>0</v>
       </c>
       <c r="L34" s="22"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" t="s" s="0">
+      <c r="A35" t="s">
         <v>30</v>
       </c>
       <c r="B35" s="1">
         <v>45256</v>
       </c>
-      <c r="C35" t="s" s="0">
+      <c r="C35" t="s">
         <v>4</v>
       </c>
-      <c r="D35" t="s" s="0">
+      <c r="D35" t="s">
         <v>2</v>
       </c>
-      <c r="E35" t="s" s="0">
+      <c r="E35" t="s">
         <v>5</v>
       </c>
       <c r="F35" s="22">
@@ -11852,28 +11852,28 @@
       <c r="G35" s="22">
         <v>60</v>
       </c>
-      <c r="H35" s="0">
+      <c r="H35">
         <v>50</v>
       </c>
-      <c r="I35" s="0">
+      <c r="I35">
         <v>0</v>
       </c>
       <c r="L35" s="22"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" t="s" s="0">
+      <c r="A36" t="s">
         <v>30</v>
       </c>
       <c r="B36" s="1">
         <v>45256</v>
       </c>
-      <c r="C36" t="s" s="0">
+      <c r="C36" t="s">
         <v>4</v>
       </c>
-      <c r="D36" t="s" s="0">
+      <c r="D36" t="s">
         <v>2</v>
       </c>
-      <c r="E36" t="s" s="0">
+      <c r="E36" t="s">
         <v>5</v>
       </c>
       <c r="F36" s="22">
@@ -11882,28 +11882,28 @@
       <c r="G36" s="22">
         <v>59</v>
       </c>
-      <c r="H36" s="0">
+      <c r="H36">
         <v>50</v>
       </c>
-      <c r="I36" s="0">
+      <c r="I36">
         <v>0</v>
       </c>
       <c r="L36" s="22"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" t="s" s="0">
+      <c r="A37" t="s">
         <v>30</v>
       </c>
       <c r="B37" s="1">
         <v>45256</v>
       </c>
-      <c r="C37" t="s" s="0">
+      <c r="C37" t="s">
         <v>4</v>
       </c>
-      <c r="D37" t="s" s="0">
+      <c r="D37" t="s">
         <v>2</v>
       </c>
-      <c r="E37" t="s" s="0">
+      <c r="E37" t="s">
         <v>5</v>
       </c>
       <c r="F37" s="22">
@@ -11912,28 +11912,28 @@
       <c r="G37" s="22">
         <v>57</v>
       </c>
-      <c r="H37" s="0">
+      <c r="H37">
         <v>50</v>
       </c>
-      <c r="I37" s="0">
+      <c r="I37">
         <v>0</v>
       </c>
       <c r="L37" s="22"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" t="s" s="0">
+      <c r="A38" t="s">
         <v>30</v>
       </c>
       <c r="B38" s="1">
         <v>45256</v>
       </c>
-      <c r="C38" t="s" s="0">
+      <c r="C38" t="s">
         <v>4</v>
       </c>
-      <c r="D38" t="s" s="0">
+      <c r="D38" t="s">
         <v>2</v>
       </c>
-      <c r="E38" t="s" s="0">
+      <c r="E38" t="s">
         <v>5</v>
       </c>
       <c r="F38" s="22">
@@ -11942,28 +11942,28 @@
       <c r="G38" s="22">
         <v>47</v>
       </c>
-      <c r="H38" s="0">
+      <c r="H38">
         <v>50</v>
       </c>
-      <c r="I38" s="0">
+      <c r="I38">
         <v>0</v>
       </c>
       <c r="L38" s="22"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" t="s" s="0">
+      <c r="A39" t="s">
         <v>30</v>
       </c>
       <c r="B39" s="1">
         <v>45256</v>
       </c>
-      <c r="C39" t="s" s="0">
+      <c r="C39" t="s">
         <v>4</v>
       </c>
-      <c r="D39" t="s" s="0">
+      <c r="D39" t="s">
         <v>2</v>
       </c>
-      <c r="E39" t="s" s="0">
+      <c r="E39" t="s">
         <v>5</v>
       </c>
       <c r="F39" s="22">
@@ -11972,28 +11972,28 @@
       <c r="G39" s="22">
         <v>51</v>
       </c>
-      <c r="H39" s="0">
+      <c r="H39">
         <v>50</v>
       </c>
-      <c r="I39" s="0">
+      <c r="I39">
         <v>0</v>
       </c>
       <c r="L39" s="22"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" t="s" s="0">
+      <c r="A40" t="s">
         <v>30</v>
       </c>
       <c r="B40" s="1">
         <v>45256</v>
       </c>
-      <c r="C40" t="s" s="0">
+      <c r="C40" t="s">
         <v>4</v>
       </c>
-      <c r="D40" t="s" s="0">
+      <c r="D40" t="s">
         <v>2</v>
       </c>
-      <c r="E40" t="s" s="0">
+      <c r="E40" t="s">
         <v>5</v>
       </c>
       <c r="F40" s="22">
@@ -12002,28 +12002,28 @@
       <c r="G40" s="22">
         <v>43</v>
       </c>
-      <c r="H40" s="0">
+      <c r="H40">
         <v>45</v>
       </c>
-      <c r="I40" s="0">
+      <c r="I40">
         <v>0</v>
       </c>
       <c r="L40" s="22"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" t="s" s="0">
+      <c r="A41" t="s">
         <v>30</v>
       </c>
       <c r="B41" s="1">
         <v>45256</v>
       </c>
-      <c r="C41" t="s" s="0">
+      <c r="C41" t="s">
         <v>4</v>
       </c>
-      <c r="D41" t="s" s="0">
+      <c r="D41" t="s">
         <v>2</v>
       </c>
-      <c r="E41" t="s" s="0">
+      <c r="E41" t="s">
         <v>5</v>
       </c>
       <c r="F41" s="22">
@@ -12032,28 +12032,28 @@
       <c r="G41" s="22">
         <v>75</v>
       </c>
-      <c r="H41" s="0">
+      <c r="H41">
         <v>50</v>
       </c>
-      <c r="I41" s="0">
+      <c r="I41">
         <v>0</v>
       </c>
       <c r="L41" s="22"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" t="s" s="0">
+      <c r="A42" t="s">
         <v>30</v>
       </c>
       <c r="B42" s="1">
         <v>45256</v>
       </c>
-      <c r="C42" t="s" s="0">
+      <c r="C42" t="s">
         <v>4</v>
       </c>
-      <c r="D42" t="s" s="0">
+      <c r="D42" t="s">
         <v>2</v>
       </c>
-      <c r="E42" t="s" s="0">
+      <c r="E42" t="s">
         <v>5</v>
       </c>
       <c r="F42" s="22">
@@ -12062,28 +12062,28 @@
       <c r="G42" s="22">
         <v>70</v>
       </c>
-      <c r="H42" s="0">
+      <c r="H42">
         <v>30</v>
       </c>
-      <c r="I42" s="0">
+      <c r="I42">
         <v>0</v>
       </c>
       <c r="L42" s="22"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" t="s" s="0">
+      <c r="A43" t="s">
         <v>30</v>
       </c>
       <c r="B43" s="1">
         <v>45256</v>
       </c>
-      <c r="C43" t="s" s="0">
+      <c r="C43" t="s">
         <v>4</v>
       </c>
-      <c r="D43" t="s" s="0">
+      <c r="D43" t="s">
         <v>2</v>
       </c>
-      <c r="E43" t="s" s="0">
+      <c r="E43" t="s">
         <v>5</v>
       </c>
       <c r="F43" s="22">
@@ -12092,10 +12092,10 @@
       <c r="G43" s="22">
         <v>53</v>
       </c>
-      <c r="H43" s="0">
+      <c r="H43">
         <v>50</v>
       </c>
-      <c r="I43" s="0">
+      <c r="I43">
         <v>0</v>
       </c>
       <c r="L43" s="22"/>
@@ -12135,8 +12135,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="10.0"/>
-    <col min="5" max="5" customWidth="true" width="10.6640625"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
@@ -12168,7 +12168,7 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
-      <c r="V2" t="s" s="0">
+      <c r="V2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -12176,16 +12176,16 @@
       <c r="A3" s="1">
         <v>45237</v>
       </c>
-      <c r="B3" s="0">
+      <c r="B3">
         <v>106</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s" s="0">
+      <c r="E3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -12193,25 +12193,25 @@
       <c r="A4" s="1">
         <v>45237</v>
       </c>
-      <c r="B4" s="0">
+      <c r="B4">
         <v>83</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" t="s" s="0">
+      <c r="E4" t="s">
         <v>1</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N4" t="s" s="0">
+      <c r="N4" t="s">
         <v>23</v>
       </c>
-      <c r="O4" t="s" s="0">
+      <c r="O4" t="s">
         <v>24</v>
       </c>
     </row>
@@ -12219,26 +12219,26 @@
       <c r="A5" s="1">
         <v>45237</v>
       </c>
-      <c r="B5" s="0">
+      <c r="B5">
         <v>89</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="D5" t="s">
         <v>2</v>
       </c>
-      <c r="E5" t="s" s="0">
+      <c r="E5" t="s">
         <v>1</v>
       </c>
-      <c r="M5" t="s" s="0">
+      <c r="M5" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="0">
+      <c r="N5">
         <f>(SUMIF($C$3:$C$100, M5, $B$3:$B$100)/COUNTIF($C$3:$C$100, M5))</f>
         <v>88.083333333333329</v>
       </c>
-      <c r="O5" s="0">
+      <c r="O5">
         <f>(SUMIF($C$3:$C$100, M5, $F$3:$F$100)/COUNTIF($C$13:$C$100, M5))</f>
         <v>42.428571428571431</v>
       </c>
@@ -12247,26 +12247,26 @@
       <c r="A6" s="1">
         <v>45238</v>
       </c>
-      <c r="B6" s="0">
+      <c r="B6">
         <v>71</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="D6" t="s">
         <v>0</v>
       </c>
-      <c r="E6" t="s" s="0">
+      <c r="E6" t="s">
         <v>1</v>
       </c>
-      <c r="M6" t="s" s="0">
+      <c r="M6" t="s">
         <v>4</v>
       </c>
-      <c r="N6" s="0">
+      <c r="N6">
         <f>(SUMIF($C$3:$C$100, M6, $B$3:$B$100)/COUNTIF($C$3:$C$100, M6))</f>
         <v>98.5</v>
       </c>
-      <c r="O6" s="0">
+      <c r="O6">
         <f>(SUMIF($C$3:$C$100, M6, $F$3:$F$100)/COUNTIF($C$13:$C$100, M6))</f>
         <v>57.333333333333336</v>
       </c>
@@ -12275,26 +12275,26 @@
       <c r="A7" s="1">
         <v>45238</v>
       </c>
-      <c r="B7" s="0">
+      <c r="B7">
         <v>88</v>
       </c>
-      <c r="C7" t="s" s="0">
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s" s="0">
+      <c r="D7" t="s">
         <v>2</v>
       </c>
-      <c r="E7" t="s" s="0">
+      <c r="E7" t="s">
         <v>1</v>
       </c>
-      <c r="M7" t="s" s="0">
+      <c r="M7" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="0">
+      <c r="N7">
         <f>(SUMIF($C$3:$C$100, M7, $B$3:$B$100)/COUNTIF($C$3:$C$100, M7))</f>
         <v>86.25</v>
       </c>
-      <c r="O7" s="0">
+      <c r="O7">
         <f>(SUMIF($C$3:$C$100, M7, $F$3:$F$100)/COUNTIF($C$13:$C$100, M7))</f>
         <v>38</v>
       </c>
@@ -12303,16 +12303,16 @@
       <c r="A8" s="1">
         <v>45238</v>
       </c>
-      <c r="B8" s="0">
+      <c r="B8">
         <v>111</v>
       </c>
-      <c r="C8" t="s" s="0">
+      <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" t="s" s="0">
+      <c r="D8" t="s">
         <v>2</v>
       </c>
-      <c r="E8" t="s" s="0">
+      <c r="E8" t="s">
         <v>1</v>
       </c>
     </row>
@@ -12320,16 +12320,16 @@
       <c r="A9" s="1">
         <v>45238</v>
       </c>
-      <c r="B9" s="0">
+      <c r="B9">
         <v>34</v>
       </c>
-      <c r="C9" t="s" s="0">
+      <c r="C9" t="s">
         <v>3</v>
       </c>
-      <c r="D9" t="s" s="0">
+      <c r="D9" t="s">
         <v>9</v>
       </c>
-      <c r="E9" t="s" s="0">
+      <c r="E9" t="s">
         <v>1</v>
       </c>
       <c r="M9" s="2" t="s">
@@ -12340,16 +12340,16 @@
       <c r="A10" s="1">
         <v>45238</v>
       </c>
-      <c r="B10" s="0">
+      <c r="B10">
         <v>120</v>
       </c>
-      <c r="C10" t="s" s="0">
+      <c r="C10" t="s">
         <v>3</v>
       </c>
-      <c r="D10" t="s" s="0">
+      <c r="D10" t="s">
         <v>0</v>
       </c>
-      <c r="E10" t="s" s="0">
+      <c r="E10" t="s">
         <v>1</v>
       </c>
       <c r="H10" s="33" t="s">
@@ -12358,14 +12358,14 @@
       <c r="I10" s="33"/>
       <c r="J10" s="33"/>
       <c r="K10" s="33"/>
-      <c r="M10" t="s" s="0">
+      <c r="M10" t="s">
         <v>0</v>
       </c>
-      <c r="N10" s="0">
+      <c r="N10">
         <f>(SUMIF($D$3:$D$100, M10, $B$3:$B$100)/COUNTIF($D$3:$D$100, M10))</f>
         <v>96.666666666666671</v>
       </c>
-      <c r="O10" s="0">
+      <c r="O10">
         <f>(SUMIF($D$3:$D$100, M10, $F$3:$F$100)/COUNTIF($D$13:$D$100, M10))</f>
         <v>26</v>
       </c>
@@ -12374,16 +12374,16 @@
       <c r="A11" s="1">
         <v>45238</v>
       </c>
-      <c r="B11" s="0">
+      <c r="B11">
         <v>75</v>
       </c>
-      <c r="C11" t="s" s="0">
+      <c r="C11" t="s">
         <v>11</v>
       </c>
-      <c r="D11" t="s" s="0">
+      <c r="D11" t="s">
         <v>9</v>
       </c>
-      <c r="E11" t="s" s="0">
+      <c r="E11" t="s">
         <v>1</v>
       </c>
       <c r="H11" s="33" t="s">
@@ -12394,14 +12394,14 @@
         <v>22</v>
       </c>
       <c r="K11" s="33"/>
-      <c r="M11" t="s" s="0">
+      <c r="M11" t="s">
         <v>9</v>
       </c>
-      <c r="N11" s="0">
+      <c r="N11">
         <f>(SUMIF($D$3:$D$100, M11, $B$3:$B$100)/COUNTIF($D$3:$D$100, M11))</f>
         <v>77</v>
       </c>
-      <c r="O11" s="0">
+      <c r="O11">
         <f>(SUMIF($D$3:$D$100, M11, $F$3:$F$100)/COUNTIF($D$13:$D$100, M11))</f>
         <v>45.166666666666664</v>
       </c>
@@ -12419,14 +12419,14 @@
       <c r="K12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M12" t="s" s="0">
+      <c r="M12" t="s">
         <v>2</v>
       </c>
-      <c r="N12" s="0">
+      <c r="N12">
         <f>(SUMIF($D$3:$D$100, M12, $B$3:$B$100)/COUNTIF($D$3:$D$100, M12))</f>
         <v>97.75</v>
       </c>
-      <c r="O12" s="0">
+      <c r="O12">
         <f>(SUMIF($D$3:$D$100, M12, $F$3:$F$100)/COUNTIF($D$13:$D$100, M12))</f>
         <v>57.333333333333336</v>
       </c>
@@ -12435,26 +12435,26 @@
       <c r="A13" s="1">
         <v>45237</v>
       </c>
-      <c r="B13" s="0">
+      <c r="B13">
         <v>111</v>
       </c>
-      <c r="C13" t="s" s="0">
+      <c r="C13" t="s">
         <v>4</v>
       </c>
-      <c r="D13" t="s" s="0">
+      <c r="D13" t="s">
         <v>2</v>
       </c>
-      <c r="E13" t="s" s="0">
+      <c r="E13" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="0">
+      <c r="F13">
         <v>66</v>
       </c>
-      <c r="H13" s="0">
+      <c r="H13">
         <f t="shared" ref="H13:H23" si="0">(SUMIF($M$5:$M$7, $C13, $N$5:$N$7)+SUMIF($M$10:$M$12, $D13, $N$10:$N$12)+SUMIF($M$15:$M$17, $E13, $N$15:$N$17))/3</f>
         <v>99.833333333333329</v>
       </c>
-      <c r="I13" s="0">
+      <c r="I13">
         <f t="shared" ref="I13:I23" si="1">(SUMIF($M$5:$M$7, $C13, $O$5:$O$7)+SUMIF($M$10:$M$12, $D13, $O$10:$O$12)+SUMIF($M$15:$M$17, $E13, $O$15:$O$17))/3</f>
         <v>55.722222222222229</v>
       </c>
@@ -12462,7 +12462,7 @@
         <f t="shared" ref="J13:J23" si="2">(SUMIF($M$5:$M$7, $C13, $N$5:$N$7)+SUMIF($M$10:$M$12, $D13, $N$10:$N$12))/2</f>
         <v>98.125</v>
       </c>
-      <c r="K13" s="0">
+      <c r="K13">
         <f t="shared" ref="K13:K23" si="3">(SUMIF($M$5:$M$7, $C13, $O$5:$O$7)+SUMIF($M$10:$M$12, $D13, $O$10:$O$12))/2</f>
         <v>57.333333333333336</v>
       </c>
@@ -12471,26 +12471,26 @@
       <c r="A14" s="1">
         <v>45238</v>
       </c>
-      <c r="B14" s="0">
+      <c r="B14">
         <v>107</v>
       </c>
-      <c r="C14" t="s" s="0">
+      <c r="C14" t="s">
         <v>11</v>
       </c>
-      <c r="D14" t="s" s="0">
+      <c r="D14" t="s">
         <v>9</v>
       </c>
-      <c r="E14" t="s" s="0">
+      <c r="E14" t="s">
         <v>1</v>
       </c>
-      <c r="F14" s="0">
+      <c r="F14">
         <v>57</v>
       </c>
-      <c r="H14" s="0">
+      <c r="H14">
         <f t="shared" si="0"/>
         <v>84.49444444444444</v>
       </c>
-      <c r="I14" s="0">
+      <c r="I14">
         <f t="shared" si="1"/>
         <v>48.198412698412703</v>
       </c>
@@ -12498,7 +12498,7 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K14" s="0">
+      <c r="K14">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
@@ -12510,26 +12510,26 @@
       <c r="A15" s="1">
         <v>45234</v>
       </c>
-      <c r="B15" s="0">
+      <c r="B15">
         <v>108</v>
       </c>
-      <c r="C15" t="s" s="0">
+      <c r="C15" t="s">
         <v>3</v>
       </c>
-      <c r="D15" t="s" s="0">
+      <c r="D15" t="s">
         <v>19</v>
       </c>
-      <c r="E15" t="s" s="0">
+      <c r="E15" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="0">
+      <c r="F15">
         <v>38</v>
       </c>
-      <c r="H15" s="0">
+      <c r="H15">
         <f t="shared" si="0"/>
         <v>63.166666666666664</v>
       </c>
-      <c r="I15" s="0">
+      <c r="I15">
         <f t="shared" si="1"/>
         <v>30.166666666666668</v>
       </c>
@@ -12537,18 +12537,18 @@
         <f t="shared" si="2"/>
         <v>43.125</v>
       </c>
-      <c r="K15" s="0">
+      <c r="K15">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="M15" t="s" s="0">
+      <c r="M15" t="s">
         <v>10</v>
       </c>
-      <c r="N15" s="0">
+      <c r="N15">
         <f>(SUMIF($E$3:$E$100, M15, $B$3:$B$100)/COUNTIF($E$3:$E$100, M15))</f>
         <v>83.166666666666671</v>
       </c>
-      <c r="O15" s="0">
+      <c r="O15">
         <f>(SUMIF($E$3:$E$100, M15, $F$3:$F$100)/COUNTIF($E$13:$E$100, M15))</f>
         <v>40</v>
       </c>
@@ -12557,26 +12557,26 @@
       <c r="A16" s="1">
         <v>45234</v>
       </c>
-      <c r="B16" s="0">
+      <c r="B16">
         <v>107</v>
       </c>
-      <c r="C16" t="s" s="0">
+      <c r="C16" t="s">
         <v>4</v>
       </c>
-      <c r="D16" t="s" s="0">
+      <c r="D16" t="s">
         <v>2</v>
       </c>
-      <c r="E16" t="s" s="0">
+      <c r="E16" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="0">
+      <c r="F16">
         <v>74</v>
       </c>
-      <c r="H16" s="0">
+      <c r="H16">
         <f t="shared" si="0"/>
         <v>99.833333333333329</v>
       </c>
-      <c r="I16" s="0">
+      <c r="I16">
         <f t="shared" si="1"/>
         <v>55.722222222222229</v>
       </c>
@@ -12584,18 +12584,18 @@
         <f t="shared" si="2"/>
         <v>98.125</v>
       </c>
-      <c r="K16" s="0">
+      <c r="K16">
         <f t="shared" si="3"/>
         <v>57.333333333333336</v>
       </c>
-      <c r="M16" t="s" s="0">
+      <c r="M16" t="s">
         <v>1</v>
       </c>
-      <c r="N16" s="0">
+      <c r="N16">
         <f>(SUMIF($E$3:$E$100, M16, $B$3:$B$100)/COUNTIF($E$3:$E$100, M16))</f>
         <v>88.4</v>
       </c>
-      <c r="O16" s="0">
+      <c r="O16">
         <f>(SUMIF($E$3:$E$100, M16, $F$3:$F$100)/COUNTIF($E$13:$E$100, M16))</f>
         <v>57</v>
       </c>
@@ -12604,26 +12604,26 @@
       <c r="A17" s="1">
         <v>45234</v>
       </c>
-      <c r="B17" s="0">
+      <c r="B17">
         <v>97</v>
       </c>
-      <c r="C17" t="s" s="0">
+      <c r="C17" t="s">
         <v>11</v>
       </c>
-      <c r="D17" t="s" s="0">
+      <c r="D17" t="s">
         <v>9</v>
       </c>
-      <c r="E17" t="s" s="0">
+      <c r="E17" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="0">
+      <c r="F17">
         <v>62</v>
       </c>
-      <c r="H17" s="0">
+      <c r="H17">
         <f t="shared" si="0"/>
         <v>82.75</v>
       </c>
-      <c r="I17" s="0">
+      <c r="I17">
         <f t="shared" si="1"/>
         <v>42.531746031746032</v>
       </c>
@@ -12631,18 +12631,18 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K17" s="0">
+      <c r="K17">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
-      <c r="M17" t="s" s="0">
+      <c r="M17" t="s">
         <v>5</v>
       </c>
-      <c r="N17" s="0">
+      <c r="N17">
         <f>(SUMIF($E$3:$E$100, M17, $B$3:$B$100)/COUNTIF($E$3:$E$100, M17))</f>
         <v>103.25</v>
       </c>
-      <c r="O17" s="0">
+      <c r="O17">
         <f>(SUMIF($E$3:$E$100, M17, $F$3:$F$100)/COUNTIF($E$13:$E$100, M17))</f>
         <v>52.5</v>
       </c>
@@ -12651,26 +12651,26 @@
       <c r="A18" s="1">
         <v>45234</v>
       </c>
-      <c r="B18" s="0">
+      <c r="B18">
         <v>99</v>
       </c>
-      <c r="C18" t="s" s="0">
+      <c r="C18" t="s">
         <v>11</v>
       </c>
-      <c r="D18" t="s" s="0">
+      <c r="D18" t="s">
         <v>0</v>
       </c>
-      <c r="E18" t="s" s="0">
+      <c r="E18" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="0">
+      <c r="F18">
         <v>26</v>
       </c>
-      <c r="H18" s="0">
+      <c r="H18">
         <f t="shared" si="0"/>
         <v>89.305555555555557</v>
       </c>
-      <c r="I18" s="0">
+      <c r="I18">
         <f t="shared" si="1"/>
         <v>36.142857142857146</v>
       </c>
@@ -12678,7 +12678,7 @@
         <f t="shared" si="2"/>
         <v>92.375</v>
       </c>
-      <c r="K18" s="0">
+      <c r="K18">
         <f t="shared" si="3"/>
         <v>34.214285714285715</v>
       </c>
@@ -12687,26 +12687,26 @@
       <c r="A19" s="1">
         <v>45234</v>
       </c>
-      <c r="B19" s="0">
+      <c r="B19">
         <v>87</v>
       </c>
-      <c r="C19" t="s" s="0">
+      <c r="C19" t="s">
         <v>4</v>
       </c>
-      <c r="D19" t="s" s="0">
+      <c r="D19" t="s">
         <v>2</v>
       </c>
-      <c r="E19" t="s" s="0">
+      <c r="E19" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="0">
+      <c r="F19">
         <v>32</v>
       </c>
-      <c r="H19" s="0">
+      <c r="H19">
         <f t="shared" si="0"/>
         <v>99.833333333333329</v>
       </c>
-      <c r="I19" s="0">
+      <c r="I19">
         <f t="shared" si="1"/>
         <v>55.722222222222229</v>
       </c>
@@ -12714,7 +12714,7 @@
         <f t="shared" si="2"/>
         <v>98.125</v>
       </c>
-      <c r="K19" s="0">
+      <c r="K19">
         <f t="shared" si="3"/>
         <v>57.333333333333336</v>
       </c>
@@ -12723,26 +12723,26 @@
       <c r="A20" s="1">
         <v>45234</v>
       </c>
-      <c r="B20" s="0">
+      <c r="B20">
         <v>76</v>
       </c>
-      <c r="C20" t="s" s="0">
+      <c r="C20" t="s">
         <v>11</v>
       </c>
-      <c r="D20" t="s" s="0">
+      <c r="D20" t="s">
         <v>9</v>
       </c>
-      <c r="E20" t="s" s="0">
+      <c r="E20" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="0">
+      <c r="F20">
         <v>48</v>
       </c>
-      <c r="H20" s="0">
+      <c r="H20">
         <f t="shared" si="0"/>
         <v>82.75</v>
       </c>
-      <c r="I20" s="0">
+      <c r="I20">
         <f t="shared" si="1"/>
         <v>42.531746031746032</v>
       </c>
@@ -12750,7 +12750,7 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K20" s="0">
+      <c r="K20">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
@@ -12759,26 +12759,26 @@
       <c r="A21" s="1">
         <v>45234</v>
       </c>
-      <c r="B21" s="0">
+      <c r="B21">
         <v>93</v>
       </c>
-      <c r="C21" t="s" s="0">
+      <c r="C21" t="s">
         <v>11</v>
       </c>
-      <c r="D21" t="s" s="0">
+      <c r="D21" t="s">
         <v>9</v>
       </c>
-      <c r="E21" t="s" s="0">
+      <c r="E21" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="0">
+      <c r="F21">
         <v>40</v>
       </c>
-      <c r="H21" s="0">
+      <c r="H21">
         <f t="shared" si="0"/>
         <v>82.75</v>
       </c>
-      <c r="I21" s="0">
+      <c r="I21">
         <f t="shared" si="1"/>
         <v>42.531746031746032</v>
       </c>
@@ -12786,7 +12786,7 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K21" s="0">
+      <c r="K21">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
@@ -12795,26 +12795,26 @@
       <c r="A22" s="1">
         <v>45234</v>
       </c>
-      <c r="B22" s="0">
+      <c r="B22">
         <v>85</v>
       </c>
-      <c r="C22" t="s" s="0">
+      <c r="C22" t="s">
         <v>11</v>
       </c>
-      <c r="D22" t="s" s="0">
+      <c r="D22" t="s">
         <v>9</v>
       </c>
-      <c r="E22" t="s" s="0">
+      <c r="E22" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="0">
+      <c r="F22">
         <v>30</v>
       </c>
-      <c r="H22" s="0">
+      <c r="H22">
         <f t="shared" si="0"/>
         <v>82.75</v>
       </c>
-      <c r="I22" s="0">
+      <c r="I22">
         <f t="shared" si="1"/>
         <v>42.531746031746032</v>
       </c>
@@ -12822,7 +12822,7 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K22" s="0">
+      <c r="K22">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
@@ -12831,26 +12831,26 @@
       <c r="A23" s="1">
         <v>45234</v>
       </c>
-      <c r="B23" s="0">
+      <c r="B23">
         <v>49</v>
       </c>
-      <c r="C23" t="s" s="0">
+      <c r="C23" t="s">
         <v>11</v>
       </c>
-      <c r="D23" t="s" s="0">
+      <c r="D23" t="s">
         <v>9</v>
       </c>
-      <c r="E23" t="s" s="0">
+      <c r="E23" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="0">
+      <c r="F23">
         <v>34</v>
       </c>
-      <c r="H23" s="0">
+      <c r="H23">
         <f t="shared" si="0"/>
         <v>82.75</v>
       </c>
-      <c r="I23" s="0">
+      <c r="I23">
         <f t="shared" si="1"/>
         <v>42.531746031746032</v>
       </c>
@@ -12858,7 +12858,7 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K23" s="0">
+      <c r="K23">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
@@ -12878,67 +12878,67 @@
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="T28" s="0">
+      <c r="T28">
         <v>1</v>
       </c>
-      <c r="U28" t="s" s="0">
+      <c r="U28" t="s">
         <v>3</v>
       </c>
-      <c r="V28" t="s" s="0">
+      <c r="V28" t="s">
         <v>0</v>
       </c>
-      <c r="W28" t="s" s="0">
+      <c r="W28" t="s">
         <v>1</v>
       </c>
-      <c r="X28" s="0">
+      <c r="X28">
         <f>(N7+N10+N16)/3</f>
         <v>90.438888888888911</v>
       </c>
-      <c r="Y28" s="0">
+      <c r="Y28">
         <f>(O7+O10+O16)/3</f>
         <v>40.333333333333336</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="T29" s="0">
+      <c r="T29">
         <v>2</v>
       </c>
-      <c r="U29" t="s" s="0">
+      <c r="U29" t="s">
         <v>11</v>
       </c>
-      <c r="V29" t="s" s="0">
+      <c r="V29" t="s">
         <v>9</v>
       </c>
-      <c r="W29" t="s" s="0">
+      <c r="W29" t="s">
         <v>1</v>
       </c>
-      <c r="X29" s="0">
+      <c r="X29">
         <f>(N5+N11+N16)/3</f>
         <v>84.49444444444444</v>
       </c>
-      <c r="Y29" s="0">
+      <c r="Y29">
         <f>(O5+O11+O16)/3</f>
         <v>48.198412698412703</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="T30" s="0">
+      <c r="T30">
         <v>3</v>
       </c>
-      <c r="U30" t="s" s="0">
+      <c r="U30" t="s">
         <v>4</v>
       </c>
-      <c r="V30" t="s" s="0">
+      <c r="V30" t="s">
         <v>9</v>
       </c>
-      <c r="W30" t="s" s="0">
+      <c r="W30" t="s">
         <v>1</v>
       </c>
-      <c r="X30" s="0">
+      <c r="X30">
         <f>(N6+N11+N16)/3</f>
         <v>87.966666666666654</v>
       </c>
-      <c r="Y30" s="0">
+      <c r="Y30">
         <f>(O6+O11+O16)/3</f>
         <v>53.166666666666664</v>
       </c>
@@ -12952,67 +12952,67 @@
       <c r="W32" s="33"/>
     </row>
     <row r="33" spans="20:25" x14ac:dyDescent="0.3">
-      <c r="T33" s="0">
+      <c r="T33">
         <v>1</v>
       </c>
-      <c r="U33" t="s" s="0">
+      <c r="U33" t="s">
         <v>3</v>
       </c>
-      <c r="V33" t="s" s="0">
+      <c r="V33" t="s">
         <v>0</v>
       </c>
-      <c r="W33" t="s" s="0">
+      <c r="W33" t="s">
         <v>1</v>
       </c>
-      <c r="X33" s="0">
+      <c r="X33">
         <f>(N7+N10+N16)/3</f>
         <v>90.438888888888911</v>
       </c>
-      <c r="Y33" s="0">
+      <c r="Y33">
         <f>(O7+O10+O16)/3</f>
         <v>40.333333333333336</v>
       </c>
     </row>
     <row r="34" spans="20:25" x14ac:dyDescent="0.3">
-      <c r="T34" s="0">
+      <c r="T34">
         <v>2</v>
       </c>
-      <c r="U34" t="s" s="0">
+      <c r="U34" t="s">
         <v>11</v>
       </c>
-      <c r="V34" t="s" s="0">
+      <c r="V34" t="s">
         <v>9</v>
       </c>
-      <c r="W34" t="s" s="0">
+      <c r="W34" t="s">
         <v>10</v>
       </c>
-      <c r="X34" s="0">
+      <c r="X34">
         <f>(N5+N11+N15)/3</f>
         <v>82.75</v>
       </c>
-      <c r="Y34" s="0">
+      <c r="Y34">
         <f>(O5+O11+O15)/3</f>
         <v>42.531746031746032</v>
       </c>
     </row>
     <row r="35" spans="20:25" x14ac:dyDescent="0.3">
-      <c r="T35" s="0">
+      <c r="T35">
         <v>3</v>
       </c>
-      <c r="U35" t="s" s="0">
+      <c r="U35" t="s">
         <v>4</v>
       </c>
-      <c r="V35" t="s" s="0">
+      <c r="V35" t="s">
         <v>2</v>
       </c>
-      <c r="W35" t="s" s="0">
+      <c r="W35" t="s">
         <v>5</v>
       </c>
-      <c r="X35" s="0">
+      <c r="X35">
         <f>(N6+N12+N17)/3</f>
         <v>99.833333333333329</v>
       </c>
-      <c r="Y35" s="0">
+      <c r="Y35">
         <f>(O6+O12+O17)/3</f>
         <v>55.722222222222229</v>
       </c>
@@ -13069,160 +13069,160 @@
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="n">
-        <v>63.04653802464488</v>
-      </c>
-      <c r="B3" s="26" t="n">
+      <c r="A3" s="23">
+        <v>63.046538024644882</v>
+      </c>
+      <c r="B3" s="26">
         <v>38.764560098463484</v>
       </c>
-      <c r="C3" s="26" t="n">
+      <c r="C3" s="26">
         <v>20.939281288620293</v>
       </c>
-      <c r="D3" s="23" t="n">
-        <v>0.0</v>
+      <c r="D3" s="23">
+        <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="n">
-        <v>98.56542055987764</v>
-      </c>
-      <c r="B4" s="30" t="n">
-        <v>53.40400471101017</v>
-      </c>
-      <c r="C4" s="30" t="n">
-        <v>45.24028268506923</v>
-      </c>
-      <c r="D4" s="29" t="n">
-        <v>0.0</v>
+      <c r="A4" s="29">
+        <v>74.797872340599682</v>
+      </c>
+      <c r="B4" s="30">
+        <v>40.446030330182737</v>
+      </c>
+      <c r="C4" s="30">
+        <v>34.263157894769414</v>
+      </c>
+      <c r="D4" s="29">
+        <v>0</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="31" t="n">
-        <v>78.84931506750885</v>
-      </c>
-      <c r="B5" s="32" t="n">
-        <v>50.08888888780873</v>
-      </c>
-      <c r="C5" s="32" t="n">
+      <c r="A5" s="31">
+        <v>78.849315067508854</v>
+      </c>
+      <c r="B5" s="32">
+        <v>50.088888887808729</v>
+      </c>
+      <c r="C5" s="32">
         <v>28.755555555566744</v>
       </c>
-      <c r="D5" s="31" t="n">
-        <v>0.0</v>
+      <c r="D5" s="31">
+        <v>0</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="n">
+      <c r="A6" s="23">
         <v>62.061899679414424</v>
       </c>
-      <c r="B6" s="26" t="n">
-        <v>40.45314222669349</v>
-      </c>
-      <c r="C6" s="26" t="n">
-        <v>21.08269018725826</v>
-      </c>
-      <c r="D6" s="23" t="n">
-        <v>0.0</v>
+      <c r="B6" s="26">
+        <v>40.453142226693487</v>
+      </c>
+      <c r="C6" s="26">
+        <v>21.082690187258262</v>
+      </c>
+      <c r="D6" s="23">
+        <v>0</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="n">
-        <v>101.08671586657731</v>
-      </c>
-      <c r="B7" s="30" t="n">
-        <v>54.13642213607548</v>
-      </c>
-      <c r="C7" s="30" t="n">
-        <v>47.20849420829709</v>
-      </c>
-      <c r="D7" s="29" t="n">
-        <v>0.0</v>
+      <c r="A7" s="29">
+        <v>75.74516129069508</v>
+      </c>
+      <c r="B7" s="30">
+        <v>40.099142040113222</v>
+      </c>
+      <c r="C7" s="30">
+        <v>34.967588179361691</v>
+      </c>
+      <c r="D7" s="29">
+        <v>0</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="31" t="n">
-        <v>77.87785016147298</v>
-      </c>
-      <c r="B8" s="32" t="n">
+      <c r="A8" s="31">
+        <v>77.877850161472978</v>
+      </c>
+      <c r="B8" s="32">
         <v>48.273972601126175</v>
       </c>
-      <c r="C8" s="32" t="n">
-        <v>28.69863013697737</v>
-      </c>
-      <c r="D8" s="31" t="n">
-        <v>0.0</v>
+      <c r="C8" s="32">
+        <v>28.698630136977371</v>
+      </c>
+      <c r="D8" s="31">
+        <v>0</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="n">
-        <v>75.22368420881257</v>
-      </c>
-      <c r="B9" s="26" t="n">
-        <v>48.06140350758862</v>
-      </c>
-      <c r="C9" s="26" t="n">
+      <c r="A9" s="23">
+        <v>75.223684208812571</v>
+      </c>
+      <c r="B9" s="26">
+        <v>48.061403507588622</v>
+      </c>
+      <c r="C9" s="26">
         <v>26.390350876438607</v>
       </c>
-      <c r="D9" s="23" t="n">
-        <v>0.0</v>
+      <c r="D9" s="23">
+        <v>0</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="29" t="n">
-        <v>98.49940687975642</v>
-      </c>
-      <c r="B10" s="30" t="n">
-        <v>54.36061684427774</v>
-      </c>
-      <c r="C10" s="30" t="n">
-        <v>44.138790035478664</v>
-      </c>
-      <c r="D10" s="29" t="n">
-        <v>0.0</v>
+      <c r="A10" s="29">
+        <v>74.470852018152613</v>
+      </c>
+      <c r="B10" s="30">
+        <v>41.099551569560809</v>
+      </c>
+      <c r="C10" s="30">
+        <v>33.371300448591789</v>
+      </c>
+      <c r="D10" s="29">
+        <v>0</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="27" t="n">
-        <v>61.59240069143186</v>
-      </c>
-      <c r="B11" s="28" t="n">
+      <c r="A11" s="27">
+        <v>61.592400691431862</v>
+      </c>
+      <c r="B11" s="28">
         <v>30.261744966510754</v>
       </c>
-      <c r="C11" s="28" t="n">
+      <c r="C11" s="28">
         <v>24.067114094025488</v>
       </c>
-      <c r="D11" s="27" t="n">
-        <v>0.0</v>
+      <c r="D11" s="27">
+        <v>0</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s" s="0">
+      <c r="A13" t="s">
         <v>35</v>
       </c>
     </row>
@@ -13388,35 +13388,35 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" bestFit="true" customWidth="true" width="9.5546875"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.0"/>
-    <col min="5" max="7" bestFit="true" customWidth="true" width="9.5546875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="9.0"/>
-    <col min="9" max="11" bestFit="true" customWidth="true" width="9.5546875"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="9.0"/>
-    <col min="13" max="15" bestFit="true" customWidth="true" width="9.5546875"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="9.0"/>
+    <col min="1" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:64" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="42"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="38"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
@@ -13467,30 +13467,30 @@
       <c r="BL1" s="2"/>
     </row>
     <row r="2" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39" t="s">
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="39" t="s">
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="37" t="s">
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="40"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="46"/>
       <c r="Y2" s="33"/>
       <c r="Z2" s="33"/>
       <c r="AA2" s="33"/>
@@ -13501,13 +13501,13 @@
       <c r="AF2" s="33"/>
     </row>
     <row r="3" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="9" t="s">
@@ -13516,10 +13516,10 @@
       <c r="E3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F3" t="s" s="0">
+      <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" t="s" s="0">
+      <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" s="9" t="s">
@@ -13528,22 +13528,22 @@
       <c r="I3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J3" t="s" s="0">
+      <c r="J3" t="s">
         <v>17</v>
       </c>
-      <c r="K3" t="s" s="0">
+      <c r="K3" t="s">
         <v>28</v>
       </c>
       <c r="L3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="M3" t="s" s="0">
+      <c r="M3" t="s">
         <v>23</v>
       </c>
-      <c r="N3" t="s" s="0">
+      <c r="N3" t="s">
         <v>17</v>
       </c>
-      <c r="O3" t="s" s="0">
+      <c r="O3" t="s">
         <v>28</v>
       </c>
       <c r="P3" s="6" t="s">
@@ -13551,218 +13551,218 @@
       </c>
     </row>
     <row r="4" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="n">
-        <v>62.55421885202965</v>
-      </c>
-      <c r="B4" s="13" t="n">
-        <v>39.60885116257849</v>
-      </c>
-      <c r="C4" s="13" t="n">
-        <v>21.01098573793928</v>
-      </c>
-      <c r="D4" s="14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E4" s="15" t="n">
-        <v>65.08811192338624</v>
-      </c>
-      <c r="F4" s="13" t="n">
-        <v>41.29936163158052</v>
-      </c>
-      <c r="G4" s="13" t="n">
+      <c r="A4" s="13">
+        <v>62.554218852029649</v>
+      </c>
+      <c r="B4" s="13">
+        <v>39.608851162578489</v>
+      </c>
+      <c r="C4" s="13">
+        <v>21.010985737939279</v>
+      </c>
+      <c r="D4" s="14">
+        <v>0</v>
+      </c>
+      <c r="E4" s="15">
+        <v>65.088111923386236</v>
+      </c>
+      <c r="F4" s="13">
+        <v>41.299361631580517</v>
+      </c>
+      <c r="G4" s="13">
         <v>22.086858765639143</v>
       </c>
-      <c r="H4" s="14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I4" s="15" t="n">
-        <v>69.743256457575</v>
-      </c>
-      <c r="J4" s="13" t="n">
-        <v>42.55920429891834</v>
-      </c>
-      <c r="K4" s="13" t="n">
-        <v>25.636546597447158</v>
-      </c>
-      <c r="L4" s="14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M4" s="13" t="n">
+      <c r="H4" s="14">
+        <v>0</v>
+      </c>
+      <c r="I4" s="15">
+        <v>64.937545485254233</v>
+      </c>
+      <c r="J4" s="13">
+        <v>39.906991243974957</v>
+      </c>
+      <c r="K4" s="13">
+        <v>23.483048680069782</v>
+      </c>
+      <c r="L4" s="14">
+        <v>0</v>
+      </c>
+      <c r="M4" s="13">
         <v>62.36185521991009</v>
       </c>
-      <c r="N4" s="13" t="n">
-        <v>37.73942992336494</v>
-      </c>
-      <c r="O4" s="13" t="n">
+      <c r="N4" s="13">
+        <v>37.739429923364938</v>
+      </c>
+      <c r="O4" s="13">
         <v>21.62221140915652</v>
       </c>
-      <c r="P4" s="16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q4" t="s" s="0">
+      <c r="P4" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="n">
-        <v>99.82606821322747</v>
-      </c>
-      <c r="B5" s="13" t="n">
-        <v>53.77021342354283</v>
-      </c>
-      <c r="C5" s="13" t="n">
-        <v>46.224388446683164</v>
-      </c>
-      <c r="D5" s="14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E5" s="15" t="n">
-        <v>94.90559141234449</v>
-      </c>
-      <c r="F5" s="13" t="n">
-        <v>52.62845144035199</v>
-      </c>
-      <c r="G5" s="13" t="n">
-        <v>42.257580932634255</v>
-      </c>
-      <c r="H5" s="14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I5" s="15" t="n">
-        <v>99.56073594653326</v>
-      </c>
-      <c r="J5" s="13" t="n">
-        <v>53.88829410768981</v>
-      </c>
-      <c r="K5" s="13" t="n">
-        <v>45.80726876444227</v>
-      </c>
-      <c r="L5" s="14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M5" s="13" t="n">
-        <v>92.17933470886835</v>
-      </c>
-      <c r="N5" s="13" t="n">
-        <v>49.06851973213641</v>
-      </c>
-      <c r="O5" s="13" t="n">
-        <v>41.79293357615163</v>
-      </c>
-      <c r="P5" s="16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q5" t="s" s="0">
+      <c r="A5" s="13">
+        <v>75.271516815647374</v>
+      </c>
+      <c r="B5" s="13">
+        <v>40.272586185147979</v>
+      </c>
+      <c r="C5" s="13">
+        <v>34.615373037065552</v>
+      </c>
+      <c r="D5" s="14">
+        <v>0</v>
+      </c>
+      <c r="E5" s="15">
+        <v>75.26195029428041</v>
+      </c>
+      <c r="F5" s="13">
+        <v>41.830349649636105</v>
+      </c>
+      <c r="G5" s="13">
+        <v>32.970368604940163</v>
+      </c>
+      <c r="H5" s="14">
+        <v>0</v>
+      </c>
+      <c r="I5" s="15">
+        <v>75.111383856148422</v>
+      </c>
+      <c r="J5" s="13">
+        <v>40.437979262030545</v>
+      </c>
+      <c r="K5" s="13">
+        <v>34.366558519370798</v>
+      </c>
+      <c r="L5" s="14">
+        <v>0</v>
+      </c>
+      <c r="M5" s="13">
+        <v>72.535693590804271</v>
+      </c>
+      <c r="N5" s="13">
+        <v>38.270417941420533</v>
+      </c>
+      <c r="O5" s="13">
+        <v>32.50572124845754</v>
+      </c>
+      <c r="P5" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="17" t="n">
-        <v>78.36358261449092</v>
-      </c>
-      <c r="B6" s="17" t="n">
-        <v>49.18143074446745</v>
-      </c>
-      <c r="C6" s="17" t="n">
+      <c r="A6" s="17">
+        <v>78.363582614490923</v>
+      </c>
+      <c r="B6" s="17">
+        <v>49.181430744467448</v>
+      </c>
+      <c r="C6" s="17">
         <v>28.727092846272058</v>
       </c>
-      <c r="D6" s="18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E6" s="19" t="n">
-        <v>77.73560293335525</v>
-      </c>
-      <c r="F6" s="17" t="n">
-        <v>48.95742529709169</v>
-      </c>
-      <c r="G6" s="17" t="n">
+      <c r="D6" s="18">
+        <v>0</v>
+      </c>
+      <c r="E6" s="19">
+        <v>77.735602933355253</v>
+      </c>
+      <c r="F6" s="17">
+        <v>48.957425297091689</v>
+      </c>
+      <c r="G6" s="17">
         <v>28.25974445230537</v>
       </c>
-      <c r="H6" s="18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I6" s="19" t="n">
-        <v>82.39074746754402</v>
-      </c>
-      <c r="J6" s="17" t="n">
-        <v>50.2172679644295</v>
-      </c>
-      <c r="K6" s="17" t="n">
-        <v>31.80943228411338</v>
-      </c>
-      <c r="L6" s="18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M6" s="17" t="n">
-        <v>75.00934622987911</v>
-      </c>
-      <c r="N6" s="17" t="n">
+      <c r="H6" s="18">
+        <v>0</v>
+      </c>
+      <c r="I6" s="19">
+        <v>77.585036495223264</v>
+      </c>
+      <c r="J6" s="17">
+        <v>47.565054909486122</v>
+      </c>
+      <c r="K6" s="17">
+        <v>29.655934366736005</v>
+      </c>
+      <c r="L6" s="18">
+        <v>0</v>
+      </c>
+      <c r="M6" s="17">
+        <v>75.009346229879114</v>
+      </c>
+      <c r="N6" s="17">
         <v>45.39749358887611</v>
       </c>
-      <c r="O6" s="17" t="n">
+      <c r="O6" s="17">
         <v>27.795097095822747</v>
       </c>
-      <c r="P6" s="20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q6" t="s" s="0">
+      <c r="P6" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:64" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="42"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="38"/>
     </row>
     <row r="8" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39" t="s">
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="39" t="s">
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="37" t="s">
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="46"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="45"/>
     </row>
     <row r="9" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s" s="0">
+      <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" t="s" s="0">
+      <c r="C9" t="s">
         <v>28</v>
       </c>
       <c r="D9" s="9" t="s">
@@ -13771,10 +13771,10 @@
       <c r="E9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F9" t="s" s="0">
+      <c r="F9" t="s">
         <v>17</v>
       </c>
-      <c r="G9" t="s" s="0">
+      <c r="G9" t="s">
         <v>28</v>
       </c>
       <c r="H9" s="9" t="s">
@@ -13783,22 +13783,22 @@
       <c r="I9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J9" t="s" s="0">
+      <c r="J9" t="s">
         <v>17</v>
       </c>
-      <c r="K9" t="s" s="0">
+      <c r="K9" t="s">
         <v>28</v>
       </c>
       <c r="L9" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="M9" t="s" s="0">
+      <c r="M9" t="s">
         <v>23</v>
       </c>
-      <c r="N9" t="s" s="0">
+      <c r="N9" t="s">
         <v>17</v>
       </c>
-      <c r="O9" t="s" s="0">
+      <c r="O9" t="s">
         <v>28</v>
       </c>
       <c r="P9" s="6" t="s">
@@ -13806,201 +13806,201 @@
       </c>
     </row>
     <row r="10" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="n">
-        <v>59.95238095238095</v>
-      </c>
-      <c r="B10" t="n" s="0">
+      <c r="A10" s="4">
+        <v>59.952380952380949</v>
+      </c>
+      <c r="B10">
         <v>38.073170731707314</v>
       </c>
-      <c r="C10" t="n" s="0">
+      <c r="C10">
         <v>19.951219512195124</v>
       </c>
-      <c r="D10" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E10" s="11" t="n">
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="11">
         <v>64.875</v>
       </c>
-      <c r="F10" t="n" s="0">
-        <v>43.0</v>
-      </c>
-      <c r="G10" t="n" s="0">
+      <c r="F10">
+        <v>43</v>
+      </c>
+      <c r="G10">
         <v>19.875</v>
       </c>
-      <c r="H10" s="9" t="n">
-        <v>0.0</v>
+      <c r="H10" s="9">
+        <v>0</v>
       </c>
       <c r="I10" s="11" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="J10" t="e" s="0">
+      <c r="J10" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="K10" t="e" s="0">
+      <c r="K10" t="e">
         <v>#NUM!</v>
       </c>
       <c r="L10" s="9" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="M10" t="n" s="0">
+      <c r="M10">
         <v>44.2</v>
       </c>
-      <c r="N10" t="n" s="0">
+      <c r="N10">
         <v>20.555555555555557</v>
       </c>
-      <c r="O10" t="n" s="0">
-        <v>20.22222222222222</v>
-      </c>
-      <c r="P10" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q10" t="s" s="0">
+      <c r="O10">
+        <v>20.222222222222221</v>
+      </c>
+      <c r="P10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="n">
-        <v>98.81481481481481</v>
-      </c>
-      <c r="B11" t="n" s="0">
-        <v>52.64150943396226</v>
-      </c>
-      <c r="C11" t="n" s="0">
-        <v>46.35849056603774</v>
-      </c>
-      <c r="D11" s="9" t="n">
-        <v>0.0</v>
+      <c r="A11" s="4">
+        <v>76.228571428571428</v>
+      </c>
+      <c r="B11">
+        <v>40.434782608695649</v>
+      </c>
+      <c r="C11">
+        <v>35.608695652173914</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0</v>
       </c>
       <c r="E11" s="11" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="F11" t="e" s="0">
+      <c r="F11" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="G11" t="e" s="0">
+      <c r="G11" t="e">
         <v>#NUM!</v>
       </c>
       <c r="H11" s="9" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="I11" s="11" t="n">
-        <v>99.0</v>
-      </c>
-      <c r="J11" t="n" s="0">
-        <v>52.64150943396226</v>
-      </c>
-      <c r="K11" t="n" s="0">
-        <v>46.35849056603774</v>
-      </c>
-      <c r="L11" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M11" t="n" s="0">
-        <v>89.0</v>
-      </c>
-      <c r="N11" t="e" s="0">
+      <c r="I11" s="11">
+        <v>76.043478260869563</v>
+      </c>
+      <c r="J11">
+        <v>40.434782608695649</v>
+      </c>
+      <c r="K11">
+        <v>35.608695652173914</v>
+      </c>
+      <c r="L11" s="9">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>89</v>
+      </c>
+      <c r="N11" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="O11" t="e" s="0">
+      <c r="O11" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="P11" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q11" t="s" s="0">
+      <c r="P11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="n">
-        <v>76.76190476190476</v>
-      </c>
-      <c r="B12" s="5" t="n">
+      <c r="A12" s="8">
+        <v>76.761904761904759</v>
+      </c>
+      <c r="B12" s="5">
         <v>45.8</v>
       </c>
-      <c r="C12" s="5" t="n">
+      <c r="C12" s="5">
         <v>28.8</v>
       </c>
-      <c r="D12" s="10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E12" s="12" t="n">
+      <c r="D12" s="10">
+        <v>0</v>
+      </c>
+      <c r="E12" s="12">
         <v>98.5</v>
       </c>
-      <c r="F12" s="5" t="n">
+      <c r="F12" s="5">
         <v>59.5</v>
       </c>
-      <c r="G12" s="5" t="n">
-        <v>39.0</v>
-      </c>
-      <c r="H12" s="10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I12" s="12" t="n">
-        <v>65.0</v>
-      </c>
-      <c r="J12" s="5" t="n">
-        <v>57.0</v>
-      </c>
-      <c r="K12" s="5" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="L12" s="10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M12" s="5" t="n">
+      <c r="G12" s="5">
+        <v>39</v>
+      </c>
+      <c r="H12" s="10">
+        <v>0</v>
+      </c>
+      <c r="I12" s="12">
+        <v>65</v>
+      </c>
+      <c r="J12" s="5">
+        <v>57</v>
+      </c>
+      <c r="K12" s="5">
+        <v>8</v>
+      </c>
+      <c r="L12" s="10">
+        <v>0</v>
+      </c>
+      <c r="M12" s="5">
         <v>62.666666666666664</v>
       </c>
-      <c r="N12" s="5" t="n">
+      <c r="N12" s="5">
         <v>26.5</v>
       </c>
-      <c r="O12" s="5" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="P12" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q12" t="s" s="0">
+      <c r="O12" s="5">
+        <v>29</v>
+      </c>
+      <c r="P12" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" t="s" s="0">
+      <c r="A22" t="s">
         <v>38</v>
       </c>
-      <c r="E22" t="s" s="0">
+      <c r="E22" t="s">
         <v>39</v>
       </c>
-      <c r="I22" t="s" s="0">
+      <c r="I22" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" t="s" s="0">
+      <c r="A23" t="s">
         <v>10</v>
       </c>
-      <c r="B23" t="s" s="0">
+      <c r="B23" t="s">
         <v>5</v>
       </c>
-      <c r="C23" t="s" s="0">
+      <c r="C23" t="s">
         <v>1</v>
       </c>
-      <c r="E23" t="s" s="0">
+      <c r="E23" t="s">
         <v>10</v>
       </c>
-      <c r="F23" t="s" s="0">
+      <c r="F23" t="s">
         <v>5</v>
       </c>
-      <c r="G23" t="s" s="0">
+      <c r="G23" t="s">
         <v>1</v>
       </c>
-      <c r="I23" t="s" s="0">
+      <c r="I23" t="s">
         <v>10</v>
       </c>
-      <c r="J23" t="s" s="0">
+      <c r="J23" t="s">
         <v>5</v>
       </c>
-      <c r="K23" t="s" s="0">
+      <c r="K23" t="s">
         <v>1</v>
       </c>
     </row>
@@ -14041,7 +14041,7 @@
         <f>N6</f>
         <v>27.721477428199353</v>
       </c>
-      <c r="M24" t="s" s="0">
+      <c r="M24" t="s">
         <v>17</v>
       </c>
     </row>
@@ -14082,100 +14082,100 @@
         <f>O6</f>
         <v>28.413885088933256</v>
       </c>
-      <c r="M25" t="s" s="0">
+      <c r="M25" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="0">
+      <c r="A27">
         <f>F10</f>
         <v>40.6</v>
       </c>
-      <c r="B27" t="e" s="0">
+      <c r="B27" t="e">
         <f>J10</f>
         <v>#NUM!</v>
       </c>
-      <c r="C27" s="0">
+      <c r="C27">
         <f>N10</f>
         <v>29.666666666666668</v>
       </c>
-      <c r="E27" t="e" s="0">
+      <c r="E27" t="e">
         <f>F11</f>
         <v>#NUM!</v>
       </c>
-      <c r="F27" s="0">
+      <c r="F27">
         <f>J11</f>
         <v>47.333333333333336</v>
       </c>
-      <c r="G27" t="e" s="0">
+      <c r="G27" t="e">
         <f>N11</f>
         <v>#NUM!</v>
       </c>
-      <c r="I27" t="e" s="0">
+      <c r="I27" t="e">
         <f>F12</f>
         <v>#NUM!</v>
       </c>
-      <c r="J27" t="e" s="0">
+      <c r="J27" t="e">
         <f>J12</f>
         <v>#NUM!</v>
       </c>
-      <c r="K27" s="0">
+      <c r="K27">
         <f>N12</f>
         <v>26.5</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="0">
+      <c r="A28">
         <f>G10</f>
         <v>18.600000000000001</v>
       </c>
-      <c r="B28" t="e" s="0">
+      <c r="B28" t="e">
         <f>K10</f>
         <v>#NUM!</v>
       </c>
-      <c r="C28" s="0">
+      <c r="C28">
         <f>O10</f>
         <v>27.666666666666668</v>
       </c>
-      <c r="E28" t="e" s="0">
+      <c r="E28" t="e">
         <f>G11</f>
         <v>#NUM!</v>
       </c>
-      <c r="F28" s="0">
+      <c r="F28">
         <f>K11</f>
         <v>41</v>
       </c>
-      <c r="G28" t="e" s="0">
+      <c r="G28" t="e">
         <f>O11</f>
         <v>#NUM!</v>
       </c>
-      <c r="I28" t="e" s="0">
+      <c r="I28" t="e">
         <f>G12</f>
         <v>#NUM!</v>
       </c>
-      <c r="J28" t="e" s="0">
+      <c r="J28" t="e">
         <f>K12</f>
         <v>#NUM!</v>
       </c>
-      <c r="K28" s="0">
+      <c r="K28">
         <f>O12</f>
         <v>29</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="Y2:AB2"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="M2:P2"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A7:P7"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="E8:H8"/>
     <mergeCell ref="I8:L8"/>
     <mergeCell ref="M8:P8"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="Y2:AB2"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="M2:P2"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:A6">
     <cfRule type="colorScale" priority="11">
@@ -14259,7 +14259,103 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4 I4 M4">
+  <conditionalFormatting sqref="E5 I5 M5">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11 I11 M11">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4 J4 N4">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6 J6 N6">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10 J10 N10">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12 J12 N12">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5 K5 O5">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11 K11 O11">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4 E4 M4">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -14271,7 +14367,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6 I6 M6">
+  <conditionalFormatting sqref="I6 E6 M6">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -14283,7 +14379,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E10 I10 M10">
+  <conditionalFormatting sqref="I10 E10 M10">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -14295,7 +14391,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12 I12 M12">
+  <conditionalFormatting sqref="I12 E12 M12">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -14307,7 +14403,55 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5 N5 J5">
+  <conditionalFormatting sqref="J11 F11 N11">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6 G6 O6">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10 G10 O10">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12 G12 O12">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5 F5 J5">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -14319,152 +14463,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11 J11 N11">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4 O4 K4">
+  <conditionalFormatting sqref="O4 G4 K4">
     <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6 K6 O6">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G10 K10 O10">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12 K12 O12">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5 E5 M5">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11 E11 M11">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4 F4 N4">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J6 F6 N6">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J10 F10 N10">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J12 F12 N12">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5 G5 O5">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K11 G11 O11">
-    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/Red Team Data.xlsx
+++ b/Red Team Data.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Desktop\FTCStats\FTCStats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3085CBA-D30F-4756-9846-A3D9B6F45B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7543573F-D8AE-40C6-B1AA-D65ED048A9BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{943F8BFE-BB93-4FCB-9D8B-2434F109755A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{943F8BFE-BB93-4FCB-9D8B-2434F109755A}"/>
   </bookViews>
   <sheets>
     <sheet name="Match Data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="45">
   <si>
     <t>Cyrus</t>
   </si>
@@ -174,7 +174,7 @@
     <t>Auto</t>
   </si>
   <si>
-    <t>Added 30 points for an assumed good airplane; kept only 5 for parking, no hang</t>
+    <t>Added 20 points for an assumed average airplane; kept only 5 for parking, no hang</t>
   </si>
 </sst>
 </file>
@@ -571,6 +571,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -583,22 +595,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1293,13 +1293,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>38.764560098463484</c:v>
+                  <c:v>36.550387596685354</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40.446030330182737</c:v>
+                  <c:v>28.46172763642895</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50.088888887808729</c:v>
+                  <c:v>41.264406779346508</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1408,13 +1408,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>20.939281288620293</c:v>
+                  <c:v>24.964341084739846</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.263157894769414</c:v>
+                  <c:v>28.399938518511142</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.755555555566744</c:v>
+                  <c:v>29.450847457615403</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1804,13 +1804,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>40.453142226693487</c:v>
+                  <c:v>38.010101010074557</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40.099142040113222</c:v>
+                  <c:v>25.978370027409998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48.273972601126175</c:v>
+                  <c:v>41.664285713072118</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1919,13 +1919,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>21.082690187258262</c:v>
+                  <c:v>28.113442112952178</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.967588179361691</c:v>
+                  <c:v>27.387022016561566</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.698630136977371</c:v>
+                  <c:v>28.699999999990283</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2315,13 +2315,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>48.061403507588622</c:v>
+                  <c:v>40.709821428407864</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41.099551569560809</c:v>
+                  <c:v>28.034216706101521</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.261744966510754</c:v>
+                  <c:v>33.58526315763708</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2430,13 +2430,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>26.390350876438607</c:v>
+                  <c:v>28.529017856603677</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33.371300448591789</c:v>
+                  <c:v>26.785977860076873</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.067114094025488</c:v>
+                  <c:v>29.861052631104354</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2825,13 +2825,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>39.608851162578489</c:v>
+                  <c:v>37.280244303379959</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40.272586185147979</c:v>
+                  <c:v>27.220048831919474</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49.181430744467448</c:v>
+                  <c:v>41.464346246209317</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2940,13 +2940,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>21.010985737939279</c:v>
+                  <c:v>26.538891598846014</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.615373037065552</c:v>
+                  <c:v>27.893480267536354</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.727092846272058</c:v>
+                  <c:v>29.075423728802843</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4338,13 +4338,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>38.073170731707314</c:v>
+                  <c:v>36.578947368421055</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40.434782608695649</c:v>
+                  <c:v>44.339622641509436</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45.8</c:v>
+                  <c:v>39.799999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4453,10 +4453,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>19.951219512195124</c:v>
+                  <c:v>22.982456140350877</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35.608695652173914</c:v>
+                  <c:v>46.358490566037737</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>28.8</c:v>
@@ -10781,16 +10781,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E71918B-9D42-46BC-B578-CF08432FB725}">
-  <dimension ref="A1:Y48"/>
+  <dimension ref="A1:Y58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="108" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L44" sqref="L44"/>
+    <sheetView topLeftCell="A42" zoomScale="108" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N52" sqref="N52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="10.0"/>
+    <col min="5" max="5" customWidth="true" width="10.6640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
@@ -10823,31 +10823,31 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B2" s="1">
         <v>45237</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="0">
         <v>106</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="0">
         <v>-1</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="0">
         <v>-1</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="0">
         <v>0</v>
       </c>
       <c r="M2" s="2"/>
@@ -10860,721 +10860,721 @@
       <c r="T2" s="2"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B3" s="1">
         <v>45237</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="0">
         <v>83</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="0">
         <v>-1</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="0">
         <v>-1</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B4" s="1">
         <v>45237</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="0">
         <v>89</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="0">
         <v>-1</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="0">
         <v>-1</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="0">
         <v>0</v>
       </c>
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B5" s="1">
         <v>45238</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="0">
         <v>71</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="0">
         <v>-1</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="0">
         <v>-1</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B6" s="1">
         <v>45238</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="0">
         <v>88</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="0">
         <v>-1</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="0">
         <v>-1</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B7" s="1">
         <v>45238</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="0">
         <v>111</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="0">
         <v>-1</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="0">
         <v>-1</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B8" s="1">
         <v>45238</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="0">
         <v>34</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="0">
         <v>-1</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="0">
         <v>-1</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B9" s="1">
         <v>45238</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="0">
         <v>120</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="0">
         <v>-1</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="0">
         <v>-1</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="0">
         <v>0</v>
       </c>
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B10" s="1">
         <v>45238</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="0">
         <v>75</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="0">
         <v>-1</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="0">
         <v>-1</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B11" s="1">
         <v>45237</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="0">
         <v>111</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="0">
         <v>66</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="0">
         <v>45</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B12" s="1">
         <v>45238</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="0">
         <v>107</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="0">
         <v>57</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="0">
         <v>50</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="0">
         <v>0</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B13" s="1">
         <v>45234</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="0">
         <v>72</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="0">
         <v>44</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="0">
         <v>28</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B14" s="1">
         <v>45234</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="0">
         <v>97</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="0">
         <v>51</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="0">
         <v>30</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="0">
         <v>0</v>
       </c>
       <c r="M14" s="2"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B15" s="1">
         <v>45234</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="0">
         <v>54</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="0">
         <v>26</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="0">
         <v>28</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B16" s="1">
         <v>45234</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="0">
         <v>82</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="0">
         <v>32</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="0">
         <v>50</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B17" s="1">
         <v>45234</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="0">
         <v>60</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="0">
         <v>40</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="0">
         <v>20</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B18" s="1">
         <v>45234</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="0">
         <v>56</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="0">
         <v>48</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="0">
         <v>8</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B19" s="1">
         <v>45234</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="0">
         <v>60</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="0">
         <v>30</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="0">
         <v>30</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B20" s="1">
         <v>45234</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="0">
         <v>39</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="0">
         <v>34</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="0">
         <v>5</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B21" s="1">
         <v>45241</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="0">
         <v>32</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="0">
         <v>4</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="0">
         <v>28</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="0">
         <v>0</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" t="s" s="0">
         <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B22" s="1">
         <v>45241</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="0">
         <v>83</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="0">
         <v>55</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="0">
         <v>28</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="0">
         <v>0</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" t="s" s="0">
         <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B23" s="1">
         <v>45241</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="0">
         <v>56</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="0">
         <v>26</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="0">
         <v>30</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="0">
         <v>0</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" t="s" s="0">
         <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B24" s="1">
         <v>45241</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="0">
         <v>33</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="0">
         <v>28</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="0">
         <v>5</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="0">
         <v>0</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" t="s" s="0">
         <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="A25" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B25" s="1">
         <v>45241</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="0">
         <v>56</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="0">
         <v>36</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="0">
         <v>20</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="0">
         <v>0</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K25" t="s" s="0">
         <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="A26" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B26" s="1">
         <v>45241</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="0">
         <v>55</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="0">
         <v>27</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="0">
         <v>28</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="0">
         <v>0</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K26" t="s" s="0">
         <v>33</v>
       </c>
       <c r="T26" s="33"/>
@@ -11585,121 +11585,121 @@
       <c r="Y26" s="2"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="A27" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B27" s="1">
         <v>45255</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" t="s" s="0">
         <v>10</v>
       </c>
       <c r="F27" s="22">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="G27" s="22">
-        <v>45</v>
-      </c>
-      <c r="H27">
+        <v>35</v>
+      </c>
+      <c r="H27" s="0">
         <v>30</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="0">
         <v>0</v>
       </c>
       <c r="L27" s="22"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="A28" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B28" s="1">
         <v>45255</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" t="s" s="0">
         <v>10</v>
       </c>
       <c r="F28" s="22">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G28" s="22">
-        <v>42</v>
-      </c>
-      <c r="H28">
+        <v>32</v>
+      </c>
+      <c r="H28" s="0">
         <v>8</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="0">
         <v>0</v>
       </c>
       <c r="L28" s="22"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="A29" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B29" s="1">
         <v>45255</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" t="s" s="0">
         <v>10</v>
       </c>
       <c r="F29" s="22">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="G29" s="22">
-        <v>54</v>
-      </c>
-      <c r="H29">
+        <v>44</v>
+      </c>
+      <c r="H29" s="0">
         <v>28</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="0">
         <v>0</v>
       </c>
       <c r="L29" s="22"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="A30" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B30" s="1">
         <v>45256</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" t="s" s="0">
         <v>10</v>
       </c>
       <c r="F30" s="22">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="G30" s="22">
-        <v>62</v>
-      </c>
-      <c r="H30">
+        <v>52</v>
+      </c>
+      <c r="H30" s="0">
         <v>50</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="0">
         <v>0</v>
       </c>
       <c r="L30" s="22" t="s">
@@ -11707,31 +11707,31 @@
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="A31" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B31" s="1">
         <v>45256</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" t="s" s="0">
         <v>5</v>
       </c>
       <c r="F31" s="22">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="G31" s="22">
-        <v>57</v>
-      </c>
-      <c r="H31">
+        <v>47</v>
+      </c>
+      <c r="H31" s="0">
         <v>8</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="0">
         <v>0</v>
       </c>
       <c r="L31" s="22"/>
@@ -11741,379 +11741,747 @@
       <c r="W31" s="34"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="A32" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>45256</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" t="s" s="0">
         <v>10</v>
       </c>
       <c r="F32" s="22">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G32" s="22">
-        <v>57</v>
-      </c>
-      <c r="H32">
+        <v>47</v>
+      </c>
+      <c r="H32" s="0">
         <v>28</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="0">
         <v>0</v>
       </c>
       <c r="L32" s="22"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="A33" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B33" s="1">
         <v>45256</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" t="s" s="0">
         <v>5</v>
       </c>
       <c r="F33" s="22">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="G33" s="22">
-        <v>45</v>
-      </c>
-      <c r="H33">
+        <v>35</v>
+      </c>
+      <c r="H33" s="0">
         <v>50</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="0">
         <v>0</v>
       </c>
       <c r="L33" s="22"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="A34" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B34" s="1">
         <v>45256</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" t="s" s="0">
         <v>5</v>
       </c>
       <c r="F34" s="22">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="G34" s="22">
-        <v>45</v>
-      </c>
-      <c r="H34">
+        <v>35</v>
+      </c>
+      <c r="H34" s="0">
         <v>50</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="0">
         <v>0</v>
       </c>
       <c r="L34" s="22"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="A35" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B35" s="1">
         <v>45256</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" t="s" s="0">
         <v>5</v>
       </c>
       <c r="F35" s="22">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="G35" s="22">
-        <v>60</v>
-      </c>
-      <c r="H35">
         <v>50</v>
       </c>
-      <c r="I35">
+      <c r="H35" s="0">
+        <v>50</v>
+      </c>
+      <c r="I35" s="0">
         <v>0</v>
       </c>
       <c r="L35" s="22"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="A36" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B36" s="1">
         <v>45256</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" t="s" s="0">
         <v>5</v>
       </c>
       <c r="F36" s="22">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="G36" s="22">
-        <v>59</v>
-      </c>
-      <c r="H36">
+        <v>49</v>
+      </c>
+      <c r="H36" s="0">
         <v>50</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="0">
         <v>0</v>
       </c>
       <c r="L36" s="22"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="A37" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B37" s="1">
         <v>45256</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" t="s" s="0">
         <v>5</v>
       </c>
       <c r="F37" s="22">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="G37" s="22">
-        <v>57</v>
-      </c>
-      <c r="H37">
+        <v>47</v>
+      </c>
+      <c r="H37" s="0">
         <v>50</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="0">
         <v>0</v>
       </c>
       <c r="L37" s="22"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="A38" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B38" s="1">
         <v>45256</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" t="s" s="0">
         <v>5</v>
       </c>
       <c r="F38" s="22">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="G38" s="22">
-        <v>47</v>
-      </c>
-      <c r="H38">
+        <v>37</v>
+      </c>
+      <c r="H38" s="0">
         <v>50</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="0">
         <v>0</v>
       </c>
       <c r="L38" s="22"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="A39" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B39" s="1">
         <v>45256</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" t="s" s="0">
         <v>5</v>
       </c>
       <c r="F39" s="22">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="G39" s="22">
-        <v>51</v>
-      </c>
-      <c r="H39">
+        <v>41</v>
+      </c>
+      <c r="H39" s="0">
         <v>50</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="0">
         <v>0</v>
       </c>
       <c r="L39" s="22"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="A40" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B40" s="1">
         <v>45256</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" t="s" s="0">
         <v>5</v>
       </c>
       <c r="F40" s="22">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G40" s="22">
-        <v>43</v>
-      </c>
-      <c r="H40">
+        <v>33</v>
+      </c>
+      <c r="H40" s="0">
         <v>45</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="0">
         <v>0</v>
       </c>
       <c r="L40" s="22"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="A41" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B41" s="1">
         <v>45256</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" t="s" s="0">
         <v>5</v>
       </c>
       <c r="F41" s="22">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="G41" s="22">
-        <v>75</v>
-      </c>
-      <c r="H41">
+        <v>65</v>
+      </c>
+      <c r="H41" s="0">
         <v>50</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="0">
         <v>0</v>
       </c>
       <c r="L41" s="22"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="A42" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B42" s="1">
         <v>45256</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" t="s" s="0">
         <v>5</v>
       </c>
       <c r="F42" s="22">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G42" s="22">
-        <v>70</v>
-      </c>
-      <c r="H42">
+        <v>60</v>
+      </c>
+      <c r="H42" s="0">
         <v>30</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="0">
         <v>0</v>
       </c>
       <c r="L42" s="22"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="A43" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B43" s="1">
         <v>45256</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" t="s" s="0">
         <v>5</v>
       </c>
       <c r="F43" s="22">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="G43" s="22">
+        <v>43</v>
+      </c>
+      <c r="H43" s="0">
+        <v>50</v>
+      </c>
+      <c r="I43" s="0">
+        <v>0</v>
+      </c>
+      <c r="L43" s="22"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B44" s="1">
+        <v>45257</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E44" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F44" s="0">
+        <v>42</v>
+      </c>
+      <c r="G44" s="0">
+        <v>12</v>
+      </c>
+      <c r="H44" s="0">
+        <v>30</v>
+      </c>
+      <c r="I44" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B45" s="1">
+        <v>45257</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E45" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F45" s="0">
+        <v>85</v>
+      </c>
+      <c r="G45" s="0">
+        <v>52</v>
+      </c>
+      <c r="H45" s="0">
+        <v>33</v>
+      </c>
+      <c r="I45" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B46" s="1">
+        <v>45257</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D46" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E46" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="F46" s="0">
+        <v>70</v>
+      </c>
+      <c r="G46" s="0">
+        <v>42</v>
+      </c>
+      <c r="H46" s="0">
+        <v>28</v>
+      </c>
+      <c r="I46" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B47" s="1">
+        <v>45257</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D47" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E47" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="F47" s="0">
+        <v>44</v>
+      </c>
+      <c r="G47" s="0">
+        <v>14</v>
+      </c>
+      <c r="H47" s="0">
+        <v>30</v>
+      </c>
+      <c r="I47" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B48" s="1">
+        <v>45257</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D48" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E48" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="F48" s="0">
+        <v>72</v>
+      </c>
+      <c r="G48" s="0">
+        <v>42</v>
+      </c>
+      <c r="H48" s="0">
+        <v>30</v>
+      </c>
+      <c r="I48" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B49" s="1">
+        <v>45257</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D49" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E49" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="F49" s="0">
+        <v>97</v>
+      </c>
+      <c r="G49" s="0">
+        <v>47</v>
+      </c>
+      <c r="H49" s="0">
+        <v>50</v>
+      </c>
+      <c r="I49" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B50" s="1">
+        <v>45257</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D50" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E50" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="F50" s="0">
+        <v>104</v>
+      </c>
+      <c r="G50" s="0">
+        <v>54</v>
+      </c>
+      <c r="H50" s="0">
+        <v>50</v>
+      </c>
+      <c r="I50" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B51" s="1">
+        <v>45257</v>
+      </c>
+      <c r="C51" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D51" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E51" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="F51" s="0">
+        <v>34</v>
+      </c>
+      <c r="G51" s="0">
+        <v>24</v>
+      </c>
+      <c r="H51" s="0">
+        <v>10</v>
+      </c>
+      <c r="I51" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B52" s="1">
+        <v>45257</v>
+      </c>
+      <c r="C52" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E52" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F52" s="0">
+        <v>104</v>
+      </c>
+      <c r="G52" s="0">
+        <v>74</v>
+      </c>
+      <c r="H52" s="0">
+        <v>30</v>
+      </c>
+      <c r="I52" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B53" s="1">
+        <v>45257</v>
+      </c>
+      <c r="C53" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E53" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F53" s="0">
         <v>53</v>
       </c>
-      <c r="H43">
+      <c r="G53" s="0">
+        <v>23</v>
+      </c>
+      <c r="H53" s="0">
+        <v>30</v>
+      </c>
+      <c r="I53" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B54" s="1">
+        <v>45257</v>
+      </c>
+      <c r="C54" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D54" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E54" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F54" s="0">
+        <v>80</v>
+      </c>
+      <c r="G54" s="0">
         <v>50</v>
       </c>
-      <c r="I43">
+      <c r="H54" s="0">
+        <v>30</v>
+      </c>
+      <c r="I54" s="0">
         <v>0</v>
       </c>
-      <c r="L43" s="22"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B44" s="1"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B45" s="1"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B46" s="1"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B47" s="1"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B48" s="1"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B55" s="1">
+        <v>45257</v>
+      </c>
+      <c r="C55" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D55" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E55" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F55" s="0">
+        <v>66</v>
+      </c>
+      <c r="G55" s="0">
+        <v>36</v>
+      </c>
+      <c r="H55" s="0">
+        <v>30</v>
+      </c>
+      <c r="I55" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B56" s="1">
+        <v>45257</v>
+      </c>
+      <c r="C56" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D56" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E56" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F56" s="0">
+        <v>66</v>
+      </c>
+      <c r="G56" s="0">
+        <v>36</v>
+      </c>
+      <c r="H56" s="0">
+        <v>30</v>
+      </c>
+      <c r="I56" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B57" s="1"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B58" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -12135,8 +12503,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="10.0"/>
+    <col min="5" max="5" customWidth="true" width="10.6640625"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
@@ -12168,7 +12536,7 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
-      <c r="V2" t="s">
+      <c r="V2" t="s" s="0">
         <v>18</v>
       </c>
     </row>
@@ -12176,16 +12544,16 @@
       <c r="A3" s="1">
         <v>45237</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0">
         <v>106</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>1</v>
       </c>
     </row>
@@ -12193,25 +12561,25 @@
       <c r="A4" s="1">
         <v>45237</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0">
         <v>83</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>1</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" t="s" s="0">
         <v>24</v>
       </c>
     </row>
@@ -12219,26 +12587,26 @@
       <c r="A5" s="1">
         <v>45237</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0">
         <v>89</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="0">
         <f>(SUMIF($C$3:$C$100, M5, $B$3:$B$100)/COUNTIF($C$3:$C$100, M5))</f>
         <v>88.083333333333329</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="0">
         <f>(SUMIF($C$3:$C$100, M5, $F$3:$F$100)/COUNTIF($C$13:$C$100, M5))</f>
         <v>42.428571428571431</v>
       </c>
@@ -12247,26 +12615,26 @@
       <c r="A6" s="1">
         <v>45238</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0">
         <v>71</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="0">
         <f>(SUMIF($C$3:$C$100, M6, $B$3:$B$100)/COUNTIF($C$3:$C$100, M6))</f>
         <v>98.5</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="0">
         <f>(SUMIF($C$3:$C$100, M6, $F$3:$F$100)/COUNTIF($C$13:$C$100, M6))</f>
         <v>57.333333333333336</v>
       </c>
@@ -12275,26 +12643,26 @@
       <c r="A7" s="1">
         <v>45238</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0">
         <v>88</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="0">
         <f>(SUMIF($C$3:$C$100, M7, $B$3:$B$100)/COUNTIF($C$3:$C$100, M7))</f>
         <v>86.25</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="0">
         <f>(SUMIF($C$3:$C$100, M7, $F$3:$F$100)/COUNTIF($C$13:$C$100, M7))</f>
         <v>38</v>
       </c>
@@ -12303,16 +12671,16 @@
       <c r="A8" s="1">
         <v>45238</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0">
         <v>111</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" t="s" s="0">
         <v>1</v>
       </c>
     </row>
@@ -12320,16 +12688,16 @@
       <c r="A9" s="1">
         <v>45238</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="0">
         <v>34</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" t="s" s="0">
         <v>1</v>
       </c>
       <c r="M9" s="2" t="s">
@@ -12340,16 +12708,16 @@
       <c r="A10" s="1">
         <v>45238</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0">
         <v>120</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" t="s" s="0">
         <v>1</v>
       </c>
       <c r="H10" s="33" t="s">
@@ -12358,14 +12726,14 @@
       <c r="I10" s="33"/>
       <c r="J10" s="33"/>
       <c r="K10" s="33"/>
-      <c r="M10" t="s">
+      <c r="M10" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="0">
         <f>(SUMIF($D$3:$D$100, M10, $B$3:$B$100)/COUNTIF($D$3:$D$100, M10))</f>
         <v>96.666666666666671</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="0">
         <f>(SUMIF($D$3:$D$100, M10, $F$3:$F$100)/COUNTIF($D$13:$D$100, M10))</f>
         <v>26</v>
       </c>
@@ -12374,16 +12742,16 @@
       <c r="A11" s="1">
         <v>45238</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="0">
         <v>75</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" t="s" s="0">
         <v>1</v>
       </c>
       <c r="H11" s="33" t="s">
@@ -12394,14 +12762,14 @@
         <v>22</v>
       </c>
       <c r="K11" s="33"/>
-      <c r="M11" t="s">
+      <c r="M11" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="0">
         <f>(SUMIF($D$3:$D$100, M11, $B$3:$B$100)/COUNTIF($D$3:$D$100, M11))</f>
         <v>77</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="0">
         <f>(SUMIF($D$3:$D$100, M11, $F$3:$F$100)/COUNTIF($D$13:$D$100, M11))</f>
         <v>45.166666666666664</v>
       </c>
@@ -12419,14 +12787,14 @@
       <c r="K12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="0">
         <f>(SUMIF($D$3:$D$100, M12, $B$3:$B$100)/COUNTIF($D$3:$D$100, M12))</f>
         <v>97.75</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="0">
         <f>(SUMIF($D$3:$D$100, M12, $F$3:$F$100)/COUNTIF($D$13:$D$100, M12))</f>
         <v>57.333333333333336</v>
       </c>
@@ -12435,26 +12803,26 @@
       <c r="A13" s="1">
         <v>45237</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="0">
         <v>111</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="0">
         <v>66</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="0">
         <f t="shared" ref="H13:H23" si="0">(SUMIF($M$5:$M$7, $C13, $N$5:$N$7)+SUMIF($M$10:$M$12, $D13, $N$10:$N$12)+SUMIF($M$15:$M$17, $E13, $N$15:$N$17))/3</f>
         <v>99.833333333333329</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="0">
         <f t="shared" ref="I13:I23" si="1">(SUMIF($M$5:$M$7, $C13, $O$5:$O$7)+SUMIF($M$10:$M$12, $D13, $O$10:$O$12)+SUMIF($M$15:$M$17, $E13, $O$15:$O$17))/3</f>
         <v>55.722222222222229</v>
       </c>
@@ -12462,7 +12830,7 @@
         <f t="shared" ref="J13:J23" si="2">(SUMIF($M$5:$M$7, $C13, $N$5:$N$7)+SUMIF($M$10:$M$12, $D13, $N$10:$N$12))/2</f>
         <v>98.125</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="0">
         <f t="shared" ref="K13:K23" si="3">(SUMIF($M$5:$M$7, $C13, $O$5:$O$7)+SUMIF($M$10:$M$12, $D13, $O$10:$O$12))/2</f>
         <v>57.333333333333336</v>
       </c>
@@ -12471,26 +12839,26 @@
       <c r="A14" s="1">
         <v>45238</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="0">
         <v>107</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="0">
         <v>57</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="0">
         <f t="shared" si="0"/>
         <v>84.49444444444444</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="0">
         <f t="shared" si="1"/>
         <v>48.198412698412703</v>
       </c>
@@ -12498,7 +12866,7 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="0">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
@@ -12510,26 +12878,26 @@
       <c r="A15" s="1">
         <v>45234</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="0">
         <v>108</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="0">
         <v>38</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="0">
         <f t="shared" si="0"/>
         <v>63.166666666666664</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="0">
         <f t="shared" si="1"/>
         <v>30.166666666666668</v>
       </c>
@@ -12537,18 +12905,18 @@
         <f t="shared" si="2"/>
         <v>43.125</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="0">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="0">
         <f>(SUMIF($E$3:$E$100, M15, $B$3:$B$100)/COUNTIF($E$3:$E$100, M15))</f>
         <v>83.166666666666671</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="0">
         <f>(SUMIF($E$3:$E$100, M15, $F$3:$F$100)/COUNTIF($E$13:$E$100, M15))</f>
         <v>40</v>
       </c>
@@ -12557,26 +12925,26 @@
       <c r="A16" s="1">
         <v>45234</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="0">
         <v>107</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="0">
         <v>74</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="0">
         <f t="shared" si="0"/>
         <v>99.833333333333329</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="0">
         <f t="shared" si="1"/>
         <v>55.722222222222229</v>
       </c>
@@ -12584,18 +12952,18 @@
         <f t="shared" si="2"/>
         <v>98.125</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="0">
         <f t="shared" si="3"/>
         <v>57.333333333333336</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="0">
         <f>(SUMIF($E$3:$E$100, M16, $B$3:$B$100)/COUNTIF($E$3:$E$100, M16))</f>
         <v>88.4</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="0">
         <f>(SUMIF($E$3:$E$100, M16, $F$3:$F$100)/COUNTIF($E$13:$E$100, M16))</f>
         <v>57</v>
       </c>
@@ -12604,26 +12972,26 @@
       <c r="A17" s="1">
         <v>45234</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="0">
         <v>97</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="0">
         <v>62</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="0">
         <f t="shared" si="0"/>
         <v>82.75</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="0">
         <f t="shared" si="1"/>
         <v>42.531746031746032</v>
       </c>
@@ -12631,18 +12999,18 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="0">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M17" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="0">
         <f>(SUMIF($E$3:$E$100, M17, $B$3:$B$100)/COUNTIF($E$3:$E$100, M17))</f>
         <v>103.25</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="0">
         <f>(SUMIF($E$3:$E$100, M17, $F$3:$F$100)/COUNTIF($E$13:$E$100, M17))</f>
         <v>52.5</v>
       </c>
@@ -12651,26 +13019,26 @@
       <c r="A18" s="1">
         <v>45234</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="0">
         <v>99</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="0">
         <v>26</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="0">
         <f t="shared" si="0"/>
         <v>89.305555555555557</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="0">
         <f t="shared" si="1"/>
         <v>36.142857142857146</v>
       </c>
@@ -12678,7 +13046,7 @@
         <f t="shared" si="2"/>
         <v>92.375</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="0">
         <f t="shared" si="3"/>
         <v>34.214285714285715</v>
       </c>
@@ -12687,26 +13055,26 @@
       <c r="A19" s="1">
         <v>45234</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="0">
         <v>87</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="0">
         <v>32</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="0">
         <f t="shared" si="0"/>
         <v>99.833333333333329</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="0">
         <f t="shared" si="1"/>
         <v>55.722222222222229</v>
       </c>
@@ -12714,7 +13082,7 @@
         <f t="shared" si="2"/>
         <v>98.125</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="0">
         <f t="shared" si="3"/>
         <v>57.333333333333336</v>
       </c>
@@ -12723,26 +13091,26 @@
       <c r="A20" s="1">
         <v>45234</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="0">
         <v>76</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="0">
         <v>48</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="0">
         <f t="shared" si="0"/>
         <v>82.75</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="0">
         <f t="shared" si="1"/>
         <v>42.531746031746032</v>
       </c>
@@ -12750,7 +13118,7 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="0">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
@@ -12759,26 +13127,26 @@
       <c r="A21" s="1">
         <v>45234</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="0">
         <v>93</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="0">
         <v>40</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="0">
         <f t="shared" si="0"/>
         <v>82.75</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="0">
         <f t="shared" si="1"/>
         <v>42.531746031746032</v>
       </c>
@@ -12786,7 +13154,7 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="0">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
@@ -12795,26 +13163,26 @@
       <c r="A22" s="1">
         <v>45234</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="0">
         <v>85</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="0">
         <v>30</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="0">
         <f t="shared" si="0"/>
         <v>82.75</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="0">
         <f t="shared" si="1"/>
         <v>42.531746031746032</v>
       </c>
@@ -12822,7 +13190,7 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="0">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
@@ -12831,26 +13199,26 @@
       <c r="A23" s="1">
         <v>45234</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="0">
         <v>49</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="0">
         <v>34</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="0">
         <f t="shared" si="0"/>
         <v>82.75</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="0">
         <f t="shared" si="1"/>
         <v>42.531746031746032</v>
       </c>
@@ -12858,7 +13226,7 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="0">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
@@ -12878,67 +13246,67 @@
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="T28">
+      <c r="T28" s="0">
         <v>1</v>
       </c>
-      <c r="U28" t="s">
+      <c r="U28" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="V28" t="s">
+      <c r="V28" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="W28" t="s">
+      <c r="W28" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="X28">
+      <c r="X28" s="0">
         <f>(N7+N10+N16)/3</f>
         <v>90.438888888888911</v>
       </c>
-      <c r="Y28">
+      <c r="Y28" s="0">
         <f>(O7+O10+O16)/3</f>
         <v>40.333333333333336</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="T29">
+      <c r="T29" s="0">
         <v>2</v>
       </c>
-      <c r="U29" t="s">
+      <c r="U29" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="V29" t="s">
+      <c r="V29" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="W29" t="s">
+      <c r="W29" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="X29">
+      <c r="X29" s="0">
         <f>(N5+N11+N16)/3</f>
         <v>84.49444444444444</v>
       </c>
-      <c r="Y29">
+      <c r="Y29" s="0">
         <f>(O5+O11+O16)/3</f>
         <v>48.198412698412703</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="T30">
+      <c r="T30" s="0">
         <v>3</v>
       </c>
-      <c r="U30" t="s">
+      <c r="U30" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="V30" t="s">
+      <c r="V30" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="W30" t="s">
+      <c r="W30" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="X30">
+      <c r="X30" s="0">
         <f>(N6+N11+N16)/3</f>
         <v>87.966666666666654</v>
       </c>
-      <c r="Y30">
+      <c r="Y30" s="0">
         <f>(O6+O11+O16)/3</f>
         <v>53.166666666666664</v>
       </c>
@@ -12952,67 +13320,67 @@
       <c r="W32" s="33"/>
     </row>
     <row r="33" spans="20:25" x14ac:dyDescent="0.3">
-      <c r="T33">
+      <c r="T33" s="0">
         <v>1</v>
       </c>
-      <c r="U33" t="s">
+      <c r="U33" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="V33" t="s">
+      <c r="V33" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="W33" t="s">
+      <c r="W33" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="X33">
+      <c r="X33" s="0">
         <f>(N7+N10+N16)/3</f>
         <v>90.438888888888911</v>
       </c>
-      <c r="Y33">
+      <c r="Y33" s="0">
         <f>(O7+O10+O16)/3</f>
         <v>40.333333333333336</v>
       </c>
     </row>
     <row r="34" spans="20:25" x14ac:dyDescent="0.3">
-      <c r="T34">
+      <c r="T34" s="0">
         <v>2</v>
       </c>
-      <c r="U34" t="s">
+      <c r="U34" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="V34" t="s">
+      <c r="V34" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="W34" t="s">
+      <c r="W34" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="X34">
+      <c r="X34" s="0">
         <f>(N5+N11+N15)/3</f>
         <v>82.75</v>
       </c>
-      <c r="Y34">
+      <c r="Y34" s="0">
         <f>(O5+O11+O15)/3</f>
         <v>42.531746031746032</v>
       </c>
     </row>
     <row r="35" spans="20:25" x14ac:dyDescent="0.3">
-      <c r="T35">
+      <c r="T35" s="0">
         <v>3</v>
       </c>
-      <c r="U35" t="s">
+      <c r="U35" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="V35" t="s">
+      <c r="V35" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="W35" t="s">
+      <c r="W35" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="X35">
+      <c r="X35" s="0">
         <f>(N6+N12+N17)/3</f>
         <v>99.833333333333329</v>
       </c>
-      <c r="Y35">
+      <c r="Y35" s="0">
         <f>(O6+O12+O17)/3</f>
         <v>55.722222222222229</v>
       </c>
@@ -13035,8 +13403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" zoomScale="167" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13069,160 +13437,160 @@
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="23">
-        <v>63.046538024644882</v>
-      </c>
-      <c r="B3" s="26">
-        <v>38.764560098463484</v>
-      </c>
-      <c r="C3" s="26">
-        <v>20.939281288620293</v>
-      </c>
-      <c r="D3" s="23">
-        <v>0</v>
+      <c r="A3" s="23" t="n">
+        <v>63.43046357585669</v>
+      </c>
+      <c r="B3" s="26" t="n">
+        <v>36.550387596685354</v>
+      </c>
+      <c r="C3" s="26" t="n">
+        <v>24.964341084739846</v>
+      </c>
+      <c r="D3" s="23" t="n">
+        <v>2.913907284406357</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="29">
-        <v>74.797872340599682</v>
-      </c>
-      <c r="B4" s="30">
-        <v>40.446030330182737</v>
-      </c>
-      <c r="C4" s="30">
-        <v>34.263157894769414</v>
-      </c>
-      <c r="D4" s="29">
-        <v>0</v>
+      <c r="A4" s="29" t="n">
+        <v>85.45821854887244</v>
+      </c>
+      <c r="B4" s="30" t="n">
+        <v>42.76489607390647</v>
+      </c>
+      <c r="C4" s="30" t="n">
+        <v>42.672055426985544</v>
+      </c>
+      <c r="D4" s="29" t="n">
+        <v>0.6060606060378997</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="31">
-        <v>78.849315067508854</v>
-      </c>
-      <c r="B5" s="32">
-        <v>50.088888887808729</v>
-      </c>
-      <c r="C5" s="32">
-        <v>28.755555555566744</v>
-      </c>
-      <c r="D5" s="31">
-        <v>0</v>
+      <c r="A5" s="31" t="n">
+        <v>70.99017198992931</v>
+      </c>
+      <c r="B5" s="32" t="n">
+        <v>41.26440677934651</v>
+      </c>
+      <c r="C5" s="32" t="n">
+        <v>29.450847457615403</v>
+      </c>
+      <c r="D5" s="31" t="n">
+        <v>0.0</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="23">
-        <v>62.061899679414424</v>
-      </c>
-      <c r="B6" s="26">
-        <v>40.453142226693487</v>
-      </c>
-      <c r="C6" s="26">
-        <v>21.082690187258262</v>
-      </c>
-      <c r="D6" s="23">
-        <v>0</v>
+      <c r="A6" s="23" t="n">
+        <v>66.24442736312962</v>
+      </c>
+      <c r="B6" s="26" t="n">
+        <v>38.01010101007456</v>
+      </c>
+      <c r="C6" s="26" t="n">
+        <v>28.11344211295218</v>
+      </c>
+      <c r="D6" s="23" t="n">
+        <v>2.0292083011786106</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="29">
-        <v>75.74516129069508</v>
-      </c>
-      <c r="B7" s="30">
-        <v>40.099142040113222</v>
-      </c>
-      <c r="C7" s="30">
-        <v>34.967588179361691</v>
-      </c>
-      <c r="D7" s="29">
-        <v>0</v>
+      <c r="A7" s="29" t="n">
+        <v>92.19579081605175</v>
+      </c>
+      <c r="B7" s="30" t="n">
+        <v>44.808794137129176</v>
+      </c>
+      <c r="C7" s="30" t="n">
+        <v>47.238507661347654</v>
+      </c>
+      <c r="D7" s="29" t="n">
+        <v>0.0</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="31">
-        <v>77.877850161472978</v>
-      </c>
-      <c r="B8" s="32">
-        <v>48.273972601126175</v>
-      </c>
-      <c r="C8" s="32">
-        <v>28.698630136977371</v>
-      </c>
-      <c r="D8" s="31">
-        <v>0</v>
+      <c r="A8" s="31" t="n">
+        <v>71.56122448885235</v>
+      </c>
+      <c r="B8" s="32" t="n">
+        <v>41.66428571307212</v>
+      </c>
+      <c r="C8" s="32" t="n">
+        <v>28.699999999990283</v>
+      </c>
+      <c r="D8" s="31" t="n">
+        <v>0.0</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="23">
-        <v>75.223684208812571</v>
-      </c>
-      <c r="B9" s="26">
-        <v>48.061403507588622</v>
-      </c>
-      <c r="C9" s="26">
-        <v>26.390350876438607</v>
-      </c>
-      <c r="D9" s="23">
-        <v>0</v>
+      <c r="A9" s="23" t="n">
+        <v>69.5959821422997</v>
+      </c>
+      <c r="B9" s="26" t="n">
+        <v>40.709821428407864</v>
+      </c>
+      <c r="C9" s="26" t="n">
+        <v>28.529017856603677</v>
+      </c>
+      <c r="D9" s="23" t="n">
+        <v>2.2098214284230315</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="29">
-        <v>74.470852018152613</v>
-      </c>
-      <c r="B10" s="30">
-        <v>41.099551569560809</v>
-      </c>
-      <c r="C10" s="30">
-        <v>33.371300448591789</v>
-      </c>
-      <c r="D10" s="29">
-        <v>0</v>
+      <c r="A10" s="29" t="n">
+        <v>86.3280507130376</v>
+      </c>
+      <c r="B10" s="30" t="n">
+        <v>44.146856840922915</v>
+      </c>
+      <c r="C10" s="30" t="n">
+        <v>42.18119387211468</v>
+      </c>
+      <c r="D10" s="29" t="n">
+        <v>0.0</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="27">
-        <v>61.592400691431862</v>
-      </c>
-      <c r="B11" s="28">
-        <v>30.261744966510754</v>
-      </c>
-      <c r="C11" s="28">
-        <v>24.067114094025488</v>
-      </c>
-      <c r="D11" s="27">
-        <v>0</v>
+      <c r="A11" s="27" t="n">
+        <v>66.052190120987</v>
+      </c>
+      <c r="B11" s="28" t="n">
+        <v>33.58526315763708</v>
+      </c>
+      <c r="C11" s="28" t="n">
+        <v>29.861052631104354</v>
+      </c>
+      <c r="D11" s="27" t="n">
+        <v>1.2301957128180179</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>35</v>
       </c>
     </row>
@@ -13388,35 +13756,35 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" bestFit="true" customWidth="true" width="9.5546875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.0"/>
+    <col min="5" max="7" bestFit="true" customWidth="true" width="9.5546875"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="9.0"/>
+    <col min="9" max="11" bestFit="true" customWidth="true" width="9.5546875"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.0"/>
+    <col min="13" max="15" bestFit="true" customWidth="true" width="9.5546875"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="9.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:64" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="38"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="42"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
@@ -13467,30 +13835,30 @@
       <c r="BL1" s="2"/>
     </row>
     <row r="2" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="43" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="43" t="s">
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="41" t="s">
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="46"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="40"/>
       <c r="Y2" s="33"/>
       <c r="Z2" s="33"/>
       <c r="AA2" s="33"/>
@@ -13501,13 +13869,13 @@
       <c r="AF2" s="33"/>
     </row>
     <row r="3" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>28</v>
       </c>
       <c r="D3" s="9" t="s">
@@ -13516,10 +13884,10 @@
       <c r="E3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" t="s" s="0">
         <v>28</v>
       </c>
       <c r="H3" s="9" t="s">
@@ -13528,22 +13896,22 @@
       <c r="I3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" t="s" s="0">
         <v>28</v>
       </c>
       <c r="L3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" t="s" s="0">
         <v>28</v>
       </c>
       <c r="P3" s="6" t="s">
@@ -13551,218 +13919,218 @@
       </c>
     </row>
     <row r="4" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A4" s="13">
-        <v>62.554218852029649</v>
-      </c>
-      <c r="B4" s="13">
-        <v>39.608851162578489</v>
-      </c>
-      <c r="C4" s="13">
-        <v>21.010985737939279</v>
-      </c>
-      <c r="D4" s="14">
-        <v>0</v>
-      </c>
-      <c r="E4" s="15">
-        <v>65.088111923386236</v>
-      </c>
-      <c r="F4" s="13">
-        <v>41.299361631580517</v>
-      </c>
-      <c r="G4" s="13">
-        <v>22.086858765639143</v>
-      </c>
-      <c r="H4" s="14">
-        <v>0</v>
-      </c>
-      <c r="I4" s="15">
-        <v>64.937545485254233</v>
-      </c>
-      <c r="J4" s="13">
-        <v>39.906991243974957</v>
-      </c>
-      <c r="K4" s="13">
-        <v>23.483048680069782</v>
-      </c>
-      <c r="L4" s="14">
-        <v>0</v>
-      </c>
-      <c r="M4" s="13">
-        <v>62.36185521991009</v>
-      </c>
-      <c r="N4" s="13">
-        <v>37.739429923364938</v>
-      </c>
-      <c r="O4" s="13">
-        <v>21.62221140915652</v>
-      </c>
-      <c r="P4" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="A4" s="13" t="n">
+        <v>64.83744546949316</v>
+      </c>
+      <c r="B4" s="13" t="n">
+        <v>37.28024430337996</v>
+      </c>
+      <c r="C4" s="13" t="n">
+        <v>26.538891598846014</v>
+      </c>
+      <c r="D4" s="14" t="n">
+        <v>2.471557792792484</v>
+      </c>
+      <c r="E4" s="15" t="n">
+        <v>65.78915280405447</v>
+      </c>
+      <c r="F4" s="13" t="n">
+        <v>37.966159728385534</v>
+      </c>
+      <c r="G4" s="13" t="n">
+        <v>26.936916850397544</v>
+      </c>
+      <c r="H4" s="14" t="n">
+        <v>2.4192105199185936</v>
+      </c>
+      <c r="I4" s="15" t="n">
+        <v>69.13556651820205</v>
+      </c>
+      <c r="J4" s="13" t="n">
+        <v>38.65356681088855</v>
+      </c>
+      <c r="K4" s="13" t="n">
+        <v>29.667352053499748</v>
+      </c>
+      <c r="L4" s="14" t="n">
+        <v>1.9772462342339872</v>
+      </c>
+      <c r="M4" s="13" t="n">
+        <v>65.08039439979193</v>
+      </c>
+      <c r="N4" s="13" t="n">
+        <v>36.54124807423138</v>
+      </c>
+      <c r="O4" s="13" t="n">
+        <v>27.20332380529768</v>
+      </c>
+      <c r="P4" s="16" t="n">
+        <v>2.2232853767975906</v>
+      </c>
+      <c r="Q4" t="s" s="0">
         <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A5" s="13">
-        <v>75.271516815647374</v>
-      </c>
-      <c r="B5" s="13">
-        <v>40.272586185147979</v>
-      </c>
-      <c r="C5" s="13">
-        <v>34.615373037065552</v>
-      </c>
-      <c r="D5" s="14">
-        <v>0</v>
-      </c>
-      <c r="E5" s="15">
-        <v>75.26195029428041</v>
-      </c>
-      <c r="F5" s="13">
-        <v>41.830349649636105</v>
-      </c>
-      <c r="G5" s="13">
-        <v>32.970368604940163</v>
-      </c>
-      <c r="H5" s="14">
-        <v>0</v>
-      </c>
-      <c r="I5" s="15">
-        <v>75.111383856148422</v>
-      </c>
-      <c r="J5" s="13">
-        <v>40.437979262030545</v>
-      </c>
-      <c r="K5" s="13">
-        <v>34.366558519370798</v>
-      </c>
-      <c r="L5" s="14">
-        <v>0</v>
-      </c>
-      <c r="M5" s="13">
-        <v>72.535693590804271</v>
-      </c>
-      <c r="N5" s="13">
-        <v>38.270417941420533</v>
-      </c>
-      <c r="O5" s="13">
-        <v>32.50572124845754</v>
-      </c>
-      <c r="P5" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="s">
+      <c r="A5" s="13" t="n">
+        <v>88.8270046824621</v>
+      </c>
+      <c r="B5" s="13" t="n">
+        <v>43.78684510551783</v>
+      </c>
+      <c r="C5" s="13" t="n">
+        <v>44.955281544166596</v>
+      </c>
+      <c r="D5" s="14" t="n">
+        <v>0.30303030301894984</v>
+      </c>
+      <c r="E5" s="15" t="n">
+        <v>84.98080017442962</v>
+      </c>
+      <c r="F5" s="13" t="n">
+        <v>43.17144037009583</v>
+      </c>
+      <c r="G5" s="13" t="n">
+        <v>41.67002880665401</v>
+      </c>
+      <c r="H5" s="14" t="n">
+        <v>0.6843885280997661</v>
+      </c>
+      <c r="I5" s="15" t="n">
+        <v>88.3272138885772</v>
+      </c>
+      <c r="J5" s="13" t="n">
+        <v>43.858847452598845</v>
+      </c>
+      <c r="K5" s="13" t="n">
+        <v>44.40046400975621</v>
+      </c>
+      <c r="L5" s="14" t="n">
+        <v>0.24242424241515986</v>
+      </c>
+      <c r="M5" s="13" t="n">
+        <v>84.27204177016708</v>
+      </c>
+      <c r="N5" s="13" t="n">
+        <v>41.74652871594168</v>
+      </c>
+      <c r="O5" s="13" t="n">
+        <v>41.936435761554144</v>
+      </c>
+      <c r="P5" s="16" t="n">
+        <v>0.4884633849787635</v>
+      </c>
+      <c r="Q5" t="s" s="0">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="17">
-        <v>78.363582614490923</v>
-      </c>
-      <c r="B6" s="17">
-        <v>49.181430744467448</v>
-      </c>
-      <c r="C6" s="17">
-        <v>28.727092846272058</v>
-      </c>
-      <c r="D6" s="18">
-        <v>0</v>
-      </c>
-      <c r="E6" s="19">
-        <v>77.735602933355253</v>
-      </c>
-      <c r="F6" s="17">
-        <v>48.957425297091689</v>
-      </c>
-      <c r="G6" s="17">
-        <v>28.25974445230537</v>
-      </c>
-      <c r="H6" s="18">
-        <v>0</v>
-      </c>
-      <c r="I6" s="19">
-        <v>77.585036495223264</v>
-      </c>
-      <c r="J6" s="17">
-        <v>47.565054909486122</v>
-      </c>
-      <c r="K6" s="17">
-        <v>29.655934366736005</v>
-      </c>
-      <c r="L6" s="18">
-        <v>0</v>
-      </c>
-      <c r="M6" s="17">
-        <v>75.009346229879114</v>
-      </c>
-      <c r="N6" s="17">
-        <v>45.39749358887611</v>
-      </c>
-      <c r="O6" s="17">
-        <v>27.795097095822747</v>
-      </c>
-      <c r="P6" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="s">
+      <c r="A6" s="17" t="n">
+        <v>71.27569823939083</v>
+      </c>
+      <c r="B6" s="17" t="n">
+        <v>41.46434624620932</v>
+      </c>
+      <c r="C6" s="17" t="n">
+        <v>29.075423728802843</v>
+      </c>
+      <c r="D6" s="18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E6" s="19" t="n">
+        <v>70.93975501997261</v>
+      </c>
+      <c r="F6" s="17" t="n">
+        <v>41.31344128264902</v>
+      </c>
+      <c r="G6" s="17" t="n">
+        <v>28.96614255436301</v>
+      </c>
+      <c r="H6" s="18" t="n">
+        <v>0.44196428568460633</v>
+      </c>
+      <c r="I6" s="19" t="n">
+        <v>74.2861687341202</v>
+      </c>
+      <c r="J6" s="17" t="n">
+        <v>42.00084836515204</v>
+      </c>
+      <c r="K6" s="17" t="n">
+        <v>31.696577757465214</v>
+      </c>
+      <c r="L6" s="18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M6" s="17" t="n">
+        <v>70.23099661571007</v>
+      </c>
+      <c r="N6" s="17" t="n">
+        <v>39.88852962849487</v>
+      </c>
+      <c r="O6" s="17" t="n">
+        <v>29.232549509263144</v>
+      </c>
+      <c r="P6" s="20" t="n">
+        <v>0.24603914256360357</v>
+      </c>
+      <c r="Q6" t="s" s="0">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:64" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="38"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="42"/>
     </row>
     <row r="8" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="43" t="s">
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="43" t="s">
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="41" t="s">
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="46"/>
     </row>
     <row r="9" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>28</v>
       </c>
       <c r="D9" s="9" t="s">
@@ -13771,10 +14139,10 @@
       <c r="E9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" t="s" s="0">
         <v>28</v>
       </c>
       <c r="H9" s="9" t="s">
@@ -13783,22 +14151,22 @@
       <c r="I9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" t="s" s="0">
         <v>28</v>
       </c>
       <c r="L9" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O9" t="s" s="0">
         <v>28</v>
       </c>
       <c r="P9" s="6" t="s">
@@ -13806,201 +14174,201 @@
       </c>
     </row>
     <row r="10" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>59.952380952380949</v>
-      </c>
-      <c r="B10">
-        <v>38.073170731707314</v>
-      </c>
-      <c r="C10">
-        <v>19.951219512195124</v>
-      </c>
-      <c r="D10" s="9">
-        <v>0</v>
-      </c>
-      <c r="E10" s="11">
-        <v>64.875</v>
-      </c>
-      <c r="F10">
-        <v>43</v>
-      </c>
-      <c r="G10">
-        <v>19.875</v>
-      </c>
-      <c r="H10" s="9">
-        <v>0</v>
+      <c r="A10" s="4" t="n">
+        <v>60.93103448275862</v>
+      </c>
+      <c r="B10" t="n" s="0">
+        <v>36.578947368421055</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>22.982456140350877</v>
+      </c>
+      <c r="D10" s="9" t="n">
+        <v>2.0689655172413794</v>
+      </c>
+      <c r="E10" s="11" t="n">
+        <v>64.41666666666667</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>39.583333333333336</v>
+      </c>
+      <c r="G10" t="n" s="0">
+        <v>23.5</v>
+      </c>
+      <c r="H10" s="9" t="n">
+        <v>2.5</v>
       </c>
       <c r="I10" s="11" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="J10" t="e">
+      <c r="J10" t="e" s="0">
         <v>#NUM!</v>
       </c>
-      <c r="K10" t="e">
+      <c r="K10" t="e" s="0">
         <v>#NUM!</v>
       </c>
       <c r="L10" s="9" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="n" s="0">
         <v>44.2</v>
       </c>
-      <c r="N10">
+      <c r="N10" t="n" s="0">
         <v>20.555555555555557</v>
       </c>
-      <c r="O10">
-        <v>20.222222222222221</v>
-      </c>
-      <c r="P10" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="s">
+      <c r="O10" t="n" s="0">
+        <v>20.22222222222222</v>
+      </c>
+      <c r="P10" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q10" t="s" s="0">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>76.228571428571428</v>
-      </c>
-      <c r="B11">
-        <v>40.434782608695649</v>
-      </c>
-      <c r="C11">
-        <v>35.608695652173914</v>
-      </c>
-      <c r="D11" s="9">
-        <v>0</v>
+      <c r="A11" s="4" t="n">
+        <v>90.66666666666667</v>
+      </c>
+      <c r="B11" t="n" s="0">
+        <v>44.339622641509436</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>46.35849056603774</v>
+      </c>
+      <c r="D11" s="9" t="n">
+        <v>0.0</v>
       </c>
       <c r="E11" s="11" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="F11" t="e">
+      <c r="F11" t="e" s="0">
         <v>#NUM!</v>
       </c>
-      <c r="G11" t="e">
+      <c r="G11" t="e" s="0">
         <v>#NUM!</v>
       </c>
       <c r="H11" s="9" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="I11" s="11">
-        <v>76.043478260869563</v>
-      </c>
-      <c r="J11">
-        <v>40.434782608695649</v>
-      </c>
-      <c r="K11">
-        <v>35.608695652173914</v>
-      </c>
-      <c r="L11" s="9">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>89</v>
-      </c>
-      <c r="N11" t="e">
+      <c r="I11" s="11" t="n">
+        <v>90.69811320754717</v>
+      </c>
+      <c r="J11" t="n" s="0">
+        <v>44.339622641509436</v>
+      </c>
+      <c r="K11" t="n" s="0">
+        <v>46.35849056603774</v>
+      </c>
+      <c r="L11" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M11" t="n" s="0">
+        <v>89.0</v>
+      </c>
+      <c r="N11" t="e" s="0">
         <v>#NUM!</v>
       </c>
-      <c r="O11" t="e">
+      <c r="O11" t="e" s="0">
         <v>#NUM!</v>
       </c>
-      <c r="P11" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="s">
+      <c r="P11" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q11" t="s" s="0">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="8">
-        <v>76.761904761904759</v>
-      </c>
-      <c r="B12" s="5">
-        <v>45.8</v>
-      </c>
-      <c r="C12" s="5">
+      <c r="A12" s="8" t="n">
+        <v>71.04761904761905</v>
+      </c>
+      <c r="B12" s="5" t="n">
+        <v>39.8</v>
+      </c>
+      <c r="C12" s="5" t="n">
         <v>28.8</v>
       </c>
-      <c r="D12" s="10">
-        <v>0</v>
-      </c>
-      <c r="E12" s="12">
-        <v>98.5</v>
-      </c>
-      <c r="F12" s="5">
-        <v>59.5</v>
-      </c>
-      <c r="G12" s="5">
+      <c r="D12" s="10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E12" s="12" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="H12" s="10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I12" s="12" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="L12" s="10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>62.666666666666664</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="O12" s="5" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="P12" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q12" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="E22" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="H12" s="10">
-        <v>0</v>
-      </c>
-      <c r="I12" s="12">
-        <v>65</v>
-      </c>
-      <c r="J12" s="5">
-        <v>57</v>
-      </c>
-      <c r="K12" s="5">
-        <v>8</v>
-      </c>
-      <c r="L12" s="10">
-        <v>0</v>
-      </c>
-      <c r="M12" s="5">
-        <v>62.666666666666664</v>
-      </c>
-      <c r="N12" s="5">
-        <v>26.5</v>
-      </c>
-      <c r="O12" s="5">
-        <v>29</v>
-      </c>
-      <c r="P12" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="s">
+      <c r="I22" t="s" s="0">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" t="s">
-        <v>40</v>
-      </c>
-    </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" t="s" s="0">
         <v>1</v>
       </c>
     </row>
@@ -14041,7 +14409,7 @@
         <f>N6</f>
         <v>27.721477428199353</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M24" t="s" s="0">
         <v>17</v>
       </c>
     </row>
@@ -14082,100 +14450,100 @@
         <f>O6</f>
         <v>28.413885088933256</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M25" t="s" s="0">
         <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27">
+      <c r="A27" s="0">
         <f>F10</f>
         <v>40.6</v>
       </c>
-      <c r="B27" t="e">
+      <c r="B27" t="e" s="0">
         <f>J10</f>
         <v>#NUM!</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="0">
         <f>N10</f>
         <v>29.666666666666668</v>
       </c>
-      <c r="E27" t="e">
+      <c r="E27" t="e" s="0">
         <f>F11</f>
         <v>#NUM!</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="0">
         <f>J11</f>
         <v>47.333333333333336</v>
       </c>
-      <c r="G27" t="e">
+      <c r="G27" t="e" s="0">
         <f>N11</f>
         <v>#NUM!</v>
       </c>
-      <c r="I27" t="e">
+      <c r="I27" t="e" s="0">
         <f>F12</f>
         <v>#NUM!</v>
       </c>
-      <c r="J27" t="e">
+      <c r="J27" t="e" s="0">
         <f>J12</f>
         <v>#NUM!</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="0">
         <f>N12</f>
         <v>26.5</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28">
+      <c r="A28" s="0">
         <f>G10</f>
         <v>18.600000000000001</v>
       </c>
-      <c r="B28" t="e">
+      <c r="B28" t="e" s="0">
         <f>K10</f>
         <v>#NUM!</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="0">
         <f>O10</f>
         <v>27.666666666666668</v>
       </c>
-      <c r="E28" t="e">
+      <c r="E28" t="e" s="0">
         <f>G11</f>
         <v>#NUM!</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="0">
         <f>K11</f>
         <v>41</v>
       </c>
-      <c r="G28" t="e">
+      <c r="G28" t="e" s="0">
         <f>O11</f>
         <v>#NUM!</v>
       </c>
-      <c r="I28" t="e">
+      <c r="I28" t="e" s="0">
         <f>G12</f>
         <v>#NUM!</v>
       </c>
-      <c r="J28" t="e">
+      <c r="J28" t="e" s="0">
         <f>K12</f>
         <v>#NUM!</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="0">
         <f>O12</f>
         <v>29</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A7:P7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="M8:P8"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="Y2:AB2"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="I2:L2"/>
     <mergeCell ref="M2:P2"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A7:P7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="M8:P8"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:A6">
     <cfRule type="colorScale" priority="11">
@@ -14259,6 +14627,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E4 I4 M4">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E5 I5 M5">
     <cfRule type="colorScale" priority="19">
       <colorScale>
@@ -14271,8 +14651,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11 I11 M11">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="E6 I6 M6">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14295,6 +14675,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F5 N5 J5">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F6 J6 N6">
     <cfRule type="colorScale" priority="15">
       <colorScale>
@@ -14307,20 +14699,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F10 J10 N10">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F12 J12 N12">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="G4 O4 K4">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14343,32 +14723,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G11 K11 O11">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4 E4 M4">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I6 E6 M6">
-    <cfRule type="colorScale" priority="16">
+  <conditionalFormatting sqref="G6 K6 O6">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14391,8 +14747,32 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I11 E11 M11">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I12 E12 M12">
     <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10 F10 N10">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14415,8 +14795,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6 G6 O6">
-    <cfRule type="colorScale" priority="14">
+  <conditionalFormatting sqref="J12 F12 N12">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14439,8 +14819,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12 G12 O12">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="K11 G11 O11">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14451,20 +14831,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N5 F5 J5">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O4 G4 K4">
-    <cfRule type="colorScale" priority="20">
+  <conditionalFormatting sqref="K12 G12 O12">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/Red Team Data.xlsx
+++ b/Red Team Data.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Desktop\FTCStats\FTCStats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7543573F-D8AE-40C6-B1AA-D65ED048A9BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C60EBCC-36BE-4C79-A4CC-699CBE7BCA42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{943F8BFE-BB93-4FCB-9D8B-2434F109755A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{943F8BFE-BB93-4FCB-9D8B-2434F109755A}"/>
   </bookViews>
   <sheets>
     <sheet name="Match Data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="50">
   <si>
     <t>Cyrus</t>
   </si>
@@ -153,28 +153,43 @@
     <t>Penalties</t>
   </si>
   <si>
-    <t>Duo Only</t>
+    <t>Added 20 points for an assumed average airplane; kept only 5 for parking, no hang</t>
   </si>
   <si>
     <t>B+M</t>
   </si>
   <si>
+    <t>B+Z</t>
+  </si>
+  <si>
+    <t>B+C</t>
+  </si>
+  <si>
+    <t>E+M</t>
+  </si>
+  <si>
     <t>E+Z</t>
   </si>
   <si>
+    <t>E+C</t>
+  </si>
+  <si>
+    <t>L+M</t>
+  </si>
+  <si>
+    <t>L+Z</t>
+  </si>
+  <si>
     <t>L+C</t>
+  </si>
+  <si>
+    <t>Duo Only</t>
   </si>
   <si>
     <t>Theoretical</t>
   </si>
   <si>
     <t>Experimental</t>
-  </si>
-  <si>
-    <t>Auto</t>
-  </si>
-  <si>
-    <t>Added 20 points for an assumed average airplane; kept only 5 for parking, no hang</t>
   </si>
 </sst>
 </file>
@@ -184,7 +199,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +210,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -223,7 +246,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -237,24 +260,6 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -274,130 +279,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -523,44 +404,527 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -571,36 +935,80 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1290,16 +1698,16 @@
             <c:numRef>
               <c:f>'Per Member Data'!$B$3:$B$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>36.550387596685354</c:v>
+                  <c:v>36.660343269808941</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.46172763642895</c:v>
+                  <c:v>42.763185108587578</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41.264406779346508</c:v>
+                  <c:v>41.418867924138567</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1405,16 +1813,16 @@
             <c:numRef>
               <c:f>'Per Member Data'!$C$3:$C$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>24.964341084739846</c:v>
+                  <c:v>25.237579041735369</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.399938518511142</c:v>
+                  <c:v>42.803516028621949</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.450847457615403</c:v>
+                  <c:v>29.456603773570386</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1511,7 +1919,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1801,16 +2209,16 @@
             <c:numRef>
               <c:f>'Per Member Data'!$B$6:$B$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>38.010101010074557</c:v>
+                  <c:v>38.023337736645857</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.978370027409998</c:v>
+                  <c:v>44.864381519978302</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41.664285713072118</c:v>
+                  <c:v>42.278688522992041</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1916,16 +2324,16 @@
             <c:numRef>
               <c:f>'Per Member Data'!$C$6:$C$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>28.113442112952178</c:v>
+                  <c:v>28.358432408001157</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.387022016561566</c:v>
+                  <c:v>47.342771981851904</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.699999999990283</c:v>
+                  <c:v>28.704918032774096</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2022,7 +2430,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2312,16 +2720,16 @@
             <c:numRef>
               <c:f>'Per Member Data'!$B$9:$B$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>40.709821428407864</c:v>
+                  <c:v>40.791878172377345</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.034216706101521</c:v>
+                  <c:v>44.181389870348539</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33.58526315763708</c:v>
+                  <c:v>33.71584038660076</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2427,16 +2835,16 @@
             <c:numRef>
               <c:f>'Per Member Data'!$C$9:$C$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>28.529017856603677</c:v>
+                  <c:v>28.799492385089696</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.785977860076873</c:v>
+                  <c:v>42.203769140107845</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.861052631104354</c:v>
+                  <c:v>30.101571946169386</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2533,7 +2941,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2803,16 +3211,34 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Drive Team Data'!$Q$4:$Q$6</c:f>
+              <c:f>'Drive Team Data'!$Q$4:$Q$12</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>B+M</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>B+Z</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>B+C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>E+M</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>E+Z</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
+                  <c:v>E+C</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>L+M</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>L+Z</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>L+C</c:v>
                 </c:pt>
               </c:strCache>
@@ -2820,18 +3246,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Drive Team Data'!$B$4:$B$6</c:f>
+              <c:f>'Drive Team Data'!$B$4:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>37.280244303379959</c:v>
+                  <c:v>37.341840503227402</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.220048831919474</c:v>
+                  <c:v>40.762362394893621</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41.464346246209317</c:v>
+                  <c:v>39.469515896400495</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.393261422616717</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43.813783314282944</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42.52093681578981</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39.721102830392212</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43.141624722058438</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41.848778223565304</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2918,16 +3362,34 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Drive Team Data'!$Q$4:$Q$6</c:f>
+              <c:f>'Drive Team Data'!$Q$4:$Q$12</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>B+M</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>B+Z</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>B+C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>E+M</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>E+Z</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
+                  <c:v>E+C</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>L+M</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>L+Z</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>L+C</c:v>
                 </c:pt>
               </c:strCache>
@@ -2935,18 +3397,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Drive Team Data'!$C$4:$C$6</c:f>
+              <c:f>'Drive Team Data'!$C$4:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>26.538891598846014</c:v>
+                  <c:v>26.798005724868261</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.893480267536354</c:v>
+                  <c:v>36.290175511793635</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.075423728802843</c:v>
+                  <c:v>26.971248537254731</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.580974218311553</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45.073144005236927</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35.754217030698022</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.907518090785771</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38.399687877711145</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29.080760903172241</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3086,6 +3566,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -3215,7 +3726,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Teleop</c:v>
+                  <c:v>62.7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3244,42 +3755,60 @@
                 <c:ptCount val="9"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Caleb</c:v>
+                    <c:v>83.0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>Matt</c:v>
+                    <c:v>#NUM!</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Zach</c:v>
+                    <c:v>#NUM!</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Caleb</c:v>
+                    <c:v>#NUM!</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Matt</c:v>
+                    <c:v>#NUM!</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Zach</c:v>
+                    <c:v>#NUM!</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Caleb</c:v>
+                    <c:v>#NUM!</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>Matt</c:v>
+                    <c:v>#NUM!</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>Zach</c:v>
+                    <c:v>#NUM!</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>B+M</c:v>
+                    <c:v>68.3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>40.0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>30.0</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>E+Z</c:v>
+                    <c:v>70.7</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>40.7</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>30.0</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>L+C</c:v>
+                    <c:v>69.0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>39.0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>30.0</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -3299,31 +3828,31 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>36.420041928942865</c:v>
+                  <c:v>71.047619047619051</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38.449866490276051</c:v>
+                  <c:v>39.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35.361127200283583</c:v>
+                  <c:v>28.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45.759649122615542</c:v>
+                  <c:v>88.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47.789473683948721</c:v>
+                  <c:v>49.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44.70073439395626</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28.780392156858635</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30.810216718191818</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27.721477428199353</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3342,9 +3871,6 @@
               <c:f>'Drive Team Data'!$M$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Auto</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -3372,42 +3898,60 @@
                 <c:ptCount val="9"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Caleb</c:v>
+                    <c:v>83.0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>Matt</c:v>
+                    <c:v>#NUM!</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Zach</c:v>
+                    <c:v>#NUM!</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Caleb</c:v>
+                    <c:v>#NUM!</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Matt</c:v>
+                    <c:v>#NUM!</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Zach</c:v>
+                    <c:v>#NUM!</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Caleb</c:v>
+                    <c:v>#NUM!</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>Matt</c:v>
+                    <c:v>#NUM!</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>Zach</c:v>
+                    <c:v>#NUM!</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>B+M</c:v>
+                    <c:v>68.3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>40.0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>30.0</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>E+Z</c:v>
+                    <c:v>70.7</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>40.7</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>30.0</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>L+C</c:v>
+                    <c:v>69.0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>39.0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>30.0</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -3426,33 +3970,6 @@
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>22.205828092195425</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>26.414600022004919</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>23.492262200744761</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>33.784833579376297</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>37.993605509185791</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>35.071267687925634</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>27.127450980383919</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>31.336222910193413</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>28.413885088933256</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3746,42 +4263,60 @@
                 <c:ptCount val="9"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Caleb</c:v>
+                    <c:v>83.0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>Matt</c:v>
+                    <c:v>#NUM!</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Zach</c:v>
+                    <c:v>#NUM!</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Caleb</c:v>
+                    <c:v>#NUM!</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Matt</c:v>
+                    <c:v>#NUM!</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Zach</c:v>
+                    <c:v>#NUM!</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Caleb</c:v>
+                    <c:v>#NUM!</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>Matt</c:v>
+                    <c:v>#NUM!</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>Zach</c:v>
+                    <c:v>#NUM!</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>B+M</c:v>
+                    <c:v>68.3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>40.0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>30.0</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>E+Z</c:v>
+                    <c:v>70.7</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>40.7</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>30.0</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>L+C</c:v>
+                    <c:v>69.0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>39.0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>30.0</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -3800,33 +4335,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>40.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>29.666666666666668</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>47.333333333333336</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>26.5</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3866,42 +4374,60 @@
                 <c:ptCount val="9"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Caleb</c:v>
+                    <c:v>83.0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>Matt</c:v>
+                    <c:v>#NUM!</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Zach</c:v>
+                    <c:v>#NUM!</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Caleb</c:v>
+                    <c:v>#NUM!</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Matt</c:v>
+                    <c:v>#NUM!</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Zach</c:v>
+                    <c:v>#NUM!</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Caleb</c:v>
+                    <c:v>#NUM!</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>Matt</c:v>
+                    <c:v>#NUM!</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>Zach</c:v>
+                    <c:v>#NUM!</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>B+M</c:v>
+                    <c:v>68.3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>40.0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>30.0</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>E+Z</c:v>
+                    <c:v>70.7</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>40.7</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>30.0</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>L+C</c:v>
+                    <c:v>69.0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>39.0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>30.0</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -3920,33 +4446,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>18.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>27.666666666666668</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>29</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4248,7 +4747,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4472C4"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -4316,16 +4815,34 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Drive Team Data'!$Q$4:$Q$6</c:f>
+              <c:f>'Drive Team Data'!$Q$16:$Q$24</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>B+M</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>B+Z</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>B+C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>E+M</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>E+Z</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
+                  <c:v>E+C</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>L+M</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>L+Z</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>L+C</c:v>
                 </c:pt>
               </c:strCache>
@@ -4333,17 +4850,35 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Drive Team Data'!$B$10:$B$12</c:f>
+              <c:f>'Drive Team Data'!$B$16:$B$24</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>36.578947368421055</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>44.339622641509436</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>39.799999999999997</c:v>
                 </c:pt>
               </c:numCache>
@@ -4363,7 +4898,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ED7D31"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -4431,16 +4966,34 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Drive Team Data'!$Q$4:$Q$6</c:f>
+              <c:f>'Drive Team Data'!$Q$16:$Q$24</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>B+M</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>B+Z</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>B+C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>E+M</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>E+Z</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
+                  <c:v>E+C</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>L+M</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>L+Z</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>L+C</c:v>
                 </c:pt>
               </c:strCache>
@@ -4448,17 +5001,35 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Drive Team Data'!$C$10:$C$12</c:f>
+              <c:f>'Drive Team Data'!$C$16:$C$24</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>22.982456140350877</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>46.358490566037737</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>28.8</c:v>
                 </c:pt>
               </c:numCache>
@@ -4556,7 +5127,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -10783,14 +11354,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E71918B-9D42-46BC-B578-CF08432FB725}">
   <dimension ref="A1:Y58"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScale="108" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N52" sqref="N52"/>
+    <sheetView topLeftCell="A43" zoomScale="108" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="10.0"/>
-    <col min="5" max="5" customWidth="true" width="10.6640625"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
@@ -10823,31 +11394,31 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="1">
         <v>45237</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="0">
+      <c r="F2">
         <v>106</v>
       </c>
-      <c r="G2" s="0">
+      <c r="G2">
         <v>-1</v>
       </c>
-      <c r="H2" s="0">
+      <c r="H2">
         <v>-1</v>
       </c>
-      <c r="I2" s="0">
+      <c r="I2">
         <v>0</v>
       </c>
       <c r="M2" s="2"/>
@@ -10860,1620 +11431,1620 @@
       <c r="T2" s="2"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>30</v>
       </c>
       <c r="B3" s="1">
         <v>45237</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s" s="0">
+      <c r="E3" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="0">
+      <c r="F3">
         <v>83</v>
       </c>
-      <c r="G3" s="0">
+      <c r="G3">
         <v>-1</v>
       </c>
-      <c r="H3" s="0">
+      <c r="H3">
         <v>-1</v>
       </c>
-      <c r="I3" s="0">
+      <c r="I3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="1">
         <v>45237</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" t="s" s="0">
+      <c r="E4" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="0">
+      <c r="F4">
         <v>89</v>
       </c>
-      <c r="G4" s="0">
+      <c r="G4">
         <v>-1</v>
       </c>
-      <c r="H4" s="0">
+      <c r="H4">
         <v>-1</v>
       </c>
-      <c r="I4" s="0">
+      <c r="I4">
         <v>0</v>
       </c>
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" t="s" s="0">
+      <c r="A5" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="1">
         <v>45238</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="D5" t="s">
         <v>0</v>
       </c>
-      <c r="E5" t="s" s="0">
+      <c r="E5" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="0">
+      <c r="F5">
         <v>71</v>
       </c>
-      <c r="G5" s="0">
+      <c r="G5">
         <v>-1</v>
       </c>
-      <c r="H5" s="0">
+      <c r="H5">
         <v>-1</v>
       </c>
-      <c r="I5" s="0">
+      <c r="I5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" t="s" s="0">
+      <c r="A6" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="1">
         <v>45238</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="D6" t="s">
         <v>2</v>
       </c>
-      <c r="E6" t="s" s="0">
+      <c r="E6" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="0">
+      <c r="F6">
         <v>88</v>
       </c>
-      <c r="G6" s="0">
+      <c r="G6">
         <v>-1</v>
       </c>
-      <c r="H6" s="0">
+      <c r="H6">
         <v>-1</v>
       </c>
-      <c r="I6" s="0">
+      <c r="I6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" t="s" s="0">
+      <c r="A7" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="1">
         <v>45238</v>
       </c>
-      <c r="C7" t="s" s="0">
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s" s="0">
+      <c r="D7" t="s">
         <v>2</v>
       </c>
-      <c r="E7" t="s" s="0">
+      <c r="E7" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="0">
+      <c r="F7">
         <v>111</v>
       </c>
-      <c r="G7" s="0">
+      <c r="G7">
         <v>-1</v>
       </c>
-      <c r="H7" s="0">
+      <c r="H7">
         <v>-1</v>
       </c>
-      <c r="I7" s="0">
+      <c r="I7">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" t="s" s="0">
+      <c r="A8" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="1">
         <v>45238</v>
       </c>
-      <c r="C8" t="s" s="0">
+      <c r="C8" t="s">
         <v>3</v>
       </c>
-      <c r="D8" t="s" s="0">
+      <c r="D8" t="s">
         <v>9</v>
       </c>
-      <c r="E8" t="s" s="0">
+      <c r="E8" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="0">
+      <c r="F8">
         <v>34</v>
       </c>
-      <c r="G8" s="0">
+      <c r="G8">
         <v>-1</v>
       </c>
-      <c r="H8" s="0">
+      <c r="H8">
         <v>-1</v>
       </c>
-      <c r="I8" s="0">
+      <c r="I8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" t="s" s="0">
+      <c r="A9" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="1">
         <v>45238</v>
       </c>
-      <c r="C9" t="s" s="0">
+      <c r="C9" t="s">
         <v>3</v>
       </c>
-      <c r="D9" t="s" s="0">
+      <c r="D9" t="s">
         <v>0</v>
       </c>
-      <c r="E9" t="s" s="0">
+      <c r="E9" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="0">
+      <c r="F9">
         <v>120</v>
       </c>
-      <c r="G9" s="0">
+      <c r="G9">
         <v>-1</v>
       </c>
-      <c r="H9" s="0">
+      <c r="H9">
         <v>-1</v>
       </c>
-      <c r="I9" s="0">
+      <c r="I9">
         <v>0</v>
       </c>
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" t="s" s="0">
+      <c r="A10" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="1">
         <v>45238</v>
       </c>
-      <c r="C10" t="s" s="0">
+      <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="D10" t="s" s="0">
+      <c r="D10" t="s">
         <v>9</v>
       </c>
-      <c r="E10" t="s" s="0">
+      <c r="E10" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="0">
+      <c r="F10">
         <v>75</v>
       </c>
-      <c r="G10" s="0">
+      <c r="G10">
         <v>-1</v>
       </c>
-      <c r="H10" s="0">
+      <c r="H10">
         <v>-1</v>
       </c>
-      <c r="I10" s="0">
+      <c r="I10">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" t="s" s="0">
+      <c r="A11" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="1">
         <v>45237</v>
       </c>
-      <c r="C11" t="s" s="0">
+      <c r="C11" t="s">
         <v>4</v>
       </c>
-      <c r="D11" t="s" s="0">
+      <c r="D11" t="s">
         <v>2</v>
       </c>
-      <c r="E11" t="s" s="0">
+      <c r="E11" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="0">
+      <c r="F11">
         <v>111</v>
       </c>
-      <c r="G11" s="0">
+      <c r="G11">
         <v>66</v>
       </c>
-      <c r="H11" s="0">
+      <c r="H11">
         <v>45</v>
       </c>
-      <c r="I11" s="0">
+      <c r="I11">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" t="s" s="0">
+      <c r="A12" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="1">
         <v>45238</v>
       </c>
-      <c r="C12" t="s" s="0">
+      <c r="C12" t="s">
         <v>11</v>
       </c>
-      <c r="D12" t="s" s="0">
+      <c r="D12" t="s">
         <v>9</v>
       </c>
-      <c r="E12" t="s" s="0">
+      <c r="E12" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="0">
+      <c r="F12">
         <v>107</v>
       </c>
-      <c r="G12" s="0">
+      <c r="G12">
         <v>57</v>
       </c>
-      <c r="H12" s="0">
+      <c r="H12">
         <v>50</v>
       </c>
-      <c r="I12" s="0">
+      <c r="I12">
         <v>0</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" t="s" s="0">
+      <c r="A13" t="s">
         <v>31</v>
       </c>
       <c r="B13" s="1">
         <v>45234</v>
       </c>
-      <c r="C13" t="s" s="0">
+      <c r="C13" t="s">
         <v>4</v>
       </c>
-      <c r="D13" t="s" s="0">
+      <c r="D13" t="s">
         <v>2</v>
       </c>
-      <c r="E13" t="s" s="0">
+      <c r="E13" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="0">
+      <c r="F13">
         <v>72</v>
       </c>
-      <c r="G13" s="0">
+      <c r="G13">
         <v>44</v>
       </c>
-      <c r="H13" s="0">
+      <c r="H13">
         <v>28</v>
       </c>
-      <c r="I13" s="0">
+      <c r="I13">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" t="s" s="0">
+      <c r="A14" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="1">
         <v>45234</v>
       </c>
-      <c r="C14" t="s" s="0">
+      <c r="C14" t="s">
         <v>11</v>
       </c>
-      <c r="D14" t="s" s="0">
+      <c r="D14" t="s">
         <v>9</v>
       </c>
-      <c r="E14" t="s" s="0">
+      <c r="E14" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="0">
+      <c r="F14">
         <v>97</v>
       </c>
-      <c r="G14" s="0">
+      <c r="G14">
         <v>51</v>
       </c>
-      <c r="H14" s="0">
+      <c r="H14">
         <v>30</v>
       </c>
-      <c r="I14" s="0">
+      <c r="I14">
         <v>0</v>
       </c>
       <c r="M14" s="2"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" t="s" s="0">
+      <c r="A15" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="1">
         <v>45234</v>
       </c>
-      <c r="C15" t="s" s="0">
+      <c r="C15" t="s">
         <v>11</v>
       </c>
-      <c r="D15" t="s" s="0">
+      <c r="D15" t="s">
         <v>0</v>
       </c>
-      <c r="E15" t="s" s="0">
+      <c r="E15" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="0">
+      <c r="F15">
         <v>54</v>
       </c>
-      <c r="G15" s="0">
+      <c r="G15">
         <v>26</v>
       </c>
-      <c r="H15" s="0">
+      <c r="H15">
         <v>28</v>
       </c>
-      <c r="I15" s="0">
+      <c r="I15">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" t="s" s="0">
+      <c r="A16" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="1">
         <v>45234</v>
       </c>
-      <c r="C16" t="s" s="0">
+      <c r="C16" t="s">
         <v>4</v>
       </c>
-      <c r="D16" t="s" s="0">
+      <c r="D16" t="s">
         <v>2</v>
       </c>
-      <c r="E16" t="s" s="0">
+      <c r="E16" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="0">
+      <c r="F16">
         <v>82</v>
       </c>
-      <c r="G16" s="0">
+      <c r="G16">
         <v>32</v>
       </c>
-      <c r="H16" s="0">
+      <c r="H16">
         <v>50</v>
       </c>
-      <c r="I16" s="0">
+      <c r="I16">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A17" t="s" s="0">
+      <c r="A17" t="s">
         <v>31</v>
       </c>
       <c r="B17" s="1">
         <v>45234</v>
       </c>
-      <c r="C17" t="s" s="0">
+      <c r="C17" t="s">
         <v>11</v>
       </c>
-      <c r="D17" t="s" s="0">
+      <c r="D17" t="s">
         <v>9</v>
       </c>
-      <c r="E17" t="s" s="0">
+      <c r="E17" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="0">
+      <c r="F17">
         <v>60</v>
       </c>
-      <c r="G17" s="0">
+      <c r="G17">
         <v>40</v>
       </c>
-      <c r="H17" s="0">
+      <c r="H17">
         <v>20</v>
       </c>
-      <c r="I17" s="0">
+      <c r="I17">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A18" t="s" s="0">
+      <c r="A18" t="s">
         <v>31</v>
       </c>
       <c r="B18" s="1">
         <v>45234</v>
       </c>
-      <c r="C18" t="s" s="0">
+      <c r="C18" t="s">
         <v>11</v>
       </c>
-      <c r="D18" t="s" s="0">
+      <c r="D18" t="s">
         <v>9</v>
       </c>
-      <c r="E18" t="s" s="0">
+      <c r="E18" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="0">
+      <c r="F18">
         <v>56</v>
       </c>
-      <c r="G18" s="0">
+      <c r="G18">
         <v>48</v>
       </c>
-      <c r="H18" s="0">
+      <c r="H18">
         <v>8</v>
       </c>
-      <c r="I18" s="0">
+      <c r="I18">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A19" t="s" s="0">
+      <c r="A19" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="1">
         <v>45234</v>
       </c>
-      <c r="C19" t="s" s="0">
+      <c r="C19" t="s">
         <v>11</v>
       </c>
-      <c r="D19" t="s" s="0">
+      <c r="D19" t="s">
         <v>9</v>
       </c>
-      <c r="E19" t="s" s="0">
+      <c r="E19" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="0">
+      <c r="F19">
         <v>60</v>
       </c>
-      <c r="G19" s="0">
+      <c r="G19">
         <v>30</v>
       </c>
-      <c r="H19" s="0">
+      <c r="H19">
         <v>30</v>
       </c>
-      <c r="I19" s="0">
+      <c r="I19">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A20" t="s" s="0">
+      <c r="A20" t="s">
         <v>31</v>
       </c>
       <c r="B20" s="1">
         <v>45234</v>
       </c>
-      <c r="C20" t="s" s="0">
+      <c r="C20" t="s">
         <v>11</v>
       </c>
-      <c r="D20" t="s" s="0">
+      <c r="D20" t="s">
         <v>9</v>
       </c>
-      <c r="E20" t="s" s="0">
+      <c r="E20" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="0">
+      <c r="F20">
         <v>39</v>
       </c>
-      <c r="G20" s="0">
+      <c r="G20">
         <v>34</v>
       </c>
-      <c r="H20" s="0">
+      <c r="H20">
         <v>5</v>
       </c>
-      <c r="I20" s="0">
+      <c r="I20">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A21" t="s" s="0">
+      <c r="A21" t="s">
         <v>31</v>
       </c>
       <c r="B21" s="1">
         <v>45241</v>
       </c>
-      <c r="C21" t="s" s="0">
+      <c r="C21" t="s">
         <v>11</v>
       </c>
-      <c r="D21" t="s" s="0">
+      <c r="D21" t="s">
         <v>9</v>
       </c>
-      <c r="E21" t="s" s="0">
+      <c r="E21" t="s">
         <v>1</v>
       </c>
-      <c r="F21" s="0">
+      <c r="F21">
         <v>32</v>
       </c>
-      <c r="G21" s="0">
+      <c r="G21">
         <v>4</v>
       </c>
-      <c r="H21" s="0">
+      <c r="H21">
         <v>28</v>
       </c>
-      <c r="I21" s="0">
+      <c r="I21">
         <v>0</v>
       </c>
-      <c r="K21" t="s" s="0">
+      <c r="K21" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A22" t="s" s="0">
+      <c r="A22" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="1">
         <v>45241</v>
       </c>
-      <c r="C22" t="s" s="0">
+      <c r="C22" t="s">
         <v>4</v>
       </c>
-      <c r="D22" t="s" s="0">
+      <c r="D22" t="s">
         <v>9</v>
       </c>
-      <c r="E22" t="s" s="0">
+      <c r="E22" t="s">
         <v>1</v>
       </c>
-      <c r="F22" s="0">
+      <c r="F22">
         <v>83</v>
       </c>
-      <c r="G22" s="0">
+      <c r="G22">
         <v>55</v>
       </c>
-      <c r="H22" s="0">
+      <c r="H22">
         <v>28</v>
       </c>
-      <c r="I22" s="0">
+      <c r="I22">
         <v>0</v>
       </c>
-      <c r="K22" t="s" s="0">
+      <c r="K22" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A23" t="s" s="0">
+      <c r="A23" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="1">
         <v>45241</v>
       </c>
-      <c r="C23" t="s" s="0">
+      <c r="C23" t="s">
         <v>3</v>
       </c>
-      <c r="D23" t="s" s="0">
+      <c r="D23" t="s">
         <v>0</v>
       </c>
-      <c r="E23" t="s" s="0">
+      <c r="E23" t="s">
         <v>1</v>
       </c>
-      <c r="F23" s="0">
+      <c r="F23">
         <v>56</v>
       </c>
-      <c r="G23" s="0">
+      <c r="G23">
         <v>26</v>
       </c>
-      <c r="H23" s="0">
+      <c r="H23">
         <v>30</v>
       </c>
-      <c r="I23" s="0">
+      <c r="I23">
         <v>0</v>
       </c>
-      <c r="K23" t="s" s="0">
+      <c r="K23" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A24" t="s" s="0">
+      <c r="A24" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="1">
         <v>45241</v>
       </c>
-      <c r="C24" t="s" s="0">
+      <c r="C24" t="s">
         <v>11</v>
       </c>
-      <c r="D24" t="s" s="0">
+      <c r="D24" t="s">
         <v>9</v>
       </c>
-      <c r="E24" t="s" s="0">
+      <c r="E24" t="s">
         <v>1</v>
       </c>
-      <c r="F24" s="0">
+      <c r="F24">
         <v>33</v>
       </c>
-      <c r="G24" s="0">
+      <c r="G24">
         <v>28</v>
       </c>
-      <c r="H24" s="0">
+      <c r="H24">
         <v>5</v>
       </c>
-      <c r="I24" s="0">
+      <c r="I24">
         <v>0</v>
       </c>
-      <c r="K24" t="s" s="0">
+      <c r="K24" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A25" t="s" s="0">
+      <c r="A25" t="s">
         <v>31</v>
       </c>
       <c r="B25" s="1">
         <v>45241</v>
       </c>
-      <c r="C25" t="s" s="0">
+      <c r="C25" t="s">
         <v>4</v>
       </c>
-      <c r="D25" t="s" s="0">
+      <c r="D25" t="s">
         <v>9</v>
       </c>
-      <c r="E25" t="s" s="0">
+      <c r="E25" t="s">
         <v>1</v>
       </c>
-      <c r="F25" s="0">
+      <c r="F25">
         <v>56</v>
       </c>
-      <c r="G25" s="0">
+      <c r="G25">
         <v>36</v>
       </c>
-      <c r="H25" s="0">
+      <c r="H25">
         <v>20</v>
       </c>
-      <c r="I25" s="0">
+      <c r="I25">
         <v>0</v>
       </c>
-      <c r="K25" t="s" s="0">
+      <c r="K25" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A26" t="s" s="0">
+      <c r="A26" t="s">
         <v>31</v>
       </c>
       <c r="B26" s="1">
         <v>45241</v>
       </c>
-      <c r="C26" t="s" s="0">
+      <c r="C26" t="s">
         <v>3</v>
       </c>
-      <c r="D26" t="s" s="0">
+      <c r="D26" t="s">
         <v>0</v>
       </c>
-      <c r="E26" t="s" s="0">
+      <c r="E26" t="s">
         <v>1</v>
       </c>
-      <c r="F26" s="0">
+      <c r="F26">
         <v>55</v>
       </c>
-      <c r="G26" s="0">
+      <c r="G26">
         <v>27</v>
       </c>
-      <c r="H26" s="0">
+      <c r="H26">
         <v>28</v>
       </c>
-      <c r="I26" s="0">
+      <c r="I26">
         <v>0</v>
       </c>
-      <c r="K26" t="s" s="0">
+      <c r="K26" t="s">
         <v>33</v>
       </c>
-      <c r="T26" s="33"/>
-      <c r="U26" s="33"/>
-      <c r="V26" s="33"/>
-      <c r="W26" s="33"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A27" t="s" s="0">
+      <c r="A27" t="s">
         <v>30</v>
       </c>
       <c r="B27" s="1">
         <v>45255</v>
       </c>
-      <c r="C27" t="s" s="0">
+      <c r="C27" t="s">
         <v>11</v>
       </c>
-      <c r="D27" t="s" s="0">
+      <c r="D27" t="s">
         <v>9</v>
       </c>
-      <c r="E27" t="s" s="0">
+      <c r="E27" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="22">
+      <c r="F27" s="6">
         <v>65</v>
       </c>
-      <c r="G27" s="22">
+      <c r="G27" s="6">
         <v>35</v>
       </c>
-      <c r="H27" s="0">
+      <c r="H27">
         <v>30</v>
       </c>
-      <c r="I27" s="0">
+      <c r="I27">
         <v>0</v>
       </c>
-      <c r="L27" s="22"/>
+      <c r="L27" s="6"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A28" t="s" s="0">
+      <c r="A28" t="s">
         <v>30</v>
       </c>
       <c r="B28" s="1">
         <v>45255</v>
       </c>
-      <c r="C28" t="s" s="0">
+      <c r="C28" t="s">
         <v>11</v>
       </c>
-      <c r="D28" t="s" s="0">
+      <c r="D28" t="s">
         <v>9</v>
       </c>
-      <c r="E28" t="s" s="0">
+      <c r="E28" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="22">
+      <c r="F28" s="6">
         <v>40</v>
       </c>
-      <c r="G28" s="22">
+      <c r="G28" s="6">
         <v>32</v>
       </c>
-      <c r="H28" s="0">
+      <c r="H28">
         <v>8</v>
       </c>
-      <c r="I28" s="0">
+      <c r="I28">
         <v>0</v>
       </c>
-      <c r="L28" s="22"/>
+      <c r="L28" s="6"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A29" t="s" s="0">
+      <c r="A29" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="1">
         <v>45255</v>
       </c>
-      <c r="C29" t="s" s="0">
+      <c r="C29" t="s">
         <v>11</v>
       </c>
-      <c r="D29" t="s" s="0">
+      <c r="D29" t="s">
         <v>9</v>
       </c>
-      <c r="E29" t="s" s="0">
+      <c r="E29" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="22">
+      <c r="F29" s="6">
         <v>72</v>
       </c>
-      <c r="G29" s="22">
+      <c r="G29" s="6">
         <v>44</v>
       </c>
-      <c r="H29" s="0">
+      <c r="H29">
         <v>28</v>
       </c>
-      <c r="I29" s="0">
+      <c r="I29">
         <v>0</v>
       </c>
-      <c r="L29" s="22"/>
+      <c r="L29" s="6"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A30" t="s" s="0">
+      <c r="A30" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="1">
         <v>45256</v>
       </c>
-      <c r="C30" t="s" s="0">
+      <c r="C30" t="s">
         <v>3</v>
       </c>
-      <c r="D30" t="s" s="0">
+      <c r="D30" t="s">
         <v>0</v>
       </c>
-      <c r="E30" t="s" s="0">
+      <c r="E30" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="22">
+      <c r="F30" s="6">
         <v>102</v>
       </c>
-      <c r="G30" s="22">
+      <c r="G30" s="6">
         <v>52</v>
       </c>
-      <c r="H30" s="0">
+      <c r="H30">
         <v>50</v>
       </c>
-      <c r="I30" s="0">
+      <c r="I30">
         <v>0</v>
       </c>
-      <c r="L30" s="22" t="s">
-        <v>44</v>
+      <c r="L30" s="6" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A31" t="s" s="0">
+      <c r="A31" t="s">
         <v>30</v>
       </c>
       <c r="B31" s="1">
         <v>45256</v>
       </c>
-      <c r="C31" t="s" s="0">
+      <c r="C31" t="s">
         <v>3</v>
       </c>
-      <c r="D31" t="s" s="0">
+      <c r="D31" t="s">
         <v>0</v>
       </c>
-      <c r="E31" t="s" s="0">
+      <c r="E31" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="22">
+      <c r="F31" s="6">
         <v>55</v>
       </c>
-      <c r="G31" s="22">
+      <c r="G31" s="6">
         <v>47</v>
       </c>
-      <c r="H31" s="0">
+      <c r="H31">
         <v>8</v>
       </c>
-      <c r="I31" s="0">
+      <c r="I31">
         <v>0</v>
       </c>
-      <c r="L31" s="22"/>
-      <c r="T31" s="34"/>
-      <c r="U31" s="34"/>
-      <c r="V31" s="34"/>
-      <c r="W31" s="34"/>
+      <c r="L31" s="6"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A32" t="s" s="0">
+      <c r="A32" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>45256</v>
       </c>
-      <c r="C32" t="s" s="0">
+      <c r="C32" t="s">
         <v>3</v>
       </c>
-      <c r="D32" t="s" s="0">
+      <c r="D32" t="s">
         <v>0</v>
       </c>
-      <c r="E32" t="s" s="0">
+      <c r="E32" t="s">
         <v>10</v>
       </c>
-      <c r="F32" s="22">
+      <c r="F32" s="6">
         <v>75</v>
       </c>
-      <c r="G32" s="22">
+      <c r="G32" s="6">
         <v>47</v>
       </c>
-      <c r="H32" s="0">
+      <c r="H32">
         <v>28</v>
       </c>
-      <c r="I32" s="0">
+      <c r="I32">
         <v>0</v>
       </c>
-      <c r="L32" s="22"/>
+      <c r="L32" s="6"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" t="s" s="0">
+      <c r="A33" t="s">
         <v>30</v>
       </c>
       <c r="B33" s="1">
         <v>45256</v>
       </c>
-      <c r="C33" t="s" s="0">
+      <c r="C33" t="s">
         <v>4</v>
       </c>
-      <c r="D33" t="s" s="0">
+      <c r="D33" t="s">
         <v>2</v>
       </c>
-      <c r="E33" t="s" s="0">
+      <c r="E33" t="s">
         <v>5</v>
       </c>
-      <c r="F33" s="22">
+      <c r="F33" s="6">
         <v>85</v>
       </c>
-      <c r="G33" s="22">
+      <c r="G33" s="6">
         <v>35</v>
       </c>
-      <c r="H33" s="0">
+      <c r="H33">
         <v>50</v>
       </c>
-      <c r="I33" s="0">
+      <c r="I33">
         <v>0</v>
       </c>
-      <c r="L33" s="22"/>
+      <c r="L33" s="6"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" t="s" s="0">
+      <c r="A34" t="s">
         <v>30</v>
       </c>
       <c r="B34" s="1">
         <v>45256</v>
       </c>
-      <c r="C34" t="s" s="0">
+      <c r="C34" t="s">
         <v>4</v>
       </c>
-      <c r="D34" t="s" s="0">
+      <c r="D34" t="s">
         <v>2</v>
       </c>
-      <c r="E34" t="s" s="0">
+      <c r="E34" t="s">
         <v>5</v>
       </c>
-      <c r="F34" s="22">
+      <c r="F34" s="6">
         <v>85</v>
       </c>
-      <c r="G34" s="22">
+      <c r="G34" s="6">
         <v>35</v>
       </c>
-      <c r="H34" s="0">
+      <c r="H34">
         <v>50</v>
       </c>
-      <c r="I34" s="0">
+      <c r="I34">
         <v>0</v>
       </c>
-      <c r="L34" s="22"/>
+      <c r="L34" s="6"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" t="s" s="0">
+      <c r="A35" t="s">
         <v>30</v>
       </c>
       <c r="B35" s="1">
         <v>45256</v>
       </c>
-      <c r="C35" t="s" s="0">
+      <c r="C35" t="s">
         <v>4</v>
       </c>
-      <c r="D35" t="s" s="0">
+      <c r="D35" t="s">
         <v>2</v>
       </c>
-      <c r="E35" t="s" s="0">
+      <c r="E35" t="s">
         <v>5</v>
       </c>
-      <c r="F35" s="22">
+      <c r="F35" s="6">
         <v>100</v>
       </c>
-      <c r="G35" s="22">
+      <c r="G35" s="6">
         <v>50</v>
       </c>
-      <c r="H35" s="0">
+      <c r="H35">
         <v>50</v>
       </c>
-      <c r="I35" s="0">
+      <c r="I35">
         <v>0</v>
       </c>
-      <c r="L35" s="22"/>
+      <c r="L35" s="6"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" t="s" s="0">
+      <c r="A36" t="s">
         <v>30</v>
       </c>
       <c r="B36" s="1">
         <v>45256</v>
       </c>
-      <c r="C36" t="s" s="0">
+      <c r="C36" t="s">
         <v>4</v>
       </c>
-      <c r="D36" t="s" s="0">
+      <c r="D36" t="s">
         <v>2</v>
       </c>
-      <c r="E36" t="s" s="0">
+      <c r="E36" t="s">
         <v>5</v>
       </c>
-      <c r="F36" s="22">
+      <c r="F36" s="6">
         <v>99</v>
       </c>
-      <c r="G36" s="22">
+      <c r="G36" s="6">
         <v>49</v>
       </c>
-      <c r="H36" s="0">
+      <c r="H36">
         <v>50</v>
       </c>
-      <c r="I36" s="0">
+      <c r="I36">
         <v>0</v>
       </c>
-      <c r="L36" s="22"/>
+      <c r="L36" s="6"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" t="s" s="0">
+      <c r="A37" t="s">
         <v>30</v>
       </c>
       <c r="B37" s="1">
         <v>45256</v>
       </c>
-      <c r="C37" t="s" s="0">
+      <c r="C37" t="s">
         <v>4</v>
       </c>
-      <c r="D37" t="s" s="0">
+      <c r="D37" t="s">
         <v>2</v>
       </c>
-      <c r="E37" t="s" s="0">
+      <c r="E37" t="s">
         <v>5</v>
       </c>
-      <c r="F37" s="22">
+      <c r="F37" s="6">
         <v>97</v>
       </c>
-      <c r="G37" s="22">
+      <c r="G37" s="6">
         <v>47</v>
       </c>
-      <c r="H37" s="0">
+      <c r="H37">
         <v>50</v>
       </c>
-      <c r="I37" s="0">
+      <c r="I37">
         <v>0</v>
       </c>
-      <c r="L37" s="22"/>
+      <c r="L37" s="6"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" t="s" s="0">
+      <c r="A38" t="s">
         <v>30</v>
       </c>
       <c r="B38" s="1">
         <v>45256</v>
       </c>
-      <c r="C38" t="s" s="0">
+      <c r="C38" t="s">
         <v>4</v>
       </c>
-      <c r="D38" t="s" s="0">
+      <c r="D38" t="s">
         <v>2</v>
       </c>
-      <c r="E38" t="s" s="0">
+      <c r="E38" t="s">
         <v>5</v>
       </c>
-      <c r="F38" s="22">
+      <c r="F38" s="6">
         <v>87</v>
       </c>
-      <c r="G38" s="22">
+      <c r="G38" s="6">
         <v>37</v>
       </c>
-      <c r="H38" s="0">
+      <c r="H38">
         <v>50</v>
       </c>
-      <c r="I38" s="0">
+      <c r="I38">
         <v>0</v>
       </c>
-      <c r="L38" s="22"/>
+      <c r="L38" s="6"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" t="s" s="0">
+      <c r="A39" t="s">
         <v>30</v>
       </c>
       <c r="B39" s="1">
         <v>45256</v>
       </c>
-      <c r="C39" t="s" s="0">
+      <c r="C39" t="s">
         <v>4</v>
       </c>
-      <c r="D39" t="s" s="0">
+      <c r="D39" t="s">
         <v>2</v>
       </c>
-      <c r="E39" t="s" s="0">
+      <c r="E39" t="s">
         <v>5</v>
       </c>
-      <c r="F39" s="22">
+      <c r="F39" s="6">
         <v>91</v>
       </c>
-      <c r="G39" s="22">
+      <c r="G39" s="6">
         <v>41</v>
       </c>
-      <c r="H39" s="0">
+      <c r="H39">
         <v>50</v>
       </c>
-      <c r="I39" s="0">
+      <c r="I39">
         <v>0</v>
       </c>
-      <c r="L39" s="22"/>
+      <c r="L39" s="6"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" t="s" s="0">
+      <c r="A40" t="s">
         <v>30</v>
       </c>
       <c r="B40" s="1">
         <v>45256</v>
       </c>
-      <c r="C40" t="s" s="0">
+      <c r="C40" t="s">
         <v>4</v>
       </c>
-      <c r="D40" t="s" s="0">
+      <c r="D40" t="s">
         <v>2</v>
       </c>
-      <c r="E40" t="s" s="0">
+      <c r="E40" t="s">
         <v>5</v>
       </c>
-      <c r="F40" s="22">
+      <c r="F40" s="6">
         <v>78</v>
       </c>
-      <c r="G40" s="22">
+      <c r="G40" s="6">
         <v>33</v>
       </c>
-      <c r="H40" s="0">
+      <c r="H40">
         <v>45</v>
       </c>
-      <c r="I40" s="0">
+      <c r="I40">
         <v>0</v>
       </c>
-      <c r="L40" s="22"/>
+      <c r="L40" s="6"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" t="s" s="0">
+      <c r="A41" t="s">
         <v>30</v>
       </c>
       <c r="B41" s="1">
         <v>45256</v>
       </c>
-      <c r="C41" t="s" s="0">
+      <c r="C41" t="s">
         <v>4</v>
       </c>
-      <c r="D41" t="s" s="0">
+      <c r="D41" t="s">
         <v>2</v>
       </c>
-      <c r="E41" t="s" s="0">
+      <c r="E41" t="s">
         <v>5</v>
       </c>
-      <c r="F41" s="22">
+      <c r="F41" s="6">
         <v>115</v>
       </c>
-      <c r="G41" s="22">
+      <c r="G41" s="6">
         <v>65</v>
       </c>
-      <c r="H41" s="0">
+      <c r="H41">
         <v>50</v>
       </c>
-      <c r="I41" s="0">
+      <c r="I41">
         <v>0</v>
       </c>
-      <c r="L41" s="22"/>
+      <c r="L41" s="6"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" t="s" s="0">
+      <c r="A42" t="s">
         <v>30</v>
       </c>
       <c r="B42" s="1">
         <v>45256</v>
       </c>
-      <c r="C42" t="s" s="0">
+      <c r="C42" t="s">
         <v>4</v>
       </c>
-      <c r="D42" t="s" s="0">
+      <c r="D42" t="s">
         <v>2</v>
       </c>
-      <c r="E42" t="s" s="0">
+      <c r="E42" t="s">
         <v>5</v>
       </c>
-      <c r="F42" s="22">
+      <c r="F42" s="6">
         <v>90</v>
       </c>
-      <c r="G42" s="22">
+      <c r="G42" s="6">
         <v>60</v>
       </c>
-      <c r="H42" s="0">
+      <c r="H42">
         <v>30</v>
       </c>
-      <c r="I42" s="0">
+      <c r="I42">
         <v>0</v>
       </c>
-      <c r="L42" s="22"/>
+      <c r="L42" s="6"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" t="s" s="0">
+      <c r="A43" t="s">
         <v>30</v>
       </c>
       <c r="B43" s="1">
         <v>45256</v>
       </c>
-      <c r="C43" t="s" s="0">
+      <c r="C43" t="s">
         <v>4</v>
       </c>
-      <c r="D43" t="s" s="0">
+      <c r="D43" t="s">
         <v>2</v>
       </c>
-      <c r="E43" t="s" s="0">
+      <c r="E43" t="s">
         <v>5</v>
       </c>
-      <c r="F43" s="22">
+      <c r="F43" s="6">
         <v>93</v>
       </c>
-      <c r="G43" s="22">
+      <c r="G43" s="6">
         <v>43</v>
       </c>
-      <c r="H43" s="0">
+      <c r="H43">
         <v>50</v>
       </c>
-      <c r="I43" s="0">
+      <c r="I43">
         <v>0</v>
       </c>
-      <c r="L43" s="22"/>
+      <c r="L43" s="6"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" t="s" s="0">
+      <c r="A44" t="s">
         <v>30</v>
       </c>
       <c r="B44" s="1">
         <v>45257</v>
       </c>
-      <c r="C44" t="s" s="0">
+      <c r="C44" t="s">
         <v>11</v>
       </c>
-      <c r="D44" t="s" s="0">
+      <c r="D44" t="s">
         <v>9</v>
       </c>
-      <c r="E44" t="s" s="0">
+      <c r="E44" t="s">
         <v>10</v>
       </c>
-      <c r="F44" s="0">
+      <c r="F44">
         <v>42</v>
       </c>
-      <c r="G44" s="0">
+      <c r="G44">
         <v>12</v>
       </c>
-      <c r="H44" s="0">
+      <c r="H44">
         <v>30</v>
       </c>
-      <c r="I44" s="0">
+      <c r="I44">
         <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" t="s" s="0">
+      <c r="A45" t="s">
         <v>30</v>
       </c>
       <c r="B45" s="1">
         <v>45257</v>
       </c>
-      <c r="C45" t="s" s="0">
+      <c r="C45" t="s">
         <v>11</v>
       </c>
-      <c r="D45" t="s" s="0">
+      <c r="D45" t="s">
         <v>9</v>
       </c>
-      <c r="E45" t="s" s="0">
+      <c r="E45" t="s">
         <v>10</v>
       </c>
-      <c r="F45" s="0">
+      <c r="F45">
         <v>85</v>
       </c>
-      <c r="G45" s="0">
+      <c r="G45">
         <v>52</v>
       </c>
-      <c r="H45" s="0">
+      <c r="H45">
         <v>33</v>
       </c>
-      <c r="I45" s="0">
+      <c r="I45">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" t="s" s="0">
+      <c r="A46" t="s">
         <v>30</v>
       </c>
       <c r="B46" s="1">
         <v>45257</v>
       </c>
-      <c r="C46" t="s" s="0">
+      <c r="C46" t="s">
         <v>4</v>
       </c>
-      <c r="D46" t="s" s="0">
+      <c r="D46" t="s">
         <v>9</v>
       </c>
-      <c r="E46" t="s" s="0">
+      <c r="E46" t="s">
         <v>1</v>
       </c>
-      <c r="F46" s="0">
+      <c r="F46">
         <v>70</v>
       </c>
-      <c r="G46" s="0">
+      <c r="G46">
         <v>42</v>
       </c>
-      <c r="H46" s="0">
+      <c r="H46">
         <v>28</v>
       </c>
-      <c r="I46" s="0">
+      <c r="I46">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" t="s" s="0">
+      <c r="A47" t="s">
         <v>30</v>
       </c>
       <c r="B47" s="1">
         <v>45257</v>
       </c>
-      <c r="C47" t="s" s="0">
+      <c r="C47" t="s">
         <v>4</v>
       </c>
-      <c r="D47" t="s" s="0">
+      <c r="D47" t="s">
         <v>9</v>
       </c>
-      <c r="E47" t="s" s="0">
+      <c r="E47" t="s">
         <v>1</v>
       </c>
-      <c r="F47" s="0">
+      <c r="F47">
         <v>44</v>
       </c>
-      <c r="G47" s="0">
+      <c r="G47">
         <v>14</v>
       </c>
-      <c r="H47" s="0">
+      <c r="H47">
         <v>30</v>
       </c>
-      <c r="I47" s="0">
+      <c r="I47">
         <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" t="s" s="0">
+      <c r="A48" t="s">
         <v>30</v>
       </c>
       <c r="B48" s="1">
         <v>45257</v>
       </c>
-      <c r="C48" t="s" s="0">
+      <c r="C48" t="s">
         <v>4</v>
       </c>
-      <c r="D48" t="s" s="0">
+      <c r="D48" t="s">
         <v>9</v>
       </c>
-      <c r="E48" t="s" s="0">
+      <c r="E48" t="s">
         <v>1</v>
       </c>
-      <c r="F48" s="0">
+      <c r="F48">
         <v>72</v>
       </c>
-      <c r="G48" s="0">
+      <c r="G48">
         <v>42</v>
       </c>
-      <c r="H48" s="0">
+      <c r="H48">
         <v>30</v>
       </c>
-      <c r="I48" s="0">
+      <c r="I48">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" t="s" s="0">
+      <c r="A49" t="s">
         <v>30</v>
       </c>
       <c r="B49" s="1">
         <v>45257</v>
       </c>
-      <c r="C49" t="s" s="0">
+      <c r="C49" t="s">
         <v>4</v>
       </c>
-      <c r="D49" t="s" s="0">
+      <c r="D49" t="s">
         <v>9</v>
       </c>
-      <c r="E49" t="s" s="0">
+      <c r="E49" t="s">
         <v>1</v>
       </c>
-      <c r="F49" s="0">
+      <c r="F49">
         <v>97</v>
       </c>
-      <c r="G49" s="0">
+      <c r="G49">
         <v>47</v>
       </c>
-      <c r="H49" s="0">
+      <c r="H49">
         <v>50</v>
       </c>
-      <c r="I49" s="0">
+      <c r="I49">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" t="s" s="0">
+      <c r="A50" t="s">
         <v>30</v>
       </c>
       <c r="B50" s="1">
         <v>45257</v>
       </c>
-      <c r="C50" t="s" s="0">
+      <c r="C50" t="s">
         <v>3</v>
       </c>
-      <c r="D50" t="s" s="0">
+      <c r="D50" t="s">
         <v>9</v>
       </c>
-      <c r="E50" t="s" s="0">
+      <c r="E50" t="s">
         <v>5</v>
       </c>
-      <c r="F50" s="0">
+      <c r="F50">
         <v>104</v>
       </c>
-      <c r="G50" s="0">
+      <c r="G50">
         <v>54</v>
       </c>
-      <c r="H50" s="0">
+      <c r="H50">
         <v>50</v>
       </c>
-      <c r="I50" s="0">
+      <c r="I50">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" t="s" s="0">
+      <c r="A51" t="s">
         <v>30</v>
       </c>
       <c r="B51" s="1">
         <v>45257</v>
       </c>
-      <c r="C51" t="s" s="0">
+      <c r="C51" t="s">
         <v>3</v>
       </c>
-      <c r="D51" t="s" s="0">
+      <c r="D51" t="s">
         <v>9</v>
       </c>
-      <c r="E51" t="s" s="0">
+      <c r="E51" t="s">
         <v>5</v>
       </c>
-      <c r="F51" s="0">
+      <c r="F51">
         <v>34</v>
       </c>
-      <c r="G51" s="0">
+      <c r="G51">
         <v>24</v>
       </c>
-      <c r="H51" s="0">
+      <c r="H51">
         <v>10</v>
       </c>
-      <c r="I51" s="0">
+      <c r="I51">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" t="s" s="0">
+      <c r="A52" t="s">
         <v>30</v>
       </c>
       <c r="B52" s="1">
         <v>45257</v>
       </c>
-      <c r="C52" t="s" s="0">
+      <c r="C52" t="s">
         <v>11</v>
       </c>
-      <c r="D52" t="s" s="0">
+      <c r="D52" t="s">
         <v>9</v>
       </c>
-      <c r="E52" t="s" s="0">
+      <c r="E52" t="s">
         <v>10</v>
       </c>
-      <c r="F52" s="0">
+      <c r="F52">
         <v>104</v>
       </c>
-      <c r="G52" s="0">
+      <c r="G52">
         <v>74</v>
       </c>
-      <c r="H52" s="0">
+      <c r="H52">
         <v>30</v>
       </c>
-      <c r="I52" s="0">
+      <c r="I52">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" t="s" s="0">
+      <c r="A53" t="s">
         <v>30</v>
       </c>
       <c r="B53" s="1">
         <v>45257</v>
       </c>
-      <c r="C53" t="s" s="0">
+      <c r="C53" t="s">
         <v>11</v>
       </c>
-      <c r="D53" t="s" s="0">
+      <c r="D53" t="s">
         <v>9</v>
       </c>
-      <c r="E53" t="s" s="0">
+      <c r="E53" t="s">
         <v>10</v>
       </c>
-      <c r="F53" s="0">
+      <c r="F53">
         <v>53</v>
       </c>
-      <c r="G53" s="0">
+      <c r="G53">
         <v>23</v>
       </c>
-      <c r="H53" s="0">
+      <c r="H53">
         <v>30</v>
       </c>
-      <c r="I53" s="0">
+      <c r="I53">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" t="s" s="0">
+      <c r="A54" t="s">
         <v>30</v>
       </c>
       <c r="B54" s="1">
         <v>45257</v>
       </c>
-      <c r="C54" t="s" s="0">
+      <c r="C54" t="s">
         <v>3</v>
       </c>
-      <c r="D54" t="s" s="0">
+      <c r="D54" t="s">
         <v>9</v>
       </c>
-      <c r="E54" t="s" s="0">
+      <c r="E54" t="s">
         <v>10</v>
       </c>
-      <c r="F54" s="0">
+      <c r="F54">
         <v>80</v>
       </c>
-      <c r="G54" s="0">
+      <c r="G54">
         <v>50</v>
       </c>
-      <c r="H54" s="0">
+      <c r="H54">
         <v>30</v>
       </c>
-      <c r="I54" s="0">
+      <c r="I54">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" t="s" s="0">
+      <c r="A55" t="s">
         <v>30</v>
       </c>
       <c r="B55" s="1">
         <v>45257</v>
       </c>
-      <c r="C55" t="s" s="0">
+      <c r="C55" t="s">
         <v>3</v>
       </c>
-      <c r="D55" t="s" s="0">
+      <c r="D55" t="s">
         <v>9</v>
       </c>
-      <c r="E55" t="s" s="0">
+      <c r="E55" t="s">
         <v>10</v>
       </c>
-      <c r="F55" s="0">
+      <c r="F55">
         <v>66</v>
       </c>
-      <c r="G55" s="0">
+      <c r="G55">
         <v>36</v>
       </c>
-      <c r="H55" s="0">
+      <c r="H55">
         <v>30</v>
       </c>
-      <c r="I55" s="0">
+      <c r="I55">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" t="s" s="0">
+      <c r="A56" t="s">
         <v>30</v>
       </c>
       <c r="B56" s="1">
         <v>45257</v>
       </c>
-      <c r="C56" t="s" s="0">
+      <c r="C56" t="s">
         <v>3</v>
       </c>
-      <c r="D56" t="s" s="0">
+      <c r="D56" t="s">
         <v>9</v>
       </c>
-      <c r="E56" t="s" s="0">
+      <c r="E56" t="s">
         <v>10</v>
       </c>
-      <c r="F56" s="0">
+      <c r="F56">
         <v>66</v>
       </c>
-      <c r="G56" s="0">
+      <c r="G56">
         <v>36</v>
       </c>
-      <c r="H56" s="0">
+      <c r="H56">
         <v>30</v>
       </c>
-      <c r="I56" s="0">
+      <c r="I56">
         <v>0</v>
       </c>
     </row>
@@ -12503,8 +13074,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="10.0"/>
-    <col min="5" max="5" customWidth="true" width="10.6640625"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
@@ -12536,7 +13107,7 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
-      <c r="V2" t="s" s="0">
+      <c r="V2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -12544,16 +13115,16 @@
       <c r="A3" s="1">
         <v>45237</v>
       </c>
-      <c r="B3" s="0">
+      <c r="B3">
         <v>106</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s" s="0">
+      <c r="E3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -12561,25 +13132,25 @@
       <c r="A4" s="1">
         <v>45237</v>
       </c>
-      <c r="B4" s="0">
+      <c r="B4">
         <v>83</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" t="s" s="0">
+      <c r="E4" t="s">
         <v>1</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N4" t="s" s="0">
+      <c r="N4" t="s">
         <v>23</v>
       </c>
-      <c r="O4" t="s" s="0">
+      <c r="O4" t="s">
         <v>24</v>
       </c>
     </row>
@@ -12587,26 +13158,26 @@
       <c r="A5" s="1">
         <v>45237</v>
       </c>
-      <c r="B5" s="0">
+      <c r="B5">
         <v>89</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="D5" t="s">
         <v>2</v>
       </c>
-      <c r="E5" t="s" s="0">
+      <c r="E5" t="s">
         <v>1</v>
       </c>
-      <c r="M5" t="s" s="0">
+      <c r="M5" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="0">
+      <c r="N5">
         <f>(SUMIF($C$3:$C$100, M5, $B$3:$B$100)/COUNTIF($C$3:$C$100, M5))</f>
         <v>88.083333333333329</v>
       </c>
-      <c r="O5" s="0">
+      <c r="O5">
         <f>(SUMIF($C$3:$C$100, M5, $F$3:$F$100)/COUNTIF($C$13:$C$100, M5))</f>
         <v>42.428571428571431</v>
       </c>
@@ -12615,26 +13186,26 @@
       <c r="A6" s="1">
         <v>45238</v>
       </c>
-      <c r="B6" s="0">
+      <c r="B6">
         <v>71</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="D6" t="s">
         <v>0</v>
       </c>
-      <c r="E6" t="s" s="0">
+      <c r="E6" t="s">
         <v>1</v>
       </c>
-      <c r="M6" t="s" s="0">
+      <c r="M6" t="s">
         <v>4</v>
       </c>
-      <c r="N6" s="0">
+      <c r="N6">
         <f>(SUMIF($C$3:$C$100, M6, $B$3:$B$100)/COUNTIF($C$3:$C$100, M6))</f>
         <v>98.5</v>
       </c>
-      <c r="O6" s="0">
+      <c r="O6">
         <f>(SUMIF($C$3:$C$100, M6, $F$3:$F$100)/COUNTIF($C$13:$C$100, M6))</f>
         <v>57.333333333333336</v>
       </c>
@@ -12643,26 +13214,26 @@
       <c r="A7" s="1">
         <v>45238</v>
       </c>
-      <c r="B7" s="0">
+      <c r="B7">
         <v>88</v>
       </c>
-      <c r="C7" t="s" s="0">
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s" s="0">
+      <c r="D7" t="s">
         <v>2</v>
       </c>
-      <c r="E7" t="s" s="0">
+      <c r="E7" t="s">
         <v>1</v>
       </c>
-      <c r="M7" t="s" s="0">
+      <c r="M7" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="0">
+      <c r="N7">
         <f>(SUMIF($C$3:$C$100, M7, $B$3:$B$100)/COUNTIF($C$3:$C$100, M7))</f>
         <v>86.25</v>
       </c>
-      <c r="O7" s="0">
+      <c r="O7">
         <f>(SUMIF($C$3:$C$100, M7, $F$3:$F$100)/COUNTIF($C$13:$C$100, M7))</f>
         <v>38</v>
       </c>
@@ -12671,16 +13242,16 @@
       <c r="A8" s="1">
         <v>45238</v>
       </c>
-      <c r="B8" s="0">
+      <c r="B8">
         <v>111</v>
       </c>
-      <c r="C8" t="s" s="0">
+      <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" t="s" s="0">
+      <c r="D8" t="s">
         <v>2</v>
       </c>
-      <c r="E8" t="s" s="0">
+      <c r="E8" t="s">
         <v>1</v>
       </c>
     </row>
@@ -12688,16 +13259,16 @@
       <c r="A9" s="1">
         <v>45238</v>
       </c>
-      <c r="B9" s="0">
+      <c r="B9">
         <v>34</v>
       </c>
-      <c r="C9" t="s" s="0">
+      <c r="C9" t="s">
         <v>3</v>
       </c>
-      <c r="D9" t="s" s="0">
+      <c r="D9" t="s">
         <v>9</v>
       </c>
-      <c r="E9" t="s" s="0">
+      <c r="E9" t="s">
         <v>1</v>
       </c>
       <c r="M9" s="2" t="s">
@@ -12708,32 +13279,32 @@
       <c r="A10" s="1">
         <v>45238</v>
       </c>
-      <c r="B10" s="0">
+      <c r="B10">
         <v>120</v>
       </c>
-      <c r="C10" t="s" s="0">
+      <c r="C10" t="s">
         <v>3</v>
       </c>
-      <c r="D10" t="s" s="0">
+      <c r="D10" t="s">
         <v>0</v>
       </c>
-      <c r="E10" t="s" s="0">
+      <c r="E10" t="s">
         <v>1</v>
       </c>
-      <c r="H10" s="33" t="s">
+      <c r="H10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="M10" t="s" s="0">
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="M10" t="s">
         <v>0</v>
       </c>
-      <c r="N10" s="0">
+      <c r="N10">
         <f>(SUMIF($D$3:$D$100, M10, $B$3:$B$100)/COUNTIF($D$3:$D$100, M10))</f>
         <v>96.666666666666671</v>
       </c>
-      <c r="O10" s="0">
+      <c r="O10">
         <f>(SUMIF($D$3:$D$100, M10, $F$3:$F$100)/COUNTIF($D$13:$D$100, M10))</f>
         <v>26</v>
       </c>
@@ -12742,34 +13313,34 @@
       <c r="A11" s="1">
         <v>45238</v>
       </c>
-      <c r="B11" s="0">
+      <c r="B11">
         <v>75</v>
       </c>
-      <c r="C11" t="s" s="0">
+      <c r="C11" t="s">
         <v>11</v>
       </c>
-      <c r="D11" t="s" s="0">
+      <c r="D11" t="s">
         <v>9</v>
       </c>
-      <c r="E11" t="s" s="0">
+      <c r="E11" t="s">
         <v>1</v>
       </c>
-      <c r="H11" s="33" t="s">
+      <c r="H11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="33"/>
-      <c r="J11" s="35" t="s">
+      <c r="I11" s="10"/>
+      <c r="J11" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="33"/>
-      <c r="M11" t="s" s="0">
+      <c r="K11" s="10"/>
+      <c r="M11" t="s">
         <v>9</v>
       </c>
-      <c r="N11" s="0">
+      <c r="N11">
         <f>(SUMIF($D$3:$D$100, M11, $B$3:$B$100)/COUNTIF($D$3:$D$100, M11))</f>
         <v>77</v>
       </c>
-      <c r="O11" s="0">
+      <c r="O11">
         <f>(SUMIF($D$3:$D$100, M11, $F$3:$F$100)/COUNTIF($D$13:$D$100, M11))</f>
         <v>45.166666666666664</v>
       </c>
@@ -12787,14 +13358,14 @@
       <c r="K12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M12" t="s" s="0">
+      <c r="M12" t="s">
         <v>2</v>
       </c>
-      <c r="N12" s="0">
+      <c r="N12">
         <f>(SUMIF($D$3:$D$100, M12, $B$3:$B$100)/COUNTIF($D$3:$D$100, M12))</f>
         <v>97.75</v>
       </c>
-      <c r="O12" s="0">
+      <c r="O12">
         <f>(SUMIF($D$3:$D$100, M12, $F$3:$F$100)/COUNTIF($D$13:$D$100, M12))</f>
         <v>57.333333333333336</v>
       </c>
@@ -12803,26 +13374,26 @@
       <c r="A13" s="1">
         <v>45237</v>
       </c>
-      <c r="B13" s="0">
+      <c r="B13">
         <v>111</v>
       </c>
-      <c r="C13" t="s" s="0">
+      <c r="C13" t="s">
         <v>4</v>
       </c>
-      <c r="D13" t="s" s="0">
+      <c r="D13" t="s">
         <v>2</v>
       </c>
-      <c r="E13" t="s" s="0">
+      <c r="E13" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="0">
+      <c r="F13">
         <v>66</v>
       </c>
-      <c r="H13" s="0">
+      <c r="H13">
         <f t="shared" ref="H13:H23" si="0">(SUMIF($M$5:$M$7, $C13, $N$5:$N$7)+SUMIF($M$10:$M$12, $D13, $N$10:$N$12)+SUMIF($M$15:$M$17, $E13, $N$15:$N$17))/3</f>
         <v>99.833333333333329</v>
       </c>
-      <c r="I13" s="0">
+      <c r="I13">
         <f t="shared" ref="I13:I23" si="1">(SUMIF($M$5:$M$7, $C13, $O$5:$O$7)+SUMIF($M$10:$M$12, $D13, $O$10:$O$12)+SUMIF($M$15:$M$17, $E13, $O$15:$O$17))/3</f>
         <v>55.722222222222229</v>
       </c>
@@ -12830,7 +13401,7 @@
         <f t="shared" ref="J13:J23" si="2">(SUMIF($M$5:$M$7, $C13, $N$5:$N$7)+SUMIF($M$10:$M$12, $D13, $N$10:$N$12))/2</f>
         <v>98.125</v>
       </c>
-      <c r="K13" s="0">
+      <c r="K13">
         <f t="shared" ref="K13:K23" si="3">(SUMIF($M$5:$M$7, $C13, $O$5:$O$7)+SUMIF($M$10:$M$12, $D13, $O$10:$O$12))/2</f>
         <v>57.333333333333336</v>
       </c>
@@ -12839,26 +13410,26 @@
       <c r="A14" s="1">
         <v>45238</v>
       </c>
-      <c r="B14" s="0">
+      <c r="B14">
         <v>107</v>
       </c>
-      <c r="C14" t="s" s="0">
+      <c r="C14" t="s">
         <v>11</v>
       </c>
-      <c r="D14" t="s" s="0">
+      <c r="D14" t="s">
         <v>9</v>
       </c>
-      <c r="E14" t="s" s="0">
+      <c r="E14" t="s">
         <v>1</v>
       </c>
-      <c r="F14" s="0">
+      <c r="F14">
         <v>57</v>
       </c>
-      <c r="H14" s="0">
+      <c r="H14">
         <f t="shared" si="0"/>
         <v>84.49444444444444</v>
       </c>
-      <c r="I14" s="0">
+      <c r="I14">
         <f t="shared" si="1"/>
         <v>48.198412698412703</v>
       </c>
@@ -12866,7 +13437,7 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K14" s="0">
+      <c r="K14">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
@@ -12878,26 +13449,26 @@
       <c r="A15" s="1">
         <v>45234</v>
       </c>
-      <c r="B15" s="0">
+      <c r="B15">
         <v>108</v>
       </c>
-      <c r="C15" t="s" s="0">
+      <c r="C15" t="s">
         <v>3</v>
       </c>
-      <c r="D15" t="s" s="0">
+      <c r="D15" t="s">
         <v>19</v>
       </c>
-      <c r="E15" t="s" s="0">
+      <c r="E15" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="0">
+      <c r="F15">
         <v>38</v>
       </c>
-      <c r="H15" s="0">
+      <c r="H15">
         <f t="shared" si="0"/>
         <v>63.166666666666664</v>
       </c>
-      <c r="I15" s="0">
+      <c r="I15">
         <f t="shared" si="1"/>
         <v>30.166666666666668</v>
       </c>
@@ -12905,18 +13476,18 @@
         <f t="shared" si="2"/>
         <v>43.125</v>
       </c>
-      <c r="K15" s="0">
+      <c r="K15">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="M15" t="s" s="0">
+      <c r="M15" t="s">
         <v>10</v>
       </c>
-      <c r="N15" s="0">
+      <c r="N15">
         <f>(SUMIF($E$3:$E$100, M15, $B$3:$B$100)/COUNTIF($E$3:$E$100, M15))</f>
         <v>83.166666666666671</v>
       </c>
-      <c r="O15" s="0">
+      <c r="O15">
         <f>(SUMIF($E$3:$E$100, M15, $F$3:$F$100)/COUNTIF($E$13:$E$100, M15))</f>
         <v>40</v>
       </c>
@@ -12925,26 +13496,26 @@
       <c r="A16" s="1">
         <v>45234</v>
       </c>
-      <c r="B16" s="0">
+      <c r="B16">
         <v>107</v>
       </c>
-      <c r="C16" t="s" s="0">
+      <c r="C16" t="s">
         <v>4</v>
       </c>
-      <c r="D16" t="s" s="0">
+      <c r="D16" t="s">
         <v>2</v>
       </c>
-      <c r="E16" t="s" s="0">
+      <c r="E16" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="0">
+      <c r="F16">
         <v>74</v>
       </c>
-      <c r="H16" s="0">
+      <c r="H16">
         <f t="shared" si="0"/>
         <v>99.833333333333329</v>
       </c>
-      <c r="I16" s="0">
+      <c r="I16">
         <f t="shared" si="1"/>
         <v>55.722222222222229</v>
       </c>
@@ -12952,18 +13523,18 @@
         <f t="shared" si="2"/>
         <v>98.125</v>
       </c>
-      <c r="K16" s="0">
+      <c r="K16">
         <f t="shared" si="3"/>
         <v>57.333333333333336</v>
       </c>
-      <c r="M16" t="s" s="0">
+      <c r="M16" t="s">
         <v>1</v>
       </c>
-      <c r="N16" s="0">
+      <c r="N16">
         <f>(SUMIF($E$3:$E$100, M16, $B$3:$B$100)/COUNTIF($E$3:$E$100, M16))</f>
         <v>88.4</v>
       </c>
-      <c r="O16" s="0">
+      <c r="O16">
         <f>(SUMIF($E$3:$E$100, M16, $F$3:$F$100)/COUNTIF($E$13:$E$100, M16))</f>
         <v>57</v>
       </c>
@@ -12972,26 +13543,26 @@
       <c r="A17" s="1">
         <v>45234</v>
       </c>
-      <c r="B17" s="0">
+      <c r="B17">
         <v>97</v>
       </c>
-      <c r="C17" t="s" s="0">
+      <c r="C17" t="s">
         <v>11</v>
       </c>
-      <c r="D17" t="s" s="0">
+      <c r="D17" t="s">
         <v>9</v>
       </c>
-      <c r="E17" t="s" s="0">
+      <c r="E17" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="0">
+      <c r="F17">
         <v>62</v>
       </c>
-      <c r="H17" s="0">
+      <c r="H17">
         <f t="shared" si="0"/>
         <v>82.75</v>
       </c>
-      <c r="I17" s="0">
+      <c r="I17">
         <f t="shared" si="1"/>
         <v>42.531746031746032</v>
       </c>
@@ -12999,18 +13570,18 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K17" s="0">
+      <c r="K17">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
-      <c r="M17" t="s" s="0">
+      <c r="M17" t="s">
         <v>5</v>
       </c>
-      <c r="N17" s="0">
+      <c r="N17">
         <f>(SUMIF($E$3:$E$100, M17, $B$3:$B$100)/COUNTIF($E$3:$E$100, M17))</f>
         <v>103.25</v>
       </c>
-      <c r="O17" s="0">
+      <c r="O17">
         <f>(SUMIF($E$3:$E$100, M17, $F$3:$F$100)/COUNTIF($E$13:$E$100, M17))</f>
         <v>52.5</v>
       </c>
@@ -13019,26 +13590,26 @@
       <c r="A18" s="1">
         <v>45234</v>
       </c>
-      <c r="B18" s="0">
+      <c r="B18">
         <v>99</v>
       </c>
-      <c r="C18" t="s" s="0">
+      <c r="C18" t="s">
         <v>11</v>
       </c>
-      <c r="D18" t="s" s="0">
+      <c r="D18" t="s">
         <v>0</v>
       </c>
-      <c r="E18" t="s" s="0">
+      <c r="E18" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="0">
+      <c r="F18">
         <v>26</v>
       </c>
-      <c r="H18" s="0">
+      <c r="H18">
         <f t="shared" si="0"/>
         <v>89.305555555555557</v>
       </c>
-      <c r="I18" s="0">
+      <c r="I18">
         <f t="shared" si="1"/>
         <v>36.142857142857146</v>
       </c>
@@ -13046,7 +13617,7 @@
         <f t="shared" si="2"/>
         <v>92.375</v>
       </c>
-      <c r="K18" s="0">
+      <c r="K18">
         <f t="shared" si="3"/>
         <v>34.214285714285715</v>
       </c>
@@ -13055,26 +13626,26 @@
       <c r="A19" s="1">
         <v>45234</v>
       </c>
-      <c r="B19" s="0">
+      <c r="B19">
         <v>87</v>
       </c>
-      <c r="C19" t="s" s="0">
+      <c r="C19" t="s">
         <v>4</v>
       </c>
-      <c r="D19" t="s" s="0">
+      <c r="D19" t="s">
         <v>2</v>
       </c>
-      <c r="E19" t="s" s="0">
+      <c r="E19" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="0">
+      <c r="F19">
         <v>32</v>
       </c>
-      <c r="H19" s="0">
+      <c r="H19">
         <f t="shared" si="0"/>
         <v>99.833333333333329</v>
       </c>
-      <c r="I19" s="0">
+      <c r="I19">
         <f t="shared" si="1"/>
         <v>55.722222222222229</v>
       </c>
@@ -13082,7 +13653,7 @@
         <f t="shared" si="2"/>
         <v>98.125</v>
       </c>
-      <c r="K19" s="0">
+      <c r="K19">
         <f t="shared" si="3"/>
         <v>57.333333333333336</v>
       </c>
@@ -13091,26 +13662,26 @@
       <c r="A20" s="1">
         <v>45234</v>
       </c>
-      <c r="B20" s="0">
+      <c r="B20">
         <v>76</v>
       </c>
-      <c r="C20" t="s" s="0">
+      <c r="C20" t="s">
         <v>11</v>
       </c>
-      <c r="D20" t="s" s="0">
+      <c r="D20" t="s">
         <v>9</v>
       </c>
-      <c r="E20" t="s" s="0">
+      <c r="E20" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="0">
+      <c r="F20">
         <v>48</v>
       </c>
-      <c r="H20" s="0">
+      <c r="H20">
         <f t="shared" si="0"/>
         <v>82.75</v>
       </c>
-      <c r="I20" s="0">
+      <c r="I20">
         <f t="shared" si="1"/>
         <v>42.531746031746032</v>
       </c>
@@ -13118,7 +13689,7 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K20" s="0">
+      <c r="K20">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
@@ -13127,26 +13698,26 @@
       <c r="A21" s="1">
         <v>45234</v>
       </c>
-      <c r="B21" s="0">
+      <c r="B21">
         <v>93</v>
       </c>
-      <c r="C21" t="s" s="0">
+      <c r="C21" t="s">
         <v>11</v>
       </c>
-      <c r="D21" t="s" s="0">
+      <c r="D21" t="s">
         <v>9</v>
       </c>
-      <c r="E21" t="s" s="0">
+      <c r="E21" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="0">
+      <c r="F21">
         <v>40</v>
       </c>
-      <c r="H21" s="0">
+      <c r="H21">
         <f t="shared" si="0"/>
         <v>82.75</v>
       </c>
-      <c r="I21" s="0">
+      <c r="I21">
         <f t="shared" si="1"/>
         <v>42.531746031746032</v>
       </c>
@@ -13154,7 +13725,7 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K21" s="0">
+      <c r="K21">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
@@ -13163,26 +13734,26 @@
       <c r="A22" s="1">
         <v>45234</v>
       </c>
-      <c r="B22" s="0">
+      <c r="B22">
         <v>85</v>
       </c>
-      <c r="C22" t="s" s="0">
+      <c r="C22" t="s">
         <v>11</v>
       </c>
-      <c r="D22" t="s" s="0">
+      <c r="D22" t="s">
         <v>9</v>
       </c>
-      <c r="E22" t="s" s="0">
+      <c r="E22" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="0">
+      <c r="F22">
         <v>30</v>
       </c>
-      <c r="H22" s="0">
+      <c r="H22">
         <f t="shared" si="0"/>
         <v>82.75</v>
       </c>
-      <c r="I22" s="0">
+      <c r="I22">
         <f t="shared" si="1"/>
         <v>42.531746031746032</v>
       </c>
@@ -13190,7 +13761,7 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K22" s="0">
+      <c r="K22">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
@@ -13199,26 +13770,26 @@
       <c r="A23" s="1">
         <v>45234</v>
       </c>
-      <c r="B23" s="0">
+      <c r="B23">
         <v>49</v>
       </c>
-      <c r="C23" t="s" s="0">
+      <c r="C23" t="s">
         <v>11</v>
       </c>
-      <c r="D23" t="s" s="0">
+      <c r="D23" t="s">
         <v>9</v>
       </c>
-      <c r="E23" t="s" s="0">
+      <c r="E23" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="0">
+      <c r="F23">
         <v>34</v>
       </c>
-      <c r="H23" s="0">
+      <c r="H23">
         <f t="shared" si="0"/>
         <v>82.75</v>
       </c>
-      <c r="I23" s="0">
+      <c r="I23">
         <f t="shared" si="1"/>
         <v>42.531746031746032</v>
       </c>
@@ -13226,18 +13797,18 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K23" s="0">
+      <c r="K23">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="T27" s="33" t="s">
+      <c r="T27" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="U27" s="33"/>
-      <c r="V27" s="33"/>
-      <c r="W27" s="33"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
       <c r="X27" s="2" t="s">
         <v>23</v>
       </c>
@@ -13246,141 +13817,141 @@
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="T28" s="0">
+      <c r="T28">
         <v>1</v>
       </c>
-      <c r="U28" t="s" s="0">
+      <c r="U28" t="s">
         <v>3</v>
       </c>
-      <c r="V28" t="s" s="0">
+      <c r="V28" t="s">
         <v>0</v>
       </c>
-      <c r="W28" t="s" s="0">
+      <c r="W28" t="s">
         <v>1</v>
       </c>
-      <c r="X28" s="0">
+      <c r="X28">
         <f>(N7+N10+N16)/3</f>
         <v>90.438888888888911</v>
       </c>
-      <c r="Y28" s="0">
+      <c r="Y28">
         <f>(O7+O10+O16)/3</f>
         <v>40.333333333333336</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="T29" s="0">
+      <c r="T29">
         <v>2</v>
       </c>
-      <c r="U29" t="s" s="0">
+      <c r="U29" t="s">
         <v>11</v>
       </c>
-      <c r="V29" t="s" s="0">
+      <c r="V29" t="s">
         <v>9</v>
       </c>
-      <c r="W29" t="s" s="0">
+      <c r="W29" t="s">
         <v>1</v>
       </c>
-      <c r="X29" s="0">
+      <c r="X29">
         <f>(N5+N11+N16)/3</f>
         <v>84.49444444444444</v>
       </c>
-      <c r="Y29" s="0">
+      <c r="Y29">
         <f>(O5+O11+O16)/3</f>
         <v>48.198412698412703</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="T30" s="0">
+      <c r="T30">
         <v>3</v>
       </c>
-      <c r="U30" t="s" s="0">
+      <c r="U30" t="s">
         <v>4</v>
       </c>
-      <c r="V30" t="s" s="0">
+      <c r="V30" t="s">
         <v>9</v>
       </c>
-      <c r="W30" t="s" s="0">
+      <c r="W30" t="s">
         <v>1</v>
       </c>
-      <c r="X30" s="0">
+      <c r="X30">
         <f>(N6+N11+N16)/3</f>
         <v>87.966666666666654</v>
       </c>
-      <c r="Y30" s="0">
+      <c r="Y30">
         <f>(O6+O11+O16)/3</f>
         <v>53.166666666666664</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="T32" s="33" t="s">
+      <c r="T32" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="U32" s="33"/>
-      <c r="V32" s="33"/>
-      <c r="W32" s="33"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="10"/>
+      <c r="W32" s="10"/>
     </row>
     <row r="33" spans="20:25" x14ac:dyDescent="0.3">
-      <c r="T33" s="0">
+      <c r="T33">
         <v>1</v>
       </c>
-      <c r="U33" t="s" s="0">
+      <c r="U33" t="s">
         <v>3</v>
       </c>
-      <c r="V33" t="s" s="0">
+      <c r="V33" t="s">
         <v>0</v>
       </c>
-      <c r="W33" t="s" s="0">
+      <c r="W33" t="s">
         <v>1</v>
       </c>
-      <c r="X33" s="0">
+      <c r="X33">
         <f>(N7+N10+N16)/3</f>
         <v>90.438888888888911</v>
       </c>
-      <c r="Y33" s="0">
+      <c r="Y33">
         <f>(O7+O10+O16)/3</f>
         <v>40.333333333333336</v>
       </c>
     </row>
     <row r="34" spans="20:25" x14ac:dyDescent="0.3">
-      <c r="T34" s="0">
+      <c r="T34">
         <v>2</v>
       </c>
-      <c r="U34" t="s" s="0">
+      <c r="U34" t="s">
         <v>11</v>
       </c>
-      <c r="V34" t="s" s="0">
+      <c r="V34" t="s">
         <v>9</v>
       </c>
-      <c r="W34" t="s" s="0">
+      <c r="W34" t="s">
         <v>10</v>
       </c>
-      <c r="X34" s="0">
+      <c r="X34">
         <f>(N5+N11+N15)/3</f>
         <v>82.75</v>
       </c>
-      <c r="Y34" s="0">
+      <c r="Y34">
         <f>(O5+O11+O15)/3</f>
         <v>42.531746031746032</v>
       </c>
     </row>
     <row r="35" spans="20:25" x14ac:dyDescent="0.3">
-      <c r="T35" s="0">
+      <c r="T35">
         <v>3</v>
       </c>
-      <c r="U35" t="s" s="0">
+      <c r="U35" t="s">
         <v>4</v>
       </c>
-      <c r="V35" t="s" s="0">
+      <c r="V35" t="s">
         <v>2</v>
       </c>
-      <c r="W35" t="s" s="0">
+      <c r="W35" t="s">
         <v>5</v>
       </c>
-      <c r="X35" s="0">
+      <c r="X35">
         <f>(N6+N12+N17)/3</f>
         <v>99.833333333333329</v>
       </c>
-      <c r="Y35" s="0">
+      <c r="Y35">
         <f>(O6+O12+O17)/3</f>
         <v>55.722222222222229</v>
       </c>
@@ -13403,194 +13974,194 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="167" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView zoomScale="167" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
       <c r="E1" s="3"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="7" t="s">
         <v>36</v>
       </c>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="n">
-        <v>63.43046357585669</v>
-      </c>
-      <c r="B3" s="26" t="n">
-        <v>36.550387596685354</v>
-      </c>
-      <c r="C3" s="26" t="n">
-        <v>24.964341084739846</v>
-      </c>
-      <c r="D3" s="23" t="n">
-        <v>2.913907284406357</v>
+      <c r="A3" s="52">
+        <v>63.586563307079359</v>
+      </c>
+      <c r="B3" s="53">
+        <v>36.660343269808941</v>
+      </c>
+      <c r="C3" s="53">
+        <v>25.237579041735369</v>
+      </c>
+      <c r="D3" s="52">
+        <v>3.1007751933026455</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="n">
-        <v>85.45821854887244</v>
-      </c>
-      <c r="B4" s="30" t="n">
-        <v>42.76489607390647</v>
-      </c>
-      <c r="C4" s="30" t="n">
-        <v>42.672055426985544</v>
-      </c>
-      <c r="D4" s="29" t="n">
-        <v>0.6060606060378997</v>
+      <c r="A4" s="54">
+        <v>85.584362139597346</v>
+      </c>
+      <c r="B4" s="55">
+        <v>42.763185108587578</v>
+      </c>
+      <c r="C4" s="55">
+        <v>42.803516028621949</v>
+      </c>
+      <c r="D4" s="54">
+        <v>0.61728395058878205</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="31" t="n">
-        <v>70.99017198992931</v>
-      </c>
-      <c r="B5" s="32" t="n">
-        <v>41.26440677934651</v>
-      </c>
-      <c r="C5" s="32" t="n">
-        <v>29.450847457615403</v>
-      </c>
-      <c r="D5" s="31" t="n">
-        <v>0.0</v>
+      <c r="A5" s="56">
+        <v>71.109890109586701</v>
+      </c>
+      <c r="B5" s="57">
+        <v>41.418867924138567</v>
+      </c>
+      <c r="C5" s="57">
+        <v>29.456603773570386</v>
+      </c>
+      <c r="D5" s="56">
+        <v>0</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="n">
-        <v>66.24442736312962</v>
-      </c>
-      <c r="B6" s="26" t="n">
-        <v>38.01010101007456</v>
-      </c>
-      <c r="C6" s="26" t="n">
-        <v>28.11344211295218</v>
-      </c>
-      <c r="D6" s="23" t="n">
-        <v>2.0292083011786106</v>
+      <c r="A6" s="52">
+        <v>66.463148712913195</v>
+      </c>
+      <c r="B6" s="53">
+        <v>38.023337736645857</v>
+      </c>
+      <c r="C6" s="53">
+        <v>28.358432408001157</v>
+      </c>
+      <c r="D6" s="52">
+        <v>2.0933275183697475</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="n">
-        <v>92.19579081605175</v>
-      </c>
-      <c r="B7" s="30" t="n">
-        <v>44.808794137129176</v>
-      </c>
-      <c r="C7" s="30" t="n">
-        <v>47.238507661347654</v>
-      </c>
-      <c r="D7" s="29" t="n">
-        <v>0.0</v>
+      <c r="A7" s="54">
+        <v>92.332137732794422</v>
+      </c>
+      <c r="B7" s="55">
+        <v>44.864381519978302</v>
+      </c>
+      <c r="C7" s="55">
+        <v>47.342771981851904</v>
+      </c>
+      <c r="D7" s="54">
+        <v>0</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="31" t="n">
-        <v>71.56122448885235</v>
-      </c>
-      <c r="B8" s="32" t="n">
-        <v>41.66428571307212</v>
-      </c>
-      <c r="C8" s="32" t="n">
-        <v>28.699999999990283</v>
-      </c>
-      <c r="D8" s="31" t="n">
-        <v>0.0</v>
+      <c r="A8" s="56">
+        <v>72.041176469333962</v>
+      </c>
+      <c r="B8" s="57">
+        <v>42.278688522992041</v>
+      </c>
+      <c r="C8" s="57">
+        <v>28.704918032774096</v>
+      </c>
+      <c r="D8" s="56">
+        <v>0</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="n">
-        <v>69.5959821422997</v>
-      </c>
-      <c r="B9" s="26" t="n">
-        <v>40.709821428407864</v>
-      </c>
-      <c r="C9" s="26" t="n">
-        <v>28.529017856603677</v>
-      </c>
-      <c r="D9" s="23" t="n">
-        <v>2.2098214284230315</v>
+      <c r="A9" s="52">
+        <v>69.875634517045739</v>
+      </c>
+      <c r="B9" s="53">
+        <v>40.791878172377345</v>
+      </c>
+      <c r="C9" s="53">
+        <v>28.799492385089696</v>
+      </c>
+      <c r="D9" s="52">
+        <v>2.2842639591989995</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="29" t="n">
-        <v>86.3280507130376</v>
-      </c>
-      <c r="B10" s="30" t="n">
-        <v>44.146856840922915</v>
-      </c>
-      <c r="C10" s="30" t="n">
-        <v>42.18119387211468</v>
-      </c>
-      <c r="D10" s="29" t="n">
-        <v>0.0</v>
+      <c r="A10" s="54">
+        <v>86.385159010456377</v>
+      </c>
+      <c r="B10" s="55">
+        <v>44.181389870348539</v>
+      </c>
+      <c r="C10" s="55">
+        <v>42.203769140107845</v>
+      </c>
+      <c r="D10" s="54">
+        <v>0</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="27" t="n">
-        <v>66.052190120987</v>
-      </c>
-      <c r="B11" s="28" t="n">
-        <v>33.58526315763708</v>
-      </c>
-      <c r="C11" s="28" t="n">
-        <v>29.861052631104354</v>
-      </c>
-      <c r="D11" s="27" t="n">
-        <v>1.2301957128180179</v>
+      <c r="A11" s="58">
+        <v>66.138678222957367</v>
+      </c>
+      <c r="B11" s="59">
+        <v>33.71584038660076</v>
+      </c>
+      <c r="C11" s="59">
+        <v>30.101571946169386</v>
+      </c>
+      <c r="D11" s="58">
+        <v>1.3001083421776416</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s" s="0">
+      <c r="A13" t="s">
         <v>35</v>
       </c>
     </row>
@@ -13748,796 +14319,1197 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:BL28"/>
+  <dimension ref="A1:AF25"/>
   <sheetViews>
-    <sheetView zoomScale="123" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
+      <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" bestFit="true" customWidth="true" width="9.5546875"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.0"/>
-    <col min="5" max="7" bestFit="true" customWidth="true" width="9.5546875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="9.0"/>
-    <col min="9" max="11" bestFit="true" customWidth="true" width="9.5546875"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="9.0"/>
-    <col min="13" max="15" bestFit="true" customWidth="true" width="9.5546875"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="9.0"/>
+    <col min="1" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:32" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="19"/>
+    </row>
+    <row r="2" spans="1:32" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="30"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="10"/>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A3" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A4" s="14">
+        <v>65.024856009996284</v>
+      </c>
+      <c r="B4" s="14">
+        <v>37.341840503227402</v>
+      </c>
+      <c r="C4" s="14">
+        <v>26.798005724868261</v>
+      </c>
+      <c r="D4" s="22">
+        <v>2.5970513558361965</v>
+      </c>
+      <c r="E4" s="24">
+        <v>65.995011711406178</v>
+      </c>
+      <c r="F4" s="14">
+        <v>38.031848037057394</v>
+      </c>
+      <c r="G4" s="14">
+        <v>27.19830305691255</v>
+      </c>
+      <c r="H4" s="22">
+        <v>2.534493876508757</v>
+      </c>
+      <c r="I4" s="24">
+        <v>69.296916610088303</v>
+      </c>
+      <c r="J4" s="14">
+        <v>38.709750376651627</v>
+      </c>
+      <c r="K4" s="14">
+        <v>29.879158407916179</v>
+      </c>
+      <c r="L4" s="22">
+        <v>2.077641084668957</v>
+      </c>
+      <c r="M4" s="20">
+        <v>65.247620452588507</v>
+      </c>
+      <c r="N4" s="14">
+        <v>36.616640479902074</v>
+      </c>
+      <c r="O4" s="14">
+        <v>27.458718969128483</v>
+      </c>
+      <c r="P4" s="15">
+        <v>2.3376627531044853</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A5" s="14">
+        <v>77.959350519936891</v>
+      </c>
+      <c r="B5" s="14">
+        <v>40.762362394893621</v>
+      </c>
+      <c r="C5" s="14">
+        <v>36.290175511793635</v>
+      </c>
+      <c r="D5" s="22">
+        <v>1.5503875966513228</v>
+      </c>
+      <c r="E5" s="24">
+        <v>76.342607319358663</v>
+      </c>
+      <c r="F5" s="14">
+        <v>40.768265550390367</v>
+      </c>
+      <c r="G5" s="14">
+        <v>34.79203888645285</v>
+      </c>
+      <c r="H5" s="22">
+        <v>1.697162869160858</v>
+      </c>
+      <c r="I5" s="24">
+        <v>79.644512218040788</v>
+      </c>
+      <c r="J5" s="14">
+        <v>41.446167889984608</v>
+      </c>
+      <c r="K5" s="14">
+        <v>37.47289423745648</v>
+      </c>
+      <c r="L5" s="22">
+        <v>1.2403100773210582</v>
+      </c>
+      <c r="M5" s="20">
+        <v>75.595216060540992</v>
+      </c>
+      <c r="N5" s="14">
+        <v>39.353057993235055</v>
+      </c>
+      <c r="O5" s="14">
+        <v>35.052454798668784</v>
+      </c>
+      <c r="P5" s="15">
+        <v>1.5003317457565866</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A6" s="14">
+        <v>67.813869888206654</v>
+      </c>
+      <c r="B6" s="14">
+        <v>39.469515896400495</v>
+      </c>
+      <c r="C6" s="14">
+        <v>26.971248537254731</v>
+      </c>
+      <c r="D6" s="22">
+        <v>1.5503875966513228</v>
+      </c>
+      <c r="E6" s="24">
+        <v>68.226222813974474</v>
+      </c>
+      <c r="F6" s="14">
+        <v>39.733988351595869</v>
+      </c>
+      <c r="G6" s="14">
+        <v>27.336897306821726</v>
+      </c>
+      <c r="H6" s="22">
+        <v>1.697162869160858</v>
+      </c>
+      <c r="I6" s="24">
+        <v>71.528127712656598</v>
+      </c>
+      <c r="J6" s="14">
+        <v>40.411890691190102</v>
+      </c>
+      <c r="K6" s="14">
+        <v>30.017752657825355</v>
+      </c>
+      <c r="L6" s="22">
+        <v>1.2403100773210582</v>
+      </c>
+      <c r="M6" s="20">
+        <v>67.478831555156802</v>
+      </c>
+      <c r="N6" s="14">
+        <v>38.318780794440542</v>
+      </c>
+      <c r="O6" s="14">
+        <v>27.597313219037666</v>
+      </c>
+      <c r="P6" s="15">
+        <v>1.5003317457565866</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A7" s="14">
+        <v>76.023755426255264</v>
+      </c>
+      <c r="B7" s="14">
+        <v>40.393261422616717</v>
+      </c>
+      <c r="C7" s="14">
+        <v>35.580974218311553</v>
+      </c>
+      <c r="D7" s="22">
+        <v>1.3553057344792647</v>
+      </c>
+      <c r="E7" s="24">
+        <v>74.794131244413364</v>
+      </c>
+      <c r="F7" s="14">
+        <v>40.472984772568843</v>
+      </c>
+      <c r="G7" s="14">
+        <v>34.224677851667181</v>
+      </c>
+      <c r="H7" s="22">
+        <v>1.5410973794232117</v>
+      </c>
+      <c r="I7" s="24">
+        <v>78.096036143095489</v>
+      </c>
+      <c r="J7" s="14">
+        <v>41.150887112163083</v>
+      </c>
+      <c r="K7" s="14">
+        <v>36.90553320267081</v>
+      </c>
+      <c r="L7" s="22">
+        <v>1.0842445875834117</v>
+      </c>
+      <c r="M7" s="20">
+        <v>74.046739985595678</v>
+      </c>
+      <c r="N7" s="14">
+        <v>39.057777215413523</v>
+      </c>
+      <c r="O7" s="14">
+        <v>34.485093763883114</v>
+      </c>
+      <c r="P7" s="15">
+        <v>1.34426625601894</v>
+      </c>
+      <c r="Q7" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="2"/>
-      <c r="AO1" s="2"/>
-      <c r="AP1" s="2"/>
-      <c r="AQ1" s="2"/>
-      <c r="AR1" s="2"/>
-      <c r="AS1" s="2"/>
-      <c r="AT1" s="2"/>
-      <c r="AU1" s="2"/>
-      <c r="AV1" s="2"/>
-      <c r="AW1" s="2"/>
-      <c r="AX1" s="2"/>
-      <c r="AY1" s="2"/>
-      <c r="AZ1" s="2"/>
-      <c r="BA1" s="2"/>
-      <c r="BB1" s="2"/>
-      <c r="BC1" s="2"/>
-      <c r="BD1" s="2"/>
-      <c r="BE1" s="2"/>
-      <c r="BF1" s="2"/>
-      <c r="BG1" s="2"/>
-      <c r="BH1" s="2"/>
-      <c r="BI1" s="2"/>
-      <c r="BJ1" s="2"/>
-      <c r="BK1" s="2"/>
-      <c r="BL1" s="2"/>
-    </row>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39" t="s">
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A8" s="14">
+        <v>88.958249936195884</v>
+      </c>
+      <c r="B8" s="14">
+        <v>43.813783314282944</v>
+      </c>
+      <c r="C8" s="14">
+        <v>45.073144005236927</v>
+      </c>
+      <c r="D8" s="22">
+        <v>0.30864197529439102</v>
+      </c>
+      <c r="E8" s="24">
+        <v>85.141726852365849</v>
+      </c>
+      <c r="F8" s="14">
+        <v>43.209402285901824</v>
+      </c>
+      <c r="G8" s="14">
+        <v>41.818413681207481</v>
+      </c>
+      <c r="H8" s="22">
+        <v>0.70376637207531267</v>
+      </c>
+      <c r="I8" s="24">
+        <v>88.443631751047988</v>
+      </c>
+      <c r="J8" s="14">
+        <v>43.887304625496064</v>
+      </c>
+      <c r="K8" s="14">
+        <v>44.49926903221111</v>
+      </c>
+      <c r="L8" s="22">
+        <v>0.24691358023551283</v>
+      </c>
+      <c r="M8" s="20">
+        <v>84.394335593548178</v>
+      </c>
+      <c r="N8" s="14">
+        <v>41.794194728746504</v>
+      </c>
+      <c r="O8" s="14">
+        <v>42.078829593423414</v>
+      </c>
+      <c r="P8" s="15">
+        <v>0.50693524867104112</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A9" s="14">
+        <v>78.812769304465661</v>
+      </c>
+      <c r="B9" s="14">
+        <v>42.52093681578981</v>
+      </c>
+      <c r="C9" s="14">
+        <v>35.754217030698022</v>
+      </c>
+      <c r="D9" s="22">
+        <v>0.30864197529439102</v>
+      </c>
+      <c r="E9" s="24">
+        <v>77.025342346981674</v>
+      </c>
+      <c r="F9" s="14">
+        <v>42.175125087107318</v>
+      </c>
+      <c r="G9" s="14">
+        <v>34.363272101576356</v>
+      </c>
+      <c r="H9" s="22">
+        <v>0.70376637207531267</v>
+      </c>
+      <c r="I9" s="24">
+        <v>80.327247245663813</v>
+      </c>
+      <c r="J9" s="14">
+        <v>42.853027426701559</v>
+      </c>
+      <c r="K9" s="14">
+        <v>37.044127452579986</v>
+      </c>
+      <c r="L9" s="22">
+        <v>0.24691358023551283</v>
+      </c>
+      <c r="M9" s="20">
+        <v>76.277951088164002</v>
+      </c>
+      <c r="N9" s="14">
+        <v>40.759917529951998</v>
+      </c>
+      <c r="O9" s="14">
+        <v>34.623688013792297</v>
+      </c>
+      <c r="P9" s="15">
+        <v>0.50693524867104112</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A10" s="14">
+        <v>68.786519411249941</v>
+      </c>
+      <c r="B10" s="14">
+        <v>39.721102830392212</v>
+      </c>
+      <c r="C10" s="14">
+        <v>28.907518090785771</v>
+      </c>
+      <c r="D10" s="22">
+        <v>1.0466637591848738</v>
+      </c>
+      <c r="E10" s="24">
+        <v>69.004342432409103</v>
+      </c>
+      <c r="F10" s="14">
+        <v>39.935257898789239</v>
+      </c>
+      <c r="G10" s="14">
+        <v>28.88591294964656</v>
+      </c>
+      <c r="H10" s="22">
+        <v>1.294183799187699</v>
+      </c>
+      <c r="I10" s="24">
+        <v>72.306247331091228</v>
+      </c>
+      <c r="J10" s="14">
+        <v>40.613160238383479</v>
+      </c>
+      <c r="K10" s="14">
+        <v>31.566768300650189</v>
+      </c>
+      <c r="L10" s="22">
+        <v>0.837331007347899</v>
+      </c>
+      <c r="M10" s="20">
+        <v>68.256951173591432</v>
+      </c>
+      <c r="N10" s="14">
+        <v>38.520050341633919</v>
+      </c>
+      <c r="O10" s="14">
+        <v>29.146328861862493</v>
+      </c>
+      <c r="P10" s="15">
+        <v>1.0973526757834273</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A11" s="14">
+        <v>81.721013921190561</v>
+      </c>
+      <c r="B11" s="14">
+        <v>43.141624722058438</v>
+      </c>
+      <c r="C11" s="14">
+        <v>38.399687877711145</v>
+      </c>
+      <c r="D11" s="22">
+        <v>0</v>
+      </c>
+      <c r="E11" s="24">
+        <v>79.351938040361603</v>
+      </c>
+      <c r="F11" s="14">
+        <v>42.671675412122219</v>
+      </c>
+      <c r="G11" s="14">
+        <v>36.47964877918686</v>
+      </c>
+      <c r="H11" s="22">
+        <v>0.45685279183979988</v>
+      </c>
+      <c r="I11" s="24">
+        <v>82.653842939043727</v>
+      </c>
+      <c r="J11" s="14">
+        <v>43.34957775171646</v>
+      </c>
+      <c r="K11" s="14">
+        <v>39.160504130190489</v>
+      </c>
+      <c r="L11" s="22">
+        <v>0</v>
+      </c>
+      <c r="M11" s="20">
+        <v>78.604546781543917</v>
+      </c>
+      <c r="N11" s="14">
+        <v>41.2564678549669</v>
+      </c>
+      <c r="O11" s="14">
+        <v>36.740064691402793</v>
+      </c>
+      <c r="P11" s="15">
+        <v>0.26002166843552832</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="35">
+        <v>71.575533289460338</v>
+      </c>
+      <c r="B12" s="35">
+        <v>41.848778223565304</v>
+      </c>
+      <c r="C12" s="35">
+        <v>29.080760903172241</v>
+      </c>
+      <c r="D12" s="36">
+        <v>0</v>
+      </c>
+      <c r="E12" s="37">
+        <v>71.235553534977413</v>
+      </c>
+      <c r="F12" s="35">
+        <v>41.637398213327714</v>
+      </c>
+      <c r="G12" s="35">
+        <v>29.024507199555735</v>
+      </c>
+      <c r="H12" s="36">
+        <v>0.45685279183979988</v>
+      </c>
+      <c r="I12" s="37">
+        <v>74.537458433659552</v>
+      </c>
+      <c r="J12" s="35">
+        <v>42.315300552921954</v>
+      </c>
+      <c r="K12" s="35">
+        <v>31.705362550559364</v>
+      </c>
+      <c r="L12" s="36">
+        <v>0</v>
+      </c>
+      <c r="M12" s="38">
+        <v>70.488162276159741</v>
+      </c>
+      <c r="N12" s="35">
+        <v>40.222190656172394</v>
+      </c>
+      <c r="O12" s="35">
+        <v>29.284923111771672</v>
+      </c>
+      <c r="P12" s="39">
+        <v>0.26002166843552832</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="51"/>
+    </row>
+    <row r="14" spans="1:32" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="39" t="s">
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="37" t="s">
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="40"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="33"/>
-    </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A3" t="s" s="0">
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="49"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A15" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B15" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C15" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D15" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E15" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="F3" t="s" s="0">
+      <c r="F15" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="G3" t="s" s="0">
+      <c r="G15" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H15" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I15" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="J3" t="s" s="0">
+      <c r="J15" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="K3" t="s" s="0">
+      <c r="K15" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L15" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="M3" t="s" s="0">
+      <c r="M15" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="N3" t="s" s="0">
+      <c r="N15" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="O3" t="s" s="0">
+      <c r="O15" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P15" s="44" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="n">
-        <v>64.83744546949316</v>
-      </c>
-      <c r="B4" s="13" t="n">
-        <v>37.28024430337996</v>
-      </c>
-      <c r="C4" s="13" t="n">
-        <v>26.538891598846014</v>
-      </c>
-      <c r="D4" s="14" t="n">
-        <v>2.471557792792484</v>
-      </c>
-      <c r="E4" s="15" t="n">
-        <v>65.78915280405447</v>
-      </c>
-      <c r="F4" s="13" t="n">
-        <v>37.966159728385534</v>
-      </c>
-      <c r="G4" s="13" t="n">
-        <v>26.936916850397544</v>
-      </c>
-      <c r="H4" s="14" t="n">
-        <v>2.4192105199185936</v>
-      </c>
-      <c r="I4" s="15" t="n">
-        <v>69.13556651820205</v>
-      </c>
-      <c r="J4" s="13" t="n">
-        <v>38.65356681088855</v>
-      </c>
-      <c r="K4" s="13" t="n">
-        <v>29.667352053499748</v>
-      </c>
-      <c r="L4" s="14" t="n">
-        <v>1.9772462342339872</v>
-      </c>
-      <c r="M4" s="13" t="n">
-        <v>65.08039439979193</v>
-      </c>
-      <c r="N4" s="13" t="n">
-        <v>36.54124807423138</v>
-      </c>
-      <c r="O4" s="13" t="n">
-        <v>27.20332380529768</v>
-      </c>
-      <c r="P4" s="16" t="n">
-        <v>2.2232853767975906</v>
-      </c>
-      <c r="Q4" t="s" s="0">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A16" s="14">
+        <v>60.931034482758619</v>
+      </c>
+      <c r="B16" s="14">
+        <v>36.578947368421055</v>
+      </c>
+      <c r="C16" s="14">
+        <v>22.982456140350877</v>
+      </c>
+      <c r="D16" s="22">
+        <v>2.0689655172413794</v>
+      </c>
+      <c r="E16" s="24">
+        <v>64.416666666666671</v>
+      </c>
+      <c r="F16" s="14">
+        <v>39.583333333333336</v>
+      </c>
+      <c r="G16" s="14">
+        <v>23.5</v>
+      </c>
+      <c r="H16" s="22">
+        <v>2.5</v>
+      </c>
+      <c r="I16" s="24" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J16" s="14" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K16" s="14" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L16" s="22" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M16" s="20">
+        <v>44.2</v>
+      </c>
+      <c r="N16" s="14">
+        <v>20.555555555555557</v>
+      </c>
+      <c r="O16" s="14">
+        <v>20.222222222222221</v>
+      </c>
+      <c r="P16" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="n">
-        <v>88.8270046824621</v>
-      </c>
-      <c r="B5" s="13" t="n">
-        <v>43.78684510551783</v>
-      </c>
-      <c r="C5" s="13" t="n">
-        <v>44.955281544166596</v>
-      </c>
-      <c r="D5" s="14" t="n">
-        <v>0.30303030301894984</v>
-      </c>
-      <c r="E5" s="15" t="n">
-        <v>84.98080017442962</v>
-      </c>
-      <c r="F5" s="13" t="n">
-        <v>43.17144037009583</v>
-      </c>
-      <c r="G5" s="13" t="n">
-        <v>41.67002880665401</v>
-      </c>
-      <c r="H5" s="14" t="n">
-        <v>0.6843885280997661</v>
-      </c>
-      <c r="I5" s="15" t="n">
-        <v>88.3272138885772</v>
-      </c>
-      <c r="J5" s="13" t="n">
-        <v>43.858847452598845</v>
-      </c>
-      <c r="K5" s="13" t="n">
-        <v>44.40046400975621</v>
-      </c>
-      <c r="L5" s="14" t="n">
-        <v>0.24242424241515986</v>
-      </c>
-      <c r="M5" s="13" t="n">
-        <v>84.27204177016708</v>
-      </c>
-      <c r="N5" s="13" t="n">
-        <v>41.74652871594168</v>
-      </c>
-      <c r="O5" s="13" t="n">
-        <v>41.936435761554144</v>
-      </c>
-      <c r="P5" s="16" t="n">
-        <v>0.4884633849787635</v>
-      </c>
-      <c r="Q5" t="s" s="0">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="14">
+        <v>101.66666666666667</v>
+      </c>
+      <c r="B17" s="14" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C17" s="14" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D17" s="22">
+        <v>0</v>
+      </c>
+      <c r="E17" s="24" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F17" s="14" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G17" s="14" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H17" s="22" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I17" s="24" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J17" s="14" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K17" s="14" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L17" s="22" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M17" s="20">
+        <v>101.66666666666667</v>
+      </c>
+      <c r="N17" s="14" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O17" s="14" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P17" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="17" t="n">
-        <v>71.27569823939083</v>
-      </c>
-      <c r="B6" s="17" t="n">
-        <v>41.46434624620932</v>
-      </c>
-      <c r="C6" s="17" t="n">
-        <v>29.075423728802843</v>
-      </c>
-      <c r="D6" s="18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E6" s="19" t="n">
-        <v>70.93975501997261</v>
-      </c>
-      <c r="F6" s="17" t="n">
-        <v>41.31344128264902</v>
-      </c>
-      <c r="G6" s="17" t="n">
-        <v>28.96614255436301</v>
-      </c>
-      <c r="H6" s="18" t="n">
-        <v>0.44196428568460633</v>
-      </c>
-      <c r="I6" s="19" t="n">
-        <v>74.2861687341202</v>
-      </c>
-      <c r="J6" s="17" t="n">
-        <v>42.00084836515204</v>
-      </c>
-      <c r="K6" s="17" t="n">
-        <v>31.696577757465214</v>
-      </c>
-      <c r="L6" s="18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M6" s="17" t="n">
-        <v>70.23099661571007</v>
-      </c>
-      <c r="N6" s="17" t="n">
-        <v>39.88852962849487</v>
-      </c>
-      <c r="O6" s="17" t="n">
-        <v>29.232549509263144</v>
-      </c>
-      <c r="P6" s="20" t="n">
-        <v>0.24603914256360357</v>
-      </c>
-      <c r="Q6" t="s" s="0">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="14">
+        <v>57.4</v>
+      </c>
+      <c r="B18" s="14">
+        <v>26</v>
+      </c>
+      <c r="C18" s="14">
+        <v>28</v>
+      </c>
+      <c r="D18" s="22">
+        <v>0</v>
+      </c>
+      <c r="E18" s="24">
+        <v>54</v>
+      </c>
+      <c r="F18" s="14">
+        <v>26</v>
+      </c>
+      <c r="G18" s="14">
+        <v>28</v>
+      </c>
+      <c r="H18" s="22">
+        <v>0</v>
+      </c>
+      <c r="I18" s="24" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J18" s="14" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K18" s="14" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L18" s="22" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M18" s="20">
+        <v>71</v>
+      </c>
+      <c r="N18" s="14" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O18" s="14" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P18" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:64" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="43" t="s">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="14">
+        <v>70.333333333333329</v>
+      </c>
+      <c r="B19" s="14">
+        <v>39.333333333333336</v>
+      </c>
+      <c r="C19" s="14">
+        <v>31</v>
+      </c>
+      <c r="D19" s="22">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="E19" s="24" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F19" s="14" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G19" s="14" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H19" s="22" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I19" s="24" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J19" s="14" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K19" s="14" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L19" s="22" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M19" s="20">
+        <v>70.333333333333329</v>
+      </c>
+      <c r="N19" s="14">
+        <v>39.333333333333336</v>
+      </c>
+      <c r="O19" s="14">
+        <v>31</v>
+      </c>
+      <c r="P19" s="15">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="14">
+        <v>90.666666666666671</v>
+      </c>
+      <c r="B20" s="14">
+        <v>44.339622641509436</v>
+      </c>
+      <c r="C20" s="14">
+        <v>46.358490566037737</v>
+      </c>
+      <c r="D20" s="22">
+        <v>0</v>
+      </c>
+      <c r="E20" s="24" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F20" s="14" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G20" s="14" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H20" s="22" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I20" s="24">
+        <v>90.698113207547166</v>
+      </c>
+      <c r="J20" s="14">
+        <v>44.339622641509436</v>
+      </c>
+      <c r="K20" s="14">
+        <v>46.358490566037737</v>
+      </c>
+      <c r="L20" s="22">
+        <v>0</v>
+      </c>
+      <c r="M20" s="20">
+        <v>89</v>
+      </c>
+      <c r="N20" s="14" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O20" s="14" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P20" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="42"/>
-    </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A8" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="46"/>
-    </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="G9" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="K9" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="M9" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="N9" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="O9" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="P9" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="n">
-        <v>60.93103448275862</v>
-      </c>
-      <c r="B10" t="n" s="0">
-        <v>36.578947368421055</v>
-      </c>
-      <c r="C10" t="n" s="0">
-        <v>22.982456140350877</v>
-      </c>
-      <c r="D10" s="9" t="n">
-        <v>2.0689655172413794</v>
-      </c>
-      <c r="E10" s="11" t="n">
-        <v>64.41666666666667</v>
-      </c>
-      <c r="F10" t="n" s="0">
-        <v>39.583333333333336</v>
-      </c>
-      <c r="G10" t="n" s="0">
-        <v>23.5</v>
-      </c>
-      <c r="H10" s="9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="I10" s="11" t="e">
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="14" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="J10" t="e" s="0">
+      <c r="B21" s="14" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="K10" t="e" s="0">
+      <c r="C21" s="14" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="L10" s="9" t="e">
+      <c r="D21" s="22" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="M10" t="n" s="0">
-        <v>44.2</v>
-      </c>
-      <c r="N10" t="n" s="0">
-        <v>20.555555555555557</v>
-      </c>
-      <c r="O10" t="n" s="0">
-        <v>20.22222222222222</v>
-      </c>
-      <c r="P10" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q10" t="s" s="0">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="n">
-        <v>90.66666666666667</v>
-      </c>
-      <c r="B11" t="n" s="0">
-        <v>44.339622641509436</v>
-      </c>
-      <c r="C11" t="n" s="0">
-        <v>46.35849056603774</v>
-      </c>
-      <c r="D11" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E11" s="11" t="e">
+      <c r="E21" s="24" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="F11" t="e" s="0">
+      <c r="F21" s="14" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="G11" t="e" s="0">
+      <c r="G21" s="14" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="H11" s="9" t="e">
+      <c r="H21" s="22" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="I11" s="11" t="n">
-        <v>90.69811320754717</v>
-      </c>
-      <c r="J11" t="n" s="0">
-        <v>44.339622641509436</v>
-      </c>
-      <c r="K11" t="n" s="0">
-        <v>46.35849056603774</v>
-      </c>
-      <c r="L11" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M11" t="n" s="0">
-        <v>89.0</v>
-      </c>
-      <c r="N11" t="e" s="0">
+      <c r="I21" s="24" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="O11" t="e" s="0">
+      <c r="J21" s="14" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="P11" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q11" t="s" s="0">
+      <c r="K21" s="14" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L21" s="22" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M21" s="20" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N21" s="14" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O21" s="14" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P21" s="15" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="14">
+        <v>68.285714285714292</v>
+      </c>
+      <c r="B22" s="14">
+        <v>40</v>
+      </c>
+      <c r="C22" s="14">
+        <v>30</v>
+      </c>
+      <c r="D22" s="22">
+        <v>0</v>
+      </c>
+      <c r="E22" s="24">
+        <v>70.666666666666671</v>
+      </c>
+      <c r="F22" s="14">
+        <v>40.666666666666664</v>
+      </c>
+      <c r="G22" s="14">
+        <v>30</v>
+      </c>
+      <c r="H22" s="22">
+        <v>0</v>
+      </c>
+      <c r="I22" s="24">
+        <v>69</v>
+      </c>
+      <c r="J22" s="14">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="n">
-        <v>71.04761904761905</v>
-      </c>
-      <c r="B12" s="5" t="n">
-        <v>39.8</v>
-      </c>
-      <c r="C12" s="5" t="n">
+      <c r="K22" s="14">
+        <v>30</v>
+      </c>
+      <c r="L22" s="22">
+        <v>0</v>
+      </c>
+      <c r="M22" s="20">
+        <v>34</v>
+      </c>
+      <c r="N22" s="14" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O22" s="14" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P22" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="14">
+        <v>83</v>
+      </c>
+      <c r="B23" s="14" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C23" s="14" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D23" s="22">
+        <v>0</v>
+      </c>
+      <c r="E23" s="24" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F23" s="14" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G23" s="14" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H23" s="22" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I23" s="24" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J23" s="14" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K23" s="14" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L23" s="22" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M23" s="20">
+        <v>83</v>
+      </c>
+      <c r="N23" s="14" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O23" s="14" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P23" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="16">
+        <v>71.047619047619051</v>
+      </c>
+      <c r="B24" s="16">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="C24" s="16">
         <v>28.8</v>
       </c>
-      <c r="D12" s="10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E12" s="12" t="n">
+      <c r="D24" s="23">
+        <v>0</v>
+      </c>
+      <c r="E24" s="25">
         <v>88.5</v>
       </c>
-      <c r="F12" s="5" t="n">
+      <c r="F24" s="16">
         <v>49.5</v>
       </c>
-      <c r="G12" s="5" t="n">
-        <v>39.0</v>
-      </c>
-      <c r="H12" s="10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I12" s="12" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="J12" s="5" t="n">
-        <v>47.0</v>
-      </c>
-      <c r="K12" s="5" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="L12" s="10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M12" s="5" t="n">
+      <c r="G24" s="16">
+        <v>39</v>
+      </c>
+      <c r="H24" s="23">
+        <v>0</v>
+      </c>
+      <c r="I24" s="25">
+        <v>55</v>
+      </c>
+      <c r="J24" s="16">
+        <v>47</v>
+      </c>
+      <c r="K24" s="16">
+        <v>8</v>
+      </c>
+      <c r="L24" s="23">
+        <v>0</v>
+      </c>
+      <c r="M24" s="21">
         <v>62.666666666666664</v>
       </c>
-      <c r="N12" s="5" t="n">
+      <c r="N24" s="16">
         <v>26.5</v>
       </c>
-      <c r="O12" s="5" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="P12" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q12" t="s" s="0">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="E22" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="I22" t="s" s="0">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="B23" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C23" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F23" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="G23" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="I23" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="J23" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="K23" t="s" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="13">
-        <f>F4</f>
-        <v>36.420041928942865</v>
-      </c>
-      <c r="B24" s="13">
-        <f>J4</f>
-        <v>38.449866490276051</v>
-      </c>
-      <c r="C24" s="13">
-        <f>N4</f>
-        <v>35.361127200283583</v>
-      </c>
-      <c r="E24" s="13">
-        <f>F5</f>
-        <v>45.759649122615542</v>
-      </c>
-      <c r="F24" s="13">
-        <f>J5</f>
-        <v>47.789473683948721</v>
-      </c>
-      <c r="G24" s="13">
-        <f>N5</f>
-        <v>44.70073439395626</v>
-      </c>
-      <c r="I24" s="13">
-        <f>F6</f>
-        <v>28.780392156858635</v>
-      </c>
-      <c r="J24" s="13">
-        <f>J6</f>
-        <v>30.810216718191818</v>
-      </c>
-      <c r="K24" s="13">
-        <f>N6</f>
-        <v>27.721477428199353</v>
-      </c>
-      <c r="M24" t="s" s="0">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="13">
-        <f>G4</f>
-        <v>22.205828092195425</v>
-      </c>
-      <c r="B25" s="13">
-        <f>K4</f>
-        <v>26.414600022004919</v>
-      </c>
-      <c r="C25" s="13">
-        <f>O4</f>
-        <v>23.492262200744761</v>
-      </c>
-      <c r="E25" s="13">
-        <f>G5</f>
-        <v>33.784833579376297</v>
-      </c>
-      <c r="F25" s="13">
-        <f>K5</f>
-        <v>37.993605509185791</v>
-      </c>
-      <c r="G25" s="13">
-        <f>O5</f>
-        <v>35.071267687925634</v>
-      </c>
-      <c r="I25" s="13">
-        <f>G6</f>
-        <v>27.127450980383919</v>
-      </c>
-      <c r="J25" s="13">
-        <f>K6</f>
-        <v>31.336222910193413</v>
-      </c>
-      <c r="K25" s="13">
-        <f>O6</f>
-        <v>28.413885088933256</v>
-      </c>
-      <c r="M25" t="s" s="0">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="0">
-        <f>F10</f>
-        <v>40.6</v>
-      </c>
-      <c r="B27" t="e" s="0">
-        <f>J10</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="C27" s="0">
-        <f>N10</f>
-        <v>29.666666666666668</v>
-      </c>
-      <c r="E27" t="e" s="0">
-        <f>F11</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F27" s="0">
-        <f>J11</f>
-        <v>47.333333333333336</v>
-      </c>
-      <c r="G27" t="e" s="0">
-        <f>N11</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I27" t="e" s="0">
-        <f>F12</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J27" t="e" s="0">
-        <f>J12</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="K27" s="0">
-        <f>N12</f>
-        <v>26.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="0">
-        <f>G10</f>
-        <v>18.600000000000001</v>
-      </c>
-      <c r="B28" t="e" s="0">
-        <f>K10</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="C28" s="0">
-        <f>O10</f>
-        <v>27.666666666666668</v>
-      </c>
-      <c r="E28" t="e" s="0">
-        <f>G11</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F28" s="0">
-        <f>K11</f>
-        <v>41</v>
-      </c>
-      <c r="G28" t="e" s="0">
-        <f>O11</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I28" t="e" s="0">
-        <f>G12</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J28" t="e" s="0">
-        <f>K12</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="K28" s="0">
-        <f>O12</f>
+      <c r="O24" s="16">
         <v>29</v>
       </c>
+      <c r="P24" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="A13:P13"/>
     <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A7:P7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="M8:P8"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="Y2:AB2"/>
     <mergeCell ref="A2:D2"/>
@@ -14545,18 +15517,8 @@
     <mergeCell ref="I2:L2"/>
     <mergeCell ref="M2:P2"/>
   </mergeCells>
-  <conditionalFormatting sqref="A4:A6">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="25">
+  <conditionalFormatting sqref="A4:A12">
+    <cfRule type="colorScale" priority="96">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14567,8 +15529,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A10:A12">
-    <cfRule type="colorScale" priority="13">
+  <conditionalFormatting sqref="B4:B12">
+    <cfRule type="colorScale" priority="95">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14579,8 +15541,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B6">
-    <cfRule type="colorScale" priority="24">
+  <conditionalFormatting sqref="C4:C12">
+    <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14591,8 +15553,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10:B12">
-    <cfRule type="colorScale" priority="12">
+  <conditionalFormatting sqref="D4:D12">
+    <cfRule type="colorScale" priority="93">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:A24">
+    <cfRule type="colorScale" priority="79">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14603,8 +15577,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C6">
-    <cfRule type="colorScale" priority="23">
+  <conditionalFormatting sqref="B16:B24">
+    <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14615,8 +15589,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10:C12">
-    <cfRule type="colorScale" priority="10">
+  <conditionalFormatting sqref="C16:C24">
+    <cfRule type="colorScale" priority="77">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14627,115 +15601,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4 I4 M4">
-    <cfRule type="colorScale" priority="22">
+  <conditionalFormatting sqref="D16:D24">
+    <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5 I5 M5">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6 I6 M6">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4 J4 N4">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5 N5 J5">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6 J6 N6">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4 O4 K4">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5 K5 O5">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6 K6 O6">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I10 E10 M10">
+  <conditionalFormatting sqref="E4:E12 I4:I12 M4:M12">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -14747,7 +15625,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I11 E11 M11">
+  <conditionalFormatting sqref="F4:F12 J4:J12 N4:N12">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G12 K4:K12 O4:O12">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -14759,7 +15649,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12 E12 M12">
+  <conditionalFormatting sqref="H4:H12 L4:L12 P4:P12">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16:E24 I16:I24 M16:M24">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16:F24 J16:J24 N16:N24">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -14771,31 +15685,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J10 F10 N10">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11 F11 N11">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J12 F12 N12">
+  <conditionalFormatting sqref="G16:G24 K16:K24 O16:O24">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -14807,43 +15697,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10 G10 O10">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K11 G11 O11">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K12 G12 O12">
+  <conditionalFormatting sqref="H16:H24 L16:L24 P16:P24">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14851,178 +15718,178 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6240820C-A703-4D82-AEA4-6398523FBADE}">
   <dimension ref="H1:S42"/>
   <sheetViews>
-    <sheetView zoomScale="84" workbookViewId="0">
-      <selection activeCell="AA4" sqref="AA4"/>
+    <sheetView topLeftCell="A6" zoomScale="84" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H1" s="21"/>
-      <c r="S1" s="21"/>
+      <c r="H1" s="5"/>
+      <c r="S1" s="5"/>
     </row>
     <row r="2" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H2" s="21"/>
-      <c r="S2" s="21"/>
+      <c r="H2" s="5"/>
+      <c r="S2" s="5"/>
     </row>
     <row r="3" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H3" s="21"/>
-      <c r="S3" s="21"/>
+      <c r="H3" s="5"/>
+      <c r="S3" s="5"/>
     </row>
     <row r="4" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H4" s="21"/>
-      <c r="S4" s="21"/>
+      <c r="H4" s="5"/>
+      <c r="S4" s="5"/>
     </row>
     <row r="5" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H5" s="21"/>
-      <c r="S5" s="21"/>
+      <c r="H5" s="5"/>
+      <c r="S5" s="5"/>
     </row>
     <row r="6" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H6" s="21"/>
-      <c r="S6" s="21"/>
+      <c r="H6" s="5"/>
+      <c r="S6" s="5"/>
     </row>
     <row r="7" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H7" s="21"/>
-      <c r="S7" s="21"/>
+      <c r="H7" s="5"/>
+      <c r="S7" s="5"/>
     </row>
     <row r="8" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H8" s="21"/>
-      <c r="S8" s="21"/>
+      <c r="H8" s="5"/>
+      <c r="S8" s="5"/>
     </row>
     <row r="9" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H9" s="21"/>
-      <c r="S9" s="21"/>
+      <c r="H9" s="5"/>
+      <c r="S9" s="5"/>
     </row>
     <row r="10" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H10" s="21"/>
-      <c r="S10" s="21"/>
+      <c r="H10" s="5"/>
+      <c r="S10" s="5"/>
     </row>
     <row r="11" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H11" s="21"/>
-      <c r="S11" s="21"/>
+      <c r="H11" s="5"/>
+      <c r="S11" s="5"/>
     </row>
     <row r="12" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H12" s="21"/>
-      <c r="S12" s="21"/>
+      <c r="H12" s="5"/>
+      <c r="S12" s="5"/>
     </row>
     <row r="13" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H13" s="21"/>
-      <c r="S13" s="21"/>
+      <c r="H13" s="5"/>
+      <c r="S13" s="5"/>
     </row>
     <row r="14" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H14" s="21"/>
-      <c r="S14" s="21"/>
+      <c r="H14" s="5"/>
+      <c r="S14" s="5"/>
     </row>
     <row r="15" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H15" s="21"/>
-      <c r="S15" s="21"/>
+      <c r="H15" s="5"/>
+      <c r="S15" s="5"/>
     </row>
     <row r="16" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H16" s="21"/>
-      <c r="S16" s="21"/>
+      <c r="H16" s="5"/>
+      <c r="S16" s="5"/>
     </row>
     <row r="17" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H17" s="21"/>
-      <c r="S17" s="21"/>
+      <c r="H17" s="5"/>
+      <c r="S17" s="5"/>
     </row>
     <row r="18" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H18" s="21"/>
-      <c r="S18" s="21"/>
+      <c r="H18" s="5"/>
+      <c r="S18" s="5"/>
     </row>
     <row r="19" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H19" s="21"/>
-      <c r="S19" s="21"/>
+      <c r="H19" s="5"/>
+      <c r="S19" s="5"/>
     </row>
     <row r="20" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H20" s="21"/>
-      <c r="S20" s="21"/>
+      <c r="H20" s="5"/>
+      <c r="S20" s="5"/>
     </row>
     <row r="21" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H21" s="21"/>
-      <c r="S21" s="21"/>
+      <c r="H21" s="5"/>
+      <c r="S21" s="5"/>
     </row>
     <row r="22" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H22" s="21"/>
-      <c r="S22" s="21"/>
+      <c r="H22" s="5"/>
+      <c r="S22" s="5"/>
     </row>
     <row r="23" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H23" s="21"/>
-      <c r="S23" s="21"/>
+      <c r="H23" s="5"/>
+      <c r="S23" s="5"/>
     </row>
     <row r="24" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H24" s="21"/>
-      <c r="S24" s="21"/>
+      <c r="H24" s="5"/>
+      <c r="S24" s="5"/>
     </row>
     <row r="25" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H25" s="21"/>
-      <c r="S25" s="21"/>
+      <c r="H25" s="5"/>
+      <c r="S25" s="5"/>
     </row>
     <row r="26" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H26" s="21"/>
-      <c r="S26" s="21"/>
+      <c r="H26" s="5"/>
+      <c r="S26" s="5"/>
     </row>
     <row r="27" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H27" s="21"/>
-      <c r="S27" s="21"/>
+      <c r="H27" s="5"/>
+      <c r="S27" s="5"/>
     </row>
     <row r="28" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H28" s="21"/>
-      <c r="S28" s="21"/>
+      <c r="H28" s="5"/>
+      <c r="S28" s="5"/>
     </row>
     <row r="29" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H29" s="21"/>
-      <c r="S29" s="21"/>
+      <c r="H29" s="5"/>
+      <c r="S29" s="5"/>
     </row>
     <row r="30" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H30" s="21"/>
-      <c r="S30" s="21"/>
+      <c r="H30" s="5"/>
+      <c r="S30" s="5"/>
     </row>
     <row r="31" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H31" s="21"/>
-      <c r="S31" s="21"/>
+      <c r="H31" s="5"/>
+      <c r="S31" s="5"/>
     </row>
     <row r="32" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H32" s="21"/>
-      <c r="S32" s="21"/>
+      <c r="H32" s="5"/>
+      <c r="S32" s="5"/>
     </row>
     <row r="33" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H33" s="21"/>
-      <c r="S33" s="21"/>
+      <c r="H33" s="5"/>
+      <c r="S33" s="5"/>
     </row>
     <row r="34" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H34" s="21"/>
-      <c r="S34" s="21"/>
+      <c r="H34" s="5"/>
+      <c r="S34" s="5"/>
     </row>
     <row r="35" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H35" s="21"/>
-      <c r="S35" s="21"/>
+      <c r="H35" s="5"/>
+      <c r="S35" s="5"/>
     </row>
     <row r="36" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H36" s="21"/>
-      <c r="S36" s="21"/>
+      <c r="H36" s="5"/>
+      <c r="S36" s="5"/>
     </row>
     <row r="37" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H37" s="21"/>
-      <c r="S37" s="21"/>
+      <c r="H37" s="5"/>
+      <c r="S37" s="5"/>
     </row>
     <row r="38" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H38" s="21"/>
-      <c r="S38" s="21"/>
+      <c r="H38" s="5"/>
+      <c r="S38" s="5"/>
     </row>
     <row r="39" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H39" s="21"/>
-      <c r="S39" s="21"/>
+      <c r="H39" s="5"/>
+      <c r="S39" s="5"/>
     </row>
     <row r="40" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H40" s="21"/>
-      <c r="S40" s="21"/>
+      <c r="H40" s="5"/>
+      <c r="S40" s="5"/>
     </row>
     <row r="41" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="H41" s="21"/>
-      <c r="S41" s="21"/>
+      <c r="H41" s="5"/>
+      <c r="S41" s="5"/>
     </row>
     <row r="42" spans="8:19" x14ac:dyDescent="0.3">
-      <c r="S42" s="21"/>
+      <c r="S42" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Red Team Data.xlsx
+++ b/Red Team Data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Desktop\FTCStats\FTCStats\"/>
     </mc:Choice>
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="50">
   <si>
     <t>Cyrus</t>
   </si>
@@ -914,7 +914,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1009,6 +1009,13 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11352,7 +11359,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E71918B-9D42-46BC-B578-CF08432FB725}">
-  <dimension ref="A1:Y58"/>
+  <dimension ref="A1:Y63"/>
   <sheetViews>
     <sheetView topLeftCell="A43" zoomScale="108" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I59" sqref="I59"/>
@@ -11360,8 +11367,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="10.0"/>
+    <col min="5" max="5" customWidth="true" width="10.6640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
@@ -11394,31 +11401,31 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B2" s="1">
         <v>45237</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="0">
         <v>106</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="0">
         <v>-1</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="0">
         <v>-1</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="0">
         <v>0</v>
       </c>
       <c r="M2" s="2"/>
@@ -11431,721 +11438,721 @@
       <c r="T2" s="2"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B3" s="1">
         <v>45237</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="0">
         <v>83</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="0">
         <v>-1</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="0">
         <v>-1</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B4" s="1">
         <v>45237</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="0">
         <v>89</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="0">
         <v>-1</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="0">
         <v>-1</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="0">
         <v>0</v>
       </c>
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B5" s="1">
         <v>45238</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="0">
         <v>71</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="0">
         <v>-1</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="0">
         <v>-1</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B6" s="1">
         <v>45238</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="0">
         <v>88</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="0">
         <v>-1</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="0">
         <v>-1</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B7" s="1">
         <v>45238</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="0">
         <v>111</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="0">
         <v>-1</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="0">
         <v>-1</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B8" s="1">
         <v>45238</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="0">
         <v>34</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="0">
         <v>-1</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="0">
         <v>-1</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B9" s="1">
         <v>45238</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="0">
         <v>120</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="0">
         <v>-1</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="0">
         <v>-1</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="0">
         <v>0</v>
       </c>
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B10" s="1">
         <v>45238</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="0">
         <v>75</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="0">
         <v>-1</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="0">
         <v>-1</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B11" s="1">
         <v>45237</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="0">
         <v>111</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="0">
         <v>66</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="0">
         <v>45</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B12" s="1">
         <v>45238</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="0">
         <v>107</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="0">
         <v>57</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="0">
         <v>50</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="0">
         <v>0</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B13" s="1">
         <v>45234</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="0">
         <v>72</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="0">
         <v>44</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="0">
         <v>28</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B14" s="1">
         <v>45234</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="0">
         <v>97</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="0">
         <v>51</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="0">
         <v>30</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="0">
         <v>0</v>
       </c>
       <c r="M14" s="2"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B15" s="1">
         <v>45234</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="0">
         <v>54</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="0">
         <v>26</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="0">
         <v>28</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B16" s="1">
         <v>45234</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="0">
         <v>82</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="0">
         <v>32</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="0">
         <v>50</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B17" s="1">
         <v>45234</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="0">
         <v>60</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="0">
         <v>40</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="0">
         <v>20</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B18" s="1">
         <v>45234</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="0">
         <v>56</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="0">
         <v>48</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="0">
         <v>8</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B19" s="1">
         <v>45234</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="0">
         <v>60</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="0">
         <v>30</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="0">
         <v>30</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B20" s="1">
         <v>45234</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="0">
         <v>39</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="0">
         <v>34</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="0">
         <v>5</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B21" s="1">
         <v>45241</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="0">
         <v>32</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="0">
         <v>4</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="0">
         <v>28</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="0">
         <v>0</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" t="s" s="0">
         <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B22" s="1">
         <v>45241</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="0">
         <v>83</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="0">
         <v>55</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="0">
         <v>28</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="0">
         <v>0</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" t="s" s="0">
         <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B23" s="1">
         <v>45241</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="0">
         <v>56</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="0">
         <v>26</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="0">
         <v>30</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="0">
         <v>0</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" t="s" s="0">
         <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B24" s="1">
         <v>45241</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="0">
         <v>33</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="0">
         <v>28</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="0">
         <v>5</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="0">
         <v>0</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" t="s" s="0">
         <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="A25" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B25" s="1">
         <v>45241</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="0">
         <v>56</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="0">
         <v>36</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="0">
         <v>20</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="0">
         <v>0</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K25" t="s" s="0">
         <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="A26" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B26" s="1">
         <v>45241</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="0">
         <v>55</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="0">
         <v>27</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="0">
         <v>28</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="0">
         <v>0</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K26" t="s" s="0">
         <v>33</v>
       </c>
       <c r="T26" s="10"/>
@@ -12156,19 +12163,19 @@
       <c r="Y26" s="2"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="A27" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B27" s="1">
         <v>45255</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" t="s" s="0">
         <v>10</v>
       </c>
       <c r="F27" s="6">
@@ -12177,28 +12184,28 @@
       <c r="G27" s="6">
         <v>35</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="0">
         <v>30</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="0">
         <v>0</v>
       </c>
       <c r="L27" s="6"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="A28" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B28" s="1">
         <v>45255</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" t="s" s="0">
         <v>10</v>
       </c>
       <c r="F28" s="6">
@@ -12207,28 +12214,28 @@
       <c r="G28" s="6">
         <v>32</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="0">
         <v>8</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="0">
         <v>0</v>
       </c>
       <c r="L28" s="6"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="A29" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B29" s="1">
         <v>45255</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" t="s" s="0">
         <v>10</v>
       </c>
       <c r="F29" s="6">
@@ -12237,28 +12244,28 @@
       <c r="G29" s="6">
         <v>44</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="0">
         <v>28</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="0">
         <v>0</v>
       </c>
       <c r="L29" s="6"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="A30" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B30" s="1">
         <v>45256</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" t="s" s="0">
         <v>10</v>
       </c>
       <c r="F30" s="6">
@@ -12267,10 +12274,10 @@
       <c r="G30" s="6">
         <v>52</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="0">
         <v>50</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="0">
         <v>0</v>
       </c>
       <c r="L30" s="6" t="s">
@@ -12278,19 +12285,19 @@
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="A31" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B31" s="1">
         <v>45256</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" t="s" s="0">
         <v>5</v>
       </c>
       <c r="F31" s="6">
@@ -12299,10 +12306,10 @@
       <c r="G31" s="6">
         <v>47</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="0">
         <v>8</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="0">
         <v>0</v>
       </c>
       <c r="L31" s="6"/>
@@ -12312,19 +12319,19 @@
       <c r="W31" s="11"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="A32" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>45256</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" t="s" s="0">
         <v>10</v>
       </c>
       <c r="F32" s="6">
@@ -12333,28 +12340,28 @@
       <c r="G32" s="6">
         <v>47</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="0">
         <v>28</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="0">
         <v>0</v>
       </c>
       <c r="L32" s="6"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="A33" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B33" s="1">
         <v>45256</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" t="s" s="0">
         <v>5</v>
       </c>
       <c r="F33" s="6">
@@ -12363,28 +12370,28 @@
       <c r="G33" s="6">
         <v>35</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="0">
         <v>50</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="0">
         <v>0</v>
       </c>
       <c r="L33" s="6"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="A34" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B34" s="1">
         <v>45256</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" t="s" s="0">
         <v>5</v>
       </c>
       <c r="F34" s="6">
@@ -12393,28 +12400,28 @@
       <c r="G34" s="6">
         <v>35</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="0">
         <v>50</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="0">
         <v>0</v>
       </c>
       <c r="L34" s="6"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="A35" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B35" s="1">
         <v>45256</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" t="s" s="0">
         <v>5</v>
       </c>
       <c r="F35" s="6">
@@ -12423,28 +12430,28 @@
       <c r="G35" s="6">
         <v>50</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="0">
         <v>50</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="0">
         <v>0</v>
       </c>
       <c r="L35" s="6"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="A36" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B36" s="1">
         <v>45256</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" t="s" s="0">
         <v>5</v>
       </c>
       <c r="F36" s="6">
@@ -12453,28 +12460,28 @@
       <c r="G36" s="6">
         <v>49</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="0">
         <v>50</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="0">
         <v>0</v>
       </c>
       <c r="L36" s="6"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="A37" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B37" s="1">
         <v>45256</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" t="s" s="0">
         <v>5</v>
       </c>
       <c r="F37" s="6">
@@ -12483,28 +12490,28 @@
       <c r="G37" s="6">
         <v>47</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="0">
         <v>50</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="0">
         <v>0</v>
       </c>
       <c r="L37" s="6"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="A38" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B38" s="1">
         <v>45256</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" t="s" s="0">
         <v>5</v>
       </c>
       <c r="F38" s="6">
@@ -12513,28 +12520,28 @@
       <c r="G38" s="6">
         <v>37</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="0">
         <v>50</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="0">
         <v>0</v>
       </c>
       <c r="L38" s="6"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="A39" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B39" s="1">
         <v>45256</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" t="s" s="0">
         <v>5</v>
       </c>
       <c r="F39" s="6">
@@ -12543,28 +12550,28 @@
       <c r="G39" s="6">
         <v>41</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="0">
         <v>50</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="0">
         <v>0</v>
       </c>
       <c r="L39" s="6"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="A40" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B40" s="1">
         <v>45256</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" t="s" s="0">
         <v>5</v>
       </c>
       <c r="F40" s="6">
@@ -12573,28 +12580,28 @@
       <c r="G40" s="6">
         <v>33</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="0">
         <v>45</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="0">
         <v>0</v>
       </c>
       <c r="L40" s="6"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="A41" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B41" s="1">
         <v>45256</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" t="s" s="0">
         <v>5</v>
       </c>
       <c r="F41" s="6">
@@ -12603,28 +12610,28 @@
       <c r="G41" s="6">
         <v>65</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="0">
         <v>50</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="0">
         <v>0</v>
       </c>
       <c r="L41" s="6"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="A42" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B42" s="1">
         <v>45256</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" t="s" s="0">
         <v>5</v>
       </c>
       <c r="F42" s="6">
@@ -12633,28 +12640,28 @@
       <c r="G42" s="6">
         <v>60</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="0">
         <v>30</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="0">
         <v>0</v>
       </c>
       <c r="L42" s="6"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="A43" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B43" s="1">
         <v>45256</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" t="s" s="0">
         <v>5</v>
       </c>
       <c r="F43" s="6">
@@ -12663,396 +12670,593 @@
       <c r="G43" s="6">
         <v>43</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="0">
         <v>50</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="0">
         <v>0</v>
       </c>
       <c r="L43" s="6"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="A44" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B44" s="1">
         <v>45257</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="0">
         <v>42</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="0">
         <v>12</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="0">
         <v>30</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="0">
         <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="A45" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B45" s="1">
         <v>45257</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="0">
         <v>85</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="0">
         <v>52</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="0">
         <v>33</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="A46" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B46" s="1">
         <v>45257</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="0">
         <v>70</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="0">
         <v>42</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="0">
         <v>28</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+      <c r="A47" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B47" s="1">
         <v>45257</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="0">
         <v>44</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="0">
         <v>14</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="0">
         <v>30</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="A48" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B48" s="1">
         <v>45257</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="0">
         <v>72</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="0">
         <v>42</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="0">
         <v>30</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="A49" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B49" s="1">
         <v>45257</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="0">
         <v>97</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="0">
         <v>47</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="0">
         <v>50</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="A50" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B50" s="1">
         <v>45257</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="0">
         <v>104</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="0">
         <v>54</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="0">
         <v>50</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="A51" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B51" s="1">
         <v>45257</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="0">
         <v>34</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="0">
         <v>24</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="0">
         <v>10</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+      <c r="A52" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B52" s="1">
         <v>45257</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="0">
         <v>104</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="0">
         <v>74</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="0">
         <v>30</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+      <c r="A53" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B53" s="1">
         <v>45257</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="0">
         <v>53</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="0">
         <v>23</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="0">
         <v>30</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="A54" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B54" s="1">
         <v>45257</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="0">
         <v>80</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="0">
         <v>50</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="0">
         <v>30</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+      <c r="A55" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B55" s="1">
         <v>45257</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="0">
         <v>66</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="0">
         <v>36</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="0">
         <v>30</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+      <c r="A56" t="s" s="0">
         <v>30</v>
       </c>
       <c r="B56" s="1">
         <v>45257</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="0">
         <v>66</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="0">
         <v>36</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="0">
         <v>30</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B57" s="1"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B58" s="1"/>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B57" t="n" s="60">
+        <v>45262.0</v>
+      </c>
+      <c r="C57" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D57" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E57" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="F57" t="n" s="0">
+        <v>54.0</v>
+      </c>
+      <c r="G57" t="n" s="0">
+        <v>29.0</v>
+      </c>
+      <c r="H57" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="I57" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B58" t="n" s="61">
+        <v>45262.0</v>
+      </c>
+      <c r="C58" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D58" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="E58" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="F58" t="n" s="0">
+        <v>62.0</v>
+      </c>
+      <c r="G58" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="H58" t="n" s="0">
+        <v>50.0</v>
+      </c>
+      <c r="I58" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B59" t="n" s="62">
+        <v>45262.0</v>
+      </c>
+      <c r="C59" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E59" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="F59" t="n" s="0">
+        <v>71.0</v>
+      </c>
+      <c r="G59" t="n" s="0">
+        <v>41.0</v>
+      </c>
+      <c r="H59" t="n" s="0">
+        <v>30.0</v>
+      </c>
+      <c r="I59" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B60" t="n" s="63">
+        <v>45262.0</v>
+      </c>
+      <c r="C60" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D60" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="E60" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F60" t="n" s="0">
+        <v>53.0</v>
+      </c>
+      <c r="G60" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="H60" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="I60" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B61" t="n" s="64">
+        <v>45262.0</v>
+      </c>
+      <c r="C61" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D61" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="E61" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="F61" t="n" s="0">
+        <v>59.0</v>
+      </c>
+      <c r="G61" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="H61" t="n" s="0">
+        <v>50.0</v>
+      </c>
+      <c r="I61" t="n" s="0">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B62" t="n" s="65">
+        <v>45262.0</v>
+      </c>
+      <c r="C62" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D62" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="E62" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="F62" t="n" s="0">
+        <v>44.0</v>
+      </c>
+      <c r="G62" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="H62" t="n" s="0">
+        <v>30.0</v>
+      </c>
+      <c r="I62" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B63" t="n" s="66">
+        <v>45262.0</v>
+      </c>
+      <c r="C63" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D63" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E63" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="F63" t="n" s="0">
+        <v>38.0</v>
+      </c>
+      <c r="G63" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="H63" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="I63" t="n" s="0">
+        <v>0.0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -13074,8 +13278,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="10.0"/>
+    <col min="5" max="5" customWidth="true" width="10.6640625"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
@@ -13107,7 +13311,7 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
-      <c r="V2" t="s">
+      <c r="V2" t="s" s="0">
         <v>18</v>
       </c>
     </row>
@@ -13115,16 +13319,16 @@
       <c r="A3" s="1">
         <v>45237</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0">
         <v>106</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>1</v>
       </c>
     </row>
@@ -13132,25 +13336,25 @@
       <c r="A4" s="1">
         <v>45237</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0">
         <v>83</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>1</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" t="s" s="0">
         <v>24</v>
       </c>
     </row>
@@ -13158,26 +13362,26 @@
       <c r="A5" s="1">
         <v>45237</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0">
         <v>89</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="0">
         <f>(SUMIF($C$3:$C$100, M5, $B$3:$B$100)/COUNTIF($C$3:$C$100, M5))</f>
         <v>88.083333333333329</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="0">
         <f>(SUMIF($C$3:$C$100, M5, $F$3:$F$100)/COUNTIF($C$13:$C$100, M5))</f>
         <v>42.428571428571431</v>
       </c>
@@ -13186,26 +13390,26 @@
       <c r="A6" s="1">
         <v>45238</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0">
         <v>71</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="0">
         <f>(SUMIF($C$3:$C$100, M6, $B$3:$B$100)/COUNTIF($C$3:$C$100, M6))</f>
         <v>98.5</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="0">
         <f>(SUMIF($C$3:$C$100, M6, $F$3:$F$100)/COUNTIF($C$13:$C$100, M6))</f>
         <v>57.333333333333336</v>
       </c>
@@ -13214,26 +13418,26 @@
       <c r="A7" s="1">
         <v>45238</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0">
         <v>88</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="0">
         <f>(SUMIF($C$3:$C$100, M7, $B$3:$B$100)/COUNTIF($C$3:$C$100, M7))</f>
         <v>86.25</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="0">
         <f>(SUMIF($C$3:$C$100, M7, $F$3:$F$100)/COUNTIF($C$13:$C$100, M7))</f>
         <v>38</v>
       </c>
@@ -13242,16 +13446,16 @@
       <c r="A8" s="1">
         <v>45238</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0">
         <v>111</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" t="s" s="0">
         <v>1</v>
       </c>
     </row>
@@ -13259,16 +13463,16 @@
       <c r="A9" s="1">
         <v>45238</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="0">
         <v>34</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" t="s" s="0">
         <v>1</v>
       </c>
       <c r="M9" s="2" t="s">
@@ -13279,16 +13483,16 @@
       <c r="A10" s="1">
         <v>45238</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0">
         <v>120</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" t="s" s="0">
         <v>1</v>
       </c>
       <c r="H10" s="10" t="s">
@@ -13297,14 +13501,14 @@
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
-      <c r="M10" t="s">
+      <c r="M10" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="0">
         <f>(SUMIF($D$3:$D$100, M10, $B$3:$B$100)/COUNTIF($D$3:$D$100, M10))</f>
         <v>96.666666666666671</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="0">
         <f>(SUMIF($D$3:$D$100, M10, $F$3:$F$100)/COUNTIF($D$13:$D$100, M10))</f>
         <v>26</v>
       </c>
@@ -13313,16 +13517,16 @@
       <c r="A11" s="1">
         <v>45238</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="0">
         <v>75</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" t="s" s="0">
         <v>1</v>
       </c>
       <c r="H11" s="10" t="s">
@@ -13333,14 +13537,14 @@
         <v>22</v>
       </c>
       <c r="K11" s="10"/>
-      <c r="M11" t="s">
+      <c r="M11" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="0">
         <f>(SUMIF($D$3:$D$100, M11, $B$3:$B$100)/COUNTIF($D$3:$D$100, M11))</f>
         <v>77</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="0">
         <f>(SUMIF($D$3:$D$100, M11, $F$3:$F$100)/COUNTIF($D$13:$D$100, M11))</f>
         <v>45.166666666666664</v>
       </c>
@@ -13358,14 +13562,14 @@
       <c r="K12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="0">
         <f>(SUMIF($D$3:$D$100, M12, $B$3:$B$100)/COUNTIF($D$3:$D$100, M12))</f>
         <v>97.75</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="0">
         <f>(SUMIF($D$3:$D$100, M12, $F$3:$F$100)/COUNTIF($D$13:$D$100, M12))</f>
         <v>57.333333333333336</v>
       </c>
@@ -13374,26 +13578,26 @@
       <c r="A13" s="1">
         <v>45237</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="0">
         <v>111</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="0">
         <v>66</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="0">
         <f t="shared" ref="H13:H23" si="0">(SUMIF($M$5:$M$7, $C13, $N$5:$N$7)+SUMIF($M$10:$M$12, $D13, $N$10:$N$12)+SUMIF($M$15:$M$17, $E13, $N$15:$N$17))/3</f>
         <v>99.833333333333329</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="0">
         <f t="shared" ref="I13:I23" si="1">(SUMIF($M$5:$M$7, $C13, $O$5:$O$7)+SUMIF($M$10:$M$12, $D13, $O$10:$O$12)+SUMIF($M$15:$M$17, $E13, $O$15:$O$17))/3</f>
         <v>55.722222222222229</v>
       </c>
@@ -13401,7 +13605,7 @@
         <f t="shared" ref="J13:J23" si="2">(SUMIF($M$5:$M$7, $C13, $N$5:$N$7)+SUMIF($M$10:$M$12, $D13, $N$10:$N$12))/2</f>
         <v>98.125</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="0">
         <f t="shared" ref="K13:K23" si="3">(SUMIF($M$5:$M$7, $C13, $O$5:$O$7)+SUMIF($M$10:$M$12, $D13, $O$10:$O$12))/2</f>
         <v>57.333333333333336</v>
       </c>
@@ -13410,26 +13614,26 @@
       <c r="A14" s="1">
         <v>45238</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="0">
         <v>107</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="0">
         <v>57</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="0">
         <f t="shared" si="0"/>
         <v>84.49444444444444</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="0">
         <f t="shared" si="1"/>
         <v>48.198412698412703</v>
       </c>
@@ -13437,7 +13641,7 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="0">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
@@ -13449,26 +13653,26 @@
       <c r="A15" s="1">
         <v>45234</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="0">
         <v>108</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="0">
         <v>38</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="0">
         <f t="shared" si="0"/>
         <v>63.166666666666664</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="0">
         <f t="shared" si="1"/>
         <v>30.166666666666668</v>
       </c>
@@ -13476,18 +13680,18 @@
         <f t="shared" si="2"/>
         <v>43.125</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="0">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="0">
         <f>(SUMIF($E$3:$E$100, M15, $B$3:$B$100)/COUNTIF($E$3:$E$100, M15))</f>
         <v>83.166666666666671</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="0">
         <f>(SUMIF($E$3:$E$100, M15, $F$3:$F$100)/COUNTIF($E$13:$E$100, M15))</f>
         <v>40</v>
       </c>
@@ -13496,26 +13700,26 @@
       <c r="A16" s="1">
         <v>45234</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="0">
         <v>107</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="0">
         <v>74</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="0">
         <f t="shared" si="0"/>
         <v>99.833333333333329</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="0">
         <f t="shared" si="1"/>
         <v>55.722222222222229</v>
       </c>
@@ -13523,18 +13727,18 @@
         <f t="shared" si="2"/>
         <v>98.125</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="0">
         <f t="shared" si="3"/>
         <v>57.333333333333336</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="0">
         <f>(SUMIF($E$3:$E$100, M16, $B$3:$B$100)/COUNTIF($E$3:$E$100, M16))</f>
         <v>88.4</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="0">
         <f>(SUMIF($E$3:$E$100, M16, $F$3:$F$100)/COUNTIF($E$13:$E$100, M16))</f>
         <v>57</v>
       </c>
@@ -13543,26 +13747,26 @@
       <c r="A17" s="1">
         <v>45234</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="0">
         <v>97</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="0">
         <v>62</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="0">
         <f t="shared" si="0"/>
         <v>82.75</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="0">
         <f t="shared" si="1"/>
         <v>42.531746031746032</v>
       </c>
@@ -13570,18 +13774,18 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="0">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M17" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="0">
         <f>(SUMIF($E$3:$E$100, M17, $B$3:$B$100)/COUNTIF($E$3:$E$100, M17))</f>
         <v>103.25</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="0">
         <f>(SUMIF($E$3:$E$100, M17, $F$3:$F$100)/COUNTIF($E$13:$E$100, M17))</f>
         <v>52.5</v>
       </c>
@@ -13590,26 +13794,26 @@
       <c r="A18" s="1">
         <v>45234</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="0">
         <v>99</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="0">
         <v>26</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="0">
         <f t="shared" si="0"/>
         <v>89.305555555555557</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="0">
         <f t="shared" si="1"/>
         <v>36.142857142857146</v>
       </c>
@@ -13617,7 +13821,7 @@
         <f t="shared" si="2"/>
         <v>92.375</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="0">
         <f t="shared" si="3"/>
         <v>34.214285714285715</v>
       </c>
@@ -13626,26 +13830,26 @@
       <c r="A19" s="1">
         <v>45234</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="0">
         <v>87</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="0">
         <v>32</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="0">
         <f t="shared" si="0"/>
         <v>99.833333333333329</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="0">
         <f t="shared" si="1"/>
         <v>55.722222222222229</v>
       </c>
@@ -13653,7 +13857,7 @@
         <f t="shared" si="2"/>
         <v>98.125</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="0">
         <f t="shared" si="3"/>
         <v>57.333333333333336</v>
       </c>
@@ -13662,26 +13866,26 @@
       <c r="A20" s="1">
         <v>45234</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="0">
         <v>76</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="0">
         <v>48</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="0">
         <f t="shared" si="0"/>
         <v>82.75</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="0">
         <f t="shared" si="1"/>
         <v>42.531746031746032</v>
       </c>
@@ -13689,7 +13893,7 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="0">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
@@ -13698,26 +13902,26 @@
       <c r="A21" s="1">
         <v>45234</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="0">
         <v>93</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="0">
         <v>40</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="0">
         <f t="shared" si="0"/>
         <v>82.75</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="0">
         <f t="shared" si="1"/>
         <v>42.531746031746032</v>
       </c>
@@ -13725,7 +13929,7 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="0">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
@@ -13734,26 +13938,26 @@
       <c r="A22" s="1">
         <v>45234</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="0">
         <v>85</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="0">
         <v>30</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="0">
         <f t="shared" si="0"/>
         <v>82.75</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="0">
         <f t="shared" si="1"/>
         <v>42.531746031746032</v>
       </c>
@@ -13761,7 +13965,7 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="0">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
@@ -13770,26 +13974,26 @@
       <c r="A23" s="1">
         <v>45234</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="0">
         <v>49</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="0">
         <v>34</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="0">
         <f t="shared" si="0"/>
         <v>82.75</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="0">
         <f t="shared" si="1"/>
         <v>42.531746031746032</v>
       </c>
@@ -13797,7 +14001,7 @@
         <f t="shared" si="2"/>
         <v>82.541666666666657</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="0">
         <f t="shared" si="3"/>
         <v>43.797619047619051</v>
       </c>
@@ -13817,67 +14021,67 @@
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="T28">
+      <c r="T28" s="0">
         <v>1</v>
       </c>
-      <c r="U28" t="s">
+      <c r="U28" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="V28" t="s">
+      <c r="V28" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="W28" t="s">
+      <c r="W28" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="X28">
+      <c r="X28" s="0">
         <f>(N7+N10+N16)/3</f>
         <v>90.438888888888911</v>
       </c>
-      <c r="Y28">
+      <c r="Y28" s="0">
         <f>(O7+O10+O16)/3</f>
         <v>40.333333333333336</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="T29">
+      <c r="T29" s="0">
         <v>2</v>
       </c>
-      <c r="U29" t="s">
+      <c r="U29" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="V29" t="s">
+      <c r="V29" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="W29" t="s">
+      <c r="W29" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="X29">
+      <c r="X29" s="0">
         <f>(N5+N11+N16)/3</f>
         <v>84.49444444444444</v>
       </c>
-      <c r="Y29">
+      <c r="Y29" s="0">
         <f>(O5+O11+O16)/3</f>
         <v>48.198412698412703</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="T30">
+      <c r="T30" s="0">
         <v>3</v>
       </c>
-      <c r="U30" t="s">
+      <c r="U30" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="V30" t="s">
+      <c r="V30" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="W30" t="s">
+      <c r="W30" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="X30">
+      <c r="X30" s="0">
         <f>(N6+N11+N16)/3</f>
         <v>87.966666666666654</v>
       </c>
-      <c r="Y30">
+      <c r="Y30" s="0">
         <f>(O6+O11+O16)/3</f>
         <v>53.166666666666664</v>
       </c>
@@ -13891,67 +14095,67 @@
       <c r="W32" s="10"/>
     </row>
     <row r="33" spans="20:25" x14ac:dyDescent="0.3">
-      <c r="T33">
+      <c r="T33" s="0">
         <v>1</v>
       </c>
-      <c r="U33" t="s">
+      <c r="U33" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="V33" t="s">
+      <c r="V33" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="W33" t="s">
+      <c r="W33" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="X33">
+      <c r="X33" s="0">
         <f>(N7+N10+N16)/3</f>
         <v>90.438888888888911</v>
       </c>
-      <c r="Y33">
+      <c r="Y33" s="0">
         <f>(O7+O10+O16)/3</f>
         <v>40.333333333333336</v>
       </c>
     </row>
     <row r="34" spans="20:25" x14ac:dyDescent="0.3">
-      <c r="T34">
+      <c r="T34" s="0">
         <v>2</v>
       </c>
-      <c r="U34" t="s">
+      <c r="U34" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="V34" t="s">
+      <c r="V34" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="W34" t="s">
+      <c r="W34" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="X34">
+      <c r="X34" s="0">
         <f>(N5+N11+N15)/3</f>
         <v>82.75</v>
       </c>
-      <c r="Y34">
+      <c r="Y34" s="0">
         <f>(O5+O11+O15)/3</f>
         <v>42.531746031746032</v>
       </c>
     </row>
     <row r="35" spans="20:25" x14ac:dyDescent="0.3">
-      <c r="T35">
+      <c r="T35" s="0">
         <v>3</v>
       </c>
-      <c r="U35" t="s">
+      <c r="U35" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="V35" t="s">
+      <c r="V35" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="W35" t="s">
+      <c r="W35" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="X35">
+      <c r="X35" s="0">
         <f>(N6+N12+N17)/3</f>
         <v>99.833333333333329</v>
       </c>
-      <c r="Y35">
+      <c r="Y35" s="0">
         <f>(O6+O12+O17)/3</f>
         <v>55.722222222222229</v>
       </c>
@@ -14008,160 +14212,160 @@
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="52">
-        <v>63.586563307079359</v>
-      </c>
-      <c r="B3" s="53">
-        <v>36.660343269808941</v>
-      </c>
-      <c r="C3" s="53">
-        <v>25.237579041735369</v>
-      </c>
-      <c r="D3" s="52">
-        <v>3.1007751933026455</v>
+      <c r="A3" s="52" t="n">
+        <v>57.98429951722207</v>
+      </c>
+      <c r="B3" s="53" t="n">
+        <v>30.394661191324037</v>
+      </c>
+      <c r="C3" s="53" t="n">
+        <v>26.790143736722257</v>
+      </c>
+      <c r="D3" s="52" t="n">
+        <v>1.4009661835006884</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="54">
-        <v>85.584362139597346</v>
-      </c>
-      <c r="B4" s="55">
-        <v>42.763185108587578</v>
-      </c>
-      <c r="C4" s="55">
-        <v>42.803516028621949</v>
-      </c>
-      <c r="D4" s="54">
-        <v>0.61728395058878205</v>
+      <c r="A4" s="54" t="n">
+        <v>63.664335664978196</v>
+      </c>
+      <c r="B4" s="55" t="n">
+        <v>22.807797271800023</v>
+      </c>
+      <c r="C4" s="55" t="n">
+        <v>41.403898635204115</v>
+      </c>
+      <c r="D4" s="54" t="n">
+        <v>2.5641025640009563</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="56">
-        <v>71.109890109586701</v>
-      </c>
-      <c r="B5" s="57">
-        <v>41.418867924138567</v>
-      </c>
-      <c r="C5" s="57">
-        <v>29.456603773570386</v>
-      </c>
-      <c r="D5" s="56">
-        <v>0</v>
+      <c r="A5" s="56" t="n">
+        <v>62.63012677121593</v>
+      </c>
+      <c r="B5" s="57" t="n">
+        <v>34.50914634138085</v>
+      </c>
+      <c r="C5" s="57" t="n">
+        <v>27.762195122019513</v>
+      </c>
+      <c r="D5" s="56" t="n">
+        <v>0.0</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="52">
-        <v>66.463148712913195</v>
-      </c>
-      <c r="B6" s="53">
-        <v>38.023337736645857</v>
-      </c>
-      <c r="C6" s="53">
-        <v>28.358432408001157</v>
-      </c>
-      <c r="D6" s="52">
-        <v>2.0933275183697475</v>
+      <c r="A6" s="52" t="n">
+        <v>61.49175747415702</v>
+      </c>
+      <c r="B6" s="53" t="n">
+        <v>33.19443663981267</v>
+      </c>
+      <c r="C6" s="53" t="n">
+        <v>28.22871593105925</v>
+      </c>
+      <c r="D6" s="52" t="n">
+        <v>1.296451522725942</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="54">
-        <v>92.332137732794422</v>
-      </c>
-      <c r="B7" s="55">
-        <v>44.864381519978302</v>
-      </c>
-      <c r="C7" s="55">
-        <v>47.342771981851904</v>
-      </c>
-      <c r="D7" s="54">
-        <v>0</v>
+      <c r="A7" s="54" t="n">
+        <v>62.3811154609145</v>
+      </c>
+      <c r="B7" s="55" t="n">
+        <v>18.50275413192826</v>
+      </c>
+      <c r="C7" s="55" t="n">
+        <v>43.91437155725368</v>
+      </c>
+      <c r="D7" s="54" t="n">
+        <v>2.661448140786134</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="56">
-        <v>72.041176469333962</v>
-      </c>
-      <c r="B8" s="57">
-        <v>42.278688522992041</v>
-      </c>
-      <c r="C8" s="57">
-        <v>28.704918032774096</v>
-      </c>
-      <c r="D8" s="56">
-        <v>0</v>
+      <c r="A8" s="56" t="n">
+        <v>57.095360825152845</v>
+      </c>
+      <c r="B8" s="57" t="n">
+        <v>30.02645502626775</v>
+      </c>
+      <c r="C8" s="57" t="n">
+        <v>26.05291005311117</v>
+      </c>
+      <c r="D8" s="56" t="n">
+        <v>0.0</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="52">
-        <v>69.875634517045739</v>
-      </c>
-      <c r="B9" s="53">
-        <v>40.791878172377345</v>
-      </c>
-      <c r="C9" s="53">
-        <v>28.799492385089696</v>
-      </c>
-      <c r="D9" s="52">
-        <v>2.2842639591989995</v>
+      <c r="A9" s="52" t="n">
+        <v>64.07269395223844</v>
+      </c>
+      <c r="B9" s="53" t="n">
+        <v>36.240073305077104</v>
+      </c>
+      <c r="C9" s="53" t="n">
+        <v>27.598045204083288</v>
+      </c>
+      <c r="D9" s="52" t="n">
+        <v>2.1258399509839543</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="54">
-        <v>86.385159010456377</v>
-      </c>
-      <c r="B10" s="55">
-        <v>44.181389870348539</v>
-      </c>
-      <c r="C10" s="55">
-        <v>42.203769140107845</v>
-      </c>
-      <c r="D10" s="54">
-        <v>0</v>
+      <c r="A10" s="54" t="n">
+        <v>62.27868852518835</v>
+      </c>
+      <c r="B10" s="55" t="n">
+        <v>20.963225521258867</v>
+      </c>
+      <c r="C10" s="55" t="n">
+        <v>42.038546743383534</v>
+      </c>
+      <c r="D10" s="54" t="n">
+        <v>2.410279131513504</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="58">
-        <v>66.138678222957367</v>
-      </c>
-      <c r="B11" s="59">
-        <v>33.71584038660076</v>
-      </c>
-      <c r="C11" s="59">
-        <v>30.101571946169386</v>
-      </c>
-      <c r="D11" s="58">
-        <v>1.3001083421776416</v>
+      <c r="A11" s="58" t="n">
+        <v>58.45988023994153</v>
+      </c>
+      <c r="B11" s="59" t="n">
+        <v>29.425144747821466</v>
+      </c>
+      <c r="C11" s="59" t="n">
+        <v>28.03970223313382</v>
+      </c>
+      <c r="D11" s="58" t="n">
+        <v>0.4630738522808015</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>35</v>
       </c>
     </row>
@@ -14327,14 +14531,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" bestFit="true" customWidth="true" width="9.5546875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.0"/>
+    <col min="5" max="7" bestFit="true" customWidth="true" width="9.5546875"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="9.0"/>
+    <col min="9" max="11" bestFit="true" customWidth="true" width="9.5546875"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.0"/>
+    <col min="13" max="15" bestFit="true" customWidth="true" width="9.5546875"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="9.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
@@ -14442,479 +14646,479 @@
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A4" s="14">
-        <v>65.024856009996284</v>
-      </c>
-      <c r="B4" s="14">
-        <v>37.341840503227402</v>
-      </c>
-      <c r="C4" s="14">
-        <v>26.798005724868261</v>
-      </c>
-      <c r="D4" s="22">
-        <v>2.5970513558361965</v>
-      </c>
-      <c r="E4" s="24">
-        <v>65.995011711406178</v>
-      </c>
-      <c r="F4" s="14">
-        <v>38.031848037057394</v>
-      </c>
-      <c r="G4" s="14">
-        <v>27.19830305691255</v>
-      </c>
-      <c r="H4" s="22">
-        <v>2.534493876508757</v>
-      </c>
-      <c r="I4" s="24">
-        <v>69.296916610088303</v>
-      </c>
-      <c r="J4" s="14">
-        <v>38.709750376651627</v>
-      </c>
-      <c r="K4" s="14">
-        <v>29.879158407916179</v>
-      </c>
-      <c r="L4" s="22">
-        <v>2.077641084668957</v>
-      </c>
-      <c r="M4" s="20">
-        <v>65.247620452588507</v>
-      </c>
-      <c r="N4" s="14">
-        <v>36.616640479902074</v>
-      </c>
-      <c r="O4" s="14">
-        <v>27.458718969128483</v>
-      </c>
-      <c r="P4" s="15">
-        <v>2.3376627531044853</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="A4" s="14" t="n">
+        <v>59.73802849568955</v>
+      </c>
+      <c r="B4" s="14" t="n">
+        <v>31.794548915568356</v>
+      </c>
+      <c r="C4" s="14" t="n">
+        <v>27.509429833890753</v>
+      </c>
+      <c r="D4" s="22" t="n">
+        <v>1.3487088531133153</v>
+      </c>
+      <c r="E4" s="24" t="n">
+        <v>60.60496158699932</v>
+      </c>
+      <c r="F4" s="14" t="n">
+        <v>32.6836537934701</v>
+      </c>
+      <c r="G4" s="14" t="n">
+        <v>27.527152907929256</v>
+      </c>
+      <c r="H4" s="22" t="n">
+        <v>1.504135072687443</v>
+      </c>
+      <c r="I4" s="24" t="n">
+        <v>60.2461605015893</v>
+      </c>
+      <c r="J4" s="14" t="n">
+        <v>29.628284236706456</v>
+      </c>
+      <c r="K4" s="14" t="n">
+        <v>30.415253215789313</v>
+      </c>
+      <c r="L4" s="22" t="n">
+        <v>1.5610229087933531</v>
+      </c>
+      <c r="M4" s="20" t="n">
+        <v>59.482398844539944</v>
+      </c>
+      <c r="N4" s="14" t="n">
+        <v>31.320668082018976</v>
+      </c>
+      <c r="O4" s="14" t="n">
+        <v>27.615484313739366</v>
+      </c>
+      <c r="P4" s="15" t="n">
+        <v>1.1715818529468125</v>
+      </c>
+      <c r="Q4" t="s" s="0">
         <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A5" s="14">
-        <v>77.959350519936891</v>
-      </c>
-      <c r="B5" s="14">
-        <v>40.762362394893621</v>
-      </c>
-      <c r="C5" s="14">
-        <v>36.290175511793635</v>
-      </c>
-      <c r="D5" s="22">
-        <v>1.5503875966513228</v>
-      </c>
-      <c r="E5" s="24">
-        <v>76.342607319358663</v>
-      </c>
-      <c r="F5" s="14">
-        <v>40.768265550390367</v>
-      </c>
-      <c r="G5" s="14">
-        <v>34.79203888645285</v>
-      </c>
-      <c r="H5" s="22">
-        <v>1.697162869160858</v>
-      </c>
-      <c r="I5" s="24">
-        <v>79.644512218040788</v>
-      </c>
-      <c r="J5" s="14">
-        <v>41.446167889984608</v>
-      </c>
-      <c r="K5" s="14">
-        <v>37.47289423745648</v>
-      </c>
-      <c r="L5" s="22">
-        <v>1.2403100773210582</v>
-      </c>
-      <c r="M5" s="20">
-        <v>75.595216060540992</v>
-      </c>
-      <c r="N5" s="14">
-        <v>39.353057993235055</v>
-      </c>
-      <c r="O5" s="14">
-        <v>35.052454798668784</v>
-      </c>
-      <c r="P5" s="15">
-        <v>1.5003317457565866</v>
-      </c>
-      <c r="Q5" t="s">
+      <c r="A5" s="14" t="n">
+        <v>60.182707489068285</v>
+      </c>
+      <c r="B5" s="14" t="n">
+        <v>24.44870766162615</v>
+      </c>
+      <c r="C5" s="14" t="n">
+        <v>35.352257646987965</v>
+      </c>
+      <c r="D5" s="22" t="n">
+        <v>2.031207162143411</v>
+      </c>
+      <c r="E5" s="24" t="n">
+        <v>60.96070478170232</v>
+      </c>
+      <c r="F5" s="14" t="n">
+        <v>26.806980790316338</v>
+      </c>
+      <c r="G5" s="14" t="n">
+        <v>33.80141515840703</v>
+      </c>
+      <c r="H5" s="22" t="n">
+        <v>2.0501337199115195</v>
+      </c>
+      <c r="I5" s="24" t="n">
+        <v>60.6019036962923</v>
+      </c>
+      <c r="J5" s="14" t="n">
+        <v>23.75161123355269</v>
+      </c>
+      <c r="K5" s="14" t="n">
+        <v>36.68951546626708</v>
+      </c>
+      <c r="L5" s="22" t="n">
+        <v>2.10702155601743</v>
+      </c>
+      <c r="M5" s="20" t="n">
+        <v>59.83814203924294</v>
+      </c>
+      <c r="N5" s="14" t="n">
+        <v>25.44399507886521</v>
+      </c>
+      <c r="O5" s="14" t="n">
+        <v>33.889746564217134</v>
+      </c>
+      <c r="P5" s="15" t="n">
+        <v>1.717580500170889</v>
+      </c>
+      <c r="Q5" t="s" s="0">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A6" s="14">
-        <v>67.813869888206654</v>
-      </c>
-      <c r="B6" s="14">
-        <v>39.469515896400495</v>
-      </c>
-      <c r="C6" s="14">
-        <v>26.971248537254731</v>
-      </c>
-      <c r="D6" s="22">
-        <v>1.5503875966513228</v>
-      </c>
-      <c r="E6" s="24">
-        <v>68.226222813974474</v>
-      </c>
-      <c r="F6" s="14">
-        <v>39.733988351595869</v>
-      </c>
-      <c r="G6" s="14">
-        <v>27.336897306821726</v>
-      </c>
-      <c r="H6" s="22">
-        <v>1.697162869160858</v>
-      </c>
-      <c r="I6" s="24">
-        <v>71.528127712656598</v>
-      </c>
-      <c r="J6" s="14">
-        <v>40.411890691190102</v>
-      </c>
-      <c r="K6" s="14">
-        <v>30.017752657825355</v>
-      </c>
-      <c r="L6" s="22">
-        <v>1.2403100773210582</v>
-      </c>
-      <c r="M6" s="20">
-        <v>67.478831555156802</v>
-      </c>
-      <c r="N6" s="14">
-        <v>38.318780794440542</v>
-      </c>
-      <c r="O6" s="14">
-        <v>27.597313219037666</v>
-      </c>
-      <c r="P6" s="15">
-        <v>1.5003317457565866</v>
-      </c>
-      <c r="Q6" t="s">
+      <c r="A6" s="14" t="n">
+        <v>57.53983017118746</v>
+      </c>
+      <c r="B6" s="14" t="n">
+        <v>30.210558108795894</v>
+      </c>
+      <c r="C6" s="14" t="n">
+        <v>26.421526894916713</v>
+      </c>
+      <c r="D6" s="22" t="n">
+        <v>0.7004830917503442</v>
+      </c>
+      <c r="E6" s="24" t="n">
+        <v>58.84640292739766</v>
+      </c>
+      <c r="F6" s="14" t="n">
+        <v>31.416461148052132</v>
+      </c>
+      <c r="G6" s="14" t="n">
+        <v>26.656830556750027</v>
+      </c>
+      <c r="H6" s="22" t="n">
+        <v>0.9855544635970663</v>
+      </c>
+      <c r="I6" s="24" t="n">
+        <v>58.48760184198763</v>
+      </c>
+      <c r="J6" s="14" t="n">
+        <v>28.36109159128849</v>
+      </c>
+      <c r="K6" s="14" t="n">
+        <v>29.54493086461008</v>
+      </c>
+      <c r="L6" s="22" t="n">
+        <v>1.042442299702976</v>
+      </c>
+      <c r="M6" s="20" t="n">
+        <v>57.723840184938275</v>
+      </c>
+      <c r="N6" s="14" t="n">
+        <v>30.05347543660101</v>
+      </c>
+      <c r="O6" s="14" t="n">
+        <v>26.745161962560132</v>
+      </c>
+      <c r="P6" s="15" t="n">
+        <v>0.6530012438564357</v>
+      </c>
+      <c r="Q6" t="s" s="0">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A7" s="14">
-        <v>76.023755426255264</v>
-      </c>
-      <c r="B7" s="14">
-        <v>40.393261422616717</v>
-      </c>
-      <c r="C7" s="14">
-        <v>35.580974218311553</v>
-      </c>
-      <c r="D7" s="22">
-        <v>1.3553057344792647</v>
-      </c>
-      <c r="E7" s="24">
-        <v>74.794131244413364</v>
-      </c>
-      <c r="F7" s="14">
-        <v>40.472984772568843</v>
-      </c>
-      <c r="G7" s="14">
-        <v>34.224677851667181</v>
-      </c>
-      <c r="H7" s="22">
-        <v>1.5410973794232117</v>
-      </c>
-      <c r="I7" s="24">
-        <v>78.096036143095489</v>
-      </c>
-      <c r="J7" s="14">
-        <v>41.150887112163083</v>
-      </c>
-      <c r="K7" s="14">
-        <v>36.90553320267081</v>
-      </c>
-      <c r="L7" s="22">
-        <v>1.0842445875834117</v>
-      </c>
-      <c r="M7" s="20">
-        <v>74.046739985595678</v>
-      </c>
-      <c r="N7" s="14">
-        <v>39.057777215413523</v>
-      </c>
-      <c r="O7" s="14">
-        <v>34.485093763883114</v>
-      </c>
-      <c r="P7" s="15">
-        <v>1.34426625601894</v>
-      </c>
-      <c r="Q7" t="s">
+      <c r="A7" s="14" t="n">
+        <v>62.578046569567604</v>
+      </c>
+      <c r="B7" s="14" t="n">
+        <v>28.001116955806346</v>
+      </c>
+      <c r="C7" s="14" t="n">
+        <v>34.81630728313168</v>
+      </c>
+      <c r="D7" s="22" t="n">
+        <v>1.930277043363449</v>
+      </c>
+      <c r="E7" s="24" t="n">
+        <v>62.876976046101774</v>
+      </c>
+      <c r="F7" s="14" t="n">
+        <v>29.6489082256605</v>
+      </c>
+      <c r="G7" s="14" t="n">
+        <v>33.372654867322</v>
+      </c>
+      <c r="H7" s="22" t="n">
+        <v>1.96938962488755</v>
+      </c>
+      <c r="I7" s="24" t="n">
+        <v>62.51817496069175</v>
+      </c>
+      <c r="J7" s="14" t="n">
+        <v>26.593538668896848</v>
+      </c>
+      <c r="K7" s="14" t="n">
+        <v>36.26075517518205</v>
+      </c>
+      <c r="L7" s="22" t="n">
+        <v>2.02627746099346</v>
+      </c>
+      <c r="M7" s="20" t="n">
+        <v>61.75441330364239</v>
+      </c>
+      <c r="N7" s="14" t="n">
+        <v>28.285922514209368</v>
+      </c>
+      <c r="O7" s="14" t="n">
+        <v>33.46098627313211</v>
+      </c>
+      <c r="P7" s="15" t="n">
+        <v>1.6368364051469197</v>
+      </c>
+      <c r="Q7" t="s" s="0">
         <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A8" s="14">
-        <v>88.958249936195884</v>
-      </c>
-      <c r="B8" s="14">
-        <v>43.813783314282944</v>
-      </c>
-      <c r="C8" s="14">
-        <v>45.073144005236927</v>
-      </c>
-      <c r="D8" s="22">
-        <v>0.30864197529439102</v>
-      </c>
-      <c r="E8" s="24">
-        <v>85.141726852365849</v>
-      </c>
-      <c r="F8" s="14">
-        <v>43.209402285901824</v>
-      </c>
-      <c r="G8" s="14">
-        <v>41.818413681207481</v>
-      </c>
-      <c r="H8" s="22">
-        <v>0.70376637207531267</v>
-      </c>
-      <c r="I8" s="24">
-        <v>88.443631751047988</v>
-      </c>
-      <c r="J8" s="14">
-        <v>43.887304625496064</v>
-      </c>
-      <c r="K8" s="14">
-        <v>44.49926903221111</v>
-      </c>
-      <c r="L8" s="22">
-        <v>0.24691358023551283</v>
-      </c>
-      <c r="M8" s="20">
-        <v>84.394335593548178</v>
-      </c>
-      <c r="N8" s="14">
-        <v>41.794194728746504</v>
-      </c>
-      <c r="O8" s="14">
-        <v>42.078829593423414</v>
-      </c>
-      <c r="P8" s="15">
-        <v>0.50693524867104112</v>
-      </c>
-      <c r="Q8" t="s">
+      <c r="A8" s="14" t="n">
+        <v>63.02272556294635</v>
+      </c>
+      <c r="B8" s="14" t="n">
+        <v>20.65527570186414</v>
+      </c>
+      <c r="C8" s="14" t="n">
+        <v>42.659135096228894</v>
+      </c>
+      <c r="D8" s="22" t="n">
+        <v>2.612775352393545</v>
+      </c>
+      <c r="E8" s="24" t="n">
+        <v>63.23271924080477</v>
+      </c>
+      <c r="F8" s="14" t="n">
+        <v>23.772235222506733</v>
+      </c>
+      <c r="G8" s="14" t="n">
+        <v>39.646917117799774</v>
+      </c>
+      <c r="H8" s="22" t="n">
+        <v>2.5153882721116267</v>
+      </c>
+      <c r="I8" s="24" t="n">
+        <v>62.87391815539475</v>
+      </c>
+      <c r="J8" s="14" t="n">
+        <v>20.716865665743086</v>
+      </c>
+      <c r="K8" s="14" t="n">
+        <v>42.535017425659824</v>
+      </c>
+      <c r="L8" s="22" t="n">
+        <v>2.5722761082175367</v>
+      </c>
+      <c r="M8" s="20" t="n">
+        <v>62.11015649834538</v>
+      </c>
+      <c r="N8" s="14" t="n">
+        <v>22.409249511055606</v>
+      </c>
+      <c r="O8" s="14" t="n">
+        <v>39.73524852360988</v>
+      </c>
+      <c r="P8" s="15" t="n">
+        <v>2.1828350523709963</v>
+      </c>
+      <c r="Q8" t="s" s="0">
         <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A9" s="14">
-        <v>78.812769304465661</v>
-      </c>
-      <c r="B9" s="14">
-        <v>42.52093681578981</v>
-      </c>
-      <c r="C9" s="14">
-        <v>35.754217030698022</v>
-      </c>
-      <c r="D9" s="22">
-        <v>0.30864197529439102</v>
-      </c>
-      <c r="E9" s="24">
-        <v>77.025342346981674</v>
-      </c>
-      <c r="F9" s="14">
-        <v>42.175125087107318</v>
-      </c>
-      <c r="G9" s="14">
-        <v>34.363272101576356</v>
-      </c>
-      <c r="H9" s="22">
-        <v>0.70376637207531267</v>
-      </c>
-      <c r="I9" s="24">
-        <v>80.327247245663813</v>
-      </c>
-      <c r="J9" s="14">
-        <v>42.853027426701559</v>
-      </c>
-      <c r="K9" s="14">
-        <v>37.044127452579986</v>
-      </c>
-      <c r="L9" s="22">
-        <v>0.24691358023551283</v>
-      </c>
-      <c r="M9" s="20">
-        <v>76.277951088164002</v>
-      </c>
-      <c r="N9" s="14">
-        <v>40.759917529951998</v>
-      </c>
-      <c r="O9" s="14">
-        <v>34.623688013792297</v>
-      </c>
-      <c r="P9" s="15">
-        <v>0.50693524867104112</v>
-      </c>
-      <c r="Q9" t="s">
+      <c r="A9" s="14" t="n">
+        <v>60.37984824506552</v>
+      </c>
+      <c r="B9" s="14" t="n">
+        <v>26.417126149033887</v>
+      </c>
+      <c r="C9" s="14" t="n">
+        <v>33.72840434415764</v>
+      </c>
+      <c r="D9" s="22" t="n">
+        <v>1.2820512820004781</v>
+      </c>
+      <c r="E9" s="24" t="n">
+        <v>61.1184173865001</v>
+      </c>
+      <c r="F9" s="14" t="n">
+        <v>28.38171558024253</v>
+      </c>
+      <c r="G9" s="14" t="n">
+        <v>32.50233251614277</v>
+      </c>
+      <c r="H9" s="22" t="n">
+        <v>1.4508090157971734</v>
+      </c>
+      <c r="I9" s="24" t="n">
+        <v>60.75961630109008</v>
+      </c>
+      <c r="J9" s="14" t="n">
+        <v>25.326346023478884</v>
+      </c>
+      <c r="K9" s="14" t="n">
+        <v>35.390432824002815</v>
+      </c>
+      <c r="L9" s="22" t="n">
+        <v>1.5076968519030833</v>
+      </c>
+      <c r="M9" s="20" t="n">
+        <v>59.99585464404072</v>
+      </c>
+      <c r="N9" s="14" t="n">
+        <v>27.018729868791404</v>
+      </c>
+      <c r="O9" s="14" t="n">
+        <v>32.590663921952874</v>
+      </c>
+      <c r="P9" s="15" t="n">
+        <v>1.1182557960565427</v>
+      </c>
+      <c r="Q9" t="s" s="0">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A10" s="14">
-        <v>68.786519411249941</v>
-      </c>
-      <c r="B10" s="14">
-        <v>39.721102830392212</v>
-      </c>
-      <c r="C10" s="14">
-        <v>28.907518090785771</v>
-      </c>
-      <c r="D10" s="22">
-        <v>1.0466637591848738</v>
-      </c>
-      <c r="E10" s="24">
-        <v>69.004342432409103</v>
-      </c>
-      <c r="F10" s="14">
-        <v>39.935257898789239</v>
-      </c>
-      <c r="G10" s="14">
-        <v>28.88591294964656</v>
-      </c>
-      <c r="H10" s="22">
-        <v>1.294183799187699</v>
-      </c>
-      <c r="I10" s="24">
-        <v>72.306247331091228</v>
-      </c>
-      <c r="J10" s="14">
-        <v>40.613160238383479</v>
-      </c>
-      <c r="K10" s="14">
-        <v>31.566768300650189</v>
-      </c>
-      <c r="L10" s="22">
-        <v>0.837331007347899</v>
-      </c>
-      <c r="M10" s="20">
-        <v>68.256951173591432</v>
-      </c>
-      <c r="N10" s="14">
-        <v>38.520050341633919</v>
-      </c>
-      <c r="O10" s="14">
-        <v>29.146328861862493</v>
-      </c>
-      <c r="P10" s="15">
-        <v>1.0973526757834273</v>
-      </c>
-      <c r="Q10" t="s">
+      <c r="A10" s="14" t="n">
+        <v>62.06094212268647</v>
+      </c>
+      <c r="B10" s="14" t="n">
+        <v>33.85179149059676</v>
+      </c>
+      <c r="C10" s="14" t="n">
+        <v>27.99545552653938</v>
+      </c>
+      <c r="D10" s="22" t="n">
+        <v>0.648225761362971</v>
+      </c>
+      <c r="E10" s="24" t="n">
+        <v>62.463292488596856</v>
+      </c>
+      <c r="F10" s="14" t="n">
+        <v>34.32944785349283</v>
+      </c>
+      <c r="G10" s="14" t="n">
+        <v>27.915973462048164</v>
+      </c>
+      <c r="H10" s="22" t="n">
+        <v>0.9437485992871677</v>
+      </c>
+      <c r="I10" s="24" t="n">
+        <v>62.10449140318684</v>
+      </c>
+      <c r="J10" s="14" t="n">
+        <v>31.27407829672918</v>
+      </c>
+      <c r="K10" s="14" t="n">
+        <v>30.80407376990821</v>
+      </c>
+      <c r="L10" s="22" t="n">
+        <v>1.0006364353930777</v>
+      </c>
+      <c r="M10" s="20" t="n">
+        <v>61.340729746137484</v>
+      </c>
+      <c r="N10" s="14" t="n">
+        <v>32.9664621420417</v>
+      </c>
+      <c r="O10" s="14" t="n">
+        <v>28.00430486785827</v>
+      </c>
+      <c r="P10" s="15" t="n">
+        <v>0.6111953795465371</v>
+      </c>
+      <c r="Q10" t="s" s="0">
         <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A11" s="14">
-        <v>81.721013921190561</v>
-      </c>
-      <c r="B11" s="14">
-        <v>43.141624722058438</v>
-      </c>
-      <c r="C11" s="14">
-        <v>38.399687877711145</v>
-      </c>
-      <c r="D11" s="22">
-        <v>0</v>
-      </c>
-      <c r="E11" s="24">
-        <v>79.351938040361603</v>
-      </c>
-      <c r="F11" s="14">
-        <v>42.671675412122219</v>
-      </c>
-      <c r="G11" s="14">
-        <v>36.47964877918686</v>
-      </c>
-      <c r="H11" s="22">
-        <v>0.45685279183979988</v>
-      </c>
-      <c r="I11" s="24">
-        <v>82.653842939043727</v>
-      </c>
-      <c r="J11" s="14">
-        <v>43.34957775171646</v>
-      </c>
-      <c r="K11" s="14">
-        <v>39.160504130190489</v>
-      </c>
-      <c r="L11" s="22">
-        <v>0</v>
-      </c>
-      <c r="M11" s="20">
-        <v>78.604546781543917</v>
-      </c>
-      <c r="N11" s="14">
-        <v>41.2564678549669</v>
-      </c>
-      <c r="O11" s="14">
-        <v>36.740064691402793</v>
-      </c>
-      <c r="P11" s="15">
-        <v>0.26002166843552832</v>
-      </c>
-      <c r="Q11" t="s">
+      <c r="A11" s="14" t="n">
+        <v>62.505621116065214</v>
+      </c>
+      <c r="B11" s="14" t="n">
+        <v>26.505950236654556</v>
+      </c>
+      <c r="C11" s="14" t="n">
+        <v>35.8382833396366</v>
+      </c>
+      <c r="D11" s="22" t="n">
+        <v>1.330724070393067</v>
+      </c>
+      <c r="E11" s="24" t="n">
+        <v>62.81903568329985</v>
+      </c>
+      <c r="F11" s="14" t="n">
+        <v>28.45277485033906</v>
+      </c>
+      <c r="G11" s="14" t="n">
+        <v>34.19023571252593</v>
+      </c>
+      <c r="H11" s="22" t="n">
+        <v>1.4897472465112442</v>
+      </c>
+      <c r="I11" s="24" t="n">
+        <v>62.46023459788984</v>
+      </c>
+      <c r="J11" s="14" t="n">
+        <v>25.397405293575417</v>
+      </c>
+      <c r="K11" s="14" t="n">
+        <v>37.07833602038598</v>
+      </c>
+      <c r="L11" s="22" t="n">
+        <v>1.5466350826171544</v>
+      </c>
+      <c r="M11" s="20" t="n">
+        <v>61.69647294084048</v>
+      </c>
+      <c r="N11" s="14" t="n">
+        <v>27.089789138887937</v>
+      </c>
+      <c r="O11" s="14" t="n">
+        <v>34.27856711833604</v>
+      </c>
+      <c r="P11" s="15" t="n">
+        <v>1.1571940267706138</v>
+      </c>
+      <c r="Q11" t="s" s="0">
         <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="35">
-        <v>71.575533289460338</v>
-      </c>
-      <c r="B12" s="35">
-        <v>41.848778223565304</v>
-      </c>
-      <c r="C12" s="35">
-        <v>29.080760903172241</v>
-      </c>
-      <c r="D12" s="36">
-        <v>0</v>
-      </c>
-      <c r="E12" s="37">
-        <v>71.235553534977413</v>
-      </c>
-      <c r="F12" s="35">
-        <v>41.637398213327714</v>
-      </c>
-      <c r="G12" s="35">
-        <v>29.024507199555735</v>
-      </c>
-      <c r="H12" s="36">
-        <v>0.45685279183979988</v>
-      </c>
-      <c r="I12" s="37">
-        <v>74.537458433659552</v>
-      </c>
-      <c r="J12" s="35">
-        <v>42.315300552921954</v>
-      </c>
-      <c r="K12" s="35">
-        <v>31.705362550559364</v>
-      </c>
-      <c r="L12" s="36">
-        <v>0</v>
-      </c>
-      <c r="M12" s="38">
-        <v>70.488162276159741</v>
-      </c>
-      <c r="N12" s="35">
-        <v>40.222190656172394</v>
-      </c>
-      <c r="O12" s="35">
-        <v>29.284923111771672</v>
-      </c>
-      <c r="P12" s="39">
-        <v>0.26002166843552832</v>
-      </c>
-      <c r="Q12" t="s">
+      <c r="A12" s="35" t="n">
+        <v>59.86274379818438</v>
+      </c>
+      <c r="B12" s="35" t="n">
+        <v>32.2678006838243</v>
+      </c>
+      <c r="C12" s="35" t="n">
+        <v>26.90755258756534</v>
+      </c>
+      <c r="D12" s="36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E12" s="37" t="n">
+        <v>60.7047338289952</v>
+      </c>
+      <c r="F12" s="35" t="n">
+        <v>33.06225520807486</v>
+      </c>
+      <c r="G12" s="35" t="n">
+        <v>27.04565111086893</v>
+      </c>
+      <c r="H12" s="36" t="n">
+        <v>0.42516799019679086</v>
+      </c>
+      <c r="I12" s="37" t="n">
+        <v>60.34593274358517</v>
+      </c>
+      <c r="J12" s="35" t="n">
+        <v>30.00688565131121</v>
+      </c>
+      <c r="K12" s="35" t="n">
+        <v>29.93375141872898</v>
+      </c>
+      <c r="L12" s="36" t="n">
+        <v>0.48205582630270083</v>
+      </c>
+      <c r="M12" s="38" t="n">
+        <v>59.58217108653581</v>
+      </c>
+      <c r="N12" s="35" t="n">
+        <v>31.69926949662373</v>
+      </c>
+      <c r="O12" s="35" t="n">
+        <v>27.133982516679037</v>
+      </c>
+      <c r="P12" s="39" t="n">
+        <v>0.0926147704561603</v>
+      </c>
+      <c r="Q12" t="s" s="0">
         <v>46</v>
       </c>
     </row>
@@ -15015,29 +15219,29 @@
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A16" s="14">
-        <v>60.931034482758619</v>
-      </c>
-      <c r="B16" s="14">
-        <v>36.578947368421055</v>
-      </c>
-      <c r="C16" s="14">
-        <v>22.982456140350877</v>
-      </c>
-      <c r="D16" s="22">
-        <v>2.0689655172413794</v>
-      </c>
-      <c r="E16" s="24">
-        <v>64.416666666666671</v>
-      </c>
-      <c r="F16" s="14">
-        <v>39.583333333333336</v>
-      </c>
-      <c r="G16" s="14">
-        <v>23.5</v>
-      </c>
-      <c r="H16" s="22">
-        <v>2.5</v>
+      <c r="A16" s="14" t="n">
+        <v>61.76543209876543</v>
+      </c>
+      <c r="B16" s="14" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="C16" s="14" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="D16" s="22" t="n">
+        <v>1.4814814814814814</v>
+      </c>
+      <c r="E16" s="24" t="n">
+        <v>65.66666666666667</v>
+      </c>
+      <c r="F16" s="14" t="n">
+        <v>40.17948717948718</v>
+      </c>
+      <c r="G16" s="14" t="n">
+        <v>23.846153846153847</v>
+      </c>
+      <c r="H16" s="22" t="n">
+        <v>3.076923076923077</v>
       </c>
       <c r="I16" s="24" t="e">
         <v>#NUM!</v>
@@ -15051,24 +15255,24 @@
       <c r="L16" s="22" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="M16" s="20">
-        <v>44.2</v>
-      </c>
-      <c r="N16" s="14">
-        <v>20.555555555555557</v>
-      </c>
-      <c r="O16" s="14">
-        <v>20.222222222222221</v>
-      </c>
-      <c r="P16" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="s">
+      <c r="M16" s="20" t="n">
+        <v>58.142857142857146</v>
+      </c>
+      <c r="N16" s="14" t="n">
+        <v>31.829268292682926</v>
+      </c>
+      <c r="O16" s="14" t="n">
+        <v>25.902439024390244</v>
+      </c>
+      <c r="P16" s="15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q16" t="s" s="0">
         <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="14">
+      <c r="A17" s="14" t="n">
         <v>101.66666666666667</v>
       </c>
       <c r="B17" s="14" t="e">
@@ -15077,8 +15281,8 @@
       <c r="C17" s="14" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D17" s="22">
-        <v>0</v>
+      <c r="D17" s="22" t="n">
+        <v>0.0</v>
       </c>
       <c r="E17" s="24" t="e">
         <v>#NUM!</v>
@@ -15104,7 +15308,7 @@
       <c r="L17" s="22" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="M17" s="20">
+      <c r="M17" s="20" t="n">
         <v>101.66666666666667</v>
       </c>
       <c r="N17" s="14" t="e">
@@ -15113,37 +15317,37 @@
       <c r="O17" s="14" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="P17" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="s">
+      <c r="P17" s="15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q17" t="s" s="0">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="14">
+      <c r="A18" s="14" t="n">
         <v>57.4</v>
       </c>
-      <c r="B18" s="14">
-        <v>26</v>
-      </c>
-      <c r="C18" s="14">
-        <v>28</v>
-      </c>
-      <c r="D18" s="22">
-        <v>0</v>
-      </c>
-      <c r="E18" s="24">
-        <v>54</v>
-      </c>
-      <c r="F18" s="14">
-        <v>26</v>
-      </c>
-      <c r="G18" s="14">
-        <v>28</v>
-      </c>
-      <c r="H18" s="22">
-        <v>0</v>
+      <c r="B18" s="14" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="C18" s="14" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="D18" s="22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E18" s="24" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="F18" s="14" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="G18" s="14" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="H18" s="22" t="n">
+        <v>0.0</v>
       </c>
       <c r="I18" s="24" t="e">
         <v>#NUM!</v>
@@ -15157,8 +15361,8 @@
       <c r="L18" s="22" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="M18" s="20">
-        <v>71</v>
+      <c r="M18" s="20" t="n">
+        <v>71.0</v>
       </c>
       <c r="N18" s="14" t="e">
         <v>#NUM!</v>
@@ -15166,24 +15370,24 @@
       <c r="O18" s="14" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="P18" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="s">
+      <c r="P18" s="15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q18" t="s" s="0">
         <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="14">
-        <v>70.333333333333329</v>
-      </c>
-      <c r="B19" s="14">
+      <c r="A19" s="14" t="n">
+        <v>70.33333333333333</v>
+      </c>
+      <c r="B19" s="14" t="n">
         <v>39.333333333333336</v>
       </c>
-      <c r="C19" s="14">
-        <v>31</v>
-      </c>
-      <c r="D19" s="22">
+      <c r="C19" s="14" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="D19" s="22" t="n">
         <v>1.6666666666666667</v>
       </c>
       <c r="E19" s="24" t="e">
@@ -15210,34 +15414,34 @@
       <c r="L19" s="22" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="M19" s="20">
-        <v>70.333333333333329</v>
-      </c>
-      <c r="N19" s="14">
+      <c r="M19" s="20" t="n">
+        <v>70.33333333333333</v>
+      </c>
+      <c r="N19" s="14" t="n">
         <v>39.333333333333336</v>
       </c>
-      <c r="O19" s="14">
-        <v>31</v>
-      </c>
-      <c r="P19" s="15">
+      <c r="O19" s="14" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="P19" s="15" t="n">
         <v>1.6666666666666667</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="Q19" t="s" s="0">
         <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="14">
-        <v>90.666666666666671</v>
-      </c>
-      <c r="B20" s="14">
-        <v>44.339622641509436</v>
-      </c>
-      <c r="C20" s="14">
-        <v>46.358490566037737</v>
-      </c>
-      <c r="D20" s="22">
-        <v>0</v>
+      <c r="A20" s="14" t="n">
+        <v>76.43243243243244</v>
+      </c>
+      <c r="B20" s="14" t="n">
+        <v>29.36111111111111</v>
+      </c>
+      <c r="C20" s="14" t="n">
+        <v>46.72222222222222</v>
+      </c>
+      <c r="D20" s="22" t="n">
+        <v>0.0</v>
       </c>
       <c r="E20" s="24" t="e">
         <v>#NUM!</v>
@@ -15251,20 +15455,20 @@
       <c r="H20" s="22" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="I20" s="24">
-        <v>90.698113207547166</v>
-      </c>
-      <c r="J20" s="14">
-        <v>44.339622641509436</v>
-      </c>
-      <c r="K20" s="14">
-        <v>46.358490566037737</v>
-      </c>
-      <c r="L20" s="22">
-        <v>0</v>
-      </c>
-      <c r="M20" s="20">
-        <v>89</v>
+      <c r="I20" s="24" t="n">
+        <v>76.08333333333333</v>
+      </c>
+      <c r="J20" s="14" t="n">
+        <v>29.36111111111111</v>
+      </c>
+      <c r="K20" s="14" t="n">
+        <v>46.72222222222222</v>
+      </c>
+      <c r="L20" s="22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M20" s="20" t="n">
+        <v>89.0</v>
       </c>
       <c r="N20" s="14" t="e">
         <v>#NUM!</v>
@@ -15272,10 +15476,10 @@
       <c r="O20" s="14" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="P20" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="s">
+      <c r="P20" s="15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q20" t="s" s="0">
         <v>42</v>
       </c>
     </row>
@@ -15328,49 +15532,49 @@
       <c r="P21" s="15" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="Q21" t="s" s="0">
         <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="14">
-        <v>68.285714285714292</v>
-      </c>
-      <c r="B22" s="14">
-        <v>40</v>
-      </c>
-      <c r="C22" s="14">
-        <v>30</v>
-      </c>
-      <c r="D22" s="22">
-        <v>0</v>
-      </c>
-      <c r="E22" s="24">
-        <v>70.666666666666671</v>
-      </c>
-      <c r="F22" s="14">
+      <c r="A22" s="14" t="n">
+        <v>68.28571428571429</v>
+      </c>
+      <c r="B22" s="14" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="C22" s="14" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="D22" s="22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E22" s="24" t="n">
+        <v>70.66666666666667</v>
+      </c>
+      <c r="F22" s="14" t="n">
         <v>40.666666666666664</v>
       </c>
-      <c r="G22" s="14">
-        <v>30</v>
-      </c>
-      <c r="H22" s="22">
-        <v>0</v>
-      </c>
-      <c r="I22" s="24">
-        <v>69</v>
-      </c>
-      <c r="J22" s="14">
-        <v>39</v>
-      </c>
-      <c r="K22" s="14">
-        <v>30</v>
-      </c>
-      <c r="L22" s="22">
-        <v>0</v>
-      </c>
-      <c r="M22" s="20">
-        <v>34</v>
+      <c r="G22" s="14" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="H22" s="22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I22" s="24" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="J22" s="14" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="K22" s="14" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="L22" s="22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M22" s="20" t="n">
+        <v>34.0</v>
       </c>
       <c r="N22" s="14" t="e">
         <v>#NUM!</v>
@@ -15378,16 +15582,16 @@
       <c r="O22" s="14" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="P22" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="s">
+      <c r="P22" s="15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q22" t="s" s="0">
         <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="14">
-        <v>83</v>
+      <c r="A23" s="14" t="n">
+        <v>83.0</v>
       </c>
       <c r="B23" s="14" t="e">
         <v>#NUM!</v>
@@ -15395,8 +15599,8 @@
       <c r="C23" s="14" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D23" s="22">
-        <v>0</v>
+      <c r="D23" s="22" t="n">
+        <v>0.0</v>
       </c>
       <c r="E23" s="24" t="e">
         <v>#NUM!</v>
@@ -15422,8 +15626,8 @@
       <c r="L23" s="22" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="M23" s="20">
-        <v>83</v>
+      <c r="M23" s="20" t="n">
+        <v>83.0</v>
       </c>
       <c r="N23" s="14" t="e">
         <v>#NUM!</v>
@@ -15431,63 +15635,63 @@
       <c r="O23" s="14" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="P23" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="s">
+      <c r="P23" s="15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q23" t="s" s="0">
         <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="16">
-        <v>71.047619047619051</v>
-      </c>
-      <c r="B24" s="16">
-        <v>39.799999999999997</v>
-      </c>
-      <c r="C24" s="16">
-        <v>28.8</v>
-      </c>
-      <c r="D24" s="23">
-        <v>0</v>
-      </c>
-      <c r="E24" s="25">
-        <v>88.5</v>
-      </c>
-      <c r="F24" s="16">
-        <v>49.5</v>
-      </c>
-      <c r="G24" s="16">
-        <v>39</v>
-      </c>
-      <c r="H24" s="23">
-        <v>0</v>
-      </c>
-      <c r="I24" s="25">
-        <v>55</v>
-      </c>
-      <c r="J24" s="16">
-        <v>47</v>
-      </c>
-      <c r="K24" s="16">
-        <v>8</v>
-      </c>
-      <c r="L24" s="23">
-        <v>0</v>
-      </c>
-      <c r="M24" s="21">
+      <c r="A24" s="16" t="n">
+        <v>58.714285714285715</v>
+      </c>
+      <c r="B24" s="16" t="n">
+        <v>29.85185185185185</v>
+      </c>
+      <c r="C24" s="16" t="n">
+        <v>26.59259259259259</v>
+      </c>
+      <c r="D24" s="23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E24" s="25" t="n">
+        <v>56.94444444444444</v>
+      </c>
+      <c r="F24" s="16" t="n">
+        <v>30.38888888888889</v>
+      </c>
+      <c r="G24" s="16" t="n">
+        <v>26.555555555555557</v>
+      </c>
+      <c r="H24" s="23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I24" s="25" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="J24" s="16" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="K24" s="16" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="L24" s="23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M24" s="21" t="n">
         <v>62.666666666666664</v>
       </c>
-      <c r="N24" s="16">
+      <c r="N24" s="16" t="n">
         <v>26.5</v>
       </c>
-      <c r="O24" s="16">
-        <v>29</v>
-      </c>
-      <c r="P24" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="s">
+      <c r="O24" s="16" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="P24" s="17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q24" t="s" s="0">
         <v>46</v>
       </c>
     </row>

--- a/Red Team Data.xlsx
+++ b/Red Team Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Desktop\FTCStats\FTCStats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68D6CF9-50F1-4A04-B163-D30EFAFEAB36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90AEE26D-03B4-493E-819D-BFC759AE026F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{943F8BFE-BB93-4FCB-9D8B-2434F109755A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{943F8BFE-BB93-4FCB-9D8B-2434F109755A}"/>
   </bookViews>
   <sheets>
     <sheet name="Match Data" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="43">
   <si>
     <t>Cyrus</t>
   </si>
@@ -241,7 +241,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -277,37 +277,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -327,34 +297,6 @@
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -654,83 +596,267 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -902,16 +1028,16 @@
             <c:numRef>
               <c:f>'Per Member Data'!$E$3:$E$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.8223721191110371</c:v>
+                  <c:v>4.6570247933336679</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.7477011494385364</c:v>
+                  <c:v>4.9030637870556095</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0443349753712177</c:v>
+                  <c:v>4.1262135922368559</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -923,13 +1049,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>26.739555555060711</c:v>
+                  <c:v>26.475570032108589</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41.351185608860462</c:v>
+                  <c:v>42.915151514909155</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.533391153595524</c:v>
+                  <c:v>27.720238095311696</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1018,16 +1144,16 @@
             <c:numRef>
               <c:f>'Per Member Data'!$E$3:$E$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.8223721191110371</c:v>
+                  <c:v>4.6570247933336679</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.7477011494385364</c:v>
+                  <c:v>4.9030637870556095</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0443349753712177</c:v>
+                  <c:v>4.1262135922368559</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1039,13 +1165,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>18.084717607616305</c:v>
+                  <c:v>17.227450980064077</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.016881827374304</c:v>
+                  <c:v>15.999265516120051</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.083743842447257</c:v>
+                  <c:v>13.932038835132207</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1077,7 +1203,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1415,16 +1541,16 @@
             <c:numRef>
               <c:f>'Per Member Data'!$E$6:$E$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.8544627629115054</c:v>
+                  <c:v>4.6791666666433658</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.7477011494385364</c:v>
+                  <c:v>4.9030637870556095</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.9793322733793834</c:v>
+                  <c:v>4.0857142856597006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1436,13 +1562,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>28.182495344071189</c:v>
+                  <c:v>27.874999999575245</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43.840694006218591</c:v>
+                  <c:v>44.941873804913165</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26.022068965735926</c:v>
+                  <c:v>26.663793103605439</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1531,16 +1657,16 @@
             <c:numRef>
               <c:f>'Per Member Data'!$E$6:$E$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.8544627629115054</c:v>
+                  <c:v>4.6791666666433658</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.7477011494385364</c:v>
+                  <c:v>4.9030637870556095</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.9793322733793834</c:v>
+                  <c:v>4.0857142856597006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1552,13 +1678,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>17.971022128359323</c:v>
+                  <c:v>17.148217635831127</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.017875920258598</c:v>
+                  <c:v>16.081835564204518</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.953895071477918</c:v>
+                  <c:v>13.780952380911982</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1590,7 +1716,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1928,16 +2054,16 @@
             <c:numRef>
               <c:f>'Per Member Data'!$E$9:$E$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.0027777777769122</c:v>
+                  <c:v>4.0074906367018306</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.720996038495997</c:v>
+                  <c:v>4.8085918854536622</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9232175502496478</c:v>
+                  <c:v>4.9269521410316912</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1949,13 +2075,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>27.350402340220292</c:v>
+                  <c:v>27.8931818175983</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41.951230840598043</c:v>
+                  <c:v>42.533219761436307</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.057535422802395</c:v>
+                  <c:v>28.076785714149612</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2044,16 +2170,16 @@
             <c:numRef>
               <c:f>'Per Member Data'!$E$9:$E$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.0027777777769122</c:v>
+                  <c:v>4.0074906367018306</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.720996038495997</c:v>
+                  <c:v>4.8085918854536622</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9232175502496478</c:v>
+                  <c:v>4.9269521410316912</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2065,13 +2191,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>9.9156626506740295</c:v>
+                  <c:v>12.389078498245752</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.129600829618701</c:v>
+                  <c:v>16.308201544832773</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.464917284610266</c:v>
+                  <c:v>18.471698113159892</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2103,7 +2229,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2481,28 +2607,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.461025449565952</c:v>
+                  <c:v>27.175285015841915</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35.290124780639651</c:v>
+                  <c:v>35.708721918510875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.380812260398319</c:v>
+                  <c:v>26.569681567857014</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34.766840476465823</c:v>
+                  <c:v>35.395075757242196</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42.595939807539523</c:v>
+                  <c:v>43.928512659911163</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33.686627287298194</c:v>
+                  <c:v>34.789472309257299</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27.857943248833358</c:v>
+                  <c:v>27.797619047443469</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>35.687042579907057</c:v>
+                  <c:v>36.331055950112429</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2632,28 +2758,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.027869867987814</c:v>
+                  <c:v>17.187834307947604</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.051296763937451</c:v>
+                  <c:v>16.654643272134297</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.019306339547111</c:v>
+                  <c:v>15.50420168048803</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.993951977866814</c:v>
+                  <c:v>16.573741575975589</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.017378873816451</c:v>
+                  <c:v>16.040550540162286</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.985388449426111</c:v>
+                  <c:v>14.890108948516016</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.027382985403289</c:v>
+                  <c:v>15.540128235481667</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.050809881352928</c:v>
+                  <c:v>15.006937199668362</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2953,7 +3079,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>9.8</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2982,42 +3108,13 @@
                 <c:ptCount val="9"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>62.7</c:v>
+                    <c:v>67.5</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>34.0</c:v>
+                    <c:v>34.6</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>11.6</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>4.3</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0.1</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0.2</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>-1.2</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>5.0</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>#NUM!</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>62.7</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>27.8</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>13.2</c:v>
+                    <c:v>14.5</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>4.4</c:v>
@@ -3026,13 +3123,42 @@
                     <c:v>0.2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.0</c:v>
+                    <c:v>0.2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>-0.4</c:v>
+                    <c:v>-1.1</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>4.9</c:v>
+                    <c:v>1.4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>#NUM!</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>63.5</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>27.8</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>14.9</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>-0.8</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.3</c:v>
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>73.0</c:v>
@@ -3055,31 +3181,31 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>60.788363930550851</c:v>
+                  <c:v>63.8505795253797</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.892264515776638</c:v>
+                  <c:v>27.332248843086511</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.9981880957048759</c:v>
+                  <c:v>13.563012186066825</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0100224550556236</c:v>
+                  <c:v>4.0862692784989889</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.4530425094012873E-2</c:v>
+                  <c:v>0.23822074002687338</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.2404101435852035E-2</c:v>
+                  <c:v>0.11948490184852822</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.11850768104434069</c:v>
+                  <c:v>-0.35454545452311576</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.8634850280556927</c:v>
+                  <c:v>1.3360730830358623</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>56.944444444444443</c:v>
+                  <c:v>64.833333333333329</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3125,42 +3251,13 @@
                 <c:ptCount val="9"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>62.7</c:v>
+                    <c:v>67.5</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>34.0</c:v>
+                    <c:v>34.6</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>11.6</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>4.3</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0.1</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0.2</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>-1.2</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>5.0</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>#NUM!</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>62.7</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>27.8</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>13.2</c:v>
+                    <c:v>14.5</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>4.4</c:v>
@@ -3169,13 +3266,42 @@
                     <c:v>0.2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.0</c:v>
+                    <c:v>0.2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>-0.4</c:v>
+                    <c:v>-1.1</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>4.9</c:v>
+                    <c:v>1.4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>#NUM!</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>63.5</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>27.8</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>14.9</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>-0.8</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.3</c:v>
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>73.0</c:v>
@@ -3496,42 +3622,13 @@
                 <c:ptCount val="9"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>62.7</c:v>
+                    <c:v>67.5</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>34.0</c:v>
+                    <c:v>34.6</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>11.6</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>4.3</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0.1</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0.2</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>-1.2</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>5.0</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>#NUM!</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>62.7</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>27.8</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>13.2</c:v>
+                    <c:v>14.5</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>4.4</c:v>
@@ -3540,13 +3637,42 @@
                     <c:v>0.2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.0</c:v>
+                    <c:v>0.2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>-0.4</c:v>
+                    <c:v>-1.1</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>4.9</c:v>
+                    <c:v>1.4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>#NUM!</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>63.5</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>27.8</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>14.9</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>-0.8</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.3</c:v>
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>73.0</c:v>
@@ -3569,28 +3695,28 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>60.529708424245733</c:v>
+                  <c:v>61.695676122187969</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.35906652777237</c:v>
+                  <c:v>30.246871964960793</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.24821606031399</c:v>
+                  <c:v>17.011907755324636</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.8149331605082164</c:v>
+                  <c:v>4.6961949610815461</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.37529398066200292</c:v>
+                  <c:v>0.38227457391289638</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.0850079023903695E-2</c:v>
+                  <c:v>7.27229005182599E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.86998801934093051</c:v>
+                  <c:v>-1.3420508218417211</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.8181827435073235</c:v>
+                  <c:v>1.2674444281638255</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -3634,42 +3760,13 @@
                 <c:ptCount val="9"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>62.7</c:v>
+                    <c:v>67.5</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>34.0</c:v>
+                    <c:v>34.6</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>11.6</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>4.3</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0.1</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0.2</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>-1.2</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>5.0</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>#NUM!</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>62.7</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>27.8</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>13.2</c:v>
+                    <c:v>14.5</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>4.4</c:v>
@@ -3678,13 +3775,42 @@
                     <c:v>0.2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.0</c:v>
+                    <c:v>0.2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>-0.4</c:v>
+                    <c:v>-1.1</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>4.9</c:v>
+                    <c:v>1.4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>#NUM!</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>63.5</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>27.8</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>14.9</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>-0.8</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.3</c:v>
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>73.0</c:v>
@@ -3707,28 +3833,28 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>60.553905955565313</c:v>
+                  <c:v>65.644268734004271</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36.622345992631331</c:v>
+                  <c:v>37.073621487095963</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.666957577073699</c:v>
+                  <c:v>16.585354926673993</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.7722285151190293</c:v>
+                  <c:v>4.7857538092464429</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.21120385677082062</c:v>
+                  <c:v>0.25254705006964684</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.20443564553202948</c:v>
+                  <c:v>0.21711349150781353</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.7181361674480748</c:v>
+                  <c:v>-1.6213404358245227</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.894790758675966</c:v>
+                  <c:v>1.3719303173837403</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -4131,7 +4257,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.5555555555555552E-2</c:v>
+                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4143,31 +4269,31 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>27.43890082769682</c:v>
+                  <c:v>27.318864376193194</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33.702180292555781</c:v>
+                  <c:v>34.145613898328364</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26.574730276362715</c:v>
+                  <c:v>26.834381617805271</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33.283552849216719</c:v>
+                  <c:v>33.894696969313415</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39.546832314075672</c:v>
+                  <c:v>40.721446491448589</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.419382297882613</c:v>
+                  <c:v>33.410214210925503</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27.756435067110743</c:v>
+                  <c:v>27.816731601474437</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34.019714531969704</c:v>
+                  <c:v>34.643481123609604</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26.892264515776638</c:v>
+                  <c:v>27.332248843086511</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4283,7 +4409,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.5555555555555552E-2</c:v>
+                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4295,31 +4421,31 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>16.405428424525059</c:v>
+                  <c:v>16.228083146007233</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.824169941284765</c:v>
+                  <c:v>15.801530317356589</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.198577601772495</c:v>
+                  <c:v>14.881177044039575</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.778294112428256</c:v>
+                  <c:v>15.736808960429622</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.197035629187969</c:v>
+                  <c:v>15.31025613177898</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.571443289675695</c:v>
+                  <c:v>14.389902858461962</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.205038918457438</c:v>
+                  <c:v>14.909918288034484</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.623780435217148</c:v>
+                  <c:v>14.483365459383839</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.9981880957048759</c:v>
+                  <c:v>13.563012186066825</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11216,10 +11342,10 @@
       <c r="N26">
         <v>0</v>
       </c>
-      <c r="T26" s="17"/>
-      <c r="U26" s="17"/>
-      <c r="V26" s="17"/>
-      <c r="W26" s="17"/>
+      <c r="T26" s="43"/>
+      <c r="U26" s="43"/>
+      <c r="V26" s="43"/>
+      <c r="W26" s="43"/>
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
     </row>
@@ -11442,10 +11568,10 @@
       <c r="N31">
         <v>0</v>
       </c>
-      <c r="T31" s="18"/>
-      <c r="U31" s="18"/>
-      <c r="V31" s="18"/>
-      <c r="W31" s="18"/>
+      <c r="T31" s="44"/>
+      <c r="U31" s="44"/>
+      <c r="V31" s="44"/>
+      <c r="W31" s="44"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
@@ -12812,355 +12938,398 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView zoomScale="167" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" zoomScale="167" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="20"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="47"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="56" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
-        <v>58.526591107554303</v>
-      </c>
-      <c r="B3" s="10">
-        <v>26.739555555060711</v>
-      </c>
-      <c r="C3" s="10">
-        <v>18.084717607616305</v>
-      </c>
-      <c r="D3" s="10">
-        <v>1.9225449515886039</v>
-      </c>
-      <c r="E3" s="11">
-        <v>4.8223721191110371</v>
-      </c>
-      <c r="F3" s="11">
-        <v>0.45003996799621565</v>
-      </c>
-      <c r="G3" s="11">
-        <v>5.0590219249357551E-3</v>
-      </c>
-      <c r="H3" s="11">
-        <v>9.5016077177901987</v>
-      </c>
-      <c r="I3" s="12">
-        <v>0.35309503049655333</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="J2" s="42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>58.009619238806472</v>
+      </c>
+      <c r="B3" s="6">
+        <v>26.475570032108589</v>
+      </c>
+      <c r="C3" s="6">
+        <v>17.227450980064077</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1.8596491228093721</v>
+      </c>
+      <c r="E3" s="6">
+        <v>4.6570247933336679</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0.43539325840042054</v>
+      </c>
+      <c r="G3" s="6">
+        <v>4.132231407353493E-3</v>
+      </c>
+      <c r="H3" s="6">
+        <v>10.718390805259432</v>
+      </c>
+      <c r="I3" s="34">
+        <v>-1.2505010019425298</v>
+      </c>
+      <c r="J3" s="37">
+        <v>8.0528193340557124</v>
+      </c>
+      <c r="K3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
-        <v>63.330480848295714</v>
+        <v>70.739656270440975</v>
       </c>
       <c r="B4" s="4">
-        <v>41.351185608860462</v>
+        <v>42.915151514909155</v>
       </c>
       <c r="C4" s="4">
-        <v>14.016881827374304</v>
+        <v>15.999265516120051</v>
       </c>
       <c r="D4" s="4">
-        <v>2.6695402298817665</v>
-      </c>
-      <c r="E4" s="6">
-        <v>4.7477011494385364</v>
-      </c>
-      <c r="F4" s="6">
-        <v>4.7126436797731E-2</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0.33908045976353418</v>
-      </c>
-      <c r="H4" s="6">
-        <v>4.0956887492776026</v>
-      </c>
-      <c r="I4" s="8">
-        <v>2.6079869599545407</v>
-      </c>
-      <c r="J4" t="s">
+        <v>2.6825715720715078</v>
+      </c>
+      <c r="E4" s="4">
+        <v>4.9030637870556095</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.11602209946298676</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.36514314414301513</v>
+      </c>
+      <c r="H4" s="4">
+        <v>10.267686424978749</v>
+      </c>
+      <c r="I4" s="35">
+        <v>-1.9732654359398401</v>
+      </c>
+      <c r="J4" s="38">
+        <v>8.56548345731529</v>
+      </c>
+      <c r="K4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="15">
-        <v>62.284987277537624</v>
-      </c>
-      <c r="B5" s="15">
-        <v>27.533391153595524</v>
-      </c>
-      <c r="C5" s="15">
-        <v>10.083743842447257</v>
-      </c>
-      <c r="D5" s="15">
-        <v>1.9556650246287817</v>
-      </c>
-      <c r="E5" s="13">
-        <v>4.0443349753712177</v>
-      </c>
-      <c r="F5" s="13">
-        <v>8.8669950742436512E-2</v>
-      </c>
-      <c r="G5" s="13">
-        <v>4.4334975371218256E-2</v>
-      </c>
-      <c r="H5" s="13">
-        <v>20.665024630568272</v>
-      </c>
-      <c r="I5" s="14">
+    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7">
+        <v>64.83760058535708</v>
+      </c>
+      <c r="B5" s="7">
+        <v>27.720238095311696</v>
+      </c>
+      <c r="C5" s="7">
+        <v>13.932038835132207</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1.8737864077631445</v>
+      </c>
+      <c r="E5" s="7">
+        <v>4.1262135922368559</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.25242718447371104</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.12621359223685552</v>
+      </c>
+      <c r="H5" s="7">
+        <v>21.893203883552836</v>
+      </c>
+      <c r="I5" s="33">
         <v>0</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="39">
+        <v>9.1905548635102754</v>
+      </c>
+      <c r="K5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
-        <v>61.846913580233625</v>
-      </c>
-      <c r="B6" s="10">
-        <v>28.182495344071189</v>
-      </c>
-      <c r="C6" s="10">
-        <v>17.971022128359323</v>
-      </c>
-      <c r="D6" s="10">
-        <v>1.9487908961848404</v>
-      </c>
-      <c r="E6" s="11">
-        <v>4.8544627629115054</v>
-      </c>
-      <c r="F6" s="11">
-        <v>0.45735174652568666</v>
-      </c>
-      <c r="G6" s="11">
-        <v>5.1165434932196026E-3</v>
-      </c>
-      <c r="H6" s="11">
-        <v>9.3878656561053688</v>
-      </c>
-      <c r="I6" s="12">
-        <v>0.59567901232381693</v>
-      </c>
-      <c r="J6" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>61.206572769958299</v>
+      </c>
+      <c r="B6" s="6">
+        <v>27.874999999575245</v>
+      </c>
+      <c r="C6" s="6">
+        <v>17.148217635831127</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1.8750000000237166</v>
+      </c>
+      <c r="E6" s="6">
+        <v>4.6791666666433658</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.44034090907111062</v>
+      </c>
+      <c r="G6" s="6">
+        <v>4.1666666691310764E-3</v>
+      </c>
+      <c r="H6" s="6">
+        <v>10.646718147284078</v>
+      </c>
+      <c r="I6" s="34">
+        <v>-1.2323943661549583</v>
+      </c>
+      <c r="J6" s="40">
+        <v>8.1923127364554187</v>
+      </c>
+      <c r="K6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
-        <v>61.907407408532578</v>
+        <v>71.078054299499044</v>
       </c>
       <c r="B7" s="4">
-        <v>43.840694006218591</v>
+        <v>44.941873804913165</v>
       </c>
       <c r="C7" s="4">
-        <v>14.017875920258598</v>
+        <v>16.081835564204518</v>
       </c>
       <c r="D7" s="4">
-        <v>2.6695402298817665</v>
-      </c>
-      <c r="E7" s="6">
-        <v>4.7477011494385364</v>
-      </c>
-      <c r="F7" s="6">
-        <v>4.7126436797731E-2</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0.33908045976353418</v>
-      </c>
-      <c r="H7" s="6">
-        <v>4.0956887492776026</v>
-      </c>
-      <c r="I7" s="8">
-        <v>2.7160493825916778</v>
-      </c>
-      <c r="J7" t="s">
+        <v>2.6825715720715078</v>
+      </c>
+      <c r="E7" s="4">
+        <v>4.9030637870556095</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.11602209946298676</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.36514314414301513</v>
+      </c>
+      <c r="H7" s="4">
+        <v>10.267686424978749</v>
+      </c>
+      <c r="I7" s="35">
+        <v>-1.9306184011119618</v>
+      </c>
+      <c r="J7" s="38">
+        <v>8.6436654384885632</v>
+      </c>
+      <c r="K7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="15">
-        <v>57.032301480932382</v>
-      </c>
-      <c r="B8" s="15">
-        <v>26.022068965735926</v>
-      </c>
-      <c r="C8" s="15">
-        <v>9.953895071477918</v>
-      </c>
-      <c r="D8" s="15">
-        <v>1.9252782193603917</v>
-      </c>
-      <c r="E8" s="13">
-        <v>3.9793322733793834</v>
-      </c>
-      <c r="F8" s="13">
-        <v>8.5850556439066722E-2</v>
-      </c>
-      <c r="G8" s="13">
-        <v>4.2925278219533361E-2</v>
-      </c>
-      <c r="H8" s="13">
-        <v>20.643879173292998</v>
-      </c>
-      <c r="I8" s="14">
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7">
+        <v>62.012711864568622</v>
+      </c>
+      <c r="B8" s="7">
+        <v>26.663793103605439</v>
+      </c>
+      <c r="C8" s="7">
+        <v>13.780952380911982</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1.8571428571151023</v>
+      </c>
+      <c r="E8" s="7">
+        <v>4.0857142856597006</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.24761904761966441</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.12380952380983221</v>
+      </c>
+      <c r="H8" s="7">
+        <v>21.857142857147483</v>
+      </c>
+      <c r="I8" s="33">
         <v>0</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="39">
+        <v>9.0144650371501509</v>
+      </c>
+      <c r="K8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
-        <v>65.307242135814263</v>
-      </c>
-      <c r="B9" s="10">
-        <v>27.350402340220292</v>
-      </c>
-      <c r="C9" s="10">
-        <v>9.9156626506740295</v>
-      </c>
-      <c r="D9" s="10">
-        <v>1.9638888888906991</v>
-      </c>
-      <c r="E9" s="11">
-        <v>4.0027777777769122</v>
-      </c>
-      <c r="F9" s="11">
-        <v>7.3611111107057869E-2</v>
-      </c>
-      <c r="G9" s="11">
-        <v>3.7499999997756939E-2</v>
-      </c>
-      <c r="H9" s="11">
-        <v>20.148698884742856</v>
-      </c>
-      <c r="I9" s="12">
-        <v>0.59253840522170342</v>
-      </c>
-      <c r="J9" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>65.552272727047139</v>
+      </c>
+      <c r="B9" s="6">
+        <v>27.8931818175983</v>
+      </c>
+      <c r="C9" s="6">
+        <v>12.389078498245752</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1.9063670412016498</v>
+      </c>
+      <c r="E9" s="6">
+        <v>4.0074906367018306</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.19101123594761604</v>
+      </c>
+      <c r="G9" s="6">
+        <v>9.7378277149265668E-2</v>
+      </c>
+      <c r="H9" s="6">
+        <v>20.377049180304841</v>
+      </c>
+      <c r="I9" s="34">
+        <v>-1.7727272726155787</v>
+      </c>
+      <c r="J9" s="40">
+        <v>8.4200499854247433</v>
+      </c>
+      <c r="K9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
-        <v>61.901532745652801</v>
+        <v>70.045996593410266</v>
       </c>
       <c r="B10" s="4">
-        <v>41.951230840598043</v>
+        <v>42.533219761436307</v>
       </c>
       <c r="C10" s="4">
-        <v>14.129600829618701</v>
+        <v>16.308201544832773</v>
       </c>
       <c r="D10" s="4">
-        <v>2.6440294284061556</v>
-      </c>
-      <c r="E10" s="6">
-        <v>4.720996038495997</v>
-      </c>
-      <c r="F10" s="6">
-        <v>6.1686474266209941E-2</v>
-      </c>
-      <c r="G10" s="6">
-        <v>0.33389926428320771</v>
-      </c>
-      <c r="H10" s="6">
-        <v>4.3882840856054193</v>
-      </c>
-      <c r="I10" s="8">
-        <v>2.4523920110639121</v>
-      </c>
-      <c r="J10" t="s">
+        <v>2.5990453460583964</v>
+      </c>
+      <c r="E10" s="4">
+        <v>4.8085918854536622</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.15990453462141957</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.34701670643833038</v>
+      </c>
+      <c r="H10" s="4">
+        <v>10.831187937231752</v>
+      </c>
+      <c r="I10" s="35">
+        <v>-1.7444633730136294</v>
+      </c>
+      <c r="J10" s="38">
+        <v>8.6875665339158683</v>
+      </c>
+      <c r="K10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
-        <v>58.3955130872856</v>
+        <v>58.325682113964035</v>
       </c>
       <c r="B11" s="5">
-        <v>28.057535422802395</v>
+        <v>28.076785714149612</v>
       </c>
       <c r="C11" s="5">
-        <v>18.464917284610266</v>
+        <v>18.471698113159892</v>
       </c>
       <c r="D11" s="5">
-        <v>1.9487179487072188</v>
-      </c>
-      <c r="E11" s="7">
-        <v>4.9232175502496478</v>
-      </c>
-      <c r="F11" s="7">
-        <v>0.48247978436137295</v>
-      </c>
-      <c r="G11" s="7">
-        <v>5.4844606976376603E-3</v>
-      </c>
-      <c r="H11" s="7">
-        <v>8.1535648994012515</v>
-      </c>
-      <c r="I11" s="9">
-        <v>0.46530951390191844</v>
-      </c>
-      <c r="J11" t="s">
+        <v>1.9503546099175344</v>
+      </c>
+      <c r="E11" s="5">
+        <v>4.9269521410316912</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.48327137545911608</v>
+      </c>
+      <c r="G11" s="5">
+        <v>5.0377833784536414E-3</v>
+      </c>
+      <c r="H11" s="5">
+        <v>8.16120906795636</v>
+      </c>
+      <c r="I11" s="36">
+        <v>-0.46773495017769656</v>
+      </c>
+      <c r="J11" s="41">
+        <v>8.2028396010964677</v>
+      </c>
+      <c r="K11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:A11">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:B11">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -13172,7 +13341,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B11">
+  <conditionalFormatting sqref="C3:C11">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -13184,7 +13353,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C11">
+  <conditionalFormatting sqref="D3:D11">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -13196,7 +13365,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D11">
+  <conditionalFormatting sqref="E3:E11">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -13208,7 +13377,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E11">
+  <conditionalFormatting sqref="F3:F11">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -13220,7 +13389,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F11">
+  <conditionalFormatting sqref="G3:G11">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -13232,7 +13401,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G11">
+  <conditionalFormatting sqref="H3:H11">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -13244,8 +13413,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H11">
+  <conditionalFormatting sqref="I3:I11">
     <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J11">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13253,18 +13434,6 @@
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I11">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -13276,290 +13445,290 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AJ47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView zoomScale="81" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:36" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16"/>
-      <c r="AE1" s="16"/>
-      <c r="AF1" s="16"/>
-      <c r="AG1" s="16"/>
-      <c r="AH1" s="16"/>
-      <c r="AI1" s="16"/>
-      <c r="AJ1" s="16"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="8"/>
+      <c r="AH1" s="8"/>
+      <c r="AI1" s="8"/>
+      <c r="AJ1" s="8"/>
     </row>
     <row r="2" spans="1:36" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="44" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="45"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="51"/>
     </row>
     <row r="3" spans="1:36" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="50" t="s">
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="48"/>
-      <c r="T3" s="49"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="52"/>
+      <c r="T3" s="53"/>
     </row>
     <row r="4" spans="1:36" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="I4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="28" t="s">
+      <c r="J4" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="33" t="s">
+      <c r="K4" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="27" t="s">
+      <c r="L4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="27" t="s">
+      <c r="M4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="27" t="s">
+      <c r="N4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="27" t="s">
+      <c r="O4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="27" t="s">
+      <c r="P4" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" s="27" t="s">
+      <c r="Q4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="R4" s="27" t="s">
+      <c r="R4" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="S4" s="27" t="s">
+      <c r="S4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="28" t="s">
+      <c r="T4" s="16" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A5" s="21">
-        <v>60.186752343893964</v>
-      </c>
-      <c r="B5" s="24">
-        <v>27.461025449565952</v>
-      </c>
-      <c r="C5" s="24">
-        <v>18.027869867987814</v>
-      </c>
-      <c r="D5" s="24">
-        <v>1.9356679238867223</v>
-      </c>
-      <c r="E5" s="24">
-        <v>4.8384174410112717</v>
-      </c>
-      <c r="F5" s="24">
-        <v>0.45369585726095119</v>
-      </c>
-      <c r="G5" s="24">
-        <v>5.0877827090776793E-3</v>
-      </c>
-      <c r="H5" s="24">
-        <v>9.4447366869477847</v>
-      </c>
-      <c r="I5" s="24">
-        <v>-0.47438702141018513</v>
-      </c>
-      <c r="J5" s="38">
-        <v>8.0435177685045591</v>
-      </c>
-      <c r="K5" s="34">
-        <v>58.351063829787236</v>
-      </c>
-      <c r="L5" s="24">
-        <v>24.9247311827957</v>
-      </c>
-      <c r="M5" s="24">
-        <v>17.369230769230768</v>
-      </c>
-      <c r="N5" s="24">
-        <v>2.03125</v>
-      </c>
-      <c r="O5" s="24">
-        <v>4.765625</v>
-      </c>
-      <c r="P5" s="24">
-        <v>0.375</v>
-      </c>
-      <c r="Q5" s="24">
-        <v>1.5625E-2</v>
-      </c>
-      <c r="R5" s="24">
-        <v>11.623376623376624</v>
-      </c>
-      <c r="S5" s="24">
-        <v>-0.31914893617021278</v>
-      </c>
-      <c r="T5" s="29">
-        <v>8.0704606729184576</v>
+      <c r="A5" s="9">
+        <v>59.608096004382389</v>
+      </c>
+      <c r="B5" s="12">
+        <v>27.175285015841915</v>
+      </c>
+      <c r="C5" s="12">
+        <v>17.187834307947604</v>
+      </c>
+      <c r="D5" s="12">
+        <v>1.8673245614165443</v>
+      </c>
+      <c r="E5" s="12">
+        <v>4.6680957299885169</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0.43786708373576555</v>
+      </c>
+      <c r="G5" s="12">
+        <v>4.1494490382422847E-3</v>
+      </c>
+      <c r="H5" s="12">
+        <v>10.682554476271754</v>
+      </c>
+      <c r="I5" s="12">
+        <v>-1.2414476840487441</v>
+      </c>
+      <c r="J5" s="26">
+        <v>8.1225660352555682</v>
+      </c>
+      <c r="K5" s="22">
+        <v>57.943396226415096</v>
+      </c>
+      <c r="L5" s="12">
+        <v>24.81904761904762</v>
+      </c>
+      <c r="M5" s="12">
+        <v>16.532467532467532</v>
+      </c>
+      <c r="N5" s="12">
+        <v>1.9512195121951219</v>
+      </c>
+      <c r="O5" s="12">
+        <v>4.5890410958904111</v>
+      </c>
+      <c r="P5" s="12">
+        <v>0.36842105263157893</v>
+      </c>
+      <c r="Q5" s="12">
+        <v>1.3698630136986301E-2</v>
+      </c>
+      <c r="R5" s="12">
+        <v>12.584269662921349</v>
+      </c>
+      <c r="S5" s="12">
+        <v>-1.1320754716981132</v>
+      </c>
+      <c r="T5" s="17">
+        <v>8.1140133834699721</v>
       </c>
       <c r="U5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A6" s="22">
-        <v>60.216999258043444</v>
-      </c>
-      <c r="B6" s="25">
-        <v>35.290124780639651</v>
-      </c>
-      <c r="C6" s="25">
-        <v>16.051296763937451</v>
-      </c>
-      <c r="D6" s="25">
-        <v>2.2960425907351851</v>
-      </c>
-      <c r="E6" s="25">
-        <v>4.7850366342747872</v>
-      </c>
-      <c r="F6" s="25">
-        <v>0.24858320239697332</v>
-      </c>
-      <c r="G6" s="25">
-        <v>0.17206974084423496</v>
-      </c>
-      <c r="H6" s="25">
-        <v>6.7986482335339007</v>
-      </c>
-      <c r="I6" s="25">
-        <v>-1.5345722065441156</v>
-      </c>
-      <c r="J6" s="39">
-        <v>7.3106101564545414</v>
-      </c>
-      <c r="K6" s="35">
+      <c r="A6" s="10">
+        <v>64.543836769152762</v>
+      </c>
+      <c r="B6" s="13">
+        <v>35.708721918510875</v>
+      </c>
+      <c r="C6" s="13">
+        <v>16.654643272134297</v>
+      </c>
+      <c r="D6" s="13">
+        <v>2.2711103474404402</v>
+      </c>
+      <c r="E6" s="13">
+        <v>4.7800442901946383</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0.27570767893170367</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0.1846376877751843</v>
+      </c>
+      <c r="H6" s="13">
+        <v>10.49303861511909</v>
+      </c>
+      <c r="I6" s="13">
+        <v>-1.5905597015272459</v>
+      </c>
+      <c r="J6" s="27">
+        <v>8.3482423862721404</v>
+      </c>
+      <c r="K6" s="23">
         <v>101.66666666666667</v>
       </c>
-      <c r="L6" s="25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M6" s="25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N6" s="25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O6" s="25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P6" s="25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="Q6" s="25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="R6" s="25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="S6" s="25">
+      <c r="L6" s="13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M6" s="13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N6" s="13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O6" s="13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P6" s="13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="Q6" s="13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="R6" s="13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="S6" s="13">
         <v>0</v>
       </c>
-      <c r="T6" s="30" t="e">
+      <c r="T6" s="18" t="e">
         <v>#NUM!</v>
       </c>
       <c r="U6" t="s">
@@ -13567,129 +13736,129 @@
       </c>
     </row>
     <row r="7" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="23">
-        <v>57.779446294243343</v>
-      </c>
-      <c r="B7" s="26">
-        <v>26.380812260398319</v>
-      </c>
-      <c r="C7" s="26">
-        <v>14.019306339547111</v>
-      </c>
-      <c r="D7" s="26">
-        <v>1.9239115854744977</v>
-      </c>
-      <c r="E7" s="26">
-        <v>4.4008521962452107</v>
-      </c>
-      <c r="F7" s="26">
-        <v>0.2679452622176412</v>
-      </c>
-      <c r="G7" s="26">
-        <v>2.3992150072234559E-2</v>
-      </c>
-      <c r="H7" s="26">
-        <v>15.072743445541597</v>
-      </c>
-      <c r="I7" s="26">
-        <v>-0.17654751524827667</v>
-      </c>
-      <c r="J7" s="40">
-        <v>7.801390868803006</v>
-      </c>
-      <c r="K7" s="42">
+      <c r="A7" s="11">
+        <v>60.011165551687547</v>
+      </c>
+      <c r="B7" s="14">
+        <v>26.569681567857014</v>
+      </c>
+      <c r="C7" s="14">
+        <v>15.50420168048803</v>
+      </c>
+      <c r="D7" s="14">
+        <v>1.8583959899622373</v>
+      </c>
+      <c r="E7" s="14">
+        <v>4.3713695394966843</v>
+      </c>
+      <c r="F7" s="14">
+        <v>0.3415061530100425</v>
+      </c>
+      <c r="G7" s="14">
+        <v>6.3970877608592852E-2</v>
+      </c>
+      <c r="H7" s="14">
+        <v>16.287766831203456</v>
+      </c>
+      <c r="I7" s="14">
+        <v>-0.62525050097126489</v>
+      </c>
+      <c r="J7" s="28">
+        <v>8.5336421856029325</v>
+      </c>
+      <c r="K7" s="30">
         <v>57.4</v>
       </c>
-      <c r="L7" s="26">
+      <c r="L7" s="14">
         <v>28</v>
       </c>
-      <c r="M7" s="26">
+      <c r="M7" s="14">
         <v>6</v>
       </c>
-      <c r="N7" s="26">
+      <c r="N7" s="14">
         <v>1</v>
       </c>
-      <c r="O7" s="26">
+      <c r="O7" s="14">
         <v>2</v>
       </c>
-      <c r="P7" s="26">
+      <c r="P7" s="14">
         <v>0</v>
       </c>
-      <c r="Q7" s="26">
+      <c r="Q7" s="14">
         <v>0</v>
       </c>
-      <c r="R7" s="26">
+      <c r="R7" s="14">
         <v>20</v>
       </c>
-      <c r="S7" s="26">
+      <c r="S7" s="14">
         <v>0</v>
       </c>
-      <c r="T7" s="43">
-        <v>6.5553577785688857</v>
+      <c r="T7" s="31">
+        <v>6.7629600000000005</v>
       </c>
       <c r="U7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A8" s="22">
-        <v>62.58869721426467</v>
-      </c>
-      <c r="B8" s="25">
-        <v>34.766840476465823</v>
-      </c>
-      <c r="C8" s="25">
-        <v>15.993951977866814</v>
-      </c>
-      <c r="D8" s="25">
-        <v>2.3091655630333037</v>
-      </c>
-      <c r="E8" s="25">
-        <v>4.8010819561750209</v>
-      </c>
-      <c r="F8" s="25">
-        <v>0.25223909166170883</v>
-      </c>
-      <c r="G8" s="25">
-        <v>0.17209850162837689</v>
-      </c>
-      <c r="H8" s="25">
-        <v>6.7417772026914857</v>
-      </c>
-      <c r="I8" s="25">
-        <v>-1.6018329861391787</v>
-      </c>
-      <c r="J8" s="39">
-        <v>7.3650223700201458</v>
-      </c>
-      <c r="K8" s="35">
+      <c r="A8" s="10">
+        <v>65.97311452019963</v>
+      </c>
+      <c r="B8" s="13">
+        <v>35.395075757242196</v>
+      </c>
+      <c r="C8" s="13">
+        <v>16.573741575975589</v>
+      </c>
+      <c r="D8" s="13">
+        <v>2.2787857860476119</v>
+      </c>
+      <c r="E8" s="13">
+        <v>4.7911152268494881</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0.27818150426704868</v>
+      </c>
+      <c r="G8" s="13">
+        <v>0.1846549054060731</v>
+      </c>
+      <c r="H8" s="13">
+        <v>10.457202286131412</v>
+      </c>
+      <c r="I8" s="13">
+        <v>-1.6028299010473992</v>
+      </c>
+      <c r="J8" s="27">
+        <v>8.3788980968853526</v>
+      </c>
+      <c r="K8" s="23">
         <v>70.333333333333329</v>
       </c>
-      <c r="L8" s="25">
+      <c r="L8" s="13">
         <v>31</v>
       </c>
-      <c r="M8" s="25">
+      <c r="M8" s="13">
         <v>14</v>
       </c>
-      <c r="N8" s="25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O8" s="25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P8" s="25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="Q8" s="25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="R8" s="25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="S8" s="25">
+      <c r="N8" s="13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O8" s="13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P8" s="13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="Q8" s="13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="R8" s="13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="S8" s="13">
         <v>-1.6666666666666667</v>
       </c>
-      <c r="T8" s="30" t="e">
+      <c r="T8" s="18" t="e">
         <v>#NUM!</v>
       </c>
       <c r="U8" t="s">
@@ -13697,129 +13866,129 @@
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A9" s="22">
-        <v>62.618944128414142</v>
-      </c>
-      <c r="B9" s="25">
-        <v>42.595939807539523</v>
-      </c>
-      <c r="C9" s="25">
-        <v>14.017378873816451</v>
-      </c>
-      <c r="D9" s="25">
-        <v>2.6695402298817665</v>
-      </c>
-      <c r="E9" s="25">
-        <v>4.7477011494385364</v>
-      </c>
-      <c r="F9" s="25">
-        <v>4.7126436797731E-2</v>
-      </c>
-      <c r="G9" s="25">
-        <v>0.33908045976353418</v>
-      </c>
-      <c r="H9" s="25">
-        <v>4.0956887492776026</v>
-      </c>
-      <c r="I9" s="25">
-        <v>-2.6620181712731092</v>
-      </c>
-      <c r="J9" s="39">
-        <v>6.6321147579701325</v>
-      </c>
-      <c r="K9" s="35">
-        <v>64.57352941176471</v>
-      </c>
-      <c r="L9" s="25">
-        <v>43.462686567164177</v>
-      </c>
-      <c r="M9" s="25">
-        <v>14.746268656716419</v>
-      </c>
-      <c r="N9" s="25">
-        <v>2.6557377049180326</v>
-      </c>
-      <c r="O9" s="25">
-        <v>4.8032786885245899</v>
-      </c>
-      <c r="P9" s="25">
-        <v>0.11475409836065574</v>
-      </c>
-      <c r="Q9" s="25">
-        <v>0.31147540983606559</v>
-      </c>
-      <c r="R9" s="25">
-        <v>6.5671641791044779</v>
-      </c>
-      <c r="S9" s="25">
-        <v>-2.3529411764705883</v>
-      </c>
-      <c r="T9" s="30">
-        <v>7.2287486222469806</v>
+      <c r="A9" s="10">
+        <v>70.908855284970002</v>
+      </c>
+      <c r="B9" s="13">
+        <v>43.928512659911163</v>
+      </c>
+      <c r="C9" s="13">
+        <v>16.040550540162286</v>
+      </c>
+      <c r="D9" s="13">
+        <v>2.6825715720715078</v>
+      </c>
+      <c r="E9" s="13">
+        <v>4.9030637870556095</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0.11602209946298676</v>
+      </c>
+      <c r="G9" s="13">
+        <v>0.36514314414301513</v>
+      </c>
+      <c r="H9" s="13">
+        <v>10.267686424978749</v>
+      </c>
+      <c r="I9" s="13">
+        <v>-1.9519419185259008</v>
+      </c>
+      <c r="J9" s="27">
+        <v>8.6045744479019284</v>
+      </c>
+      <c r="K9" s="23">
+        <v>73.428571428571431</v>
+      </c>
+      <c r="L9" s="13">
+        <v>44.711340206185568</v>
+      </c>
+      <c r="M9" s="13">
+        <v>16.680412371134022</v>
+      </c>
+      <c r="N9" s="13">
+        <v>2.6712328767123288</v>
+      </c>
+      <c r="O9" s="13">
+        <v>4.9589041095890414</v>
+      </c>
+      <c r="P9" s="13">
+        <v>0.17808219178082191</v>
+      </c>
+      <c r="Q9" s="13">
+        <v>0.34246575342465752</v>
+      </c>
+      <c r="R9" s="13">
+        <v>12.268041237113403</v>
+      </c>
+      <c r="S9" s="13">
+        <v>-1.6326530612244898</v>
+      </c>
+      <c r="T9" s="18">
+        <v>9.1558943283117511</v>
       </c>
       <c r="U9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="22">
-        <v>60.181391164614048</v>
-      </c>
-      <c r="B10" s="25">
-        <v>33.686627287298194</v>
-      </c>
-      <c r="C10" s="25">
-        <v>11.985388449426111</v>
-      </c>
-      <c r="D10" s="25">
-        <v>2.2974092246210791</v>
-      </c>
-      <c r="E10" s="25">
-        <v>4.3635167114089599</v>
-      </c>
-      <c r="F10" s="25">
-        <v>6.6488496618398868E-2</v>
-      </c>
-      <c r="G10" s="25">
-        <v>0.19100286899153376</v>
-      </c>
-      <c r="H10" s="25">
-        <v>12.3697839612853</v>
-      </c>
-      <c r="I10" s="25">
-        <v>-1.3039934799772703</v>
-      </c>
-      <c r="J10" s="39">
-        <v>7.1228954703185954</v>
-      </c>
-      <c r="K10" s="35" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="L10" s="25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M10" s="25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N10" s="25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O10" s="25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P10" s="25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="Q10" s="25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="R10" s="25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="S10" s="25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="T10" s="30" t="e">
+      <c r="A10" s="10">
+        <v>66.376184067504795</v>
+      </c>
+      <c r="B10" s="13">
+        <v>34.789472309257299</v>
+      </c>
+      <c r="C10" s="13">
+        <v>14.890108948516016</v>
+      </c>
+      <c r="D10" s="13">
+        <v>2.2698572145933049</v>
+      </c>
+      <c r="E10" s="13">
+        <v>4.4943890363576546</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0.18182057354132558</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0.24447633397642365</v>
+      </c>
+      <c r="H10" s="13">
+        <v>16.062414641063114</v>
+      </c>
+      <c r="I10" s="13">
+        <v>-0.98663271796992003</v>
+      </c>
+      <c r="J10" s="27">
+        <v>8.7899742472327187</v>
+      </c>
+      <c r="K10" s="23" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L10" s="13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M10" s="13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N10" s="13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O10" s="13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P10" s="13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="Q10" s="13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="R10" s="13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="S10" s="13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="T10" s="18" t="e">
         <v>#NUM!</v>
       </c>
       <c r="U10" t="s">
@@ -13827,64 +13996,64 @@
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A11" s="21">
-        <v>62.065950428885628</v>
-      </c>
-      <c r="B11" s="24">
-        <v>27.857943248833358</v>
-      </c>
-      <c r="C11" s="24">
-        <v>14.027382985403289</v>
-      </c>
-      <c r="D11" s="24">
-        <v>1.9522279604068111</v>
-      </c>
-      <c r="E11" s="24">
-        <v>4.449398869141362</v>
-      </c>
-      <c r="F11" s="24">
-        <v>0.27301084863406161</v>
-      </c>
-      <c r="G11" s="24">
-        <v>2.4725759432218931E-2</v>
-      </c>
-      <c r="H11" s="24">
-        <v>15.02644514333682</v>
-      </c>
-      <c r="I11" s="24">
-        <v>-0.29783950616190846</v>
-      </c>
-      <c r="J11" s="38">
-        <v>7.9774935018856974</v>
-      </c>
-      <c r="K11" s="34">
+      <c r="A11" s="9">
+        <v>63.02208667765769</v>
+      </c>
+      <c r="B11" s="12">
+        <v>27.797619047443469</v>
+      </c>
+      <c r="C11" s="12">
+        <v>15.540128235481667</v>
+      </c>
+      <c r="D11" s="12">
+        <v>1.8743932038934306</v>
+      </c>
+      <c r="E11" s="12">
+        <v>4.4026901294401108</v>
+      </c>
+      <c r="F11" s="12">
+        <v>0.34638404677241086</v>
+      </c>
+      <c r="G11" s="12">
+        <v>6.5190129452993295E-2</v>
+      </c>
+      <c r="H11" s="12">
+        <v>16.269961015418456</v>
+      </c>
+      <c r="I11" s="12">
+        <v>-0.61619718307747917</v>
+      </c>
+      <c r="J11" s="26">
+        <v>8.6914337999828462</v>
+      </c>
+      <c r="K11" s="22">
         <v>68.82352941176471</v>
       </c>
-      <c r="L11" s="24">
+      <c r="L11" s="12">
         <v>30</v>
       </c>
-      <c r="M11" s="24" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N11" s="24" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O11" s="24" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P11" s="24" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="Q11" s="24" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="R11" s="24" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="S11" s="24">
+      <c r="M11" s="12" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N11" s="12" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O11" s="12" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P11" s="12" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="Q11" s="12" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="R11" s="12" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="S11" s="12">
         <v>0</v>
       </c>
-      <c r="T11" s="29" t="e">
+      <c r="T11" s="17" t="e">
         <v>#NUM!</v>
       </c>
       <c r="U11" t="s">
@@ -13892,64 +14061,64 @@
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A12" s="22">
-        <v>62.096197343035101</v>
-      </c>
-      <c r="B12" s="25">
-        <v>35.687042579907057</v>
-      </c>
-      <c r="C12" s="25">
-        <v>12.050809881352928</v>
-      </c>
-      <c r="D12" s="25">
-        <v>2.312602627255274</v>
-      </c>
-      <c r="E12" s="25">
-        <v>4.3960180624048775</v>
-      </c>
-      <c r="F12" s="25">
-        <v>6.7898193770083756E-2</v>
-      </c>
-      <c r="G12" s="25">
-        <v>0.19170771756737623</v>
-      </c>
-      <c r="H12" s="25">
-        <v>12.380356689922937</v>
-      </c>
-      <c r="I12" s="25">
-        <v>-1.3580246912958389</v>
-      </c>
-      <c r="J12" s="39">
-        <v>7.2445858898356832</v>
-      </c>
-      <c r="K12" s="35">
+      <c r="A12" s="10">
+        <v>67.957827442428055</v>
+      </c>
+      <c r="B12" s="13">
+        <v>36.331055950112429</v>
+      </c>
+      <c r="C12" s="13">
+        <v>15.006937199668362</v>
+      </c>
+      <c r="D12" s="13">
+        <v>2.2781789899173264</v>
+      </c>
+      <c r="E12" s="13">
+        <v>4.5146386896462332</v>
+      </c>
+      <c r="F12" s="13">
+        <v>0.1842246419683489</v>
+      </c>
+      <c r="G12" s="13">
+        <v>0.24567836818993533</v>
+      </c>
+      <c r="H12" s="13">
+        <v>16.080445154265792</v>
+      </c>
+      <c r="I12" s="13">
+        <v>-0.96530920055598091</v>
+      </c>
+      <c r="J12" s="27">
+        <v>8.9171101509994202</v>
+      </c>
+      <c r="K12" s="23">
         <v>83</v>
       </c>
-      <c r="L12" s="25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M12" s="25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N12" s="25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O12" s="25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P12" s="25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="Q12" s="25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="R12" s="25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="S12" s="25">
+      <c r="L12" s="13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M12" s="13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N12" s="13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O12" s="13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P12" s="13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="Q12" s="13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="R12" s="13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="S12" s="13">
         <v>0</v>
       </c>
-      <c r="T12" s="30" t="e">
+      <c r="T12" s="18" t="e">
         <v>#NUM!</v>
       </c>
       <c r="U12" t="s">
@@ -13957,282 +14126,282 @@
       </c>
     </row>
     <row r="13" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="31">
-        <v>59.658644379235</v>
-      </c>
-      <c r="B13" s="37">
-        <v>26.777730059665725</v>
-      </c>
-      <c r="C13" s="37">
-        <v>10.018819456962587</v>
-      </c>
-      <c r="D13" s="37">
-        <v>1.9404716219945866</v>
-      </c>
-      <c r="E13" s="37">
-        <v>4.011833624375301</v>
-      </c>
-      <c r="F13" s="37">
-        <v>8.7260253590751624E-2</v>
-      </c>
-      <c r="G13" s="37">
-        <v>4.3630126795375812E-2</v>
-      </c>
-      <c r="H13" s="37">
-        <v>20.654451901930635</v>
-      </c>
-      <c r="I13" s="37">
+      <c r="A13" s="19">
+        <v>63.425156224962848</v>
+      </c>
+      <c r="B13" s="25">
+        <v>27.192015599458568</v>
+      </c>
+      <c r="C13" s="25">
+        <v>13.856495608022094</v>
+      </c>
+      <c r="D13" s="25">
+        <v>1.8654646324391235</v>
+      </c>
+      <c r="E13" s="25">
+        <v>4.1059639389482783</v>
+      </c>
+      <c r="F13" s="25">
+        <v>0.2500231160466877</v>
+      </c>
+      <c r="G13" s="25">
+        <v>0.12501155802334385</v>
+      </c>
+      <c r="H13" s="25">
+        <v>21.875173370350161</v>
+      </c>
+      <c r="I13" s="25">
         <v>0</v>
       </c>
-      <c r="J13" s="41">
-        <v>7.735366602184147</v>
-      </c>
-      <c r="K13" s="36">
-        <v>58.714285714285715</v>
-      </c>
-      <c r="L13" s="37">
-        <v>26.592592592592592</v>
-      </c>
-      <c r="M13" s="37">
-        <v>10.473684210526315</v>
-      </c>
-      <c r="N13" s="37">
-        <v>1.9473684210526316</v>
-      </c>
-      <c r="O13" s="37">
-        <v>4.0526315789473681</v>
-      </c>
-      <c r="P13" s="37">
-        <v>0.10526315789473684</v>
-      </c>
-      <c r="Q13" s="37">
-        <v>5.2631578947368418E-2</v>
-      </c>
-      <c r="R13" s="37">
-        <v>20.789473684210527</v>
-      </c>
-      <c r="S13" s="37">
+      <c r="J13" s="29">
+        <v>9.102509950330214</v>
+      </c>
+      <c r="K13" s="24">
+        <v>63.243243243243242</v>
+      </c>
+      <c r="L13" s="25">
+        <v>27.111111111111111</v>
+      </c>
+      <c r="M13" s="25">
+        <v>14.714285714285714</v>
+      </c>
+      <c r="N13" s="25">
+        <v>1.8571428571428572</v>
+      </c>
+      <c r="O13" s="25">
+        <v>4.1428571428571432</v>
+      </c>
+      <c r="P13" s="25">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="Q13" s="25">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="R13" s="25">
+        <v>22.142857142857142</v>
+      </c>
+      <c r="S13" s="25">
         <v>0</v>
       </c>
-      <c r="T13" s="32">
-        <v>7.807650529353328</v>
+      <c r="T13" s="20">
+        <v>9.3098429000429004</v>
       </c>
       <c r="U13" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:36" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="50" t="s">
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="48"/>
-      <c r="T14" s="49"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="52"/>
+      <c r="T14" s="53"/>
     </row>
     <row r="15" spans="1:36" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="F15" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="27" t="s">
+      <c r="G15" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="27" t="s">
+      <c r="H15" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="27" t="s">
+      <c r="I15" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="28" t="s">
+      <c r="J15" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="K15" s="33" t="s">
+      <c r="K15" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="L15" s="27" t="s">
+      <c r="L15" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="M15" s="27" t="s">
+      <c r="M15" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="N15" s="27" t="s">
+      <c r="N15" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="O15" s="27" t="s">
+      <c r="O15" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="P15" s="27" t="s">
+      <c r="P15" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="Q15" s="27" t="s">
+      <c r="Q15" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="R15" s="27" t="s">
+      <c r="R15" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="S15" s="27" t="s">
+      <c r="S15" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="T15" s="28" t="s">
+      <c r="T15" s="16" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A16" s="21">
-        <v>61.210850302278025</v>
-      </c>
-      <c r="B16" s="21">
-        <v>27.43890082769682</v>
-      </c>
-      <c r="C16" s="21">
-        <v>16.405428424525059</v>
-      </c>
-      <c r="D16" s="21">
-        <v>1.9413121168875176</v>
-      </c>
-      <c r="E16" s="21">
-        <v>4.6712895083644002</v>
-      </c>
-      <c r="F16" s="21">
-        <v>0.37767890803017251</v>
-      </c>
-      <c r="G16" s="21">
-        <v>1.1570226166813531E-2</v>
-      </c>
-      <c r="H16" s="21">
-        <v>11.585529126506799</v>
-      </c>
-      <c r="I16" s="21">
-        <v>-0.49801729817248874</v>
-      </c>
-      <c r="J16" s="29">
-        <v>4.8223209810078815</v>
-      </c>
-      <c r="K16" s="34">
-        <v>67.638888888888886</v>
-      </c>
-      <c r="L16" s="21">
-        <v>23.333333333333332</v>
-      </c>
-      <c r="M16" s="21">
+      <c r="A16" s="9">
+        <v>60.796931348915336</v>
+      </c>
+      <c r="B16" s="9">
+        <v>27.318864376193194</v>
+      </c>
+      <c r="C16" s="9">
+        <v>16.228083146007233</v>
+      </c>
+      <c r="D16" s="9">
+        <v>1.8751330573735654</v>
+      </c>
+      <c r="E16" s="9">
+        <v>4.5359747113311801</v>
+      </c>
+      <c r="F16" s="9">
+        <v>0.38849591417813567</v>
+      </c>
+      <c r="G16" s="9">
+        <v>2.2795214660446962E-2</v>
+      </c>
+      <c r="H16" s="9">
+        <v>12.621453417078371</v>
+      </c>
+      <c r="I16" s="9">
+        <v>-1.3477036017621109</v>
+      </c>
+      <c r="J16" s="17">
+        <v>1.2366442785981511</v>
+      </c>
+      <c r="K16" s="22">
+        <v>64.416666666666671</v>
+      </c>
+      <c r="L16" s="9">
+        <v>23.5</v>
+      </c>
+      <c r="M16" s="9">
         <v>12</v>
       </c>
-      <c r="N16" s="21">
-        <v>2.2727272727272729</v>
-      </c>
-      <c r="O16" s="21">
-        <v>4.5454545454545459</v>
-      </c>
-      <c r="P16" s="21">
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="Q16" s="21">
+      <c r="N16" s="9">
+        <v>2</v>
+      </c>
+      <c r="O16" s="9">
+        <v>4</v>
+      </c>
+      <c r="P16" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="Q16" s="9">
         <v>0</v>
       </c>
-      <c r="R16" s="21">
-        <v>19.791666666666668</v>
-      </c>
-      <c r="S16" s="21">
-        <v>-0.83333333333333337</v>
-      </c>
-      <c r="T16" s="29">
-        <v>5.0453403741940575</v>
+      <c r="R16" s="9">
+        <v>19.444444444444443</v>
+      </c>
+      <c r="S16" s="9">
+        <v>-2.5</v>
+      </c>
+      <c r="T16" s="17">
+        <v>1.2429172222222222</v>
       </c>
       <c r="U16" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A17" s="22">
-        <v>61.235047833597605</v>
-      </c>
-      <c r="B17" s="22">
-        <v>33.702180292555781</v>
-      </c>
-      <c r="C17" s="22">
-        <v>14.824169941284765</v>
-      </c>
-      <c r="D17" s="22">
-        <v>2.2296118503662878</v>
-      </c>
-      <c r="E17" s="22">
-        <v>4.6285848629752122</v>
-      </c>
-      <c r="F17" s="22">
-        <v>0.21358878413899021</v>
-      </c>
-      <c r="G17" s="22">
-        <v>0.14515579267493933</v>
-      </c>
-      <c r="H17" s="22">
-        <v>9.4686583637756918</v>
-      </c>
-      <c r="I17" s="22">
-        <v>-1.3461654462796333</v>
-      </c>
-      <c r="J17" s="30">
-        <v>4.8989289961765259</v>
-      </c>
-      <c r="K17" s="35" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="L17" s="22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M17" s="22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N17" s="22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O17" s="22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P17" s="22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="Q17" s="22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="R17" s="22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="S17" s="22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="T17" s="30" t="e">
+      <c r="A17" s="10">
+        <v>64.745523960731632</v>
+      </c>
+      <c r="B17" s="10">
+        <v>34.145613898328364</v>
+      </c>
+      <c r="C17" s="10">
+        <v>15.801530317356589</v>
+      </c>
+      <c r="D17" s="10">
+        <v>2.198161686192682</v>
+      </c>
+      <c r="E17" s="10">
+        <v>4.6255335594960769</v>
+      </c>
+      <c r="F17" s="10">
+        <v>0.25876839033488619</v>
+      </c>
+      <c r="G17" s="10">
+        <v>0.16718580565000057</v>
+      </c>
+      <c r="H17" s="10">
+        <v>12.469840728156239</v>
+      </c>
+      <c r="I17" s="10">
+        <v>-1.6269932157449127</v>
+      </c>
+      <c r="J17" s="18">
+        <v>1.3411301678180658</v>
+      </c>
+      <c r="K17" s="23" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L17" s="10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M17" s="10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N17" s="10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O17" s="10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P17" s="10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="Q17" s="10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="R17" s="10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="S17" s="10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="T17" s="18" t="e">
         <v>#NUM!</v>
       </c>
       <c r="U17" t="s">
@@ -14240,129 +14409,129 @@
       </c>
     </row>
     <row r="18" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="22">
-        <v>59.285005462557521</v>
-      </c>
-      <c r="B18" s="22">
-        <v>26.574730276362715</v>
-      </c>
-      <c r="C18" s="22">
-        <v>13.198577601772495</v>
-      </c>
-      <c r="D18" s="22">
-        <v>1.9319070461577379</v>
-      </c>
-      <c r="E18" s="22">
-        <v>4.3212373125515509</v>
-      </c>
-      <c r="F18" s="22">
-        <v>0.22907843199552452</v>
-      </c>
-      <c r="G18" s="22">
-        <v>2.6693720057339033E-2</v>
-      </c>
-      <c r="H18" s="22">
-        <v>16.087934533381848</v>
-      </c>
-      <c r="I18" s="22">
-        <v>-0.25974569324296198</v>
-      </c>
-      <c r="J18" s="30">
-        <v>4.7538255806604894</v>
-      </c>
-      <c r="K18" s="35">
+      <c r="A18" s="10">
+        <v>61.119386986759466</v>
+      </c>
+      <c r="B18" s="10">
+        <v>26.834381617805271</v>
+      </c>
+      <c r="C18" s="10">
+        <v>14.881177044039575</v>
+      </c>
+      <c r="D18" s="10">
+        <v>1.8679902002101199</v>
+      </c>
+      <c r="E18" s="10">
+        <v>4.2985937589377139</v>
+      </c>
+      <c r="F18" s="10">
+        <v>0.31140716959755721</v>
+      </c>
+      <c r="G18" s="10">
+        <v>7.065235751672741E-2</v>
+      </c>
+      <c r="H18" s="10">
+        <v>17.105623301023734</v>
+      </c>
+      <c r="I18" s="10">
+        <v>-0.8547458553001277</v>
+      </c>
+      <c r="J18" s="18">
+        <v>1.2689081124639592</v>
+      </c>
+      <c r="K18" s="23">
         <v>54</v>
       </c>
-      <c r="L18" s="22">
+      <c r="L18" s="10">
         <v>28</v>
       </c>
-      <c r="M18" s="22">
+      <c r="M18" s="10">
         <v>6</v>
       </c>
-      <c r="N18" s="22">
+      <c r="N18" s="10">
         <v>1</v>
       </c>
-      <c r="O18" s="22">
+      <c r="O18" s="10">
         <v>2</v>
       </c>
-      <c r="P18" s="22">
+      <c r="P18" s="10">
         <v>0</v>
       </c>
-      <c r="Q18" s="22">
+      <c r="Q18" s="10">
         <v>0</v>
       </c>
-      <c r="R18" s="22">
+      <c r="R18" s="10">
         <v>20</v>
       </c>
-      <c r="S18" s="22">
+      <c r="S18" s="10">
         <v>0</v>
       </c>
-      <c r="T18" s="30">
-        <v>4.3467426130295479</v>
+      <c r="T18" s="18">
+        <v>1.1211</v>
       </c>
       <c r="U18" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A19" s="21">
-        <v>63.132406198574586</v>
-      </c>
-      <c r="B19" s="21">
-        <v>33.283552849216719</v>
-      </c>
-      <c r="C19" s="21">
-        <v>14.778294112428256</v>
-      </c>
-      <c r="D19" s="21">
-        <v>2.2401102282047827</v>
-      </c>
-      <c r="E19" s="21">
-        <v>4.6414211204953997</v>
-      </c>
-      <c r="F19" s="21">
-        <v>0.21651349555077865</v>
-      </c>
-      <c r="G19" s="21">
-        <v>0.14517880130225289</v>
-      </c>
-      <c r="H19" s="21">
-        <v>9.4231615391017591</v>
-      </c>
-      <c r="I19" s="21">
-        <v>-1.3999740699556837</v>
-      </c>
-      <c r="J19" s="29">
-        <v>4.9521798042866054</v>
-      </c>
-      <c r="K19" s="34" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="L19" s="21" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M19" s="21" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N19" s="21" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O19" s="21" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P19" s="21" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="Q19" s="21" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="R19" s="21" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="S19" s="21" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="T19" s="29" t="e">
+      <c r="A19" s="9">
+        <v>65.888946161569123</v>
+      </c>
+      <c r="B19" s="9">
+        <v>33.894696969313415</v>
+      </c>
+      <c r="C19" s="9">
+        <v>15.736808960429622</v>
+      </c>
+      <c r="D19" s="9">
+        <v>2.2043020370784197</v>
+      </c>
+      <c r="E19" s="9">
+        <v>4.6343903088199569</v>
+      </c>
+      <c r="F19" s="9">
+        <v>0.26074745060316218</v>
+      </c>
+      <c r="G19" s="9">
+        <v>0.16719957975471161</v>
+      </c>
+      <c r="H19" s="9">
+        <v>12.441171664966097</v>
+      </c>
+      <c r="I19" s="9">
+        <v>-1.6368093753610353</v>
+      </c>
+      <c r="J19" s="17">
+        <v>1.3492736829474523</v>
+      </c>
+      <c r="K19" s="22" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L19" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M19" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N19" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O19" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P19" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="Q19" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="R19" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="S19" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="T19" s="17" t="e">
         <v>#NUM!</v>
       </c>
       <c r="U19" t="s">
@@ -14370,64 +14539,64 @@
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A20" s="22">
-        <v>63.156603729894165</v>
-      </c>
-      <c r="B20" s="22">
-        <v>39.546832314075672</v>
-      </c>
-      <c r="C20" s="22">
-        <v>13.197035629187969</v>
-      </c>
-      <c r="D20" s="22">
-        <v>2.5284099616835531</v>
-      </c>
-      <c r="E20" s="22">
-        <v>4.5987164751062117</v>
-      </c>
-      <c r="F20" s="22">
-        <v>5.2423371659596374E-2</v>
-      </c>
-      <c r="G20" s="22">
-        <v>0.27876436781037872</v>
-      </c>
-      <c r="H20" s="22">
-        <v>7.3062907763706537</v>
-      </c>
-      <c r="I20" s="22">
-        <v>-2.2481222180628277</v>
-      </c>
-      <c r="J20" s="30">
-        <v>5.028787819455248</v>
-      </c>
-      <c r="K20" s="35" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="L20" s="22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M20" s="22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N20" s="22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O20" s="22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P20" s="22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="Q20" s="22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="R20" s="22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="S20" s="22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="T20" s="30" t="e">
+      <c r="A20" s="10">
+        <v>69.837538773385432</v>
+      </c>
+      <c r="B20" s="10">
+        <v>40.721446491448589</v>
+      </c>
+      <c r="C20" s="10">
+        <v>15.31025613177898</v>
+      </c>
+      <c r="D20" s="10">
+        <v>2.5273306658975363</v>
+      </c>
+      <c r="E20" s="10">
+        <v>4.7239491569848537</v>
+      </c>
+      <c r="F20" s="10">
+        <v>0.13101992675991264</v>
+      </c>
+      <c r="G20" s="10">
+        <v>0.31159017074426526</v>
+      </c>
+      <c r="H20" s="10">
+        <v>12.289558976043967</v>
+      </c>
+      <c r="I20" s="10">
+        <v>-1.9160989893438363</v>
+      </c>
+      <c r="J20" s="18">
+        <v>1.4537595721673668</v>
+      </c>
+      <c r="K20" s="23" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L20" s="10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M20" s="10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N20" s="10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O20" s="10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P20" s="10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="Q20" s="10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="R20" s="10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="S20" s="10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="T20" s="18" t="e">
         <v>#NUM!</v>
       </c>
       <c r="U20" t="s">
@@ -14435,64 +14604,64 @@
       </c>
     </row>
     <row r="21" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="22">
-        <v>61.206561358854096</v>
-      </c>
-      <c r="B21" s="22">
-        <v>32.419382297882613</v>
-      </c>
-      <c r="C21" s="22">
-        <v>11.571443289675695</v>
-      </c>
-      <c r="D21" s="22">
-        <v>2.2307051574750032</v>
-      </c>
-      <c r="E21" s="22">
-        <v>4.2913689246825504</v>
-      </c>
-      <c r="F21" s="22">
-        <v>6.7913019516130671E-2</v>
-      </c>
-      <c r="G21" s="22">
-        <v>0.16030229519277839</v>
-      </c>
-      <c r="H21" s="22">
-        <v>13.925566945976811</v>
-      </c>
-      <c r="I21" s="22">
-        <v>-1.1617024650261569</v>
-      </c>
-      <c r="J21" s="30">
-        <v>4.8836844039392115</v>
-      </c>
-      <c r="K21" s="35" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="L21" s="22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M21" s="22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N21" s="22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O21" s="22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P21" s="22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="Q21" s="22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="R21" s="22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="S21" s="22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="T21" s="30" t="e">
+      <c r="A21" s="10">
+        <v>66.211401799413267</v>
+      </c>
+      <c r="B21" s="10">
+        <v>33.410214210925503</v>
+      </c>
+      <c r="C21" s="10">
+        <v>14.389902858461962</v>
+      </c>
+      <c r="D21" s="10">
+        <v>2.1971591799149737</v>
+      </c>
+      <c r="E21" s="10">
+        <v>4.3970093564264898</v>
+      </c>
+      <c r="F21" s="10">
+        <v>0.18365870602258366</v>
+      </c>
+      <c r="G21" s="10">
+        <v>0.21505672261099207</v>
+      </c>
+      <c r="H21" s="10">
+        <v>16.925341548911458</v>
+      </c>
+      <c r="I21" s="10">
+        <v>-1.1438516288990517</v>
+      </c>
+      <c r="J21" s="18">
+        <v>1.3815375168132606</v>
+      </c>
+      <c r="K21" s="23" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L21" s="10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M21" s="10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N21" s="10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O21" s="10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P21" s="10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="Q21" s="10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="R21" s="10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="S21" s="10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="T21" s="18" t="e">
         <v>#NUM!</v>
       </c>
       <c r="U21" t="s">
@@ -14500,64 +14669,64 @@
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A22" s="21">
-        <v>62.714208770271355</v>
-      </c>
-      <c r="B22" s="21">
-        <v>27.756435067110743</v>
-      </c>
-      <c r="C22" s="21">
-        <v>13.205038918457438</v>
-      </c>
-      <c r="D22" s="21">
-        <v>1.9545601461035886</v>
-      </c>
-      <c r="E22" s="21">
-        <v>4.360074650868472</v>
-      </c>
-      <c r="F22" s="21">
-        <v>0.23313090112866086</v>
-      </c>
-      <c r="G22" s="21">
-        <v>2.7280607545326529E-2</v>
-      </c>
-      <c r="H22" s="21">
-        <v>16.05089589161803</v>
-      </c>
-      <c r="I22" s="21">
-        <v>-0.35677928597386749</v>
-      </c>
-      <c r="J22" s="29">
-        <v>4.9319804284030875</v>
-      </c>
-      <c r="K22" s="34">
+      <c r="A22" s="9">
+        <v>63.528123887535585</v>
+      </c>
+      <c r="B22" s="9">
+        <v>27.816731601474437</v>
+      </c>
+      <c r="C22" s="9">
+        <v>14.909918288034484</v>
+      </c>
+      <c r="D22" s="9">
+        <v>1.8807879713550744</v>
+      </c>
+      <c r="E22" s="9">
+        <v>4.3236502308924551</v>
+      </c>
+      <c r="F22" s="9">
+        <v>0.3153094846074519</v>
+      </c>
+      <c r="G22" s="9">
+        <v>7.162775899224777E-2</v>
+      </c>
+      <c r="H22" s="9">
+        <v>17.091378648395732</v>
+      </c>
+      <c r="I22" s="9">
+        <v>-0.84750320098509913</v>
+      </c>
+      <c r="J22" s="17">
+        <v>1.3038092491700541</v>
+      </c>
+      <c r="K22" s="22">
         <v>73</v>
       </c>
-      <c r="L22" s="21">
+      <c r="L22" s="9">
         <v>30</v>
       </c>
-      <c r="M22" s="21" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N22" s="21" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O22" s="21" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P22" s="21" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="Q22" s="21" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="R22" s="21" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="S22" s="21">
+      <c r="M22" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N22" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O22" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P22" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="Q22" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="R22" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="S22" s="9">
         <v>0</v>
       </c>
-      <c r="T22" s="29" t="e">
+      <c r="T22" s="17" t="e">
         <v>#NUM!</v>
       </c>
       <c r="U22" t="s">
@@ -14565,64 +14734,64 @@
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A23" s="22">
-        <v>62.738406301590928</v>
-      </c>
-      <c r="B23" s="22">
-        <v>34.019714531969704</v>
-      </c>
-      <c r="C23" s="22">
-        <v>11.623780435217148</v>
-      </c>
-      <c r="D23" s="22">
-        <v>2.2428598795823591</v>
-      </c>
-      <c r="E23" s="22">
-        <v>4.317370005479285</v>
-      </c>
-      <c r="F23" s="22">
-        <v>6.9040777237478576E-2</v>
-      </c>
-      <c r="G23" s="22">
-        <v>0.16086617405345235</v>
-      </c>
-      <c r="H23" s="22">
-        <v>13.934025128886921</v>
-      </c>
-      <c r="I23" s="22">
-        <v>-1.2049274340810119</v>
-      </c>
-      <c r="J23" s="30">
-        <v>5.0085884435717292</v>
-      </c>
-      <c r="K23" s="35" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="L23" s="22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M23" s="22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N23" s="22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O23" s="22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P23" s="22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="Q23" s="22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="R23" s="22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="S23" s="22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="T23" s="30" t="e">
+      <c r="A23" s="10">
+        <v>67.476716499351866</v>
+      </c>
+      <c r="B23" s="10">
+        <v>34.643481123609604</v>
+      </c>
+      <c r="C23" s="10">
+        <v>14.483365459383839</v>
+      </c>
+      <c r="D23" s="10">
+        <v>2.203816600174191</v>
+      </c>
+      <c r="E23" s="10">
+        <v>4.4132090790573528</v>
+      </c>
+      <c r="F23" s="10">
+        <v>0.18558196076420233</v>
+      </c>
+      <c r="G23" s="10">
+        <v>0.21601834998180142</v>
+      </c>
+      <c r="H23" s="10">
+        <v>16.939765959473601</v>
+      </c>
+      <c r="I23" s="10">
+        <v>-1.1267928149679005</v>
+      </c>
+      <c r="J23" s="18">
+        <v>1.4082951383899682</v>
+      </c>
+      <c r="K23" s="23" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L23" s="10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M23" s="10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N23" s="10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O23" s="10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P23" s="10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="Q23" s="10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="R23" s="10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="S23" s="10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="T23" s="18" t="e">
         <v>#NUM!</v>
       </c>
       <c r="U23" t="s">
@@ -14630,217 +14799,217 @@
       </c>
     </row>
     <row r="24" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="31">
-        <v>60.788363930550851</v>
-      </c>
-      <c r="B24" s="31">
-        <v>26.892264515776638</v>
-      </c>
-      <c r="C24" s="31">
-        <v>9.9981880957048759</v>
-      </c>
-      <c r="D24" s="31">
-        <v>1.9451550753738089</v>
-      </c>
-      <c r="E24" s="31">
-        <v>4.0100224550556236</v>
-      </c>
-      <c r="F24" s="31">
-        <v>8.4530425094012873E-2</v>
-      </c>
-      <c r="G24" s="31">
-        <v>4.2404101435852035E-2</v>
-      </c>
-      <c r="H24" s="31">
-        <v>20.553301298493079</v>
-      </c>
-      <c r="I24" s="31">
-        <v>-0.11850768104434069</v>
-      </c>
-      <c r="J24" s="32">
-        <v>4.8634850280556927</v>
-      </c>
-      <c r="K24" s="36">
-        <v>56.944444444444443</v>
-      </c>
-      <c r="L24" s="31">
-        <v>26.555555555555557</v>
-      </c>
-      <c r="M24" s="31">
-        <v>9.8333333333333339</v>
-      </c>
-      <c r="N24" s="31">
+      <c r="A24" s="19">
+        <v>63.8505795253797</v>
+      </c>
+      <c r="B24" s="19">
+        <v>27.332248843086511</v>
+      </c>
+      <c r="C24" s="19">
+        <v>13.563012186066825</v>
+      </c>
+      <c r="D24" s="19">
+        <v>1.8736451141916288</v>
+      </c>
+      <c r="E24" s="19">
+        <v>4.0862692784989889</v>
+      </c>
+      <c r="F24" s="19">
+        <v>0.23822074002687338</v>
+      </c>
+      <c r="G24" s="19">
+        <v>0.11948490184852822</v>
+      </c>
+      <c r="H24" s="19">
+        <v>21.575548532341095</v>
+      </c>
+      <c r="I24" s="19">
+        <v>-0.35454545452311576</v>
+      </c>
+      <c r="J24" s="20">
+        <v>1.3360730830358623</v>
+      </c>
+      <c r="K24" s="24">
+        <v>64.833333333333329</v>
+      </c>
+      <c r="L24" s="19">
+        <v>29.666666666666668</v>
+      </c>
+      <c r="M24" s="19">
+        <v>13.5</v>
+      </c>
+      <c r="N24" s="19">
         <v>2</v>
       </c>
-      <c r="O24" s="31">
-        <v>4.1111111111111107</v>
-      </c>
-      <c r="P24" s="31">
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="Q24" s="31">
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="R24" s="31">
-        <v>20.555555555555557</v>
-      </c>
-      <c r="S24" s="31">
+      <c r="O24" s="19">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="P24" s="19">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="Q24" s="19">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="R24" s="19">
+        <v>21.666666666666668</v>
+      </c>
+      <c r="S24" s="19">
         <v>0</v>
       </c>
-      <c r="T24" s="32">
-        <v>4.7035322969819235</v>
+      <c r="T24" s="20">
+        <v>1.3769666666666667</v>
       </c>
       <c r="U24" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="48" t="s">
+      <c r="A25" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="50" t="s">
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="L25" s="48"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="48"/>
-      <c r="Q25" s="48"/>
-      <c r="R25" s="48"/>
-      <c r="S25" s="48"/>
-      <c r="T25" s="49"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="52"/>
+      <c r="R25" s="52"/>
+      <c r="S25" s="52"/>
+      <c r="T25" s="53"/>
     </row>
     <row r="26" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="27" t="s">
+      <c r="E26" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="27" t="s">
+      <c r="F26" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G26" s="27" t="s">
+      <c r="G26" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H26" s="27" t="s">
+      <c r="H26" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I26" s="27" t="s">
+      <c r="I26" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="28" t="s">
+      <c r="J26" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="K26" s="33" t="s">
+      <c r="K26" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="L26" s="27" t="s">
+      <c r="L26" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="M26" s="27" t="s">
+      <c r="M26" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="N26" s="27" t="s">
+      <c r="N26" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="O26" s="27" t="s">
+      <c r="O26" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="P26" s="27" t="s">
+      <c r="P26" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="Q26" s="27" t="s">
+      <c r="Q26" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="R26" s="27" t="s">
+      <c r="R26" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="S26" s="27" t="s">
+      <c r="S26" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="T26" s="28" t="s">
+      <c r="T26" s="16" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A27" s="21">
-        <v>60.529708424245733</v>
-      </c>
-      <c r="B27" s="24">
-        <v>30.35906652777237</v>
-      </c>
-      <c r="C27" s="24">
-        <v>17.24821606031399</v>
-      </c>
-      <c r="D27" s="24">
-        <v>2.0773402247906092</v>
-      </c>
-      <c r="E27" s="24">
-        <v>4.8149331605082164</v>
-      </c>
-      <c r="F27" s="24">
-        <v>0.37529398066200292</v>
-      </c>
-      <c r="G27" s="24">
-        <v>7.0850079023903695E-2</v>
-      </c>
-      <c r="H27" s="24">
-        <v>8.4334461666793121</v>
-      </c>
-      <c r="I27" s="21">
-        <v>-0.86998801934093051</v>
-      </c>
-      <c r="J27" s="29">
-        <v>4.8181827435073235</v>
-      </c>
-      <c r="K27" s="34" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="L27" s="24" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M27" s="24" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N27" s="24" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O27" s="24" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P27" s="24" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="Q27" s="24" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="R27" s="24" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="S27" s="24" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="T27" s="29" t="e">
+      <c r="A27" s="9">
+        <v>61.695676122187969</v>
+      </c>
+      <c r="B27" s="12">
+        <v>30.246871964960793</v>
+      </c>
+      <c r="C27" s="12">
+        <v>17.011907755324636</v>
+      </c>
+      <c r="D27" s="12">
+        <v>2.0136687183449147</v>
+      </c>
+      <c r="E27" s="12">
+        <v>4.6961949610815461</v>
+      </c>
+      <c r="F27" s="12">
+        <v>0.38227457391289638</v>
+      </c>
+      <c r="G27" s="12">
+        <v>7.27229005182599E-2</v>
+      </c>
+      <c r="H27" s="12">
+        <v>10.712281168463754</v>
+      </c>
+      <c r="I27" s="9">
+        <v>-1.3420508218417211</v>
+      </c>
+      <c r="J27" s="17">
+        <v>1.2674444281638255</v>
+      </c>
+      <c r="K27" s="22" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L27" s="12" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M27" s="12" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N27" s="12" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O27" s="12" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P27" s="12" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="Q27" s="12" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="R27" s="12" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="S27" s="12" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="T27" s="17" t="e">
         <v>#NUM!</v>
       </c>
       <c r="U27" t="s">
@@ -14848,64 +15017,64 @@
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A28" s="22">
-        <v>60.553905955565313</v>
-      </c>
-      <c r="B28" s="25">
-        <v>36.622345992631331</v>
-      </c>
-      <c r="C28" s="25">
-        <v>15.666957577073699</v>
-      </c>
-      <c r="D28" s="25">
-        <v>2.3656399582693792</v>
-      </c>
-      <c r="E28" s="25">
-        <v>4.7722285151190293</v>
-      </c>
-      <c r="F28" s="25">
-        <v>0.21120385677082062</v>
-      </c>
-      <c r="G28" s="25">
-        <v>0.20443564553202948</v>
-      </c>
-      <c r="H28" s="25">
-        <v>6.3165754039482049</v>
-      </c>
-      <c r="I28" s="22">
-        <v>-1.7181361674480748</v>
-      </c>
-      <c r="J28" s="30">
-        <v>4.894790758675966</v>
-      </c>
-      <c r="K28" s="35" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="L28" s="25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M28" s="25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N28" s="25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O28" s="25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P28" s="25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="Q28" s="25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="R28" s="25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="S28" s="25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="T28" s="30" t="e">
+      <c r="A28" s="10">
+        <v>65.644268734004271</v>
+      </c>
+      <c r="B28" s="13">
+        <v>37.073621487095963</v>
+      </c>
+      <c r="C28" s="13">
+        <v>16.585354926673993</v>
+      </c>
+      <c r="D28" s="13">
+        <v>2.3366973471640313</v>
+      </c>
+      <c r="E28" s="13">
+        <v>4.7857538092464429</v>
+      </c>
+      <c r="F28" s="13">
+        <v>0.25254705006964684</v>
+      </c>
+      <c r="G28" s="13">
+        <v>0.21711349150781353</v>
+      </c>
+      <c r="H28" s="13">
+        <v>10.560668479541622</v>
+      </c>
+      <c r="I28" s="10">
+        <v>-1.6213404358245227</v>
+      </c>
+      <c r="J28" s="18">
+        <v>1.3719303173837403</v>
+      </c>
+      <c r="K28" s="23" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L28" s="13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M28" s="13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N28" s="13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O28" s="13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P28" s="13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="Q28" s="13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="R28" s="13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="S28" s="13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="T28" s="18" t="e">
         <v>#NUM!</v>
       </c>
       <c r="U28" t="s">
@@ -14913,64 +15082,64 @@
       </c>
     </row>
     <row r="29" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="22">
-        <v>58.603863584525229</v>
-      </c>
-      <c r="B29" s="25">
-        <v>29.494895976438261</v>
-      </c>
-      <c r="C29" s="25">
-        <v>14.041365237561427</v>
-      </c>
-      <c r="D29" s="25">
-        <v>2.0679351540608293</v>
-      </c>
-      <c r="E29" s="25">
-        <v>4.464880964695368</v>
-      </c>
-      <c r="F29" s="25">
-        <v>0.22669350462735496</v>
-      </c>
-      <c r="G29" s="25">
-        <v>8.5973572914429183E-2</v>
-      </c>
-      <c r="H29" s="25">
-        <v>12.935851573554363</v>
-      </c>
-      <c r="I29" s="22">
-        <v>-0.6317164144114038</v>
-      </c>
-      <c r="J29" s="30">
-        <v>4.7496873431599296</v>
-      </c>
-      <c r="K29" s="35" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="L29" s="25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M29" s="25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N29" s="25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O29" s="25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P29" s="25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="Q29" s="25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="R29" s="25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="S29" s="25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="T29" s="30" t="e">
+      <c r="A29" s="10">
+        <v>62.018131760032091</v>
+      </c>
+      <c r="B29" s="13">
+        <v>29.762389206572873</v>
+      </c>
+      <c r="C29" s="13">
+        <v>15.665001653356978</v>
+      </c>
+      <c r="D29" s="13">
+        <v>2.0065258611814691</v>
+      </c>
+      <c r="E29" s="13">
+        <v>4.4588140086880799</v>
+      </c>
+      <c r="F29" s="13">
+        <v>0.30518582933231791</v>
+      </c>
+      <c r="G29" s="13">
+        <v>0.12058004337454035</v>
+      </c>
+      <c r="H29" s="13">
+        <v>15.196451052409113</v>
+      </c>
+      <c r="I29" s="10">
+        <v>-0.84909307537973788</v>
+      </c>
+      <c r="J29" s="18">
+        <v>1.2997082620296343</v>
+      </c>
+      <c r="K29" s="23" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L29" s="13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M29" s="13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N29" s="13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O29" s="13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P29" s="13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="Q29" s="13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="R29" s="13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="S29" s="13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="T29" s="18" t="e">
         <v>#NUM!</v>
       </c>
       <c r="U29" t="s">
@@ -14978,64 +15147,64 @@
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A30" s="21">
-        <v>62.451264320542293</v>
-      </c>
-      <c r="B30" s="24">
-        <v>36.203718549292269</v>
-      </c>
-      <c r="C30" s="24">
-        <v>15.62108174821719</v>
-      </c>
-      <c r="D30" s="24">
-        <v>2.3761383361078741</v>
-      </c>
-      <c r="E30" s="24">
-        <v>4.7850647726392159</v>
-      </c>
-      <c r="F30" s="24">
-        <v>0.21412856818260906</v>
-      </c>
-      <c r="G30" s="24">
-        <v>0.20445865415934303</v>
-      </c>
-      <c r="H30" s="24">
-        <v>6.2710785792742723</v>
-      </c>
-      <c r="I30" s="21">
-        <v>-1.7719447911241253</v>
-      </c>
-      <c r="J30" s="29">
-        <v>4.9480415667860456</v>
-      </c>
-      <c r="K30" s="34" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="L30" s="24" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M30" s="24" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N30" s="24" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O30" s="24" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P30" s="24" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="Q30" s="24" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="R30" s="24" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="S30" s="24" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="T30" s="29" t="e">
+      <c r="A30" s="9">
+        <v>66.787690934841763</v>
+      </c>
+      <c r="B30" s="12">
+        <v>36.822704558081014</v>
+      </c>
+      <c r="C30" s="12">
+        <v>16.520633569747027</v>
+      </c>
+      <c r="D30" s="12">
+        <v>2.3428376980497689</v>
+      </c>
+      <c r="E30" s="12">
+        <v>4.7946105585703229</v>
+      </c>
+      <c r="F30" s="12">
+        <v>0.25452611033792288</v>
+      </c>
+      <c r="G30" s="12">
+        <v>0.21712726561252457</v>
+      </c>
+      <c r="H30" s="12">
+        <v>10.53199941635148</v>
+      </c>
+      <c r="I30" s="9">
+        <v>-1.6311565954406455</v>
+      </c>
+      <c r="J30" s="17">
+        <v>1.380073832513127</v>
+      </c>
+      <c r="K30" s="22" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L30" s="12" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M30" s="12" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N30" s="12" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O30" s="12" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P30" s="12" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="Q30" s="12" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="R30" s="12" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="S30" s="12" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="T30" s="17" t="e">
         <v>#NUM!</v>
       </c>
       <c r="U30" t="s">
@@ -15043,129 +15212,129 @@
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A31" s="22">
-        <v>62.475461851861873</v>
-      </c>
-      <c r="B31" s="25">
-        <v>42.46699801415123</v>
-      </c>
-      <c r="C31" s="25">
-        <v>14.039823264976899</v>
-      </c>
-      <c r="D31" s="25">
-        <v>2.6644380695866445</v>
-      </c>
-      <c r="E31" s="25">
-        <v>4.7423601272500289</v>
-      </c>
-      <c r="F31" s="25">
-        <v>5.0038444291426787E-2</v>
-      </c>
-      <c r="G31" s="25">
-        <v>0.33804422066746886</v>
-      </c>
-      <c r="H31" s="25">
-        <v>4.154207816543166</v>
-      </c>
-      <c r="I31" s="22">
-        <v>-2.6200929392312697</v>
-      </c>
-      <c r="J31" s="30">
-        <v>5.0246495819546899</v>
-      </c>
-      <c r="K31" s="35">
-        <v>64.208955223880594</v>
-      </c>
-      <c r="L31" s="25">
-        <v>43.462686567164177</v>
-      </c>
-      <c r="M31" s="25">
-        <v>14.746268656716419</v>
-      </c>
-      <c r="N31" s="25">
-        <v>2.6557377049180326</v>
-      </c>
-      <c r="O31" s="25">
-        <v>4.8032786885245899</v>
-      </c>
-      <c r="P31" s="25">
-        <v>0.11475409836065574</v>
-      </c>
-      <c r="Q31" s="25">
-        <v>0.31147540983606559</v>
-      </c>
-      <c r="R31" s="25">
-        <v>6.5671641791044779</v>
-      </c>
-      <c r="S31" s="25">
-        <v>-2.3880597014925371</v>
-      </c>
-      <c r="T31" s="30">
-        <v>5.2663042687687343</v>
+      <c r="A31" s="10">
+        <v>70.736283546658058</v>
+      </c>
+      <c r="B31" s="13">
+        <v>43.649454080216188</v>
+      </c>
+      <c r="C31" s="13">
+        <v>16.094080741096384</v>
+      </c>
+      <c r="D31" s="13">
+        <v>2.6658663268688856</v>
+      </c>
+      <c r="E31" s="13">
+        <v>4.8841694067352197</v>
+      </c>
+      <c r="F31" s="13">
+        <v>0.12479858649467332</v>
+      </c>
+      <c r="G31" s="13">
+        <v>0.36151785660207814</v>
+      </c>
+      <c r="H31" s="13">
+        <v>10.38038672742935</v>
+      </c>
+      <c r="I31" s="10">
+        <v>-1.9104462094234465</v>
+      </c>
+      <c r="J31" s="18">
+        <v>1.484559721733042</v>
+      </c>
+      <c r="K31" s="23">
+        <v>73.268041237113408</v>
+      </c>
+      <c r="L31" s="13">
+        <v>44.711340206185568</v>
+      </c>
+      <c r="M31" s="13">
+        <v>16.680412371134022</v>
+      </c>
+      <c r="N31" s="13">
+        <v>2.6712328767123288</v>
+      </c>
+      <c r="O31" s="13">
+        <v>4.9589041095890414</v>
+      </c>
+      <c r="P31" s="13">
+        <v>0.17808219178082191</v>
+      </c>
+      <c r="Q31" s="13">
+        <v>0.34246575342465752</v>
+      </c>
+      <c r="R31" s="13">
+        <v>12.268041237113403</v>
+      </c>
+      <c r="S31" s="13">
+        <v>-1.6494845360824741</v>
+      </c>
+      <c r="T31" s="18">
+        <v>1.5496332580144048</v>
       </c>
       <c r="U31" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="22">
-        <v>60.525419480821803</v>
-      </c>
-      <c r="B32" s="25">
-        <v>35.339547997958164</v>
-      </c>
-      <c r="C32" s="25">
-        <v>12.414230925464629</v>
-      </c>
-      <c r="D32" s="25">
-        <v>2.3667332653780946</v>
-      </c>
-      <c r="E32" s="25">
-        <v>4.4350125768263675</v>
-      </c>
-      <c r="F32" s="25">
-        <v>6.5528092147961084E-2</v>
-      </c>
-      <c r="G32" s="25">
-        <v>0.21958214804986859</v>
-      </c>
-      <c r="H32" s="25">
-        <v>10.773483986149325</v>
-      </c>
-      <c r="I32" s="22">
-        <v>-1.5336731861945987</v>
-      </c>
-      <c r="J32" s="30">
-        <v>4.8795461664386535</v>
-      </c>
-      <c r="K32" s="35" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="L32" s="25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M32" s="25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N32" s="25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O32" s="25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P32" s="25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="Q32" s="25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="R32" s="25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="S32" s="25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="T32" s="30" t="e">
+      <c r="A32" s="10">
+        <v>67.110146572685892</v>
+      </c>
+      <c r="B32" s="13">
+        <v>36.338221799693102</v>
+      </c>
+      <c r="C32" s="13">
+        <v>15.173727467779367</v>
+      </c>
+      <c r="D32" s="13">
+        <v>2.3356948408863234</v>
+      </c>
+      <c r="E32" s="13">
+        <v>4.5572296061768558</v>
+      </c>
+      <c r="F32" s="13">
+        <v>0.1774373657573444</v>
+      </c>
+      <c r="G32" s="13">
+        <v>0.264984408468805</v>
+      </c>
+      <c r="H32" s="13">
+        <v>15.016169300296841</v>
+      </c>
+      <c r="I32" s="10">
+        <v>-1.1381988489786619</v>
+      </c>
+      <c r="J32" s="18">
+        <v>1.4123376663789353</v>
+      </c>
+      <c r="K32" s="23" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L32" s="13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M32" s="13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N32" s="13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O32" s="13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P32" s="13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="Q32" s="13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="R32" s="13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="S32" s="13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="T32" s="18" t="e">
         <v>#NUM!</v>
       </c>
       <c r="U32" t="s">
@@ -15173,64 +15342,64 @@
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A33" s="21">
-        <v>62.033066892239063</v>
-      </c>
-      <c r="B33" s="24">
-        <v>30.676600767186294</v>
-      </c>
-      <c r="C33" s="24">
-        <v>14.04782655424637</v>
-      </c>
-      <c r="D33" s="24">
-        <v>2.09058825400668</v>
-      </c>
-      <c r="E33" s="24">
-        <v>4.5037183030122891</v>
-      </c>
-      <c r="F33" s="24">
-        <v>0.23074597376049127</v>
-      </c>
-      <c r="G33" s="24">
-        <v>8.6560460402416689E-2</v>
-      </c>
-      <c r="H33" s="24">
-        <v>12.898812931790539</v>
-      </c>
-      <c r="I33" s="21">
-        <v>-0.7287500071423092</v>
-      </c>
-      <c r="J33" s="29">
-        <v>4.9278421909025276</v>
-      </c>
-      <c r="K33" s="34">
+      <c r="A33" s="9">
+        <v>64.426868660808196</v>
+      </c>
+      <c r="B33" s="12">
+        <v>30.744739190242036</v>
+      </c>
+      <c r="C33" s="12">
+        <v>15.693742897351887</v>
+      </c>
+      <c r="D33" s="12">
+        <v>2.0193236323264236</v>
+      </c>
+      <c r="E33" s="12">
+        <v>4.4838704806428211</v>
+      </c>
+      <c r="F33" s="12">
+        <v>0.3090881443422126</v>
+      </c>
+      <c r="G33" s="12">
+        <v>0.12155544485006071</v>
+      </c>
+      <c r="H33" s="12">
+        <v>15.182206399781114</v>
+      </c>
+      <c r="I33" s="9">
+        <v>-0.84185042106470931</v>
+      </c>
+      <c r="J33" s="17">
+        <v>1.3346093987357284</v>
+      </c>
+      <c r="K33" s="22">
         <v>69</v>
       </c>
-      <c r="L33" s="24">
+      <c r="L33" s="12">
         <v>30</v>
       </c>
-      <c r="M33" s="24" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N33" s="24" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O33" s="24" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P33" s="24" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="Q33" s="24" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="R33" s="24" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="S33" s="24">
+      <c r="M33" s="12" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N33" s="12" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O33" s="12" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P33" s="12" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="Q33" s="12" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="R33" s="12" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="S33" s="12">
         <v>0</v>
       </c>
-      <c r="T33" s="29" t="e">
+      <c r="T33" s="17" t="e">
         <v>#NUM!</v>
       </c>
       <c r="U33" t="s">
@@ -15238,64 +15407,64 @@
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A34" s="22">
-        <v>62.057264423558635</v>
-      </c>
-      <c r="B34" s="25">
-        <v>36.939880232045255</v>
-      </c>
-      <c r="C34" s="25">
-        <v>12.466568071006083</v>
-      </c>
-      <c r="D34" s="25">
-        <v>2.3788879874854501</v>
-      </c>
-      <c r="E34" s="25">
-        <v>4.4610136576231012</v>
-      </c>
-      <c r="F34" s="25">
-        <v>6.6655849869308989E-2</v>
-      </c>
-      <c r="G34" s="25">
-        <v>0.2201460269105425</v>
-      </c>
-      <c r="H34" s="25">
-        <v>10.781942169059434</v>
-      </c>
-      <c r="I34" s="22">
-        <v>-1.5768981552494536</v>
-      </c>
-      <c r="J34" s="30">
-        <v>5.0044502060711702</v>
-      </c>
-      <c r="K34" s="35" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="L34" s="25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M34" s="25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N34" s="25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O34" s="25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P34" s="25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="Q34" s="25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="R34" s="25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="S34" s="25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="T34" s="30" t="e">
+      <c r="A34" s="10">
+        <v>68.375461272624506</v>
+      </c>
+      <c r="B34" s="13">
+        <v>37.571488712377203</v>
+      </c>
+      <c r="C34" s="13">
+        <v>15.267190068701245</v>
+      </c>
+      <c r="D34" s="13">
+        <v>2.3423522611455403</v>
+      </c>
+      <c r="E34" s="13">
+        <v>4.5734293288077188</v>
+      </c>
+      <c r="F34" s="13">
+        <v>0.17936062049896301</v>
+      </c>
+      <c r="G34" s="13">
+        <v>0.26594603583961429</v>
+      </c>
+      <c r="H34" s="13">
+        <v>15.030593710858984</v>
+      </c>
+      <c r="I34" s="10">
+        <v>-1.1211400350475107</v>
+      </c>
+      <c r="J34" s="18">
+        <v>1.4390952879556431</v>
+      </c>
+      <c r="K34" s="23" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L34" s="13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M34" s="13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N34" s="13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O34" s="13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P34" s="13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="Q34" s="13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="R34" s="13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="S34" s="13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="T34" s="18" t="e">
         <v>#NUM!</v>
       </c>
       <c r="U34" t="s">
@@ -15303,282 +15472,282 @@
       </c>
     </row>
     <row r="35" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="31">
-        <v>60.107222052518559</v>
-      </c>
-      <c r="B35" s="37">
-        <v>29.812430215852192</v>
-      </c>
-      <c r="C35" s="37">
-        <v>10.84097573149381</v>
-      </c>
-      <c r="D35" s="37">
-        <v>2.0811831832769001</v>
-      </c>
-      <c r="E35" s="37">
-        <v>4.1536661071994398</v>
-      </c>
-      <c r="F35" s="37">
-        <v>8.2145497725843286E-2</v>
-      </c>
-      <c r="G35" s="37">
-        <v>0.10168395429294219</v>
-      </c>
-      <c r="H35" s="37">
-        <v>17.401218338665593</v>
-      </c>
-      <c r="I35" s="31">
-        <v>-0.49047840221278244</v>
-      </c>
-      <c r="J35" s="32">
-        <v>4.8593467905551355</v>
-      </c>
-      <c r="K35" s="36">
+      <c r="A35" s="19">
+        <v>64.74932429865234</v>
+      </c>
+      <c r="B35" s="25">
+        <v>30.260256431854117</v>
+      </c>
+      <c r="C35" s="25">
+        <v>14.346836795384229</v>
+      </c>
+      <c r="D35" s="25">
+        <v>2.0121807751629781</v>
+      </c>
+      <c r="E35" s="25">
+        <v>4.2464895282493549</v>
+      </c>
+      <c r="F35" s="25">
+        <v>0.23199939976163408</v>
+      </c>
+      <c r="G35" s="25">
+        <v>0.16941258770634116</v>
+      </c>
+      <c r="H35" s="25">
+        <v>19.666376283726478</v>
+      </c>
+      <c r="I35" s="19">
+        <v>-0.34889267460272588</v>
+      </c>
+      <c r="J35" s="20">
+        <v>1.3668732326015371</v>
+      </c>
+      <c r="K35" s="24">
         <v>55</v>
       </c>
-      <c r="L35" s="37">
+      <c r="L35" s="25">
         <v>8</v>
       </c>
-      <c r="M35" s="37">
+      <c r="M35" s="25">
         <v>22</v>
       </c>
-      <c r="N35" s="37">
+      <c r="N35" s="25">
         <v>1</v>
       </c>
-      <c r="O35" s="37">
+      <c r="O35" s="25">
         <v>3</v>
       </c>
-      <c r="P35" s="37">
+      <c r="P35" s="25">
         <v>1</v>
       </c>
-      <c r="Q35" s="37">
+      <c r="Q35" s="25">
         <v>0</v>
       </c>
-      <c r="R35" s="37">
+      <c r="R35" s="25">
         <v>25</v>
       </c>
-      <c r="S35" s="37">
+      <c r="S35" s="25">
         <v>0</v>
       </c>
-      <c r="T35" s="32">
-        <v>4.5033819864720543</v>
+      <c r="T35" s="20">
+        <v>1.1615</v>
       </c>
       <c r="U35" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="48" t="s">
+      <c r="A36" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="48"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="48"/>
-      <c r="I36" s="48"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="50" t="s">
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="L36" s="48"/>
-      <c r="M36" s="48"/>
-      <c r="N36" s="48"/>
-      <c r="O36" s="48"/>
-      <c r="P36" s="48"/>
-      <c r="Q36" s="48"/>
-      <c r="R36" s="48"/>
-      <c r="S36" s="48"/>
-      <c r="T36" s="49"/>
+      <c r="L36" s="52"/>
+      <c r="M36" s="52"/>
+      <c r="N36" s="52"/>
+      <c r="O36" s="52"/>
+      <c r="P36" s="52"/>
+      <c r="Q36" s="52"/>
+      <c r="R36" s="52"/>
+      <c r="S36" s="52"/>
+      <c r="T36" s="53"/>
     </row>
     <row r="37" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="27" t="s">
+      <c r="A37" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B37" s="27" t="s">
+      <c r="B37" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="27" t="s">
+      <c r="C37" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D37" s="27" t="s">
+      <c r="D37" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E37" s="27" t="s">
+      <c r="E37" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F37" s="27" t="s">
+      <c r="F37" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G37" s="27" t="s">
+      <c r="G37" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H37" s="27" t="s">
+      <c r="H37" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I37" s="27" t="s">
+      <c r="I37" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J37" s="28" t="s">
+      <c r="J37" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="K37" s="33" t="s">
+      <c r="K37" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="L37" s="27" t="s">
+      <c r="L37" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="M37" s="27" t="s">
+      <c r="M37" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="N37" s="27" t="s">
+      <c r="N37" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="O37" s="27" t="s">
+      <c r="O37" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="P37" s="27" t="s">
+      <c r="P37" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="Q37" s="27" t="s">
+      <c r="Q37" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="R37" s="27" t="s">
+      <c r="R37" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="S37" s="27" t="s">
+      <c r="S37" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="T37" s="28" t="s">
+      <c r="T37" s="16" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="21">
-        <v>59.828504492572293</v>
-      </c>
-      <c r="B38" s="21">
-        <v>27.580327444213243</v>
-      </c>
-      <c r="C38" s="21">
-        <v>18.115279351312303</v>
-      </c>
-      <c r="D38" s="21">
-        <v>1.9382779288508218</v>
-      </c>
-      <c r="E38" s="21">
-        <v>4.8553774628589466</v>
-      </c>
-      <c r="F38" s="21">
-        <v>0.45945264268103553</v>
-      </c>
-      <c r="G38" s="21">
-        <v>5.1671183067896753E-3</v>
-      </c>
-      <c r="H38" s="21">
-        <v>9.1865023294384791</v>
-      </c>
-      <c r="I38" s="21">
-        <v>-0.4725715199085318</v>
-      </c>
-      <c r="J38" s="29">
-        <v>4.7577767524157322</v>
-      </c>
-      <c r="K38" s="34">
+      <c r="A38" s="9">
+        <v>59.351613226298717</v>
+      </c>
+      <c r="B38" s="9">
+        <v>27.355585155503455</v>
+      </c>
+      <c r="C38" s="9">
+        <v>17.444607068990059</v>
+      </c>
+      <c r="D38" s="9">
+        <v>1.8839305711167422</v>
+      </c>
+      <c r="E38" s="9">
+        <v>4.7198670121971515</v>
+      </c>
+      <c r="F38" s="9">
+        <v>0.44694794208043565</v>
+      </c>
+      <c r="G38" s="9">
+        <v>4.3271159062845555E-3</v>
+      </c>
+      <c r="H38" s="9">
+        <v>10.178285394608675</v>
+      </c>
+      <c r="I38" s="9">
+        <v>-1.0867051372745347</v>
+      </c>
+      <c r="J38" s="17">
+        <v>1.2150144293292127</v>
+      </c>
+      <c r="K38" s="22">
         <v>52.586206896551722</v>
       </c>
-      <c r="L38" s="21">
+      <c r="L38" s="9">
         <v>25.92982456140351</v>
       </c>
-      <c r="M38" s="21">
+      <c r="M38" s="9">
         <v>18.584905660377359</v>
       </c>
-      <c r="N38" s="21">
+      <c r="N38" s="9">
         <v>1.9047619047619047</v>
       </c>
-      <c r="O38" s="21">
+      <c r="O38" s="9">
         <v>4.8113207547169807</v>
       </c>
-      <c r="P38" s="21">
+      <c r="P38" s="9">
         <v>0.45945945945945948</v>
       </c>
-      <c r="Q38" s="21">
+      <c r="Q38" s="9">
         <v>1.8867924528301886E-2</v>
       </c>
-      <c r="R38" s="21">
+      <c r="R38" s="9">
         <v>7.9245283018867925</v>
       </c>
-      <c r="S38" s="21">
+      <c r="S38" s="9">
         <v>0</v>
       </c>
-      <c r="T38" s="29">
-        <v>4.3945127451069643</v>
+      <c r="T38" s="17">
+        <v>1.133420742183229</v>
       </c>
       <c r="U38" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A39" s="22">
-        <v>59.852702023891879</v>
-      </c>
-      <c r="B39" s="22">
-        <v>33.8436069090722</v>
-      </c>
-      <c r="C39" s="22">
-        <v>16.534020868072012</v>
-      </c>
-      <c r="D39" s="22">
-        <v>2.2265776623295919</v>
-      </c>
-      <c r="E39" s="22">
-        <v>4.8126728174697586</v>
-      </c>
-      <c r="F39" s="22">
-        <v>0.29536251878985326</v>
-      </c>
-      <c r="G39" s="22">
-        <v>0.13875268481491548</v>
-      </c>
-      <c r="H39" s="22">
-        <v>7.0696315667073701</v>
-      </c>
-      <c r="I39" s="22">
-        <v>-1.3207196680156763</v>
-      </c>
-      <c r="J39" s="30">
-        <v>4.8343847675843747</v>
-      </c>
-      <c r="K39" s="35">
+      <c r="A39" s="10">
+        <v>63.300205838115019</v>
+      </c>
+      <c r="B39" s="10">
+        <v>34.182334677638622</v>
+      </c>
+      <c r="C39" s="10">
+        <v>17.018054240339417</v>
+      </c>
+      <c r="D39" s="10">
+        <v>2.2069591999358589</v>
+      </c>
+      <c r="E39" s="10">
+        <v>4.8094258603620492</v>
+      </c>
+      <c r="F39" s="10">
+        <v>0.31722041823718616</v>
+      </c>
+      <c r="G39" s="10">
+        <v>0.14871770689583816</v>
+      </c>
+      <c r="H39" s="10">
+        <v>10.026672705686545</v>
+      </c>
+      <c r="I39" s="10">
+        <v>-1.365994751257336</v>
+      </c>
+      <c r="J39" s="18">
+        <v>1.3195003185491272</v>
+      </c>
+      <c r="K39" s="23">
         <v>101.66666666666667</v>
       </c>
-      <c r="L39" s="22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M39" s="22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N39" s="22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O39" s="22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P39" s="22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="Q39" s="22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="R39" s="22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="S39" s="22">
+      <c r="L39" s="10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M39" s="10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N39" s="10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O39" s="10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P39" s="10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="Q39" s="10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="R39" s="10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="S39" s="10">
         <v>0</v>
       </c>
-      <c r="T39" s="30" t="e">
+      <c r="T39" s="18" t="e">
         <v>#NUM!</v>
       </c>
       <c r="U39" t="s">
@@ -15586,64 +15755,64 @@
       </c>
     </row>
     <row r="40" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="22">
-        <v>57.902659652851796</v>
-      </c>
-      <c r="B40" s="22">
-        <v>26.716156892879134</v>
-      </c>
-      <c r="C40" s="22">
-        <v>14.908428528559742</v>
-      </c>
-      <c r="D40" s="22">
-        <v>1.9288728581210421</v>
-      </c>
-      <c r="E40" s="22">
-        <v>4.5053252670460981</v>
-      </c>
-      <c r="F40" s="22">
-        <v>0.3108521666463876</v>
-      </c>
-      <c r="G40" s="22">
-        <v>2.0290612197315181E-2</v>
-      </c>
-      <c r="H40" s="22">
-        <v>13.688907736313528</v>
-      </c>
-      <c r="I40" s="22">
-        <v>-0.23429991497900504</v>
-      </c>
-      <c r="J40" s="30">
-        <v>4.6892813520683392</v>
-      </c>
-      <c r="K40" s="35">
+      <c r="A40" s="10">
+        <v>59.674068864142853</v>
+      </c>
+      <c r="B40" s="10">
+        <v>26.871102397115532</v>
+      </c>
+      <c r="C40" s="10">
+        <v>16.097700967022401</v>
+      </c>
+      <c r="D40" s="10">
+        <v>1.8767877139532967</v>
+      </c>
+      <c r="E40" s="10">
+        <v>4.4824860598036853</v>
+      </c>
+      <c r="F40" s="10">
+        <v>0.36985919749985718</v>
+      </c>
+      <c r="G40" s="10">
+        <v>5.2184258762565008E-2</v>
+      </c>
+      <c r="H40" s="10">
+        <v>14.662455278554038</v>
+      </c>
+      <c r="I40" s="10">
+        <v>-0.59374739081255123</v>
+      </c>
+      <c r="J40" s="18">
+        <v>1.247278263195021</v>
+      </c>
+      <c r="K40" s="23">
         <v>71</v>
       </c>
-      <c r="L40" s="22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M40" s="22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N40" s="22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O40" s="22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P40" s="22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="Q40" s="22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="R40" s="22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="S40" s="22">
+      <c r="L40" s="10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M40" s="10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N40" s="10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O40" s="10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P40" s="10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="Q40" s="10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="R40" s="10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="S40" s="10">
         <v>0</v>
       </c>
-      <c r="T40" s="30" t="e">
+      <c r="T40" s="18" t="e">
         <v>#NUM!</v>
       </c>
       <c r="U40" t="s">
@@ -15651,64 +15820,64 @@
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A41" s="21">
-        <v>61.75006038886886</v>
-      </c>
-      <c r="B41" s="21">
-        <v>33.424979465733138</v>
-      </c>
-      <c r="C41" s="21">
-        <v>16.488145039215503</v>
-      </c>
-      <c r="D41" s="21">
-        <v>2.2370760401680867</v>
-      </c>
-      <c r="E41" s="21">
-        <v>4.825509074989947</v>
-      </c>
-      <c r="F41" s="21">
-        <v>0.29828723020164166</v>
-      </c>
-      <c r="G41" s="21">
-        <v>0.13877569344222904</v>
-      </c>
-      <c r="H41" s="21">
-        <v>7.0241347420334392</v>
-      </c>
-      <c r="I41" s="21">
-        <v>-1.3745282916917267</v>
-      </c>
-      <c r="J41" s="29">
-        <v>4.8876355756944552</v>
-      </c>
-      <c r="K41" s="34">
+      <c r="A41" s="9">
+        <v>64.443628038952511</v>
+      </c>
+      <c r="B41" s="9">
+        <v>33.93141774862368</v>
+      </c>
+      <c r="C41" s="9">
+        <v>16.95333288341245</v>
+      </c>
+      <c r="D41" s="9">
+        <v>2.2130995508215965</v>
+      </c>
+      <c r="E41" s="9">
+        <v>4.8182826096859284</v>
+      </c>
+      <c r="F41" s="9">
+        <v>0.31919947850546215</v>
+      </c>
+      <c r="G41" s="9">
+        <v>0.1487314810005492</v>
+      </c>
+      <c r="H41" s="9">
+        <v>9.9980036424964034</v>
+      </c>
+      <c r="I41" s="9">
+        <v>-1.3758109108734586</v>
+      </c>
+      <c r="J41" s="17">
+        <v>1.3276438336785137</v>
+      </c>
+      <c r="K41" s="22">
         <v>70.333333333333329</v>
       </c>
-      <c r="L41" s="21">
+      <c r="L41" s="9">
         <v>31</v>
       </c>
-      <c r="M41" s="21">
+      <c r="M41" s="9">
         <v>14</v>
       </c>
-      <c r="N41" s="21" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O41" s="21" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P41" s="21" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="Q41" s="21" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="R41" s="21" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="S41" s="21">
+      <c r="N41" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O41" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P41" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="Q41" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="R41" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="S41" s="9">
         <v>-1.6666666666666667</v>
       </c>
-      <c r="T41" s="29" t="e">
+      <c r="T41" s="17" t="e">
         <v>#NUM!</v>
       </c>
       <c r="U41" t="s">
@@ -15716,64 +15885,64 @@
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A42" s="22">
-        <v>61.77425792018844</v>
-      </c>
-      <c r="B42" s="22">
-        <v>39.688258930592099</v>
-      </c>
-      <c r="C42" s="22">
-        <v>14.906886555975214</v>
-      </c>
-      <c r="D42" s="22">
-        <v>2.5253757736468572</v>
-      </c>
-      <c r="E42" s="22">
-        <v>4.782804429600759</v>
-      </c>
-      <c r="F42" s="22">
-        <v>0.13419710631045939</v>
-      </c>
-      <c r="G42" s="22">
-        <v>0.27236125995035487</v>
-      </c>
-      <c r="H42" s="22">
-        <v>4.9072639793023329</v>
-      </c>
-      <c r="I42" s="22">
-        <v>-2.222676439798871</v>
-      </c>
-      <c r="J42" s="30">
-        <v>4.9642435908630977</v>
-      </c>
-      <c r="K42" s="35">
+      <c r="A42" s="10">
+        <v>68.392220650768806</v>
+      </c>
+      <c r="B42" s="10">
+        <v>40.758167270758854</v>
+      </c>
+      <c r="C42" s="10">
+        <v>16.526780054761808</v>
+      </c>
+      <c r="D42" s="10">
+        <v>2.5361281796407131</v>
+      </c>
+      <c r="E42" s="10">
+        <v>4.907841457850826</v>
+      </c>
+      <c r="F42" s="10">
+        <v>0.18947195466221262</v>
+      </c>
+      <c r="G42" s="10">
+        <v>0.29312207199010282</v>
+      </c>
+      <c r="H42" s="10">
+        <v>9.8463909535742715</v>
+      </c>
+      <c r="I42" s="10">
+        <v>-1.65510052485626</v>
+      </c>
+      <c r="J42" s="18">
+        <v>1.4321297228984287</v>
+      </c>
+      <c r="K42" s="23">
         <v>89</v>
       </c>
-      <c r="L42" s="22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M42" s="22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N42" s="22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O42" s="22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P42" s="22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="Q42" s="22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="R42" s="22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="S42" s="22">
+      <c r="L42" s="10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M42" s="10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N42" s="10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O42" s="10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P42" s="10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="Q42" s="10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="R42" s="10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="S42" s="10">
         <v>0</v>
       </c>
-      <c r="T42" s="30" t="e">
+      <c r="T42" s="18" t="e">
         <v>#NUM!</v>
       </c>
       <c r="U42" t="s">
@@ -15781,64 +15950,64 @@
       </c>
     </row>
     <row r="43" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="22">
-        <v>59.824215549148356</v>
-      </c>
-      <c r="B43" s="22">
-        <v>32.560808914399033</v>
-      </c>
-      <c r="C43" s="22">
-        <v>13.281294216462943</v>
-      </c>
-      <c r="D43" s="22">
-        <v>2.2276709694383072</v>
-      </c>
-      <c r="E43" s="22">
-        <v>4.4754568791770977</v>
-      </c>
-      <c r="F43" s="22">
-        <v>0.14968675416699367</v>
-      </c>
-      <c r="G43" s="22">
-        <v>0.15389918733275454</v>
-      </c>
-      <c r="H43" s="22">
-        <v>11.526540148908492</v>
-      </c>
-      <c r="I43" s="22">
-        <v>-1.1362566867621999</v>
-      </c>
-      <c r="J43" s="30">
-        <v>4.8191401753470613</v>
-      </c>
-      <c r="K43" s="35" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="L43" s="22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M43" s="22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N43" s="22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O43" s="22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P43" s="22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="Q43" s="22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="R43" s="22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="S43" s="22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="T43" s="30" t="e">
+      <c r="A43" s="10">
+        <v>64.76608367679664</v>
+      </c>
+      <c r="B43" s="10">
+        <v>33.446934990235761</v>
+      </c>
+      <c r="C43" s="10">
+        <v>15.606426781444791</v>
+      </c>
+      <c r="D43" s="10">
+        <v>2.2059566936581509</v>
+      </c>
+      <c r="E43" s="10">
+        <v>4.5809016572924621</v>
+      </c>
+      <c r="F43" s="10">
+        <v>0.24211073392488366</v>
+      </c>
+      <c r="G43" s="10">
+        <v>0.19658862385682965</v>
+      </c>
+      <c r="H43" s="10">
+        <v>14.482173526441764</v>
+      </c>
+      <c r="I43" s="10">
+        <v>-0.88285316441147521</v>
+      </c>
+      <c r="J43" s="18">
+        <v>1.359907667544322</v>
+      </c>
+      <c r="K43" s="23" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L43" s="10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M43" s="10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N43" s="10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O43" s="10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P43" s="10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="Q43" s="10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="R43" s="10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="S43" s="10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="T43" s="18" t="e">
         <v>#NUM!</v>
       </c>
       <c r="U43" t="s">
@@ -15846,64 +16015,64 @@
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A44" s="21">
-        <v>61.33186296056563</v>
-      </c>
-      <c r="B44" s="21">
-        <v>27.897861683627166</v>
-      </c>
-      <c r="C44" s="21">
-        <v>14.914889845244684</v>
-      </c>
-      <c r="D44" s="21">
-        <v>1.9515259580668924</v>
-      </c>
-      <c r="E44" s="21">
-        <v>4.5441626053630184</v>
-      </c>
-      <c r="F44" s="21">
-        <v>0.31490463577952388</v>
-      </c>
-      <c r="G44" s="21">
-        <v>2.0877499685302676E-2</v>
-      </c>
-      <c r="H44" s="21">
-        <v>13.651869094549706</v>
-      </c>
-      <c r="I44" s="21">
-        <v>-0.33133350770991044</v>
-      </c>
-      <c r="J44" s="29">
-        <v>4.8674361998109372</v>
-      </c>
-      <c r="K44" s="34">
+      <c r="A44" s="9">
+        <v>62.082805764918952</v>
+      </c>
+      <c r="B44" s="9">
+        <v>27.853452380784699</v>
+      </c>
+      <c r="C44" s="9">
+        <v>16.126442211017313</v>
+      </c>
+      <c r="D44" s="9">
+        <v>1.8895854850982512</v>
+      </c>
+      <c r="E44" s="9">
+        <v>4.5075425317584266</v>
+      </c>
+      <c r="F44" s="9">
+        <v>0.37376151250975187</v>
+      </c>
+      <c r="G44" s="9">
+        <v>5.3159660238085361E-2</v>
+      </c>
+      <c r="H44" s="9">
+        <v>14.648210625926037</v>
+      </c>
+      <c r="I44" s="9">
+        <v>-0.58650473649752266</v>
+      </c>
+      <c r="J44" s="17">
+        <v>1.2821793999011155</v>
+      </c>
+      <c r="K44" s="22">
         <v>34</v>
       </c>
-      <c r="L44" s="21" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M44" s="21" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N44" s="21" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O44" s="21" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P44" s="21" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="Q44" s="21" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="R44" s="21" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="S44" s="21">
+      <c r="L44" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M44" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N44" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O44" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P44" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="Q44" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="R44" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="S44" s="9">
         <v>0</v>
       </c>
-      <c r="T44" s="29" t="e">
+      <c r="T44" s="17" t="e">
         <v>#NUM!</v>
       </c>
       <c r="U44" t="s">
@@ -15911,64 +16080,64 @@
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A45" s="22">
-        <v>61.356060491885202</v>
-      </c>
-      <c r="B45" s="22">
-        <v>34.161141148486124</v>
-      </c>
-      <c r="C45" s="22">
-        <v>13.333631362004393</v>
-      </c>
-      <c r="D45" s="22">
-        <v>2.2398256915456627</v>
-      </c>
-      <c r="E45" s="22">
-        <v>4.5014579599738314</v>
-      </c>
-      <c r="F45" s="22">
-        <v>0.15081451188834158</v>
-      </c>
-      <c r="G45" s="22">
-        <v>0.15446306619342851</v>
-      </c>
-      <c r="H45" s="22">
-        <v>11.534998331818601</v>
-      </c>
-      <c r="I45" s="22">
-        <v>-1.1794816558170549</v>
-      </c>
-      <c r="J45" s="30">
-        <v>4.9440442149795798</v>
-      </c>
-      <c r="K45" s="35">
+      <c r="A45" s="10">
+        <v>66.031398376735254</v>
+      </c>
+      <c r="B45" s="10">
+        <v>34.680201902919869</v>
+      </c>
+      <c r="C45" s="10">
+        <v>15.699889382366669</v>
+      </c>
+      <c r="D45" s="10">
+        <v>2.2126141139173678</v>
+      </c>
+      <c r="E45" s="10">
+        <v>4.5971013799233251</v>
+      </c>
+      <c r="F45" s="10">
+        <v>0.24403398866650233</v>
+      </c>
+      <c r="G45" s="10">
+        <v>0.19755025122763897</v>
+      </c>
+      <c r="H45" s="10">
+        <v>14.496597937003907</v>
+      </c>
+      <c r="I45" s="10">
+        <v>-0.86579435048032405</v>
+      </c>
+      <c r="J45" s="18">
+        <v>1.3866652891210303</v>
+      </c>
+      <c r="K45" s="23">
         <v>83</v>
       </c>
-      <c r="L45" s="22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M45" s="22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N45" s="22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O45" s="22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P45" s="22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="Q45" s="22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="R45" s="22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="S45" s="22">
+      <c r="L45" s="10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M45" s="10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N45" s="10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O45" s="10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P45" s="10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="Q45" s="10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="R45" s="10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="S45" s="10">
         <v>0</v>
       </c>
-      <c r="T45" s="30" t="e">
+      <c r="T45" s="18" t="e">
         <v>#NUM!</v>
       </c>
       <c r="U45" t="s">
@@ -15976,64 +16145,64 @@
       </c>
     </row>
     <row r="46" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="31">
-        <v>59.406018120845125</v>
-      </c>
-      <c r="B46" s="31">
-        <v>27.033691132293058</v>
-      </c>
-      <c r="C46" s="31">
-        <v>11.708039022492123</v>
-      </c>
-      <c r="D46" s="31">
-        <v>1.9421208873371127</v>
-      </c>
-      <c r="E46" s="31">
-        <v>4.19411040955017</v>
-      </c>
-      <c r="F46" s="31">
-        <v>0.16630415974487589</v>
-      </c>
-      <c r="G46" s="31">
-        <v>3.6000993575828186E-2</v>
-      </c>
-      <c r="H46" s="31">
-        <v>18.154274501424759</v>
-      </c>
-      <c r="I46" s="31">
-        <v>-9.306190278038369E-2</v>
-      </c>
-      <c r="J46" s="32">
-        <v>4.7989407994635442</v>
-      </c>
-      <c r="K46" s="36">
+      <c r="A46" s="19">
+        <v>62.405261402763088</v>
+      </c>
+      <c r="B46" s="19">
+        <v>27.368969622396776</v>
+      </c>
+      <c r="C46" s="19">
+        <v>14.779536109049653</v>
+      </c>
+      <c r="D46" s="19">
+        <v>1.8824426279348057</v>
+      </c>
+      <c r="E46" s="19">
+        <v>4.2701615793649612</v>
+      </c>
+      <c r="F46" s="19">
+        <v>0.29667276792917335</v>
+      </c>
+      <c r="G46" s="19">
+        <v>0.10101680309436581</v>
+      </c>
+      <c r="H46" s="19">
+        <v>19.132380509871403</v>
+      </c>
+      <c r="I46" s="19">
+        <v>-9.3546990035539318E-2</v>
+      </c>
+      <c r="J46" s="20">
+        <v>1.3144432337669238</v>
+      </c>
+      <c r="K46" s="24">
         <v>62.666666666666664</v>
       </c>
-      <c r="L46" s="31">
+      <c r="L46" s="19">
         <v>29</v>
       </c>
-      <c r="M46" s="31" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N46" s="31" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O46" s="31" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="P46" s="31" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="Q46" s="31" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="R46" s="31" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="S46" s="31">
+      <c r="M46" s="19" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N46" s="19" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O46" s="19" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P46" s="19" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="Q46" s="19" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="R46" s="19" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="S46" s="19">
         <v>0</v>
       </c>
-      <c r="T46" s="32" t="e">
+      <c r="T46" s="20" t="e">
         <v>#NUM!</v>
       </c>
       <c r="U46" t="s">
@@ -16041,24 +16210,36 @@
       </c>
     </row>
     <row r="47" spans="1:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J47" s="51"/>
+      <c r="J47" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="K2:T2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="K3:T3"/>
     <mergeCell ref="A14:J14"/>
     <mergeCell ref="K14:T14"/>
     <mergeCell ref="K25:T25"/>
     <mergeCell ref="A25:J25"/>
     <mergeCell ref="A36:J36"/>
     <mergeCell ref="K36:T36"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="K2:T2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="K3:T3"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:A13">
     <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:A24 A27:A35 A38:A46">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16081,8 +16262,32 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B16:B24 B27:B35 B38:B46">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C5:C13">
     <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:C24 C27:C35 C38:C46">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16105,8 +16310,32 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D16:D24 D27:D35 D38:D46">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E5:E13">
     <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16:E24 E27:E35 E38:E46">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16129,8 +16358,32 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F16:F24 F27:F35 F38:F46">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G5:G13">
     <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16:G24 G27:G35 G38:G46">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16153,8 +16406,32 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H16:H24 H27:H35 H38:H46">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I5:I13">
     <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16:I24 I27:I35 I38:I46">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16177,8 +16454,32 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J16:J24 J27:J35 J38:J46">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K5:K13">
     <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16:K24 K27:K35 K38:K46">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16201,8 +16502,32 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="L16:L24 L27:L35 L38:L46">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M5:M13">
     <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M16:M24 M27:M35 M38:M46">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16225,8 +16550,32 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N16:N24 N27:N35 N38:N46">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O5:O13">
     <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O16:O24 O27:O35 O38:O46">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16249,8 +16598,32 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="P16:P24 P27:P35 P38:P46">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="Q5:Q13">
     <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q16:Q24 Q27:Q35 Q38:Q46">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16273,6 +16646,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="R16:R24 R27:R35 R38:R46">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="S5:S13">
     <cfRule type="colorScale" priority="22">
       <colorScale>
@@ -16285,8 +16670,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T5:T13">
-    <cfRule type="colorScale" priority="21">
+  <conditionalFormatting sqref="S16:S24 S27:S35 S38:S46">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16297,224 +16682,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A16:A24 A27:A35 A38:A46">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16:B24 B27:B35 B38:B46">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16:C24 C27:C35 C38:C46">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16:D24 D27:D35 D38:D46">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16:E24 E27:E35 E38:E46">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16:F24 F27:F35 F38:F46">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16:G24 G27:G35 G38:G46">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16:H24 H27:H35 H38:H46">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I16:I24 I27:I35 I38:I46">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J16:J24 J27:J35 J38:J46">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K16:K24 K27:K35 K38:K46">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L16:L24 L27:L35 L38:L46">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M16:M24 M27:M35 M38:M46">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N16:N24 N27:N35 N38:N46">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O16:O24 O27:O35 O38:O46">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P16:P24 P27:P35 P38:P46">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q16:Q24 Q27:Q35 Q38:Q46">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R16:R24 R27:R35 R38:R46">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S16:S24 S27:S35 S38:S46">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="T5:T13">
+    <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/Red Team Data.xlsx
+++ b/Red Team Data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Desktop\FTCStats\FTCStats\"/>
     </mc:Choice>
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -9861,8 +9861,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="10.0"/>
+    <col min="5" max="5" customWidth="true" width="10.6640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
@@ -9910,46 +9910,46 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>17</v>
       </c>
       <c r="B2" s="1">
         <v>45237</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="0">
         <v>106</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="0">
         <v>-1</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="0">
         <v>-1</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="0">
         <v>-1</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="0">
         <v>-1</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="0">
         <v>-1</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="0">
         <v>-1</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="0">
         <v>-1</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="0">
         <v>0</v>
       </c>
       <c r="R2" s="2"/>
@@ -9957,46 +9957,46 @@
       <c r="T2" s="2"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>17</v>
       </c>
       <c r="B3" s="1">
         <v>45237</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="0">
         <v>83</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="0">
         <v>-1</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="0">
         <v>-1</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="0">
         <v>-1</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="0">
         <v>-1</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="0">
         <v>-1</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="0">
         <v>-1</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="0">
         <v>-1</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="0">
         <v>0</v>
       </c>
       <c r="O3" s="2"/>
@@ -10004,1014 +10004,1014 @@
       <c r="Q3" s="2"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>17</v>
       </c>
       <c r="B4" s="1">
         <v>45237</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="0">
         <v>89</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="0">
         <v>-1</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="0">
         <v>-1</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="0">
         <v>-1</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="0">
         <v>-1</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="0">
         <v>-1</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="0">
         <v>-1</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="0">
         <v>-1</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>17</v>
       </c>
       <c r="B5" s="1">
         <v>45238</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="0">
         <v>71</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="0">
         <v>-1</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="0">
         <v>-1</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="0">
         <v>-1</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="0">
         <v>-1</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="0">
         <v>-1</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="0">
         <v>-1</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="0">
         <v>-1</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>17</v>
       </c>
       <c r="B6" s="1">
         <v>45238</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="0">
         <v>88</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="0">
         <v>-1</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="0">
         <v>-1</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="0">
         <v>-1</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="0">
         <v>-1</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="0">
         <v>-1</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="0">
         <v>-1</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="0">
         <v>-1</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>17</v>
       </c>
       <c r="B7" s="1">
         <v>45238</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="0">
         <v>111</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="0">
         <v>-1</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="0">
         <v>-1</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="0">
         <v>-1</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="0">
         <v>-1</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="0">
         <v>-1</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="0">
         <v>-1</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="0">
         <v>-1</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>17</v>
       </c>
       <c r="B8" s="1">
         <v>45238</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="0">
         <v>34</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="0">
         <v>-1</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="0">
         <v>-1</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="0">
         <v>-1</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="0">
         <v>-1</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="0">
         <v>-1</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="0">
         <v>-1</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="0">
         <v>-1</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>17</v>
       </c>
       <c r="B9" s="1">
         <v>45238</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="0">
         <v>120</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="0">
         <v>-1</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="0">
         <v>-1</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="0">
         <v>-1</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="0">
         <v>-1</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="0">
         <v>-1</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="0">
         <v>-1</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="0">
         <v>-1</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>17</v>
       </c>
       <c r="B10" s="1">
         <v>45238</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="0">
         <v>75</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="0">
         <v>-1</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="0">
         <v>-1</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="0">
         <v>-1</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="0">
         <v>-1</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="0">
         <v>-1</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="0">
         <v>-1</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="0">
         <v>-1</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>17</v>
       </c>
       <c r="B11" s="1">
         <v>45237</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="0">
         <v>111</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="0">
         <v>45</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="0">
         <v>26</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="0">
         <v>3</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="0">
         <v>6</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="0">
         <v>1</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="0">
         <v>1</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="0">
         <v>30</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>17</v>
       </c>
       <c r="B12" s="1">
         <v>45238</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="0">
         <v>107</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="0">
         <v>50</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="0">
         <v>57</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="0">
         <v>4</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="0">
         <v>7</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="0">
         <v>1</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="0">
         <v>1</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="0">
         <v>20</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>18</v>
       </c>
       <c r="B13" s="1">
         <v>45234</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" t="s" s="0">
         <v>3</v>
       </c>
       <c r="D13" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="0">
         <v>40</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="0">
         <v>20</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="0">
         <v>0</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="0">
         <v>1</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="0">
         <v>0</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="0">
         <v>0</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="0">
         <v>0</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="0">
         <v>20</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>18</v>
       </c>
       <c r="B14" s="1">
         <v>45234</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="0">
         <v>101</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="0">
         <v>28</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="0">
         <v>23</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="0">
         <v>3</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="0">
         <v>5</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="0">
         <v>1</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="0">
         <v>0</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="0">
         <v>50</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>18</v>
       </c>
       <c r="B15" s="1">
         <v>45234</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="0">
         <v>110</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="0">
         <v>50</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="0">
         <v>20</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="0">
         <v>2</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="0">
         <v>4</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="0">
         <v>1</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="0">
         <v>0</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="0">
         <v>40</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>18</v>
       </c>
       <c r="B16" s="1">
         <v>45234</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="0">
         <v>72</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="0">
         <v>28</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="0">
         <v>14</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="0">
         <v>3</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="0">
         <v>6</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="0">
         <v>0</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="0">
         <v>0</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="0">
         <v>30</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>18</v>
       </c>
       <c r="B17" s="1">
         <v>45234</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="0">
         <v>80</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="0">
         <v>50</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="0">
         <v>10</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="0">
         <v>3</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="0">
         <v>6</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="0">
         <v>0</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="0">
         <v>0</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="0">
         <v>20</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>18</v>
       </c>
       <c r="B18" s="1">
         <v>45234</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="0">
         <v>66</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="0">
         <v>20</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="0">
         <v>6</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="0">
         <v>3</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="0">
         <v>4</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="0">
         <v>0</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="0">
         <v>0</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="0">
         <v>40</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>18</v>
       </c>
       <c r="B19" s="1">
         <v>45234</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="0">
         <v>57</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="0">
         <v>8</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="0">
         <v>9</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="0">
         <v>3</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="0">
         <v>7</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="0">
         <v>0</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="0">
         <v>0</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="0">
         <v>40</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>45234</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="0">
         <v>31</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="0">
         <v>0</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="0">
         <v>11</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="0">
         <v>4</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="0">
         <v>5</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="0">
         <v>0</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="0">
         <v>0</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="0">
         <v>20</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>18</v>
       </c>
       <c r="B21" s="1">
         <v>45234</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="0">
         <v>79</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="0">
         <v>50</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="0">
         <v>9</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="0">
         <v>3</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="0">
         <v>5</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="0">
         <v>0</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="0">
         <v>0</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="0">
         <v>20</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>18</v>
       </c>
       <c r="B22" s="1">
         <v>45241</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="0">
         <v>29</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="0">
         <v>25</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="0">
         <v>4</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="0">
         <v>2</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="0">
         <v>2</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="0">
         <v>0</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="0">
         <v>0</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="0">
         <v>0</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>18</v>
       </c>
       <c r="B23" s="1">
         <v>45241</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="0">
         <v>83</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="0">
         <v>28</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="0">
         <v>5</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="0">
         <v>2</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="0">
         <v>5</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="0">
         <v>0</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="0">
         <v>0</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="0">
         <v>50</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>18</v>
       </c>
       <c r="B24" s="1">
         <v>45241</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="0">
         <v>76</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="0">
         <v>50</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="0">
         <v>6</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="0">
         <v>4</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="0">
         <v>4</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="0">
         <v>0</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="0">
         <v>0</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="0">
         <v>20</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="A25" t="s" s="0">
         <v>18</v>
       </c>
       <c r="B25" s="1">
         <v>45241</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="0">
         <v>32</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="0">
         <v>3</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="0">
         <v>8</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="0">
         <v>3</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="0">
         <v>3</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="0">
         <v>0</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="0">
         <v>0</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="0">
         <v>20</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="A26" t="s" s="0">
         <v>18</v>
       </c>
       <c r="B26" s="1">
         <v>45241</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="0">
         <v>66</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="0">
         <v>20</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="0">
         <v>6</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="0">
         <v>2</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="0">
         <v>2</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="0">
         <v>0</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="0">
         <v>0</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="0">
         <v>40</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="0">
         <v>0</v>
       </c>
       <c r="T26" s="49"/>
@@ -11022,222 +11022,222 @@
       <c r="Y26" s="2"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="A27" t="s" s="0">
         <v>18</v>
       </c>
       <c r="B27" s="1">
         <v>45241</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="0">
         <v>85</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="0">
         <v>28</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="0">
         <v>7</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="0">
         <v>4</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="0">
         <v>5</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="0">
         <v>0</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="0">
         <v>0</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="0">
         <v>50</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="A28" t="s" s="0">
         <v>17</v>
       </c>
       <c r="B28" s="1">
         <v>45255</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="0">
         <v>65</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="0">
         <v>30</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="0">
         <v>10</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="0">
         <v>2</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="0">
         <v>4</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="0">
         <v>0</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="0">
         <v>0</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="0">
         <v>25</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="A29" t="s" s="0">
         <v>17</v>
       </c>
       <c r="B29" s="1">
         <v>45255</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="0">
         <v>40</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="0">
         <v>8</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="0">
         <v>7</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="0">
         <v>2</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="0">
         <v>3</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="0">
         <v>0</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="0">
         <v>0</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="0">
         <v>25</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="A30" t="s" s="0">
         <v>17</v>
       </c>
       <c r="B30" s="1">
         <v>45255</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="0">
         <v>72</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="0">
         <v>28</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="0">
         <v>19</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="0">
         <v>1</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="0">
         <v>3</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="0">
         <v>1</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="0">
         <v>0</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="0">
         <v>25</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="A31" t="s" s="0">
         <v>17</v>
       </c>
       <c r="B31" s="1">
         <v>45256</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="0">
         <v>102</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="0">
         <v>50</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="0">
         <v>27</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="0">
         <v>3</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="0">
         <v>7</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="0">
         <v>0</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="0">
         <v>1</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="0">
         <v>25</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="0">
         <v>0</v>
       </c>
       <c r="T31" s="50"/>
@@ -11246,90 +11246,90 @@
       <c r="W31" s="50"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="A32" t="s" s="0">
         <v>17</v>
       </c>
       <c r="B32" s="1">
         <v>45256</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="0">
         <v>55</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="0">
         <v>8</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="0">
         <v>22</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="0">
         <v>1</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="0">
         <v>3</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="0">
         <v>1</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="0">
         <v>0</v>
       </c>
-      <c r="M32">
+      <c r="M32" s="0">
         <v>25</v>
       </c>
-      <c r="N32">
+      <c r="N32" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="A33" t="s" s="0">
         <v>17</v>
       </c>
       <c r="B33" s="1">
         <v>45256</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="0">
         <v>75</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="0">
         <v>28</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="0">
         <v>22</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="0">
         <v>1</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="0">
         <v>3</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="0">
         <v>1</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="0">
         <v>0</v>
       </c>
-      <c r="M33">
+      <c r="M33" s="0">
         <v>25</v>
       </c>
-      <c r="N33">
+      <c r="N33" s="0">
         <v>0</v>
       </c>
     </row>
@@ -11340,84 +11340,84 @@
       <c r="B34" s="1">
         <v>45256</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="0">
         <v>85</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="0">
         <v>50</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="0">
         <v>10</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="0">
         <v>2</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="0">
         <v>4</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="0">
         <v>0</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="0">
         <v>0</v>
       </c>
-      <c r="M34">
+      <c r="M34" s="0">
         <v>25</v>
       </c>
-      <c r="N34">
+      <c r="N34" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="A35" t="s" s="0">
         <v>17</v>
       </c>
       <c r="B35" s="1">
         <v>45256</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="0">
         <v>100</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="0">
         <v>50</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="0">
         <v>25</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="0">
         <v>2</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="0">
         <v>5</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="0">
         <v>0</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="0">
         <v>1</v>
       </c>
-      <c r="M35">
+      <c r="M35" s="0">
         <v>25</v>
       </c>
-      <c r="N35">
+      <c r="N35" s="0">
         <v>0</v>
       </c>
     </row>
@@ -11428,84 +11428,84 @@
       <c r="B36" s="1">
         <v>45256</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="0">
         <v>99</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="0">
         <v>50</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="0">
         <v>24</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="0">
         <v>3</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="0">
         <v>6</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="0">
         <v>1</v>
       </c>
-      <c r="L36">
+      <c r="L36" s="0">
         <v>0</v>
       </c>
-      <c r="M36">
+      <c r="M36" s="0">
         <v>25</v>
       </c>
-      <c r="N36">
+      <c r="N36" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="A37" t="s" s="0">
         <v>17</v>
       </c>
       <c r="B37" s="1">
         <v>45256</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="0">
         <v>97</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="0">
         <v>50</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="0">
         <v>22</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="0">
         <v>-1</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="0">
         <v>-1</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="0">
         <v>-1</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="0">
         <v>-1</v>
       </c>
-      <c r="M37">
+      <c r="M37" s="0">
         <v>25</v>
       </c>
-      <c r="N37">
+      <c r="N37" s="0">
         <v>0</v>
       </c>
     </row>
@@ -11516,84 +11516,84 @@
       <c r="B38" s="1">
         <v>45256</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="0">
         <v>87</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="0">
         <v>50</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="0">
         <v>12</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="0">
         <v>-1</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="0">
         <v>-1</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="0">
         <v>-1</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="0">
         <v>-1</v>
       </c>
-      <c r="M38">
+      <c r="M38" s="0">
         <v>25</v>
       </c>
-      <c r="N38">
+      <c r="N38" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="A39" t="s" s="0">
         <v>17</v>
       </c>
       <c r="B39" s="1">
         <v>45256</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="0">
         <v>91</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="0">
         <v>50</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="0">
         <v>16</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="0">
         <v>-1</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="0">
         <v>-1</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="0">
         <v>-1</v>
       </c>
-      <c r="L39">
+      <c r="L39" s="0">
         <v>-1</v>
       </c>
-      <c r="M39">
+      <c r="M39" s="0">
         <v>25</v>
       </c>
-      <c r="N39">
+      <c r="N39" s="0">
         <v>0</v>
       </c>
     </row>
@@ -11604,832 +11604,832 @@
       <c r="B40" s="1">
         <v>45256</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="0">
         <v>78</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="0">
         <v>45</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="0">
         <v>8</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="0">
         <v>-1</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="0">
         <v>-1</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="0">
         <v>-1</v>
       </c>
-      <c r="L40">
+      <c r="L40" s="0">
         <v>-1</v>
       </c>
-      <c r="M40">
+      <c r="M40" s="0">
         <v>25</v>
       </c>
-      <c r="N40">
+      <c r="N40" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="A41" t="s" s="0">
         <v>17</v>
       </c>
       <c r="B41" s="1">
         <v>45256</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="0">
         <v>115</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="0">
         <v>50</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="0">
         <v>40</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="0">
         <v>4</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="0">
         <v>8</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="0">
         <v>1</v>
       </c>
-      <c r="L41">
+      <c r="L41" s="0">
         <v>1</v>
       </c>
-      <c r="M41">
+      <c r="M41" s="0">
         <v>25</v>
       </c>
-      <c r="N41">
+      <c r="N41" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="A42" t="s" s="0">
         <v>17</v>
       </c>
       <c r="B42" s="1">
         <v>45256</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="0">
         <v>90</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="0">
         <v>30</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="0">
         <v>35</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="0">
         <v>-1</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="0">
         <v>-1</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="0">
         <v>-1</v>
       </c>
-      <c r="L42">
+      <c r="L42" s="0">
         <v>-1</v>
       </c>
-      <c r="M42">
+      <c r="M42" s="0">
         <v>25</v>
       </c>
-      <c r="N42">
+      <c r="N42" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="A43" t="s" s="0">
         <v>17</v>
       </c>
       <c r="B43" s="1">
         <v>45256</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="0">
         <v>93</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="0">
         <v>50</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="0">
         <v>18</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="0">
         <v>-1</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="0">
         <v>-1</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="0">
         <v>-1</v>
       </c>
-      <c r="L43">
+      <c r="L43" s="0">
         <v>-1</v>
       </c>
-      <c r="M43">
+      <c r="M43" s="0">
         <v>25</v>
       </c>
-      <c r="N43">
+      <c r="N43" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="A44" t="s" s="0">
         <v>17</v>
       </c>
       <c r="B44" s="1">
         <v>45256</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="0">
         <v>42</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="0">
         <v>30</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="0">
         <v>12</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="0">
         <v>-1</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="0">
         <v>-1</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="0">
         <v>-1</v>
       </c>
-      <c r="L44">
+      <c r="L44" s="0">
         <v>-1</v>
       </c>
-      <c r="M44">
+      <c r="M44" s="0">
         <v>0</v>
       </c>
-      <c r="N44">
+      <c r="N44" s="0">
         <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="A45" t="s" s="0">
         <v>17</v>
       </c>
       <c r="B45" s="1">
         <v>45257</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="0">
         <v>85</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="0">
         <v>33</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="0">
         <v>-1</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="0">
         <v>-1</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="0">
         <v>-1</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="0">
         <v>-1</v>
       </c>
-      <c r="L45">
+      <c r="L45" s="0">
         <v>-1</v>
       </c>
-      <c r="M45">
+      <c r="M45" s="0">
         <v>-1</v>
       </c>
-      <c r="N45">
+      <c r="N45" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="A46" t="s" s="0">
         <v>17</v>
       </c>
       <c r="B46" s="1">
         <v>45257</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="0">
         <v>70</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="0">
         <v>28</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="0">
         <v>-1</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="0">
         <v>-1</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="0">
         <v>-1</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="0">
         <v>-1</v>
       </c>
-      <c r="L46">
+      <c r="L46" s="0">
         <v>-1</v>
       </c>
-      <c r="M46">
+      <c r="M46" s="0">
         <v>-1</v>
       </c>
-      <c r="N46">
+      <c r="N46" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+      <c r="A47" t="s" s="0">
         <v>17</v>
       </c>
       <c r="B47" s="1">
         <v>45257</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="0">
         <v>44</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="0">
         <v>30</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="0">
         <v>14</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="0">
         <v>-1</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="0">
         <v>-1</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="0">
         <v>-1</v>
       </c>
-      <c r="L47">
+      <c r="L47" s="0">
         <v>-1</v>
       </c>
-      <c r="M47">
+      <c r="M47" s="0">
         <v>-1</v>
       </c>
-      <c r="N47">
+      <c r="N47" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="A48" t="s" s="0">
         <v>17</v>
       </c>
       <c r="B48" s="1">
         <v>45257</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="0">
         <v>72</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="0">
         <v>30</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="0">
         <v>-1</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="0">
         <v>-1</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="0">
         <v>-1</v>
       </c>
-      <c r="K48">
+      <c r="K48" s="0">
         <v>-1</v>
       </c>
-      <c r="L48">
+      <c r="L48" s="0">
         <v>-1</v>
       </c>
-      <c r="M48">
+      <c r="M48" s="0">
         <v>-1</v>
       </c>
-      <c r="N48">
+      <c r="N48" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="A49" t="s" s="0">
         <v>17</v>
       </c>
       <c r="B49" s="1">
         <v>45257</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="0">
         <v>97</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="0">
         <v>50</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="0">
         <v>-1</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="0">
         <v>-1</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="0">
         <v>-1</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="0">
         <v>-1</v>
       </c>
-      <c r="L49">
+      <c r="L49" s="0">
         <v>-1</v>
       </c>
-      <c r="M49">
+      <c r="M49" s="0">
         <v>-1</v>
       </c>
-      <c r="N49">
+      <c r="N49" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="A50" t="s" s="0">
         <v>17</v>
       </c>
       <c r="B50" s="1">
         <v>45257</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="0">
         <v>104</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="0">
         <v>50</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="0">
         <v>-1</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="0">
         <v>-1</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="0">
         <v>-1</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="0">
         <v>-1</v>
       </c>
-      <c r="L50">
+      <c r="L50" s="0">
         <v>-1</v>
       </c>
-      <c r="M50">
+      <c r="M50" s="0">
         <v>-1</v>
       </c>
-      <c r="N50">
+      <c r="N50" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="A51" t="s" s="0">
         <v>17</v>
       </c>
       <c r="B51" s="1">
         <v>45257</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="0">
         <v>34</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="0">
         <v>10</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="0">
         <v>-1</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="0">
         <v>-1</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="0">
         <v>-1</v>
       </c>
-      <c r="K51">
+      <c r="K51" s="0">
         <v>-1</v>
       </c>
-      <c r="L51">
+      <c r="L51" s="0">
         <v>-1</v>
       </c>
-      <c r="M51">
+      <c r="M51" s="0">
         <v>-1</v>
       </c>
-      <c r="N51">
+      <c r="N51" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+      <c r="A52" t="s" s="0">
         <v>17</v>
       </c>
       <c r="B52" s="1">
         <v>45257</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="0">
         <v>104</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="0">
         <v>30</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="0">
         <v>-1</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="0">
         <v>-1</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="0">
         <v>-1</v>
       </c>
-      <c r="K52">
+      <c r="K52" s="0">
         <v>-1</v>
       </c>
-      <c r="L52">
+      <c r="L52" s="0">
         <v>-1</v>
       </c>
-      <c r="M52">
+      <c r="M52" s="0">
         <v>-1</v>
       </c>
-      <c r="N52">
+      <c r="N52" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+      <c r="A53" t="s" s="0">
         <v>17</v>
       </c>
       <c r="B53" s="1">
         <v>45257</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="0">
         <v>53</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="0">
         <v>30</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="0">
         <v>-1</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="0">
         <v>-1</v>
       </c>
-      <c r="J53">
+      <c r="J53" s="0">
         <v>-1</v>
       </c>
-      <c r="K53">
+      <c r="K53" s="0">
         <v>-1</v>
       </c>
-      <c r="L53">
+      <c r="L53" s="0">
         <v>-1</v>
       </c>
-      <c r="M53">
+      <c r="M53" s="0">
         <v>-1</v>
       </c>
-      <c r="N53">
+      <c r="N53" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="A54" t="s" s="0">
         <v>17</v>
       </c>
       <c r="B54" s="1">
         <v>45257</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="0">
         <v>80</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="0">
         <v>30</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="0">
         <v>-1</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="0">
         <v>-1</v>
       </c>
-      <c r="J54">
+      <c r="J54" s="0">
         <v>-1</v>
       </c>
-      <c r="K54">
+      <c r="K54" s="0">
         <v>-1</v>
       </c>
-      <c r="L54">
+      <c r="L54" s="0">
         <v>-1</v>
       </c>
-      <c r="M54">
+      <c r="M54" s="0">
         <v>-1</v>
       </c>
-      <c r="N54">
+      <c r="N54" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+      <c r="A55" t="s" s="0">
         <v>17</v>
       </c>
       <c r="B55" s="1">
         <v>45257</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="0">
         <v>66</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="0">
         <v>30</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="0">
         <v>-1</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="0">
         <v>-1</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="0">
         <v>-1</v>
       </c>
-      <c r="K55">
+      <c r="K55" s="0">
         <v>-1</v>
       </c>
-      <c r="L55">
+      <c r="L55" s="0">
         <v>-1</v>
       </c>
-      <c r="M55">
+      <c r="M55" s="0">
         <v>-1</v>
       </c>
-      <c r="N55">
+      <c r="N55" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+      <c r="A56" t="s" s="0">
         <v>18</v>
       </c>
       <c r="B56" s="1">
         <v>45262</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="0">
         <v>54</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="0">
         <v>25</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="0">
         <v>24</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="0">
         <v>4</v>
       </c>
-      <c r="J56">
+      <c r="J56" s="0">
         <v>7</v>
       </c>
-      <c r="K56">
+      <c r="K56" s="0">
         <v>1</v>
       </c>
-      <c r="L56">
+      <c r="L56" s="0">
         <v>0</v>
       </c>
-      <c r="M56">
+      <c r="M56" s="0">
         <v>5</v>
       </c>
-      <c r="N56">
+      <c r="N56" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+      <c r="A57" t="s" s="0">
         <v>18</v>
       </c>
       <c r="B57" s="1">
         <v>45262</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="0">
         <v>62</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="0">
         <v>50</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="0">
         <v>12</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="0">
         <v>3</v>
       </c>
-      <c r="J57">
+      <c r="J57" s="0">
         <v>4</v>
       </c>
-      <c r="K57">
+      <c r="K57" s="0">
         <v>0</v>
       </c>
-      <c r="L57">
+      <c r="L57" s="0">
         <v>1</v>
       </c>
-      <c r="M57">
+      <c r="M57" s="0">
         <v>0</v>
       </c>
-      <c r="N57">
+      <c r="N57" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+      <c r="A58" t="s" s="0">
         <v>18</v>
       </c>
       <c r="B58" s="1">
         <v>45262</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="0">
         <v>71</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="0">
         <v>30</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="0">
         <v>21</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="0">
         <v>-1</v>
       </c>
-      <c r="J58">
+      <c r="J58" s="0">
         <v>5</v>
       </c>
-      <c r="K58">
+      <c r="K58" s="0">
         <v>-1</v>
       </c>
-      <c r="L58">
+      <c r="L58" s="0">
         <v>0</v>
       </c>
-      <c r="M58">
+      <c r="M58" s="0">
         <v>20</v>
       </c>
-      <c r="N58">
+      <c r="N58" s="0">
         <v>0</v>
       </c>
     </row>
@@ -12440,172 +12440,172 @@
       <c r="B59" s="1">
         <v>45262</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="0">
         <v>53</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="0">
         <v>25</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="0">
         <v>8</v>
       </c>
-      <c r="I59">
+      <c r="I59" s="0">
         <v>2</v>
       </c>
-      <c r="J59">
+      <c r="J59" s="0">
         <v>4</v>
       </c>
-      <c r="K59">
+      <c r="K59" s="0">
         <v>0</v>
       </c>
-      <c r="L59">
+      <c r="L59" s="0">
         <v>0</v>
       </c>
-      <c r="M59">
+      <c r="M59" s="0">
         <v>20</v>
       </c>
-      <c r="N59">
+      <c r="N59" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+      <c r="A60" t="s" s="0">
         <v>18</v>
       </c>
       <c r="B60" s="1">
         <v>45262</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="0">
         <v>59</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="0">
         <v>50</v>
       </c>
-      <c r="H60">
+      <c r="H60" s="0">
         <v>12</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="0">
         <v>2</v>
       </c>
-      <c r="J60">
+      <c r="J60" s="0">
         <v>4</v>
       </c>
-      <c r="K60">
+      <c r="K60" s="0">
         <v>0</v>
       </c>
-      <c r="L60">
+      <c r="L60" s="0">
         <v>0</v>
       </c>
-      <c r="M60">
+      <c r="M60" s="0">
         <v>0</v>
       </c>
-      <c r="N60">
+      <c r="N60" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+      <c r="A61" t="s" s="0">
         <v>18</v>
       </c>
       <c r="B61" s="1">
         <v>45262</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="0">
         <v>43</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="0">
         <v>30</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="0">
         <v>13</v>
       </c>
-      <c r="I61">
+      <c r="I61" s="0">
         <v>2</v>
       </c>
-      <c r="J61">
+      <c r="J61" s="0">
         <v>5</v>
       </c>
-      <c r="K61">
+      <c r="K61" s="0">
         <v>0</v>
       </c>
-      <c r="L61">
+      <c r="L61" s="0">
         <v>0</v>
       </c>
-      <c r="M61">
+      <c r="M61" s="0">
         <v>0</v>
       </c>
-      <c r="N61">
+      <c r="N61" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+      <c r="A62" t="s" s="0">
         <v>18</v>
       </c>
       <c r="B62" s="1">
         <v>45262</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="0">
         <v>45</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="0">
         <v>30</v>
       </c>
-      <c r="H62">
+      <c r="H62" s="0">
         <v>10</v>
       </c>
-      <c r="I62">
+      <c r="I62" s="0">
         <v>3</v>
       </c>
-      <c r="J62">
+      <c r="J62" s="0">
         <v>4</v>
       </c>
-      <c r="K62">
+      <c r="K62" s="0">
         <v>0</v>
       </c>
-      <c r="L62">
+      <c r="L62" s="0">
         <v>0</v>
       </c>
-      <c r="M62">
+      <c r="M62" s="0">
         <v>5</v>
       </c>
-      <c r="N62">
+      <c r="N62" s="0">
         <v>0</v>
       </c>
     </row>
@@ -12659,7 +12659,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="9" width="15.77734375" customWidth="1"/>
+    <col min="1" max="9" customWidth="true" width="15.77734375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.4">
@@ -12705,32 +12705,32 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="48">
-        <v>65.877769517295945</v>
-      </c>
-      <c r="B3" s="48">
+      <c r="A3" s="48" t="n">
+        <v>65.87776951729595</v>
+      </c>
+      <c r="B3" s="48" t="n">
         <v>34.62985746405478</v>
       </c>
-      <c r="C3" s="48">
+      <c r="C3" s="48" t="n">
         <v>15.472177777537024</v>
       </c>
-      <c r="D3" s="48">
-        <v>2.5530635838299549</v>
-      </c>
-      <c r="E3" s="48">
-        <v>4.6374196224632289</v>
-      </c>
-      <c r="F3" s="48">
+      <c r="D3" s="48" t="n">
+        <v>2.553063583829955</v>
+      </c>
+      <c r="E3" s="48" t="n">
+        <v>4.637419622463229</v>
+      </c>
+      <c r="F3" s="48" t="n">
         <v>0.23791907514276664</v>
       </c>
-      <c r="G3" s="48">
+      <c r="G3" s="48" t="n">
         <v>0.16780750880726128</v>
       </c>
-      <c r="H3" s="48">
+      <c r="H3" s="48" t="n">
         <v>13.653323674461893</v>
       </c>
-      <c r="I3" s="48">
-        <v>-1.3561338289557761</v>
+      <c r="I3" s="48" t="n">
+        <v>-1.356133828955776</v>
       </c>
     </row>
   </sheetData>
@@ -12798,323 +12798,323 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="A3" s="6" t="n">
         <v>59.551448971595015</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="6" t="n">
         <v>27.373668512503553</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="6" t="n">
         <v>16.549877149408207</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="6" t="n">
         <v>3.0632383599539184</v>
       </c>
-      <c r="E3" s="6">
-        <v>4.9245478035930317</v>
-      </c>
-      <c r="F3" s="6">
-        <v>0.42460041691986039</v>
-      </c>
-      <c r="G3" s="6">
-        <v>3.6175710617634359E-3</v>
-      </c>
-      <c r="H3" s="6">
+      <c r="E3" s="6" t="n">
+        <v>4.924547803593032</v>
+      </c>
+      <c r="F3" s="6" t="n">
+        <v>0.4246004169198604</v>
+      </c>
+      <c r="G3" s="6" t="n">
+        <v>0.003617571061763436</v>
+      </c>
+      <c r="H3" s="6" t="n">
         <v>12.491400492965441</v>
       </c>
-      <c r="I3" s="33">
+      <c r="I3" s="33" t="n">
         <v>-1.3103737925544723</v>
       </c>
-      <c r="J3" s="36">
+      <c r="J3" s="36" t="n">
         <v>100.97859877026116</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>70.766887418160735</v>
-      </c>
-      <c r="B4" s="4">
-        <v>43.039814200310573</v>
-      </c>
-      <c r="C4" s="4">
+      <c r="A4" s="4" t="n">
+        <v>70.76688741816074</v>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>43.03981420031057</v>
+      </c>
+      <c r="C4" s="4" t="n">
         <v>15.456698741655773</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="4" t="n">
         <v>2.4074074074074074</v>
       </c>
-      <c r="E4" s="4">
-        <v>4.5965965966022999</v>
-      </c>
-      <c r="F4" s="4">
+      <c r="E4" s="4" t="n">
+        <v>4.5965965966023</v>
+      </c>
+      <c r="F4" s="4" t="n">
         <v>0.10910910912327464</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="4" t="n">
         <v>0.35135135133957746</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="4" t="n">
         <v>11.354888376819327</v>
       </c>
-      <c r="I4" s="34">
+      <c r="I4" s="34" t="n">
         <v>-1.9867549667919826</v>
       </c>
-      <c r="J4" s="37">
+      <c r="J4" s="37" t="n">
         <v>113.42932228909248</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" t="s" s="0">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="7">
-        <v>66.102719033504528</v>
-      </c>
-      <c r="B5" s="7">
+      <c r="A5" s="7" t="n">
+        <v>66.10271903350453</v>
+      </c>
+      <c r="B5" s="7" t="n">
         <v>28.251533742508137</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="7" t="n">
         <v>13.049549549105542</v>
       </c>
-      <c r="D5" s="7">
-        <v>2.0540540540987582</v>
-      </c>
-      <c r="E5" s="7">
-        <v>4.1036036035106074</v>
-      </c>
-      <c r="F5" s="7">
+      <c r="D5" s="7" t="n">
+        <v>2.054054054098758</v>
+      </c>
+      <c r="E5" s="7" t="n">
+        <v>4.103603603510607</v>
+      </c>
+      <c r="F5" s="7" t="n">
         <v>0.22522522521749858</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="7" t="n">
         <v>0.11261261260874929</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="7" t="n">
         <v>23.040540540987582</v>
       </c>
-      <c r="I5" s="32">
+      <c r="I5" s="32" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="J5" s="38" t="n">
+        <v>81.62935983205446</v>
+      </c>
+      <c r="K5" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="n">
+        <v>62.42502299917915</v>
+      </c>
+      <c r="B6" s="6" t="n">
+        <v>28.537727132293995</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>16.04304485673152</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>3.007299270038739</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>4.86120818766228</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.4054412740190331</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.0034947578654492555</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>13.628150263288726</v>
+      </c>
+      <c r="I6" s="33" t="n">
+        <v>-1.2756823060671048</v>
+      </c>
+      <c r="J6" s="39" t="n">
+        <v>99.55763748378948</v>
+      </c>
+      <c r="K6" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="n">
+        <v>70.92196078558828</v>
+      </c>
+      <c r="B7" s="4" t="n">
+        <v>45.055599682434995</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>15.833200953251318</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>2.4244004171083042</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>4.642335766448563</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>0.11366006258184523</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>0.3660062565111129</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>10.285941223928274</v>
+      </c>
+      <c r="I7" s="34" t="n">
+        <v>-1.945098039113286</v>
+      </c>
+      <c r="J7" s="37" t="n">
+        <v>114.28012550930919</v>
+      </c>
+      <c r="K7" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="n">
+        <v>64.12363238593363</v>
+      </c>
+      <c r="B8" s="7" t="n">
+        <v>27.440000000307055</v>
+      </c>
+      <c r="C8" s="7" t="n">
+        <v>13.062222221808646</v>
+      </c>
+      <c r="D8" s="7" t="n">
+        <v>2.0666666667351703</v>
+      </c>
+      <c r="E8" s="7" t="n">
+        <v>4.12888888884604</v>
+      </c>
+      <c r="F8" s="7" t="n">
+        <v>0.22222222220879015</v>
+      </c>
+      <c r="G8" s="7" t="n">
+        <v>0.11111111110439507</v>
+      </c>
+      <c r="H8" s="7" t="n">
+        <v>23.133333333953896</v>
+      </c>
+      <c r="I8" s="32" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="J8" s="38" t="n">
+        <v>81.31305050547553</v>
+      </c>
+      <c r="K8" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="J5" s="38">
-        <v>81.629359832054462</v>
-      </c>
-      <c r="K5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
-        <v>62.425022999179149</v>
-      </c>
-      <c r="B6" s="6">
-        <v>28.537727132293995</v>
-      </c>
-      <c r="C6" s="6">
-        <v>16.04304485673152</v>
-      </c>
-      <c r="D6" s="6">
-        <v>3.0072992700387391</v>
-      </c>
-      <c r="E6" s="6">
-        <v>4.8612081876622799</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0.40544127401903313</v>
-      </c>
-      <c r="G6" s="6">
-        <v>3.4947578654492555E-3</v>
-      </c>
-      <c r="H6" s="6">
-        <v>13.628150263288726</v>
-      </c>
-      <c r="I6" s="33">
-        <v>-1.2756823060671048</v>
-      </c>
-      <c r="J6" s="39">
-        <v>99.557637483789478</v>
-      </c>
-      <c r="K6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>70.921960785588283</v>
-      </c>
-      <c r="B7" s="4">
-        <v>45.055599682434995</v>
-      </c>
-      <c r="C7" s="4">
-        <v>15.833200953251318</v>
-      </c>
-      <c r="D7" s="4">
-        <v>2.4244004171083042</v>
-      </c>
-      <c r="E7" s="4">
-        <v>4.6423357664485634</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0.11366006258184523</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0.3660062565111129</v>
-      </c>
-      <c r="H7" s="4">
-        <v>10.285941223928274</v>
-      </c>
-      <c r="I7" s="34">
-        <v>-1.9450980391132859</v>
-      </c>
-      <c r="J7" s="37">
-        <v>114.28012550930919</v>
-      </c>
-      <c r="K7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="7">
-        <v>64.123632385933632</v>
-      </c>
-      <c r="B8" s="7">
-        <v>27.440000000307055</v>
-      </c>
-      <c r="C8" s="7">
-        <v>13.062222221808646</v>
-      </c>
-      <c r="D8" s="7">
-        <v>2.0666666667351703</v>
-      </c>
-      <c r="E8" s="7">
-        <v>4.1288888888460402</v>
-      </c>
-      <c r="F8" s="7">
-        <v>0.22222222220879015</v>
-      </c>
-      <c r="G8" s="7">
-        <v>0.11111111110439507</v>
-      </c>
-      <c r="H8" s="7">
-        <v>23.133333333953896</v>
-      </c>
-      <c r="I8" s="32">
-        <v>0</v>
-      </c>
-      <c r="J8" s="38">
-        <v>81.31305050547553</v>
-      </c>
-      <c r="K8" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
-        <v>65.873508353524727</v>
-      </c>
-      <c r="B9" s="6">
+      <c r="A9" s="6" t="n">
+        <v>65.87350835352473</v>
+      </c>
+      <c r="B9" s="6" t="n">
         <v>28.076372314571582</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="6" t="n">
         <v>12.446366782050642</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="6" t="n">
         <v>1.9886363637952995</v>
       </c>
-      <c r="E9" s="6">
-        <v>4.0984848486528582</v>
-      </c>
-      <c r="F9" s="6">
+      <c r="E9" s="6" t="n">
+        <v>4.098484848652858</v>
+      </c>
+      <c r="F9" s="6" t="n">
         <v>0.19696969697086777</v>
       </c>
-      <c r="G9" s="6">
-        <v>9.4696969686139817E-2</v>
-      </c>
-      <c r="H9" s="6">
-        <v>21.211072665903931</v>
-      </c>
-      <c r="I9" s="33">
+      <c r="G9" s="6" t="n">
+        <v>0.09469696968613982</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>21.21107266590393</v>
+      </c>
+      <c r="I9" s="33" t="n">
         <v>-1.8615751790123318</v>
       </c>
-      <c r="J9" s="39">
-        <v>97.731769220069111</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="J9" s="39" t="n">
+        <v>97.73176922006911</v>
+      </c>
+      <c r="K9" t="s" s="0">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>69.810429880864433</v>
-      </c>
-      <c r="B10" s="4">
+      <c r="A10" s="4" t="n">
+        <v>69.81042988086443</v>
+      </c>
+      <c r="B10" s="4" t="n">
         <v>42.540521493937796</v>
       </c>
-      <c r="C10" s="4">
-        <v>15.995437262322451</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="C10" s="4" t="n">
+        <v>15.99543726232245</v>
+      </c>
+      <c r="D10" s="4" t="n">
         <v>2.3458128078716878</v>
       </c>
-      <c r="E10" s="4">
-        <v>4.5339901477522551</v>
-      </c>
-      <c r="F10" s="4">
+      <c r="E10" s="4" t="n">
+        <v>4.533990147752255</v>
+      </c>
+      <c r="F10" s="4" t="n">
         <v>0.15665024631986063</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="4" t="n">
         <v>0.34581280787168783</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="4" t="n">
         <v>10.889733841096856</v>
       </c>
-      <c r="I10" s="34">
+      <c r="I10" s="34" t="n">
         <v>-1.7477096545965678</v>
       </c>
-      <c r="J10" s="37">
+      <c r="J10" s="37" t="n">
         <v>113.24185612388402</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="5">
+      <c r="A11" s="5" t="n">
         <v>60.833107192110724</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="5" t="n">
         <v>29.298930729799483</v>
       </c>
-      <c r="C11" s="5">
-        <v>16.625883631879439</v>
-      </c>
-      <c r="D11" s="5">
+      <c r="C11" s="5" t="n">
+        <v>16.62588363187944</v>
+      </c>
+      <c r="D11" s="5" t="n">
         <v>3.3736884583886666</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="5" t="n">
         <v>5.086455331316821</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="5" t="n">
         <v>0.40597255848123087</v>
       </c>
-      <c r="G11" s="5">
-        <v>4.0345821353298178E-3</v>
-      </c>
-      <c r="H11" s="5">
+      <c r="G11" s="5" t="n">
+        <v>0.004034582135329818</v>
+      </c>
+      <c r="H11" s="5" t="n">
         <v>12.806916427630345</v>
       </c>
-      <c r="I11" s="35">
-        <v>-0.47037539572977921</v>
-      </c>
-      <c r="J11" s="40">
-        <v>91.573713757997297</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="I11" s="35" t="n">
+        <v>-0.4703753957297792</v>
+      </c>
+      <c r="J11" s="40" t="n">
+        <v>91.5737137579973</v>
+      </c>
+      <c r="K11" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>19</v>
       </c>
     </row>
@@ -13411,102 +13411,102 @@
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
-        <v>60.988235985387078</v>
-      </c>
-      <c r="B5" s="12">
+      <c r="A5" s="9" t="n">
+        <v>60.98823598538708</v>
+      </c>
+      <c r="B5" s="12" t="n">
         <v>27.955697822398776</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="12" t="n">
         <v>16.296461003069865</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="12" t="n">
         <v>3.0352688149963285</v>
       </c>
-      <c r="E5" s="12">
-        <v>4.8928779956276554</v>
-      </c>
-      <c r="F5" s="12">
+      <c r="E5" s="12" t="n">
+        <v>4.892877995627655</v>
+      </c>
+      <c r="F5" s="12" t="n">
         <v>0.41502084546944673</v>
       </c>
-      <c r="G5" s="12">
-        <v>3.5561644636063457E-3</v>
-      </c>
-      <c r="H5" s="12">
+      <c r="G5" s="12" t="n">
+        <v>0.0035561644636063457</v>
+      </c>
+      <c r="H5" s="12" t="n">
         <v>13.059775378127084</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="12" t="n">
         <v>-1.2930280493107884</v>
       </c>
-      <c r="J5" s="26">
+      <c r="J5" s="26" t="n">
         <v>100.26811812702532</v>
       </c>
-      <c r="K5" s="22">
+      <c r="K5" s="22" t="n">
         <v>59.679245283018865</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="12" t="n">
         <v>25.733333333333334</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="12" t="n">
         <v>15.150537634408602</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="12" t="n">
         <v>3.0136986301369864</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5" s="12" t="n">
         <v>4.797752808988764</v>
       </c>
-      <c r="P5" s="12">
-        <v>0.34246575342465752</v>
-      </c>
-      <c r="Q5" s="12">
-        <v>1.1235955056179775E-2</v>
-      </c>
-      <c r="R5" s="12">
+      <c r="P5" s="12" t="n">
+        <v>0.3424657534246575</v>
+      </c>
+      <c r="Q5" s="12" t="n">
+        <v>0.011235955056179775</v>
+      </c>
+      <c r="R5" s="12" t="n">
         <v>16.774193548387096</v>
       </c>
-      <c r="S5" s="12">
-        <v>-1.5094339622641511</v>
-      </c>
-      <c r="T5" s="17">
-        <v>99.923155379864255</v>
-      </c>
-      <c r="U5" t="s">
+      <c r="S5" s="12" t="n">
+        <v>-1.509433962264151</v>
+      </c>
+      <c r="T5" s="17" t="n">
+        <v>99.92315537986426</v>
+      </c>
+      <c r="U5" t="s" s="0">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
-        <v>65.236704878591652</v>
-      </c>
-      <c r="B6" s="13">
-        <v>36.214634097469272</v>
-      </c>
-      <c r="C6" s="13">
+      <c r="A6" s="10" t="n">
+        <v>65.23670487859165</v>
+      </c>
+      <c r="B6" s="13" t="n">
+        <v>36.21463409746927</v>
+      </c>
+      <c r="C6" s="13" t="n">
         <v>16.191539051329762</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="13" t="n">
         <v>2.7438193885311115</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="13" t="n">
         <v>4.7834417850207975</v>
       </c>
-      <c r="F6" s="13">
-        <v>0.26913023975085282</v>
-      </c>
-      <c r="G6" s="13">
+      <c r="F6" s="13" t="n">
+        <v>0.2691302397508528</v>
+      </c>
+      <c r="G6" s="13" t="n">
         <v>0.18481191378643816</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="13" t="n">
         <v>11.388670858446858</v>
       </c>
-      <c r="I6" s="13">
-        <v>-1.6277359158338791</v>
-      </c>
-      <c r="J6" s="27">
+      <c r="I6" s="13" t="n">
+        <v>-1.627735915833879</v>
+      </c>
+      <c r="J6" s="27" t="n">
         <v>107.62936213978517</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6" s="23" t="n">
         <v>101.66666666666667</v>
       </c>
       <c r="L6" s="13" t="e">
@@ -13530,241 +13530,241 @@
       <c r="R6" s="13" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="S6" s="13">
-        <v>0</v>
+      <c r="S6" s="13" t="n">
+        <v>-0.0</v>
       </c>
       <c r="T6" s="18" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="U6" t="s">
+      <c r="U6" t="s" s="0">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="11">
-        <v>61.837540678764327</v>
-      </c>
-      <c r="B7" s="14">
+      <c r="A7" s="11" t="n">
+        <v>61.83754067876433</v>
+      </c>
+      <c r="B7" s="14" t="n">
         <v>27.406834256405304</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="14" t="n">
         <v>14.806049685608427</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="14" t="n">
         <v>2.5649525133445445</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="14" t="n">
         <v>4.5267183462195355</v>
       </c>
-      <c r="F7" s="14">
-        <v>0.32341131956432528</v>
-      </c>
-      <c r="G7" s="14">
-        <v>5.7364341083079258E-2</v>
-      </c>
-      <c r="H7" s="14">
+      <c r="F7" s="14" t="n">
+        <v>0.3234113195643253</v>
+      </c>
+      <c r="G7" s="14" t="n">
+        <v>0.05736434108307926</v>
+      </c>
+      <c r="H7" s="14" t="n">
         <v>17.81236691345967</v>
       </c>
-      <c r="I7" s="14">
-        <v>-0.65518689627723614</v>
-      </c>
-      <c r="J7" s="28">
-        <v>91.145824637868358</v>
-      </c>
-      <c r="K7" s="30">
+      <c r="I7" s="14" t="n">
+        <v>-0.6551868962772361</v>
+      </c>
+      <c r="J7" s="28" t="n">
+        <v>91.14582463786836</v>
+      </c>
+      <c r="K7" s="30" t="n">
         <v>71.8</v>
       </c>
-      <c r="L7" s="14">
-        <v>28</v>
-      </c>
-      <c r="M7" s="14">
-        <v>14</v>
-      </c>
-      <c r="N7" s="14">
-        <v>3</v>
-      </c>
-      <c r="O7" s="14">
-        <v>6</v>
-      </c>
-      <c r="P7" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="14">
-        <v>0</v>
-      </c>
-      <c r="R7" s="14">
-        <v>30</v>
-      </c>
-      <c r="S7" s="14">
-        <v>0</v>
-      </c>
-      <c r="T7" s="31">
-        <v>70.893870896187948</v>
-      </c>
-      <c r="U7" t="s">
+      <c r="L7" s="14" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="M7" s="14" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="N7" s="14" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O7" s="14" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="P7" s="14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q7" s="14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R7" s="14" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="S7" s="14" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="T7" s="31" t="n">
+        <v>70.89387089618795</v>
+      </c>
+      <c r="U7" t="s" s="0">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
-        <v>66.595955208669949</v>
-      </c>
-      <c r="B8" s="13">
+      <c r="A8" s="10" t="n">
+        <v>66.59595520866995</v>
+      </c>
+      <c r="B8" s="13" t="n">
         <v>35.788770666302284</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="13" t="n">
         <v>15.749871799193645</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="13" t="n">
         <v>2.707353338723073</v>
       </c>
-      <c r="E8" s="13">
-        <v>4.7289023921322899</v>
-      </c>
-      <c r="F8" s="13">
+      <c r="E8" s="13" t="n">
+        <v>4.72890239213229</v>
+      </c>
+      <c r="F8" s="13" t="n">
         <v>0.25727519157115386</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="13" t="n">
         <v>0.17742305460251337</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="13" t="n">
         <v>12.491519320054026</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="13" t="n">
         <v>-1.6312186364295438</v>
       </c>
-      <c r="J8" s="27">
+      <c r="J8" s="27" t="n">
         <v>106.49347988644098</v>
       </c>
-      <c r="K8" s="23">
-        <v>72</v>
-      </c>
-      <c r="L8" s="13">
-        <v>31</v>
-      </c>
-      <c r="M8" s="13">
-        <v>8.3333333333333339</v>
-      </c>
-      <c r="N8" s="13">
-        <v>2</v>
-      </c>
-      <c r="O8" s="13">
+      <c r="K8" s="23" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="L8" s="13" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="M8" s="13" t="n">
+        <v>8.333333333333334</v>
+      </c>
+      <c r="N8" s="13" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O8" s="13" t="n">
         <v>3.5</v>
       </c>
-      <c r="P8" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="13">
-        <v>0</v>
-      </c>
-      <c r="R8" s="13">
-        <v>45</v>
-      </c>
-      <c r="S8" s="13">
+      <c r="P8" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q8" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R8" s="13" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="S8" s="13" t="n">
         <v>-1.6666666666666667</v>
       </c>
-      <c r="T8" s="18">
-        <v>89.338026984182491</v>
-      </c>
-      <c r="U8" t="s">
+      <c r="T8" s="18" t="n">
+        <v>89.33802698418249</v>
+      </c>
+      <c r="U8" t="s" s="0">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
-        <v>70.844424101874509</v>
-      </c>
-      <c r="B9" s="13">
+      <c r="A9" s="10" t="n">
+        <v>70.84442410187451</v>
+      </c>
+      <c r="B9" s="13" t="n">
         <v>44.04770694137278</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="13" t="n">
         <v>15.644949847453546</v>
       </c>
-      <c r="D9" s="13">
-        <v>2.4159039122578561</v>
-      </c>
-      <c r="E9" s="13">
-        <v>4.6194661815254321</v>
-      </c>
-      <c r="F9" s="13">
+      <c r="D9" s="13" t="n">
+        <v>2.415903912257856</v>
+      </c>
+      <c r="E9" s="13" t="n">
+        <v>4.619466181525432</v>
+      </c>
+      <c r="F9" s="13" t="n">
         <v>0.11138458585255993</v>
       </c>
-      <c r="G9" s="13">
-        <v>0.35867880392534518</v>
-      </c>
-      <c r="H9" s="13">
-        <v>10.820414800373801</v>
-      </c>
-      <c r="I9" s="13">
+      <c r="G9" s="13" t="n">
+        <v>0.3586788039253452</v>
+      </c>
+      <c r="H9" s="13" t="n">
+        <v>10.8204148003738</v>
+      </c>
+      <c r="I9" s="13" t="n">
         <v>-1.9659265029526343</v>
       </c>
-      <c r="J9" s="27">
+      <c r="J9" s="27" t="n">
         <v>113.85472389920083</v>
       </c>
-      <c r="K9" s="23">
-        <v>74.734693877551024</v>
-      </c>
-      <c r="L9" s="13">
+      <c r="K9" s="23" t="n">
+        <v>74.73469387755102</v>
+      </c>
+      <c r="L9" s="13" t="n">
         <v>45.618556701030926</v>
       </c>
-      <c r="M9" s="13">
-        <v>16.268041237113401</v>
-      </c>
-      <c r="N9" s="13">
+      <c r="M9" s="13" t="n">
+        <v>16.2680412371134</v>
+      </c>
+      <c r="N9" s="13" t="n">
         <v>2.452054794520548</v>
       </c>
-      <c r="O9" s="13">
-        <v>4.7397260273972606</v>
-      </c>
-      <c r="P9" s="13">
-        <v>0.17808219178082191</v>
-      </c>
-      <c r="Q9" s="13">
-        <v>0.34246575342465752</v>
-      </c>
-      <c r="R9" s="13">
+      <c r="O9" s="13" t="n">
+        <v>4.739726027397261</v>
+      </c>
+      <c r="P9" s="13" t="n">
+        <v>0.1780821917808219</v>
+      </c>
+      <c r="Q9" s="13" t="n">
+        <v>0.3424657534246575</v>
+      </c>
+      <c r="R9" s="13" t="n">
         <v>13.092783505154639</v>
       </c>
-      <c r="S9" s="13">
+      <c r="S9" s="13" t="n">
         <v>-1.6326530612244898</v>
       </c>
-      <c r="T9" s="18">
+      <c r="T9" s="18" t="n">
         <v>116.53225979387153</v>
       </c>
-      <c r="U9" t="s">
+      <c r="U9" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="10">
-        <v>67.445259902047184</v>
-      </c>
-      <c r="B10" s="13">
-        <v>35.239907100308812</v>
-      </c>
-      <c r="C10" s="13">
+      <c r="A10" s="10" t="n">
+        <v>67.44525990204718</v>
+      </c>
+      <c r="B10" s="13" t="n">
+        <v>35.23990710030881</v>
+      </c>
+      <c r="C10" s="13" t="n">
         <v>14.259460481732209</v>
       </c>
-      <c r="D10" s="13">
-        <v>2.2370370370712891</v>
-      </c>
-      <c r="E10" s="13">
-        <v>4.3627427427241701</v>
-      </c>
-      <c r="F10" s="13">
+      <c r="D10" s="13" t="n">
+        <v>2.237037037071289</v>
+      </c>
+      <c r="E10" s="13" t="n">
+        <v>4.36274274272417</v>
+      </c>
+      <c r="F10" s="13" t="n">
         <v>0.16566566566603239</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="13" t="n">
         <v>0.23123123122198627</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="13" t="n">
         <v>17.244110855386612</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="13" t="n">
         <v>-0.9933774833959913</v>
       </c>
-      <c r="J10" s="27">
-        <v>97.371186397284021</v>
+      <c r="J10" s="27" t="n">
+        <v>97.37118639728402</v>
       </c>
       <c r="K10" s="23" t="e">
         <v>#NUM!</v>
@@ -13796,46 +13796,46 @@
       <c r="T10" s="18" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="U10" t="s">
+      <c r="U10" t="s" s="0">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
-        <v>64.263871016341838</v>
-      </c>
-      <c r="B11" s="12">
+      <c r="A11" s="9" t="n">
+        <v>64.26387101634184</v>
+      </c>
+      <c r="B11" s="12" t="n">
         <v>28.394630437401066</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="12" t="n">
         <v>14.546297202918531</v>
       </c>
-      <c r="D11" s="12">
-        <v>2.5306766620687489</v>
-      </c>
-      <c r="E11" s="12">
-        <v>4.4824058955864441</v>
-      </c>
-      <c r="F11" s="12">
+      <c r="D11" s="12" t="n">
+        <v>2.530676662068749</v>
+      </c>
+      <c r="E11" s="12" t="n">
+        <v>4.482405895586444</v>
+      </c>
+      <c r="F11" s="12" t="n">
         <v>0.31533324961826587</v>
       </c>
-      <c r="G11" s="12">
-        <v>5.8053685237099271E-2</v>
-      </c>
-      <c r="H11" s="12">
+      <c r="G11" s="12" t="n">
+        <v>0.05805368523709927</v>
+      </c>
+      <c r="H11" s="12" t="n">
         <v>18.334345402138155</v>
       </c>
-      <c r="I11" s="12">
-        <v>-0.63784115303355238</v>
-      </c>
-      <c r="J11" s="26">
-        <v>90.593498657921955</v>
-      </c>
-      <c r="K11" s="22">
+      <c r="I11" s="12" t="n">
+        <v>-0.6378411530335524</v>
+      </c>
+      <c r="J11" s="26" t="n">
+        <v>90.59349865792196</v>
+      </c>
+      <c r="K11" s="22" t="n">
         <v>68.82352941176471</v>
       </c>
-      <c r="L11" s="12">
-        <v>30</v>
+      <c r="L11" s="12" t="n">
+        <v>30.0</v>
       </c>
       <c r="M11" s="12" t="e">
         <v>#NUM!</v>
@@ -13855,49 +13855,49 @@
       <c r="R11" s="12" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="S11" s="12">
-        <v>0</v>
+      <c r="S11" s="12" t="n">
+        <v>-0.0</v>
       </c>
       <c r="T11" s="17" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="U11" t="s">
+      <c r="U11" t="s" s="0">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
-        <v>68.512339909546398</v>
-      </c>
-      <c r="B12" s="13">
+      <c r="A12" s="10" t="n">
+        <v>68.5123399095464</v>
+      </c>
+      <c r="B12" s="13" t="n">
         <v>36.653566712471566</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="13" t="n">
         <v>14.44137525117843</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="13" t="n">
         <v>2.239227235603531</v>
       </c>
-      <c r="E12" s="13">
-        <v>4.3729696849795854</v>
-      </c>
-      <c r="F12" s="13">
+      <c r="E12" s="13" t="n">
+        <v>4.372969684979585</v>
+      </c>
+      <c r="F12" s="13" t="n">
         <v>0.1694426438996719</v>
       </c>
-      <c r="G12" s="13">
-        <v>0.23930943455993109</v>
-      </c>
-      <c r="H12" s="13">
+      <c r="G12" s="13" t="n">
+        <v>0.2393094345599311</v>
+      </c>
+      <c r="H12" s="13" t="n">
         <v>16.663240882457927</v>
       </c>
-      <c r="I12" s="13">
-        <v>-0.97254901955664297</v>
-      </c>
-      <c r="J12" s="27">
-        <v>97.954742670681824</v>
-      </c>
-      <c r="K12" s="23">
-        <v>83</v>
+      <c r="I12" s="13" t="n">
+        <v>-0.972549019556643</v>
+      </c>
+      <c r="J12" s="27" t="n">
+        <v>97.95474267068182</v>
+      </c>
+      <c r="K12" s="23" t="n">
+        <v>83.0</v>
       </c>
       <c r="L12" s="13" t="e">
         <v>#NUM!</v>
@@ -13920,78 +13920,78 @@
       <c r="R12" s="13" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="S12" s="13">
-        <v>0</v>
+      <c r="S12" s="13" t="n">
+        <v>-0.0</v>
       </c>
       <c r="T12" s="18" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="U12" t="s">
+      <c r="U12" t="s" s="0">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="19">
-        <v>65.113175709719087</v>
-      </c>
-      <c r="B13" s="25">
+      <c r="A13" s="19" t="n">
+        <v>65.11317570971909</v>
+      </c>
+      <c r="B13" s="25" t="n">
         <v>27.845766871407598</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="25" t="n">
         <v>13.055885885457094</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="25" t="n">
         <v>2.060360360416964</v>
       </c>
-      <c r="E13" s="25">
-        <v>4.1162462461783242</v>
-      </c>
-      <c r="F13" s="25">
+      <c r="E13" s="25" t="n">
+        <v>4.116246246178324</v>
+      </c>
+      <c r="F13" s="25" t="n">
         <v>0.22372372371314436</v>
       </c>
-      <c r="G13" s="25">
+      <c r="G13" s="25" t="n">
         <v>0.11186186185657218</v>
       </c>
-      <c r="H13" s="25">
-        <v>23.086936937470739</v>
-      </c>
-      <c r="I13" s="25">
-        <v>0</v>
-      </c>
-      <c r="J13" s="29">
-        <v>81.471205168764996</v>
-      </c>
-      <c r="K13" s="24">
-        <v>65.853658536585371</v>
-      </c>
-      <c r="L13" s="25">
+      <c r="H13" s="25" t="n">
+        <v>23.08693693747074</v>
+      </c>
+      <c r="I13" s="25" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="J13" s="29" t="n">
+        <v>81.471205168765</v>
+      </c>
+      <c r="K13" s="24" t="n">
+        <v>65.85365853658537</v>
+      </c>
+      <c r="L13" s="25" t="n">
         <v>28.4</v>
       </c>
-      <c r="M13" s="25">
+      <c r="M13" s="25" t="n">
         <v>11.6</v>
       </c>
-      <c r="N13" s="25">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="O13" s="25">
+      <c r="N13" s="25" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O13" s="25" t="n">
         <v>3.8</v>
       </c>
-      <c r="P13" s="25">
+      <c r="P13" s="25" t="n">
         <v>0.2</v>
       </c>
-      <c r="Q13" s="25">
+      <c r="Q13" s="25" t="n">
         <v>0.1</v>
       </c>
-      <c r="R13" s="25">
+      <c r="R13" s="25" t="n">
         <v>24.5</v>
       </c>
-      <c r="S13" s="25">
-        <v>0</v>
-      </c>
-      <c r="T13" s="20">
+      <c r="S13" s="25" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="T13" s="20" t="n">
         <v>78.18259186629821</v>
       </c>
-      <c r="U13" t="s">
+      <c r="U13" t="s" s="0">
         <v>41</v>
       </c>
     </row>
@@ -14085,102 +14085,102 @@
       <c r="U15" s="15"/>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A16" s="9">
-        <v>61.965290459014611</v>
-      </c>
-      <c r="B16" s="9">
+      <c r="A16" s="9" t="n">
+        <v>61.96529045901461</v>
+      </c>
+      <c r="B16" s="9" t="n">
         <v>27.979832720833336</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="9" t="n">
         <v>15.526442158866022</v>
       </c>
-      <c r="D16" s="9">
-        <v>2.8259423247561228</v>
-      </c>
-      <c r="E16" s="9">
+      <c r="D16" s="9" t="n">
+        <v>2.825942324756123</v>
+      </c>
+      <c r="E16" s="9" t="n">
         <v>4.7339993662326965</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="9" t="n">
         <v>0.37141061576973095</v>
       </c>
-      <c r="G16" s="9">
-        <v>2.1784325508113038E-2</v>
-      </c>
-      <c r="H16" s="9">
+      <c r="G16" s="9" t="n">
+        <v>0.021784325508113038</v>
+      </c>
+      <c r="H16" s="9" t="n">
         <v>14.690034835682454</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="9" t="n">
         <v>-1.4067374752510973</v>
       </c>
-      <c r="J16" s="17">
-        <v>99.760848345634074</v>
-      </c>
-      <c r="K16" s="22">
+      <c r="J16" s="17" t="n">
+        <v>99.76084834563407</v>
+      </c>
+      <c r="K16" s="22" t="n">
         <v>66.25</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L16" s="9" t="n">
         <v>24.583333333333332</v>
       </c>
-      <c r="M16" s="9">
+      <c r="M16" s="9" t="n">
         <v>11.777777777777779</v>
       </c>
-      <c r="N16" s="9">
+      <c r="N16" s="9" t="n">
         <v>2.625</v>
       </c>
-      <c r="O16" s="9">
+      <c r="O16" s="9" t="n">
         <v>4.5</v>
       </c>
-      <c r="P16" s="9">
+      <c r="P16" s="9" t="n">
         <v>0.25</v>
       </c>
-      <c r="Q16" s="9">
-        <v>0</v>
-      </c>
-      <c r="R16" s="9">
-        <v>27.222222222222221</v>
-      </c>
-      <c r="S16" s="9">
+      <c r="Q16" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R16" s="9" t="n">
+        <v>27.22222222222222</v>
+      </c>
+      <c r="S16" s="9" t="n">
         <v>-3.3333333333333335</v>
       </c>
-      <c r="T16" s="17">
+      <c r="T16" s="17" t="n">
         <v>117.88812005926775</v>
       </c>
-      <c r="U16" t="s">
+      <c r="U16" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="V16" t="s">
+      <c r="V16" t="s" s="0">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A17" s="10">
-        <v>65.364065573578273</v>
-      </c>
-      <c r="B17" s="10">
-        <v>34.586981740889733</v>
-      </c>
-      <c r="C17" s="10">
+      <c r="A17" s="10" t="n">
+        <v>65.36406557357827</v>
+      </c>
+      <c r="B17" s="10" t="n">
+        <v>34.58698174088973</v>
+      </c>
+      <c r="C17" s="10" t="n">
         <v>15.442504597473938</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="10" t="n">
         <v>2.592782783583949</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="10" t="n">
         <v>4.64645039774721</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="10" t="n">
         <v>0.25469813119485585</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="10" t="n">
         <v>0.16678892496637848</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="10" t="n">
         <v>13.353151219938272</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="10" t="n">
         <v>-1.6745037684695696</v>
       </c>
-      <c r="J17" s="18">
+      <c r="J17" s="18" t="n">
         <v>105.64984355584198</v>
       </c>
       <c r="K17" s="23" t="e">
@@ -14213,104 +14213,104 @@
       <c r="T17" s="18" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="U17" t="s">
+      <c r="U17" t="s" s="0">
         <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="10">
+      <c r="A18" s="10" t="n">
         <v>62.644734213716404</v>
       </c>
-      <c r="B18" s="10">
-        <v>27.540741868038559</v>
-      </c>
-      <c r="C18" s="10">
+      <c r="B18" s="10" t="n">
+        <v>27.54074186803856</v>
+      </c>
+      <c r="C18" s="10" t="n">
         <v>14.334113104896868</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="10" t="n">
         <v>2.4496892834346955</v>
       </c>
-      <c r="E18" s="10">
-        <v>4.4410716467062006</v>
-      </c>
-      <c r="F18" s="10">
-        <v>0.29812299504563378</v>
-      </c>
-      <c r="G18" s="10">
-        <v>6.4830866803691364E-2</v>
-      </c>
-      <c r="H18" s="10">
-        <v>18.492108063948521</v>
-      </c>
-      <c r="I18" s="10">
+      <c r="E18" s="10" t="n">
+        <v>4.441071646706201</v>
+      </c>
+      <c r="F18" s="10" t="n">
+        <v>0.2981229950456338</v>
+      </c>
+      <c r="G18" s="10" t="n">
+        <v>0.06483086680369136</v>
+      </c>
+      <c r="H18" s="10" t="n">
+        <v>18.49210806394852</v>
+      </c>
+      <c r="I18" s="10" t="n">
         <v>-0.8964645528242553</v>
       </c>
-      <c r="J18" s="18">
-        <v>92.463013554308489</v>
-      </c>
-      <c r="K18" s="23">
-        <v>72</v>
-      </c>
-      <c r="L18" s="10">
-        <v>28</v>
-      </c>
-      <c r="M18" s="10">
-        <v>14</v>
-      </c>
-      <c r="N18" s="10">
-        <v>3</v>
-      </c>
-      <c r="O18" s="10">
-        <v>6</v>
-      </c>
-      <c r="P18" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="10">
-        <v>0</v>
-      </c>
-      <c r="R18" s="10">
-        <v>30</v>
-      </c>
-      <c r="S18" s="10">
-        <v>0</v>
-      </c>
-      <c r="T18" s="18">
-        <v>70.906136035185824</v>
-      </c>
-      <c r="U18" t="s">
+      <c r="J18" s="18" t="n">
+        <v>92.46301355430849</v>
+      </c>
+      <c r="K18" s="23" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="L18" s="10" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="M18" s="10" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="N18" s="10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O18" s="10" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="P18" s="10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q18" s="10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R18" s="10" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="S18" s="10" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="T18" s="18" t="n">
+        <v>70.90613603518582</v>
+      </c>
+      <c r="U18" t="s" s="0">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A19" s="9">
-        <v>66.451465837640896</v>
-      </c>
-      <c r="B19" s="9">
+      <c r="A19" s="9" t="n">
+        <v>66.4514658376409</v>
+      </c>
+      <c r="B19" s="9" t="n">
         <v>34.246290995956144</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="9" t="n">
         <v>15.089170795765046</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="9" t="n">
         <v>2.5636099437375184</v>
       </c>
-      <c r="E19" s="9">
-        <v>4.6028188834364041</v>
-      </c>
-      <c r="F19" s="9">
+      <c r="E19" s="9" t="n">
+        <v>4.602818883436404</v>
+      </c>
+      <c r="F19" s="9" t="n">
         <v>0.24521409265109667</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="9" t="n">
         <v>0.16087783761923866</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="9" t="n">
         <v>14.235429989224007</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="9" t="n">
         <v>-1.6772899449461014</v>
       </c>
-      <c r="J19" s="17">
+      <c r="J19" s="17" t="n">
         <v>104.7411377531666</v>
       </c>
       <c r="K19" s="22" t="e">
@@ -14343,39 +14343,39 @@
       <c r="T19" s="17" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="U19" t="s">
+      <c r="U19" t="s" s="0">
         <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A20" s="10">
-        <v>69.850240952204558</v>
-      </c>
-      <c r="B20" s="10">
-        <v>40.853440016012541</v>
-      </c>
-      <c r="C20" s="10">
+      <c r="A20" s="10" t="n">
+        <v>69.85024095220456</v>
+      </c>
+      <c r="B20" s="10" t="n">
+        <v>40.85344001601254</v>
+      </c>
+      <c r="C20" s="10" t="n">
         <v>15.005233234372966</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="10" t="n">
         <v>2.3304504025653445</v>
       </c>
-      <c r="E20" s="10">
-        <v>4.5152699149509177</v>
-      </c>
-      <c r="F20" s="10">
+      <c r="E20" s="10" t="n">
+        <v>4.515269914950918</v>
+      </c>
+      <c r="F20" s="10" t="n">
         <v>0.12850160807622152</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="10" t="n">
         <v>0.30588243707750407</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20" s="10" t="n">
         <v>12.898546373479826</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I20" s="10" t="n">
         <v>-1.945056238164574</v>
       </c>
-      <c r="J20" s="18">
+      <c r="J20" s="18" t="n">
         <v>110.63013296337449</v>
       </c>
       <c r="K20" s="23" t="e">
@@ -14408,40 +14408,40 @@
       <c r="T20" s="18" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="U20" t="s">
+      <c r="U20" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="10">
+      <c r="A21" s="10" t="n">
         <v>67.13090959234269</v>
       </c>
-      <c r="B21" s="10">
-        <v>33.807200143161367</v>
-      </c>
-      <c r="C21" s="10">
+      <c r="B21" s="10" t="n">
+        <v>33.80720014316137</v>
+      </c>
+      <c r="C21" s="10" t="n">
         <v>13.896841741795896</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="10" t="n">
         <v>2.187356902416091</v>
       </c>
-      <c r="E21" s="10">
-        <v>4.3098911639099082</v>
-      </c>
-      <c r="F21" s="10">
+      <c r="E21" s="10" t="n">
+        <v>4.309891163909908</v>
+      </c>
+      <c r="F21" s="10" t="n">
         <v>0.17192647192699945</v>
       </c>
-      <c r="G21" s="10">
-        <v>0.20392437891481699</v>
-      </c>
-      <c r="H21" s="10">
+      <c r="G21" s="10" t="n">
+        <v>0.203924378914817</v>
+      </c>
+      <c r="H21" s="10" t="n">
         <v>18.037503217490077</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I21" s="10" t="n">
         <v>-1.1670170225192593</v>
       </c>
-      <c r="J21" s="18">
-        <v>97.443302961841042</v>
+      <c r="J21" s="18" t="n">
+        <v>97.44330296184104</v>
       </c>
       <c r="K21" s="23" t="e">
         <v>#NUM!</v>
@@ -14473,46 +14473,46 @@
       <c r="T21" s="18" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="U21" t="s">
+      <c r="U21" t="s" s="0">
         <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A22" s="9">
-        <v>64.585798483778419</v>
-      </c>
-      <c r="B22" s="9">
+      <c r="A22" s="9" t="n">
+        <v>64.58579848377842</v>
+      </c>
+      <c r="B22" s="9" t="n">
         <v>28.330978812835166</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="9" t="n">
         <v>14.126311118744955</v>
       </c>
-      <c r="D22" s="9">
-        <v>2.4222686024140589</v>
-      </c>
-      <c r="E22" s="9">
-        <v>4.4056216861997273</v>
-      </c>
-      <c r="F22" s="9">
+      <c r="D22" s="9" t="n">
+        <v>2.422268602414059</v>
+      </c>
+      <c r="E22" s="9" t="n">
+        <v>4.405621686199727</v>
+      </c>
+      <c r="F22" s="9" t="n">
         <v>0.29166053908878625</v>
       </c>
-      <c r="G22" s="9">
-        <v>6.5382342126907383E-2</v>
-      </c>
-      <c r="H22" s="9">
-        <v>18.909690854891309</v>
-      </c>
-      <c r="I22" s="9">
-        <v>-0.88258795822930836</v>
-      </c>
-      <c r="J22" s="17">
-        <v>92.021152770351407</v>
-      </c>
-      <c r="K22" s="22">
-        <v>73</v>
-      </c>
-      <c r="L22" s="9">
-        <v>30</v>
+      <c r="G22" s="9" t="n">
+        <v>0.06538234212690738</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>18.90969085489131</v>
+      </c>
+      <c r="I22" s="9" t="n">
+        <v>-0.8825879582293084</v>
+      </c>
+      <c r="J22" s="17" t="n">
+        <v>92.0211527703514</v>
+      </c>
+      <c r="K22" s="22" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="L22" s="9" t="n">
+        <v>30.0</v>
       </c>
       <c r="M22" s="9" t="e">
         <v>#NUM!</v>
@@ -14532,46 +14532,46 @@
       <c r="R22" s="9" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="S22" s="9">
-        <v>0</v>
+      <c r="S22" s="9" t="n">
+        <v>-0.0</v>
       </c>
       <c r="T22" s="17" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="U22" t="s">
+      <c r="U22" t="s" s="0">
         <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A23" s="10">
-        <v>67.984573598342052</v>
-      </c>
-      <c r="B23" s="10">
-        <v>34.938127832891567</v>
-      </c>
-      <c r="C23" s="10">
+      <c r="A23" s="10" t="n">
+        <v>67.98457359834205</v>
+      </c>
+      <c r="B23" s="10" t="n">
+        <v>34.93812783289157</v>
+      </c>
+      <c r="C23" s="10" t="n">
         <v>14.042373557352871</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="10" t="n">
         <v>2.1891090612418846</v>
       </c>
-      <c r="E23" s="10">
-        <v>4.3180727177142399</v>
-      </c>
-      <c r="F23" s="10">
+      <c r="E23" s="10" t="n">
+        <v>4.31807271771424</v>
+      </c>
+      <c r="F23" s="10" t="n">
         <v>0.17494805451391107</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23" s="10" t="n">
         <v>0.21038694158517282</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23" s="10" t="n">
         <v>17.572807239147128</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I23" s="10" t="n">
         <v>-1.1503542514477807</v>
       </c>
-      <c r="J23" s="18">
-        <v>97.910147980559273</v>
+      <c r="J23" s="18" t="n">
+        <v>97.91014798055927</v>
       </c>
       <c r="K23" s="23" t="e">
         <v>#NUM!</v>
@@ -14603,72 +14603,72 @@
       <c r="T23" s="18" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="U23" t="s">
+      <c r="U23" t="s" s="0">
         <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="19">
-        <v>65.265242238480212</v>
-      </c>
-      <c r="B24" s="19">
+      <c r="A24" s="19" t="n">
+        <v>65.26524223848021</v>
+      </c>
+      <c r="B24" s="19" t="n">
         <v>27.891887960040396</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="19" t="n">
         <v>12.933982064775805</v>
       </c>
-      <c r="D24" s="19">
-        <v>2.0460155610926312</v>
-      </c>
-      <c r="E24" s="19">
-        <v>4.1126939666732314</v>
-      </c>
-      <c r="F24" s="19">
+      <c r="D24" s="19" t="n">
+        <v>2.046015561092631</v>
+      </c>
+      <c r="E24" s="19" t="n">
+        <v>4.112693966673231</v>
+      </c>
+      <c r="F24" s="19" t="n">
         <v>0.21837291836468906</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="19" t="n">
         <v>0.10842888342248572</v>
       </c>
-      <c r="H24" s="19">
+      <c r="H24" s="19" t="n">
         <v>22.711764083157377</v>
       </c>
-      <c r="I24" s="19">
-        <v>-0.37231503580246639</v>
-      </c>
-      <c r="J24" s="20">
-        <v>84.723317979025808</v>
-      </c>
-      <c r="K24" s="24">
-        <v>64.833333333333329</v>
-      </c>
-      <c r="L24" s="19">
+      <c r="I24" s="19" t="n">
+        <v>-0.3723150358024664</v>
+      </c>
+      <c r="J24" s="20" t="n">
+        <v>84.72331797902581</v>
+      </c>
+      <c r="K24" s="24" t="n">
+        <v>64.83333333333333</v>
+      </c>
+      <c r="L24" s="19" t="n">
         <v>29.666666666666668</v>
       </c>
-      <c r="M24" s="19">
+      <c r="M24" s="19" t="n">
         <v>13.5</v>
       </c>
-      <c r="N24" s="19">
-        <v>2</v>
-      </c>
-      <c r="O24" s="19">
+      <c r="N24" s="19" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O24" s="19" t="n">
         <v>4.333333333333333</v>
       </c>
-      <c r="P24" s="19">
+      <c r="P24" s="19" t="n">
         <v>0.16666666666666666</v>
       </c>
-      <c r="Q24" s="19">
+      <c r="Q24" s="19" t="n">
         <v>0.16666666666666666</v>
       </c>
-      <c r="R24" s="19">
+      <c r="R24" s="19" t="n">
         <v>21.666666666666668</v>
       </c>
-      <c r="S24" s="19">
-        <v>0</v>
-      </c>
-      <c r="T24" s="20">
-        <v>81.809108790439183</v>
-      </c>
-      <c r="U24" t="s">
+      <c r="S24" s="19" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="T24" s="20" t="n">
+        <v>81.80910879043918</v>
+      </c>
+      <c r="U24" t="s" s="0">
         <v>41</v>
       </c>
     </row>
@@ -14762,34 +14762,34 @@
       <c r="U26" s="15"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A27" s="9">
-        <v>62.752674764482549</v>
-      </c>
-      <c r="B27" s="12">
+      <c r="A27" s="9" t="n">
+        <v>62.75267476448255</v>
+      </c>
+      <c r="B27" s="12" t="n">
         <v>30.87266255670658</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="12" t="n">
         <v>16.236256254920384</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="12" t="n">
         <v>2.8973776135714004</v>
       </c>
-      <c r="E27" s="12">
-        <v>4.8211004260525758</v>
-      </c>
-      <c r="F27" s="12">
-        <v>0.36334672563952952</v>
-      </c>
-      <c r="G27" s="12">
-        <v>7.2007493145222645E-2</v>
-      </c>
-      <c r="H27" s="12">
+      <c r="E27" s="12" t="n">
+        <v>4.821100426052576</v>
+      </c>
+      <c r="F27" s="12" t="n">
+        <v>0.3633467256395295</v>
+      </c>
+      <c r="G27" s="12" t="n">
+        <v>0.07200749314522265</v>
+      </c>
+      <c r="H27" s="12" t="n">
         <v>12.625767070721038</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I27" s="9" t="n">
         <v>-1.3839643703679443</v>
       </c>
-      <c r="J27" s="17">
+      <c r="J27" s="17" t="n">
         <v>102.86286572639705</v>
       </c>
       <c r="K27" s="22" t="e">
@@ -14822,42 +14822,42 @@
       <c r="T27" s="17" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="U27" t="s">
+      <c r="U27" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="V27" t="s">
+      <c r="V27" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A28" s="10">
-        <v>66.151449879046211</v>
-      </c>
-      <c r="B28" s="13">
-        <v>37.479811576762977</v>
-      </c>
-      <c r="C28" s="13">
-        <v>16.152318693528301</v>
-      </c>
-      <c r="D28" s="13">
+      <c r="A28" s="10" t="n">
+        <v>66.15144987904621</v>
+      </c>
+      <c r="B28" s="13" t="n">
+        <v>37.47981157676298</v>
+      </c>
+      <c r="C28" s="13" t="n">
+        <v>16.1523186935283</v>
+      </c>
+      <c r="D28" s="13" t="n">
         <v>2.664218072399227</v>
       </c>
-      <c r="E28" s="13">
-        <v>4.7335514575670894</v>
-      </c>
-      <c r="F28" s="13">
+      <c r="E28" s="13" t="n">
+        <v>4.733551457567089</v>
+      </c>
+      <c r="F28" s="13" t="n">
         <v>0.2466342410646544</v>
       </c>
-      <c r="G28" s="13">
-        <v>0.21701209260348811</v>
-      </c>
-      <c r="H28" s="13">
+      <c r="G28" s="13" t="n">
+        <v>0.2170120926034881</v>
+      </c>
+      <c r="H28" s="13" t="n">
         <v>11.288883454976858</v>
       </c>
-      <c r="I28" s="10">
-        <v>-1.6517306635864171</v>
-      </c>
-      <c r="J28" s="18">
+      <c r="I28" s="10" t="n">
+        <v>-1.651730663586417</v>
+      </c>
+      <c r="J28" s="18" t="n">
         <v>108.75186093660496</v>
       </c>
       <c r="K28" s="23" t="e">
@@ -14890,40 +14890,40 @@
       <c r="T28" s="18" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="U28" t="s">
+      <c r="U28" t="s" s="0">
         <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="10">
+      <c r="A29" s="10" t="n">
         <v>63.43211851918435</v>
       </c>
-      <c r="B29" s="13">
+      <c r="B29" s="13" t="n">
         <v>30.433571703911802</v>
       </c>
-      <c r="C29" s="13">
-        <v>15.043927200951231</v>
-      </c>
-      <c r="D29" s="13">
-        <v>2.5211245722499731</v>
-      </c>
-      <c r="E29" s="13">
-        <v>4.5281727065260799</v>
-      </c>
-      <c r="F29" s="13">
+      <c r="C29" s="13" t="n">
+        <v>15.04392720095123</v>
+      </c>
+      <c r="D29" s="13" t="n">
+        <v>2.521124572249973</v>
+      </c>
+      <c r="E29" s="13" t="n">
+        <v>4.52817270652608</v>
+      </c>
+      <c r="F29" s="13" t="n">
         <v>0.29005910491543235</v>
       </c>
-      <c r="G29" s="13">
+      <c r="G29" s="13" t="n">
         <v>0.11505403444080098</v>
       </c>
-      <c r="H29" s="13">
+      <c r="H29" s="13" t="n">
         <v>16.427840298987107</v>
       </c>
-      <c r="I29" s="10">
-        <v>-0.87369144794110254</v>
-      </c>
-      <c r="J29" s="18">
-        <v>95.565030935071505</v>
+      <c r="I29" s="10" t="n">
+        <v>-0.8736914479411025</v>
+      </c>
+      <c r="J29" s="18" t="n">
+        <v>95.5650309350715</v>
       </c>
       <c r="K29" s="23" t="e">
         <v>#NUM!</v>
@@ -14955,39 +14955,39 @@
       <c r="T29" s="18" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="U29" t="s">
+      <c r="U29" t="s" s="0">
         <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A30" s="9">
-        <v>67.238850143108849</v>
-      </c>
-      <c r="B30" s="12">
-        <v>37.139120831829388</v>
-      </c>
-      <c r="C30" s="12">
+      <c r="A30" s="9" t="n">
+        <v>67.23885014310885</v>
+      </c>
+      <c r="B30" s="12" t="n">
+        <v>37.13912083182939</v>
+      </c>
+      <c r="C30" s="12" t="n">
         <v>15.798984891819407</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="12" t="n">
         <v>2.635045232552796</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E30" s="12" t="n">
         <v>4.6899199432562835</v>
       </c>
-      <c r="F30" s="12">
+      <c r="F30" s="12" t="n">
         <v>0.23715020252089522</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G30" s="12" t="n">
         <v>0.21110100525634828</v>
       </c>
-      <c r="H30" s="12">
+      <c r="H30" s="12" t="n">
         <v>12.171162224262591</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I30" s="9" t="n">
         <v>-1.6545168400629486</v>
       </c>
-      <c r="J30" s="17">
+      <c r="J30" s="17" t="n">
         <v>107.8431551339296</v>
       </c>
       <c r="K30" s="22" t="e">
@@ -15020,104 +15020,104 @@
       <c r="T30" s="17" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="U30" t="s">
+      <c r="U30" t="s" s="0">
         <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A31" s="10">
-        <v>70.637625257672497</v>
-      </c>
-      <c r="B31" s="13">
+      <c r="A31" s="10" t="n">
+        <v>70.6376252576725</v>
+      </c>
+      <c r="B31" s="13" t="n">
         <v>43.746269851885785</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="13" t="n">
         <v>15.715047330427328</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31" s="13" t="n">
         <v>2.4018856913806226</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E31" s="13" t="n">
         <v>4.602370974770797</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F31" s="13" t="n">
         <v>0.12043771794602007</v>
       </c>
-      <c r="G31" s="13">
-        <v>0.35610560471461372</v>
-      </c>
-      <c r="H31" s="13">
+      <c r="G31" s="13" t="n">
+        <v>0.3561056047146137</v>
+      </c>
+      <c r="H31" s="13" t="n">
         <v>10.834278608518412</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I31" s="10" t="n">
         <v>-1.922283133281421</v>
       </c>
-      <c r="J31" s="18">
+      <c r="J31" s="18" t="n">
         <v>113.73215034413748</v>
       </c>
-      <c r="K31" s="23">
-        <v>74.587628865979383</v>
-      </c>
-      <c r="L31" s="13">
+      <c r="K31" s="23" t="n">
+        <v>74.58762886597938</v>
+      </c>
+      <c r="L31" s="13" t="n">
         <v>45.618556701030926</v>
       </c>
-      <c r="M31" s="13">
-        <v>16.268041237113401</v>
-      </c>
-      <c r="N31" s="13">
+      <c r="M31" s="13" t="n">
+        <v>16.2680412371134</v>
+      </c>
+      <c r="N31" s="13" t="n">
         <v>2.452054794520548</v>
       </c>
-      <c r="O31" s="13">
-        <v>4.7397260273972606</v>
-      </c>
-      <c r="P31" s="13">
-        <v>0.17808219178082191</v>
-      </c>
-      <c r="Q31" s="13">
-        <v>0.34246575342465752</v>
-      </c>
-      <c r="R31" s="13">
+      <c r="O31" s="13" t="n">
+        <v>4.739726027397261</v>
+      </c>
+      <c r="P31" s="13" t="n">
+        <v>0.1780821917808219</v>
+      </c>
+      <c r="Q31" s="13" t="n">
+        <v>0.3424657534246575</v>
+      </c>
+      <c r="R31" s="13" t="n">
         <v>13.092783505154639</v>
       </c>
-      <c r="S31" s="13">
+      <c r="S31" s="13" t="n">
         <v>-1.6494845360824741</v>
       </c>
-      <c r="T31" s="18">
+      <c r="T31" s="18" t="n">
         <v>116.7238086229994</v>
       </c>
-      <c r="U31" t="s">
+      <c r="U31" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="10">
-        <v>67.918293897810628</v>
-      </c>
-      <c r="B32" s="13">
-        <v>36.700029979034611</v>
-      </c>
-      <c r="C32" s="13">
+      <c r="A32" s="10" t="n">
+        <v>67.91829389781063</v>
+      </c>
+      <c r="B32" s="13" t="n">
+        <v>36.70002997903461</v>
+      </c>
+      <c r="C32" s="13" t="n">
         <v>14.606655837850258</v>
       </c>
-      <c r="D32" s="13">
-        <v>2.2587921912313691</v>
-      </c>
-      <c r="E32" s="13">
-        <v>4.3969922237297876</v>
-      </c>
-      <c r="F32" s="13">
+      <c r="D32" s="13" t="n">
+        <v>2.258792191231369</v>
+      </c>
+      <c r="E32" s="13" t="n">
+        <v>4.396992223729788</v>
+      </c>
+      <c r="F32" s="13" t="n">
         <v>0.16386258179679802</v>
       </c>
-      <c r="G32" s="13">
-        <v>0.25414754655192662</v>
-      </c>
-      <c r="H32" s="13">
-        <v>15.973235452528661</v>
-      </c>
-      <c r="I32" s="10">
+      <c r="G32" s="13" t="n">
+        <v>0.2541475465519266</v>
+      </c>
+      <c r="H32" s="13" t="n">
+        <v>15.97323545252866</v>
+      </c>
+      <c r="I32" s="10" t="n">
         <v>-1.1442439176361066</v>
       </c>
-      <c r="J32" s="18">
+      <c r="J32" s="18" t="n">
         <v>100.54532034260403</v>
       </c>
       <c r="K32" s="23" t="e">
@@ -15150,46 +15150,46 @@
       <c r="T32" s="18" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="U32" t="s">
+      <c r="U32" t="s" s="0">
         <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A33" s="9">
-        <v>65.373182789246357</v>
-      </c>
-      <c r="B33" s="12">
+      <c r="A33" s="9" t="n">
+        <v>65.37318278924636</v>
+      </c>
+      <c r="B33" s="12" t="n">
         <v>31.22380864870841</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="12" t="n">
         <v>14.836125214799315</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="12" t="n">
         <v>2.4937038912293366</v>
       </c>
-      <c r="E33" s="12">
-        <v>4.4927227460196066</v>
-      </c>
-      <c r="F33" s="12">
+      <c r="E33" s="12" t="n">
+        <v>4.492722746019607</v>
+      </c>
+      <c r="F33" s="12" t="n">
         <v>0.28359664895858483</v>
       </c>
-      <c r="G33" s="12">
+      <c r="G33" s="12" t="n">
         <v>0.11560550976401698</v>
       </c>
-      <c r="H33" s="12">
+      <c r="H33" s="12" t="n">
         <v>16.845423089929895</v>
       </c>
-      <c r="I33" s="9">
-        <v>-0.85981485334615537</v>
-      </c>
-      <c r="J33" s="17">
+      <c r="I33" s="9" t="n">
+        <v>-0.8598148533461554</v>
+      </c>
+      <c r="J33" s="17" t="n">
         <v>95.12317015111438</v>
       </c>
-      <c r="K33" s="22">
-        <v>69</v>
-      </c>
-      <c r="L33" s="12">
-        <v>30</v>
+      <c r="K33" s="22" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="L33" s="12" t="n">
+        <v>30.0</v>
       </c>
       <c r="M33" s="12" t="e">
         <v>#NUM!</v>
@@ -15209,45 +15209,45 @@
       <c r="R33" s="12" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="S33" s="12">
-        <v>0</v>
+      <c r="S33" s="12" t="n">
+        <v>-0.0</v>
       </c>
       <c r="T33" s="17" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="U33" t="s">
+      <c r="U33" t="s" s="0">
         <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A34" s="10">
-        <v>68.771957903810005</v>
-      </c>
-      <c r="B34" s="13">
+      <c r="A34" s="10" t="n">
+        <v>68.77195790381</v>
+      </c>
+      <c r="B34" s="13" t="n">
         <v>37.83095766876481</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34" s="13" t="n">
         <v>14.752187653407233</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D34" s="13" t="n">
         <v>2.2605443500571623</v>
       </c>
-      <c r="E34" s="13">
-        <v>4.4051737775341193</v>
-      </c>
-      <c r="F34" s="13">
+      <c r="E34" s="13" t="n">
+        <v>4.405173777534119</v>
+      </c>
+      <c r="F34" s="13" t="n">
         <v>0.16688416438370965</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G34" s="13" t="n">
         <v>0.26061010922228245</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H34" s="13" t="n">
         <v>15.508539474185714</v>
       </c>
-      <c r="I34" s="10">
-        <v>-1.1275811465646279</v>
-      </c>
-      <c r="J34" s="18">
+      <c r="I34" s="10" t="n">
+        <v>-1.127581146564628</v>
+      </c>
+      <c r="J34" s="18" t="n">
         <v>101.01216536132226</v>
       </c>
       <c r="K34" s="23" t="e">
@@ -15280,72 +15280,72 @@
       <c r="T34" s="18" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="U34" t="s">
+      <c r="U34" t="s" s="0">
         <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="19">
-        <v>66.052626543948151</v>
-      </c>
-      <c r="B35" s="25">
+      <c r="A35" s="19" t="n">
+        <v>66.05262654394815</v>
+      </c>
+      <c r="B35" s="25" t="n">
         <v>30.78471779591364</v>
       </c>
-      <c r="C35" s="25">
+      <c r="C35" s="25" t="n">
         <v>13.643796160830167</v>
       </c>
-      <c r="D35" s="25">
+      <c r="D35" s="25" t="n">
         <v>2.1174508499079088</v>
       </c>
-      <c r="E35" s="25">
-        <v>4.1997950264931108</v>
-      </c>
-      <c r="F35" s="25">
+      <c r="E35" s="25" t="n">
+        <v>4.199795026493111</v>
+      </c>
+      <c r="F35" s="25" t="n">
         <v>0.21030902823448763</v>
       </c>
-      <c r="G35" s="25">
+      <c r="G35" s="25" t="n">
         <v>0.15865205105959532</v>
       </c>
-      <c r="H35" s="25">
+      <c r="H35" s="25" t="n">
         <v>20.647496318195962</v>
       </c>
-      <c r="I35" s="19">
+      <c r="I35" s="19" t="n">
         <v>-0.34954193091931357</v>
       </c>
-      <c r="J35" s="20">
-        <v>87.825335359788824</v>
-      </c>
-      <c r="K35" s="24">
+      <c r="J35" s="20" t="n">
+        <v>87.82533535978882</v>
+      </c>
+      <c r="K35" s="24" t="n">
         <v>47.5</v>
       </c>
-      <c r="L35" s="25">
-        <v>14</v>
-      </c>
-      <c r="M35" s="25">
-        <v>11</v>
-      </c>
-      <c r="N35" s="25">
-        <v>1</v>
-      </c>
-      <c r="O35" s="25">
+      <c r="L35" s="25" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="M35" s="25" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="N35" s="25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O35" s="25" t="n">
         <v>1.5</v>
       </c>
-      <c r="P35" s="25">
+      <c r="P35" s="25" t="n">
         <v>0.5</v>
       </c>
-      <c r="Q35" s="25">
-        <v>0</v>
-      </c>
-      <c r="R35" s="25">
+      <c r="Q35" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R35" s="25" t="n">
         <v>22.5</v>
       </c>
-      <c r="S35" s="25">
-        <v>0</v>
-      </c>
-      <c r="T35" s="20">
-        <v>77.803502498541008</v>
-      </c>
-      <c r="U35" t="s">
+      <c r="S35" s="25" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="T35" s="20" t="n">
+        <v>77.80350249854101</v>
+      </c>
+      <c r="U35" t="s" s="0">
         <v>41</v>
       </c>
     </row>
@@ -15439,105 +15439,105 @@
       <c r="U37" s="15"/>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A38" s="9">
+      <c r="A38" s="9" t="n">
         <v>60.95721022673181</v>
       </c>
-      <c r="B38" s="9">
+      <c r="B38" s="9" t="n">
         <v>28.224344403878916</v>
       </c>
-      <c r="C38" s="9">
-        <v>16.362345528831781</v>
-      </c>
-      <c r="D38" s="9">
-        <v>3.1029527436747961</v>
-      </c>
-      <c r="E38" s="9">
+      <c r="C38" s="9" t="n">
+        <v>16.36234552883178</v>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>3.102952743674796</v>
+      </c>
+      <c r="E38" s="9" t="n">
         <v>4.9315934627654885</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F38" s="9" t="n">
         <v>0.41321118807180357</v>
       </c>
-      <c r="G38" s="9">
-        <v>3.6518479979510401E-3</v>
-      </c>
-      <c r="H38" s="9">
+      <c r="G38" s="9" t="n">
+        <v>0.00365184799795104</v>
+      </c>
+      <c r="H38" s="9" t="n">
         <v>13.009203588027736</v>
       </c>
-      <c r="I38" s="9">
+      <c r="I38" s="9" t="n">
         <v>-1.1284975185945867</v>
       </c>
-      <c r="J38" s="17">
-        <v>98.529237253219705</v>
-      </c>
-      <c r="K38" s="22">
+      <c r="J38" s="17" t="n">
+        <v>98.5292372532197</v>
+      </c>
+      <c r="K38" s="22" t="n">
         <v>54.241379310344826</v>
       </c>
-      <c r="L38" s="9">
-        <v>26.701754385964911</v>
-      </c>
-      <c r="M38" s="9">
+      <c r="L38" s="9" t="n">
+        <v>26.70175438596491</v>
+      </c>
+      <c r="M38" s="9" t="n">
         <v>17.280701754385966</v>
       </c>
-      <c r="N38" s="9">
-        <v>3.3170731707317072</v>
-      </c>
-      <c r="O38" s="9">
-        <v>4.9649122807017543</v>
-      </c>
-      <c r="P38" s="9">
-        <v>0.41463414634146339</v>
-      </c>
-      <c r="Q38" s="9">
-        <v>1.7543859649122806E-2</v>
-      </c>
-      <c r="R38" s="9">
+      <c r="N38" s="9" t="n">
+        <v>3.317073170731707</v>
+      </c>
+      <c r="O38" s="9" t="n">
+        <v>4.964912280701754</v>
+      </c>
+      <c r="P38" s="9" t="n">
+        <v>0.4146341463414634</v>
+      </c>
+      <c r="Q38" s="9" t="n">
+        <v>0.017543859649122806</v>
+      </c>
+      <c r="R38" s="9" t="n">
         <v>10.175438596491228</v>
       </c>
-      <c r="S38" s="9">
-        <v>0</v>
-      </c>
-      <c r="T38" s="17">
-        <v>85.267534783374572</v>
-      </c>
-      <c r="U38" t="s">
+      <c r="S38" s="9" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="T38" s="17" t="n">
+        <v>85.26753478337457</v>
+      </c>
+      <c r="U38" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="V38" t="s">
+      <c r="V38" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A39" s="10">
-        <v>64.355985341295465</v>
-      </c>
-      <c r="B39" s="10">
+      <c r="A39" s="10" t="n">
+        <v>64.35598534129547</v>
+      </c>
+      <c r="B39" s="10" t="n">
         <v>34.831493423935314</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C39" s="10" t="n">
         <v>16.278407967439698</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D39" s="10" t="n">
         <v>2.8697932025026227</v>
       </c>
-      <c r="E39" s="10">
-        <v>4.8440444942800021</v>
-      </c>
-      <c r="F39" s="10">
-        <v>0.29649870349692842</v>
-      </c>
-      <c r="G39" s="10">
+      <c r="E39" s="10" t="n">
+        <v>4.844044494280002</v>
+      </c>
+      <c r="F39" s="10" t="n">
+        <v>0.2964987034969284</v>
+      </c>
+      <c r="G39" s="10" t="n">
         <v>0.14865644745621648</v>
       </c>
-      <c r="H39" s="10">
+      <c r="H39" s="10" t="n">
         <v>11.672319972283555</v>
       </c>
-      <c r="I39" s="10">
+      <c r="I39" s="10" t="n">
         <v>-1.3962638118130593</v>
       </c>
-      <c r="J39" s="18">
+      <c r="J39" s="18" t="n">
         <v>104.4182324634276</v>
       </c>
-      <c r="K39" s="23">
+      <c r="K39" s="23" t="n">
         <v>101.66666666666667</v>
       </c>
       <c r="L39" s="10" t="e">
@@ -15561,49 +15561,49 @@
       <c r="R39" s="10" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="S39" s="10">
-        <v>0</v>
+      <c r="S39" s="10" t="n">
+        <v>-0.0</v>
       </c>
       <c r="T39" s="18" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="U39" t="s">
+      <c r="U39" t="s" s="0">
         <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="10">
-        <v>61.636653981433611</v>
-      </c>
-      <c r="B40" s="10">
-        <v>27.785253551084139</v>
-      </c>
-      <c r="C40" s="10">
+      <c r="A40" s="10" t="n">
+        <v>61.63665398143361</v>
+      </c>
+      <c r="B40" s="10" t="n">
+        <v>27.78525355108414</v>
+      </c>
+      <c r="C40" s="10" t="n">
         <v>15.17001647486263</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40" s="10" t="n">
         <v>2.7266997023533692</v>
       </c>
-      <c r="E40" s="10">
-        <v>4.6386657432389926</v>
-      </c>
-      <c r="F40" s="10">
+      <c r="E40" s="10" t="n">
+        <v>4.638665743238993</v>
+      </c>
+      <c r="F40" s="10" t="n">
         <v>0.3399235673477064</v>
       </c>
-      <c r="G40" s="10">
-        <v>4.6698389293529367E-2</v>
-      </c>
-      <c r="H40" s="10">
+      <c r="G40" s="10" t="n">
+        <v>0.04669838929352937</v>
+      </c>
+      <c r="H40" s="10" t="n">
         <v>16.811276816293805</v>
       </c>
-      <c r="I40" s="10">
-        <v>-0.61822459616774483</v>
-      </c>
-      <c r="J40" s="18">
-        <v>91.231402461894135</v>
-      </c>
-      <c r="K40" s="23">
-        <v>71</v>
+      <c r="I40" s="10" t="n">
+        <v>-0.6182245961677448</v>
+      </c>
+      <c r="J40" s="18" t="n">
+        <v>91.23140246189413</v>
+      </c>
+      <c r="K40" s="23" t="n">
+        <v>71.0</v>
       </c>
       <c r="L40" s="10" t="e">
         <v>#NUM!</v>
@@ -15626,114 +15626,114 @@
       <c r="R40" s="10" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="S40" s="10">
-        <v>0</v>
+      <c r="S40" s="10" t="n">
+        <v>-0.0</v>
       </c>
       <c r="T40" s="18" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="U40" t="s">
+      <c r="U40" t="s" s="0">
         <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A41" s="9">
-        <v>65.443385605358102</v>
-      </c>
-      <c r="B41" s="9">
+      <c r="A41" s="9" t="n">
+        <v>65.4433856053581</v>
+      </c>
+      <c r="B41" s="9" t="n">
         <v>34.490802679001725</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="9" t="n">
         <v>15.925074165730802</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41" s="9" t="n">
         <v>2.8406203626561917</v>
       </c>
-      <c r="E41" s="9">
-        <v>4.8004129799691961</v>
-      </c>
-      <c r="F41" s="9">
+      <c r="E41" s="9" t="n">
+        <v>4.800412979969196</v>
+      </c>
+      <c r="F41" s="9" t="n">
         <v>0.28701466495316924</v>
       </c>
-      <c r="G41" s="9">
+      <c r="G41" s="9" t="n">
         <v>0.14274536010907665</v>
       </c>
-      <c r="H41" s="9">
+      <c r="H41" s="9" t="n">
         <v>12.55459874156929</v>
       </c>
-      <c r="I41" s="9">
+      <c r="I41" s="9" t="n">
         <v>-1.3990499882895908</v>
       </c>
-      <c r="J41" s="17">
+      <c r="J41" s="17" t="n">
         <v>103.50952666075223</v>
       </c>
-      <c r="K41" s="22">
-        <v>72</v>
-      </c>
-      <c r="L41" s="9">
-        <v>31</v>
-      </c>
-      <c r="M41" s="9">
-        <v>8.3333333333333339</v>
-      </c>
-      <c r="N41" s="9">
-        <v>2</v>
-      </c>
-      <c r="O41" s="9">
+      <c r="K41" s="22" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="L41" s="9" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="M41" s="9" t="n">
+        <v>8.333333333333334</v>
+      </c>
+      <c r="N41" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O41" s="9" t="n">
         <v>3.5</v>
       </c>
-      <c r="P41" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="9">
-        <v>0</v>
-      </c>
-      <c r="R41" s="9">
-        <v>45</v>
-      </c>
-      <c r="S41" s="9">
+      <c r="P41" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q41" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R41" s="9" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="S41" s="9" t="n">
         <v>-1.6666666666666667</v>
       </c>
-      <c r="T41" s="17">
-        <v>89.338026984182491</v>
-      </c>
-      <c r="U41" t="s">
+      <c r="T41" s="17" t="n">
+        <v>89.33802698418249</v>
+      </c>
+      <c r="U41" t="s" s="0">
         <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A42" s="10">
+      <c r="A42" s="10" t="n">
         <v>68.84216071992175</v>
       </c>
-      <c r="B42" s="10">
-        <v>41.097951699058122</v>
-      </c>
-      <c r="C42" s="10">
+      <c r="B42" s="10" t="n">
+        <v>41.09795169905812</v>
+      </c>
+      <c r="C42" s="10" t="n">
         <v>15.841136604338725</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D42" s="10" t="n">
         <v>2.6074608214840183</v>
       </c>
-      <c r="E42" s="10">
-        <v>4.7128640114837097</v>
-      </c>
-      <c r="F42" s="10">
+      <c r="E42" s="10" t="n">
+        <v>4.71286401148371</v>
+      </c>
+      <c r="F42" s="10" t="n">
         <v>0.17030218037829412</v>
       </c>
-      <c r="G42" s="10">
-        <v>0.28774995956734212</v>
-      </c>
-      <c r="H42" s="10">
+      <c r="G42" s="10" t="n">
+        <v>0.2877499595673421</v>
+      </c>
+      <c r="H42" s="10" t="n">
         <v>11.217715125825109</v>
       </c>
-      <c r="I42" s="10">
+      <c r="I42" s="10" t="n">
         <v>-1.6668162815080632</v>
       </c>
-      <c r="J42" s="18">
+      <c r="J42" s="18" t="n">
         <v>109.39852187096014</v>
       </c>
-      <c r="K42" s="23">
-        <v>89</v>
+      <c r="K42" s="23" t="n">
+        <v>89.0</v>
       </c>
       <c r="L42" s="10" t="e">
         <v>#NUM!</v>
@@ -15756,46 +15756,46 @@
       <c r="R42" s="10" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="S42" s="10">
-        <v>0</v>
+      <c r="S42" s="10" t="n">
+        <v>-0.0</v>
       </c>
       <c r="T42" s="18" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="U42" t="s">
+      <c r="U42" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="10">
-        <v>66.122829360059896</v>
-      </c>
-      <c r="B43" s="10">
-        <v>34.051711826206947</v>
-      </c>
-      <c r="C43" s="10">
+      <c r="A43" s="10" t="n">
+        <v>66.1228293600599</v>
+      </c>
+      <c r="B43" s="10" t="n">
+        <v>34.05171182620695</v>
+      </c>
+      <c r="C43" s="10" t="n">
         <v>14.732745111761654</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D43" s="10" t="n">
         <v>2.4643673213347648</v>
       </c>
-      <c r="E43" s="10">
-        <v>4.5074852604427003</v>
-      </c>
-      <c r="F43" s="10">
+      <c r="E43" s="10" t="n">
+        <v>4.5074852604427</v>
+      </c>
+      <c r="F43" s="10" t="n">
         <v>0.2137270442290721</v>
       </c>
-      <c r="G43" s="10">
+      <c r="G43" s="10" t="n">
         <v>0.18579190140465499</v>
       </c>
-      <c r="H43" s="10">
+      <c r="H43" s="10" t="n">
         <v>16.356671969835357</v>
       </c>
-      <c r="I43" s="10">
-        <v>-0.88877706586274885</v>
-      </c>
-      <c r="J43" s="18">
-        <v>96.211691869426673</v>
+      <c r="I43" s="10" t="n">
+        <v>-0.8887770658627488</v>
+      </c>
+      <c r="J43" s="18" t="n">
+        <v>96.21169186942667</v>
       </c>
       <c r="K43" s="23" t="e">
         <v>#NUM!</v>
@@ -15827,43 +15827,43 @@
       <c r="T43" s="18" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="U43" t="s">
+      <c r="U43" t="s" s="0">
         <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A44" s="9">
-        <v>63.577718251495618</v>
-      </c>
-      <c r="B44" s="9">
+      <c r="A44" s="9" t="n">
+        <v>63.57771825149562</v>
+      </c>
+      <c r="B44" s="9" t="n">
         <v>28.57549049588075</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C44" s="9" t="n">
         <v>14.962214488710714</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44" s="9" t="n">
         <v>2.6992790213327327</v>
       </c>
-      <c r="E44" s="9">
-        <v>4.6032157827325193</v>
-      </c>
-      <c r="F44" s="9">
-        <v>0.33346111139085888</v>
-      </c>
-      <c r="G44" s="9">
-        <v>4.724986461674538E-2</v>
-      </c>
-      <c r="H44" s="9">
+      <c r="E44" s="9" t="n">
+        <v>4.603215782732519</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>0.3334611113908589</v>
+      </c>
+      <c r="G44" s="9" t="n">
+        <v>0.04724986461674538</v>
+      </c>
+      <c r="H44" s="9" t="n">
         <v>17.228859607236593</v>
       </c>
-      <c r="I44" s="9">
-        <v>-0.60434800157279778</v>
-      </c>
-      <c r="J44" s="17">
-        <v>90.789541677937038</v>
-      </c>
-      <c r="K44" s="22">
-        <v>34</v>
+      <c r="I44" s="9" t="n">
+        <v>-0.6043480015727978</v>
+      </c>
+      <c r="J44" s="17" t="n">
+        <v>90.78954167793704</v>
+      </c>
+      <c r="K44" s="22" t="n">
+        <v>34.0</v>
       </c>
       <c r="L44" s="9" t="e">
         <v>#NUM!</v>
@@ -15886,49 +15886,49 @@
       <c r="R44" s="9" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="S44" s="9">
-        <v>0</v>
+      <c r="S44" s="9" t="n">
+        <v>-0.0</v>
       </c>
       <c r="T44" s="17" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="U44" t="s">
+      <c r="U44" t="s" s="0">
         <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A45" s="10">
-        <v>66.976493366059259</v>
-      </c>
-      <c r="B45" s="10">
-        <v>35.182639515937147</v>
-      </c>
-      <c r="C45" s="10">
+      <c r="A45" s="10" t="n">
+        <v>66.97649336605926</v>
+      </c>
+      <c r="B45" s="10" t="n">
+        <v>35.18263951593715</v>
+      </c>
+      <c r="C45" s="10" t="n">
         <v>14.878276927318632</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D45" s="10" t="n">
         <v>2.4661194801605584</v>
       </c>
-      <c r="E45" s="10">
+      <c r="E45" s="10" t="n">
         <v>4.515666814247032</v>
       </c>
-      <c r="F45" s="10">
+      <c r="F45" s="10" t="n">
         <v>0.21674862681598367</v>
       </c>
-      <c r="G45" s="10">
+      <c r="G45" s="10" t="n">
         <v>0.19225446407501084</v>
       </c>
-      <c r="H45" s="10">
+      <c r="H45" s="10" t="n">
         <v>15.89197599149241</v>
       </c>
-      <c r="I45" s="10">
-        <v>-0.87211429479127012</v>
-      </c>
-      <c r="J45" s="18">
-        <v>96.678536888144919</v>
-      </c>
-      <c r="K45" s="23">
-        <v>83</v>
+      <c r="I45" s="10" t="n">
+        <v>-0.8721142947912701</v>
+      </c>
+      <c r="J45" s="18" t="n">
+        <v>96.67853688814492</v>
+      </c>
+      <c r="K45" s="23" t="n">
+        <v>83.0</v>
       </c>
       <c r="L45" s="10" t="e">
         <v>#NUM!</v>
@@ -15951,78 +15951,78 @@
       <c r="R45" s="10" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="S45" s="10">
-        <v>0</v>
+      <c r="S45" s="10" t="n">
+        <v>-0.0</v>
       </c>
       <c r="T45" s="18" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="U45" t="s">
+      <c r="U45" t="s" s="0">
         <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="19">
-        <v>64.257162006197419</v>
-      </c>
-      <c r="B46" s="19">
+      <c r="A46" s="19" t="n">
+        <v>64.25716200619742</v>
+      </c>
+      <c r="B46" s="19" t="n">
         <v>28.136399643085973</v>
       </c>
-      <c r="C46" s="19">
+      <c r="C46" s="19" t="n">
         <v>13.769885434741564</v>
       </c>
-      <c r="D46" s="19">
+      <c r="D46" s="19" t="n">
         <v>2.3230259800113044</v>
       </c>
-      <c r="E46" s="19">
-        <v>4.3102880632060234</v>
-      </c>
-      <c r="F46" s="19">
+      <c r="E46" s="19" t="n">
+        <v>4.310288063206023</v>
+      </c>
+      <c r="F46" s="19" t="n">
         <v>0.26017349066676165</v>
       </c>
-      <c r="G46" s="19">
-        <v>9.0296405912323713E-2</v>
-      </c>
-      <c r="H46" s="19">
-        <v>21.030932835502661</v>
-      </c>
-      <c r="I46" s="19">
-        <v>-9.4075079145955837E-2</v>
-      </c>
-      <c r="J46" s="20">
-        <v>83.491706886611468</v>
-      </c>
-      <c r="K46" s="24">
-        <v>84.888888888888886</v>
-      </c>
-      <c r="L46" s="19">
-        <v>39</v>
-      </c>
-      <c r="M46" s="19">
+      <c r="G46" s="19" t="n">
+        <v>0.09029640591232371</v>
+      </c>
+      <c r="H46" s="19" t="n">
+        <v>21.03093283550266</v>
+      </c>
+      <c r="I46" s="19" t="n">
+        <v>-0.09407507914595584</v>
+      </c>
+      <c r="J46" s="20" t="n">
+        <v>83.49170688661147</v>
+      </c>
+      <c r="K46" s="24" t="n">
+        <v>84.88888888888889</v>
+      </c>
+      <c r="L46" s="19" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="M46" s="19" t="n">
         <v>6.5</v>
       </c>
-      <c r="N46" s="19">
-        <v>4</v>
-      </c>
-      <c r="O46" s="19">
+      <c r="N46" s="19" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="O46" s="19" t="n">
         <v>4.5</v>
       </c>
-      <c r="P46" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="19">
-        <v>0</v>
-      </c>
-      <c r="R46" s="19">
-        <v>35</v>
-      </c>
-      <c r="S46" s="19">
-        <v>0</v>
-      </c>
-      <c r="T46" s="20">
-        <v>67.536211870302736</v>
-      </c>
-      <c r="U46" t="s">
+      <c r="P46" s="19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q46" s="19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R46" s="19" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="S46" s="19" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="T46" s="20" t="n">
+        <v>67.53621187030274</v>
+      </c>
+      <c r="U46" t="s" s="0">
         <v>41</v>
       </c>
     </row>
@@ -16030,122 +16030,122 @@
       <c r="J47" s="45"/>
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="A50" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="J50" t="s">
+      <c r="J50" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="S50" t="s">
+      <c r="S50" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A51" t="str">
+      <c r="A51" t="str" s="0">
         <f>$U$5</f>
         <v>B+M</v>
       </c>
-      <c r="B51" t="str">
+      <c r="B51" t="str" s="0">
         <f>$U$6</f>
         <v>B+Z</v>
       </c>
-      <c r="C51" t="str">
+      <c r="C51" t="str" s="0">
         <f>$U$7</f>
         <v>B+C</v>
       </c>
-      <c r="D51" t="str">
+      <c r="D51" t="str" s="0">
         <f>$U$8</f>
         <v>E+M</v>
       </c>
-      <c r="E51" t="str">
+      <c r="E51" t="str" s="0">
         <f>$U$9</f>
         <v>E+Z</v>
       </c>
-      <c r="F51" t="str">
+      <c r="F51" t="str" s="0">
         <f>$U$10</f>
         <v>E+C</v>
       </c>
-      <c r="G51" t="str">
+      <c r="G51" t="str" s="0">
         <f>$U$11</f>
         <v>L+M</v>
       </c>
-      <c r="H51" t="str">
+      <c r="H51" t="str" s="0">
         <f>$U$12</f>
         <v>L+Z</v>
       </c>
-      <c r="I51" t="str">
+      <c r="I51" t="str" s="0">
         <f>$U$13</f>
         <v>L+C</v>
       </c>
-      <c r="J51" t="str">
+      <c r="J51" t="str" s="0">
         <f>$U$5</f>
         <v>B+M</v>
       </c>
-      <c r="K51" t="str">
+      <c r="K51" t="str" s="0">
         <f>$U$6</f>
         <v>B+Z</v>
       </c>
-      <c r="L51" t="str">
+      <c r="L51" t="str" s="0">
         <f>$U$7</f>
         <v>B+C</v>
       </c>
-      <c r="M51" t="str">
+      <c r="M51" t="str" s="0">
         <f>$U$8</f>
         <v>E+M</v>
       </c>
-      <c r="N51" t="str">
+      <c r="N51" t="str" s="0">
         <f>$U$9</f>
         <v>E+Z</v>
       </c>
-      <c r="O51" t="str">
+      <c r="O51" t="str" s="0">
         <f>$U$10</f>
         <v>E+C</v>
       </c>
-      <c r="P51" t="str">
+      <c r="P51" t="str" s="0">
         <f>$U$11</f>
         <v>L+M</v>
       </c>
-      <c r="Q51" t="str">
+      <c r="Q51" t="str" s="0">
         <f>$U$12</f>
         <v>L+Z</v>
       </c>
-      <c r="R51" t="str">
+      <c r="R51" t="str" s="0">
         <f>$U$13</f>
         <v>L+C</v>
       </c>
-      <c r="S51" t="str">
+      <c r="S51" t="str" s="0">
         <f>$U$5</f>
         <v>B+M</v>
       </c>
-      <c r="T51" t="str">
+      <c r="T51" t="str" s="0">
         <f>$U$6</f>
         <v>B+Z</v>
       </c>
-      <c r="U51" t="str">
+      <c r="U51" t="str" s="0">
         <f>$U$7</f>
         <v>B+C</v>
       </c>
-      <c r="V51" t="str">
+      <c r="V51" t="str" s="0">
         <f>$U$8</f>
         <v>E+M</v>
       </c>
-      <c r="W51" t="str">
+      <c r="W51" t="str" s="0">
         <f>$U$9</f>
         <v>E+Z</v>
       </c>
-      <c r="X51" t="str">
+      <c r="X51" t="str" s="0">
         <f>$U$10</f>
         <v>E+C</v>
       </c>
-      <c r="Y51" t="str">
+      <c r="Y51" t="str" s="0">
         <f>$U$11</f>
         <v>L+M</v>
       </c>
-      <c r="Z51" t="str">
+      <c r="Z51" t="str" s="0">
         <f>$U$12</f>
         <v>L+Z</v>
       </c>
-      <c r="AA51" t="str">
+      <c r="AA51" t="str" s="0">
         <f>$U$13</f>
         <v>L+C</v>
       </c>

--- a/Red Team Data.xlsx
+++ b/Red Team Data.xlsx
@@ -13442,34 +13442,34 @@
         <v>100.26811812702532</v>
       </c>
       <c r="K5" s="22" t="n">
-        <v>59.679245283018865</v>
+        <v>59.09564474825818</v>
       </c>
       <c r="L5" s="12" t="n">
-        <v>25.733333333333334</v>
+        <v>27.370449678300258</v>
       </c>
       <c r="M5" s="12" t="n">
-        <v>15.150537634408602</v>
+        <v>16.565002471134697</v>
       </c>
       <c r="N5" s="12" t="n">
-        <v>3.0136986301369864</v>
+        <v>3.0637701471444605</v>
       </c>
       <c r="O5" s="12" t="n">
-        <v>4.797752808988764</v>
+        <v>4.917836713430747</v>
       </c>
       <c r="P5" s="12" t="n">
-        <v>0.3424657534246575</v>
+        <v>0.428170988057082</v>
       </c>
       <c r="Q5" s="12" t="n">
-        <v>0.011235955056179775</v>
+        <v>0.0036401456082147607</v>
       </c>
       <c r="R5" s="12" t="n">
-        <v>16.774193548387096</v>
+        <v>12.387543253966445</v>
       </c>
       <c r="S5" s="12" t="n">
-        <v>-1.509433962264151</v>
+        <v>-1.3321947054345664</v>
       </c>
       <c r="T5" s="17" t="n">
-        <v>99.92315537986426</v>
+        <v>101.37244838466259</v>
       </c>
       <c r="U5" t="s" s="0">
         <v>33</v>
@@ -13507,7 +13507,7 @@
         <v>107.62936213978517</v>
       </c>
       <c r="K6" s="23" t="n">
-        <v>101.66666666666667</v>
+        <v>101.450000000221</v>
       </c>
       <c r="L6" s="13" t="e">
         <v>#NUM!</v>
@@ -13572,7 +13572,7 @@
         <v>91.14582463786836</v>
       </c>
       <c r="K7" s="30" t="n">
-        <v>71.8</v>
+        <v>71.63157894766981</v>
       </c>
       <c r="L7" s="14" t="n">
         <v>28.0</v>
@@ -13599,7 +13599,7 @@
         <v>-0.0</v>
       </c>
       <c r="T7" s="31" t="n">
-        <v>70.89387089618795</v>
+        <v>70.88354235810294</v>
       </c>
       <c r="U7" t="s" s="0">
         <v>35</v>
@@ -13637,19 +13637,19 @@
         <v>106.49347988644098</v>
       </c>
       <c r="K8" s="23" t="n">
-        <v>72.0</v>
+        <v>71.35483870988972</v>
       </c>
       <c r="L8" s="13" t="n">
-        <v>31.0</v>
+        <v>32.80645161230885</v>
       </c>
       <c r="M8" s="13" t="n">
-        <v>8.333333333333334</v>
+        <v>10.304347825212854</v>
       </c>
       <c r="N8" s="13" t="n">
         <v>2.0</v>
       </c>
       <c r="O8" s="13" t="n">
-        <v>3.5</v>
+        <v>3.4999999999999996</v>
       </c>
       <c r="P8" s="13" t="n">
         <v>0.0</v>
@@ -13661,10 +13661,10 @@
         <v>45.0</v>
       </c>
       <c r="S8" s="13" t="n">
-        <v>-1.6666666666666667</v>
+        <v>-2.096774193406868</v>
       </c>
       <c r="T8" s="18" t="n">
-        <v>89.33802698418249</v>
+        <v>97.1023898048047</v>
       </c>
       <c r="U8" t="s" s="0">
         <v>36</v>
@@ -13702,34 +13702,34 @@
         <v>113.85472389920083</v>
       </c>
       <c r="K9" s="23" t="n">
-        <v>74.73469387755102</v>
+        <v>70.6513470692239</v>
       </c>
       <c r="L9" s="13" t="n">
-        <v>45.618556701030926</v>
+        <v>45.055599682434995</v>
       </c>
       <c r="M9" s="13" t="n">
-        <v>16.2680412371134</v>
+        <v>15.833200953251318</v>
       </c>
       <c r="N9" s="13" t="n">
-        <v>2.452054794520548</v>
+        <v>2.4244004171083042</v>
       </c>
       <c r="O9" s="13" t="n">
-        <v>4.739726027397261</v>
+        <v>4.642335766448563</v>
       </c>
       <c r="P9" s="13" t="n">
-        <v>0.1780821917808219</v>
+        <v>0.11366006258184523</v>
       </c>
       <c r="Q9" s="13" t="n">
-        <v>0.3424657534246575</v>
+        <v>0.3660062565111129</v>
       </c>
       <c r="R9" s="13" t="n">
-        <v>13.092783505154639</v>
+        <v>10.285941223928274</v>
       </c>
       <c r="S9" s="13" t="n">
-        <v>-1.6326530612244898</v>
+        <v>-1.9651347067267961</v>
       </c>
       <c r="T9" s="18" t="n">
-        <v>116.53225979387153</v>
+        <v>114.50229143613548</v>
       </c>
       <c r="U9" t="s" s="0">
         <v>37</v>
@@ -13832,7 +13832,7 @@
         <v>90.59349865792196</v>
       </c>
       <c r="K11" s="22" t="n">
-        <v>68.82352941176471</v>
+        <v>70.3877068553645</v>
       </c>
       <c r="L11" s="12" t="n">
         <v>30.0</v>
@@ -13962,34 +13962,34 @@
         <v>81.471205168765</v>
       </c>
       <c r="K13" s="24" t="n">
-        <v>65.85365853658537</v>
+        <v>63.96424581064444</v>
       </c>
       <c r="L13" s="25" t="n">
-        <v>28.4</v>
+        <v>27.432432432728802</v>
       </c>
       <c r="M13" s="25" t="n">
-        <v>11.6</v>
+        <v>13.049549549105542</v>
       </c>
       <c r="N13" s="25" t="n">
-        <v>2.2</v>
+        <v>2.054054054098758</v>
       </c>
       <c r="O13" s="25" t="n">
-        <v>3.8</v>
+        <v>4.103603603510607</v>
       </c>
       <c r="P13" s="25" t="n">
-        <v>0.2</v>
+        <v>0.22522522521749858</v>
       </c>
       <c r="Q13" s="25" t="n">
-        <v>0.1</v>
+        <v>0.11261261260874929</v>
       </c>
       <c r="R13" s="25" t="n">
-        <v>24.5</v>
+        <v>23.040540540987582</v>
       </c>
       <c r="S13" s="25" t="n">
         <v>-0.0</v>
       </c>
       <c r="T13" s="20" t="n">
-        <v>78.18259186629821</v>
+        <v>81.45043734013018</v>
       </c>
       <c r="U13" t="s" s="0">
         <v>41</v>
@@ -14116,34 +14116,34 @@
         <v>99.76084834563407</v>
       </c>
       <c r="K16" s="22" t="n">
-        <v>66.25</v>
+        <v>66.27368421051614</v>
       </c>
       <c r="L16" s="9" t="n">
-        <v>24.583333333333332</v>
+        <v>26.68421052541352</v>
       </c>
       <c r="M16" s="9" t="n">
-        <v>11.777777777777779</v>
+        <v>11.946428571336416</v>
       </c>
       <c r="N16" s="9" t="n">
-        <v>2.625</v>
+        <v>1.9310344831925486</v>
       </c>
       <c r="O16" s="9" t="n">
-        <v>4.5</v>
+        <v>3.6551724143213637</v>
       </c>
       <c r="P16" s="9" t="n">
-        <v>0.25</v>
+        <v>0.3103448275484741</v>
       </c>
       <c r="Q16" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="R16" s="9" t="n">
-        <v>27.22222222222222</v>
+        <v>20.625000003604914</v>
       </c>
       <c r="S16" s="9" t="n">
-        <v>-3.3333333333333335</v>
+        <v>-4.105263157563213</v>
       </c>
       <c r="T16" s="17" t="n">
-        <v>117.88812005926775</v>
+        <v>122.00496218651159</v>
       </c>
       <c r="U16" t="s" s="0">
         <v>33</v>
@@ -14639,34 +14639,34 @@
         <v>84.72331797902581</v>
       </c>
       <c r="K24" s="24" t="n">
-        <v>64.83333333333333</v>
+        <v>63.201149425670074</v>
       </c>
       <c r="L24" s="19" t="n">
-        <v>29.666666666666668</v>
+        <v>29.02298850589806</v>
       </c>
       <c r="M24" s="19" t="n">
-        <v>13.5</v>
+        <v>12.741379310522712</v>
       </c>
       <c r="N24" s="19" t="n">
         <v>2.0</v>
       </c>
       <c r="O24" s="19" t="n">
-        <v>4.333333333333333</v>
+        <v>4.2873563218498605</v>
       </c>
       <c r="P24" s="19" t="n">
-        <v>0.16666666666666666</v>
+        <v>0.14367816092493066</v>
       </c>
       <c r="Q24" s="19" t="n">
-        <v>0.16666666666666666</v>
+        <v>0.14367816092493066</v>
       </c>
       <c r="R24" s="19" t="n">
-        <v>21.666666666666668</v>
+        <v>21.436781609249305</v>
       </c>
       <c r="S24" s="19" t="n">
         <v>-0.0</v>
       </c>
       <c r="T24" s="20" t="n">
-        <v>81.80910879043918</v>
+        <v>76.89834309861402</v>
       </c>
       <c r="U24" t="s" s="0">
         <v>41</v>
@@ -15056,34 +15056,34 @@
         <v>113.73215034413748</v>
       </c>
       <c r="K31" s="23" t="n">
-        <v>74.58762886597938</v>
+        <v>70.60762510032772</v>
       </c>
       <c r="L31" s="13" t="n">
-        <v>45.618556701030926</v>
+        <v>45.055599682434995</v>
       </c>
       <c r="M31" s="13" t="n">
-        <v>16.2680412371134</v>
+        <v>15.833200953251318</v>
       </c>
       <c r="N31" s="13" t="n">
-        <v>2.452054794520548</v>
+        <v>2.4244004171083042</v>
       </c>
       <c r="O31" s="13" t="n">
-        <v>4.739726027397261</v>
+        <v>4.642335766448563</v>
       </c>
       <c r="P31" s="13" t="n">
-        <v>0.1780821917808219</v>
+        <v>0.11366006258184523</v>
       </c>
       <c r="Q31" s="13" t="n">
-        <v>0.3424657534246575</v>
+        <v>0.3660062565111129</v>
       </c>
       <c r="R31" s="13" t="n">
-        <v>13.092783505154639</v>
+        <v>10.285941223928274</v>
       </c>
       <c r="S31" s="13" t="n">
-        <v>-1.6494845360824741</v>
+        <v>-1.9698173152457137</v>
       </c>
       <c r="T31" s="18" t="n">
-        <v>116.7238086229994</v>
+        <v>114.55540918708306</v>
       </c>
       <c r="U31" t="s" s="0">
         <v>37</v>
@@ -15189,7 +15189,7 @@
         <v>69.0</v>
       </c>
       <c r="L33" s="12" t="n">
-        <v>30.0</v>
+        <v>29.999999999999996</v>
       </c>
       <c r="M33" s="12" t="e">
         <v>#NUM!</v>
@@ -15316,34 +15316,34 @@
         <v>87.82533535978882</v>
       </c>
       <c r="K35" s="24" t="n">
-        <v>47.5</v>
+        <v>53.39285713999491</v>
       </c>
       <c r="L35" s="25" t="n">
-        <v>14.0</v>
+        <v>9.285714288004081</v>
       </c>
       <c r="M35" s="25" t="n">
-        <v>11.0</v>
+        <v>19.642857138659185</v>
       </c>
       <c r="N35" s="25" t="n">
         <v>1.0</v>
       </c>
       <c r="O35" s="25" t="n">
-        <v>1.5</v>
+        <v>2.6785714279989796</v>
       </c>
       <c r="P35" s="25" t="n">
-        <v>0.5</v>
+        <v>0.8928571426663265</v>
       </c>
       <c r="Q35" s="25" t="n">
         <v>0.0</v>
       </c>
       <c r="R35" s="25" t="n">
-        <v>22.5</v>
+        <v>24.46428571333163</v>
       </c>
       <c r="S35" s="25" t="n">
         <v>-0.0</v>
       </c>
       <c r="T35" s="20" t="n">
-        <v>77.80350249854101</v>
+        <v>119.65465824202485</v>
       </c>
       <c r="U35" t="s" s="0">
         <v>41</v>
@@ -15470,34 +15470,34 @@
         <v>98.5292372532197</v>
       </c>
       <c r="K38" s="22" t="n">
-        <v>54.241379310344826</v>
+        <v>55.647281921267705</v>
       </c>
       <c r="L38" s="9" t="n">
-        <v>26.70175438596491</v>
+        <v>27.701587301341245</v>
       </c>
       <c r="M38" s="9" t="n">
-        <v>17.280701754385966</v>
+        <v>17.878730158582986</v>
       </c>
       <c r="N38" s="9" t="n">
-        <v>3.317073170731707</v>
+        <v>3.429101019433519</v>
       </c>
       <c r="O38" s="9" t="n">
-        <v>4.964912280701754</v>
+        <v>5.196825396768324</v>
       </c>
       <c r="P38" s="9" t="n">
-        <v>0.4146341463414634</v>
+        <v>0.4661723818217156</v>
       </c>
       <c r="Q38" s="9" t="n">
-        <v>0.017543859649122806</v>
+        <v>0.004444444447668148</v>
       </c>
       <c r="R38" s="9" t="n">
-        <v>10.175438596491228</v>
+        <v>10.04444444447668</v>
       </c>
       <c r="S38" s="9" t="n">
         <v>-0.0</v>
       </c>
       <c r="T38" s="17" t="n">
-        <v>85.26753478337457</v>
+        <v>89.23197499716709</v>
       </c>
       <c r="U38" t="s" s="0">
         <v>33</v>
@@ -15538,7 +15538,7 @@
         <v>104.4182324634276</v>
       </c>
       <c r="K39" s="23" t="n">
-        <v>101.66666666666667</v>
+        <v>101.450000000221</v>
       </c>
       <c r="L39" s="10" t="e">
         <v>#NUM!</v>
@@ -15668,19 +15668,19 @@
         <v>103.50952666075223</v>
       </c>
       <c r="K41" s="22" t="n">
-        <v>72.0</v>
+        <v>71.35483870988972</v>
       </c>
       <c r="L41" s="9" t="n">
-        <v>31.0</v>
+        <v>32.80645161230885</v>
       </c>
       <c r="M41" s="9" t="n">
-        <v>8.333333333333334</v>
+        <v>10.304347825212854</v>
       </c>
       <c r="N41" s="9" t="n">
         <v>2.0</v>
       </c>
       <c r="O41" s="9" t="n">
-        <v>3.5</v>
+        <v>3.4999999999999996</v>
       </c>
       <c r="P41" s="9" t="n">
         <v>0.0</v>
@@ -15692,10 +15692,10 @@
         <v>45.0</v>
       </c>
       <c r="S41" s="9" t="n">
-        <v>-1.6666666666666667</v>
+        <v>-2.096774193406868</v>
       </c>
       <c r="T41" s="17" t="n">
-        <v>89.33802698418249</v>
+        <v>97.1023898048047</v>
       </c>
       <c r="U41" t="s" s="0">
         <v>36</v>
@@ -15993,7 +15993,7 @@
         <v>83.49170688661147</v>
       </c>
       <c r="K46" s="24" t="n">
-        <v>84.88888888888889</v>
+        <v>83.67816092039192</v>
       </c>
       <c r="L46" s="19" t="n">
         <v>39.0</v>
@@ -16020,7 +16020,7 @@
         <v>-0.0</v>
       </c>
       <c r="T46" s="20" t="n">
-        <v>67.53621187030274</v>
+        <v>67.46196313619156</v>
       </c>
       <c r="U46" t="s" s="0">
         <v>41</v>

--- a/Red Team Data.xlsx
+++ b/Red Team Data.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Desktop\FTCStats\FTCStats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81E68A4-4A12-4248-916D-72A3287B553D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9C77EC-2CFE-4D20-B58C-4A268EADCC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{943F8BFE-BB93-4FCB-9D8B-2434F109755A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{943F8BFE-BB93-4FCB-9D8B-2434F109755A}"/>
   </bookViews>
   <sheets>
     <sheet name="Match Data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -178,8 +178,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -803,7 +804,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -853,6 +854,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1089,13 +1091,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>99.557637483789478</c:v>
+                  <c:v>-3.5386524343082773</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>114.28012550930919</c:v>
+                  <c:v>5.744164228515336</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>81.31305050547553</c:v>
+                  <c:v>2.6747641434348015</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2406,19 +2408,19 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>99.923155379864255</c:v>
+                  <c:v>100.40620738948833</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70.893870896187948</c:v>
+                  <c:v>65.886643347004579</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>89.338026984182491</c:v>
+                  <c:v>84.460186422171603</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>116.53225979387153</c:v>
+                  <c:v>121.59511864449674</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2430,7 +2432,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>78.18259186629821</c:v>
+                  <c:v>77.002628519678595</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2794,13 +2796,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>100.97859877026116</c:v>
+                  <c:v>-2.8540350568931556</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>113.42932228909248</c:v>
+                  <c:v>2.6388378570265791</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>81.629359832054462</c:v>
+                  <c:v>2.4414048167134634</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3160,13 +3162,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>97.731769220069111</c:v>
+                  <c:v>-9.0897751168231178</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>113.24185612388402</c:v>
+                  <c:v>4.6991889002743497</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>91.573713757997297</c:v>
+                  <c:v>3.5453768199322515</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3548,31 +3550,31 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>100.26811812702532</c:v>
+                  <c:v>97.334399313645378</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>107.62936213978517</c:v>
+                  <c:v>109.5557532426223</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>91.145824637868358</c:v>
+                  <c:v>87.226245976655221</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>106.49347988644098</c:v>
+                  <c:v>106.97062624454742</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>113.85472389920083</c:v>
+                  <c:v>119.19198017352433</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>97.371186397284021</c:v>
+                  <c:v>96.862472907557262</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>90.593498657921955</c:v>
+                  <c:v>86.714924979659912</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>97.954742670681824</c:v>
+                  <c:v>98.936278908636837</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>81.471205168764996</c:v>
+                  <c:v>76.60677164266977</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9861,8 +9863,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="10.0"/>
-    <col min="5" max="5" customWidth="true" width="10.6640625"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
@@ -9910,46 +9912,46 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="1">
         <v>45237</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="0">
+      <c r="F2">
         <v>106</v>
       </c>
-      <c r="G2" s="0">
+      <c r="G2">
         <v>-1</v>
       </c>
-      <c r="H2" s="0">
+      <c r="H2">
         <v>-1</v>
       </c>
-      <c r="I2" s="0">
+      <c r="I2">
         <v>-1</v>
       </c>
-      <c r="J2" s="0">
+      <c r="J2">
         <v>-1</v>
       </c>
-      <c r="K2" s="0">
+      <c r="K2">
         <v>-1</v>
       </c>
-      <c r="L2" s="0">
+      <c r="L2">
         <v>-1</v>
       </c>
-      <c r="M2" s="0">
+      <c r="M2">
         <v>-1</v>
       </c>
-      <c r="N2" s="0">
+      <c r="N2">
         <v>0</v>
       </c>
       <c r="R2" s="2"/>
@@ -9957,46 +9959,46 @@
       <c r="T2" s="2"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="1">
         <v>45237</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s" s="0">
+      <c r="E3" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="0">
+      <c r="F3">
         <v>83</v>
       </c>
-      <c r="G3" s="0">
+      <c r="G3">
         <v>-1</v>
       </c>
-      <c r="H3" s="0">
+      <c r="H3">
         <v>-1</v>
       </c>
-      <c r="I3" s="0">
+      <c r="I3">
         <v>-1</v>
       </c>
-      <c r="J3" s="0">
+      <c r="J3">
         <v>-1</v>
       </c>
-      <c r="K3" s="0">
+      <c r="K3">
         <v>-1</v>
       </c>
-      <c r="L3" s="0">
+      <c r="L3">
         <v>-1</v>
       </c>
-      <c r="M3" s="0">
+      <c r="M3">
         <v>-1</v>
       </c>
-      <c r="N3" s="0">
+      <c r="N3">
         <v>0</v>
       </c>
       <c r="O3" s="2"/>
@@ -10004,1332 +10006,1332 @@
       <c r="Q3" s="2"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="1">
         <v>45237</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" t="s" s="0">
+      <c r="E4" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="0">
+      <c r="F4">
         <v>89</v>
       </c>
-      <c r="G4" s="0">
+      <c r="G4">
         <v>-1</v>
       </c>
-      <c r="H4" s="0">
+      <c r="H4">
         <v>-1</v>
       </c>
-      <c r="I4" s="0">
+      <c r="I4">
         <v>-1</v>
       </c>
-      <c r="J4" s="0">
+      <c r="J4">
         <v>-1</v>
       </c>
-      <c r="K4" s="0">
+      <c r="K4">
         <v>-1</v>
       </c>
-      <c r="L4" s="0">
+      <c r="L4">
         <v>-1</v>
       </c>
-      <c r="M4" s="0">
+      <c r="M4">
         <v>-1</v>
       </c>
-      <c r="N4" s="0">
+      <c r="N4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" t="s" s="0">
+      <c r="A5" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="1">
         <v>45238</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="D5" t="s">
         <v>0</v>
       </c>
-      <c r="E5" t="s" s="0">
+      <c r="E5" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="0">
+      <c r="F5">
         <v>71</v>
       </c>
-      <c r="G5" s="0">
+      <c r="G5">
         <v>-1</v>
       </c>
-      <c r="H5" s="0">
+      <c r="H5">
         <v>-1</v>
       </c>
-      <c r="I5" s="0">
+      <c r="I5">
         <v>-1</v>
       </c>
-      <c r="J5" s="0">
+      <c r="J5">
         <v>-1</v>
       </c>
-      <c r="K5" s="0">
+      <c r="K5">
         <v>-1</v>
       </c>
-      <c r="L5" s="0">
+      <c r="L5">
         <v>-1</v>
       </c>
-      <c r="M5" s="0">
+      <c r="M5">
         <v>-1</v>
       </c>
-      <c r="N5" s="0">
+      <c r="N5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" t="s" s="0">
+      <c r="A6" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="1">
         <v>45238</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="D6" t="s">
         <v>2</v>
       </c>
-      <c r="E6" t="s" s="0">
+      <c r="E6" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="0">
+      <c r="F6">
         <v>88</v>
       </c>
-      <c r="G6" s="0">
+      <c r="G6">
         <v>-1</v>
       </c>
-      <c r="H6" s="0">
+      <c r="H6">
         <v>-1</v>
       </c>
-      <c r="I6" s="0">
+      <c r="I6">
         <v>-1</v>
       </c>
-      <c r="J6" s="0">
+      <c r="J6">
         <v>-1</v>
       </c>
-      <c r="K6" s="0">
+      <c r="K6">
         <v>-1</v>
       </c>
-      <c r="L6" s="0">
+      <c r="L6">
         <v>-1</v>
       </c>
-      <c r="M6" s="0">
+      <c r="M6">
         <v>-1</v>
       </c>
-      <c r="N6" s="0">
+      <c r="N6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" t="s" s="0">
+      <c r="A7" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="1">
         <v>45238</v>
       </c>
-      <c r="C7" t="s" s="0">
+      <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" t="s" s="0">
+      <c r="D7" t="s">
         <v>2</v>
       </c>
-      <c r="E7" t="s" s="0">
+      <c r="E7" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="0">
+      <c r="F7">
         <v>111</v>
       </c>
-      <c r="G7" s="0">
+      <c r="G7">
         <v>-1</v>
       </c>
-      <c r="H7" s="0">
+      <c r="H7">
         <v>-1</v>
       </c>
-      <c r="I7" s="0">
+      <c r="I7">
         <v>-1</v>
       </c>
-      <c r="J7" s="0">
+      <c r="J7">
         <v>-1</v>
       </c>
-      <c r="K7" s="0">
+      <c r="K7">
         <v>-1</v>
       </c>
-      <c r="L7" s="0">
+      <c r="L7">
         <v>-1</v>
       </c>
-      <c r="M7" s="0">
+      <c r="M7">
         <v>-1</v>
       </c>
-      <c r="N7" s="0">
+      <c r="N7">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" t="s" s="0">
+      <c r="A8" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="1">
         <v>45238</v>
       </c>
-      <c r="C8" t="s" s="0">
+      <c r="C8" t="s">
         <v>3</v>
       </c>
-      <c r="D8" t="s" s="0">
+      <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" t="s" s="0">
+      <c r="E8" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="0">
+      <c r="F8">
         <v>34</v>
       </c>
-      <c r="G8" s="0">
+      <c r="G8">
         <v>-1</v>
       </c>
-      <c r="H8" s="0">
+      <c r="H8">
         <v>-1</v>
       </c>
-      <c r="I8" s="0">
+      <c r="I8">
         <v>-1</v>
       </c>
-      <c r="J8" s="0">
+      <c r="J8">
         <v>-1</v>
       </c>
-      <c r="K8" s="0">
+      <c r="K8">
         <v>-1</v>
       </c>
-      <c r="L8" s="0">
+      <c r="L8">
         <v>-1</v>
       </c>
-      <c r="M8" s="0">
+      <c r="M8">
         <v>-1</v>
       </c>
-      <c r="N8" s="0">
+      <c r="N8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" t="s" s="0">
+      <c r="A9" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="1">
         <v>45238</v>
       </c>
-      <c r="C9" t="s" s="0">
+      <c r="C9" t="s">
         <v>3</v>
       </c>
-      <c r="D9" t="s" s="0">
+      <c r="D9" t="s">
         <v>0</v>
       </c>
-      <c r="E9" t="s" s="0">
+      <c r="E9" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="0">
+      <c r="F9">
         <v>120</v>
       </c>
-      <c r="G9" s="0">
+      <c r="G9">
         <v>-1</v>
       </c>
-      <c r="H9" s="0">
+      <c r="H9">
         <v>-1</v>
       </c>
-      <c r="I9" s="0">
+      <c r="I9">
         <v>-1</v>
       </c>
-      <c r="J9" s="0">
+      <c r="J9">
         <v>-1</v>
       </c>
-      <c r="K9" s="0">
+      <c r="K9">
         <v>-1</v>
       </c>
-      <c r="L9" s="0">
+      <c r="L9">
         <v>-1</v>
       </c>
-      <c r="M9" s="0">
+      <c r="M9">
         <v>-1</v>
       </c>
-      <c r="N9" s="0">
+      <c r="N9">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" t="s" s="0">
+      <c r="A10" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="1">
         <v>45238</v>
       </c>
-      <c r="C10" t="s" s="0">
+      <c r="C10" t="s">
         <v>8</v>
       </c>
-      <c r="D10" t="s" s="0">
+      <c r="D10" t="s">
         <v>6</v>
       </c>
-      <c r="E10" t="s" s="0">
+      <c r="E10" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="0">
+      <c r="F10">
         <v>75</v>
       </c>
-      <c r="G10" s="0">
+      <c r="G10">
         <v>-1</v>
       </c>
-      <c r="H10" s="0">
+      <c r="H10">
         <v>-1</v>
       </c>
-      <c r="I10" s="0">
+      <c r="I10">
         <v>-1</v>
       </c>
-      <c r="J10" s="0">
+      <c r="J10">
         <v>-1</v>
       </c>
-      <c r="K10" s="0">
+      <c r="K10">
         <v>-1</v>
       </c>
-      <c r="L10" s="0">
+      <c r="L10">
         <v>-1</v>
       </c>
-      <c r="M10" s="0">
+      <c r="M10">
         <v>-1</v>
       </c>
-      <c r="N10" s="0">
+      <c r="N10">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" t="s" s="0">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="1">
         <v>45237</v>
       </c>
-      <c r="C11" t="s" s="0">
+      <c r="C11" t="s">
         <v>4</v>
       </c>
-      <c r="D11" t="s" s="0">
+      <c r="D11" t="s">
         <v>2</v>
       </c>
-      <c r="E11" t="s" s="0">
+      <c r="E11" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="0">
+      <c r="F11">
         <v>111</v>
       </c>
-      <c r="G11" s="0">
+      <c r="G11">
         <v>45</v>
       </c>
-      <c r="H11" s="0">
+      <c r="H11">
         <v>26</v>
       </c>
-      <c r="I11" s="0">
+      <c r="I11">
         <v>3</v>
       </c>
-      <c r="J11" s="0">
+      <c r="J11">
         <v>6</v>
       </c>
-      <c r="K11" s="0">
+      <c r="K11">
         <v>1</v>
       </c>
-      <c r="L11" s="0">
+      <c r="L11">
         <v>1</v>
       </c>
-      <c r="M11" s="0">
+      <c r="M11">
         <v>30</v>
       </c>
-      <c r="N11" s="0">
+      <c r="N11">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" t="s" s="0">
+      <c r="A12" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="1">
         <v>45238</v>
       </c>
-      <c r="C12" t="s" s="0">
+      <c r="C12" t="s">
         <v>8</v>
       </c>
-      <c r="D12" t="s" s="0">
+      <c r="D12" t="s">
         <v>6</v>
       </c>
-      <c r="E12" t="s" s="0">
+      <c r="E12" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="0">
+      <c r="F12">
         <v>107</v>
       </c>
-      <c r="G12" s="0">
+      <c r="G12">
         <v>50</v>
       </c>
-      <c r="H12" s="0">
+      <c r="H12">
         <v>57</v>
       </c>
-      <c r="I12" s="0">
+      <c r="I12">
         <v>4</v>
       </c>
-      <c r="J12" s="0">
+      <c r="J12">
         <v>7</v>
       </c>
-      <c r="K12" s="0">
+      <c r="K12">
         <v>1</v>
       </c>
-      <c r="L12" s="0">
+      <c r="L12">
         <v>1</v>
       </c>
-      <c r="M12" s="0">
+      <c r="M12">
         <v>20</v>
       </c>
-      <c r="N12" s="0">
+      <c r="N12">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" t="s" s="0">
+      <c r="A13" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="1">
         <v>45234</v>
       </c>
-      <c r="C13" t="s" s="0">
+      <c r="C13" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="E13" t="s" s="0">
+      <c r="E13" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="0">
+      <c r="F13">
         <v>40</v>
       </c>
-      <c r="G13" s="0">
+      <c r="G13">
         <v>20</v>
       </c>
-      <c r="H13" s="0">
+      <c r="H13">
         <v>0</v>
       </c>
-      <c r="I13" s="0">
+      <c r="I13">
         <v>1</v>
       </c>
-      <c r="J13" s="0">
+      <c r="J13">
         <v>0</v>
       </c>
-      <c r="K13" s="0">
+      <c r="K13">
         <v>0</v>
       </c>
-      <c r="L13" s="0">
+      <c r="L13">
         <v>0</v>
       </c>
-      <c r="M13" s="0">
+      <c r="M13">
         <v>20</v>
       </c>
-      <c r="N13" s="0">
+      <c r="N13">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" t="s" s="0">
+      <c r="A14" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="1">
         <v>45234</v>
       </c>
-      <c r="C14" t="s" s="0">
+      <c r="C14" t="s">
         <v>8</v>
       </c>
-      <c r="D14" t="s" s="0">
+      <c r="D14" t="s">
         <v>6</v>
       </c>
-      <c r="E14" t="s" s="0">
+      <c r="E14" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="0">
+      <c r="F14">
         <v>101</v>
       </c>
-      <c r="G14" s="0">
+      <c r="G14">
         <v>28</v>
       </c>
-      <c r="H14" s="0">
+      <c r="H14">
         <v>23</v>
       </c>
-      <c r="I14" s="0">
+      <c r="I14">
         <v>3</v>
       </c>
-      <c r="J14" s="0">
+      <c r="J14">
         <v>5</v>
       </c>
-      <c r="K14" s="0">
+      <c r="K14">
         <v>1</v>
       </c>
-      <c r="L14" s="0">
+      <c r="L14">
         <v>0</v>
       </c>
-      <c r="M14" s="0">
+      <c r="M14">
         <v>50</v>
       </c>
-      <c r="N14" s="0">
+      <c r="N14">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" t="s" s="0">
+      <c r="A15" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="1">
         <v>45234</v>
       </c>
-      <c r="C15" t="s" s="0">
+      <c r="C15" t="s">
         <v>4</v>
       </c>
-      <c r="D15" t="s" s="0">
+      <c r="D15" t="s">
         <v>2</v>
       </c>
-      <c r="E15" t="s" s="0">
+      <c r="E15" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="0">
+      <c r="F15">
         <v>110</v>
       </c>
-      <c r="G15" s="0">
+      <c r="G15">
         <v>50</v>
       </c>
-      <c r="H15" s="0">
+      <c r="H15">
         <v>20</v>
       </c>
-      <c r="I15" s="0">
+      <c r="I15">
         <v>2</v>
       </c>
-      <c r="J15" s="0">
+      <c r="J15">
         <v>4</v>
       </c>
-      <c r="K15" s="0">
+      <c r="K15">
         <v>1</v>
       </c>
-      <c r="L15" s="0">
+      <c r="L15">
         <v>0</v>
       </c>
-      <c r="M15" s="0">
+      <c r="M15">
         <v>40</v>
       </c>
-      <c r="N15" s="0">
+      <c r="N15">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" t="s" s="0">
+      <c r="A16" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="1">
         <v>45234</v>
       </c>
-      <c r="C16" t="s" s="0">
+      <c r="C16" t="s">
         <v>8</v>
       </c>
-      <c r="D16" t="s" s="0">
+      <c r="D16" t="s">
         <v>0</v>
       </c>
-      <c r="E16" t="s" s="0">
+      <c r="E16" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="0">
+      <c r="F16">
         <v>72</v>
       </c>
-      <c r="G16" s="0">
+      <c r="G16">
         <v>28</v>
       </c>
-      <c r="H16" s="0">
+      <c r="H16">
         <v>14</v>
       </c>
-      <c r="I16" s="0">
+      <c r="I16">
         <v>3</v>
       </c>
-      <c r="J16" s="0">
+      <c r="J16">
         <v>6</v>
       </c>
-      <c r="K16" s="0">
+      <c r="K16">
         <v>0</v>
       </c>
-      <c r="L16" s="0">
+      <c r="L16">
         <v>0</v>
       </c>
-      <c r="M16" s="0">
+      <c r="M16">
         <v>30</v>
       </c>
-      <c r="N16" s="0">
+      <c r="N16">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A17" t="s" s="0">
+      <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="1">
         <v>45234</v>
       </c>
-      <c r="C17" t="s" s="0">
+      <c r="C17" t="s">
         <v>4</v>
       </c>
-      <c r="D17" t="s" s="0">
+      <c r="D17" t="s">
         <v>2</v>
       </c>
-      <c r="E17" t="s" s="0">
+      <c r="E17" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="0">
+      <c r="F17">
         <v>80</v>
       </c>
-      <c r="G17" s="0">
+      <c r="G17">
         <v>50</v>
       </c>
-      <c r="H17" s="0">
+      <c r="H17">
         <v>10</v>
       </c>
-      <c r="I17" s="0">
+      <c r="I17">
         <v>3</v>
       </c>
-      <c r="J17" s="0">
+      <c r="J17">
         <v>6</v>
       </c>
-      <c r="K17" s="0">
+      <c r="K17">
         <v>0</v>
       </c>
-      <c r="L17" s="0">
+      <c r="L17">
         <v>0</v>
       </c>
-      <c r="M17" s="0">
+      <c r="M17">
         <v>20</v>
       </c>
-      <c r="N17" s="0">
+      <c r="N17">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A18" t="s" s="0">
+      <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="1">
         <v>45234</v>
       </c>
-      <c r="C18" t="s" s="0">
+      <c r="C18" t="s">
         <v>8</v>
       </c>
-      <c r="D18" t="s" s="0">
+      <c r="D18" t="s">
         <v>6</v>
       </c>
-      <c r="E18" t="s" s="0">
+      <c r="E18" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="0">
+      <c r="F18">
         <v>66</v>
       </c>
-      <c r="G18" s="0">
+      <c r="G18">
         <v>20</v>
       </c>
-      <c r="H18" s="0">
+      <c r="H18">
         <v>6</v>
       </c>
-      <c r="I18" s="0">
+      <c r="I18">
         <v>3</v>
       </c>
-      <c r="J18" s="0">
+      <c r="J18">
         <v>4</v>
       </c>
-      <c r="K18" s="0">
+      <c r="K18">
         <v>0</v>
       </c>
-      <c r="L18" s="0">
+      <c r="L18">
         <v>0</v>
       </c>
-      <c r="M18" s="0">
+      <c r="M18">
         <v>40</v>
       </c>
-      <c r="N18" s="0">
+      <c r="N18">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A19" t="s" s="0">
+      <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="1">
         <v>45234</v>
       </c>
-      <c r="C19" t="s" s="0">
+      <c r="C19" t="s">
         <v>8</v>
       </c>
-      <c r="D19" t="s" s="0">
+      <c r="D19" t="s">
         <v>6</v>
       </c>
-      <c r="E19" t="s" s="0">
+      <c r="E19" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="0">
+      <c r="F19">
         <v>57</v>
       </c>
-      <c r="G19" s="0">
+      <c r="G19">
         <v>8</v>
       </c>
-      <c r="H19" s="0">
+      <c r="H19">
         <v>9</v>
       </c>
-      <c r="I19" s="0">
+      <c r="I19">
         <v>3</v>
       </c>
-      <c r="J19" s="0">
+      <c r="J19">
         <v>7</v>
       </c>
-      <c r="K19" s="0">
+      <c r="K19">
         <v>0</v>
       </c>
-      <c r="L19" s="0">
+      <c r="L19">
         <v>0</v>
       </c>
-      <c r="M19" s="0">
+      <c r="M19">
         <v>40</v>
       </c>
-      <c r="N19" s="0">
+      <c r="N19">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A20" t="s" s="0">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>45234</v>
       </c>
-      <c r="C20" t="s" s="0">
+      <c r="C20" t="s">
         <v>8</v>
       </c>
-      <c r="D20" t="s" s="0">
+      <c r="D20" t="s">
         <v>6</v>
       </c>
-      <c r="E20" t="s" s="0">
+      <c r="E20" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="0">
+      <c r="F20">
         <v>31</v>
       </c>
-      <c r="G20" s="0">
+      <c r="G20">
         <v>0</v>
       </c>
-      <c r="H20" s="0">
+      <c r="H20">
         <v>11</v>
       </c>
-      <c r="I20" s="0">
+      <c r="I20">
         <v>4</v>
       </c>
-      <c r="J20" s="0">
+      <c r="J20">
         <v>5</v>
       </c>
-      <c r="K20" s="0">
+      <c r="K20">
         <v>0</v>
       </c>
-      <c r="L20" s="0">
+      <c r="L20">
         <v>0</v>
       </c>
-      <c r="M20" s="0">
+      <c r="M20">
         <v>20</v>
       </c>
-      <c r="N20" s="0">
+      <c r="N20">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A21" t="s" s="0">
+      <c r="A21" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="1">
         <v>45234</v>
       </c>
-      <c r="C21" t="s" s="0">
+      <c r="C21" t="s">
         <v>8</v>
       </c>
-      <c r="D21" t="s" s="0">
+      <c r="D21" t="s">
         <v>6</v>
       </c>
-      <c r="E21" t="s" s="0">
+      <c r="E21" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="0">
+      <c r="F21">
         <v>79</v>
       </c>
-      <c r="G21" s="0">
+      <c r="G21">
         <v>50</v>
       </c>
-      <c r="H21" s="0">
+      <c r="H21">
         <v>9</v>
       </c>
-      <c r="I21" s="0">
+      <c r="I21">
         <v>3</v>
       </c>
-      <c r="J21" s="0">
+      <c r="J21">
         <v>5</v>
       </c>
-      <c r="K21" s="0">
+      <c r="K21">
         <v>0</v>
       </c>
-      <c r="L21" s="0">
+      <c r="L21">
         <v>0</v>
       </c>
-      <c r="M21" s="0">
+      <c r="M21">
         <v>20</v>
       </c>
-      <c r="N21" s="0">
+      <c r="N21">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A22" t="s" s="0">
+      <c r="A22" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="1">
         <v>45241</v>
       </c>
-      <c r="C22" t="s" s="0">
+      <c r="C22" t="s">
         <v>8</v>
       </c>
-      <c r="D22" t="s" s="0">
+      <c r="D22" t="s">
         <v>6</v>
       </c>
-      <c r="E22" t="s" s="0">
+      <c r="E22" t="s">
         <v>1</v>
       </c>
-      <c r="F22" s="0">
+      <c r="F22">
         <v>29</v>
       </c>
-      <c r="G22" s="0">
+      <c r="G22">
         <v>25</v>
       </c>
-      <c r="H22" s="0">
+      <c r="H22">
         <v>4</v>
       </c>
-      <c r="I22" s="0">
+      <c r="I22">
         <v>2</v>
       </c>
-      <c r="J22" s="0">
+      <c r="J22">
         <v>2</v>
       </c>
-      <c r="K22" s="0">
+      <c r="K22">
         <v>0</v>
       </c>
-      <c r="L22" s="0">
+      <c r="L22">
         <v>0</v>
       </c>
-      <c r="M22" s="0">
+      <c r="M22">
         <v>0</v>
       </c>
-      <c r="N22" s="0">
+      <c r="N22">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A23" t="s" s="0">
+      <c r="A23" t="s">
         <v>18</v>
       </c>
       <c r="B23" s="1">
         <v>45241</v>
       </c>
-      <c r="C23" t="s" s="0">
+      <c r="C23" t="s">
         <v>4</v>
       </c>
-      <c r="D23" t="s" s="0">
+      <c r="D23" t="s">
         <v>6</v>
       </c>
-      <c r="E23" t="s" s="0">
+      <c r="E23" t="s">
         <v>1</v>
       </c>
-      <c r="F23" s="0">
+      <c r="F23">
         <v>83</v>
       </c>
-      <c r="G23" s="0">
+      <c r="G23">
         <v>28</v>
       </c>
-      <c r="H23" s="0">
+      <c r="H23">
         <v>5</v>
       </c>
-      <c r="I23" s="0">
+      <c r="I23">
         <v>2</v>
       </c>
-      <c r="J23" s="0">
+      <c r="J23">
         <v>5</v>
       </c>
-      <c r="K23" s="0">
+      <c r="K23">
         <v>0</v>
       </c>
-      <c r="L23" s="0">
+      <c r="L23">
         <v>0</v>
       </c>
-      <c r="M23" s="0">
+      <c r="M23">
         <v>50</v>
       </c>
-      <c r="N23" s="0">
+      <c r="N23">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A24" t="s" s="0">
+      <c r="A24" t="s">
         <v>18</v>
       </c>
       <c r="B24" s="1">
         <v>45241</v>
       </c>
-      <c r="C24" t="s" s="0">
+      <c r="C24" t="s">
         <v>3</v>
       </c>
-      <c r="D24" t="s" s="0">
+      <c r="D24" t="s">
         <v>0</v>
       </c>
-      <c r="E24" t="s" s="0">
+      <c r="E24" t="s">
         <v>1</v>
       </c>
-      <c r="F24" s="0">
+      <c r="F24">
         <v>76</v>
       </c>
-      <c r="G24" s="0">
+      <c r="G24">
         <v>50</v>
       </c>
-      <c r="H24" s="0">
+      <c r="H24">
         <v>6</v>
       </c>
-      <c r="I24" s="0">
+      <c r="I24">
         <v>4</v>
       </c>
-      <c r="J24" s="0">
+      <c r="J24">
         <v>4</v>
       </c>
-      <c r="K24" s="0">
+      <c r="K24">
         <v>0</v>
       </c>
-      <c r="L24" s="0">
+      <c r="L24">
         <v>0</v>
       </c>
-      <c r="M24" s="0">
+      <c r="M24">
         <v>20</v>
       </c>
-      <c r="N24" s="0">
+      <c r="N24">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A25" t="s" s="0">
+      <c r="A25" t="s">
         <v>18</v>
       </c>
       <c r="B25" s="1">
         <v>45241</v>
       </c>
-      <c r="C25" t="s" s="0">
+      <c r="C25" t="s">
         <v>8</v>
       </c>
-      <c r="D25" t="s" s="0">
+      <c r="D25" t="s">
         <v>6</v>
       </c>
-      <c r="E25" t="s" s="0">
+      <c r="E25" t="s">
         <v>1</v>
       </c>
-      <c r="F25" s="0">
+      <c r="F25">
         <v>32</v>
       </c>
-      <c r="G25" s="0">
+      <c r="G25">
         <v>3</v>
       </c>
-      <c r="H25" s="0">
+      <c r="H25">
         <v>8</v>
       </c>
-      <c r="I25" s="0">
+      <c r="I25">
         <v>3</v>
       </c>
-      <c r="J25" s="0">
+      <c r="J25">
         <v>3</v>
       </c>
-      <c r="K25" s="0">
+      <c r="K25">
         <v>0</v>
       </c>
-      <c r="L25" s="0">
+      <c r="L25">
         <v>0</v>
       </c>
-      <c r="M25" s="0">
+      <c r="M25">
         <v>20</v>
       </c>
-      <c r="N25" s="0">
+      <c r="N25">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A26" t="s" s="0">
+      <c r="A26" t="s">
         <v>18</v>
       </c>
       <c r="B26" s="1">
         <v>45241</v>
       </c>
-      <c r="C26" t="s" s="0">
+      <c r="C26" t="s">
         <v>4</v>
       </c>
-      <c r="D26" t="s" s="0">
+      <c r="D26" t="s">
         <v>6</v>
       </c>
-      <c r="E26" t="s" s="0">
+      <c r="E26" t="s">
         <v>1</v>
       </c>
-      <c r="F26" s="0">
+      <c r="F26">
         <v>66</v>
       </c>
-      <c r="G26" s="0">
+      <c r="G26">
         <v>20</v>
       </c>
-      <c r="H26" s="0">
+      <c r="H26">
         <v>6</v>
       </c>
-      <c r="I26" s="0">
+      <c r="I26">
         <v>2</v>
       </c>
-      <c r="J26" s="0">
+      <c r="J26">
         <v>2</v>
       </c>
-      <c r="K26" s="0">
+      <c r="K26">
         <v>0</v>
       </c>
-      <c r="L26" s="0">
+      <c r="L26">
         <v>0</v>
       </c>
-      <c r="M26" s="0">
+      <c r="M26">
         <v>40</v>
       </c>
-      <c r="N26" s="0">
+      <c r="N26">
         <v>0</v>
       </c>
-      <c r="T26" s="49"/>
-      <c r="U26" s="49"/>
-      <c r="V26" s="49"/>
-      <c r="W26" s="49"/>
+      <c r="T26" s="50"/>
+      <c r="U26" s="50"/>
+      <c r="V26" s="50"/>
+      <c r="W26" s="50"/>
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A27" t="s" s="0">
+      <c r="A27" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="1">
         <v>45241</v>
       </c>
-      <c r="C27" t="s" s="0">
+      <c r="C27" t="s">
         <v>3</v>
       </c>
-      <c r="D27" t="s" s="0">
+      <c r="D27" t="s">
         <v>0</v>
       </c>
-      <c r="E27" t="s" s="0">
+      <c r="E27" t="s">
         <v>1</v>
       </c>
-      <c r="F27" s="0">
+      <c r="F27">
         <v>85</v>
       </c>
-      <c r="G27" s="0">
+      <c r="G27">
         <v>28</v>
       </c>
-      <c r="H27" s="0">
+      <c r="H27">
         <v>7</v>
       </c>
-      <c r="I27" s="0">
+      <c r="I27">
         <v>4</v>
       </c>
-      <c r="J27" s="0">
+      <c r="J27">
         <v>5</v>
       </c>
-      <c r="K27" s="0">
+      <c r="K27">
         <v>0</v>
       </c>
-      <c r="L27" s="0">
+      <c r="L27">
         <v>0</v>
       </c>
-      <c r="M27" s="0">
+      <c r="M27">
         <v>50</v>
       </c>
-      <c r="N27" s="0">
+      <c r="N27">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A28" t="s" s="0">
+      <c r="A28" t="s">
         <v>17</v>
       </c>
       <c r="B28" s="1">
         <v>45255</v>
       </c>
-      <c r="C28" t="s" s="0">
+      <c r="C28" t="s">
         <v>8</v>
       </c>
-      <c r="D28" t="s" s="0">
+      <c r="D28" t="s">
         <v>6</v>
       </c>
-      <c r="E28" t="s" s="0">
+      <c r="E28" t="s">
         <v>7</v>
       </c>
-      <c r="F28" s="0">
+      <c r="F28">
         <v>65</v>
       </c>
-      <c r="G28" s="0">
+      <c r="G28">
         <v>30</v>
       </c>
-      <c r="H28" s="0">
+      <c r="H28">
         <v>10</v>
       </c>
-      <c r="I28" s="0">
+      <c r="I28">
         <v>2</v>
       </c>
-      <c r="J28" s="0">
+      <c r="J28">
         <v>4</v>
       </c>
-      <c r="K28" s="0">
+      <c r="K28">
         <v>0</v>
       </c>
-      <c r="L28" s="0">
+      <c r="L28">
         <v>0</v>
       </c>
-      <c r="M28" s="0">
+      <c r="M28">
         <v>25</v>
       </c>
-      <c r="N28" s="0">
+      <c r="N28">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A29" t="s" s="0">
+      <c r="A29" t="s">
         <v>17</v>
       </c>
       <c r="B29" s="1">
         <v>45255</v>
       </c>
-      <c r="C29" t="s" s="0">
+      <c r="C29" t="s">
         <v>8</v>
       </c>
-      <c r="D29" t="s" s="0">
+      <c r="D29" t="s">
         <v>6</v>
       </c>
-      <c r="E29" t="s" s="0">
+      <c r="E29" t="s">
         <v>7</v>
       </c>
-      <c r="F29" s="0">
+      <c r="F29">
         <v>40</v>
       </c>
-      <c r="G29" s="0">
+      <c r="G29">
         <v>8</v>
       </c>
-      <c r="H29" s="0">
+      <c r="H29">
         <v>7</v>
       </c>
-      <c r="I29" s="0">
+      <c r="I29">
         <v>2</v>
       </c>
-      <c r="J29" s="0">
+      <c r="J29">
         <v>3</v>
       </c>
-      <c r="K29" s="0">
+      <c r="K29">
         <v>0</v>
       </c>
-      <c r="L29" s="0">
+      <c r="L29">
         <v>0</v>
       </c>
-      <c r="M29" s="0">
+      <c r="M29">
         <v>25</v>
       </c>
-      <c r="N29" s="0">
+      <c r="N29">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A30" t="s" s="0">
+      <c r="A30" t="s">
         <v>17</v>
       </c>
       <c r="B30" s="1">
         <v>45255</v>
       </c>
-      <c r="C30" t="s" s="0">
+      <c r="C30" t="s">
         <v>8</v>
       </c>
-      <c r="D30" t="s" s="0">
+      <c r="D30" t="s">
         <v>6</v>
       </c>
-      <c r="E30" t="s" s="0">
+      <c r="E30" t="s">
         <v>7</v>
       </c>
-      <c r="F30" s="0">
+      <c r="F30">
         <v>72</v>
       </c>
-      <c r="G30" s="0">
+      <c r="G30">
         <v>28</v>
       </c>
-      <c r="H30" s="0">
+      <c r="H30">
         <v>19</v>
       </c>
-      <c r="I30" s="0">
+      <c r="I30">
         <v>1</v>
       </c>
-      <c r="J30" s="0">
+      <c r="J30">
         <v>3</v>
       </c>
-      <c r="K30" s="0">
+      <c r="K30">
         <v>1</v>
       </c>
-      <c r="L30" s="0">
+      <c r="L30">
         <v>0</v>
       </c>
-      <c r="M30" s="0">
+      <c r="M30">
         <v>25</v>
       </c>
-      <c r="N30" s="0">
+      <c r="N30">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A31" t="s" s="0">
+      <c r="A31" t="s">
         <v>17</v>
       </c>
       <c r="B31" s="1">
         <v>45256</v>
       </c>
-      <c r="C31" t="s" s="0">
+      <c r="C31" t="s">
         <v>3</v>
       </c>
-      <c r="D31" t="s" s="0">
+      <c r="D31" t="s">
         <v>0</v>
       </c>
-      <c r="E31" t="s" s="0">
+      <c r="E31" t="s">
         <v>7</v>
       </c>
-      <c r="F31" s="0">
+      <c r="F31">
         <v>102</v>
       </c>
-      <c r="G31" s="0">
+      <c r="G31">
         <v>50</v>
       </c>
-      <c r="H31" s="0">
+      <c r="H31">
         <v>27</v>
       </c>
-      <c r="I31" s="0">
+      <c r="I31">
         <v>3</v>
       </c>
-      <c r="J31" s="0">
+      <c r="J31">
         <v>7</v>
       </c>
-      <c r="K31" s="0">
+      <c r="K31">
         <v>0</v>
       </c>
-      <c r="L31" s="0">
+      <c r="L31">
         <v>1</v>
       </c>
-      <c r="M31" s="0">
+      <c r="M31">
         <v>25</v>
       </c>
-      <c r="N31" s="0">
+      <c r="N31">
         <v>0</v>
       </c>
-      <c r="T31" s="50"/>
-      <c r="U31" s="50"/>
-      <c r="V31" s="50"/>
-      <c r="W31" s="50"/>
+      <c r="T31" s="51"/>
+      <c r="U31" s="51"/>
+      <c r="V31" s="51"/>
+      <c r="W31" s="51"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A32" t="s" s="0">
+      <c r="A32" t="s">
         <v>17</v>
       </c>
       <c r="B32" s="1">
         <v>45256</v>
       </c>
-      <c r="C32" t="s" s="0">
+      <c r="C32" t="s">
         <v>3</v>
       </c>
-      <c r="D32" t="s" s="0">
+      <c r="D32" t="s">
         <v>0</v>
       </c>
-      <c r="E32" t="s" s="0">
+      <c r="E32" t="s">
         <v>5</v>
       </c>
-      <c r="F32" s="0">
+      <c r="F32">
         <v>55</v>
       </c>
-      <c r="G32" s="0">
+      <c r="G32">
         <v>8</v>
       </c>
-      <c r="H32" s="0">
+      <c r="H32">
         <v>22</v>
       </c>
-      <c r="I32" s="0">
+      <c r="I32">
         <v>1</v>
       </c>
-      <c r="J32" s="0">
+      <c r="J32">
         <v>3</v>
       </c>
-      <c r="K32" s="0">
+      <c r="K32">
         <v>1</v>
       </c>
-      <c r="L32" s="0">
+      <c r="L32">
         <v>0</v>
       </c>
-      <c r="M32" s="0">
+      <c r="M32">
         <v>25</v>
       </c>
-      <c r="N32" s="0">
+      <c r="N32">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" t="s" s="0">
+      <c r="A33" t="s">
         <v>17</v>
       </c>
       <c r="B33" s="1">
         <v>45256</v>
       </c>
-      <c r="C33" t="s" s="0">
+      <c r="C33" t="s">
         <v>3</v>
       </c>
-      <c r="D33" t="s" s="0">
+      <c r="D33" t="s">
         <v>0</v>
       </c>
-      <c r="E33" t="s" s="0">
+      <c r="E33" t="s">
         <v>7</v>
       </c>
-      <c r="F33" s="0">
+      <c r="F33">
         <v>75</v>
       </c>
-      <c r="G33" s="0">
+      <c r="G33">
         <v>28</v>
       </c>
-      <c r="H33" s="0">
+      <c r="H33">
         <v>22</v>
       </c>
-      <c r="I33" s="0">
+      <c r="I33">
         <v>1</v>
       </c>
-      <c r="J33" s="0">
+      <c r="J33">
         <v>3</v>
       </c>
-      <c r="K33" s="0">
+      <c r="K33">
         <v>1</v>
       </c>
-      <c r="L33" s="0">
+      <c r="L33">
         <v>0</v>
       </c>
-      <c r="M33" s="0">
+      <c r="M33">
         <v>25</v>
       </c>
-      <c r="N33" s="0">
+      <c r="N33">
         <v>0</v>
       </c>
     </row>
@@ -11340,84 +11342,84 @@
       <c r="B34" s="1">
         <v>45256</v>
       </c>
-      <c r="C34" t="s" s="0">
+      <c r="C34" t="s">
         <v>4</v>
       </c>
-      <c r="D34" t="s" s="0">
+      <c r="D34" t="s">
         <v>2</v>
       </c>
-      <c r="E34" t="s" s="0">
+      <c r="E34" t="s">
         <v>5</v>
       </c>
-      <c r="F34" s="0">
+      <c r="F34">
         <v>85</v>
       </c>
-      <c r="G34" s="0">
+      <c r="G34">
         <v>50</v>
       </c>
-      <c r="H34" s="0">
+      <c r="H34">
         <v>10</v>
       </c>
-      <c r="I34" s="0">
+      <c r="I34">
         <v>2</v>
       </c>
-      <c r="J34" s="0">
+      <c r="J34">
         <v>4</v>
       </c>
-      <c r="K34" s="0">
+      <c r="K34">
         <v>0</v>
       </c>
-      <c r="L34" s="0">
+      <c r="L34">
         <v>0</v>
       </c>
-      <c r="M34" s="0">
+      <c r="M34">
         <v>25</v>
       </c>
-      <c r="N34" s="0">
+      <c r="N34">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" t="s" s="0">
+      <c r="A35" t="s">
         <v>17</v>
       </c>
       <c r="B35" s="1">
         <v>45256</v>
       </c>
-      <c r="C35" t="s" s="0">
+      <c r="C35" t="s">
         <v>4</v>
       </c>
-      <c r="D35" t="s" s="0">
+      <c r="D35" t="s">
         <v>2</v>
       </c>
-      <c r="E35" t="s" s="0">
+      <c r="E35" t="s">
         <v>5</v>
       </c>
-      <c r="F35" s="0">
+      <c r="F35">
         <v>100</v>
       </c>
-      <c r="G35" s="0">
+      <c r="G35">
         <v>50</v>
       </c>
-      <c r="H35" s="0">
+      <c r="H35">
         <v>25</v>
       </c>
-      <c r="I35" s="0">
+      <c r="I35">
         <v>2</v>
       </c>
-      <c r="J35" s="0">
+      <c r="J35">
         <v>5</v>
       </c>
-      <c r="K35" s="0">
+      <c r="K35">
         <v>0</v>
       </c>
-      <c r="L35" s="0">
+      <c r="L35">
         <v>1</v>
       </c>
-      <c r="M35" s="0">
+      <c r="M35">
         <v>25</v>
       </c>
-      <c r="N35" s="0">
+      <c r="N35">
         <v>0</v>
       </c>
     </row>
@@ -11428,84 +11430,84 @@
       <c r="B36" s="1">
         <v>45256</v>
       </c>
-      <c r="C36" t="s" s="0">
+      <c r="C36" t="s">
         <v>4</v>
       </c>
-      <c r="D36" t="s" s="0">
+      <c r="D36" t="s">
         <v>2</v>
       </c>
-      <c r="E36" t="s" s="0">
+      <c r="E36" t="s">
         <v>5</v>
       </c>
-      <c r="F36" s="0">
+      <c r="F36">
         <v>99</v>
       </c>
-      <c r="G36" s="0">
+      <c r="G36">
         <v>50</v>
       </c>
-      <c r="H36" s="0">
+      <c r="H36">
         <v>24</v>
       </c>
-      <c r="I36" s="0">
+      <c r="I36">
         <v>3</v>
       </c>
-      <c r="J36" s="0">
+      <c r="J36">
         <v>6</v>
       </c>
-      <c r="K36" s="0">
+      <c r="K36">
         <v>1</v>
       </c>
-      <c r="L36" s="0">
+      <c r="L36">
         <v>0</v>
       </c>
-      <c r="M36" s="0">
+      <c r="M36">
         <v>25</v>
       </c>
-      <c r="N36" s="0">
+      <c r="N36">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" t="s" s="0">
+      <c r="A37" t="s">
         <v>17</v>
       </c>
       <c r="B37" s="1">
         <v>45256</v>
       </c>
-      <c r="C37" t="s" s="0">
+      <c r="C37" t="s">
         <v>4</v>
       </c>
-      <c r="D37" t="s" s="0">
+      <c r="D37" t="s">
         <v>2</v>
       </c>
-      <c r="E37" t="s" s="0">
+      <c r="E37" t="s">
         <v>5</v>
       </c>
-      <c r="F37" s="0">
+      <c r="F37">
         <v>97</v>
       </c>
-      <c r="G37" s="0">
+      <c r="G37">
         <v>50</v>
       </c>
-      <c r="H37" s="0">
+      <c r="H37">
         <v>22</v>
       </c>
-      <c r="I37" s="0">
+      <c r="I37">
         <v>-1</v>
       </c>
-      <c r="J37" s="0">
+      <c r="J37">
         <v>-1</v>
       </c>
-      <c r="K37" s="0">
+      <c r="K37">
         <v>-1</v>
       </c>
-      <c r="L37" s="0">
+      <c r="L37">
         <v>-1</v>
       </c>
-      <c r="M37" s="0">
+      <c r="M37">
         <v>25</v>
       </c>
-      <c r="N37" s="0">
+      <c r="N37">
         <v>0</v>
       </c>
     </row>
@@ -11516,84 +11518,84 @@
       <c r="B38" s="1">
         <v>45256</v>
       </c>
-      <c r="C38" t="s" s="0">
+      <c r="C38" t="s">
         <v>4</v>
       </c>
-      <c r="D38" t="s" s="0">
+      <c r="D38" t="s">
         <v>2</v>
       </c>
-      <c r="E38" t="s" s="0">
+      <c r="E38" t="s">
         <v>5</v>
       </c>
-      <c r="F38" s="0">
+      <c r="F38">
         <v>87</v>
       </c>
-      <c r="G38" s="0">
+      <c r="G38">
         <v>50</v>
       </c>
-      <c r="H38" s="0">
+      <c r="H38">
         <v>12</v>
       </c>
-      <c r="I38" s="0">
+      <c r="I38">
         <v>-1</v>
       </c>
-      <c r="J38" s="0">
+      <c r="J38">
         <v>-1</v>
       </c>
-      <c r="K38" s="0">
+      <c r="K38">
         <v>-1</v>
       </c>
-      <c r="L38" s="0">
+      <c r="L38">
         <v>-1</v>
       </c>
-      <c r="M38" s="0">
+      <c r="M38">
         <v>25</v>
       </c>
-      <c r="N38" s="0">
+      <c r="N38">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" t="s" s="0">
+      <c r="A39" t="s">
         <v>17</v>
       </c>
       <c r="B39" s="1">
         <v>45256</v>
       </c>
-      <c r="C39" t="s" s="0">
+      <c r="C39" t="s">
         <v>4</v>
       </c>
-      <c r="D39" t="s" s="0">
+      <c r="D39" t="s">
         <v>2</v>
       </c>
-      <c r="E39" t="s" s="0">
+      <c r="E39" t="s">
         <v>5</v>
       </c>
-      <c r="F39" s="0">
+      <c r="F39">
         <v>91</v>
       </c>
-      <c r="G39" s="0">
+      <c r="G39">
         <v>50</v>
       </c>
-      <c r="H39" s="0">
+      <c r="H39">
         <v>16</v>
       </c>
-      <c r="I39" s="0">
+      <c r="I39">
         <v>-1</v>
       </c>
-      <c r="J39" s="0">
+      <c r="J39">
         <v>-1</v>
       </c>
-      <c r="K39" s="0">
+      <c r="K39">
         <v>-1</v>
       </c>
-      <c r="L39" s="0">
+      <c r="L39">
         <v>-1</v>
       </c>
-      <c r="M39" s="0">
+      <c r="M39">
         <v>25</v>
       </c>
-      <c r="N39" s="0">
+      <c r="N39">
         <v>0</v>
       </c>
     </row>
@@ -11604,832 +11606,832 @@
       <c r="B40" s="1">
         <v>45256</v>
       </c>
-      <c r="C40" t="s" s="0">
+      <c r="C40" t="s">
         <v>4</v>
       </c>
-      <c r="D40" t="s" s="0">
+      <c r="D40" t="s">
         <v>2</v>
       </c>
-      <c r="E40" t="s" s="0">
+      <c r="E40" t="s">
         <v>5</v>
       </c>
-      <c r="F40" s="0">
+      <c r="F40">
         <v>78</v>
       </c>
-      <c r="G40" s="0">
+      <c r="G40">
         <v>45</v>
       </c>
-      <c r="H40" s="0">
+      <c r="H40">
         <v>8</v>
       </c>
-      <c r="I40" s="0">
+      <c r="I40">
         <v>-1</v>
       </c>
-      <c r="J40" s="0">
+      <c r="J40">
         <v>-1</v>
       </c>
-      <c r="K40" s="0">
+      <c r="K40">
         <v>-1</v>
       </c>
-      <c r="L40" s="0">
+      <c r="L40">
         <v>-1</v>
       </c>
-      <c r="M40" s="0">
+      <c r="M40">
         <v>25</v>
       </c>
-      <c r="N40" s="0">
+      <c r="N40">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" t="s" s="0">
+      <c r="A41" t="s">
         <v>17</v>
       </c>
       <c r="B41" s="1">
         <v>45256</v>
       </c>
-      <c r="C41" t="s" s="0">
+      <c r="C41" t="s">
         <v>4</v>
       </c>
-      <c r="D41" t="s" s="0">
+      <c r="D41" t="s">
         <v>2</v>
       </c>
-      <c r="E41" t="s" s="0">
+      <c r="E41" t="s">
         <v>5</v>
       </c>
-      <c r="F41" s="0">
+      <c r="F41">
         <v>115</v>
       </c>
-      <c r="G41" s="0">
+      <c r="G41">
         <v>50</v>
       </c>
-      <c r="H41" s="0">
+      <c r="H41">
         <v>40</v>
       </c>
-      <c r="I41" s="0">
+      <c r="I41">
         <v>4</v>
       </c>
-      <c r="J41" s="0">
+      <c r="J41">
         <v>8</v>
       </c>
-      <c r="K41" s="0">
+      <c r="K41">
         <v>1</v>
       </c>
-      <c r="L41" s="0">
+      <c r="L41">
         <v>1</v>
       </c>
-      <c r="M41" s="0">
+      <c r="M41">
         <v>25</v>
       </c>
-      <c r="N41" s="0">
+      <c r="N41">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" t="s" s="0">
+      <c r="A42" t="s">
         <v>17</v>
       </c>
       <c r="B42" s="1">
         <v>45256</v>
       </c>
-      <c r="C42" t="s" s="0">
+      <c r="C42" t="s">
         <v>4</v>
       </c>
-      <c r="D42" t="s" s="0">
+      <c r="D42" t="s">
         <v>2</v>
       </c>
-      <c r="E42" t="s" s="0">
+      <c r="E42" t="s">
         <v>5</v>
       </c>
-      <c r="F42" s="0">
+      <c r="F42">
         <v>90</v>
       </c>
-      <c r="G42" s="0">
+      <c r="G42">
         <v>30</v>
       </c>
-      <c r="H42" s="0">
+      <c r="H42">
         <v>35</v>
       </c>
-      <c r="I42" s="0">
+      <c r="I42">
         <v>-1</v>
       </c>
-      <c r="J42" s="0">
+      <c r="J42">
         <v>-1</v>
       </c>
-      <c r="K42" s="0">
+      <c r="K42">
         <v>-1</v>
       </c>
-      <c r="L42" s="0">
+      <c r="L42">
         <v>-1</v>
       </c>
-      <c r="M42" s="0">
+      <c r="M42">
         <v>25</v>
       </c>
-      <c r="N42" s="0">
+      <c r="N42">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" t="s" s="0">
+      <c r="A43" t="s">
         <v>17</v>
       </c>
       <c r="B43" s="1">
         <v>45256</v>
       </c>
-      <c r="C43" t="s" s="0">
+      <c r="C43" t="s">
         <v>4</v>
       </c>
-      <c r="D43" t="s" s="0">
+      <c r="D43" t="s">
         <v>2</v>
       </c>
-      <c r="E43" t="s" s="0">
+      <c r="E43" t="s">
         <v>5</v>
       </c>
-      <c r="F43" s="0">
+      <c r="F43">
         <v>93</v>
       </c>
-      <c r="G43" s="0">
+      <c r="G43">
         <v>50</v>
       </c>
-      <c r="H43" s="0">
+      <c r="H43">
         <v>18</v>
       </c>
-      <c r="I43" s="0">
+      <c r="I43">
         <v>-1</v>
       </c>
-      <c r="J43" s="0">
+      <c r="J43">
         <v>-1</v>
       </c>
-      <c r="K43" s="0">
+      <c r="K43">
         <v>-1</v>
       </c>
-      <c r="L43" s="0">
+      <c r="L43">
         <v>-1</v>
       </c>
-      <c r="M43" s="0">
+      <c r="M43">
         <v>25</v>
       </c>
-      <c r="N43" s="0">
+      <c r="N43">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" t="s" s="0">
+      <c r="A44" t="s">
         <v>17</v>
       </c>
       <c r="B44" s="1">
         <v>45256</v>
       </c>
-      <c r="C44" t="s" s="0">
+      <c r="C44" t="s">
         <v>8</v>
       </c>
-      <c r="D44" t="s" s="0">
+      <c r="D44" t="s">
         <v>6</v>
       </c>
-      <c r="E44" t="s" s="0">
+      <c r="E44" t="s">
         <v>7</v>
       </c>
-      <c r="F44" s="0">
+      <c r="F44">
         <v>42</v>
       </c>
-      <c r="G44" s="0">
+      <c r="G44">
         <v>30</v>
       </c>
-      <c r="H44" s="0">
+      <c r="H44">
         <v>12</v>
       </c>
-      <c r="I44" s="0">
+      <c r="I44">
         <v>-1</v>
       </c>
-      <c r="J44" s="0">
+      <c r="J44">
         <v>-1</v>
       </c>
-      <c r="K44" s="0">
+      <c r="K44">
         <v>-1</v>
       </c>
-      <c r="L44" s="0">
+      <c r="L44">
         <v>-1</v>
       </c>
-      <c r="M44" s="0">
+      <c r="M44">
         <v>0</v>
       </c>
-      <c r="N44" s="0">
+      <c r="N44">
         <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" t="s" s="0">
+      <c r="A45" t="s">
         <v>17</v>
       </c>
       <c r="B45" s="1">
         <v>45257</v>
       </c>
-      <c r="C45" t="s" s="0">
+      <c r="C45" t="s">
         <v>8</v>
       </c>
-      <c r="D45" t="s" s="0">
+      <c r="D45" t="s">
         <v>6</v>
       </c>
-      <c r="E45" t="s" s="0">
+      <c r="E45" t="s">
         <v>7</v>
       </c>
-      <c r="F45" s="0">
+      <c r="F45">
         <v>85</v>
       </c>
-      <c r="G45" s="0">
+      <c r="G45">
         <v>33</v>
       </c>
-      <c r="H45" s="0">
+      <c r="H45">
         <v>-1</v>
       </c>
-      <c r="I45" s="0">
+      <c r="I45">
         <v>-1</v>
       </c>
-      <c r="J45" s="0">
+      <c r="J45">
         <v>-1</v>
       </c>
-      <c r="K45" s="0">
+      <c r="K45">
         <v>-1</v>
       </c>
-      <c r="L45" s="0">
+      <c r="L45">
         <v>-1</v>
       </c>
-      <c r="M45" s="0">
+      <c r="M45">
         <v>-1</v>
       </c>
-      <c r="N45" s="0">
+      <c r="N45">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" t="s" s="0">
+      <c r="A46" t="s">
         <v>17</v>
       </c>
       <c r="B46" s="1">
         <v>45257</v>
       </c>
-      <c r="C46" t="s" s="0">
+      <c r="C46" t="s">
         <v>4</v>
       </c>
-      <c r="D46" t="s" s="0">
+      <c r="D46" t="s">
         <v>6</v>
       </c>
-      <c r="E46" t="s" s="0">
+      <c r="E46" t="s">
         <v>1</v>
       </c>
-      <c r="F46" s="0">
+      <c r="F46">
         <v>70</v>
       </c>
-      <c r="G46" s="0">
+      <c r="G46">
         <v>28</v>
       </c>
-      <c r="H46" s="0">
+      <c r="H46">
         <v>-1</v>
       </c>
-      <c r="I46" s="0">
+      <c r="I46">
         <v>-1</v>
       </c>
-      <c r="J46" s="0">
+      <c r="J46">
         <v>-1</v>
       </c>
-      <c r="K46" s="0">
+      <c r="K46">
         <v>-1</v>
       </c>
-      <c r="L46" s="0">
+      <c r="L46">
         <v>-1</v>
       </c>
-      <c r="M46" s="0">
+      <c r="M46">
         <v>-1</v>
       </c>
-      <c r="N46" s="0">
+      <c r="N46">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" t="s" s="0">
+      <c r="A47" t="s">
         <v>17</v>
       </c>
       <c r="B47" s="1">
         <v>45257</v>
       </c>
-      <c r="C47" t="s" s="0">
+      <c r="C47" t="s">
         <v>4</v>
       </c>
-      <c r="D47" t="s" s="0">
+      <c r="D47" t="s">
         <v>6</v>
       </c>
-      <c r="E47" t="s" s="0">
+      <c r="E47" t="s">
         <v>1</v>
       </c>
-      <c r="F47" s="0">
+      <c r="F47">
         <v>44</v>
       </c>
-      <c r="G47" s="0">
+      <c r="G47">
         <v>30</v>
       </c>
-      <c r="H47" s="0">
+      <c r="H47">
         <v>14</v>
       </c>
-      <c r="I47" s="0">
+      <c r="I47">
         <v>-1</v>
       </c>
-      <c r="J47" s="0">
+      <c r="J47">
         <v>-1</v>
       </c>
-      <c r="K47" s="0">
+      <c r="K47">
         <v>-1</v>
       </c>
-      <c r="L47" s="0">
+      <c r="L47">
         <v>-1</v>
       </c>
-      <c r="M47" s="0">
+      <c r="M47">
         <v>-1</v>
       </c>
-      <c r="N47" s="0">
+      <c r="N47">
         <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" t="s" s="0">
+      <c r="A48" t="s">
         <v>17</v>
       </c>
       <c r="B48" s="1">
         <v>45257</v>
       </c>
-      <c r="C48" t="s" s="0">
+      <c r="C48" t="s">
         <v>4</v>
       </c>
-      <c r="D48" t="s" s="0">
+      <c r="D48" t="s">
         <v>6</v>
       </c>
-      <c r="E48" t="s" s="0">
+      <c r="E48" t="s">
         <v>1</v>
       </c>
-      <c r="F48" s="0">
+      <c r="F48">
         <v>72</v>
       </c>
-      <c r="G48" s="0">
+      <c r="G48">
         <v>30</v>
       </c>
-      <c r="H48" s="0">
+      <c r="H48">
         <v>-1</v>
       </c>
-      <c r="I48" s="0">
+      <c r="I48">
         <v>-1</v>
       </c>
-      <c r="J48" s="0">
+      <c r="J48">
         <v>-1</v>
       </c>
-      <c r="K48" s="0">
+      <c r="K48">
         <v>-1</v>
       </c>
-      <c r="L48" s="0">
+      <c r="L48">
         <v>-1</v>
       </c>
-      <c r="M48" s="0">
+      <c r="M48">
         <v>-1</v>
       </c>
-      <c r="N48" s="0">
+      <c r="N48">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" t="s" s="0">
+      <c r="A49" t="s">
         <v>17</v>
       </c>
       <c r="B49" s="1">
         <v>45257</v>
       </c>
-      <c r="C49" t="s" s="0">
+      <c r="C49" t="s">
         <v>4</v>
       </c>
-      <c r="D49" t="s" s="0">
+      <c r="D49" t="s">
         <v>6</v>
       </c>
-      <c r="E49" t="s" s="0">
+      <c r="E49" t="s">
         <v>1</v>
       </c>
-      <c r="F49" s="0">
+      <c r="F49">
         <v>97</v>
       </c>
-      <c r="G49" s="0">
+      <c r="G49">
         <v>50</v>
       </c>
-      <c r="H49" s="0">
+      <c r="H49">
         <v>-1</v>
       </c>
-      <c r="I49" s="0">
+      <c r="I49">
         <v>-1</v>
       </c>
-      <c r="J49" s="0">
+      <c r="J49">
         <v>-1</v>
       </c>
-      <c r="K49" s="0">
+      <c r="K49">
         <v>-1</v>
       </c>
-      <c r="L49" s="0">
+      <c r="L49">
         <v>-1</v>
       </c>
-      <c r="M49" s="0">
+      <c r="M49">
         <v>-1</v>
       </c>
-      <c r="N49" s="0">
+      <c r="N49">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A50" t="s" s="0">
+      <c r="A50" t="s">
         <v>17</v>
       </c>
       <c r="B50" s="1">
         <v>45257</v>
       </c>
-      <c r="C50" t="s" s="0">
+      <c r="C50" t="s">
         <v>3</v>
       </c>
-      <c r="D50" t="s" s="0">
+      <c r="D50" t="s">
         <v>6</v>
       </c>
-      <c r="E50" t="s" s="0">
+      <c r="E50" t="s">
         <v>5</v>
       </c>
-      <c r="F50" s="0">
+      <c r="F50">
         <v>104</v>
       </c>
-      <c r="G50" s="0">
+      <c r="G50">
         <v>50</v>
       </c>
-      <c r="H50" s="0">
+      <c r="H50">
         <v>-1</v>
       </c>
-      <c r="I50" s="0">
+      <c r="I50">
         <v>-1</v>
       </c>
-      <c r="J50" s="0">
+      <c r="J50">
         <v>-1</v>
       </c>
-      <c r="K50" s="0">
+      <c r="K50">
         <v>-1</v>
       </c>
-      <c r="L50" s="0">
+      <c r="L50">
         <v>-1</v>
       </c>
-      <c r="M50" s="0">
+      <c r="M50">
         <v>-1</v>
       </c>
-      <c r="N50" s="0">
+      <c r="N50">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A51" t="s" s="0">
+      <c r="A51" t="s">
         <v>17</v>
       </c>
       <c r="B51" s="1">
         <v>45257</v>
       </c>
-      <c r="C51" t="s" s="0">
+      <c r="C51" t="s">
         <v>3</v>
       </c>
-      <c r="D51" t="s" s="0">
+      <c r="D51" t="s">
         <v>6</v>
       </c>
-      <c r="E51" t="s" s="0">
+      <c r="E51" t="s">
         <v>5</v>
       </c>
-      <c r="F51" s="0">
+      <c r="F51">
         <v>34</v>
       </c>
-      <c r="G51" s="0">
+      <c r="G51">
         <v>10</v>
       </c>
-      <c r="H51" s="0">
+      <c r="H51">
         <v>-1</v>
       </c>
-      <c r="I51" s="0">
+      <c r="I51">
         <v>-1</v>
       </c>
-      <c r="J51" s="0">
+      <c r="J51">
         <v>-1</v>
       </c>
-      <c r="K51" s="0">
+      <c r="K51">
         <v>-1</v>
       </c>
-      <c r="L51" s="0">
+      <c r="L51">
         <v>-1</v>
       </c>
-      <c r="M51" s="0">
+      <c r="M51">
         <v>-1</v>
       </c>
-      <c r="N51" s="0">
+      <c r="N51">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A52" t="s" s="0">
+      <c r="A52" t="s">
         <v>17</v>
       </c>
       <c r="B52" s="1">
         <v>45257</v>
       </c>
-      <c r="C52" t="s" s="0">
+      <c r="C52" t="s">
         <v>8</v>
       </c>
-      <c r="D52" t="s" s="0">
+      <c r="D52" t="s">
         <v>6</v>
       </c>
-      <c r="E52" t="s" s="0">
+      <c r="E52" t="s">
         <v>7</v>
       </c>
-      <c r="F52" s="0">
+      <c r="F52">
         <v>104</v>
       </c>
-      <c r="G52" s="0">
+      <c r="G52">
         <v>30</v>
       </c>
-      <c r="H52" s="0">
+      <c r="H52">
         <v>-1</v>
       </c>
-      <c r="I52" s="0">
+      <c r="I52">
         <v>-1</v>
       </c>
-      <c r="J52" s="0">
+      <c r="J52">
         <v>-1</v>
       </c>
-      <c r="K52" s="0">
+      <c r="K52">
         <v>-1</v>
       </c>
-      <c r="L52" s="0">
+      <c r="L52">
         <v>-1</v>
       </c>
-      <c r="M52" s="0">
+      <c r="M52">
         <v>-1</v>
       </c>
-      <c r="N52" s="0">
+      <c r="N52">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A53" t="s" s="0">
+      <c r="A53" t="s">
         <v>17</v>
       </c>
       <c r="B53" s="1">
         <v>45257</v>
       </c>
-      <c r="C53" t="s" s="0">
+      <c r="C53" t="s">
         <v>8</v>
       </c>
-      <c r="D53" t="s" s="0">
+      <c r="D53" t="s">
         <v>6</v>
       </c>
-      <c r="E53" t="s" s="0">
+      <c r="E53" t="s">
         <v>7</v>
       </c>
-      <c r="F53" s="0">
+      <c r="F53">
         <v>53</v>
       </c>
-      <c r="G53" s="0">
+      <c r="G53">
         <v>30</v>
       </c>
-      <c r="H53" s="0">
+      <c r="H53">
         <v>-1</v>
       </c>
-      <c r="I53" s="0">
+      <c r="I53">
         <v>-1</v>
       </c>
-      <c r="J53" s="0">
+      <c r="J53">
         <v>-1</v>
       </c>
-      <c r="K53" s="0">
+      <c r="K53">
         <v>-1</v>
       </c>
-      <c r="L53" s="0">
+      <c r="L53">
         <v>-1</v>
       </c>
-      <c r="M53" s="0">
+      <c r="M53">
         <v>-1</v>
       </c>
-      <c r="N53" s="0">
+      <c r="N53">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A54" t="s" s="0">
+      <c r="A54" t="s">
         <v>17</v>
       </c>
       <c r="B54" s="1">
         <v>45257</v>
       </c>
-      <c r="C54" t="s" s="0">
+      <c r="C54" t="s">
         <v>3</v>
       </c>
-      <c r="D54" t="s" s="0">
+      <c r="D54" t="s">
         <v>6</v>
       </c>
-      <c r="E54" t="s" s="0">
+      <c r="E54" t="s">
         <v>7</v>
       </c>
-      <c r="F54" s="0">
+      <c r="F54">
         <v>80</v>
       </c>
-      <c r="G54" s="0">
+      <c r="G54">
         <v>30</v>
       </c>
-      <c r="H54" s="0">
+      <c r="H54">
         <v>-1</v>
       </c>
-      <c r="I54" s="0">
+      <c r="I54">
         <v>-1</v>
       </c>
-      <c r="J54" s="0">
+      <c r="J54">
         <v>-1</v>
       </c>
-      <c r="K54" s="0">
+      <c r="K54">
         <v>-1</v>
       </c>
-      <c r="L54" s="0">
+      <c r="L54">
         <v>-1</v>
       </c>
-      <c r="M54" s="0">
+      <c r="M54">
         <v>-1</v>
       </c>
-      <c r="N54" s="0">
+      <c r="N54">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A55" t="s" s="0">
+      <c r="A55" t="s">
         <v>17</v>
       </c>
       <c r="B55" s="1">
         <v>45257</v>
       </c>
-      <c r="C55" t="s" s="0">
+      <c r="C55" t="s">
         <v>3</v>
       </c>
-      <c r="D55" t="s" s="0">
+      <c r="D55" t="s">
         <v>6</v>
       </c>
-      <c r="E55" t="s" s="0">
+      <c r="E55" t="s">
         <v>7</v>
       </c>
-      <c r="F55" s="0">
+      <c r="F55">
         <v>66</v>
       </c>
-      <c r="G55" s="0">
+      <c r="G55">
         <v>30</v>
       </c>
-      <c r="H55" s="0">
+      <c r="H55">
         <v>-1</v>
       </c>
-      <c r="I55" s="0">
+      <c r="I55">
         <v>-1</v>
       </c>
-      <c r="J55" s="0">
+      <c r="J55">
         <v>-1</v>
       </c>
-      <c r="K55" s="0">
+      <c r="K55">
         <v>-1</v>
       </c>
-      <c r="L55" s="0">
+      <c r="L55">
         <v>-1</v>
       </c>
-      <c r="M55" s="0">
+      <c r="M55">
         <v>-1</v>
       </c>
-      <c r="N55" s="0">
+      <c r="N55">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A56" t="s" s="0">
+      <c r="A56" t="s">
         <v>18</v>
       </c>
       <c r="B56" s="1">
         <v>45262</v>
       </c>
-      <c r="C56" t="s" s="0">
+      <c r="C56" t="s">
         <v>8</v>
       </c>
-      <c r="D56" t="s" s="0">
+      <c r="D56" t="s">
         <v>6</v>
       </c>
-      <c r="E56" t="s" s="0">
+      <c r="E56" t="s">
         <v>1</v>
       </c>
-      <c r="F56" s="0">
+      <c r="F56">
         <v>54</v>
       </c>
-      <c r="G56" s="0">
+      <c r="G56">
         <v>25</v>
       </c>
-      <c r="H56" s="0">
+      <c r="H56">
         <v>24</v>
       </c>
-      <c r="I56" s="0">
+      <c r="I56">
         <v>4</v>
       </c>
-      <c r="J56" s="0">
+      <c r="J56">
         <v>7</v>
       </c>
-      <c r="K56" s="0">
+      <c r="K56">
         <v>1</v>
       </c>
-      <c r="L56" s="0">
+      <c r="L56">
         <v>0</v>
       </c>
-      <c r="M56" s="0">
+      <c r="M56">
         <v>5</v>
       </c>
-      <c r="N56" s="0">
+      <c r="N56">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A57" t="s" s="0">
+      <c r="A57" t="s">
         <v>18</v>
       </c>
       <c r="B57" s="1">
         <v>45262</v>
       </c>
-      <c r="C57" t="s" s="0">
+      <c r="C57" t="s">
         <v>4</v>
       </c>
-      <c r="D57" t="s" s="0">
+      <c r="D57" t="s">
         <v>2</v>
       </c>
-      <c r="E57" t="s" s="0">
+      <c r="E57" t="s">
         <v>5</v>
       </c>
-      <c r="F57" s="0">
+      <c r="F57">
         <v>62</v>
       </c>
-      <c r="G57" s="0">
+      <c r="G57">
         <v>50</v>
       </c>
-      <c r="H57" s="0">
+      <c r="H57">
         <v>12</v>
       </c>
-      <c r="I57" s="0">
+      <c r="I57">
         <v>3</v>
       </c>
-      <c r="J57" s="0">
+      <c r="J57">
         <v>4</v>
       </c>
-      <c r="K57" s="0">
+      <c r="K57">
         <v>0</v>
       </c>
-      <c r="L57" s="0">
+      <c r="L57">
         <v>1</v>
       </c>
-      <c r="M57" s="0">
+      <c r="M57">
         <v>0</v>
       </c>
-      <c r="N57" s="0">
+      <c r="N57">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A58" t="s" s="0">
+      <c r="A58" t="s">
         <v>18</v>
       </c>
       <c r="B58" s="1">
         <v>45262</v>
       </c>
-      <c r="C58" t="s" s="0">
+      <c r="C58" t="s">
         <v>8</v>
       </c>
-      <c r="D58" t="s" s="0">
+      <c r="D58" t="s">
         <v>6</v>
       </c>
-      <c r="E58" t="s" s="0">
+      <c r="E58" t="s">
         <v>1</v>
       </c>
-      <c r="F58" s="0">
+      <c r="F58">
         <v>71</v>
       </c>
-      <c r="G58" s="0">
+      <c r="G58">
         <v>30</v>
       </c>
-      <c r="H58" s="0">
+      <c r="H58">
         <v>21</v>
       </c>
-      <c r="I58" s="0">
+      <c r="I58">
         <v>-1</v>
       </c>
-      <c r="J58" s="0">
+      <c r="J58">
         <v>5</v>
       </c>
-      <c r="K58" s="0">
+      <c r="K58">
         <v>-1</v>
       </c>
-      <c r="L58" s="0">
+      <c r="L58">
         <v>0</v>
       </c>
-      <c r="M58" s="0">
+      <c r="M58">
         <v>20</v>
       </c>
-      <c r="N58" s="0">
+      <c r="N58">
         <v>0</v>
       </c>
     </row>
@@ -12440,172 +12442,172 @@
       <c r="B59" s="1">
         <v>45262</v>
       </c>
-      <c r="C59" t="s" s="0">
+      <c r="C59" t="s">
         <v>3</v>
       </c>
-      <c r="D59" t="s" s="0">
+      <c r="D59" t="s">
         <v>0</v>
       </c>
-      <c r="E59" t="s" s="0">
+      <c r="E59" t="s">
         <v>7</v>
       </c>
-      <c r="F59" s="0">
+      <c r="F59">
         <v>53</v>
       </c>
-      <c r="G59" s="0">
+      <c r="G59">
         <v>25</v>
       </c>
-      <c r="H59" s="0">
+      <c r="H59">
         <v>8</v>
       </c>
-      <c r="I59" s="0">
+      <c r="I59">
         <v>2</v>
       </c>
-      <c r="J59" s="0">
+      <c r="J59">
         <v>4</v>
       </c>
-      <c r="K59" s="0">
+      <c r="K59">
         <v>0</v>
       </c>
-      <c r="L59" s="0">
+      <c r="L59">
         <v>0</v>
       </c>
-      <c r="M59" s="0">
+      <c r="M59">
         <v>20</v>
       </c>
-      <c r="N59" s="0">
+      <c r="N59">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A60" t="s" s="0">
+      <c r="A60" t="s">
         <v>18</v>
       </c>
       <c r="B60" s="1">
         <v>45262</v>
       </c>
-      <c r="C60" t="s" s="0">
+      <c r="C60" t="s">
         <v>4</v>
       </c>
-      <c r="D60" t="s" s="0">
+      <c r="D60" t="s">
         <v>2</v>
       </c>
-      <c r="E60" t="s" s="0">
+      <c r="E60" t="s">
         <v>5</v>
       </c>
-      <c r="F60" s="0">
+      <c r="F60">
         <v>59</v>
       </c>
-      <c r="G60" s="0">
+      <c r="G60">
         <v>50</v>
       </c>
-      <c r="H60" s="0">
+      <c r="H60">
         <v>12</v>
       </c>
-      <c r="I60" s="0">
+      <c r="I60">
         <v>2</v>
       </c>
-      <c r="J60" s="0">
+      <c r="J60">
         <v>4</v>
       </c>
-      <c r="K60" s="0">
+      <c r="K60">
         <v>0</v>
       </c>
-      <c r="L60" s="0">
+      <c r="L60">
         <v>0</v>
       </c>
-      <c r="M60" s="0">
+      <c r="M60">
         <v>0</v>
       </c>
-      <c r="N60" s="0">
+      <c r="N60">
         <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A61" t="s" s="0">
+      <c r="A61" t="s">
         <v>18</v>
       </c>
       <c r="B61" s="1">
         <v>45262</v>
       </c>
-      <c r="C61" t="s" s="0">
+      <c r="C61" t="s">
         <v>4</v>
       </c>
-      <c r="D61" t="s" s="0">
+      <c r="D61" t="s">
         <v>2</v>
       </c>
-      <c r="E61" t="s" s="0">
+      <c r="E61" t="s">
         <v>5</v>
       </c>
-      <c r="F61" s="0">
+      <c r="F61">
         <v>43</v>
       </c>
-      <c r="G61" s="0">
+      <c r="G61">
         <v>30</v>
       </c>
-      <c r="H61" s="0">
+      <c r="H61">
         <v>13</v>
       </c>
-      <c r="I61" s="0">
+      <c r="I61">
         <v>2</v>
       </c>
-      <c r="J61" s="0">
+      <c r="J61">
         <v>5</v>
       </c>
-      <c r="K61" s="0">
+      <c r="K61">
         <v>0</v>
       </c>
-      <c r="L61" s="0">
+      <c r="L61">
         <v>0</v>
       </c>
-      <c r="M61" s="0">
+      <c r="M61">
         <v>0</v>
       </c>
-      <c r="N61" s="0">
+      <c r="N61">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A62" t="s" s="0">
+      <c r="A62" t="s">
         <v>18</v>
       </c>
       <c r="B62" s="1">
         <v>45262</v>
       </c>
-      <c r="C62" t="s" s="0">
+      <c r="C62" t="s">
         <v>8</v>
       </c>
-      <c r="D62" t="s" s="0">
+      <c r="D62" t="s">
         <v>6</v>
       </c>
-      <c r="E62" t="s" s="0">
+      <c r="E62" t="s">
         <v>1</v>
       </c>
-      <c r="F62" s="0">
+      <c r="F62">
         <v>45</v>
       </c>
-      <c r="G62" s="0">
+      <c r="G62">
         <v>30</v>
       </c>
-      <c r="H62" s="0">
+      <c r="H62">
         <v>10</v>
       </c>
-      <c r="I62" s="0">
+      <c r="I62">
         <v>3</v>
       </c>
-      <c r="J62" s="0">
+      <c r="J62">
         <v>4</v>
       </c>
-      <c r="K62" s="0">
+      <c r="K62">
         <v>0</v>
       </c>
-      <c r="L62" s="0">
+      <c r="L62">
         <v>0</v>
       </c>
-      <c r="M62" s="0">
+      <c r="M62">
         <v>5</v>
       </c>
-      <c r="N62" s="0">
+      <c r="N62">
         <v>0</v>
       </c>
     </row>
@@ -12651,31 +12653,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="9" customWidth="true" width="15.77734375"/>
+    <col min="1" max="9" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-    </row>
-    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+    </row>
+    <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="47" t="s">
         <v>14</v>
       </c>
@@ -12704,34 +12706,64 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="48" t="n">
-        <v>65.87776951729595</v>
-      </c>
-      <c r="B3" s="48" t="n">
-        <v>34.62985746405478</v>
-      </c>
-      <c r="C3" s="48" t="n">
-        <v>15.472177777537024</v>
-      </c>
-      <c r="D3" s="48" t="n">
-        <v>2.553063583829955</v>
-      </c>
-      <c r="E3" s="48" t="n">
-        <v>4.637419622463229</v>
-      </c>
-      <c r="F3" s="48" t="n">
-        <v>0.23791907514276664</v>
-      </c>
-      <c r="G3" s="48" t="n">
-        <v>0.16780750880726128</v>
-      </c>
-      <c r="H3" s="48" t="n">
-        <v>13.653323674461893</v>
-      </c>
-      <c r="I3" s="48" t="n">
-        <v>-1.356133828955776</v>
-      </c>
+    <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+      <c r="A3" s="48">
+        <v>67.912489671026307</v>
+      </c>
+      <c r="B3" s="48">
+        <v>33.756068778545512</v>
+      </c>
+      <c r="C3" s="48">
+        <v>14.858773192993356</v>
+      </c>
+      <c r="D3" s="48">
+        <v>2.5917252784166198</v>
+      </c>
+      <c r="E3" s="48">
+        <v>4.5758386480009836</v>
+      </c>
+      <c r="F3" s="48">
+        <v>0.23692081543175117</v>
+      </c>
+      <c r="G3" s="48">
+        <v>0.14643957307611954</v>
+      </c>
+      <c r="H3" s="48">
+        <v>17.345913510848902</v>
+      </c>
+      <c r="I3" s="48">
+        <v>-1.2318358627211052</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="49">
+        <v>42.974751019562667</v>
+      </c>
+      <c r="B4" s="49">
+        <v>22.154957269759365</v>
+      </c>
+      <c r="C4" s="49">
+        <v>10.618036368184788</v>
+      </c>
+      <c r="D4" s="49">
+        <v>2.1426871744494203</v>
+      </c>
+      <c r="E4" s="49">
+        <v>3.4002983709785184</v>
+      </c>
+      <c r="F4" s="49">
+        <v>0.43507938412963576</v>
+      </c>
+      <c r="G4" s="49">
+        <v>0.29275188239167427</v>
+      </c>
+      <c r="H4" s="49">
+        <v>13.744893968583026</v>
+      </c>
+      <c r="I4" s="49">
+        <v>2.3241042614663106</v>
+      </c>
+      <c r="J4" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12745,25 +12777,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView zoomScale="167" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:K5"/>
+    <sheetView tabSelected="1" zoomScale="167" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="55"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="56"/>
     </row>
     <row r="2" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="42" t="s">
@@ -12798,323 +12830,323 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="n">
-        <v>59.551448971595015</v>
-      </c>
-      <c r="B3" s="6" t="n">
-        <v>27.373668512503553</v>
-      </c>
-      <c r="C3" s="6" t="n">
-        <v>16.549877149408207</v>
-      </c>
-      <c r="D3" s="6" t="n">
-        <v>3.0632383599539184</v>
-      </c>
-      <c r="E3" s="6" t="n">
-        <v>4.924547803593032</v>
-      </c>
-      <c r="F3" s="6" t="n">
-        <v>0.4246004169198604</v>
-      </c>
-      <c r="G3" s="6" t="n">
-        <v>0.003617571061763436</v>
-      </c>
-      <c r="H3" s="6" t="n">
-        <v>12.491400492965441</v>
-      </c>
-      <c r="I3" s="33" t="n">
-        <v>-1.3103737925544723</v>
-      </c>
-      <c r="J3" s="36" t="n">
-        <v>100.97859877026116</v>
-      </c>
-      <c r="K3" t="s" s="0">
+      <c r="A3" s="6">
+        <v>61.435227212652997</v>
+      </c>
+      <c r="B3" s="6">
+        <v>26.043145467943607</v>
+      </c>
+      <c r="C3" s="6">
+        <v>15.304445517963448</v>
+      </c>
+      <c r="D3" s="6">
+        <v>3.007848284353746</v>
+      </c>
+      <c r="E3" s="6">
+        <v>4.84768808346859</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0.33613692980725429</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1.1707852829209114E-2</v>
+      </c>
+      <c r="H3" s="6">
+        <v>16.764452656807816</v>
+      </c>
+      <c r="I3" s="33">
+        <v>-1.4185549531262349</v>
+      </c>
+      <c r="J3" s="36">
+        <v>-2.8540350568931556</v>
+      </c>
+      <c r="K3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="n">
-        <v>70.76688741816074</v>
-      </c>
-      <c r="B4" s="4" t="n">
-        <v>43.03981420031057</v>
-      </c>
-      <c r="C4" s="4" t="n">
-        <v>15.456698741655773</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>2.4074074074074074</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>4.5965965966023</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>0.10910910912327464</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>0.35135135133957746</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>11.354888376819327</v>
-      </c>
-      <c r="I4" s="34" t="n">
-        <v>-1.9867549667919826</v>
-      </c>
-      <c r="J4" s="37" t="n">
-        <v>113.42932228909248</v>
-      </c>
-      <c r="K4" t="s" s="0">
+      <c r="A4" s="4">
+        <v>74.142912222020357</v>
+      </c>
+      <c r="B4" s="4">
+        <v>42.767580530223789</v>
+      </c>
+      <c r="C4" s="4">
+        <v>15.518237631050075</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2.4117762705248738</v>
+      </c>
+      <c r="E4" s="4">
+        <v>4.628133294025659</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.15895016219232228</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.31740882729769149</v>
+      </c>
+      <c r="H4" s="4">
+        <v>15.236915220829209</v>
+      </c>
+      <c r="I4" s="34">
+        <v>-1.6553142269806427</v>
+      </c>
+      <c r="J4" s="37">
+        <v>2.6388378570265791</v>
+      </c>
+      <c r="K4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="n">
-        <v>66.10271903350453</v>
-      </c>
-      <c r="B5" s="7" t="n">
-        <v>28.251533742508137</v>
-      </c>
-      <c r="C5" s="7" t="n">
-        <v>13.049549549105542</v>
-      </c>
-      <c r="D5" s="7" t="n">
-        <v>2.054054054098758</v>
-      </c>
-      <c r="E5" s="7" t="n">
-        <v>4.103603603510607</v>
-      </c>
-      <c r="F5" s="7" t="n">
-        <v>0.22522522521749858</v>
-      </c>
-      <c r="G5" s="7" t="n">
-        <v>0.11261261260874929</v>
-      </c>
-      <c r="H5" s="7" t="n">
-        <v>23.040540540987582</v>
-      </c>
-      <c r="I5" s="32" t="n">
-        <v>-0.0</v>
-      </c>
-      <c r="J5" s="38" t="n">
-        <v>81.62935983205446</v>
-      </c>
-      <c r="K5" t="s" s="0">
+      <c r="A5" s="7">
+        <v>67.209325595587885</v>
+      </c>
+      <c r="B5" s="7">
+        <v>28.824126268283695</v>
+      </c>
+      <c r="C5" s="7">
+        <v>11.962279294147022</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2.1797752808761524</v>
+      </c>
+      <c r="E5" s="7">
+        <v>3.8483146067958587</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.21027287320576407</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.10513643660288204</v>
+      </c>
+      <c r="H5" s="7">
+        <v>24.369983948489548</v>
+      </c>
+      <c r="I5" s="32">
+        <v>0</v>
+      </c>
+      <c r="J5" s="38">
+        <v>2.4414048167134634</v>
+      </c>
+      <c r="K5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="n">
-        <v>62.42502299917915</v>
-      </c>
-      <c r="B6" s="6" t="n">
-        <v>28.537727132293995</v>
-      </c>
-      <c r="C6" s="6" t="n">
-        <v>16.04304485673152</v>
-      </c>
-      <c r="D6" s="6" t="n">
-        <v>3.007299270038739</v>
-      </c>
-      <c r="E6" s="6" t="n">
-        <v>4.86120818766228</v>
-      </c>
-      <c r="F6" s="6" t="n">
-        <v>0.4054412740190331</v>
-      </c>
-      <c r="G6" s="6" t="n">
-        <v>0.0034947578654492555</v>
-      </c>
-      <c r="H6" s="6" t="n">
-        <v>13.628150263288726</v>
-      </c>
-      <c r="I6" s="33" t="n">
-        <v>-1.2756823060671048</v>
-      </c>
-      <c r="J6" s="39" t="n">
-        <v>99.55763748378948</v>
-      </c>
-      <c r="K6" t="s" s="0">
+      <c r="A6" s="6">
+        <v>62.863886746105742</v>
+      </c>
+      <c r="B6" s="6">
+        <v>27.332253059156269</v>
+      </c>
+      <c r="C6" s="6">
+        <v>14.591226475559932</v>
+      </c>
+      <c r="D6" s="6">
+        <v>2.913004758147983</v>
+      </c>
+      <c r="E6" s="6">
+        <v>4.7000400059062635</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.31930485230614158</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1.1222706505161127E-2</v>
+      </c>
+      <c r="H6" s="6">
+        <v>18.412551169941192</v>
+      </c>
+      <c r="I6" s="33">
+        <v>-1.3729072773426678</v>
+      </c>
+      <c r="J6" s="39">
+        <v>-3.5386524343082773</v>
+      </c>
+      <c r="K6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="n">
-        <v>70.92196078558828</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>45.055599682434995</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>15.833200953251318</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>2.4244004171083042</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>4.642335766448563</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>0.11366006258184523</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0.3660062565111129</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>10.285941223928274</v>
-      </c>
-      <c r="I7" s="34" t="n">
-        <v>-1.945098039113286</v>
-      </c>
-      <c r="J7" s="37" t="n">
-        <v>114.28012550930919</v>
-      </c>
-      <c r="K7" t="s" s="0">
+      <c r="A7" s="4">
+        <v>75.598893101985681</v>
+      </c>
+      <c r="B7" s="4">
+        <v>45.582775042337076</v>
+      </c>
+      <c r="C7" s="4">
+        <v>16.333360238993215</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2.453109789076342</v>
+      </c>
+      <c r="E7" s="4">
+        <v>4.741373715523725</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.17490535424202625</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.34926987561595862</v>
+      </c>
+      <c r="H7" s="4">
+        <v>13.007506659039624</v>
+      </c>
+      <c r="I7" s="34">
+        <v>-1.568807690834775</v>
+      </c>
+      <c r="J7" s="37">
+        <v>5.744164228515336</v>
+      </c>
+      <c r="K7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="n">
-        <v>64.12363238593363</v>
-      </c>
-      <c r="B8" s="7" t="n">
-        <v>27.440000000307055</v>
-      </c>
-      <c r="C8" s="7" t="n">
-        <v>13.062222221808646</v>
-      </c>
-      <c r="D8" s="7" t="n">
-        <v>2.0666666667351703</v>
-      </c>
-      <c r="E8" s="7" t="n">
-        <v>4.12888888884604</v>
-      </c>
-      <c r="F8" s="7" t="n">
-        <v>0.22222222220879015</v>
-      </c>
-      <c r="G8" s="7" t="n">
-        <v>0.11111111110439507</v>
-      </c>
-      <c r="H8" s="7" t="n">
-        <v>23.133333333953896</v>
-      </c>
-      <c r="I8" s="32" t="n">
-        <v>-0.0</v>
-      </c>
-      <c r="J8" s="38" t="n">
-        <v>81.31305050547553</v>
-      </c>
-      <c r="K8" t="s" s="0">
+      <c r="A8" s="7">
+        <v>66.66644684798591</v>
+      </c>
+      <c r="B8" s="7">
+        <v>28.299630996237216</v>
+      </c>
+      <c r="C8" s="7">
+        <v>12.126199262342691</v>
+      </c>
+      <c r="D8" s="7">
+        <v>2.2457564575339224</v>
+      </c>
+      <c r="E8" s="7">
+        <v>4.0214022140464643</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.19335793359245107</v>
+      </c>
+      <c r="G8" s="7">
+        <v>9.6678966796225535E-2</v>
+      </c>
+      <c r="H8" s="7">
+        <v>24.822878228580983</v>
+      </c>
+      <c r="I8" s="32">
         <v>0</v>
       </c>
+      <c r="J8" s="38">
+        <v>2.6747641434348015</v>
+      </c>
+      <c r="K8" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="n">
-        <v>65.87350835352473</v>
-      </c>
-      <c r="B9" s="6" t="n">
-        <v>28.076372314571582</v>
-      </c>
-      <c r="C9" s="6" t="n">
-        <v>12.446366782050642</v>
-      </c>
-      <c r="D9" s="6" t="n">
-        <v>1.9886363637952995</v>
-      </c>
-      <c r="E9" s="6" t="n">
-        <v>4.098484848652858</v>
-      </c>
-      <c r="F9" s="6" t="n">
-        <v>0.19696969697086777</v>
-      </c>
-      <c r="G9" s="6" t="n">
-        <v>0.09469696968613982</v>
-      </c>
-      <c r="H9" s="6" t="n">
-        <v>21.21107266590393</v>
-      </c>
-      <c r="I9" s="33" t="n">
-        <v>-1.8615751790123318</v>
-      </c>
-      <c r="J9" s="39" t="n">
-        <v>97.73176922006911</v>
-      </c>
-      <c r="K9" t="s" s="0">
+      <c r="A9" s="6">
+        <v>66.809122269121815</v>
+      </c>
+      <c r="B9" s="6">
+        <v>26.95668838662808</v>
+      </c>
+      <c r="C9" s="6">
+        <v>12.629553617316676</v>
+      </c>
+      <c r="D9" s="6">
+        <v>2.3481848184219958</v>
+      </c>
+      <c r="E9" s="6">
+        <v>4.4807480747467388</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.20352035203926994</v>
+      </c>
+      <c r="G9" s="6">
+        <v>7.2057205726798759E-2</v>
+      </c>
+      <c r="H9" s="6">
+        <v>24.802462800850442</v>
+      </c>
+      <c r="I9" s="33">
+        <v>-1.9241088539888389</v>
+      </c>
+      <c r="J9" s="39">
+        <v>-9.0897751168231178</v>
+      </c>
+      <c r="K9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="n">
-        <v>69.81042988086443</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>42.540521493937796</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>15.99543726232245</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>2.3458128078716878</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>4.533990147752255</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>0.15665024631986063</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0.34581280787168783</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>10.889733841096856</v>
-      </c>
-      <c r="I10" s="34" t="n">
-        <v>-1.7477096545965678</v>
-      </c>
-      <c r="J10" s="37" t="n">
-        <v>113.24185612388402</v>
-      </c>
-      <c r="K10" t="s" s="0">
+      <c r="A10" s="4">
+        <v>72.373412009827661</v>
+      </c>
+      <c r="B10" s="4">
+        <v>42.298993405094762</v>
+      </c>
+      <c r="C10" s="4">
+        <v>16.022323769742158</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2.316413522791585</v>
+      </c>
+      <c r="E10" s="4">
+        <v>4.4493875551529687</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.20979911807928678</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.31641352279158536</v>
+      </c>
+      <c r="H10" s="4">
+        <v>13.706644692373033</v>
+      </c>
+      <c r="I10" s="34">
+        <v>-1.4217285664763446</v>
+      </c>
+      <c r="J10" s="37">
+        <v>4.6991889002743497</v>
+      </c>
+      <c r="K10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="n">
-        <v>60.833107192110724</v>
-      </c>
-      <c r="B11" s="5" t="n">
-        <v>29.298930729799483</v>
-      </c>
-      <c r="C11" s="5" t="n">
-        <v>16.62588363187944</v>
-      </c>
-      <c r="D11" s="5" t="n">
-        <v>3.3736884583886666</v>
-      </c>
-      <c r="E11" s="5" t="n">
-        <v>5.086455331316821</v>
-      </c>
-      <c r="F11" s="5" t="n">
-        <v>0.40597255848123087</v>
-      </c>
-      <c r="G11" s="5" t="n">
-        <v>0.004034582135329818</v>
-      </c>
-      <c r="H11" s="5" t="n">
-        <v>12.806916427630345</v>
-      </c>
-      <c r="I11" s="35" t="n">
-        <v>-0.4703753957297792</v>
-      </c>
-      <c r="J11" s="40" t="n">
-        <v>91.5737137579973</v>
-      </c>
-      <c r="K11" t="s" s="0">
+      <c r="A11" s="5">
+        <v>63.649160385755181</v>
+      </c>
+      <c r="B11" s="5">
+        <v>29.092922829219592</v>
+      </c>
+      <c r="C11" s="5">
+        <v>15.051359595700772</v>
+      </c>
+      <c r="D11" s="5">
+        <v>3.2448579474757016</v>
+      </c>
+      <c r="E11" s="5">
+        <v>4.7945647676005461</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.31101842941602353</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1.4705476618600078E-2</v>
+      </c>
+      <c r="H11" s="5">
+        <v>16.291902330881857</v>
+      </c>
+      <c r="I11" s="35">
+        <v>-0.42677874999538501</v>
+      </c>
+      <c r="J11" s="40">
+        <v>3.5453768199322515</v>
+      </c>
+      <c r="K11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" t="s" s="0">
+      <c r="A13" t="s">
         <v>19</v>
       </c>
     </row>
@@ -13257,28 +13289,28 @@
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:36" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="60"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="61"/>
       <c r="U1" s="8"/>
       <c r="V1" s="8"/>
       <c r="W1" s="8"/>
@@ -13297,56 +13329,56 @@
       <c r="AJ1" s="8"/>
     </row>
     <row r="2" spans="1:36" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="61" t="s">
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="63"/>
     </row>
     <row r="3" spans="1:36" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58" t="s">
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="56"/>
-      <c r="T3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="58"/>
     </row>
     <row r="4" spans="1:36" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
@@ -13411,103 +13443,103 @@
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="n">
-        <v>60.98823598538708</v>
-      </c>
-      <c r="B5" s="12" t="n">
-        <v>27.955697822398776</v>
-      </c>
-      <c r="C5" s="12" t="n">
-        <v>16.296461003069865</v>
-      </c>
-      <c r="D5" s="12" t="n">
-        <v>3.0352688149963285</v>
-      </c>
-      <c r="E5" s="12" t="n">
-        <v>4.892877995627655</v>
-      </c>
-      <c r="F5" s="12" t="n">
-        <v>0.41502084546944673</v>
-      </c>
-      <c r="G5" s="12" t="n">
-        <v>0.0035561644636063457</v>
-      </c>
-      <c r="H5" s="12" t="n">
-        <v>13.059775378127084</v>
-      </c>
-      <c r="I5" s="12" t="n">
-        <v>-1.2930280493107884</v>
-      </c>
-      <c r="J5" s="26" t="n">
-        <v>100.26811812702532</v>
-      </c>
-      <c r="K5" s="22" t="n">
-        <v>59.09564474825818</v>
-      </c>
-      <c r="L5" s="12" t="n">
-        <v>27.370449678300258</v>
-      </c>
-      <c r="M5" s="12" t="n">
-        <v>16.565002471134697</v>
-      </c>
-      <c r="N5" s="12" t="n">
-        <v>3.0637701471444605</v>
-      </c>
-      <c r="O5" s="12" t="n">
-        <v>4.917836713430747</v>
-      </c>
-      <c r="P5" s="12" t="n">
-        <v>0.428170988057082</v>
-      </c>
-      <c r="Q5" s="12" t="n">
-        <v>0.0036401456082147607</v>
-      </c>
-      <c r="R5" s="12" t="n">
-        <v>12.387543253966445</v>
-      </c>
-      <c r="S5" s="12" t="n">
-        <v>-1.3321947054345664</v>
-      </c>
-      <c r="T5" s="17" t="n">
-        <v>101.37244838466259</v>
-      </c>
-      <c r="U5" t="s" s="0">
+      <c r="A5" s="9">
+        <v>62.149556979379369</v>
+      </c>
+      <c r="B5" s="12">
+        <v>26.687699263549938</v>
+      </c>
+      <c r="C5" s="12">
+        <v>14.94783599676169</v>
+      </c>
+      <c r="D5" s="12">
+        <v>2.9604265212508647</v>
+      </c>
+      <c r="E5" s="12">
+        <v>4.7738640446874268</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0.32772089105669794</v>
+      </c>
+      <c r="G5" s="12">
+        <v>1.1465279667185121E-2</v>
+      </c>
+      <c r="H5" s="12">
+        <v>17.588501913374504</v>
+      </c>
+      <c r="I5" s="12">
+        <v>-1.3957311152344514</v>
+      </c>
+      <c r="J5" s="26">
+        <v>97.334399313645378</v>
+      </c>
+      <c r="K5" s="22">
+        <v>59.77048496578729</v>
+      </c>
+      <c r="L5" s="12">
+        <v>25.977783310945046</v>
+      </c>
+      <c r="M5" s="12">
+        <v>15.354033611844674</v>
+      </c>
+      <c r="N5" s="12">
+        <v>3.0082328809400809</v>
+      </c>
+      <c r="O5" s="12">
+        <v>4.8017861629519896</v>
+      </c>
+      <c r="P5" s="12">
+        <v>0.35260895221598398</v>
+      </c>
+      <c r="Q5" s="12">
+        <v>1.2174230831793784E-2</v>
+      </c>
+      <c r="R5" s="12">
+        <v>16.261307408359063</v>
+      </c>
+      <c r="S5" s="12">
+        <v>-1.5227694991239451</v>
+      </c>
+      <c r="T5" s="17">
+        <v>100.40620738948833</v>
+      </c>
+      <c r="U5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="n">
-        <v>65.23670487859165</v>
-      </c>
-      <c r="B6" s="13" t="n">
-        <v>36.21463409746927</v>
-      </c>
-      <c r="C6" s="13" t="n">
-        <v>16.191539051329762</v>
-      </c>
-      <c r="D6" s="13" t="n">
-        <v>2.7438193885311115</v>
-      </c>
-      <c r="E6" s="13" t="n">
-        <v>4.7834417850207975</v>
-      </c>
-      <c r="F6" s="13" t="n">
-        <v>0.2691302397508528</v>
-      </c>
-      <c r="G6" s="13" t="n">
-        <v>0.18481191378643816</v>
-      </c>
-      <c r="H6" s="13" t="n">
-        <v>11.388670858446858</v>
-      </c>
-      <c r="I6" s="13" t="n">
-        <v>-1.627735915833879</v>
-      </c>
-      <c r="J6" s="27" t="n">
-        <v>107.62936213978517</v>
-      </c>
-      <c r="K6" s="23" t="n">
-        <v>101.450000000221</v>
+      <c r="A6" s="10">
+        <v>68.517060157319335</v>
+      </c>
+      <c r="B6" s="13">
+        <v>35.812960255140339</v>
+      </c>
+      <c r="C6" s="13">
+        <v>15.818902878478331</v>
+      </c>
+      <c r="D6" s="13">
+        <v>2.7304790367150442</v>
+      </c>
+      <c r="E6" s="13">
+        <v>4.7945308994961575</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0.25552114202464027</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0.18048886422258387</v>
+      </c>
+      <c r="H6" s="13">
+        <v>14.88597965792372</v>
+      </c>
+      <c r="I6" s="13">
+        <v>-1.493681321980505</v>
+      </c>
+      <c r="J6" s="27">
+        <v>109.5557532426223</v>
+      </c>
+      <c r="K6" s="23">
+        <v>101.66395494367676</v>
       </c>
       <c r="L6" s="13" t="e">
         <v>#NUM!</v>
@@ -13530,241 +13562,241 @@
       <c r="R6" s="13" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="S6" s="13" t="n">
-        <v>-0.0</v>
+      <c r="S6" s="13">
+        <v>0</v>
       </c>
       <c r="T6" s="18" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="U6" t="s" s="0">
+      <c r="U6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="11" t="n">
-        <v>61.83754067876433</v>
-      </c>
-      <c r="B7" s="14" t="n">
-        <v>27.406834256405304</v>
-      </c>
-      <c r="C7" s="14" t="n">
-        <v>14.806049685608427</v>
-      </c>
-      <c r="D7" s="14" t="n">
-        <v>2.5649525133445445</v>
-      </c>
-      <c r="E7" s="14" t="n">
-        <v>4.5267183462195355</v>
-      </c>
-      <c r="F7" s="14" t="n">
-        <v>0.3234113195643253</v>
-      </c>
-      <c r="G7" s="14" t="n">
-        <v>0.05736434108307926</v>
-      </c>
-      <c r="H7" s="14" t="n">
-        <v>17.81236691345967</v>
-      </c>
-      <c r="I7" s="14" t="n">
-        <v>-0.6551868962772361</v>
-      </c>
-      <c r="J7" s="28" t="n">
-        <v>91.14582463786836</v>
-      </c>
-      <c r="K7" s="30" t="n">
-        <v>71.63157894766981</v>
-      </c>
-      <c r="L7" s="14" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="M7" s="14" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="N7" s="14" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O7" s="14" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="P7" s="14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q7" s="14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R7" s="14" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="S7" s="14" t="n">
-        <v>-0.0</v>
-      </c>
-      <c r="T7" s="31" t="n">
-        <v>70.88354235810294</v>
-      </c>
-      <c r="U7" t="s" s="0">
+      <c r="A7" s="11">
+        <v>64.050837030319457</v>
+      </c>
+      <c r="B7" s="14">
+        <v>27.171388232090411</v>
+      </c>
+      <c r="C7" s="14">
+        <v>13.715322390153069</v>
+      </c>
+      <c r="D7" s="14">
+        <v>2.6268023709438344</v>
+      </c>
+      <c r="E7" s="14">
+        <v>4.4345451487575271</v>
+      </c>
+      <c r="F7" s="14">
+        <v>0.26474743169985271</v>
+      </c>
+      <c r="G7" s="14">
+        <v>5.4193409812717322E-2</v>
+      </c>
+      <c r="H7" s="14">
+        <v>20.793665442694397</v>
+      </c>
+      <c r="I7" s="14">
+        <v>-0.70927747656311746</v>
+      </c>
+      <c r="J7" s="28">
+        <v>87.226245976655221</v>
+      </c>
+      <c r="K7" s="30">
+        <v>71.765920070225988</v>
+      </c>
+      <c r="L7" s="14">
+        <v>28</v>
+      </c>
+      <c r="M7" s="14">
+        <v>14</v>
+      </c>
+      <c r="N7" s="14">
+        <v>2.9999999999999996</v>
+      </c>
+      <c r="O7" s="14">
+        <v>5.9999999999999991</v>
+      </c>
+      <c r="P7" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="14">
+        <v>0</v>
+      </c>
+      <c r="R7" s="14">
+        <v>30</v>
+      </c>
+      <c r="S7" s="14">
+        <v>0</v>
+      </c>
+      <c r="T7" s="31">
+        <v>65.886643347004579</v>
+      </c>
+      <c r="U7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="n">
-        <v>66.59595520866995</v>
-      </c>
-      <c r="B8" s="13" t="n">
-        <v>35.788770666302284</v>
-      </c>
-      <c r="C8" s="13" t="n">
-        <v>15.749871799193645</v>
-      </c>
-      <c r="D8" s="13" t="n">
-        <v>2.707353338723073</v>
-      </c>
-      <c r="E8" s="13" t="n">
-        <v>4.72890239213229</v>
-      </c>
-      <c r="F8" s="13" t="n">
-        <v>0.25727519157115386</v>
-      </c>
-      <c r="G8" s="13" t="n">
-        <v>0.17742305460251337</v>
-      </c>
-      <c r="H8" s="13" t="n">
-        <v>12.491519320054026</v>
-      </c>
-      <c r="I8" s="13" t="n">
-        <v>-1.6312186364295438</v>
-      </c>
-      <c r="J8" s="27" t="n">
-        <v>106.49347988644098</v>
-      </c>
-      <c r="K8" s="23" t="n">
-        <v>71.35483870988972</v>
-      </c>
-      <c r="L8" s="13" t="n">
-        <v>32.80645161230885</v>
-      </c>
-      <c r="M8" s="13" t="n">
-        <v>10.304347825212854</v>
-      </c>
-      <c r="N8" s="13" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="O8" s="13" t="n">
-        <v>3.4999999999999996</v>
-      </c>
-      <c r="P8" s="13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q8" s="13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R8" s="13" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="S8" s="13" t="n">
-        <v>-2.096774193406868</v>
-      </c>
-      <c r="T8" s="18" t="n">
-        <v>97.1023898048047</v>
-      </c>
-      <c r="U8" t="s" s="0">
+      <c r="A8" s="10">
+        <v>68.503399484063053</v>
+      </c>
+      <c r="B8" s="13">
+        <v>35.049916794690027</v>
+      </c>
+      <c r="C8" s="13">
+        <v>15.054732053305003</v>
+      </c>
+      <c r="D8" s="13">
+        <v>2.6623905143364284</v>
+      </c>
+      <c r="E8" s="13">
+        <v>4.6640866499659612</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0.23912750724923193</v>
+      </c>
+      <c r="G8" s="13">
+        <v>0.1643157669014263</v>
+      </c>
+      <c r="H8" s="13">
+        <v>16.8247331953852</v>
+      </c>
+      <c r="I8" s="13">
+        <v>-1.5141107521616552</v>
+      </c>
+      <c r="J8" s="27">
+        <v>106.97062624454742</v>
+      </c>
+      <c r="K8" s="23">
+        <v>71.894736841988916</v>
+      </c>
+      <c r="L8" s="13">
+        <v>31.294736842431018</v>
+      </c>
+      <c r="M8" s="13">
+        <v>8.5824175827049878</v>
+      </c>
+      <c r="N8" s="13">
+        <v>2</v>
+      </c>
+      <c r="O8" s="13">
+        <v>3.5</v>
+      </c>
+      <c r="P8" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>0</v>
+      </c>
+      <c r="R8" s="13">
+        <v>45</v>
+      </c>
+      <c r="S8" s="13">
+        <v>-1.7368421053407199</v>
+      </c>
+      <c r="T8" s="18">
+        <v>84.460186422171603</v>
+      </c>
+      <c r="U8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="n">
-        <v>70.84442410187451</v>
-      </c>
-      <c r="B9" s="13" t="n">
-        <v>44.04770694137278</v>
-      </c>
-      <c r="C9" s="13" t="n">
-        <v>15.644949847453546</v>
-      </c>
-      <c r="D9" s="13" t="n">
-        <v>2.415903912257856</v>
-      </c>
-      <c r="E9" s="13" t="n">
-        <v>4.619466181525432</v>
-      </c>
-      <c r="F9" s="13" t="n">
-        <v>0.11138458585255993</v>
-      </c>
-      <c r="G9" s="13" t="n">
-        <v>0.3586788039253452</v>
-      </c>
-      <c r="H9" s="13" t="n">
-        <v>10.8204148003738</v>
-      </c>
-      <c r="I9" s="13" t="n">
-        <v>-1.9659265029526343</v>
-      </c>
-      <c r="J9" s="27" t="n">
-        <v>113.85472389920083</v>
-      </c>
-      <c r="K9" s="23" t="n">
-        <v>70.6513470692239</v>
-      </c>
-      <c r="L9" s="13" t="n">
-        <v>45.055599682434995</v>
-      </c>
-      <c r="M9" s="13" t="n">
-        <v>15.833200953251318</v>
-      </c>
-      <c r="N9" s="13" t="n">
-        <v>2.4244004171083042</v>
-      </c>
-      <c r="O9" s="13" t="n">
-        <v>4.642335766448563</v>
-      </c>
-      <c r="P9" s="13" t="n">
-        <v>0.11366006258184523</v>
-      </c>
-      <c r="Q9" s="13" t="n">
-        <v>0.3660062565111129</v>
-      </c>
-      <c r="R9" s="13" t="n">
-        <v>10.285941223928274</v>
-      </c>
-      <c r="S9" s="13" t="n">
-        <v>-1.9651347067267961</v>
-      </c>
-      <c r="T9" s="18" t="n">
-        <v>114.50229143613548</v>
-      </c>
-      <c r="U9" t="s" s="0">
+      <c r="A9" s="10">
+        <v>74.870902662003019</v>
+      </c>
+      <c r="B9" s="13">
+        <v>44.175177786280429</v>
+      </c>
+      <c r="C9" s="13">
+        <v>15.925798935021646</v>
+      </c>
+      <c r="D9" s="13">
+        <v>2.4324430298006079</v>
+      </c>
+      <c r="E9" s="13">
+        <v>4.684753504774692</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0.16692775821717426</v>
+      </c>
+      <c r="G9" s="13">
+        <v>0.33333935145682503</v>
+      </c>
+      <c r="H9" s="13">
+        <v>14.122210939934416</v>
+      </c>
+      <c r="I9" s="13">
+        <v>-1.6120609589077088</v>
+      </c>
+      <c r="J9" s="27">
+        <v>119.19198017352433</v>
+      </c>
+      <c r="K9" s="23">
+        <v>74.688707874091122</v>
+      </c>
+      <c r="L9" s="13">
+        <v>45.582775042337076</v>
+      </c>
+      <c r="M9" s="13">
+        <v>16.333360238993215</v>
+      </c>
+      <c r="N9" s="13">
+        <v>2.453109789076342</v>
+      </c>
+      <c r="O9" s="13">
+        <v>4.741373715523725</v>
+      </c>
+      <c r="P9" s="13">
+        <v>0.17490535424202625</v>
+      </c>
+      <c r="Q9" s="13">
+        <v>0.34926987561595862</v>
+      </c>
+      <c r="R9" s="13">
+        <v>13.007506659039624</v>
+      </c>
+      <c r="S9" s="13">
+        <v>-1.6355214821944859</v>
+      </c>
+      <c r="T9" s="18">
+        <v>121.59511864449674</v>
+      </c>
+      <c r="U9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="10" t="n">
-        <v>67.44525990204718</v>
-      </c>
-      <c r="B10" s="13" t="n">
-        <v>35.23990710030881</v>
-      </c>
-      <c r="C10" s="13" t="n">
-        <v>14.259460481732209</v>
-      </c>
-      <c r="D10" s="13" t="n">
-        <v>2.237037037071289</v>
-      </c>
-      <c r="E10" s="13" t="n">
-        <v>4.36274274272417</v>
-      </c>
-      <c r="F10" s="13" t="n">
-        <v>0.16566566566603239</v>
-      </c>
-      <c r="G10" s="13" t="n">
-        <v>0.23123123122198627</v>
-      </c>
-      <c r="H10" s="13" t="n">
-        <v>17.244110855386612</v>
-      </c>
-      <c r="I10" s="13" t="n">
-        <v>-0.9933774833959913</v>
-      </c>
-      <c r="J10" s="27" t="n">
-        <v>97.37118639728402</v>
+      <c r="A10" s="10">
+        <v>70.40467953500314</v>
+      </c>
+      <c r="B10" s="13">
+        <v>35.533605763230504</v>
+      </c>
+      <c r="C10" s="13">
+        <v>13.822218446696382</v>
+      </c>
+      <c r="D10" s="13">
+        <v>2.3287663640293981</v>
+      </c>
+      <c r="E10" s="13">
+        <v>4.3247677540360616</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0.17615404789238667</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0.20704389704695852</v>
+      </c>
+      <c r="H10" s="13">
+        <v>20.029896724705097</v>
+      </c>
+      <c r="I10" s="13">
+        <v>-0.82765711349032134</v>
+      </c>
+      <c r="J10" s="27">
+        <v>96.862472907557262</v>
       </c>
       <c r="K10" s="23" t="e">
         <v>#NUM!</v>
@@ -13796,46 +13828,46 @@
       <c r="T10" s="18" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="U10" t="s" s="0">
+      <c r="U10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="n">
-        <v>64.26387101634184</v>
-      </c>
-      <c r="B11" s="12" t="n">
-        <v>28.394630437401066</v>
-      </c>
-      <c r="C11" s="12" t="n">
-        <v>14.546297202918531</v>
-      </c>
-      <c r="D11" s="12" t="n">
-        <v>2.530676662068749</v>
-      </c>
-      <c r="E11" s="12" t="n">
-        <v>4.482405895586444</v>
-      </c>
-      <c r="F11" s="12" t="n">
-        <v>0.31533324961826587</v>
-      </c>
-      <c r="G11" s="12" t="n">
-        <v>0.05805368523709927</v>
-      </c>
-      <c r="H11" s="12" t="n">
-        <v>18.334345402138155</v>
-      </c>
-      <c r="I11" s="12" t="n">
-        <v>-0.6378411530335524</v>
-      </c>
-      <c r="J11" s="26" t="n">
-        <v>90.59349865792196</v>
-      </c>
-      <c r="K11" s="22" t="n">
-        <v>70.3877068553645</v>
-      </c>
-      <c r="L11" s="12" t="n">
-        <v>30.0</v>
+      <c r="A11" s="9">
+        <v>65.03660617084681</v>
+      </c>
+      <c r="B11" s="12">
+        <v>28.078189663719982</v>
+      </c>
+      <c r="C11" s="12">
+        <v>13.276752884853476</v>
+      </c>
+      <c r="D11" s="12">
+        <v>2.5463900195120677</v>
+      </c>
+      <c r="E11" s="12">
+        <v>4.2741773063510609</v>
+      </c>
+      <c r="F11" s="12">
+        <v>0.26478886275595281</v>
+      </c>
+      <c r="G11" s="12">
+        <v>5.8179571554021578E-2</v>
+      </c>
+      <c r="H11" s="12">
+        <v>21.391267559215372</v>
+      </c>
+      <c r="I11" s="12">
+        <v>-0.68645363867133391</v>
+      </c>
+      <c r="J11" s="26">
+        <v>86.714924979659912</v>
+      </c>
+      <c r="K11" s="22">
+        <v>68.804142077699083</v>
+      </c>
+      <c r="L11" s="12">
+        <v>30</v>
       </c>
       <c r="M11" s="12" t="e">
         <v>#NUM!</v>
@@ -13855,49 +13887,49 @@
       <c r="R11" s="12" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="S11" s="12" t="n">
-        <v>-0.0</v>
+      <c r="S11" s="12">
+        <v>0</v>
       </c>
       <c r="T11" s="17" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="U11" t="s" s="0">
+      <c r="U11" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="n">
-        <v>68.5123399095464</v>
-      </c>
-      <c r="B12" s="13" t="n">
-        <v>36.653566712471566</v>
-      </c>
-      <c r="C12" s="13" t="n">
-        <v>14.44137525117843</v>
-      </c>
-      <c r="D12" s="13" t="n">
-        <v>2.239227235603531</v>
-      </c>
-      <c r="E12" s="13" t="n">
-        <v>4.372969684979585</v>
-      </c>
-      <c r="F12" s="13" t="n">
-        <v>0.1694426438996719</v>
-      </c>
-      <c r="G12" s="13" t="n">
-        <v>0.2393094345599311</v>
-      </c>
-      <c r="H12" s="13" t="n">
-        <v>16.663240882457927</v>
-      </c>
-      <c r="I12" s="13" t="n">
-        <v>-0.972549019556643</v>
-      </c>
-      <c r="J12" s="27" t="n">
-        <v>97.95474267068182</v>
-      </c>
-      <c r="K12" s="23" t="n">
-        <v>83.0</v>
+      <c r="A12" s="10">
+        <v>71.40410934878679</v>
+      </c>
+      <c r="B12" s="13">
+        <v>37.203450655310384</v>
+      </c>
+      <c r="C12" s="13">
+        <v>14.14781976657012</v>
+      </c>
+      <c r="D12" s="13">
+        <v>2.3164425349762472</v>
+      </c>
+      <c r="E12" s="13">
+        <v>4.2948441611597916</v>
+      </c>
+      <c r="F12" s="13">
+        <v>0.19258911372389514</v>
+      </c>
+      <c r="G12" s="13">
+        <v>0.22720315610942032</v>
+      </c>
+      <c r="H12" s="13">
+        <v>18.688745303764584</v>
+      </c>
+      <c r="I12" s="13">
+        <v>-0.7844038454173875</v>
+      </c>
+      <c r="J12" s="27">
+        <v>98.936278908636837</v>
+      </c>
+      <c r="K12" s="23">
+        <v>83</v>
       </c>
       <c r="L12" s="13" t="e">
         <v>#NUM!</v>
@@ -13920,106 +13952,106 @@
       <c r="R12" s="13" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="S12" s="13" t="n">
-        <v>-0.0</v>
+      <c r="S12" s="13">
+        <v>0</v>
       </c>
       <c r="T12" s="18" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="U12" t="s" s="0">
+      <c r="U12" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="19" t="n">
-        <v>65.11317570971909</v>
-      </c>
-      <c r="B13" s="25" t="n">
-        <v>27.845766871407598</v>
-      </c>
-      <c r="C13" s="25" t="n">
-        <v>13.055885885457094</v>
-      </c>
-      <c r="D13" s="25" t="n">
-        <v>2.060360360416964</v>
-      </c>
-      <c r="E13" s="25" t="n">
-        <v>4.116246246178324</v>
-      </c>
-      <c r="F13" s="25" t="n">
-        <v>0.22372372371314436</v>
-      </c>
-      <c r="G13" s="25" t="n">
-        <v>0.11186186185657218</v>
-      </c>
-      <c r="H13" s="25" t="n">
-        <v>23.08693693747074</v>
-      </c>
-      <c r="I13" s="25" t="n">
-        <v>-0.0</v>
-      </c>
-      <c r="J13" s="29" t="n">
-        <v>81.471205168765</v>
-      </c>
-      <c r="K13" s="24" t="n">
-        <v>63.96424581064444</v>
-      </c>
-      <c r="L13" s="25" t="n">
-        <v>27.432432432728802</v>
-      </c>
-      <c r="M13" s="25" t="n">
-        <v>13.049549549105542</v>
-      </c>
-      <c r="N13" s="25" t="n">
-        <v>2.054054054098758</v>
-      </c>
-      <c r="O13" s="25" t="n">
-        <v>4.103603603510607</v>
-      </c>
-      <c r="P13" s="25" t="n">
-        <v>0.22522522521749858</v>
-      </c>
-      <c r="Q13" s="25" t="n">
-        <v>0.11261261260874929</v>
-      </c>
-      <c r="R13" s="25" t="n">
-        <v>23.040540540987582</v>
-      </c>
-      <c r="S13" s="25" t="n">
-        <v>-0.0</v>
-      </c>
-      <c r="T13" s="20" t="n">
-        <v>81.45043734013018</v>
-      </c>
-      <c r="U13" t="s" s="0">
+      <c r="A13" s="19">
+        <v>66.937886221786897</v>
+      </c>
+      <c r="B13" s="25">
+        <v>28.561878632260456</v>
+      </c>
+      <c r="C13" s="25">
+        <v>12.044239278244856</v>
+      </c>
+      <c r="D13" s="25">
+        <v>2.2127658692050374</v>
+      </c>
+      <c r="E13" s="25">
+        <v>3.9348584104211612</v>
+      </c>
+      <c r="F13" s="25">
+        <v>0.20181540339910758</v>
+      </c>
+      <c r="G13" s="25">
+        <v>0.10090770169955379</v>
+      </c>
+      <c r="H13" s="25">
+        <v>24.596431088535265</v>
+      </c>
+      <c r="I13" s="25">
+        <v>0</v>
+      </c>
+      <c r="J13" s="29">
+        <v>76.60677164266977</v>
+      </c>
+      <c r="K13" s="24">
+        <v>66.099174361504566</v>
+      </c>
+      <c r="L13" s="25">
+        <v>28.325842696545887</v>
+      </c>
+      <c r="M13" s="25">
+        <v>11.962279294147022</v>
+      </c>
+      <c r="N13" s="25">
+        <v>2.1797752808761524</v>
+      </c>
+      <c r="O13" s="25">
+        <v>3.8483146067958587</v>
+      </c>
+      <c r="P13" s="25">
+        <v>0.21027287320576407</v>
+      </c>
+      <c r="Q13" s="25">
+        <v>0.10513643660288204</v>
+      </c>
+      <c r="R13" s="25">
+        <v>24.369983948489548</v>
+      </c>
+      <c r="S13" s="25">
+        <v>0</v>
+      </c>
+      <c r="T13" s="20">
+        <v>77.002628519678595</v>
+      </c>
+      <c r="U13" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:36" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="58" t="s">
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="56"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="56"/>
-      <c r="T14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="57"/>
+      <c r="R14" s="57"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="58"/>
     </row>
     <row r="15" spans="1:36" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="15" t="s">
@@ -14085,103 +14117,103 @@
       <c r="U15" s="15"/>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="n">
-        <v>61.96529045901461</v>
-      </c>
-      <c r="B16" s="9" t="n">
-        <v>27.979832720833336</v>
-      </c>
-      <c r="C16" s="9" t="n">
-        <v>15.526442158866022</v>
-      </c>
-      <c r="D16" s="9" t="n">
-        <v>2.825942324756123</v>
-      </c>
-      <c r="E16" s="9" t="n">
-        <v>4.7339993662326965</v>
-      </c>
-      <c r="F16" s="9" t="n">
-        <v>0.37141061576973095</v>
-      </c>
-      <c r="G16" s="9" t="n">
-        <v>0.021784325508113038</v>
-      </c>
-      <c r="H16" s="9" t="n">
-        <v>14.690034835682454</v>
-      </c>
-      <c r="I16" s="9" t="n">
-        <v>-1.4067374752510973</v>
-      </c>
-      <c r="J16" s="17" t="n">
-        <v>99.76084834563407</v>
-      </c>
-      <c r="K16" s="22" t="n">
-        <v>66.27368421051614</v>
-      </c>
-      <c r="L16" s="9" t="n">
-        <v>26.68421052541352</v>
-      </c>
-      <c r="M16" s="9" t="n">
-        <v>11.946428571336416</v>
-      </c>
-      <c r="N16" s="9" t="n">
-        <v>1.9310344831925486</v>
-      </c>
-      <c r="O16" s="9" t="n">
-        <v>3.6551724143213637</v>
-      </c>
-      <c r="P16" s="9" t="n">
-        <v>0.3103448275484741</v>
-      </c>
-      <c r="Q16" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R16" s="9" t="n">
-        <v>20.625000003604914</v>
-      </c>
-      <c r="S16" s="9" t="n">
-        <v>-4.105263157563213</v>
-      </c>
-      <c r="T16" s="17" t="n">
-        <v>122.00496218651159</v>
-      </c>
-      <c r="U16" t="s" s="0">
+      <c r="A16" s="9">
+        <v>63.081470037327861</v>
+      </c>
+      <c r="B16" s="9">
+        <v>26.741497088165566</v>
+      </c>
+      <c r="C16" s="9">
+        <v>14.484179520872686</v>
+      </c>
+      <c r="D16" s="9">
+        <v>2.8379781806850906</v>
+      </c>
+      <c r="E16" s="9">
+        <v>4.7152408506992893</v>
+      </c>
+      <c r="F16" s="9">
+        <v>0.30288078325321233</v>
+      </c>
+      <c r="G16" s="9">
+        <v>2.358366487910785E-2</v>
+      </c>
+      <c r="H16" s="9">
+        <v>19.031294090869693</v>
+      </c>
+      <c r="I16" s="9">
+        <v>-1.5014066629853289</v>
+      </c>
+      <c r="J16" s="17">
+        <v>98.147728662373652</v>
+      </c>
+      <c r="K16" s="22">
+        <v>66.253077975379753</v>
+      </c>
+      <c r="L16" s="9">
+        <v>24.856361149424551</v>
+      </c>
+      <c r="M16" s="9">
+        <v>11.795497185762034</v>
+      </c>
+      <c r="N16" s="9">
+        <v>2.5604278074092823</v>
+      </c>
+      <c r="O16" s="9">
+        <v>4.4213903742373875</v>
+      </c>
+      <c r="P16" s="9">
+        <v>0.25561497326875804</v>
+      </c>
+      <c r="Q16" s="9">
+        <v>0</v>
+      </c>
+      <c r="R16" s="9">
+        <v>26.529080674602856</v>
+      </c>
+      <c r="S16" s="9">
+        <v>-3.4336525308950323</v>
+      </c>
+      <c r="T16" s="17">
+        <v>118.27041392673847</v>
+      </c>
+      <c r="U16" t="s">
         <v>33</v>
       </c>
-      <c r="V16" t="s" s="0">
+      <c r="V16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="n">
-        <v>65.36406557357827</v>
-      </c>
-      <c r="B17" s="10" t="n">
-        <v>34.58698174088973</v>
-      </c>
-      <c r="C17" s="10" t="n">
-        <v>15.442504597473938</v>
-      </c>
-      <c r="D17" s="10" t="n">
-        <v>2.592782783583949</v>
-      </c>
-      <c r="E17" s="10" t="n">
-        <v>4.64645039774721</v>
-      </c>
-      <c r="F17" s="10" t="n">
-        <v>0.25469813119485585</v>
-      </c>
-      <c r="G17" s="10" t="n">
-        <v>0.16678892496637848</v>
-      </c>
-      <c r="H17" s="10" t="n">
-        <v>13.353151219938272</v>
-      </c>
-      <c r="I17" s="10" t="n">
-        <v>-1.6745037684695696</v>
-      </c>
-      <c r="J17" s="18" t="n">
-        <v>105.64984355584198</v>
+      <c r="A17" s="10">
+        <v>68.175472579679834</v>
+      </c>
+      <c r="B17" s="10">
+        <v>34.041705881437892</v>
+      </c>
+      <c r="C17" s="10">
+        <v>15.181033026246002</v>
+      </c>
+      <c r="D17" s="10">
+        <v>2.6540201930564344</v>
+      </c>
+      <c r="E17" s="10">
+        <v>4.7317743345462739</v>
+      </c>
+      <c r="F17" s="10">
+        <v>0.24512098402756619</v>
+      </c>
+      <c r="G17" s="10">
+        <v>0.15880253252342685</v>
+      </c>
+      <c r="H17" s="10">
+        <v>16.869276286509063</v>
+      </c>
+      <c r="I17" s="10">
+        <v>-1.5797668283821718</v>
+      </c>
+      <c r="J17" s="18">
+        <v>107.92481180555518</v>
       </c>
       <c r="K17" s="23" t="e">
         <v>#NUM!</v>
@@ -14213,105 +14245,105 @@
       <c r="T17" s="18" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="U17" t="s" s="0">
+      <c r="U17" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="10" t="n">
-        <v>62.644734213716404</v>
-      </c>
-      <c r="B18" s="10" t="n">
-        <v>27.54074186803856</v>
-      </c>
-      <c r="C18" s="10" t="n">
-        <v>14.334113104896868</v>
-      </c>
-      <c r="D18" s="10" t="n">
-        <v>2.4496892834346955</v>
-      </c>
-      <c r="E18" s="10" t="n">
-        <v>4.441071646706201</v>
-      </c>
-      <c r="F18" s="10" t="n">
-        <v>0.2981229950456338</v>
-      </c>
-      <c r="G18" s="10" t="n">
-        <v>0.06483086680369136</v>
-      </c>
-      <c r="H18" s="10" t="n">
-        <v>18.49210806394852</v>
-      </c>
-      <c r="I18" s="10" t="n">
-        <v>-0.8964645528242553</v>
-      </c>
-      <c r="J18" s="18" t="n">
-        <v>92.46301355430849</v>
-      </c>
-      <c r="K18" s="23" t="n">
-        <v>72.0</v>
-      </c>
-      <c r="L18" s="10" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="M18" s="10" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="N18" s="10" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O18" s="10" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="P18" s="10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q18" s="10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R18" s="10" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="S18" s="10" t="n">
-        <v>-0.0</v>
-      </c>
-      <c r="T18" s="18" t="n">
-        <v>70.90613603518582</v>
-      </c>
-      <c r="U18" t="s" s="0">
+      <c r="A18" s="10">
+        <v>64.602494078079928</v>
+      </c>
+      <c r="B18" s="10">
+        <v>27.128448262997942</v>
+      </c>
+      <c r="C18" s="10">
+        <v>13.49816863558579</v>
+      </c>
+      <c r="D18" s="10">
+        <v>2.5710788604394663</v>
+      </c>
+      <c r="E18" s="10">
+        <v>4.4437857339553695</v>
+      </c>
+      <c r="F18" s="10">
+        <v>0.25250201576773612</v>
+      </c>
+      <c r="G18" s="10">
+        <v>5.7766168995533607E-2</v>
+      </c>
+      <c r="H18" s="10">
+        <v>21.595424914325605</v>
+      </c>
+      <c r="I18" s="10">
+        <v>-0.95224375204826173</v>
+      </c>
+      <c r="J18" s="18">
+        <v>90.06120599278151</v>
+      </c>
+      <c r="K18" s="23">
+        <v>72</v>
+      </c>
+      <c r="L18" s="10">
+        <v>28</v>
+      </c>
+      <c r="M18" s="10">
+        <v>14</v>
+      </c>
+      <c r="N18" s="10">
+        <v>2.9999999999999996</v>
+      </c>
+      <c r="O18" s="10">
+        <v>5.9999999999999991</v>
+      </c>
+      <c r="P18" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="10">
+        <v>0</v>
+      </c>
+      <c r="R18" s="10">
+        <v>30</v>
+      </c>
+      <c r="S18" s="10">
+        <v>0</v>
+      </c>
+      <c r="T18" s="18">
+        <v>65.900568369056742</v>
+      </c>
+      <c r="U18" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="n">
-        <v>66.4514658376409</v>
-      </c>
-      <c r="B19" s="9" t="n">
-        <v>34.246290995956144</v>
-      </c>
-      <c r="C19" s="9" t="n">
-        <v>15.089170795765046</v>
-      </c>
-      <c r="D19" s="9" t="n">
-        <v>2.5636099437375184</v>
-      </c>
-      <c r="E19" s="9" t="n">
-        <v>4.602818883436404</v>
-      </c>
-      <c r="F19" s="9" t="n">
-        <v>0.24521409265109667</v>
-      </c>
-      <c r="G19" s="9" t="n">
-        <v>0.16087783761923866</v>
-      </c>
-      <c r="H19" s="9" t="n">
-        <v>14.235429989224007</v>
-      </c>
-      <c r="I19" s="9" t="n">
-        <v>-1.6772899449461014</v>
-      </c>
-      <c r="J19" s="17" t="n">
-        <v>104.7411377531666</v>
+      <c r="A19" s="9">
+        <v>68.164544041074805</v>
+      </c>
+      <c r="B19" s="9">
+        <v>33.431271113077642</v>
+      </c>
+      <c r="C19" s="9">
+        <v>14.569696366107337</v>
+      </c>
+      <c r="D19" s="9">
+        <v>2.5995493751535421</v>
+      </c>
+      <c r="E19" s="9">
+        <v>4.6274189349221171</v>
+      </c>
+      <c r="F19" s="9">
+        <v>0.23200607620723951</v>
+      </c>
+      <c r="G19" s="9">
+        <v>0.14586405466650079</v>
+      </c>
+      <c r="H19" s="9">
+        <v>18.420279116478248</v>
+      </c>
+      <c r="I19" s="9">
+        <v>-1.596110372527092</v>
+      </c>
+      <c r="J19" s="17">
+        <v>105.85671020709528</v>
       </c>
       <c r="K19" s="22" t="e">
         <v>#NUM!</v>
@@ -14343,40 +14375,40 @@
       <c r="T19" s="17" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="U19" t="s" s="0">
+      <c r="U19" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="n">
-        <v>69.85024095220456</v>
-      </c>
-      <c r="B20" s="10" t="n">
-        <v>40.85344001601254</v>
-      </c>
-      <c r="C20" s="10" t="n">
-        <v>15.005233234372966</v>
-      </c>
-      <c r="D20" s="10" t="n">
-        <v>2.3304504025653445</v>
-      </c>
-      <c r="E20" s="10" t="n">
-        <v>4.515269914950918</v>
-      </c>
-      <c r="F20" s="10" t="n">
-        <v>0.12850160807622152</v>
-      </c>
-      <c r="G20" s="10" t="n">
-        <v>0.30588243707750407</v>
-      </c>
-      <c r="H20" s="10" t="n">
-        <v>12.898546373479826</v>
-      </c>
-      <c r="I20" s="10" t="n">
-        <v>-1.945056238164574</v>
-      </c>
-      <c r="J20" s="18" t="n">
-        <v>110.63013296337449</v>
+      <c r="A20" s="10">
+        <v>73.258546583426778</v>
+      </c>
+      <c r="B20" s="10">
+        <v>40.731479906349961</v>
+      </c>
+      <c r="C20" s="10">
+        <v>15.266549871480652</v>
+      </c>
+      <c r="D20" s="10">
+        <v>2.4155913875248856</v>
+      </c>
+      <c r="E20" s="10">
+        <v>4.6439524187691017</v>
+      </c>
+      <c r="F20" s="10">
+        <v>0.1742462769815934</v>
+      </c>
+      <c r="G20" s="10">
+        <v>0.28108292231081977</v>
+      </c>
+      <c r="H20" s="10">
+        <v>16.258261312117622</v>
+      </c>
+      <c r="I20" s="10">
+        <v>-1.6744705379239349</v>
+      </c>
+      <c r="J20" s="18">
+        <v>115.63379335027679</v>
       </c>
       <c r="K20" s="23" t="e">
         <v>#NUM!</v>
@@ -14408,40 +14440,40 @@
       <c r="T20" s="18" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="U20" t="s" s="0">
+      <c r="U20" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="10" t="n">
-        <v>67.13090959234269</v>
-      </c>
-      <c r="B21" s="10" t="n">
-        <v>33.80720014316137</v>
-      </c>
-      <c r="C21" s="10" t="n">
-        <v>13.896841741795896</v>
-      </c>
-      <c r="D21" s="10" t="n">
-        <v>2.187356902416091</v>
-      </c>
-      <c r="E21" s="10" t="n">
-        <v>4.309891163909908</v>
-      </c>
-      <c r="F21" s="10" t="n">
-        <v>0.17192647192699945</v>
-      </c>
-      <c r="G21" s="10" t="n">
-        <v>0.203924378914817</v>
-      </c>
-      <c r="H21" s="10" t="n">
-        <v>18.037503217490077</v>
-      </c>
-      <c r="I21" s="10" t="n">
-        <v>-1.1670170225192593</v>
-      </c>
-      <c r="J21" s="18" t="n">
-        <v>97.44330296184104</v>
+      <c r="A21" s="10">
+        <v>69.685568081826872</v>
+      </c>
+      <c r="B21" s="10">
+        <v>33.818222287910018</v>
+      </c>
+      <c r="C21" s="10">
+        <v>13.58368548082044</v>
+      </c>
+      <c r="D21" s="10">
+        <v>2.3326500549079179</v>
+      </c>
+      <c r="E21" s="10">
+        <v>4.3559638181781972</v>
+      </c>
+      <c r="F21" s="10">
+        <v>0.18162730872176333</v>
+      </c>
+      <c r="G21" s="10">
+        <v>0.18004655878292658</v>
+      </c>
+      <c r="H21" s="10">
+        <v>20.984409939934164</v>
+      </c>
+      <c r="I21" s="10">
+        <v>-1.0469474615900247</v>
+      </c>
+      <c r="J21" s="18">
+        <v>97.770187537503134</v>
       </c>
       <c r="K21" s="23" t="e">
         <v>#NUM!</v>
@@ -14473,46 +14505,46 @@
       <c r="T21" s="18" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="U21" t="s" s="0">
+      <c r="U21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="n">
-        <v>64.58579848377842</v>
-      </c>
-      <c r="B22" s="9" t="n">
-        <v>28.330978812835166</v>
-      </c>
-      <c r="C22" s="9" t="n">
-        <v>14.126311118744955</v>
-      </c>
-      <c r="D22" s="9" t="n">
-        <v>2.422268602414059</v>
-      </c>
-      <c r="E22" s="9" t="n">
-        <v>4.405621686199727</v>
-      </c>
-      <c r="F22" s="9" t="n">
-        <v>0.29166053908878625</v>
-      </c>
-      <c r="G22" s="9" t="n">
-        <v>0.06538234212690738</v>
-      </c>
-      <c r="H22" s="9" t="n">
-        <v>18.90969085489131</v>
-      </c>
-      <c r="I22" s="9" t="n">
-        <v>-0.8825879582293084</v>
-      </c>
-      <c r="J22" s="17" t="n">
-        <v>92.0211527703514</v>
-      </c>
-      <c r="K22" s="22" t="n">
-        <v>73.0</v>
-      </c>
-      <c r="L22" s="9" t="n">
-        <v>30.0</v>
+      <c r="A22" s="9">
+        <v>65.391109390501811</v>
+      </c>
+      <c r="B22" s="9">
+        <v>27.853889408301605</v>
+      </c>
+      <c r="C22" s="9">
+        <v>13.147313031346116</v>
+      </c>
+      <c r="D22" s="9">
+        <v>2.5067489792940534</v>
+      </c>
+      <c r="E22" s="9">
+        <v>4.3154914600301968</v>
+      </c>
+      <c r="F22" s="9">
+        <v>0.25253516061261622</v>
+      </c>
+      <c r="G22" s="9">
+        <v>6.095509838857701E-2</v>
+      </c>
+      <c r="H22" s="9">
+        <v>22.073506607542384</v>
+      </c>
+      <c r="I22" s="9">
+        <v>-0.93398468173483484</v>
+      </c>
+      <c r="J22" s="17">
+        <v>89.65214919518526</v>
+      </c>
+      <c r="K22" s="22">
+        <v>73</v>
+      </c>
+      <c r="L22" s="9">
+        <v>30</v>
       </c>
       <c r="M22" s="9" t="e">
         <v>#NUM!</v>
@@ -14532,46 +14564,46 @@
       <c r="R22" s="9" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="S22" s="9" t="n">
-        <v>-0.0</v>
+      <c r="S22" s="9">
+        <v>0</v>
       </c>
       <c r="T22" s="17" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="U22" t="s" s="0">
+      <c r="U22" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="n">
-        <v>67.98457359834205</v>
-      </c>
-      <c r="B23" s="10" t="n">
-        <v>34.93812783289157</v>
-      </c>
-      <c r="C23" s="10" t="n">
-        <v>14.042373557352871</v>
-      </c>
-      <c r="D23" s="10" t="n">
-        <v>2.1891090612418846</v>
-      </c>
-      <c r="E23" s="10" t="n">
-        <v>4.31807271771424</v>
-      </c>
-      <c r="F23" s="10" t="n">
-        <v>0.17494805451391107</v>
-      </c>
-      <c r="G23" s="10" t="n">
-        <v>0.21038694158517282</v>
-      </c>
-      <c r="H23" s="10" t="n">
-        <v>17.572807239147128</v>
-      </c>
-      <c r="I23" s="10" t="n">
-        <v>-1.1503542514477807</v>
-      </c>
-      <c r="J23" s="18" t="n">
-        <v>97.91014798055927</v>
+      <c r="A23" s="10">
+        <v>70.485111932853798</v>
+      </c>
+      <c r="B23" s="10">
+        <v>35.154098201573923</v>
+      </c>
+      <c r="C23" s="10">
+        <v>13.844166536719431</v>
+      </c>
+      <c r="D23" s="10">
+        <v>2.3227909916653973</v>
+      </c>
+      <c r="E23" s="10">
+        <v>4.3320249438771814</v>
+      </c>
+      <c r="F23" s="10">
+        <v>0.1947753613869701</v>
+      </c>
+      <c r="G23" s="10">
+        <v>0.196173966032896</v>
+      </c>
+      <c r="H23" s="10">
+        <v>19.911488803181754</v>
+      </c>
+      <c r="I23" s="10">
+        <v>-1.0123448471316778</v>
+      </c>
+      <c r="J23" s="18">
+        <v>99.429232338366802</v>
       </c>
       <c r="K23" s="23" t="e">
         <v>#NUM!</v>
@@ -14603,100 +14635,100 @@
       <c r="T23" s="18" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="U23" t="s" s="0">
+      <c r="U23" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="19" t="n">
-        <v>65.26524223848021</v>
-      </c>
-      <c r="B24" s="19" t="n">
-        <v>27.891887960040396</v>
-      </c>
-      <c r="C24" s="19" t="n">
-        <v>12.933982064775805</v>
-      </c>
-      <c r="D24" s="19" t="n">
-        <v>2.046015561092631</v>
-      </c>
-      <c r="E24" s="19" t="n">
-        <v>4.112693966673231</v>
-      </c>
-      <c r="F24" s="19" t="n">
-        <v>0.21837291836468906</v>
-      </c>
-      <c r="G24" s="19" t="n">
-        <v>0.10842888342248572</v>
-      </c>
-      <c r="H24" s="19" t="n">
-        <v>22.711764083157377</v>
-      </c>
-      <c r="I24" s="19" t="n">
-        <v>-0.3723150358024664</v>
-      </c>
-      <c r="J24" s="20" t="n">
-        <v>84.72331797902581</v>
-      </c>
-      <c r="K24" s="24" t="n">
-        <v>63.201149425670074</v>
-      </c>
-      <c r="L24" s="19" t="n">
-        <v>29.02298850589806</v>
-      </c>
-      <c r="M24" s="19" t="n">
-        <v>12.741379310522712</v>
-      </c>
-      <c r="N24" s="19" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="O24" s="19" t="n">
-        <v>4.2873563218498605</v>
-      </c>
-      <c r="P24" s="19" t="n">
-        <v>0.14367816092493066</v>
-      </c>
-      <c r="Q24" s="19" t="n">
-        <v>0.14367816092493066</v>
-      </c>
-      <c r="R24" s="19" t="n">
-        <v>21.436781609249305</v>
-      </c>
-      <c r="S24" s="19" t="n">
-        <v>-0.0</v>
-      </c>
-      <c r="T24" s="20" t="n">
-        <v>76.89834309861402</v>
-      </c>
-      <c r="U24" t="s" s="0">
+      <c r="A24" s="19">
+        <v>66.912133431253878</v>
+      </c>
+      <c r="B24" s="19">
+        <v>28.240840583133981</v>
+      </c>
+      <c r="C24" s="19">
+        <v>12.161302146059219</v>
+      </c>
+      <c r="D24" s="19">
+        <v>2.2398496590484291</v>
+      </c>
+      <c r="E24" s="19">
+        <v>4.0440363432862769</v>
+      </c>
+      <c r="F24" s="19">
+        <v>0.20215639312714004</v>
+      </c>
+      <c r="G24" s="19">
+        <v>9.5137602505002777E-2</v>
+      </c>
+      <c r="H24" s="19">
+        <v>24.637637430998304</v>
+      </c>
+      <c r="I24" s="19">
+        <v>-0.3848217707977678</v>
+      </c>
+      <c r="J24" s="20">
+        <v>81.565626525593146</v>
+      </c>
+      <c r="K24" s="24">
+        <v>65.016795865832179</v>
+      </c>
+      <c r="L24" s="19">
+        <v>29.739018087933815</v>
+      </c>
+      <c r="M24" s="19">
+        <v>13.585271317922</v>
+      </c>
+      <c r="N24" s="19">
+        <v>2</v>
+      </c>
+      <c r="O24" s="19">
+        <v>4.3385012919952723</v>
+      </c>
+      <c r="P24" s="19">
+        <v>0.16925064599763637</v>
+      </c>
+      <c r="Q24" s="19">
+        <v>0.16925064599763637</v>
+      </c>
+      <c r="R24" s="19">
+        <v>21.692506459976364</v>
+      </c>
+      <c r="S24" s="19">
+        <v>0</v>
+      </c>
+      <c r="T24" s="20">
+        <v>81.056207478780209</v>
+      </c>
+      <c r="U24" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="56" t="s">
+      <c r="A25" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="58" t="s">
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="L25" s="56"/>
-      <c r="M25" s="56"/>
-      <c r="N25" s="56"/>
-      <c r="O25" s="56"/>
-      <c r="P25" s="56"/>
-      <c r="Q25" s="56"/>
-      <c r="R25" s="56"/>
-      <c r="S25" s="56"/>
-      <c r="T25" s="57"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="57"/>
+      <c r="O25" s="57"/>
+      <c r="P25" s="57"/>
+      <c r="Q25" s="57"/>
+      <c r="R25" s="57"/>
+      <c r="S25" s="57"/>
+      <c r="T25" s="58"/>
     </row>
     <row r="26" spans="1:22" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="15" t="s">
@@ -14762,35 +14794,35 @@
       <c r="U26" s="15"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="n">
-        <v>62.75267476448255</v>
-      </c>
-      <c r="B27" s="12" t="n">
-        <v>30.87266255670658</v>
-      </c>
-      <c r="C27" s="12" t="n">
-        <v>16.236256254920384</v>
-      </c>
-      <c r="D27" s="12" t="n">
-        <v>2.8973776135714004</v>
-      </c>
-      <c r="E27" s="12" t="n">
-        <v>4.821100426052576</v>
-      </c>
-      <c r="F27" s="12" t="n">
-        <v>0.3633467256395295</v>
-      </c>
-      <c r="G27" s="12" t="n">
-        <v>0.07200749314522265</v>
-      </c>
-      <c r="H27" s="12" t="n">
-        <v>12.625767070721038</v>
-      </c>
-      <c r="I27" s="9" t="n">
-        <v>-1.3839643703679443</v>
-      </c>
-      <c r="J27" s="17" t="n">
-        <v>102.86286572639705</v>
+      <c r="A27" s="9">
+        <v>64.194327985469016</v>
+      </c>
+      <c r="B27" s="12">
+        <v>29.809958091858903</v>
+      </c>
+      <c r="C27" s="12">
+        <v>15.162733551357784</v>
+      </c>
+      <c r="D27" s="12">
+        <v>2.8316239215590087</v>
+      </c>
+      <c r="E27" s="12">
+        <v>4.7089687467805348</v>
+      </c>
+      <c r="F27" s="12">
+        <v>0.30413653646121575</v>
+      </c>
+      <c r="G27" s="12">
+        <v>7.2454928292065165E-2</v>
+      </c>
+      <c r="H27" s="12">
+        <v>16.81213046917421</v>
+      </c>
+      <c r="I27" s="9">
+        <v>-1.4009306054828301</v>
+      </c>
+      <c r="J27" s="17">
+        <v>101.22503992862249</v>
       </c>
       <c r="K27" s="22" t="e">
         <v>#NUM!</v>
@@ -14822,43 +14854,43 @@
       <c r="T27" s="17" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="U27" t="s" s="0">
+      <c r="U27" t="s">
         <v>33</v>
       </c>
-      <c r="V27" t="s" s="0">
+      <c r="V27" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="n">
-        <v>66.15144987904621</v>
-      </c>
-      <c r="B28" s="13" t="n">
-        <v>37.47981157676298</v>
-      </c>
-      <c r="C28" s="13" t="n">
-        <v>16.1523186935283</v>
-      </c>
-      <c r="D28" s="13" t="n">
-        <v>2.664218072399227</v>
-      </c>
-      <c r="E28" s="13" t="n">
-        <v>4.733551457567089</v>
-      </c>
-      <c r="F28" s="13" t="n">
-        <v>0.2466342410646544</v>
-      </c>
-      <c r="G28" s="13" t="n">
-        <v>0.2170120926034881</v>
-      </c>
-      <c r="H28" s="13" t="n">
-        <v>11.288883454976858</v>
-      </c>
-      <c r="I28" s="10" t="n">
-        <v>-1.651730663586417</v>
-      </c>
-      <c r="J28" s="18" t="n">
-        <v>108.75186093660496</v>
+      <c r="A28" s="10">
+        <v>69.288330527820989</v>
+      </c>
+      <c r="B28" s="13">
+        <v>37.110166885131221</v>
+      </c>
+      <c r="C28" s="13">
+        <v>15.859587056731096</v>
+      </c>
+      <c r="D28" s="13">
+        <v>2.6476659339303525</v>
+      </c>
+      <c r="E28" s="13">
+        <v>4.7255022306275194</v>
+      </c>
+      <c r="F28" s="13">
+        <v>0.24637673723556958</v>
+      </c>
+      <c r="G28" s="13">
+        <v>0.20767379593638419</v>
+      </c>
+      <c r="H28" s="13">
+        <v>14.650112664813582</v>
+      </c>
+      <c r="I28" s="10">
+        <v>-1.479290770879673</v>
+      </c>
+      <c r="J28" s="18">
+        <v>111.00212307180404</v>
       </c>
       <c r="K28" s="23" t="e">
         <v>#NUM!</v>
@@ -14890,40 +14922,40 @@
       <c r="T28" s="18" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="U28" t="s" s="0">
+      <c r="U28" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="10" t="n">
-        <v>63.43211851918435</v>
-      </c>
-      <c r="B29" s="13" t="n">
-        <v>30.433571703911802</v>
-      </c>
-      <c r="C29" s="13" t="n">
-        <v>15.04392720095123</v>
-      </c>
-      <c r="D29" s="13" t="n">
-        <v>2.521124572249973</v>
-      </c>
-      <c r="E29" s="13" t="n">
-        <v>4.52817270652608</v>
-      </c>
-      <c r="F29" s="13" t="n">
-        <v>0.29005910491543235</v>
-      </c>
-      <c r="G29" s="13" t="n">
-        <v>0.11505403444080098</v>
-      </c>
-      <c r="H29" s="13" t="n">
-        <v>16.427840298987107</v>
-      </c>
-      <c r="I29" s="10" t="n">
-        <v>-0.8736914479411025</v>
-      </c>
-      <c r="J29" s="18" t="n">
-        <v>95.5650309350715</v>
+      <c r="A29" s="10">
+        <v>65.715352026221098</v>
+      </c>
+      <c r="B29" s="13">
+        <v>30.196909266691286</v>
+      </c>
+      <c r="C29" s="13">
+        <v>14.176722666070887</v>
+      </c>
+      <c r="D29" s="13">
+        <v>2.5647246013133844</v>
+      </c>
+      <c r="E29" s="13">
+        <v>4.4375136300366149</v>
+      </c>
+      <c r="F29" s="13">
+        <v>0.25375776897573954</v>
+      </c>
+      <c r="G29" s="13">
+        <v>0.10663743240849093</v>
+      </c>
+      <c r="H29" s="13">
+        <v>19.376261292630126</v>
+      </c>
+      <c r="I29" s="10">
+        <v>-0.85176769454576284</v>
+      </c>
+      <c r="J29" s="18">
+        <v>93.138517259030394</v>
       </c>
       <c r="K29" s="23" t="e">
         <v>#NUM!</v>
@@ -14955,40 +14987,40 @@
       <c r="T29" s="18" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="U29" t="s" s="0">
+      <c r="U29" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="n">
-        <v>67.23885014310885</v>
-      </c>
-      <c r="B30" s="12" t="n">
-        <v>37.13912083182939</v>
-      </c>
-      <c r="C30" s="12" t="n">
-        <v>15.798984891819407</v>
-      </c>
-      <c r="D30" s="12" t="n">
-        <v>2.635045232552796</v>
-      </c>
-      <c r="E30" s="12" t="n">
-        <v>4.6899199432562835</v>
-      </c>
-      <c r="F30" s="12" t="n">
-        <v>0.23715020252089522</v>
-      </c>
-      <c r="G30" s="12" t="n">
-        <v>0.21110100525634828</v>
-      </c>
-      <c r="H30" s="12" t="n">
-        <v>12.171162224262591</v>
-      </c>
-      <c r="I30" s="9" t="n">
-        <v>-1.6545168400629486</v>
-      </c>
-      <c r="J30" s="17" t="n">
-        <v>107.8431551339296</v>
+      <c r="A30" s="9">
+        <v>69.277401989215974</v>
+      </c>
+      <c r="B30" s="12">
+        <v>36.499732116770971</v>
+      </c>
+      <c r="C30" s="12">
+        <v>15.248250396592434</v>
+      </c>
+      <c r="D30" s="12">
+        <v>2.5931951160274598</v>
+      </c>
+      <c r="E30" s="12">
+        <v>4.6211468310033625</v>
+      </c>
+      <c r="F30" s="12">
+        <v>0.23326182941524293</v>
+      </c>
+      <c r="G30" s="12">
+        <v>0.19473531807945813</v>
+      </c>
+      <c r="H30" s="12">
+        <v>16.201115494782766</v>
+      </c>
+      <c r="I30" s="9">
+        <v>-1.4956343150245932</v>
+      </c>
+      <c r="J30" s="17">
+        <v>108.93402147334413</v>
       </c>
       <c r="K30" s="22" t="e">
         <v>#NUM!</v>
@@ -15020,105 +15052,105 @@
       <c r="T30" s="17" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="U30" t="s" s="0">
+      <c r="U30" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="n">
-        <v>70.6376252576725</v>
-      </c>
-      <c r="B31" s="13" t="n">
-        <v>43.746269851885785</v>
-      </c>
-      <c r="C31" s="13" t="n">
-        <v>15.715047330427328</v>
-      </c>
-      <c r="D31" s="13" t="n">
-        <v>2.4018856913806226</v>
-      </c>
-      <c r="E31" s="13" t="n">
-        <v>4.602370974770797</v>
-      </c>
-      <c r="F31" s="13" t="n">
-        <v>0.12043771794602007</v>
-      </c>
-      <c r="G31" s="13" t="n">
-        <v>0.3561056047146137</v>
-      </c>
-      <c r="H31" s="13" t="n">
-        <v>10.834278608518412</v>
-      </c>
-      <c r="I31" s="10" t="n">
-        <v>-1.922283133281421</v>
-      </c>
-      <c r="J31" s="18" t="n">
-        <v>113.73215034413748</v>
-      </c>
-      <c r="K31" s="23" t="n">
-        <v>70.60762510032772</v>
-      </c>
-      <c r="L31" s="13" t="n">
-        <v>45.055599682434995</v>
-      </c>
-      <c r="M31" s="13" t="n">
-        <v>15.833200953251318</v>
-      </c>
-      <c r="N31" s="13" t="n">
-        <v>2.4244004171083042</v>
-      </c>
-      <c r="O31" s="13" t="n">
-        <v>4.642335766448563</v>
-      </c>
-      <c r="P31" s="13" t="n">
-        <v>0.11366006258184523</v>
-      </c>
-      <c r="Q31" s="13" t="n">
-        <v>0.3660062565111129</v>
-      </c>
-      <c r="R31" s="13" t="n">
-        <v>10.285941223928274</v>
-      </c>
-      <c r="S31" s="13" t="n">
-        <v>-1.9698173152457137</v>
-      </c>
-      <c r="T31" s="18" t="n">
-        <v>114.55540918708306</v>
-      </c>
-      <c r="U31" t="s" s="0">
+      <c r="A31" s="10">
+        <v>74.371404531567947</v>
+      </c>
+      <c r="B31" s="13">
+        <v>43.799940910043297</v>
+      </c>
+      <c r="C31" s="13">
+        <v>15.945103901965748</v>
+      </c>
+      <c r="D31" s="13">
+        <v>2.4092371283988032</v>
+      </c>
+      <c r="E31" s="13">
+        <v>4.6376803148503472</v>
+      </c>
+      <c r="F31" s="13">
+        <v>0.17550203018959676</v>
+      </c>
+      <c r="G31" s="13">
+        <v>0.3299541857237771</v>
+      </c>
+      <c r="H31" s="13">
+        <v>14.039097690422139</v>
+      </c>
+      <c r="I31" s="10">
+        <v>-1.5739944804214361</v>
+      </c>
+      <c r="J31" s="18">
+        <v>118.71110461652566</v>
+      </c>
+      <c r="K31" s="23">
+        <v>74.535071434279288</v>
+      </c>
+      <c r="L31" s="13">
+        <v>45.582775042337076</v>
+      </c>
+      <c r="M31" s="13">
+        <v>16.333360238993215</v>
+      </c>
+      <c r="N31" s="13">
+        <v>2.453109789076342</v>
+      </c>
+      <c r="O31" s="13">
+        <v>4.741373715523725</v>
+      </c>
+      <c r="P31" s="13">
+        <v>0.17490535424202625</v>
+      </c>
+      <c r="Q31" s="13">
+        <v>0.34926987561595862</v>
+      </c>
+      <c r="R31" s="13">
+        <v>13.007506659039624</v>
+      </c>
+      <c r="S31" s="13">
+        <v>-1.6530793445838095</v>
+      </c>
+      <c r="T31" s="18">
+        <v>121.81631418651652</v>
+      </c>
+      <c r="U31" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="10" t="n">
-        <v>67.91829389781063</v>
-      </c>
-      <c r="B32" s="13" t="n">
-        <v>36.70002997903461</v>
-      </c>
-      <c r="C32" s="13" t="n">
-        <v>14.606655837850258</v>
-      </c>
-      <c r="D32" s="13" t="n">
-        <v>2.258792191231369</v>
-      </c>
-      <c r="E32" s="13" t="n">
-        <v>4.396992223729788</v>
-      </c>
-      <c r="F32" s="13" t="n">
-        <v>0.16386258179679802</v>
-      </c>
-      <c r="G32" s="13" t="n">
-        <v>0.2541475465519266</v>
-      </c>
-      <c r="H32" s="13" t="n">
-        <v>15.97323545252866</v>
-      </c>
-      <c r="I32" s="10" t="n">
-        <v>-1.1442439176361066</v>
-      </c>
-      <c r="J32" s="18" t="n">
-        <v>100.54532034260403</v>
+      <c r="A32" s="10">
+        <v>70.798426029968056</v>
+      </c>
+      <c r="B32" s="13">
+        <v>36.886683291603354</v>
+      </c>
+      <c r="C32" s="13">
+        <v>14.262239511305538</v>
+      </c>
+      <c r="D32" s="13">
+        <v>2.3262957957818355</v>
+      </c>
+      <c r="E32" s="13">
+        <v>4.3496917142594427</v>
+      </c>
+      <c r="F32" s="13">
+        <v>0.18288306192976669</v>
+      </c>
+      <c r="G32" s="13">
+        <v>0.22891782219588391</v>
+      </c>
+      <c r="H32" s="13">
+        <v>18.765246318238685</v>
+      </c>
+      <c r="I32" s="10">
+        <v>-0.94647140408752595</v>
+      </c>
+      <c r="J32" s="18">
+        <v>100.84749880375199</v>
       </c>
       <c r="K32" s="23" t="e">
         <v>#NUM!</v>
@@ -15150,45 +15182,45 @@
       <c r="T32" s="18" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="U32" t="s" s="0">
+      <c r="U32" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A33" s="9" t="n">
-        <v>65.37318278924636</v>
-      </c>
-      <c r="B33" s="12" t="n">
-        <v>31.22380864870841</v>
-      </c>
-      <c r="C33" s="12" t="n">
-        <v>14.836125214799315</v>
-      </c>
-      <c r="D33" s="12" t="n">
-        <v>2.4937038912293366</v>
-      </c>
-      <c r="E33" s="12" t="n">
-        <v>4.492722746019607</v>
-      </c>
-      <c r="F33" s="12" t="n">
-        <v>0.28359664895858483</v>
-      </c>
-      <c r="G33" s="12" t="n">
-        <v>0.11560550976401698</v>
-      </c>
-      <c r="H33" s="12" t="n">
-        <v>16.845423089929895</v>
-      </c>
-      <c r="I33" s="9" t="n">
-        <v>-0.8598148533461554</v>
-      </c>
-      <c r="J33" s="17" t="n">
-        <v>95.12317015111438</v>
-      </c>
-      <c r="K33" s="22" t="n">
-        <v>69.0</v>
-      </c>
-      <c r="L33" s="12" t="n">
+      <c r="A33" s="9">
+        <v>66.50396733864298</v>
+      </c>
+      <c r="B33" s="12">
+        <v>30.922350411994938</v>
+      </c>
+      <c r="C33" s="12">
+        <v>13.825867061831213</v>
+      </c>
+      <c r="D33" s="12">
+        <v>2.500394720167971</v>
+      </c>
+      <c r="E33" s="12">
+        <v>4.3092193561114431</v>
+      </c>
+      <c r="F33" s="12">
+        <v>0.25379091382061963</v>
+      </c>
+      <c r="G33" s="12">
+        <v>0.10982636180153434</v>
+      </c>
+      <c r="H33" s="12">
+        <v>19.854342985846905</v>
+      </c>
+      <c r="I33" s="9">
+        <v>-0.83350862423233596</v>
+      </c>
+      <c r="J33" s="17">
+        <v>92.729460461434144</v>
+      </c>
+      <c r="K33" s="22">
+        <v>68.999999999999986</v>
+      </c>
+      <c r="L33" s="12">
         <v>29.999999999999996</v>
       </c>
       <c r="M33" s="12" t="e">
@@ -15209,46 +15241,46 @@
       <c r="R33" s="12" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="S33" s="12" t="n">
-        <v>-0.0</v>
+      <c r="S33" s="12">
+        <v>0</v>
       </c>
       <c r="T33" s="17" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="U33" t="s" s="0">
+      <c r="U33" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A34" s="10" t="n">
-        <v>68.77195790381</v>
-      </c>
-      <c r="B34" s="13" t="n">
-        <v>37.83095766876481</v>
-      </c>
-      <c r="C34" s="13" t="n">
-        <v>14.752187653407233</v>
-      </c>
-      <c r="D34" s="13" t="n">
-        <v>2.2605443500571623</v>
-      </c>
-      <c r="E34" s="13" t="n">
-        <v>4.405173777534119</v>
-      </c>
-      <c r="F34" s="13" t="n">
-        <v>0.16688416438370965</v>
-      </c>
-      <c r="G34" s="13" t="n">
-        <v>0.26061010922228245</v>
-      </c>
-      <c r="H34" s="13" t="n">
-        <v>15.508539474185714</v>
-      </c>
-      <c r="I34" s="10" t="n">
-        <v>-1.127581146564628</v>
-      </c>
-      <c r="J34" s="18" t="n">
-        <v>101.01216536132226</v>
+      <c r="A34" s="10">
+        <v>71.597969880994967</v>
+      </c>
+      <c r="B34" s="13">
+        <v>38.22255920526726</v>
+      </c>
+      <c r="C34" s="13">
+        <v>14.522720567204527</v>
+      </c>
+      <c r="D34" s="13">
+        <v>2.3164367325393149</v>
+      </c>
+      <c r="E34" s="13">
+        <v>4.3257528399584277</v>
+      </c>
+      <c r="F34" s="13">
+        <v>0.19603111459497347</v>
+      </c>
+      <c r="G34" s="13">
+        <v>0.24504522944585333</v>
+      </c>
+      <c r="H34" s="13">
+        <v>17.692325181486275</v>
+      </c>
+      <c r="I34" s="10">
+        <v>-0.91186878962917883</v>
+      </c>
+      <c r="J34" s="18">
+        <v>102.50654360461566</v>
       </c>
       <c r="K34" s="23" t="e">
         <v>#NUM!</v>
@@ -15280,100 +15312,100 @@
       <c r="T34" s="18" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="U34" t="s" s="0">
+      <c r="U34" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="19" t="n">
-        <v>66.05262654394815</v>
-      </c>
-      <c r="B35" s="25" t="n">
-        <v>30.78471779591364</v>
-      </c>
-      <c r="C35" s="25" t="n">
-        <v>13.643796160830167</v>
-      </c>
-      <c r="D35" s="25" t="n">
-        <v>2.1174508499079088</v>
-      </c>
-      <c r="E35" s="25" t="n">
-        <v>4.199795026493111</v>
-      </c>
-      <c r="F35" s="25" t="n">
-        <v>0.21030902823448763</v>
-      </c>
-      <c r="G35" s="25" t="n">
-        <v>0.15865205105959532</v>
-      </c>
-      <c r="H35" s="25" t="n">
-        <v>20.647496318195962</v>
-      </c>
-      <c r="I35" s="19" t="n">
-        <v>-0.34954193091931357</v>
-      </c>
-      <c r="J35" s="20" t="n">
-        <v>87.82533535978882</v>
-      </c>
-      <c r="K35" s="24" t="n">
-        <v>53.39285713999491</v>
-      </c>
-      <c r="L35" s="25" t="n">
-        <v>9.285714288004081</v>
-      </c>
-      <c r="M35" s="25" t="n">
-        <v>19.642857138659185</v>
-      </c>
-      <c r="N35" s="25" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O35" s="25" t="n">
-        <v>2.6785714279989796</v>
-      </c>
-      <c r="P35" s="25" t="n">
-        <v>0.8928571426663265</v>
-      </c>
-      <c r="Q35" s="25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R35" s="25" t="n">
-        <v>24.46428571333163</v>
-      </c>
-      <c r="S35" s="25" t="n">
-        <v>-0.0</v>
-      </c>
-      <c r="T35" s="20" t="n">
-        <v>119.65465824202485</v>
-      </c>
-      <c r="U35" t="s" s="0">
+      <c r="A35" s="19">
+        <v>68.024991379395061</v>
+      </c>
+      <c r="B35" s="25">
+        <v>31.309301586827313</v>
+      </c>
+      <c r="C35" s="25">
+        <v>12.839856176544316</v>
+      </c>
+      <c r="D35" s="25">
+        <v>2.2334953999223468</v>
+      </c>
+      <c r="E35" s="25">
+        <v>4.0377642393675233</v>
+      </c>
+      <c r="F35" s="25">
+        <v>0.20341214633514343</v>
+      </c>
+      <c r="G35" s="25">
+        <v>0.14400886591796008</v>
+      </c>
+      <c r="H35" s="25">
+        <v>22.418473809302817</v>
+      </c>
+      <c r="I35" s="19">
+        <v>-0.28434571329526892</v>
+      </c>
+      <c r="J35" s="20">
+        <v>84.642937791842002</v>
+      </c>
+      <c r="K35" s="24">
+        <v>48.187500000802082</v>
+      </c>
+      <c r="L35" s="25">
+        <v>13.449999999358333</v>
+      </c>
+      <c r="M35" s="25">
+        <v>12.008333334509722</v>
+      </c>
+      <c r="N35" s="25">
+        <v>1</v>
+      </c>
+      <c r="O35" s="25">
+        <v>1.6375000001604167</v>
+      </c>
+      <c r="P35" s="25">
+        <v>0.54583333338680551</v>
+      </c>
+      <c r="Q35" s="25">
+        <v>0</v>
+      </c>
+      <c r="R35" s="25">
+        <v>22.729166666934027</v>
+      </c>
+      <c r="S35" s="25">
+        <v>0</v>
+      </c>
+      <c r="T35" s="20">
+        <v>79.117333951344733</v>
+      </c>
+      <c r="U35" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="56" t="s">
+      <c r="A36" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="56"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="56"/>
-      <c r="J36" s="57"/>
-      <c r="K36" s="58" t="s">
+      <c r="B36" s="57"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="58"/>
+      <c r="K36" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="L36" s="56"/>
-      <c r="M36" s="56"/>
-      <c r="N36" s="56"/>
-      <c r="O36" s="56"/>
-      <c r="P36" s="56"/>
-      <c r="Q36" s="56"/>
-      <c r="R36" s="56"/>
-      <c r="S36" s="56"/>
-      <c r="T36" s="57"/>
+      <c r="L36" s="57"/>
+      <c r="M36" s="57"/>
+      <c r="N36" s="57"/>
+      <c r="O36" s="57"/>
+      <c r="P36" s="57"/>
+      <c r="Q36" s="57"/>
+      <c r="R36" s="57"/>
+      <c r="S36" s="57"/>
+      <c r="T36" s="58"/>
     </row>
     <row r="37" spans="1:22" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="15" t="s">
@@ -15439,106 +15471,106 @@
       <c r="U37" s="15"/>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A38" s="9" t="n">
-        <v>60.95721022673181</v>
-      </c>
-      <c r="B38" s="9" t="n">
-        <v>28.224344403878916</v>
-      </c>
-      <c r="C38" s="9" t="n">
-        <v>16.36234552883178</v>
-      </c>
-      <c r="D38" s="9" t="n">
-        <v>3.102952743674796</v>
-      </c>
-      <c r="E38" s="9" t="n">
-        <v>4.9315934627654885</v>
-      </c>
-      <c r="F38" s="9" t="n">
-        <v>0.41321118807180357</v>
-      </c>
-      <c r="G38" s="9" t="n">
-        <v>0.00365184799795104</v>
-      </c>
-      <c r="H38" s="9" t="n">
-        <v>13.009203588027736</v>
-      </c>
-      <c r="I38" s="9" t="n">
-        <v>-1.1284975185945867</v>
-      </c>
-      <c r="J38" s="17" t="n">
-        <v>98.5292372532197</v>
-      </c>
-      <c r="K38" s="22" t="n">
-        <v>55.647281921267705</v>
-      </c>
-      <c r="L38" s="9" t="n">
-        <v>27.701587301341245</v>
-      </c>
-      <c r="M38" s="9" t="n">
-        <v>17.878730158582986</v>
-      </c>
-      <c r="N38" s="9" t="n">
-        <v>3.429101019433519</v>
-      </c>
-      <c r="O38" s="9" t="n">
-        <v>5.196825396768324</v>
-      </c>
-      <c r="P38" s="9" t="n">
-        <v>0.4661723818217156</v>
-      </c>
-      <c r="Q38" s="9" t="n">
-        <v>0.004444444447668148</v>
-      </c>
-      <c r="R38" s="9" t="n">
-        <v>10.04444444447668</v>
-      </c>
-      <c r="S38" s="9" t="n">
-        <v>-0.0</v>
-      </c>
-      <c r="T38" s="17" t="n">
-        <v>89.23197499716709</v>
-      </c>
-      <c r="U38" t="s" s="0">
+      <c r="A38" s="9">
+        <v>62.44947766065453</v>
+      </c>
+      <c r="B38" s="9">
+        <v>27.168743976683867</v>
+      </c>
+      <c r="C38" s="9">
+        <v>14.968540716549507</v>
+      </c>
+      <c r="D38" s="9">
+        <v>3.0173128064958319</v>
+      </c>
+      <c r="E38" s="9">
+        <v>4.7780041892700513</v>
+      </c>
+      <c r="F38" s="9">
+        <v>0.32438039872856306</v>
+      </c>
+      <c r="G38" s="9">
+        <v>1.2113319057468113E-2</v>
+      </c>
+      <c r="H38" s="9">
+        <v>17.329181996875974</v>
+      </c>
+      <c r="I38" s="9">
+        <v>-1.2019406421866381</v>
+      </c>
+      <c r="J38" s="17">
+        <v>94.705100202520612</v>
+      </c>
+      <c r="K38" s="22">
+        <v>54.604551339231307</v>
+      </c>
+      <c r="L38" s="9">
+        <v>26.887963637831572</v>
+      </c>
+      <c r="M38" s="9">
+        <v>17.459942403307355</v>
+      </c>
+      <c r="N38" s="9">
+        <v>3.3329778467383373</v>
+      </c>
+      <c r="O38" s="9">
+        <v>4.9992366677455884</v>
+      </c>
+      <c r="P38" s="9">
+        <v>0.42294827670710611</v>
+      </c>
+      <c r="Q38" s="9">
+        <v>1.8493459631182513E-2</v>
+      </c>
+      <c r="R38" s="9">
+        <v>10.184934596311823</v>
+      </c>
+      <c r="S38" s="9">
+        <v>0</v>
+      </c>
+      <c r="T38" s="17">
+        <v>85.562915002990536</v>
+      </c>
+      <c r="U38" t="s">
         <v>33</v>
       </c>
-      <c r="V38" t="s" s="0">
+      <c r="V38" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A39" s="10" t="n">
-        <v>64.35598534129547</v>
-      </c>
-      <c r="B39" s="10" t="n">
-        <v>34.831493423935314</v>
-      </c>
-      <c r="C39" s="10" t="n">
-        <v>16.278407967439698</v>
-      </c>
-      <c r="D39" s="10" t="n">
-        <v>2.8697932025026227</v>
-      </c>
-      <c r="E39" s="10" t="n">
-        <v>4.844044494280002</v>
-      </c>
-      <c r="F39" s="10" t="n">
-        <v>0.2964987034969284</v>
-      </c>
-      <c r="G39" s="10" t="n">
-        <v>0.14865644745621648</v>
-      </c>
-      <c r="H39" s="10" t="n">
-        <v>11.672319972283555</v>
-      </c>
-      <c r="I39" s="10" t="n">
-        <v>-1.3962638118130593</v>
-      </c>
-      <c r="J39" s="18" t="n">
-        <v>104.4182324634276</v>
-      </c>
-      <c r="K39" s="23" t="n">
-        <v>101.450000000221</v>
+      <c r="A39" s="10">
+        <v>67.54348020300651</v>
+      </c>
+      <c r="B39" s="10">
+        <v>34.468952769956189</v>
+      </c>
+      <c r="C39" s="10">
+        <v>15.665394221922819</v>
+      </c>
+      <c r="D39" s="10">
+        <v>2.8333548188671758</v>
+      </c>
+      <c r="E39" s="10">
+        <v>4.7945376731170359</v>
+      </c>
+      <c r="F39" s="10">
+        <v>0.26662059950291689</v>
+      </c>
+      <c r="G39" s="10">
+        <v>0.1473321867017871</v>
+      </c>
+      <c r="H39" s="10">
+        <v>15.167164192515347</v>
+      </c>
+      <c r="I39" s="10">
+        <v>-1.280300807583481</v>
+      </c>
+      <c r="J39" s="18">
+        <v>104.48218334570213</v>
+      </c>
+      <c r="K39" s="23">
+        <v>101.66395494367676</v>
       </c>
       <c r="L39" s="10" t="e">
         <v>#NUM!</v>
@@ -15561,49 +15593,49 @@
       <c r="R39" s="10" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="S39" s="10" t="n">
-        <v>-0.0</v>
+      <c r="S39" s="10">
+        <v>0</v>
       </c>
       <c r="T39" s="18" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="U39" t="s" s="0">
+      <c r="U39" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="10" t="n">
-        <v>61.63665398143361</v>
-      </c>
-      <c r="B40" s="10" t="n">
-        <v>27.78525355108414</v>
-      </c>
-      <c r="C40" s="10" t="n">
-        <v>15.17001647486263</v>
-      </c>
-      <c r="D40" s="10" t="n">
-        <v>2.7266997023533692</v>
-      </c>
-      <c r="E40" s="10" t="n">
-        <v>4.638665743238993</v>
-      </c>
-      <c r="F40" s="10" t="n">
-        <v>0.3399235673477064</v>
-      </c>
-      <c r="G40" s="10" t="n">
-        <v>0.04669838929352937</v>
-      </c>
-      <c r="H40" s="10" t="n">
-        <v>16.811276816293805</v>
-      </c>
-      <c r="I40" s="10" t="n">
-        <v>-0.6182245961677448</v>
-      </c>
-      <c r="J40" s="18" t="n">
-        <v>91.23140246189413</v>
-      </c>
-      <c r="K40" s="23" t="n">
-        <v>71.0</v>
+      <c r="A40" s="10">
+        <v>63.970501701406604</v>
+      </c>
+      <c r="B40" s="10">
+        <v>27.55569515151625</v>
+      </c>
+      <c r="C40" s="10">
+        <v>13.98252983126261</v>
+      </c>
+      <c r="D40" s="10">
+        <v>2.7504134862502077</v>
+      </c>
+      <c r="E40" s="10">
+        <v>4.5065490725261315</v>
+      </c>
+      <c r="F40" s="10">
+        <v>0.27400163124308685</v>
+      </c>
+      <c r="G40" s="10">
+        <v>4.6295823173893871E-2</v>
+      </c>
+      <c r="H40" s="10">
+        <v>19.893312820331889</v>
+      </c>
+      <c r="I40" s="10">
+        <v>-0.65277773124957095</v>
+      </c>
+      <c r="J40" s="18">
+        <v>86.61857753292847</v>
+      </c>
+      <c r="K40" s="23">
+        <v>71</v>
       </c>
       <c r="L40" s="10" t="e">
         <v>#NUM!</v>
@@ -15626,114 +15658,114 @@
       <c r="R40" s="10" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="S40" s="10" t="n">
-        <v>-0.0</v>
+      <c r="S40" s="10">
+        <v>0</v>
       </c>
       <c r="T40" s="18" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="U40" t="s" s="0">
+      <c r="U40" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A41" s="9" t="n">
-        <v>65.4433856053581</v>
-      </c>
-      <c r="B41" s="9" t="n">
-        <v>34.490802679001725</v>
-      </c>
-      <c r="C41" s="9" t="n">
-        <v>15.925074165730802</v>
-      </c>
-      <c r="D41" s="9" t="n">
-        <v>2.8406203626561917</v>
-      </c>
-      <c r="E41" s="9" t="n">
-        <v>4.800412979969196</v>
-      </c>
-      <c r="F41" s="9" t="n">
-        <v>0.28701466495316924</v>
-      </c>
-      <c r="G41" s="9" t="n">
-        <v>0.14274536010907665</v>
-      </c>
-      <c r="H41" s="9" t="n">
-        <v>12.55459874156929</v>
-      </c>
-      <c r="I41" s="9" t="n">
-        <v>-1.3990499882895908</v>
-      </c>
-      <c r="J41" s="17" t="n">
-        <v>103.50952666075223</v>
-      </c>
-      <c r="K41" s="22" t="n">
-        <v>71.35483870988972</v>
-      </c>
-      <c r="L41" s="9" t="n">
-        <v>32.80645161230885</v>
-      </c>
-      <c r="M41" s="9" t="n">
-        <v>10.304347825212854</v>
-      </c>
-      <c r="N41" s="9" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="O41" s="9" t="n">
-        <v>3.4999999999999996</v>
-      </c>
-      <c r="P41" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q41" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R41" s="9" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="S41" s="9" t="n">
-        <v>-2.096774193406868</v>
-      </c>
-      <c r="T41" s="17" t="n">
-        <v>97.1023898048047</v>
-      </c>
-      <c r="U41" t="s" s="0">
+      <c r="A41" s="9">
+        <v>67.532551664401481</v>
+      </c>
+      <c r="B41" s="9">
+        <v>33.858518001595939</v>
+      </c>
+      <c r="C41" s="9">
+        <v>15.054057561784157</v>
+      </c>
+      <c r="D41" s="9">
+        <v>2.778884000964283</v>
+      </c>
+      <c r="E41" s="9">
+        <v>4.6901822734928782</v>
+      </c>
+      <c r="F41" s="9">
+        <v>0.25350569168259024</v>
+      </c>
+      <c r="G41" s="9">
+        <v>0.13439370884486107</v>
+      </c>
+      <c r="H41" s="9">
+        <v>16.718167022484529</v>
+      </c>
+      <c r="I41" s="9">
+        <v>-1.2966443517284012</v>
+      </c>
+      <c r="J41" s="17">
+        <v>102.41408174724224</v>
+      </c>
+      <c r="K41" s="22">
+        <v>71.894736841988916</v>
+      </c>
+      <c r="L41" s="9">
+        <v>31.294736842431018</v>
+      </c>
+      <c r="M41" s="9">
+        <v>8.5824175827049878</v>
+      </c>
+      <c r="N41" s="9">
+        <v>2</v>
+      </c>
+      <c r="O41" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="P41" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="9">
+        <v>0</v>
+      </c>
+      <c r="R41" s="9">
+        <v>45</v>
+      </c>
+      <c r="S41" s="9">
+        <v>-1.7368421053407199</v>
+      </c>
+      <c r="T41" s="17">
+        <v>84.460186422171603</v>
+      </c>
+      <c r="U41" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A42" s="10" t="n">
-        <v>68.84216071992175</v>
-      </c>
-      <c r="B42" s="10" t="n">
-        <v>41.09795169905812</v>
-      </c>
-      <c r="C42" s="10" t="n">
-        <v>15.841136604338725</v>
-      </c>
-      <c r="D42" s="10" t="n">
-        <v>2.6074608214840183</v>
-      </c>
-      <c r="E42" s="10" t="n">
-        <v>4.71286401148371</v>
-      </c>
-      <c r="F42" s="10" t="n">
-        <v>0.17030218037829412</v>
-      </c>
-      <c r="G42" s="10" t="n">
-        <v>0.2877499595673421</v>
-      </c>
-      <c r="H42" s="10" t="n">
-        <v>11.217715125825109</v>
-      </c>
-      <c r="I42" s="10" t="n">
-        <v>-1.6668162815080632</v>
-      </c>
-      <c r="J42" s="18" t="n">
-        <v>109.39852187096014</v>
-      </c>
-      <c r="K42" s="23" t="n">
-        <v>89.0</v>
+      <c r="A42" s="10">
+        <v>72.626554206753454</v>
+      </c>
+      <c r="B42" s="10">
+        <v>41.158726794868258</v>
+      </c>
+      <c r="C42" s="10">
+        <v>15.750911067157471</v>
+      </c>
+      <c r="D42" s="10">
+        <v>2.5949260133356264</v>
+      </c>
+      <c r="E42" s="10">
+        <v>4.7067157573398628</v>
+      </c>
+      <c r="F42" s="10">
+        <v>0.19574589245694413</v>
+      </c>
+      <c r="G42" s="10">
+        <v>0.26961257648918002</v>
+      </c>
+      <c r="H42" s="10">
+        <v>14.556149218123903</v>
+      </c>
+      <c r="I42" s="10">
+        <v>-1.3750045171252441</v>
+      </c>
+      <c r="J42" s="18">
+        <v>112.19116489042374</v>
+      </c>
+      <c r="K42" s="23">
+        <v>89</v>
       </c>
       <c r="L42" s="10" t="e">
         <v>#NUM!</v>
@@ -15756,46 +15788,46 @@
       <c r="R42" s="10" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="S42" s="10" t="n">
-        <v>-0.0</v>
+      <c r="S42" s="10">
+        <v>0</v>
       </c>
       <c r="T42" s="18" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="U42" t="s" s="0">
+      <c r="U42" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="10" t="n">
-        <v>66.1228293600599</v>
-      </c>
-      <c r="B43" s="10" t="n">
-        <v>34.05171182620695</v>
-      </c>
-      <c r="C43" s="10" t="n">
-        <v>14.732745111761654</v>
-      </c>
-      <c r="D43" s="10" t="n">
-        <v>2.4643673213347648</v>
-      </c>
-      <c r="E43" s="10" t="n">
-        <v>4.5074852604427</v>
-      </c>
-      <c r="F43" s="10" t="n">
-        <v>0.2137270442290721</v>
-      </c>
-      <c r="G43" s="10" t="n">
-        <v>0.18579190140465499</v>
-      </c>
-      <c r="H43" s="10" t="n">
-        <v>16.356671969835357</v>
-      </c>
-      <c r="I43" s="10" t="n">
-        <v>-0.8887770658627488</v>
-      </c>
-      <c r="J43" s="18" t="n">
-        <v>96.21169186942667</v>
+      <c r="A43" s="10">
+        <v>69.053575705153548</v>
+      </c>
+      <c r="B43" s="10">
+        <v>34.245469176428323</v>
+      </c>
+      <c r="C43" s="10">
+        <v>14.068046676497261</v>
+      </c>
+      <c r="D43" s="10">
+        <v>2.5119846807186588</v>
+      </c>
+      <c r="E43" s="10">
+        <v>4.4187271567489592</v>
+      </c>
+      <c r="F43" s="10">
+        <v>0.20312692419711403</v>
+      </c>
+      <c r="G43" s="10">
+        <v>0.16857621296128683</v>
+      </c>
+      <c r="H43" s="10">
+        <v>19.282297845940448</v>
+      </c>
+      <c r="I43" s="10">
+        <v>-0.74748144079133405</v>
+      </c>
+      <c r="J43" s="18">
+        <v>94.327559077650108</v>
       </c>
       <c r="K43" s="23" t="e">
         <v>#NUM!</v>
@@ -15827,43 +15859,43 @@
       <c r="T43" s="18" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="U43" t="s" s="0">
+      <c r="U43" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A44" s="9" t="n">
-        <v>63.57771825149562</v>
-      </c>
-      <c r="B44" s="9" t="n">
-        <v>28.57549049588075</v>
-      </c>
-      <c r="C44" s="9" t="n">
-        <v>14.962214488710714</v>
-      </c>
-      <c r="D44" s="9" t="n">
-        <v>2.6992790213327327</v>
-      </c>
-      <c r="E44" s="9" t="n">
-        <v>4.603215782732519</v>
-      </c>
-      <c r="F44" s="9" t="n">
-        <v>0.3334611113908589</v>
-      </c>
-      <c r="G44" s="9" t="n">
-        <v>0.04724986461674538</v>
-      </c>
-      <c r="H44" s="9" t="n">
-        <v>17.228859607236593</v>
-      </c>
-      <c r="I44" s="9" t="n">
-        <v>-0.6043480015727978</v>
-      </c>
-      <c r="J44" s="17" t="n">
-        <v>90.78954167793704</v>
-      </c>
-      <c r="K44" s="22" t="n">
-        <v>34.0</v>
+      <c r="A44" s="9">
+        <v>64.759117013828487</v>
+      </c>
+      <c r="B44" s="9">
+        <v>28.281136296819902</v>
+      </c>
+      <c r="C44" s="9">
+        <v>13.631674227022936</v>
+      </c>
+      <c r="D44" s="9">
+        <v>2.6860836051047943</v>
+      </c>
+      <c r="E44" s="9">
+        <v>4.3782547986009579</v>
+      </c>
+      <c r="F44" s="9">
+        <v>0.27403477608796695</v>
+      </c>
+      <c r="G44" s="9">
+        <v>4.9484752566937282E-2</v>
+      </c>
+      <c r="H44" s="9">
+        <v>20.371394513548669</v>
+      </c>
+      <c r="I44" s="9">
+        <v>-0.63451866093614417</v>
+      </c>
+      <c r="J44" s="17">
+        <v>86.209520735332219</v>
+      </c>
+      <c r="K44" s="22">
+        <v>34</v>
       </c>
       <c r="L44" s="9" t="e">
         <v>#NUM!</v>
@@ -15886,49 +15918,49 @@
       <c r="R44" s="9" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="S44" s="9" t="n">
-        <v>-0.0</v>
+      <c r="S44" s="9">
+        <v>0</v>
       </c>
       <c r="T44" s="17" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="U44" t="s" s="0">
+      <c r="U44" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A45" s="10" t="n">
-        <v>66.97649336605926</v>
-      </c>
-      <c r="B45" s="10" t="n">
-        <v>35.18263951593715</v>
-      </c>
-      <c r="C45" s="10" t="n">
-        <v>14.878276927318632</v>
-      </c>
-      <c r="D45" s="10" t="n">
-        <v>2.4661194801605584</v>
-      </c>
-      <c r="E45" s="10" t="n">
-        <v>4.515666814247032</v>
-      </c>
-      <c r="F45" s="10" t="n">
-        <v>0.21674862681598367</v>
-      </c>
-      <c r="G45" s="10" t="n">
-        <v>0.19225446407501084</v>
-      </c>
-      <c r="H45" s="10" t="n">
-        <v>15.89197599149241</v>
-      </c>
-      <c r="I45" s="10" t="n">
-        <v>-0.8721142947912701</v>
-      </c>
-      <c r="J45" s="18" t="n">
-        <v>96.67853688814492</v>
-      </c>
-      <c r="K45" s="23" t="n">
-        <v>83.0</v>
+      <c r="A45" s="10">
+        <v>69.853119556180474</v>
+      </c>
+      <c r="B45" s="10">
+        <v>35.581345090092228</v>
+      </c>
+      <c r="C45" s="10">
+        <v>14.32852773239625</v>
+      </c>
+      <c r="D45" s="10">
+        <v>2.5021256174761382</v>
+      </c>
+      <c r="E45" s="10">
+        <v>4.3947882824479425</v>
+      </c>
+      <c r="F45" s="10">
+        <v>0.21627497686232083</v>
+      </c>
+      <c r="G45" s="10">
+        <v>0.18470362021125628</v>
+      </c>
+      <c r="H45" s="10">
+        <v>18.209376709188039</v>
+      </c>
+      <c r="I45" s="10">
+        <v>-0.71287882633298705</v>
+      </c>
+      <c r="J45" s="18">
+        <v>95.986603878513748</v>
+      </c>
+      <c r="K45" s="23">
+        <v>83</v>
       </c>
       <c r="L45" s="10" t="e">
         <v>#NUM!</v>
@@ -15951,78 +15983,78 @@
       <c r="R45" s="10" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="S45" s="10" t="n">
-        <v>-0.0</v>
+      <c r="S45" s="10">
+        <v>0</v>
       </c>
       <c r="T45" s="18" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="U45" t="s" s="0">
+      <c r="U45" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="19" t="n">
-        <v>64.25716200619742</v>
-      </c>
-      <c r="B46" s="19" t="n">
-        <v>28.136399643085973</v>
-      </c>
-      <c r="C46" s="19" t="n">
-        <v>13.769885434741564</v>
-      </c>
-      <c r="D46" s="19" t="n">
-        <v>2.3230259800113044</v>
-      </c>
-      <c r="E46" s="19" t="n">
-        <v>4.310288063206023</v>
-      </c>
-      <c r="F46" s="19" t="n">
-        <v>0.26017349066676165</v>
-      </c>
-      <c r="G46" s="19" t="n">
-        <v>0.09029640591232371</v>
-      </c>
-      <c r="H46" s="19" t="n">
-        <v>21.03093283550266</v>
-      </c>
-      <c r="I46" s="19" t="n">
-        <v>-0.09407507914595584</v>
-      </c>
-      <c r="J46" s="20" t="n">
-        <v>83.49170688661147</v>
-      </c>
-      <c r="K46" s="24" t="n">
-        <v>83.67816092039192</v>
-      </c>
-      <c r="L46" s="19" t="n">
-        <v>39.0</v>
-      </c>
-      <c r="M46" s="19" t="n">
+      <c r="A46" s="19">
+        <v>66.280141054580554</v>
+      </c>
+      <c r="B46" s="19">
+        <v>28.668087471652285</v>
+      </c>
+      <c r="C46" s="19">
+        <v>12.645663341736039</v>
+      </c>
+      <c r="D46" s="19">
+        <v>2.41918428485917</v>
+      </c>
+      <c r="E46" s="19">
+        <v>4.106799681857038</v>
+      </c>
+      <c r="F46" s="19">
+        <v>0.2236560086024908</v>
+      </c>
+      <c r="G46" s="19">
+        <v>8.3667256683363042E-2</v>
+      </c>
+      <c r="H46" s="19">
+        <v>22.935525337004584</v>
+      </c>
+      <c r="I46" s="19">
+        <v>-8.5355749999076996E-2</v>
+      </c>
+      <c r="J46" s="20">
+        <v>78.122998065740106</v>
+      </c>
+      <c r="K46" s="24">
+        <v>85.459599529535083</v>
+      </c>
+      <c r="L46" s="19">
+        <v>39</v>
+      </c>
+      <c r="M46" s="19">
         <v>6.5</v>
       </c>
-      <c r="N46" s="19" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="O46" s="19" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="P46" s="19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q46" s="19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R46" s="19" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="S46" s="19" t="n">
-        <v>-0.0</v>
-      </c>
-      <c r="T46" s="20" t="n">
-        <v>67.46196313619156</v>
-      </c>
-      <c r="U46" t="s" s="0">
+      <c r="N46" s="19">
+        <v>4</v>
+      </c>
+      <c r="O46" s="19">
+        <v>4.4999999999999991</v>
+      </c>
+      <c r="P46" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="19">
+        <v>0</v>
+      </c>
+      <c r="R46" s="19">
+        <v>35</v>
+      </c>
+      <c r="S46" s="19">
+        <v>0</v>
+      </c>
+      <c r="T46" s="20">
+        <v>61.126050657994782</v>
+      </c>
+      <c r="U46" t="s">
         <v>41</v>
       </c>
     </row>
@@ -16030,122 +16062,122 @@
       <c r="J47" s="45"/>
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A50" t="s" s="0">
+      <c r="A50" t="s">
         <v>5</v>
       </c>
-      <c r="J50" t="s" s="0">
+      <c r="J50" t="s">
         <v>5</v>
       </c>
-      <c r="S50" t="s" s="0">
+      <c r="S50" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A51" t="str" s="0">
+      <c r="A51" t="str">
         <f>$U$5</f>
         <v>B+M</v>
       </c>
-      <c r="B51" t="str" s="0">
+      <c r="B51" t="str">
         <f>$U$6</f>
         <v>B+Z</v>
       </c>
-      <c r="C51" t="str" s="0">
+      <c r="C51" t="str">
         <f>$U$7</f>
         <v>B+C</v>
       </c>
-      <c r="D51" t="str" s="0">
+      <c r="D51" t="str">
         <f>$U$8</f>
         <v>E+M</v>
       </c>
-      <c r="E51" t="str" s="0">
+      <c r="E51" t="str">
         <f>$U$9</f>
         <v>E+Z</v>
       </c>
-      <c r="F51" t="str" s="0">
+      <c r="F51" t="str">
         <f>$U$10</f>
         <v>E+C</v>
       </c>
-      <c r="G51" t="str" s="0">
+      <c r="G51" t="str">
         <f>$U$11</f>
         <v>L+M</v>
       </c>
-      <c r="H51" t="str" s="0">
+      <c r="H51" t="str">
         <f>$U$12</f>
         <v>L+Z</v>
       </c>
-      <c r="I51" t="str" s="0">
+      <c r="I51" t="str">
         <f>$U$13</f>
         <v>L+C</v>
       </c>
-      <c r="J51" t="str" s="0">
+      <c r="J51" t="str">
         <f>$U$5</f>
         <v>B+M</v>
       </c>
-      <c r="K51" t="str" s="0">
+      <c r="K51" t="str">
         <f>$U$6</f>
         <v>B+Z</v>
       </c>
-      <c r="L51" t="str" s="0">
+      <c r="L51" t="str">
         <f>$U$7</f>
         <v>B+C</v>
       </c>
-      <c r="M51" t="str" s="0">
+      <c r="M51" t="str">
         <f>$U$8</f>
         <v>E+M</v>
       </c>
-      <c r="N51" t="str" s="0">
+      <c r="N51" t="str">
         <f>$U$9</f>
         <v>E+Z</v>
       </c>
-      <c r="O51" t="str" s="0">
+      <c r="O51" t="str">
         <f>$U$10</f>
         <v>E+C</v>
       </c>
-      <c r="P51" t="str" s="0">
+      <c r="P51" t="str">
         <f>$U$11</f>
         <v>L+M</v>
       </c>
-      <c r="Q51" t="str" s="0">
+      <c r="Q51" t="str">
         <f>$U$12</f>
         <v>L+Z</v>
       </c>
-      <c r="R51" t="str" s="0">
+      <c r="R51" t="str">
         <f>$U$13</f>
         <v>L+C</v>
       </c>
-      <c r="S51" t="str" s="0">
+      <c r="S51" t="str">
         <f>$U$5</f>
         <v>B+M</v>
       </c>
-      <c r="T51" t="str" s="0">
+      <c r="T51" t="str">
         <f>$U$6</f>
         <v>B+Z</v>
       </c>
-      <c r="U51" t="str" s="0">
+      <c r="U51" t="str">
         <f>$U$7</f>
         <v>B+C</v>
       </c>
-      <c r="V51" t="str" s="0">
+      <c r="V51" t="str">
         <f>$U$8</f>
         <v>E+M</v>
       </c>
-      <c r="W51" t="str" s="0">
+      <c r="W51" t="str">
         <f>$U$9</f>
         <v>E+Z</v>
       </c>
-      <c r="X51" t="str" s="0">
+      <c r="X51" t="str">
         <f>$U$10</f>
         <v>E+C</v>
       </c>
-      <c r="Y51" t="str" s="0">
+      <c r="Y51" t="str">
         <f>$U$11</f>
         <v>L+M</v>
       </c>
-      <c r="Z51" t="str" s="0">
+      <c r="Z51" t="str">
         <f>$U$12</f>
         <v>L+Z</v>
       </c>
-      <c r="AA51" t="str" s="0">
+      <c r="AA51" t="str">
         <f>$U$13</f>
         <v>L+C</v>
       </c>

--- a/Red Team Data.xlsx
+++ b/Red Team Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Desktop\FTCStats\FTCStats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9C77EC-2CFE-4D20-B58C-4A268EADCC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19326DF9-F5E3-4770-88C5-D3A9B714030E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView